--- a/Improgress/4. Timelog/PM_TimeLog.xlsx
+++ b/Improgress/4. Timelog/PM_TimeLog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo Legion Y7000\Documents\GitHub\Capstone-Project\Improgress\4. Timelog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{020E2815-BDF1-4F5A-A24B-ECB95DA1ACF1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55F91778-A8B2-40E4-BF6E-A56B29BAEB3A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4969,7 +4969,7 @@
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4977,7 +4977,7 @@
     <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="57.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="49.21875" bestFit="1" customWidth="1"/>
@@ -5073,7 +5073,7 @@
         <v>10</v>
       </c>
       <c r="C5" s="30" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D5" s="17" t="s">
         <v>86</v>
@@ -5100,7 +5100,7 @@
         <v>11</v>
       </c>
       <c r="C6" s="30" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>86</v>
@@ -5179,7 +5179,7 @@
         <v>14</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>87</v>
@@ -5232,7 +5232,7 @@
       </c>
       <c r="I11" s="67"/>
     </row>
-    <row r="12" spans="1:9" ht="30" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="12">
         <v>2</v>
       </c>
@@ -5269,7 +5269,7 @@
         <v>10</v>
       </c>
       <c r="C13" s="30" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>86</v>
@@ -5350,7 +5350,7 @@
         <v>13</v>
       </c>
       <c r="C16" s="30" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>92</v>
@@ -5377,7 +5377,7 @@
         <v>14</v>
       </c>
       <c r="C17" s="30" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>83</v>

--- a/Improgress/4. Timelog/PM_TimeLog.xlsx
+++ b/Improgress/4. Timelog/PM_TimeLog.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo Legion Y7000\Documents\GitHub\Capstone-Project\Improgress\4. Timelog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55F91778-A8B2-40E4-BF6E-A56B29BAEB3A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9959C9E8-29F1-461C-A118-06DD346C9B97}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1116" yWindow="1116" windowWidth="17280" windowHeight="9420" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="7" r:id="rId1"/>
     <sheet name="Đạt Huỳnh" sheetId="8" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="9" r:id="rId3"/>
-    <sheet name="Quốc Nhân" sheetId="10" r:id="rId4"/>
+    <sheet name="Quốc Nhân" sheetId="10" r:id="rId3"/>
+    <sheet name="Vương Trương" sheetId="12" r:id="rId4"/>
+    <sheet name="Anh Minh" sheetId="14" r:id="rId5"/>
+    <sheet name="Như Phương" sheetId="15" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="108">
   <si>
     <t>Work in period</t>
   </si>
@@ -252,9 +254,6 @@
     <t>Create Configuration Management Plan</t>
   </si>
   <si>
-    <t>20/10/2019</t>
-  </si>
-  <si>
     <t>21/10/2019</t>
   </si>
   <si>
@@ -316,16 +315,66 @@
   </si>
   <si>
     <t>Reading Customer Documments</t>
+  </si>
+  <si>
+    <t>research webgis</t>
+  </si>
+  <si>
+    <t>find another app like webgis</t>
+  </si>
+  <si>
+    <t>choose model</t>
+  </si>
+  <si>
+    <t>Install qgis</t>
+  </si>
+  <si>
+    <t>Readding Customer Documments</t>
+  </si>
+  <si>
+    <t>Research WebGIS</t>
+  </si>
+  <si>
+    <t>Readding Incremental Model</t>
+  </si>
+  <si>
+    <t>Readding Geodatabase</t>
+  </si>
+  <si>
+    <t>Setting and research QGIS</t>
+  </si>
+  <si>
+    <t>26/10/2019</t>
+  </si>
+  <si>
+    <t>Research project</t>
+  </si>
+  <si>
+    <t>Complete the meeting minutes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Userstory </t>
+  </si>
+  <si>
+    <t xml:space="preserve">research software process model </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Research GIS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Complete the meeting minutes ; 
+Present document GIS with team </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-1010000]d/m/yy;@"/>
+    <numFmt numFmtId="165" formatCode="[$-1010000]d/m/yyyy;@"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -395,6 +444,14 @@
       <charset val="163"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -859,7 +916,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1018,6 +1075,30 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1035,6 +1116,15 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -3055,7 +3145,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AM14"/>
   <sheetViews>
-    <sheetView zoomScale="93" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="93" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
@@ -4107,17 +4197,17 @@
       <c r="I1" s="26"/>
     </row>
     <row r="2" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="71"/>
+      <c r="B2" s="77"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="79"/>
     </row>
     <row r="3" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="29" t="s">
@@ -4184,7 +4274,7 @@
         <v>18</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E5" s="23" t="s">
         <v>67</v>
@@ -4214,7 +4304,7 @@
         <v>18</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E6" s="21" t="s">
         <v>68</v>
@@ -4241,7 +4331,7 @@
         <v>19</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E7" s="23" t="s">
         <v>69</v>
@@ -4292,7 +4382,7 @@
       <c r="C9" s="12"/>
       <c r="D9" s="2"/>
       <c r="E9" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
@@ -4317,21 +4407,21 @@
       <c r="B11" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="66">
+      <c r="C11" s="74">
         <f>SUM(F4:F10)</f>
         <v>24</v>
       </c>
-      <c r="D11" s="66"/>
-      <c r="E11" s="66"/>
-      <c r="F11" s="67"/>
+      <c r="D11" s="74"/>
+      <c r="E11" s="74"/>
+      <c r="F11" s="75"/>
       <c r="G11" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="66">
+      <c r="H11" s="74">
         <f>SUM(G4:G10)</f>
         <v>24</v>
       </c>
-      <c r="I11" s="67"/>
+      <c r="I11" s="75"/>
     </row>
     <row r="12" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
@@ -4347,7 +4437,7 @@
         <v>70</v>
       </c>
       <c r="E12" s="22" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F12" s="8">
         <v>6</v>
@@ -4374,7 +4464,7 @@
         <v>70</v>
       </c>
       <c r="E13" s="23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F13" s="8">
         <v>6</v>
@@ -4386,7 +4476,7 @@
         <v>21</v>
       </c>
       <c r="I13" s="19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
@@ -4401,7 +4491,7 @@
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F14" s="9">
         <v>4</v>
@@ -4425,10 +4515,10 @@
         <v>19</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E15" s="23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F15" s="9">
         <v>6</v>
@@ -4452,10 +4542,10 @@
         <v>18</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E16" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F16" s="9"/>
       <c r="G16" s="9">
@@ -4475,10 +4565,10 @@
         <v>18</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E17" s="20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F17" s="9"/>
       <c r="G17" s="9">
@@ -4505,21 +4595,21 @@
       <c r="B19" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="66">
+      <c r="C19" s="74">
         <f>SUM(F12:F18)</f>
         <v>22</v>
       </c>
-      <c r="D19" s="66"/>
-      <c r="E19" s="66"/>
-      <c r="F19" s="67"/>
+      <c r="D19" s="74"/>
+      <c r="E19" s="74"/>
+      <c r="F19" s="75"/>
       <c r="G19" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H19" s="66">
+      <c r="H19" s="74">
         <f>SUM(G12:G18)</f>
         <v>34</v>
       </c>
-      <c r="I19" s="67"/>
+      <c r="I19" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -4551,424 +4641,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F29" sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.88671875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="26"/>
-    </row>
-    <row r="2" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="68" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="71"/>
-    </row>
-    <row r="3" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="29" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="I3" s="16" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="12">
-        <v>1</v>
-      </c>
-      <c r="B4" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="D4" s="17"/>
-      <c r="E4" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" s="19"/>
-    </row>
-    <row r="5" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="12">
-        <v>1</v>
-      </c>
-      <c r="B5" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="17"/>
-      <c r="E5" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5" s="19"/>
-    </row>
-    <row r="6" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>1</v>
-      </c>
-      <c r="B6" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="I6" s="3"/>
-    </row>
-    <row r="7" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>1</v>
-      </c>
-      <c r="B7" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="I7" s="3"/>
-    </row>
-    <row r="8" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>1</v>
-      </c>
-      <c r="B8" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="I8" s="3"/>
-    </row>
-    <row r="9" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <v>1</v>
-      </c>
-      <c r="B9" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="I9" s="3"/>
-    </row>
-    <row r="10" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="11"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="5"/>
-    </row>
-    <row r="11" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="66">
-        <f>SUM(F4:F10)</f>
-        <v>0</v>
-      </c>
-      <c r="D11" s="66"/>
-      <c r="E11" s="66"/>
-      <c r="F11" s="67"/>
-      <c r="G11" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H11" s="66">
-        <f>SUM(G4:G10)</f>
-        <v>0</v>
-      </c>
-      <c r="I11" s="67"/>
-    </row>
-    <row r="12" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="12">
-        <v>2</v>
-      </c>
-      <c r="B12" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="17"/>
-      <c r="E12" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="I12" s="19"/>
-    </row>
-    <row r="13" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="12">
-        <v>2</v>
-      </c>
-      <c r="B13" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="17"/>
-      <c r="E13" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="I13" s="19"/>
-    </row>
-    <row r="14" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="12">
-        <v>2</v>
-      </c>
-      <c r="B14" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="I14" s="3"/>
-    </row>
-    <row r="15" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="12">
-        <v>2</v>
-      </c>
-      <c r="B15" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="I15" s="3"/>
-    </row>
-    <row r="16" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="12">
-        <v>2</v>
-      </c>
-      <c r="B16" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="I16" s="3"/>
-    </row>
-    <row r="17" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="12">
-        <v>2</v>
-      </c>
-      <c r="B17" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" s="2"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="I17" s="3"/>
-    </row>
-    <row r="18" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="11"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="5"/>
-    </row>
-    <row r="19" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" s="66">
-        <f>SUM(F12:F18)</f>
-        <v>0</v>
-      </c>
-      <c r="D19" s="66"/>
-      <c r="E19" s="66"/>
-      <c r="F19" s="67"/>
-      <c r="G19" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H19" s="66">
-        <f>SUM(G12:G18)</f>
-        <v>0</v>
-      </c>
-      <c r="I19" s="67"/>
-    </row>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="H19:I19"/>
-  </mergeCells>
-  <dataValidations count="4">
-    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3" xr:uid="{00000000-0002-0000-0200-000000000000}">
-      <formula1>B4</formula1>
-      <formula2>B10</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:H10 H12:H18" xr:uid="{00000000-0002-0000-0200-000001000000}">
-      <formula1>"Done,Inprogress "</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C9 C12:C17" xr:uid="{00000000-0002-0000-0200-000002000000}">
-      <formula1>"Project Management, Requirement, Architecture and Desgin, Implementation, Testing, Training, Meetting Customer, Meeting Mentor"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10 C18" xr:uid="{00000000-0002-0000-0200-000003000000}">
-      <formula1>"Project Management, Requirement, Architecture and Desgin, Implementation, Testing, Training, Meetting Customer, Meetting Mentor"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:I19"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
@@ -4988,7 +4664,7 @@
         <v>65</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C1" s="25"/>
       <c r="D1" s="25"/>
@@ -4999,17 +4675,17 @@
       <c r="I1" s="26"/>
     </row>
     <row r="2" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="71"/>
+      <c r="B2" s="77"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="79"/>
     </row>
     <row r="3" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="29" t="s">
@@ -5076,7 +4752,7 @@
         <v>18</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E5" s="23" t="s">
         <v>67</v>
@@ -5103,7 +4779,7 @@
         <v>18</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E6" s="21" t="s">
         <v>68</v>
@@ -5130,7 +4806,7 @@
         <v>19</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E7" s="23" t="s">
         <v>69</v>
@@ -5182,10 +4858,10 @@
         <v>18</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F9" s="9">
         <v>4</v>
@@ -5216,21 +4892,21 @@
       <c r="B11" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="66">
+      <c r="C11" s="74">
         <f>SUM(F4:F10)</f>
         <v>26</v>
       </c>
-      <c r="D11" s="66"/>
-      <c r="E11" s="66"/>
-      <c r="F11" s="67"/>
+      <c r="D11" s="74"/>
+      <c r="E11" s="74"/>
+      <c r="F11" s="75"/>
       <c r="G11" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="66">
+      <c r="H11" s="74">
         <f>SUM(G4:G10)</f>
         <v>26</v>
       </c>
-      <c r="I11" s="67"/>
+      <c r="I11" s="75"/>
     </row>
     <row r="12" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="12">
@@ -5243,10 +4919,10 @@
         <v>19</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E12" s="22" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F12" s="8">
         <v>6</v>
@@ -5258,7 +4934,7 @@
         <v>20</v>
       </c>
       <c r="I12" s="19" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -5272,10 +4948,10 @@
         <v>18</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E13" s="23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F13" s="8">
         <v>5</v>
@@ -5300,7 +4976,7 @@
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F14" s="9">
         <v>4</v>
@@ -5324,10 +5000,10 @@
         <v>19</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E15" s="23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F15" s="9">
         <v>5</v>
@@ -5339,7 +5015,7 @@
         <v>20</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -5353,10 +5029,10 @@
         <v>18</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E16" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F16" s="9">
         <v>5</v>
@@ -5380,10 +5056,10 @@
         <v>18</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E17" s="20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F17" s="9">
         <v>5</v>
@@ -5414,21 +5090,21 @@
       <c r="B19" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="66">
+      <c r="C19" s="74">
         <f>SUM(F12:F18)</f>
         <v>30</v>
       </c>
-      <c r="D19" s="66"/>
-      <c r="E19" s="66"/>
-      <c r="F19" s="67"/>
+      <c r="D19" s="74"/>
+      <c r="E19" s="74"/>
+      <c r="F19" s="75"/>
       <c r="G19" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H19" s="66">
+      <c r="H19" s="74">
         <f>SUM(G12:G18)</f>
         <v>30</v>
       </c>
-      <c r="I19" s="67"/>
+      <c r="I19" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -5455,4 +5131,1428 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4F2588E-374C-4DBD-95A9-14304F022B88}">
+  <dimension ref="A1:I19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.88671875" customWidth="1"/>
+    <col min="9" max="9" width="11.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="26"/>
+    </row>
+    <row r="2" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="77"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="79"/>
+    </row>
+    <row r="3" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="12">
+        <v>1</v>
+      </c>
+      <c r="B4" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" s="66"/>
+      <c r="E4" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="F4" s="12">
+        <v>4</v>
+      </c>
+      <c r="G4" s="12">
+        <v>4</v>
+      </c>
+      <c r="H4" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="19"/>
+    </row>
+    <row r="5" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="12">
+        <v>1</v>
+      </c>
+      <c r="B5" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="66" t="s">
+        <v>92</v>
+      </c>
+      <c r="E5" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="F5" s="12">
+        <v>5</v>
+      </c>
+      <c r="G5" s="12">
+        <v>5</v>
+      </c>
+      <c r="H5" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" s="19"/>
+    </row>
+    <row r="6" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>1</v>
+      </c>
+      <c r="B6" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="67" t="s">
+        <v>92</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="F6" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="G6" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="H6" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" s="3"/>
+    </row>
+    <row r="7" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>1</v>
+      </c>
+      <c r="B7" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="67" t="s">
+        <v>93</v>
+      </c>
+      <c r="E7" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="F7" s="1">
+        <v>5</v>
+      </c>
+      <c r="G7" s="1">
+        <v>5</v>
+      </c>
+      <c r="H7" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7" s="3"/>
+    </row>
+    <row r="8" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>1</v>
+      </c>
+      <c r="B8" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" s="67"/>
+      <c r="E8" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="F8" s="1">
+        <v>4</v>
+      </c>
+      <c r="G8" s="1">
+        <v>4</v>
+      </c>
+      <c r="H8" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I8" s="3"/>
+    </row>
+    <row r="9" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>1</v>
+      </c>
+      <c r="B9" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="12"/>
+      <c r="E9" s="68">
+        <v>43757</v>
+      </c>
+      <c r="F9" s="1">
+        <v>4</v>
+      </c>
+      <c r="G9" s="1">
+        <v>5</v>
+      </c>
+      <c r="H9" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="I9" s="3"/>
+    </row>
+    <row r="10" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="11"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="69"/>
+      <c r="E10" s="68"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="5"/>
+    </row>
+    <row r="11" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="80">
+        <f>SUM(F4:F10)</f>
+        <v>26.5</v>
+      </c>
+      <c r="D11" s="80"/>
+      <c r="E11" s="80"/>
+      <c r="F11" s="81"/>
+      <c r="G11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" s="80">
+        <f>SUM(G4:G10)</f>
+        <v>27.5</v>
+      </c>
+      <c r="I11" s="81"/>
+    </row>
+    <row r="12" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="12">
+        <v>2</v>
+      </c>
+      <c r="B12" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="66" t="s">
+        <v>94</v>
+      </c>
+      <c r="E12" s="70">
+        <v>43759</v>
+      </c>
+      <c r="F12" s="12">
+        <v>5.5</v>
+      </c>
+      <c r="G12" s="12">
+        <v>6</v>
+      </c>
+      <c r="H12" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I12" s="19"/>
+    </row>
+    <row r="13" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="12">
+        <v>2</v>
+      </c>
+      <c r="B13" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="66" t="s">
+        <v>95</v>
+      </c>
+      <c r="E13" s="71">
+        <v>43760</v>
+      </c>
+      <c r="F13" s="12">
+        <v>5</v>
+      </c>
+      <c r="G13" s="12">
+        <v>6</v>
+      </c>
+      <c r="H13" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I13" s="19"/>
+    </row>
+    <row r="14" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="12">
+        <v>2</v>
+      </c>
+      <c r="B14" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" s="67"/>
+      <c r="E14" s="72">
+        <v>43761</v>
+      </c>
+      <c r="F14" s="1">
+        <v>4</v>
+      </c>
+      <c r="G14" s="1">
+        <v>4</v>
+      </c>
+      <c r="H14" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I14" s="3"/>
+    </row>
+    <row r="15" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="12">
+        <v>2</v>
+      </c>
+      <c r="B15" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="67" t="s">
+        <v>92</v>
+      </c>
+      <c r="E15" s="71">
+        <v>43762</v>
+      </c>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I15" s="3"/>
+    </row>
+    <row r="16" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="12">
+        <v>2</v>
+      </c>
+      <c r="B16" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="67" t="s">
+        <v>96</v>
+      </c>
+      <c r="E16" s="68">
+        <v>43763</v>
+      </c>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I16" s="3"/>
+    </row>
+    <row r="17" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="12">
+        <v>2</v>
+      </c>
+      <c r="B17" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="67" t="s">
+        <v>82</v>
+      </c>
+      <c r="E17" s="20">
+        <v>43764</v>
+      </c>
+      <c r="F17" s="1">
+        <v>4</v>
+      </c>
+      <c r="G17" s="1">
+        <v>6</v>
+      </c>
+      <c r="H17" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I17" s="3"/>
+    </row>
+    <row r="18" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="11"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="69"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="5"/>
+    </row>
+    <row r="19" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="80">
+        <f>SUM(F12:F18)</f>
+        <v>18.5</v>
+      </c>
+      <c r="D19" s="80"/>
+      <c r="E19" s="80"/>
+      <c r="F19" s="81"/>
+      <c r="G19" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H19" s="80">
+        <f>SUM(G12:G18)</f>
+        <v>22</v>
+      </c>
+      <c r="I19" s="81"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="H19:I19"/>
+  </mergeCells>
+  <dataValidations count="4">
+    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3" xr:uid="{6FFE7BB2-A561-485E-81E9-2571AC8DE5CA}">
+      <formula1>B4</formula1>
+      <formula2>B10</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:H10 H12:H18" xr:uid="{6631F660-441C-45AD-828B-61A224D5ADF2}">
+      <formula1>"Done,Inprogress "</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C12:C17 C9:D9 C4:C8" xr:uid="{F3CBFF43-1EA6-4105-8193-6BB7478B8CE7}">
+      <formula1>"Project Management, Requirement, Architecture and Desgin, Implementation, Testing, Training, Meetting Customer, Meeting Mentor"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10 C18" xr:uid="{5A5FB21D-56FA-4666-866D-0DBF9359F400}">
+      <formula1>"Project Management, Requirement, Architecture and Desgin, Implementation, Testing, Training, Meetting Customer, Meetting Mentor"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8D98322-3746-4D23-926C-85D7A07E9BC3}">
+  <dimension ref="A1:I19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.77734375" customWidth="1"/>
+    <col min="9" max="9" width="11.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="26"/>
+    </row>
+    <row r="2" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="77"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="79"/>
+    </row>
+    <row r="3" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="12">
+        <v>1</v>
+      </c>
+      <c r="B4" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" s="66"/>
+      <c r="E4" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="F4" s="12">
+        <v>4</v>
+      </c>
+      <c r="G4" s="12">
+        <v>4</v>
+      </c>
+      <c r="H4" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="19"/>
+    </row>
+    <row r="5" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="12">
+        <v>1</v>
+      </c>
+      <c r="B5" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="66" t="s">
+        <v>97</v>
+      </c>
+      <c r="E5" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="F5" s="12">
+        <v>5</v>
+      </c>
+      <c r="G5" s="12">
+        <v>5</v>
+      </c>
+      <c r="H5" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" s="19"/>
+    </row>
+    <row r="6" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>1</v>
+      </c>
+      <c r="B6" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="66" t="s">
+        <v>97</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="F6" s="1">
+        <v>3</v>
+      </c>
+      <c r="G6" s="73">
+        <v>5</v>
+      </c>
+      <c r="H6" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" s="3"/>
+    </row>
+    <row r="7" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>1</v>
+      </c>
+      <c r="B7" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="66" t="s">
+        <v>97</v>
+      </c>
+      <c r="E7" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="F7" s="1">
+        <v>3</v>
+      </c>
+      <c r="G7" s="1">
+        <v>5</v>
+      </c>
+      <c r="H7" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" s="3"/>
+    </row>
+    <row r="8" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>1</v>
+      </c>
+      <c r="B8" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" s="67"/>
+      <c r="E8" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="F8" s="1">
+        <v>4</v>
+      </c>
+      <c r="G8" s="1">
+        <v>4</v>
+      </c>
+      <c r="H8" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I8" s="3"/>
+    </row>
+    <row r="9" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>1</v>
+      </c>
+      <c r="B9" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="67"/>
+      <c r="E9" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="F9" s="1">
+        <v>5</v>
+      </c>
+      <c r="G9" s="1">
+        <v>5</v>
+      </c>
+      <c r="H9" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="I9" s="3"/>
+    </row>
+    <row r="10" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="11"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="69"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="5"/>
+    </row>
+    <row r="11" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="80">
+        <f>SUM(F4:F10)</f>
+        <v>24</v>
+      </c>
+      <c r="D11" s="80"/>
+      <c r="E11" s="80"/>
+      <c r="F11" s="81"/>
+      <c r="G11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" s="80">
+        <f>SUM(G4:G10)</f>
+        <v>28</v>
+      </c>
+      <c r="I11" s="81"/>
+    </row>
+    <row r="12" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="12">
+        <v>2</v>
+      </c>
+      <c r="B12" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="66" t="s">
+        <v>98</v>
+      </c>
+      <c r="E12" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="F12" s="12">
+        <v>5</v>
+      </c>
+      <c r="G12" s="12">
+        <v>5</v>
+      </c>
+      <c r="H12" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I12" s="19"/>
+    </row>
+    <row r="13" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="12">
+        <v>2</v>
+      </c>
+      <c r="B13" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="66" t="s">
+        <v>99</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="F13" s="12">
+        <v>3</v>
+      </c>
+      <c r="G13" s="12">
+        <v>5</v>
+      </c>
+      <c r="H13" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I13" s="19"/>
+    </row>
+    <row r="14" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="12">
+        <v>2</v>
+      </c>
+      <c r="B14" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" s="67"/>
+      <c r="E14" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="F14" s="1">
+        <v>4</v>
+      </c>
+      <c r="G14" s="1">
+        <v>4</v>
+      </c>
+      <c r="H14" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I14" s="3"/>
+    </row>
+    <row r="15" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="12">
+        <v>2</v>
+      </c>
+      <c r="B15" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="E15" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="F15" s="1">
+        <v>7</v>
+      </c>
+      <c r="G15" s="1">
+        <v>5</v>
+      </c>
+      <c r="H15" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I15" s="3"/>
+    </row>
+    <row r="16" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="12">
+        <v>2</v>
+      </c>
+      <c r="B16" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="67" t="s">
+        <v>96</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="F16" s="1">
+        <v>4</v>
+      </c>
+      <c r="G16" s="1">
+        <v>5</v>
+      </c>
+      <c r="H16" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I16" s="3"/>
+    </row>
+    <row r="17" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="12">
+        <v>2</v>
+      </c>
+      <c r="B17" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="67" t="s">
+        <v>82</v>
+      </c>
+      <c r="E17" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="F17" s="1">
+        <v>4</v>
+      </c>
+      <c r="G17" s="1">
+        <v>6</v>
+      </c>
+      <c r="H17" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I17" s="3"/>
+    </row>
+    <row r="18" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="11"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="69"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="5"/>
+    </row>
+    <row r="19" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="80">
+        <f>SUM(F12:F18)</f>
+        <v>27</v>
+      </c>
+      <c r="D19" s="80"/>
+      <c r="E19" s="80"/>
+      <c r="F19" s="81"/>
+      <c r="G19" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H19" s="80">
+        <f>SUM(G12:G18)</f>
+        <v>30</v>
+      </c>
+      <c r="I19" s="81"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="H19:I19"/>
+  </mergeCells>
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10 C18" xr:uid="{49E4ABBA-BF99-4A08-9146-05B03FF61551}">
+      <formula1>"Project Management, Requirement, Architecture and Desgin, Implementation, Testing, Training, Meetting Customer, Meetting Mentor"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C9 C12:C17" xr:uid="{7BB7431A-7120-424E-9970-47B42B760419}">
+      <formula1>"Project Management, Requirement, Architecture and Desgin, Implementation, Testing, Training, Meetting Customer, Meeting Mentor"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:H10 H12:H18" xr:uid="{4A0F2AA5-85B8-464F-8CAA-CD36662ED450}">
+      <formula1>"Done,Inprogress "</formula1>
+    </dataValidation>
+    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3" xr:uid="{22474DAD-5ABA-4447-B2F6-2025840C9401}">
+      <formula1>B4</formula1>
+      <formula2>B10</formula2>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{744DDA93-81BE-4148-9787-FFABC05BF7AA}">
+  <dimension ref="A1:I19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="26"/>
+    </row>
+    <row r="2" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="77"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="79"/>
+    </row>
+    <row r="3" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="12">
+        <v>1</v>
+      </c>
+      <c r="B4" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" s="66"/>
+      <c r="E4" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12">
+        <v>4</v>
+      </c>
+      <c r="H4" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="19"/>
+    </row>
+    <row r="5" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="12">
+        <v>1</v>
+      </c>
+      <c r="B5" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="66" t="s">
+        <v>102</v>
+      </c>
+      <c r="E5" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12">
+        <v>5</v>
+      </c>
+      <c r="H5" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="19"/>
+    </row>
+    <row r="6" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>1</v>
+      </c>
+      <c r="B6" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="66" t="s">
+        <v>102</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="12">
+        <v>5</v>
+      </c>
+      <c r="H6" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" s="3"/>
+    </row>
+    <row r="7" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>1</v>
+      </c>
+      <c r="B7" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="66" t="s">
+        <v>102</v>
+      </c>
+      <c r="E7" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="12">
+        <v>5</v>
+      </c>
+      <c r="H7" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7" s="3"/>
+    </row>
+    <row r="8" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>1</v>
+      </c>
+      <c r="B8" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" s="67"/>
+      <c r="E8" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1">
+        <v>4</v>
+      </c>
+      <c r="H8" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I8" s="3"/>
+    </row>
+    <row r="9" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>1</v>
+      </c>
+      <c r="B9" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="67" t="s">
+        <v>103</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1">
+        <v>5</v>
+      </c>
+      <c r="H9" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I9" s="3"/>
+    </row>
+    <row r="10" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="11"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="69"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="5"/>
+    </row>
+    <row r="11" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="80">
+        <f>SUM(F4:F10)</f>
+        <v>0</v>
+      </c>
+      <c r="D11" s="80"/>
+      <c r="E11" s="80"/>
+      <c r="F11" s="81"/>
+      <c r="G11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" s="80">
+        <f>SUM(G4:G10)</f>
+        <v>28</v>
+      </c>
+      <c r="I11" s="81"/>
+    </row>
+    <row r="12" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="12">
+        <v>2</v>
+      </c>
+      <c r="B12" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="66" t="s">
+        <v>104</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12">
+        <v>5</v>
+      </c>
+      <c r="H12" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I12" s="19"/>
+    </row>
+    <row r="13" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="12">
+        <v>2</v>
+      </c>
+      <c r="B13" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="66" t="s">
+        <v>105</v>
+      </c>
+      <c r="E13" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12">
+        <v>5</v>
+      </c>
+      <c r="H13" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I13" s="19"/>
+    </row>
+    <row r="14" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="12">
+        <v>2</v>
+      </c>
+      <c r="B14" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" s="67"/>
+      <c r="E14" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1">
+        <v>4</v>
+      </c>
+      <c r="H14" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I14" s="3"/>
+    </row>
+    <row r="15" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="12">
+        <v>2</v>
+      </c>
+      <c r="B15" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="67" t="s">
+        <v>106</v>
+      </c>
+      <c r="E15" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1">
+        <v>5</v>
+      </c>
+      <c r="H15" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I15" s="3"/>
+    </row>
+    <row r="16" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="12">
+        <v>2</v>
+      </c>
+      <c r="B16" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="67" t="s">
+        <v>106</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1">
+        <v>5</v>
+      </c>
+      <c r="H16" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I16" s="3"/>
+    </row>
+    <row r="17" spans="1:9" ht="30" x14ac:dyDescent="0.3">
+      <c r="A17" s="12">
+        <v>2</v>
+      </c>
+      <c r="B17" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="82" t="s">
+        <v>107</v>
+      </c>
+      <c r="E17" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1">
+        <v>5</v>
+      </c>
+      <c r="H17" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I17" s="3"/>
+    </row>
+    <row r="18" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="11"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="69"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="5"/>
+    </row>
+    <row r="19" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="80">
+        <f>SUM(F12:F18)</f>
+        <v>0</v>
+      </c>
+      <c r="D19" s="80"/>
+      <c r="E19" s="80"/>
+      <c r="F19" s="81"/>
+      <c r="G19" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H19" s="80">
+        <f>SUM(G12:G18)</f>
+        <v>29</v>
+      </c>
+      <c r="I19" s="81"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="H19:I19"/>
+  </mergeCells>
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10 C18" xr:uid="{6E08E741-C8C7-4210-9264-8F4FCE40EB21}">
+      <formula1>"Project Management, Requirement, Architecture and Desgin, Implementation, Testing, Training, Meetting Customer, Meetting Mentor"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C9 C12:C17" xr:uid="{FEE62105-1E1C-408F-82C0-11D2CE7772AA}">
+      <formula1>"Project Management, Requirement, Architecture and Desgin, Implementation, Testing, Training, Meetting Customer, Meeting Mentor"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:H10 H12:H18" xr:uid="{E64829C6-8241-4F40-B7F6-06026AC59D56}">
+      <formula1>"Done,Inprogress "</formula1>
+    </dataValidation>
+    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3" xr:uid="{33954315-0CBA-47B2-A2B7-73FE39F329C3}">
+      <formula1>B4</formula1>
+      <formula2>B10</formula2>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Improgress/4. Timelog/PM_TimeLog.xlsx
+++ b/Improgress/4. Timelog/PM_TimeLog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo Legion Y7000\Documents\GitHub\Capstone-Project\Improgress\4. Timelog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9959C9E8-29F1-461C-A118-06DD346C9B97}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30DFEA66-2CD3-4403-BD09-0E036EEDB3C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1116" yWindow="1116" windowWidth="17280" windowHeight="9420" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="7" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="112">
   <si>
     <t>Work in period</t>
   </si>
@@ -364,6 +364,18 @@
   <si>
     <t xml:space="preserve">Complete the meeting minutes ; 
 Present document GIS with team </t>
+  </si>
+  <si>
+    <t>Quốc Nhân</t>
+  </si>
+  <si>
+    <t>Vương Trương</t>
+  </si>
+  <si>
+    <t>Anh Minh</t>
+  </si>
+  <si>
+    <t>Như Phương</t>
   </si>
 </sst>
 </file>
@@ -374,7 +386,7 @@
     <numFmt numFmtId="164" formatCode="[$-1010000]d/m/yy;@"/>
     <numFmt numFmtId="165" formatCode="[$-1010000]d/m/yyyy;@"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -444,14 +456,6 @@
       <charset val="163"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <u/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -478,7 +482,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="35">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -846,26 +850,6 @@
       <right style="medium">
         <color auto="1"/>
       </right>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
       <top/>
       <bottom style="medium">
         <color auto="1"/>
@@ -916,7 +900,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -997,10 +981,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="32" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1041,9 +1025,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1063,16 +1044,12 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1096,8 +1073,8 @@
     <xf numFmtId="165" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1123,8 +1100,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -1412,6 +1392,9 @@
               <c:f>Summary!$A$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Quốc Nhân</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -1550,6 +1533,12 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="37"/>
+                <c:pt idx="0">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1567,6 +1556,9 @@
               <c:f>Summary!$A$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Vương Trương</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -1705,6 +1697,12 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="37"/>
+                <c:pt idx="0">
+                  <c:v>26.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18.5</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1722,6 +1720,9 @@
               <c:f>Summary!$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Anh Minh</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -1881,6 +1882,12 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="37"/>
+                <c:pt idx="0">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1898,6 +1905,9 @@
               <c:f>Summary!$A$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Như Phương</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -2036,6 +2046,12 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="37"/>
+                <c:pt idx="0">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>29</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3145,13 +3161,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AM14"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="93" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.21875" style="14" bestFit="1" customWidth="1"/>
     <col min="2" max="10" width="9" style="14" bestFit="1" customWidth="1"/>
     <col min="11" max="38" width="10.33203125" style="14" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="6.6640625" style="14" bestFit="1" customWidth="1"/>
@@ -3330,9 +3346,17 @@
       </c>
     </row>
     <row r="3" spans="1:39" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="42"/>
-      <c r="B3" s="41"/>
-      <c r="C3" s="43"/>
+      <c r="A3" s="42" t="s">
+        <v>108</v>
+      </c>
+      <c r="B3" s="41">
+        <f>'Quốc Nhân'!C11</f>
+        <v>26</v>
+      </c>
+      <c r="C3" s="41">
+        <f>'Quốc Nhân'!C19</f>
+        <v>30</v>
+      </c>
       <c r="D3" s="41"/>
       <c r="E3" s="43"/>
       <c r="F3" s="41"/>
@@ -3370,13 +3394,21 @@
       <c r="AL3" s="44"/>
       <c r="AM3" s="40">
         <f t="shared" ref="AM3:AM6" si="0">SUM(B3:AL3)</f>
-        <v>0</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:39" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="37"/>
-      <c r="B4" s="45"/>
-      <c r="C4" s="46"/>
+      <c r="A4" s="37" t="s">
+        <v>109</v>
+      </c>
+      <c r="B4" s="45">
+        <f>'Vương Trương'!C11</f>
+        <v>26.5</v>
+      </c>
+      <c r="C4" s="45">
+        <f>'Vương Trương'!C19</f>
+        <v>18.5</v>
+      </c>
       <c r="D4" s="38"/>
       <c r="E4" s="39"/>
       <c r="F4" s="38"/>
@@ -3414,13 +3446,21 @@
       <c r="AL4" s="40"/>
       <c r="AM4" s="40">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:39" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="42"/>
-      <c r="B5" s="41"/>
-      <c r="C5" s="43"/>
+      <c r="A5" s="42" t="s">
+        <v>110</v>
+      </c>
+      <c r="B5" s="41">
+        <f>'Anh Minh'!C11</f>
+        <v>24</v>
+      </c>
+      <c r="C5" s="41">
+        <f>'Anh Minh'!C19</f>
+        <v>27</v>
+      </c>
       <c r="D5" s="41"/>
       <c r="E5" s="43"/>
       <c r="F5" s="41"/>
@@ -3458,698 +3498,738 @@
       <c r="AL5" s="44"/>
       <c r="AM5" s="40">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:39" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="47"/>
-      <c r="B6" s="48"/>
-      <c r="C6" s="49"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="48"/>
-      <c r="I6" s="49"/>
-      <c r="J6" s="48"/>
-      <c r="K6" s="49"/>
-      <c r="L6" s="48"/>
-      <c r="M6" s="49"/>
-      <c r="N6" s="48"/>
-      <c r="O6" s="49"/>
-      <c r="P6" s="48"/>
-      <c r="Q6" s="49"/>
-      <c r="R6" s="48"/>
-      <c r="S6" s="49"/>
-      <c r="T6" s="48"/>
-      <c r="U6" s="49"/>
-      <c r="V6" s="48"/>
-      <c r="W6" s="49"/>
-      <c r="X6" s="48"/>
-      <c r="Y6" s="49"/>
-      <c r="Z6" s="48"/>
-      <c r="AA6" s="49"/>
-      <c r="AB6" s="48"/>
-      <c r="AC6" s="49"/>
-      <c r="AD6" s="48"/>
-      <c r="AE6" s="50"/>
+      <c r="A6" s="46" t="s">
+        <v>111</v>
+      </c>
+      <c r="B6" s="47">
+        <f>'Như Phương'!C11</f>
+        <v>27</v>
+      </c>
+      <c r="C6" s="47">
+        <f>'Như Phương'!C19</f>
+        <v>29</v>
+      </c>
+      <c r="D6" s="47"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="47"/>
+      <c r="K6" s="48"/>
+      <c r="L6" s="47"/>
+      <c r="M6" s="48"/>
+      <c r="N6" s="47"/>
+      <c r="O6" s="48"/>
+      <c r="P6" s="47"/>
+      <c r="Q6" s="48"/>
+      <c r="R6" s="47"/>
+      <c r="S6" s="48"/>
+      <c r="T6" s="47"/>
+      <c r="U6" s="48"/>
+      <c r="V6" s="47"/>
+      <c r="W6" s="48"/>
+      <c r="X6" s="47"/>
+      <c r="Y6" s="48"/>
+      <c r="Z6" s="47"/>
+      <c r="AA6" s="48"/>
+      <c r="AB6" s="47"/>
+      <c r="AC6" s="48"/>
+      <c r="AD6" s="47"/>
+      <c r="AE6" s="49"/>
       <c r="AF6" s="41"/>
-      <c r="AG6" s="50"/>
-      <c r="AH6" s="50"/>
-      <c r="AI6" s="50"/>
-      <c r="AJ6" s="50"/>
-      <c r="AK6" s="50"/>
-      <c r="AL6" s="50"/>
+      <c r="AG6" s="49"/>
+      <c r="AH6" s="49"/>
+      <c r="AI6" s="49"/>
+      <c r="AJ6" s="49"/>
+      <c r="AK6" s="49"/>
+      <c r="AL6" s="49"/>
       <c r="AM6" s="40">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:39" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="14">
         <f>SUM(B2:B6)</f>
-        <v>24</v>
+        <v>127.5</v>
       </c>
       <c r="C7" s="14">
         <f t="shared" ref="C7:R7" si="1">SUM(C2:C6)+B7</f>
-        <v>46</v>
+        <v>254</v>
       </c>
       <c r="D7" s="14">
         <f t="shared" si="1"/>
-        <v>46</v>
+        <v>254</v>
       </c>
       <c r="E7" s="14">
         <f t="shared" si="1"/>
-        <v>46</v>
+        <v>254</v>
       </c>
       <c r="F7" s="14">
         <f t="shared" si="1"/>
-        <v>46</v>
+        <v>254</v>
       </c>
       <c r="G7" s="14">
         <f t="shared" si="1"/>
-        <v>46</v>
+        <v>254</v>
       </c>
       <c r="H7" s="14">
         <f t="shared" si="1"/>
-        <v>46</v>
+        <v>254</v>
       </c>
       <c r="I7" s="14">
         <f t="shared" si="1"/>
-        <v>46</v>
+        <v>254</v>
       </c>
       <c r="J7" s="14">
         <f t="shared" si="1"/>
-        <v>46</v>
+        <v>254</v>
       </c>
       <c r="K7" s="14">
         <f t="shared" si="1"/>
-        <v>46</v>
+        <v>254</v>
       </c>
       <c r="L7" s="14">
         <f t="shared" si="1"/>
-        <v>46</v>
+        <v>254</v>
       </c>
       <c r="M7" s="14">
         <f t="shared" si="1"/>
-        <v>46</v>
+        <v>254</v>
       </c>
       <c r="N7" s="14">
         <f t="shared" si="1"/>
-        <v>46</v>
+        <v>254</v>
       </c>
       <c r="O7" s="14">
         <f t="shared" si="1"/>
-        <v>46</v>
+        <v>254</v>
       </c>
       <c r="P7" s="14">
         <f t="shared" si="1"/>
-        <v>46</v>
+        <v>254</v>
       </c>
       <c r="Q7" s="14">
         <f t="shared" si="1"/>
-        <v>46</v>
+        <v>254</v>
       </c>
       <c r="R7" s="14">
         <f t="shared" si="1"/>
-        <v>46</v>
+        <v>254</v>
       </c>
       <c r="S7" s="14">
         <f t="shared" ref="S7" si="2">SUM(S2:S6)+R7</f>
-        <v>46</v>
+        <v>254</v>
       </c>
       <c r="T7" s="14">
         <f t="shared" ref="T7" si="3">SUM(T2:T6)+S7</f>
-        <v>46</v>
+        <v>254</v>
       </c>
       <c r="U7" s="14">
         <f t="shared" ref="U7" si="4">SUM(U2:U6)+T7</f>
-        <v>46</v>
+        <v>254</v>
       </c>
       <c r="V7" s="14">
         <f t="shared" ref="V7" si="5">SUM(V2:V6)+U7</f>
-        <v>46</v>
+        <v>254</v>
       </c>
       <c r="W7" s="14">
         <f t="shared" ref="W7" si="6">SUM(W2:W6)+V7</f>
-        <v>46</v>
+        <v>254</v>
       </c>
       <c r="X7" s="14">
         <f t="shared" ref="X7" si="7">SUM(X2:X6)+W7</f>
-        <v>46</v>
+        <v>254</v>
       </c>
       <c r="Y7" s="14">
         <f t="shared" ref="Y7" si="8">SUM(Y2:Y6)+X7</f>
-        <v>46</v>
+        <v>254</v>
       </c>
       <c r="Z7" s="14">
         <f t="shared" ref="Z7" si="9">SUM(Z2:Z6)+Y7</f>
-        <v>46</v>
+        <v>254</v>
       </c>
       <c r="AA7" s="14">
         <f t="shared" ref="AA7" si="10">SUM(AA2:AA6)+Z7</f>
-        <v>46</v>
+        <v>254</v>
       </c>
       <c r="AB7" s="14">
         <f t="shared" ref="AB7" si="11">SUM(AB2:AB6)+AA7</f>
-        <v>46</v>
+        <v>254</v>
       </c>
       <c r="AC7" s="14">
         <f t="shared" ref="AC7" si="12">SUM(AC2:AC6)+AB7</f>
-        <v>46</v>
+        <v>254</v>
       </c>
       <c r="AD7" s="14">
         <f t="shared" ref="AD7" si="13">SUM(AD2:AD6)+AC7</f>
-        <v>46</v>
+        <v>254</v>
       </c>
       <c r="AE7" s="14">
         <f t="shared" ref="AE7" si="14">SUM(AE2:AE6)+AD7</f>
-        <v>46</v>
+        <v>254</v>
       </c>
       <c r="AF7" s="14">
         <f t="shared" ref="AF7" si="15">SUM(AF2:AF6)+AE7</f>
-        <v>46</v>
+        <v>254</v>
       </c>
       <c r="AG7" s="14">
         <f t="shared" ref="AG7" si="16">SUM(AG2:AG6)+AF7</f>
-        <v>46</v>
+        <v>254</v>
       </c>
       <c r="AH7" s="14">
         <f t="shared" ref="AH7" si="17">SUM(AH2:AH6)+AG7</f>
-        <v>46</v>
+        <v>254</v>
       </c>
       <c r="AI7" s="14">
         <f t="shared" ref="AI7" si="18">SUM(AI2:AI6)+AH7</f>
-        <v>46</v>
+        <v>254</v>
       </c>
       <c r="AJ7" s="14">
         <f t="shared" ref="AJ7" si="19">SUM(AJ2:AJ6)+AI7</f>
-        <v>46</v>
+        <v>254</v>
       </c>
       <c r="AK7" s="14">
         <f t="shared" ref="AK7" si="20">SUM(AK2:AK6)+AJ7</f>
-        <v>46</v>
+        <v>254</v>
       </c>
       <c r="AL7" s="14">
         <f t="shared" ref="AL7" si="21">SUM(AL2:AL6)+AK7</f>
+        <v>254</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="50" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="51" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="51" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="51" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="51" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="J8" s="51" t="s">
+        <v>31</v>
+      </c>
+      <c r="K8" s="51" t="s">
+        <v>32</v>
+      </c>
+      <c r="L8" s="51" t="s">
+        <v>33</v>
+      </c>
+      <c r="M8" s="51" t="s">
+        <v>34</v>
+      </c>
+      <c r="N8" s="51" t="s">
+        <v>35</v>
+      </c>
+      <c r="O8" s="51" t="s">
+        <v>36</v>
+      </c>
+      <c r="P8" s="51" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q8" s="51" t="s">
+        <v>38</v>
+      </c>
+      <c r="R8" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="S8" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="T8" s="51" t="s">
+        <v>41</v>
+      </c>
+      <c r="U8" s="51" t="s">
+        <v>42</v>
+      </c>
+      <c r="V8" s="51" t="s">
+        <v>43</v>
+      </c>
+      <c r="W8" s="51" t="s">
+        <v>44</v>
+      </c>
+      <c r="X8" s="51" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y8" s="51" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="8" spans="1:39" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="51" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="52" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="52" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="52" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="52" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8" s="52" t="s">
-        <v>27</v>
-      </c>
-      <c r="G8" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="H8" s="52" t="s">
-        <v>29</v>
-      </c>
-      <c r="I8" s="52" t="s">
-        <v>30</v>
-      </c>
-      <c r="J8" s="52" t="s">
-        <v>31</v>
-      </c>
-      <c r="K8" s="52" t="s">
-        <v>32</v>
-      </c>
-      <c r="L8" s="52" t="s">
-        <v>33</v>
-      </c>
-      <c r="M8" s="52" t="s">
-        <v>34</v>
-      </c>
-      <c r="N8" s="52" t="s">
-        <v>35</v>
-      </c>
-      <c r="O8" s="52" t="s">
-        <v>36</v>
-      </c>
-      <c r="P8" s="52" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q8" s="52" t="s">
-        <v>38</v>
-      </c>
-      <c r="R8" s="52" t="s">
-        <v>39</v>
-      </c>
-      <c r="S8" s="52" t="s">
-        <v>40</v>
-      </c>
-      <c r="T8" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="U8" s="52" t="s">
-        <v>42</v>
-      </c>
-      <c r="V8" s="52" t="s">
-        <v>43</v>
-      </c>
-      <c r="W8" s="52" t="s">
-        <v>44</v>
-      </c>
-      <c r="X8" s="52" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y8" s="52" t="s">
-        <v>46</v>
-      </c>
-      <c r="Z8" s="52" t="s">
+      <c r="Z8" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="AA8" s="52" t="s">
+      <c r="AA8" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="AB8" s="52" t="s">
+      <c r="AB8" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="AC8" s="52" t="s">
+      <c r="AC8" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="AD8" s="52" t="s">
+      <c r="AD8" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="AE8" s="52" t="s">
+      <c r="AE8" s="51" t="s">
         <v>52</v>
       </c>
-      <c r="AF8" s="53" t="s">
+      <c r="AF8" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="AG8" s="52" t="s">
+      <c r="AG8" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="AH8" s="52" t="s">
+      <c r="AH8" s="51" t="s">
         <v>56</v>
       </c>
-      <c r="AI8" s="52" t="s">
+      <c r="AI8" s="51" t="s">
         <v>57</v>
       </c>
-      <c r="AJ8" s="52" t="s">
+      <c r="AJ8" s="51" t="s">
         <v>58</v>
       </c>
-      <c r="AK8" s="52" t="s">
+      <c r="AK8" s="51" t="s">
         <v>59</v>
       </c>
-      <c r="AL8" s="52" t="s">
+      <c r="AL8" s="51" t="s">
         <v>60</v>
       </c>
-      <c r="AM8" s="52" t="s">
+      <c r="AM8" s="51" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:39" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="54" t="s">
+      <c r="A9" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="B9" s="55">
+      <c r="B9" s="77">
         <f>'Đạt Huỳnh'!H11</f>
         <v>24</v>
       </c>
-      <c r="C9" s="56">
+      <c r="C9" s="78">
         <f>'Đạt Huỳnh'!H19</f>
         <v>34</v>
       </c>
-      <c r="D9" s="55"/>
-      <c r="E9" s="56"/>
-      <c r="F9" s="55"/>
-      <c r="G9" s="56"/>
-      <c r="H9" s="55"/>
-      <c r="I9" s="56"/>
-      <c r="J9" s="55"/>
-      <c r="K9" s="56"/>
-      <c r="L9" s="55"/>
-      <c r="M9" s="56"/>
-      <c r="N9" s="55"/>
-      <c r="O9" s="56"/>
-      <c r="P9" s="55"/>
-      <c r="Q9" s="56"/>
-      <c r="R9" s="55"/>
-      <c r="S9" s="56"/>
-      <c r="T9" s="55"/>
-      <c r="U9" s="56"/>
-      <c r="V9" s="55"/>
-      <c r="W9" s="56"/>
-      <c r="X9" s="55"/>
-      <c r="Y9" s="56"/>
-      <c r="Z9" s="55"/>
-      <c r="AA9" s="56"/>
-      <c r="AB9" s="55"/>
-      <c r="AC9" s="56"/>
-      <c r="AD9" s="55"/>
-      <c r="AE9" s="55"/>
-      <c r="AF9" s="57"/>
-      <c r="AG9" s="55"/>
-      <c r="AH9" s="55"/>
-      <c r="AI9" s="55"/>
-      <c r="AJ9" s="55"/>
-      <c r="AK9" s="55"/>
-      <c r="AL9" s="55"/>
-      <c r="AM9" s="55">
+      <c r="D9" s="53"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="54"/>
+      <c r="J9" s="53"/>
+      <c r="K9" s="54"/>
+      <c r="L9" s="53"/>
+      <c r="M9" s="54"/>
+      <c r="N9" s="53"/>
+      <c r="O9" s="54"/>
+      <c r="P9" s="53"/>
+      <c r="Q9" s="54"/>
+      <c r="R9" s="53"/>
+      <c r="S9" s="54"/>
+      <c r="T9" s="53"/>
+      <c r="U9" s="54"/>
+      <c r="V9" s="53"/>
+      <c r="W9" s="54"/>
+      <c r="X9" s="53"/>
+      <c r="Y9" s="54"/>
+      <c r="Z9" s="53"/>
+      <c r="AA9" s="54"/>
+      <c r="AB9" s="53"/>
+      <c r="AC9" s="54"/>
+      <c r="AD9" s="53"/>
+      <c r="AE9" s="53"/>
+      <c r="AF9" s="55"/>
+      <c r="AG9" s="53"/>
+      <c r="AH9" s="53"/>
+      <c r="AI9" s="53"/>
+      <c r="AJ9" s="53"/>
+      <c r="AK9" s="53"/>
+      <c r="AL9" s="53"/>
+      <c r="AM9" s="53">
         <f>SUM(B9:AL9)</f>
         <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:39" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="58"/>
-      <c r="B10" s="42"/>
-      <c r="C10" s="59"/>
+      <c r="A10" s="42" t="s">
+        <v>108</v>
+      </c>
+      <c r="B10" s="41">
+        <f>'Quốc Nhân'!H11</f>
+        <v>26</v>
+      </c>
+      <c r="C10" s="41">
+        <f>'Quốc Nhân'!H19</f>
+        <v>30</v>
+      </c>
       <c r="D10" s="42"/>
-      <c r="E10" s="59"/>
+      <c r="E10" s="56"/>
       <c r="F10" s="42"/>
-      <c r="G10" s="59"/>
+      <c r="G10" s="56"/>
       <c r="H10" s="42"/>
-      <c r="I10" s="59"/>
+      <c r="I10" s="56"/>
       <c r="J10" s="42"/>
-      <c r="K10" s="59"/>
+      <c r="K10" s="56"/>
       <c r="L10" s="42"/>
-      <c r="M10" s="59"/>
+      <c r="M10" s="56"/>
       <c r="N10" s="42"/>
-      <c r="O10" s="59"/>
+      <c r="O10" s="56"/>
       <c r="P10" s="42"/>
-      <c r="Q10" s="59"/>
+      <c r="Q10" s="56"/>
       <c r="R10" s="42"/>
-      <c r="S10" s="59"/>
+      <c r="S10" s="56"/>
       <c r="T10" s="42"/>
-      <c r="U10" s="59"/>
+      <c r="U10" s="56"/>
       <c r="V10" s="42"/>
-      <c r="W10" s="59"/>
+      <c r="W10" s="56"/>
       <c r="X10" s="42"/>
-      <c r="Y10" s="59"/>
+      <c r="Y10" s="56"/>
       <c r="Z10" s="42"/>
-      <c r="AA10" s="59"/>
+      <c r="AA10" s="56"/>
       <c r="AB10" s="42"/>
-      <c r="AC10" s="59"/>
+      <c r="AC10" s="56"/>
       <c r="AD10" s="42"/>
       <c r="AE10" s="42"/>
-      <c r="AF10" s="60"/>
+      <c r="AF10" s="57"/>
       <c r="AG10" s="42"/>
       <c r="AH10" s="42"/>
       <c r="AI10" s="42"/>
       <c r="AJ10" s="42"/>
       <c r="AK10" s="42"/>
       <c r="AL10" s="42"/>
-      <c r="AM10" s="55">
+      <c r="AM10" s="53">
         <f t="shared" ref="AM10:AM13" si="22">SUM(B10:AL10)</f>
-        <v>0</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:39" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="61"/>
-      <c r="B11" s="37"/>
-      <c r="C11" s="62"/>
+      <c r="A11" s="37" t="s">
+        <v>109</v>
+      </c>
+      <c r="B11" s="45">
+        <f>'Vương Trương'!H11</f>
+        <v>27.5</v>
+      </c>
+      <c r="C11" s="45">
+        <f>'Vương Trương'!H19</f>
+        <v>22</v>
+      </c>
       <c r="D11" s="37"/>
-      <c r="E11" s="62"/>
+      <c r="E11" s="58"/>
       <c r="F11" s="37"/>
-      <c r="G11" s="62"/>
+      <c r="G11" s="58"/>
       <c r="H11" s="37"/>
-      <c r="I11" s="62"/>
+      <c r="I11" s="58"/>
       <c r="J11" s="37"/>
-      <c r="K11" s="62"/>
+      <c r="K11" s="58"/>
       <c r="L11" s="37"/>
-      <c r="M11" s="62"/>
+      <c r="M11" s="58"/>
       <c r="N11" s="37"/>
-      <c r="O11" s="62"/>
+      <c r="O11" s="58"/>
       <c r="P11" s="37"/>
-      <c r="Q11" s="62"/>
+      <c r="Q11" s="58"/>
       <c r="R11" s="37"/>
-      <c r="S11" s="62"/>
+      <c r="S11" s="58"/>
       <c r="T11" s="37"/>
-      <c r="U11" s="62"/>
+      <c r="U11" s="58"/>
       <c r="V11" s="37"/>
-      <c r="W11" s="62"/>
+      <c r="W11" s="58"/>
       <c r="X11" s="37"/>
-      <c r="Y11" s="62"/>
+      <c r="Y11" s="58"/>
       <c r="Z11" s="37"/>
-      <c r="AA11" s="62"/>
+      <c r="AA11" s="58"/>
       <c r="AB11" s="37"/>
-      <c r="AC11" s="62"/>
+      <c r="AC11" s="58"/>
       <c r="AD11" s="37"/>
       <c r="AE11" s="37"/>
-      <c r="AF11" s="57"/>
+      <c r="AF11" s="55"/>
       <c r="AG11" s="37"/>
       <c r="AH11" s="37"/>
       <c r="AI11" s="37"/>
       <c r="AJ11" s="37"/>
       <c r="AK11" s="37"/>
       <c r="AL11" s="37"/>
-      <c r="AM11" s="55">
+      <c r="AM11" s="53">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>49.5</v>
       </c>
     </row>
     <row r="12" spans="1:39" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="58"/>
-      <c r="B12" s="42"/>
-      <c r="C12" s="59"/>
+      <c r="A12" s="42" t="s">
+        <v>110</v>
+      </c>
+      <c r="B12" s="41">
+        <f>'Anh Minh'!H11</f>
+        <v>28</v>
+      </c>
+      <c r="C12" s="41">
+        <f>'Anh Minh'!H19</f>
+        <v>30</v>
+      </c>
       <c r="D12" s="42"/>
-      <c r="E12" s="59"/>
+      <c r="E12" s="56"/>
       <c r="F12" s="42"/>
-      <c r="G12" s="59"/>
+      <c r="G12" s="56"/>
       <c r="H12" s="42"/>
-      <c r="I12" s="59"/>
+      <c r="I12" s="56"/>
       <c r="J12" s="42"/>
-      <c r="K12" s="59"/>
+      <c r="K12" s="56"/>
       <c r="L12" s="42"/>
-      <c r="M12" s="59"/>
+      <c r="M12" s="56"/>
       <c r="N12" s="42"/>
-      <c r="O12" s="59"/>
+      <c r="O12" s="56"/>
       <c r="P12" s="42"/>
-      <c r="Q12" s="59"/>
+      <c r="Q12" s="56"/>
       <c r="R12" s="42"/>
-      <c r="S12" s="59"/>
+      <c r="S12" s="56"/>
       <c r="T12" s="42"/>
-      <c r="U12" s="59"/>
+      <c r="U12" s="56"/>
       <c r="V12" s="42"/>
-      <c r="W12" s="59"/>
+      <c r="W12" s="56"/>
       <c r="X12" s="42"/>
-      <c r="Y12" s="59"/>
+      <c r="Y12" s="56"/>
       <c r="Z12" s="42"/>
-      <c r="AA12" s="59"/>
+      <c r="AA12" s="56"/>
       <c r="AB12" s="42"/>
-      <c r="AC12" s="59"/>
+      <c r="AC12" s="56"/>
       <c r="AD12" s="42"/>
       <c r="AE12" s="42"/>
-      <c r="AF12" s="60"/>
+      <c r="AF12" s="57"/>
       <c r="AG12" s="42"/>
       <c r="AH12" s="42"/>
       <c r="AI12" s="42"/>
       <c r="AJ12" s="42"/>
       <c r="AK12" s="42"/>
       <c r="AL12" s="42"/>
-      <c r="AM12" s="55">
+      <c r="AM12" s="53">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:39" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="63"/>
-      <c r="B13" s="47"/>
-      <c r="C13" s="47"/>
-      <c r="D13" s="47"/>
-      <c r="E13" s="64"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="64"/>
-      <c r="H13" s="47"/>
-      <c r="I13" s="64"/>
-      <c r="J13" s="47"/>
-      <c r="K13" s="64"/>
-      <c r="L13" s="47"/>
-      <c r="M13" s="64"/>
-      <c r="N13" s="47"/>
-      <c r="O13" s="64"/>
-      <c r="P13" s="47"/>
-      <c r="Q13" s="64"/>
-      <c r="R13" s="47"/>
-      <c r="S13" s="64"/>
-      <c r="T13" s="47"/>
-      <c r="U13" s="64"/>
-      <c r="V13" s="47"/>
-      <c r="W13" s="64"/>
-      <c r="X13" s="47"/>
-      <c r="Y13" s="64"/>
-      <c r="Z13" s="47"/>
-      <c r="AA13" s="64"/>
-      <c r="AB13" s="47"/>
-      <c r="AC13" s="64"/>
-      <c r="AD13" s="47"/>
-      <c r="AE13" s="47"/>
-      <c r="AF13" s="65"/>
-      <c r="AG13" s="47"/>
-      <c r="AH13" s="47"/>
-      <c r="AI13" s="47"/>
-      <c r="AJ13" s="47"/>
-      <c r="AK13" s="47"/>
-      <c r="AL13" s="47"/>
-      <c r="AM13" s="55">
+      <c r="A13" s="46" t="s">
+        <v>111</v>
+      </c>
+      <c r="B13" s="47">
+        <f>'Như Phương'!H11</f>
+        <v>28</v>
+      </c>
+      <c r="C13" s="47">
+        <f>'Như Phương'!H19</f>
+        <v>29</v>
+      </c>
+      <c r="D13" s="46"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="59"/>
+      <c r="J13" s="46"/>
+      <c r="K13" s="59"/>
+      <c r="L13" s="46"/>
+      <c r="M13" s="59"/>
+      <c r="N13" s="46"/>
+      <c r="O13" s="59"/>
+      <c r="P13" s="46"/>
+      <c r="Q13" s="59"/>
+      <c r="R13" s="46"/>
+      <c r="S13" s="59"/>
+      <c r="T13" s="46"/>
+      <c r="U13" s="59"/>
+      <c r="V13" s="46"/>
+      <c r="W13" s="59"/>
+      <c r="X13" s="46"/>
+      <c r="Y13" s="59"/>
+      <c r="Z13" s="46"/>
+      <c r="AA13" s="59"/>
+      <c r="AB13" s="46"/>
+      <c r="AC13" s="59"/>
+      <c r="AD13" s="46"/>
+      <c r="AE13" s="46"/>
+      <c r="AF13" s="60"/>
+      <c r="AG13" s="46"/>
+      <c r="AH13" s="46"/>
+      <c r="AI13" s="46"/>
+      <c r="AJ13" s="46"/>
+      <c r="AK13" s="46"/>
+      <c r="AL13" s="46"/>
+      <c r="AM13" s="53">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B14" s="14">
         <f>SUM(B9:B13)</f>
-        <v>24</v>
+        <v>133.5</v>
       </c>
       <c r="C14" s="14">
         <f t="shared" ref="C14:R14" si="23">SUM(C9:C13)+B14</f>
-        <v>58</v>
+        <v>278.5</v>
       </c>
       <c r="D14" s="14">
         <f t="shared" si="23"/>
-        <v>58</v>
+        <v>278.5</v>
       </c>
       <c r="E14" s="14">
         <f t="shared" si="23"/>
-        <v>58</v>
+        <v>278.5</v>
       </c>
       <c r="F14" s="14">
         <f t="shared" si="23"/>
-        <v>58</v>
+        <v>278.5</v>
       </c>
       <c r="G14" s="14">
         <f t="shared" si="23"/>
-        <v>58</v>
+        <v>278.5</v>
       </c>
       <c r="H14" s="14">
         <f t="shared" si="23"/>
-        <v>58</v>
+        <v>278.5</v>
       </c>
       <c r="I14" s="14">
         <f t="shared" si="23"/>
-        <v>58</v>
+        <v>278.5</v>
       </c>
       <c r="J14" s="14">
         <f t="shared" si="23"/>
-        <v>58</v>
+        <v>278.5</v>
       </c>
       <c r="K14" s="14">
         <f t="shared" si="23"/>
-        <v>58</v>
+        <v>278.5</v>
       </c>
       <c r="L14" s="14">
         <f t="shared" si="23"/>
-        <v>58</v>
+        <v>278.5</v>
       </c>
       <c r="M14" s="14">
         <f t="shared" si="23"/>
-        <v>58</v>
+        <v>278.5</v>
       </c>
       <c r="N14" s="14">
         <f t="shared" si="23"/>
-        <v>58</v>
+        <v>278.5</v>
       </c>
       <c r="O14" s="14">
         <f t="shared" si="23"/>
-        <v>58</v>
+        <v>278.5</v>
       </c>
       <c r="P14" s="14">
         <f t="shared" si="23"/>
-        <v>58</v>
+        <v>278.5</v>
       </c>
       <c r="Q14" s="14">
         <f t="shared" si="23"/>
-        <v>58</v>
+        <v>278.5</v>
       </c>
       <c r="R14" s="14">
         <f t="shared" si="23"/>
-        <v>58</v>
+        <v>278.5</v>
       </c>
       <c r="S14" s="14">
         <f t="shared" ref="S14" si="24">SUM(S9:S13)+R14</f>
-        <v>58</v>
+        <v>278.5</v>
       </c>
       <c r="T14" s="14">
         <f t="shared" ref="T14" si="25">SUM(T9:T13)+S14</f>
-        <v>58</v>
+        <v>278.5</v>
       </c>
       <c r="U14" s="14">
         <f t="shared" ref="U14" si="26">SUM(U9:U13)+T14</f>
-        <v>58</v>
+        <v>278.5</v>
       </c>
       <c r="V14" s="14">
         <f t="shared" ref="V14" si="27">SUM(V9:V13)+U14</f>
-        <v>58</v>
+        <v>278.5</v>
       </c>
       <c r="W14" s="14">
         <f t="shared" ref="W14" si="28">SUM(W9:W13)+V14</f>
-        <v>58</v>
+        <v>278.5</v>
       </c>
       <c r="X14" s="14">
         <f t="shared" ref="X14" si="29">SUM(X9:X13)+W14</f>
-        <v>58</v>
+        <v>278.5</v>
       </c>
       <c r="Y14" s="14">
         <f t="shared" ref="Y14" si="30">SUM(Y9:Y13)+X14</f>
-        <v>58</v>
+        <v>278.5</v>
       </c>
       <c r="Z14" s="14">
         <f t="shared" ref="Z14" si="31">SUM(Z9:Z13)+Y14</f>
-        <v>58</v>
+        <v>278.5</v>
       </c>
       <c r="AA14" s="14">
         <f t="shared" ref="AA14" si="32">SUM(AA9:AA13)+Z14</f>
-        <v>58</v>
+        <v>278.5</v>
       </c>
       <c r="AB14" s="14">
         <f t="shared" ref="AB14" si="33">SUM(AB9:AB13)+AA14</f>
-        <v>58</v>
+        <v>278.5</v>
       </c>
       <c r="AC14" s="14">
         <f t="shared" ref="AC14" si="34">SUM(AC9:AC13)+AB14</f>
-        <v>58</v>
+        <v>278.5</v>
       </c>
       <c r="AD14" s="14">
         <f t="shared" ref="AD14" si="35">SUM(AD9:AD13)+AC14</f>
-        <v>58</v>
+        <v>278.5</v>
       </c>
       <c r="AE14" s="14">
         <f t="shared" ref="AE14" si="36">SUM(AE9:AE13)+AD14</f>
-        <v>58</v>
+        <v>278.5</v>
       </c>
       <c r="AF14" s="14">
         <f t="shared" ref="AF14" si="37">SUM(AF9:AF13)+AE14</f>
-        <v>58</v>
+        <v>278.5</v>
       </c>
       <c r="AG14" s="14">
         <f t="shared" ref="AG14" si="38">SUM(AG9:AG13)+AF14</f>
-        <v>58</v>
+        <v>278.5</v>
       </c>
       <c r="AH14" s="14">
         <f t="shared" ref="AH14" si="39">SUM(AH9:AH13)+AG14</f>
-        <v>58</v>
+        <v>278.5</v>
       </c>
       <c r="AI14" s="14">
         <f t="shared" ref="AI14" si="40">SUM(AI9:AI13)+AH14</f>
-        <v>58</v>
+        <v>278.5</v>
       </c>
       <c r="AJ14" s="14">
         <f t="shared" ref="AJ14" si="41">SUM(AJ9:AJ13)+AI14</f>
-        <v>58</v>
+        <v>278.5</v>
       </c>
       <c r="AK14" s="14">
         <f t="shared" ref="AK14" si="42">SUM(AK9:AK13)+AJ14</f>
-        <v>58</v>
+        <v>278.5</v>
       </c>
       <c r="AL14" s="14">
         <f t="shared" ref="AL14" si="43">SUM(AL9:AL13)+AK14</f>
-        <v>58</v>
+        <v>278.5</v>
       </c>
     </row>
   </sheetData>
@@ -4197,17 +4277,17 @@
       <c r="I1" s="26"/>
     </row>
     <row r="2" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="77"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="78"/>
-      <c r="H2" s="78"/>
-      <c r="I2" s="79"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="74"/>
     </row>
     <row r="3" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="29" t="s">
@@ -4407,21 +4487,21 @@
       <c r="B11" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="74">
+      <c r="C11" s="69">
         <f>SUM(F4:F10)</f>
         <v>24</v>
       </c>
-      <c r="D11" s="74"/>
-      <c r="E11" s="74"/>
-      <c r="F11" s="75"/>
+      <c r="D11" s="69"/>
+      <c r="E11" s="69"/>
+      <c r="F11" s="70"/>
       <c r="G11" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="74">
+      <c r="H11" s="69">
         <f>SUM(G4:G10)</f>
         <v>24</v>
       </c>
-      <c r="I11" s="75"/>
+      <c r="I11" s="70"/>
     </row>
     <row r="12" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
@@ -4595,21 +4675,21 @@
       <c r="B19" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="74">
+      <c r="C19" s="69">
         <f>SUM(F12:F18)</f>
         <v>22</v>
       </c>
-      <c r="D19" s="74"/>
-      <c r="E19" s="74"/>
-      <c r="F19" s="75"/>
+      <c r="D19" s="69"/>
+      <c r="E19" s="69"/>
+      <c r="F19" s="70"/>
       <c r="G19" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H19" s="74">
+      <c r="H19" s="69">
         <f>SUM(G12:G18)</f>
         <v>34</v>
       </c>
-      <c r="I19" s="75"/>
+      <c r="I19" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -4645,7 +4725,7 @@
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C11" sqref="C11:F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4675,17 +4755,17 @@
       <c r="I1" s="26"/>
     </row>
     <row r="2" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="77"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="78"/>
-      <c r="H2" s="78"/>
-      <c r="I2" s="79"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="74"/>
     </row>
     <row r="3" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="29" t="s">
@@ -4892,21 +4972,21 @@
       <c r="B11" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="74">
+      <c r="C11" s="69">
         <f>SUM(F4:F10)</f>
         <v>26</v>
       </c>
-      <c r="D11" s="74"/>
-      <c r="E11" s="74"/>
-      <c r="F11" s="75"/>
+      <c r="D11" s="69"/>
+      <c r="E11" s="69"/>
+      <c r="F11" s="70"/>
       <c r="G11" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="74">
+      <c r="H11" s="69">
         <f>SUM(G4:G10)</f>
         <v>26</v>
       </c>
-      <c r="I11" s="75"/>
+      <c r="I11" s="70"/>
     </row>
     <row r="12" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="12">
@@ -5090,21 +5170,21 @@
       <c r="B19" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="74">
+      <c r="C19" s="69">
         <f>SUM(F12:F18)</f>
         <v>30</v>
       </c>
-      <c r="D19" s="74"/>
-      <c r="E19" s="74"/>
-      <c r="F19" s="75"/>
+      <c r="D19" s="69"/>
+      <c r="E19" s="69"/>
+      <c r="F19" s="70"/>
       <c r="G19" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H19" s="74">
+      <c r="H19" s="69">
         <f>SUM(G12:G18)</f>
         <v>30</v>
       </c>
-      <c r="I19" s="75"/>
+      <c r="I19" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -5138,7 +5218,7 @@
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5166,17 +5246,17 @@
       <c r="I1" s="26"/>
     </row>
     <row r="2" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="77"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="78"/>
-      <c r="H2" s="78"/>
-      <c r="I2" s="79"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="74"/>
     </row>
     <row r="3" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="29" t="s">
@@ -5217,7 +5297,7 @@
       <c r="C4" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="D4" s="66"/>
+      <c r="D4" s="61"/>
       <c r="E4" s="22" t="s">
         <v>64</v>
       </c>
@@ -5242,7 +5322,7 @@
       <c r="C5" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="66" t="s">
+      <c r="D5" s="61" t="s">
         <v>92</v>
       </c>
       <c r="E5" s="23" t="s">
@@ -5269,7 +5349,7 @@
       <c r="C6" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="67" t="s">
+      <c r="D6" s="62" t="s">
         <v>92</v>
       </c>
       <c r="E6" s="21" t="s">
@@ -5296,7 +5376,7 @@
       <c r="C7" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="67" t="s">
+      <c r="D7" s="62" t="s">
         <v>93</v>
       </c>
       <c r="E7" s="23" t="s">
@@ -5323,7 +5403,7 @@
       <c r="C8" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="D8" s="67"/>
+      <c r="D8" s="62"/>
       <c r="E8" s="20" t="s">
         <v>62</v>
       </c>
@@ -5349,7 +5429,7 @@
         <v>18</v>
       </c>
       <c r="D9" s="12"/>
-      <c r="E9" s="68">
+      <c r="E9" s="63">
         <v>43757</v>
       </c>
       <c r="F9" s="1">
@@ -5367,8 +5447,8 @@
       <c r="A10" s="11"/>
       <c r="B10" s="13"/>
       <c r="C10" s="11"/>
-      <c r="D10" s="69"/>
-      <c r="E10" s="68"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="63"/>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
       <c r="H10" s="18"/>
@@ -5381,21 +5461,21 @@
       <c r="B11" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="80">
+      <c r="C11" s="75">
         <f>SUM(F4:F10)</f>
         <v>26.5</v>
       </c>
-      <c r="D11" s="80"/>
-      <c r="E11" s="80"/>
-      <c r="F11" s="81"/>
+      <c r="D11" s="75"/>
+      <c r="E11" s="75"/>
+      <c r="F11" s="76"/>
       <c r="G11" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="80">
+      <c r="H11" s="75">
         <f>SUM(G4:G10)</f>
         <v>27.5</v>
       </c>
-      <c r="I11" s="81"/>
+      <c r="I11" s="76"/>
     </row>
     <row r="12" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="12">
@@ -5407,10 +5487,10 @@
       <c r="C12" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="66" t="s">
+      <c r="D12" s="61" t="s">
         <v>94</v>
       </c>
-      <c r="E12" s="70">
+      <c r="E12" s="65">
         <v>43759</v>
       </c>
       <c r="F12" s="12">
@@ -5434,10 +5514,10 @@
       <c r="C13" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="66" t="s">
+      <c r="D13" s="61" t="s">
         <v>95</v>
       </c>
-      <c r="E13" s="71">
+      <c r="E13" s="66">
         <v>43760</v>
       </c>
       <c r="F13" s="12">
@@ -5461,8 +5541,8 @@
       <c r="C14" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="D14" s="67"/>
-      <c r="E14" s="72">
+      <c r="D14" s="62"/>
+      <c r="E14" s="67">
         <v>43761</v>
       </c>
       <c r="F14" s="1">
@@ -5486,10 +5566,10 @@
       <c r="C15" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="67" t="s">
+      <c r="D15" s="62" t="s">
         <v>92</v>
       </c>
-      <c r="E15" s="71">
+      <c r="E15" s="66">
         <v>43762</v>
       </c>
       <c r="F15" s="1"/>
@@ -5509,10 +5589,10 @@
       <c r="C16" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="67" t="s">
+      <c r="D16" s="62" t="s">
         <v>96</v>
       </c>
-      <c r="E16" s="68">
+      <c r="E16" s="63">
         <v>43763</v>
       </c>
       <c r="F16" s="1"/>
@@ -5532,7 +5612,7 @@
       <c r="C17" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="67" t="s">
+      <c r="D17" s="62" t="s">
         <v>82</v>
       </c>
       <c r="E17" s="20">
@@ -5553,7 +5633,7 @@
       <c r="A18" s="11"/>
       <c r="B18" s="13"/>
       <c r="C18" s="11"/>
-      <c r="D18" s="69"/>
+      <c r="D18" s="64"/>
       <c r="E18" s="20"/>
       <c r="F18" s="11"/>
       <c r="G18" s="11"/>
@@ -5567,21 +5647,21 @@
       <c r="B19" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="80">
+      <c r="C19" s="75">
         <f>SUM(F12:F18)</f>
         <v>18.5</v>
       </c>
-      <c r="D19" s="80"/>
-      <c r="E19" s="80"/>
-      <c r="F19" s="81"/>
+      <c r="D19" s="75"/>
+      <c r="E19" s="75"/>
+      <c r="F19" s="76"/>
       <c r="G19" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H19" s="80">
+      <c r="H19" s="75">
         <f>SUM(G12:G18)</f>
         <v>22</v>
       </c>
-      <c r="I19" s="81"/>
+      <c r="I19" s="76"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -5615,7 +5695,7 @@
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5643,17 +5723,17 @@
       <c r="I1" s="26"/>
     </row>
     <row r="2" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="77"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="78"/>
-      <c r="H2" s="78"/>
-      <c r="I2" s="79"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="74"/>
     </row>
     <row r="3" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="29" t="s">
@@ -5694,7 +5774,7 @@
       <c r="C4" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="D4" s="66"/>
+      <c r="D4" s="61"/>
       <c r="E4" s="22" t="s">
         <v>64</v>
       </c>
@@ -5719,7 +5799,7 @@
       <c r="C5" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="66" t="s">
+      <c r="D5" s="61" t="s">
         <v>97</v>
       </c>
       <c r="E5" s="23" t="s">
@@ -5746,7 +5826,7 @@
       <c r="C6" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="66" t="s">
+      <c r="D6" s="61" t="s">
         <v>97</v>
       </c>
       <c r="E6" s="21" t="s">
@@ -5755,7 +5835,7 @@
       <c r="F6" s="1">
         <v>3</v>
       </c>
-      <c r="G6" s="73">
+      <c r="G6" s="1">
         <v>5</v>
       </c>
       <c r="H6" s="18" t="s">
@@ -5773,7 +5853,7 @@
       <c r="C7" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="66" t="s">
+      <c r="D7" s="61" t="s">
         <v>97</v>
       </c>
       <c r="E7" s="23" t="s">
@@ -5800,7 +5880,7 @@
       <c r="C8" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="D8" s="67"/>
+      <c r="D8" s="62"/>
       <c r="E8" s="20" t="s">
         <v>62</v>
       </c>
@@ -5825,7 +5905,7 @@
       <c r="C9" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="67"/>
+      <c r="D9" s="62"/>
       <c r="E9" s="20" t="s">
         <v>75</v>
       </c>
@@ -5844,7 +5924,7 @@
       <c r="A10" s="11"/>
       <c r="B10" s="13"/>
       <c r="C10" s="11"/>
-      <c r="D10" s="69"/>
+      <c r="D10" s="64"/>
       <c r="E10" s="20"/>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
@@ -5858,21 +5938,21 @@
       <c r="B11" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="80">
+      <c r="C11" s="75">
         <f>SUM(F4:F10)</f>
         <v>24</v>
       </c>
-      <c r="D11" s="80"/>
-      <c r="E11" s="80"/>
-      <c r="F11" s="81"/>
+      <c r="D11" s="75"/>
+      <c r="E11" s="75"/>
+      <c r="F11" s="76"/>
       <c r="G11" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="80">
+      <c r="H11" s="75">
         <f>SUM(G4:G10)</f>
         <v>28</v>
       </c>
-      <c r="I11" s="81"/>
+      <c r="I11" s="76"/>
     </row>
     <row r="12" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="12">
@@ -5884,7 +5964,7 @@
       <c r="C12" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="66" t="s">
+      <c r="D12" s="61" t="s">
         <v>98</v>
       </c>
       <c r="E12" s="23" t="s">
@@ -5911,7 +5991,7 @@
       <c r="C13" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="66" t="s">
+      <c r="D13" s="61" t="s">
         <v>99</v>
       </c>
       <c r="E13" s="21" t="s">
@@ -5938,7 +6018,7 @@
       <c r="C14" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="D14" s="67"/>
+      <c r="D14" s="62"/>
       <c r="E14" s="23" t="s">
         <v>73</v>
       </c>
@@ -5963,7 +6043,7 @@
       <c r="C15" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="67" t="s">
+      <c r="D15" s="62" t="s">
         <v>100</v>
       </c>
       <c r="E15" s="20" t="s">
@@ -5990,7 +6070,7 @@
       <c r="C16" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="67" t="s">
+      <c r="D16" s="62" t="s">
         <v>96</v>
       </c>
       <c r="E16" s="20" t="s">
@@ -6017,7 +6097,7 @@
       <c r="C17" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="67" t="s">
+      <c r="D17" s="62" t="s">
         <v>82</v>
       </c>
       <c r="E17" s="20" t="s">
@@ -6038,7 +6118,7 @@
       <c r="A18" s="11"/>
       <c r="B18" s="13"/>
       <c r="C18" s="11"/>
-      <c r="D18" s="69"/>
+      <c r="D18" s="64"/>
       <c r="E18" s="20"/>
       <c r="F18" s="11"/>
       <c r="G18" s="11"/>
@@ -6052,21 +6132,21 @@
       <c r="B19" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="80">
+      <c r="C19" s="75">
         <f>SUM(F12:F18)</f>
         <v>27</v>
       </c>
-      <c r="D19" s="80"/>
-      <c r="E19" s="80"/>
-      <c r="F19" s="81"/>
+      <c r="D19" s="75"/>
+      <c r="E19" s="75"/>
+      <c r="F19" s="76"/>
       <c r="G19" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H19" s="80">
+      <c r="H19" s="75">
         <f>SUM(G12:G18)</f>
         <v>30</v>
       </c>
-      <c r="I19" s="81"/>
+      <c r="I19" s="76"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -6092,6 +6172,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6099,8 +6180,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{744DDA93-81BE-4148-9787-FFABC05BF7AA}">
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12:F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6127,17 +6208,17 @@
       <c r="I1" s="26"/>
     </row>
     <row r="2" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="77"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="78"/>
-      <c r="H2" s="78"/>
-      <c r="I2" s="79"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="74"/>
     </row>
     <row r="3" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="29" t="s">
@@ -6178,11 +6259,13 @@
       <c r="C4" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="D4" s="66"/>
+      <c r="D4" s="61"/>
       <c r="E4" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="F4" s="12"/>
+      <c r="F4" s="12">
+        <v>4</v>
+      </c>
       <c r="G4" s="12">
         <v>4</v>
       </c>
@@ -6201,13 +6284,15 @@
       <c r="C5" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="66" t="s">
+      <c r="D5" s="61" t="s">
         <v>102</v>
       </c>
       <c r="E5" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="F5" s="12"/>
+      <c r="F5" s="12">
+        <v>5</v>
+      </c>
       <c r="G5" s="12">
         <v>5</v>
       </c>
@@ -6226,13 +6311,15 @@
       <c r="C6" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="66" t="s">
+      <c r="D6" s="61" t="s">
         <v>102</v>
       </c>
       <c r="E6" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="F6" s="1"/>
+      <c r="F6" s="1">
+        <v>5</v>
+      </c>
       <c r="G6" s="12">
         <v>5</v>
       </c>
@@ -6251,13 +6338,15 @@
       <c r="C7" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="66" t="s">
+      <c r="D7" s="61" t="s">
         <v>102</v>
       </c>
       <c r="E7" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="F7" s="1"/>
+      <c r="F7" s="1">
+        <v>5</v>
+      </c>
       <c r="G7" s="12">
         <v>5</v>
       </c>
@@ -6276,11 +6365,13 @@
       <c r="C8" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="D8" s="67"/>
+      <c r="D8" s="62"/>
       <c r="E8" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="F8" s="1"/>
+      <c r="F8" s="1">
+        <v>4</v>
+      </c>
       <c r="G8" s="1">
         <v>4</v>
       </c>
@@ -6299,13 +6390,15 @@
       <c r="C9" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="67" t="s">
+      <c r="D9" s="62" t="s">
         <v>103</v>
       </c>
       <c r="E9" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="F9" s="1"/>
+      <c r="F9" s="1">
+        <v>4</v>
+      </c>
       <c r="G9" s="1">
         <v>5</v>
       </c>
@@ -6318,7 +6411,7 @@
       <c r="A10" s="11"/>
       <c r="B10" s="13"/>
       <c r="C10" s="11"/>
-      <c r="D10" s="69"/>
+      <c r="D10" s="64"/>
       <c r="E10" s="20"/>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
@@ -6332,21 +6425,21 @@
       <c r="B11" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="80">
+      <c r="C11" s="75">
         <f>SUM(F4:F10)</f>
-        <v>0</v>
-      </c>
-      <c r="D11" s="80"/>
-      <c r="E11" s="80"/>
-      <c r="F11" s="81"/>
+        <v>27</v>
+      </c>
+      <c r="D11" s="75"/>
+      <c r="E11" s="75"/>
+      <c r="F11" s="76"/>
       <c r="G11" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="80">
+      <c r="H11" s="75">
         <f>SUM(G4:G10)</f>
         <v>28</v>
       </c>
-      <c r="I11" s="81"/>
+      <c r="I11" s="76"/>
     </row>
     <row r="12" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="12">
@@ -6358,13 +6451,15 @@
       <c r="C12" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="66" t="s">
+      <c r="D12" s="61" t="s">
         <v>104</v>
       </c>
       <c r="E12" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="F12" s="12"/>
+      <c r="F12" s="12">
+        <v>5</v>
+      </c>
       <c r="G12" s="12">
         <v>5</v>
       </c>
@@ -6383,13 +6478,15 @@
       <c r="C13" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="66" t="s">
+      <c r="D13" s="61" t="s">
         <v>105</v>
       </c>
       <c r="E13" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="F13" s="12"/>
+      <c r="F13" s="12">
+        <v>5</v>
+      </c>
       <c r="G13" s="12">
         <v>5</v>
       </c>
@@ -6408,11 +6505,13 @@
       <c r="C14" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="D14" s="67"/>
+      <c r="D14" s="62"/>
       <c r="E14" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="F14" s="1"/>
+      <c r="F14" s="1">
+        <v>4</v>
+      </c>
       <c r="G14" s="1">
         <v>4</v>
       </c>
@@ -6431,13 +6530,15 @@
       <c r="C15" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="67" t="s">
+      <c r="D15" s="62" t="s">
         <v>106</v>
       </c>
       <c r="E15" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="F15" s="1"/>
+      <c r="F15" s="1">
+        <v>5</v>
+      </c>
       <c r="G15" s="1">
         <v>5</v>
       </c>
@@ -6456,13 +6557,15 @@
       <c r="C16" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="67" t="s">
+      <c r="D16" s="62" t="s">
         <v>106</v>
       </c>
       <c r="E16" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="F16" s="1"/>
+      <c r="F16" s="1">
+        <v>5</v>
+      </c>
       <c r="G16" s="1">
         <v>5</v>
       </c>
@@ -6481,13 +6584,15 @@
       <c r="C17" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="82" t="s">
+      <c r="D17" s="68" t="s">
         <v>107</v>
       </c>
       <c r="E17" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="F17" s="1"/>
+      <c r="F17" s="1">
+        <v>5</v>
+      </c>
       <c r="G17" s="1">
         <v>5</v>
       </c>
@@ -6500,7 +6605,7 @@
       <c r="A18" s="11"/>
       <c r="B18" s="13"/>
       <c r="C18" s="11"/>
-      <c r="D18" s="69"/>
+      <c r="D18" s="64"/>
       <c r="E18" s="20"/>
       <c r="F18" s="11"/>
       <c r="G18" s="11"/>
@@ -6514,21 +6619,21 @@
       <c r="B19" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="80">
+      <c r="C19" s="75">
         <f>SUM(F12:F18)</f>
-        <v>0</v>
-      </c>
-      <c r="D19" s="80"/>
-      <c r="E19" s="80"/>
-      <c r="F19" s="81"/>
+        <v>29</v>
+      </c>
+      <c r="D19" s="75"/>
+      <c r="E19" s="75"/>
+      <c r="F19" s="76"/>
       <c r="G19" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H19" s="80">
+      <c r="H19" s="75">
         <f>SUM(G12:G18)</f>
         <v>29</v>
       </c>
-      <c r="I19" s="81"/>
+      <c r="I19" s="76"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/Improgress/4. Timelog/PM_TimeLog.xlsx
+++ b/Improgress/4. Timelog/PM_TimeLog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo Legion Y7000\Documents\GitHub\Capstone-Project\Improgress\4. Timelog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30DFEA66-2CD3-4403-BD09-0E036EEDB3C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A37A623B-6F3F-4197-A512-DF3898E4CAA6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3162,7 +3162,7 @@
   <dimension ref="A1:AM14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Improgress/4. Timelog/PM_TimeLog.xlsx
+++ b/Improgress/4. Timelog/PM_TimeLog.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo Legion Y7000\Documents\GitHub\Capstone-Project\Improgress\4. Timelog\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\Capstone-Project\Improgress\4. Timelog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A37A623B-6F3F-4197-A512-DF3898E4CAA6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7A58778-CED9-4B29-AB6F-33C84F4F956D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="4845" yWindow="1905" windowWidth="15375" windowHeight="7995" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="7" r:id="rId1"/>
@@ -1076,6 +1076,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1099,12 +1105,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -3161,20 +3161,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AM14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="93" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.21875" style="14" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.28515625" style="14" bestFit="1" customWidth="1"/>
     <col min="2" max="10" width="9" style="14" bestFit="1" customWidth="1"/>
-    <col min="11" max="38" width="10.33203125" style="14" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="6.6640625" style="14" bestFit="1" customWidth="1"/>
-    <col min="40" max="16384" width="8.88671875" style="14"/>
+    <col min="11" max="38" width="10.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="6.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="40" max="16384" width="8.85546875" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="33" t="s">
         <v>5</v>
       </c>
@@ -3293,7 +3293,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:39" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="37" t="s">
         <v>66</v>
       </c>
@@ -3345,7 +3345,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:39" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="42" t="s">
         <v>108</v>
       </c>
@@ -3397,7 +3397,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:39" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="37" t="s">
         <v>109</v>
       </c>
@@ -3449,7 +3449,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:39" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="42" t="s">
         <v>110</v>
       </c>
@@ -3501,7 +3501,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:39" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="46" t="s">
         <v>111</v>
       </c>
@@ -3553,7 +3553,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:39" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="14">
         <f>SUM(B2:B6)</f>
         <v>127.5</v>
@@ -3703,7 +3703,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="8" spans="1:39" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="50" t="s">
         <v>23</v>
       </c>
@@ -3822,15 +3822,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:39" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="B9" s="77">
+      <c r="B9" s="69">
         <f>'Đạt Huỳnh'!H11</f>
         <v>24</v>
       </c>
-      <c r="C9" s="78">
+      <c r="C9" s="70">
         <f>'Đạt Huỳnh'!H19</f>
         <v>34</v>
       </c>
@@ -3874,7 +3874,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:39" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="42" t="s">
         <v>108</v>
       </c>
@@ -3926,7 +3926,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:39" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="37" t="s">
         <v>109</v>
       </c>
@@ -3978,7 +3978,7 @@
         <v>49.5</v>
       </c>
     </row>
-    <row r="12" spans="1:39" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="42" t="s">
         <v>110</v>
       </c>
@@ -4030,7 +4030,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:39" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="46" t="s">
         <v>111</v>
       </c>
@@ -4082,7 +4082,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:39" x14ac:dyDescent="0.2">
       <c r="B14" s="14">
         <f>SUM(B9:B13)</f>
         <v>133.5</v>
@@ -4243,25 +4243,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D4" sqref="C4:I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.109375" style="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.88671875" style="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.88671875" style="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="42.6640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.7109375" style="14" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="14" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" style="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.88671875" style="14"/>
-    <col min="8" max="8" width="12.109375" style="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="49.33203125" style="14" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="14"/>
+    <col min="7" max="7" width="8.85546875" style="14"/>
+    <col min="8" max="8" width="12.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="49.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.85546875" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
         <v>65</v>
       </c>
@@ -4276,20 +4276,20 @@
       <c r="H1" s="25"/>
       <c r="I1" s="26"/>
     </row>
-    <row r="2" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A2" s="71" t="s">
+    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="72"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="73"/>
-      <c r="I2" s="74"/>
-    </row>
-    <row r="3" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="74"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="76"/>
+    </row>
+    <row r="3" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
         <v>1</v>
       </c>
@@ -4318,7 +4318,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A4" s="12">
         <v>1</v>
       </c>
@@ -4343,7 +4343,7 @@
       </c>
       <c r="I4" s="19"/>
     </row>
-    <row r="5" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A5" s="12">
         <v>1</v>
       </c>
@@ -4373,7 +4373,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -4400,7 +4400,7 @@
       </c>
       <c r="I6" s="3"/>
     </row>
-    <row r="7" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -4427,7 +4427,7 @@
       </c>
       <c r="I7" s="3"/>
     </row>
-    <row r="8" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>1</v>
       </c>
@@ -4452,7 +4452,7 @@
       </c>
       <c r="I8" s="3"/>
     </row>
-    <row r="9" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>1</v>
       </c>
@@ -4469,7 +4469,7 @@
       <c r="H9" s="18"/>
       <c r="I9" s="3"/>
     </row>
-    <row r="10" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11"/>
       <c r="B10" s="13"/>
       <c r="C10" s="11"/>
@@ -4480,30 +4480,30 @@
       <c r="H10" s="18"/>
       <c r="I10" s="5"/>
     </row>
-    <row r="11" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="69">
+      <c r="C11" s="71">
         <f>SUM(F4:F10)</f>
         <v>24</v>
       </c>
-      <c r="D11" s="69"/>
-      <c r="E11" s="69"/>
-      <c r="F11" s="70"/>
+      <c r="D11" s="71"/>
+      <c r="E11" s="71"/>
+      <c r="F11" s="72"/>
       <c r="G11" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="69">
+      <c r="H11" s="71">
         <f>SUM(G4:G10)</f>
         <v>24</v>
       </c>
-      <c r="I11" s="70"/>
-    </row>
-    <row r="12" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="I11" s="72"/>
+    </row>
+    <row r="12" spans="1:11" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A12" s="12">
         <v>2</v>
       </c>
@@ -4530,7 +4530,7 @@
       </c>
       <c r="I12" s="19"/>
     </row>
-    <row r="13" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="30" x14ac:dyDescent="0.2">
       <c r="A13" s="12">
         <v>2</v>
       </c>
@@ -4559,7 +4559,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A14" s="12">
         <v>2</v>
       </c>
@@ -4584,7 +4584,7 @@
       </c>
       <c r="I14" s="3"/>
     </row>
-    <row r="15" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A15" s="12">
         <v>2</v>
       </c>
@@ -4611,7 +4611,7 @@
       </c>
       <c r="I15" s="3"/>
     </row>
-    <row r="16" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A16" s="12">
         <v>2</v>
       </c>
@@ -4634,7 +4634,7 @@
       <c r="H16" s="18"/>
       <c r="I16" s="3"/>
     </row>
-    <row r="17" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A17" s="12">
         <v>2</v>
       </c>
@@ -4657,7 +4657,7 @@
       <c r="H17" s="18"/>
       <c r="I17" s="3"/>
     </row>
-    <row r="18" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="11"/>
       <c r="B18" s="13"/>
       <c r="C18" s="11"/>
@@ -4668,28 +4668,28 @@
       <c r="H18" s="18"/>
       <c r="I18" s="5"/>
     </row>
-    <row r="19" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="69">
+      <c r="C19" s="71">
         <f>SUM(F12:F18)</f>
         <v>22</v>
       </c>
-      <c r="D19" s="69"/>
-      <c r="E19" s="69"/>
-      <c r="F19" s="70"/>
+      <c r="D19" s="71"/>
+      <c r="E19" s="71"/>
+      <c r="F19" s="72"/>
       <c r="G19" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H19" s="69">
+      <c r="H19" s="71">
         <f>SUM(G12:G18)</f>
         <v>34</v>
       </c>
-      <c r="I19" s="70"/>
+      <c r="I19" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -4724,22 +4724,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11:F11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="C4:I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="57.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="49.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="57.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="49.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="24" t="s">
         <v>65</v>
       </c>
@@ -4754,20 +4754,20 @@
       <c r="H1" s="25"/>
       <c r="I1" s="26"/>
     </row>
-    <row r="2" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="71" t="s">
+    <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="72"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="73"/>
-      <c r="I2" s="74"/>
-    </row>
-    <row r="3" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="74"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="76"/>
+    </row>
+    <row r="3" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
         <v>1</v>
       </c>
@@ -4796,7 +4796,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
         <v>1</v>
       </c>
@@ -4821,7 +4821,7 @@
       </c>
       <c r="I4" s="19"/>
     </row>
-    <row r="5" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
         <v>1</v>
       </c>
@@ -4848,7 +4848,7 @@
       </c>
       <c r="I5" s="19"/>
     </row>
-    <row r="6" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -4875,7 +4875,7 @@
       </c>
       <c r="I6" s="3"/>
     </row>
-    <row r="7" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -4902,7 +4902,7 @@
       </c>
       <c r="I7" s="3"/>
     </row>
-    <row r="8" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1</v>
       </c>
@@ -4927,7 +4927,7 @@
       </c>
       <c r="I8" s="3"/>
     </row>
-    <row r="9" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>1</v>
       </c>
@@ -4954,7 +4954,7 @@
       </c>
       <c r="I9" s="3"/>
     </row>
-    <row r="10" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11"/>
       <c r="B10" s="13"/>
       <c r="C10" s="11"/>
@@ -4965,30 +4965,30 @@
       <c r="H10" s="18"/>
       <c r="I10" s="5"/>
     </row>
-    <row r="11" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="69">
+      <c r="C11" s="71">
         <f>SUM(F4:F10)</f>
         <v>26</v>
       </c>
-      <c r="D11" s="69"/>
-      <c r="E11" s="69"/>
-      <c r="F11" s="70"/>
+      <c r="D11" s="71"/>
+      <c r="E11" s="71"/>
+      <c r="F11" s="72"/>
       <c r="G11" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="69">
+      <c r="H11" s="71">
         <f>SUM(G4:G10)</f>
         <v>26</v>
       </c>
-      <c r="I11" s="70"/>
-    </row>
-    <row r="12" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I11" s="72"/>
+    </row>
+    <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
         <v>2</v>
       </c>
@@ -5017,7 +5017,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
         <v>2</v>
       </c>
@@ -5044,7 +5044,7 @@
       </c>
       <c r="I13" s="19"/>
     </row>
-    <row r="14" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <v>2</v>
       </c>
@@ -5069,7 +5069,7 @@
       </c>
       <c r="I14" s="3"/>
     </row>
-    <row r="15" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="12">
         <v>2</v>
       </c>
@@ -5098,7 +5098,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="12">
         <v>2</v>
       </c>
@@ -5125,7 +5125,7 @@
       </c>
       <c r="I16" s="3"/>
     </row>
-    <row r="17" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="12">
         <v>2</v>
       </c>
@@ -5152,7 +5152,7 @@
       </c>
       <c r="I17" s="3"/>
     </row>
-    <row r="18" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="11"/>
       <c r="B18" s="13"/>
       <c r="C18" s="11"/>
@@ -5163,28 +5163,28 @@
       <c r="H18" s="18"/>
       <c r="I18" s="5"/>
     </row>
-    <row r="19" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="69">
+      <c r="C19" s="71">
         <f>SUM(F12:F18)</f>
         <v>30</v>
       </c>
-      <c r="D19" s="69"/>
-      <c r="E19" s="69"/>
-      <c r="F19" s="70"/>
+      <c r="D19" s="71"/>
+      <c r="E19" s="71"/>
+      <c r="F19" s="72"/>
       <c r="G19" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H19" s="69">
+      <c r="H19" s="71">
         <f>SUM(G12:G18)</f>
         <v>30</v>
       </c>
-      <c r="I19" s="70"/>
+      <c r="I19" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -5221,18 +5221,18 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.88671875" customWidth="1"/>
-    <col min="9" max="9" width="11.88671875" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="24" t="s">
         <v>65</v>
       </c>
@@ -5245,20 +5245,20 @@
       <c r="H1" s="25"/>
       <c r="I1" s="26"/>
     </row>
-    <row r="2" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="71" t="s">
+    <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="72"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="73"/>
-      <c r="I2" s="74"/>
-    </row>
-    <row r="3" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="74"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="76"/>
+    </row>
+    <row r="3" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
         <v>1</v>
       </c>
@@ -5287,7 +5287,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
         <v>1</v>
       </c>
@@ -5312,7 +5312,7 @@
       </c>
       <c r="I4" s="19"/>
     </row>
-    <row r="5" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
         <v>1</v>
       </c>
@@ -5339,7 +5339,7 @@
       </c>
       <c r="I5" s="19"/>
     </row>
-    <row r="6" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -5366,7 +5366,7 @@
       </c>
       <c r="I6" s="3"/>
     </row>
-    <row r="7" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -5393,7 +5393,7 @@
       </c>
       <c r="I7" s="3"/>
     </row>
-    <row r="8" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1</v>
       </c>
@@ -5418,7 +5418,7 @@
       </c>
       <c r="I8" s="3"/>
     </row>
-    <row r="9" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>1</v>
       </c>
@@ -5443,7 +5443,7 @@
       </c>
       <c r="I9" s="3"/>
     </row>
-    <row r="10" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11"/>
       <c r="B10" s="13"/>
       <c r="C10" s="11"/>
@@ -5454,30 +5454,30 @@
       <c r="H10" s="18"/>
       <c r="I10" s="5"/>
     </row>
-    <row r="11" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="75">
+      <c r="C11" s="77">
         <f>SUM(F4:F10)</f>
         <v>26.5</v>
       </c>
-      <c r="D11" s="75"/>
-      <c r="E11" s="75"/>
-      <c r="F11" s="76"/>
+      <c r="D11" s="77"/>
+      <c r="E11" s="77"/>
+      <c r="F11" s="78"/>
       <c r="G11" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="75">
+      <c r="H11" s="77">
         <f>SUM(G4:G10)</f>
         <v>27.5</v>
       </c>
-      <c r="I11" s="76"/>
-    </row>
-    <row r="12" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I11" s="78"/>
+    </row>
+    <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
         <v>2</v>
       </c>
@@ -5504,7 +5504,7 @@
       </c>
       <c r="I12" s="19"/>
     </row>
-    <row r="13" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
         <v>2</v>
       </c>
@@ -5531,7 +5531,7 @@
       </c>
       <c r="I13" s="19"/>
     </row>
-    <row r="14" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <v>2</v>
       </c>
@@ -5556,7 +5556,7 @@
       </c>
       <c r="I14" s="3"/>
     </row>
-    <row r="15" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="12">
         <v>2</v>
       </c>
@@ -5579,7 +5579,7 @@
       </c>
       <c r="I15" s="3"/>
     </row>
-    <row r="16" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="12">
         <v>2</v>
       </c>
@@ -5602,7 +5602,7 @@
       </c>
       <c r="I16" s="3"/>
     </row>
-    <row r="17" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="12">
         <v>2</v>
       </c>
@@ -5629,7 +5629,7 @@
       </c>
       <c r="I17" s="3"/>
     </row>
-    <row r="18" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="11"/>
       <c r="B18" s="13"/>
       <c r="C18" s="11"/>
@@ -5640,28 +5640,28 @@
       <c r="H18" s="18"/>
       <c r="I18" s="5"/>
     </row>
-    <row r="19" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="75">
+      <c r="C19" s="77">
         <f>SUM(F12:F18)</f>
         <v>18.5</v>
       </c>
-      <c r="D19" s="75"/>
-      <c r="E19" s="75"/>
-      <c r="F19" s="76"/>
+      <c r="D19" s="77"/>
+      <c r="E19" s="77"/>
+      <c r="F19" s="78"/>
       <c r="G19" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H19" s="75">
+      <c r="H19" s="77">
         <f>SUM(G12:G18)</f>
         <v>22</v>
       </c>
-      <c r="I19" s="76"/>
+      <c r="I19" s="78"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -5698,18 +5698,18 @@
       <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.77734375" customWidth="1"/>
-    <col min="9" max="9" width="11.77734375" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="24" t="s">
         <v>65</v>
       </c>
@@ -5722,20 +5722,20 @@
       <c r="H1" s="25"/>
       <c r="I1" s="26"/>
     </row>
-    <row r="2" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="71" t="s">
+    <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="72"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="73"/>
-      <c r="I2" s="74"/>
-    </row>
-    <row r="3" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="74"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="76"/>
+    </row>
+    <row r="3" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
         <v>1</v>
       </c>
@@ -5764,7 +5764,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
         <v>1</v>
       </c>
@@ -5789,7 +5789,7 @@
       </c>
       <c r="I4" s="19"/>
     </row>
-    <row r="5" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
         <v>1</v>
       </c>
@@ -5816,7 +5816,7 @@
       </c>
       <c r="I5" s="19"/>
     </row>
-    <row r="6" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -5843,7 +5843,7 @@
       </c>
       <c r="I6" s="3"/>
     </row>
-    <row r="7" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -5870,7 +5870,7 @@
       </c>
       <c r="I7" s="3"/>
     </row>
-    <row r="8" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1</v>
       </c>
@@ -5895,7 +5895,7 @@
       </c>
       <c r="I8" s="3"/>
     </row>
-    <row r="9" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>1</v>
       </c>
@@ -5920,7 +5920,7 @@
       </c>
       <c r="I9" s="3"/>
     </row>
-    <row r="10" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11"/>
       <c r="B10" s="13"/>
       <c r="C10" s="11"/>
@@ -5931,30 +5931,30 @@
       <c r="H10" s="18"/>
       <c r="I10" s="5"/>
     </row>
-    <row r="11" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="75">
+      <c r="C11" s="77">
         <f>SUM(F4:F10)</f>
         <v>24</v>
       </c>
-      <c r="D11" s="75"/>
-      <c r="E11" s="75"/>
-      <c r="F11" s="76"/>
+      <c r="D11" s="77"/>
+      <c r="E11" s="77"/>
+      <c r="F11" s="78"/>
       <c r="G11" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="75">
+      <c r="H11" s="77">
         <f>SUM(G4:G10)</f>
         <v>28</v>
       </c>
-      <c r="I11" s="76"/>
-    </row>
-    <row r="12" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I11" s="78"/>
+    </row>
+    <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
         <v>2</v>
       </c>
@@ -5981,7 +5981,7 @@
       </c>
       <c r="I12" s="19"/>
     </row>
-    <row r="13" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
         <v>2</v>
       </c>
@@ -6008,7 +6008,7 @@
       </c>
       <c r="I13" s="19"/>
     </row>
-    <row r="14" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <v>2</v>
       </c>
@@ -6033,7 +6033,7 @@
       </c>
       <c r="I14" s="3"/>
     </row>
-    <row r="15" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="12">
         <v>2</v>
       </c>
@@ -6060,7 +6060,7 @@
       </c>
       <c r="I15" s="3"/>
     </row>
-    <row r="16" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="12">
         <v>2</v>
       </c>
@@ -6087,7 +6087,7 @@
       </c>
       <c r="I16" s="3"/>
     </row>
-    <row r="17" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="12">
         <v>2</v>
       </c>
@@ -6114,7 +6114,7 @@
       </c>
       <c r="I17" s="3"/>
     </row>
-    <row r="18" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="11"/>
       <c r="B18" s="13"/>
       <c r="C18" s="11"/>
@@ -6125,28 +6125,28 @@
       <c r="H18" s="18"/>
       <c r="I18" s="5"/>
     </row>
-    <row r="19" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="75">
+      <c r="C19" s="77">
         <f>SUM(F12:F18)</f>
         <v>27</v>
       </c>
-      <c r="D19" s="75"/>
-      <c r="E19" s="75"/>
-      <c r="F19" s="76"/>
+      <c r="D19" s="77"/>
+      <c r="E19" s="77"/>
+      <c r="F19" s="78"/>
       <c r="G19" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H19" s="75">
+      <c r="H19" s="77">
         <f>SUM(G12:G18)</f>
         <v>30</v>
       </c>
-      <c r="I19" s="76"/>
+      <c r="I19" s="78"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -6184,17 +6184,17 @@
       <selection activeCell="F12" sqref="F12:F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.88671875" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="24" t="s">
         <v>65</v>
       </c>
@@ -6207,20 +6207,20 @@
       <c r="H1" s="25"/>
       <c r="I1" s="26"/>
     </row>
-    <row r="2" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="71" t="s">
+    <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="72"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="73"/>
-      <c r="I2" s="74"/>
-    </row>
-    <row r="3" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="74"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="76"/>
+    </row>
+    <row r="3" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
         <v>1</v>
       </c>
@@ -6249,7 +6249,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
         <v>1</v>
       </c>
@@ -6274,7 +6274,7 @@
       </c>
       <c r="I4" s="19"/>
     </row>
-    <row r="5" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
         <v>1</v>
       </c>
@@ -6301,7 +6301,7 @@
       </c>
       <c r="I5" s="19"/>
     </row>
-    <row r="6" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -6328,7 +6328,7 @@
       </c>
       <c r="I6" s="3"/>
     </row>
-    <row r="7" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -6355,7 +6355,7 @@
       </c>
       <c r="I7" s="3"/>
     </row>
-    <row r="8" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1</v>
       </c>
@@ -6380,7 +6380,7 @@
       </c>
       <c r="I8" s="3"/>
     </row>
-    <row r="9" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>1</v>
       </c>
@@ -6407,7 +6407,7 @@
       </c>
       <c r="I9" s="3"/>
     </row>
-    <row r="10" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11"/>
       <c r="B10" s="13"/>
       <c r="C10" s="11"/>
@@ -6418,30 +6418,30 @@
       <c r="H10" s="18"/>
       <c r="I10" s="5"/>
     </row>
-    <row r="11" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="75">
+      <c r="C11" s="77">
         <f>SUM(F4:F10)</f>
         <v>27</v>
       </c>
-      <c r="D11" s="75"/>
-      <c r="E11" s="75"/>
-      <c r="F11" s="76"/>
+      <c r="D11" s="77"/>
+      <c r="E11" s="77"/>
+      <c r="F11" s="78"/>
       <c r="G11" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="75">
+      <c r="H11" s="77">
         <f>SUM(G4:G10)</f>
         <v>28</v>
       </c>
-      <c r="I11" s="76"/>
-    </row>
-    <row r="12" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I11" s="78"/>
+    </row>
+    <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
         <v>2</v>
       </c>
@@ -6468,7 +6468,7 @@
       </c>
       <c r="I12" s="19"/>
     </row>
-    <row r="13" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
         <v>2</v>
       </c>
@@ -6495,7 +6495,7 @@
       </c>
       <c r="I13" s="19"/>
     </row>
-    <row r="14" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <v>2</v>
       </c>
@@ -6520,7 +6520,7 @@
       </c>
       <c r="I14" s="3"/>
     </row>
-    <row r="15" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="12">
         <v>2</v>
       </c>
@@ -6547,7 +6547,7 @@
       </c>
       <c r="I15" s="3"/>
     </row>
-    <row r="16" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="12">
         <v>2</v>
       </c>
@@ -6574,7 +6574,7 @@
       </c>
       <c r="I16" s="3"/>
     </row>
-    <row r="17" spans="1:9" ht="30" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="12">
         <v>2</v>
       </c>
@@ -6601,7 +6601,7 @@
       </c>
       <c r="I17" s="3"/>
     </row>
-    <row r="18" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="11"/>
       <c r="B18" s="13"/>
       <c r="C18" s="11"/>
@@ -6612,28 +6612,28 @@
       <c r="H18" s="18"/>
       <c r="I18" s="5"/>
     </row>
-    <row r="19" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="75">
+      <c r="C19" s="77">
         <f>SUM(F12:F18)</f>
         <v>29</v>
       </c>
-      <c r="D19" s="75"/>
-      <c r="E19" s="75"/>
-      <c r="F19" s="76"/>
+      <c r="D19" s="77"/>
+      <c r="E19" s="77"/>
+      <c r="F19" s="78"/>
       <c r="G19" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H19" s="75">
+      <c r="H19" s="77">
         <f>SUM(G12:G18)</f>
         <v>29</v>
       </c>
-      <c r="I19" s="76"/>
+      <c r="I19" s="78"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/Improgress/4. Timelog/PM_TimeLog.xlsx
+++ b/Improgress/4. Timelog/PM_TimeLog.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\Capstone-Project\Improgress\4. Timelog\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo Legion Y7000\Documents\GitHub\Capstone-Project\Improgress\4. Timelog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7A58778-CED9-4B29-AB6F-33C84F4F956D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60D08440-4418-43FD-9E1E-D1E70164627D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="4845" yWindow="1905" windowWidth="15375" windowHeight="7995" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="7" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="112">
   <si>
     <t>Work in period</t>
   </si>
@@ -457,7 +457,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -481,8 +481,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="33">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -570,36 +576,6 @@
         <color auto="1"/>
       </right>
       <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
         <color auto="1"/>
       </top>
       <bottom style="medium">
@@ -860,21 +836,6 @@
       <left style="medium">
         <color auto="1"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
       <right style="medium">
         <color auto="1"/>
       </right>
@@ -900,9 +861,15 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -911,62 +878,44 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -981,117 +930,108 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="32" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1100,10 +1040,28 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3162,1072 +3120,1072 @@
   <dimension ref="A1:AM14"/>
   <sheetViews>
     <sheetView zoomScale="93" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" style="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="10" width="9" style="14" bestFit="1" customWidth="1"/>
-    <col min="11" max="38" width="10.28515625" style="14" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="6.7109375" style="14" bestFit="1" customWidth="1"/>
-    <col min="40" max="16384" width="8.85546875" style="14"/>
+    <col min="1" max="1" width="18.33203125" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="10" width="9" style="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="38" width="10.33203125" style="12" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="6.6640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="40" max="16384" width="8.88671875" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="33" t="s">
+    <row r="1" spans="1:39" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="34" t="s">
+      <c r="E1" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="33" t="s">
+      <c r="F1" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="34" t="s">
+      <c r="G1" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="33" t="s">
+      <c r="H1" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="34" t="s">
+      <c r="I1" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="J1" s="33" t="s">
+      <c r="J1" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="K1" s="34" t="s">
+      <c r="K1" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="L1" s="33" t="s">
+      <c r="L1" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="M1" s="34" t="s">
+      <c r="M1" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="N1" s="33" t="s">
+      <c r="N1" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="O1" s="34" t="s">
+      <c r="O1" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="P1" s="33" t="s">
+      <c r="P1" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="Q1" s="34" t="s">
+      <c r="Q1" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="R1" s="33" t="s">
+      <c r="R1" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="S1" s="34" t="s">
+      <c r="S1" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="T1" s="33" t="s">
+      <c r="T1" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="U1" s="34" t="s">
+      <c r="U1" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="V1" s="33" t="s">
+      <c r="V1" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="W1" s="34" t="s">
+      <c r="W1" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="X1" s="33" t="s">
+      <c r="X1" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="Y1" s="34" t="s">
+      <c r="Y1" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="Z1" s="33" t="s">
+      <c r="Z1" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="AA1" s="34" t="s">
+      <c r="AA1" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="AB1" s="33" t="s">
+      <c r="AB1" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="AC1" s="34" t="s">
+      <c r="AC1" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="AD1" s="33" t="s">
+      <c r="AD1" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="AE1" s="35" t="s">
+      <c r="AE1" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="AF1" s="36" t="s">
+      <c r="AF1" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="AG1" s="35" t="s">
+      <c r="AG1" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="AH1" s="35" t="s">
+      <c r="AH1" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="AI1" s="35" t="s">
+      <c r="AI1" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="AJ1" s="35" t="s">
+      <c r="AJ1" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="AK1" s="35" t="s">
+      <c r="AK1" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="AL1" s="35" t="s">
+      <c r="AL1" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="AM1" s="35" t="s">
+      <c r="AM1" s="30" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="37" t="s">
+    <row r="2" spans="1:39" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="38">
+      <c r="B2" s="33">
         <f>'Đạt Huỳnh'!C11</f>
         <v>24</v>
       </c>
-      <c r="C2" s="38">
-        <f>'Đạt Huỳnh'!C19</f>
+      <c r="C2" s="33">
+        <f>'Đạt Huỳnh'!C20</f>
         <v>22</v>
       </c>
-      <c r="D2" s="38"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="39"/>
-      <c r="N2" s="38"/>
-      <c r="O2" s="39"/>
-      <c r="P2" s="38"/>
-      <c r="Q2" s="39"/>
-      <c r="R2" s="38"/>
-      <c r="S2" s="39"/>
-      <c r="T2" s="38"/>
-      <c r="U2" s="39"/>
-      <c r="V2" s="38"/>
-      <c r="W2" s="39"/>
-      <c r="X2" s="38"/>
-      <c r="Y2" s="39"/>
-      <c r="Z2" s="38"/>
-      <c r="AA2" s="39"/>
-      <c r="AB2" s="38"/>
-      <c r="AC2" s="39"/>
-      <c r="AD2" s="38"/>
-      <c r="AE2" s="40"/>
-      <c r="AF2" s="41"/>
-      <c r="AG2" s="40"/>
-      <c r="AH2" s="40"/>
-      <c r="AI2" s="40"/>
-      <c r="AJ2" s="40"/>
-      <c r="AK2" s="40"/>
-      <c r="AL2" s="40"/>
-      <c r="AM2" s="40">
+      <c r="D2" s="33"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="34"/>
+      <c r="P2" s="33"/>
+      <c r="Q2" s="34"/>
+      <c r="R2" s="33"/>
+      <c r="S2" s="34"/>
+      <c r="T2" s="33"/>
+      <c r="U2" s="34"/>
+      <c r="V2" s="33"/>
+      <c r="W2" s="34"/>
+      <c r="X2" s="33"/>
+      <c r="Y2" s="34"/>
+      <c r="Z2" s="33"/>
+      <c r="AA2" s="34"/>
+      <c r="AB2" s="33"/>
+      <c r="AC2" s="34"/>
+      <c r="AD2" s="33"/>
+      <c r="AE2" s="35"/>
+      <c r="AF2" s="36"/>
+      <c r="AG2" s="35"/>
+      <c r="AH2" s="35"/>
+      <c r="AI2" s="35"/>
+      <c r="AJ2" s="35"/>
+      <c r="AK2" s="35"/>
+      <c r="AL2" s="35"/>
+      <c r="AM2" s="35">
         <f>SUM(B2:AL2)</f>
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="42" t="s">
+    <row r="3" spans="1:39" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="37" t="s">
         <v>108</v>
       </c>
-      <c r="B3" s="41">
+      <c r="B3" s="36">
         <f>'Quốc Nhân'!C11</f>
         <v>26</v>
       </c>
-      <c r="C3" s="41">
-        <f>'Quốc Nhân'!C19</f>
+      <c r="C3" s="36">
+        <f>'Quốc Nhân'!C20</f>
         <v>30</v>
       </c>
-      <c r="D3" s="41"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="43"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="43"/>
-      <c r="N3" s="41"/>
-      <c r="O3" s="43"/>
-      <c r="P3" s="41"/>
-      <c r="Q3" s="43"/>
-      <c r="R3" s="41"/>
-      <c r="S3" s="43"/>
-      <c r="T3" s="41"/>
-      <c r="U3" s="43"/>
-      <c r="V3" s="41"/>
-      <c r="W3" s="43"/>
-      <c r="X3" s="41"/>
-      <c r="Y3" s="43"/>
-      <c r="Z3" s="41"/>
-      <c r="AA3" s="43"/>
-      <c r="AB3" s="41"/>
-      <c r="AC3" s="43"/>
-      <c r="AD3" s="41"/>
-      <c r="AE3" s="44"/>
-      <c r="AF3" s="41"/>
-      <c r="AG3" s="44"/>
-      <c r="AH3" s="44"/>
-      <c r="AI3" s="44"/>
-      <c r="AJ3" s="44"/>
-      <c r="AK3" s="44"/>
-      <c r="AL3" s="44"/>
-      <c r="AM3" s="40">
+      <c r="D3" s="36"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="36"/>
+      <c r="O3" s="38"/>
+      <c r="P3" s="36"/>
+      <c r="Q3" s="38"/>
+      <c r="R3" s="36"/>
+      <c r="S3" s="38"/>
+      <c r="T3" s="36"/>
+      <c r="U3" s="38"/>
+      <c r="V3" s="36"/>
+      <c r="W3" s="38"/>
+      <c r="X3" s="36"/>
+      <c r="Y3" s="38"/>
+      <c r="Z3" s="36"/>
+      <c r="AA3" s="38"/>
+      <c r="AB3" s="36"/>
+      <c r="AC3" s="38"/>
+      <c r="AD3" s="36"/>
+      <c r="AE3" s="39"/>
+      <c r="AF3" s="36"/>
+      <c r="AG3" s="39"/>
+      <c r="AH3" s="39"/>
+      <c r="AI3" s="39"/>
+      <c r="AJ3" s="39"/>
+      <c r="AK3" s="39"/>
+      <c r="AL3" s="39"/>
+      <c r="AM3" s="35">
         <f t="shared" ref="AM3:AM6" si="0">SUM(B3:AL3)</f>
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="37" t="s">
+    <row r="4" spans="1:39" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="32" t="s">
         <v>109</v>
       </c>
-      <c r="B4" s="45">
+      <c r="B4" s="40">
         <f>'Vương Trương'!C11</f>
         <v>26.5</v>
       </c>
-      <c r="C4" s="45">
-        <f>'Vương Trương'!C19</f>
+      <c r="C4" s="40">
+        <f>'Vương Trương'!C20</f>
         <v>18.5</v>
       </c>
-      <c r="D4" s="38"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="39"/>
-      <c r="L4" s="38"/>
-      <c r="M4" s="39"/>
-      <c r="N4" s="38"/>
-      <c r="O4" s="39"/>
-      <c r="P4" s="38"/>
-      <c r="Q4" s="39"/>
-      <c r="R4" s="38"/>
-      <c r="S4" s="39"/>
-      <c r="T4" s="38"/>
-      <c r="U4" s="39"/>
-      <c r="V4" s="38"/>
-      <c r="W4" s="39"/>
-      <c r="X4" s="38"/>
-      <c r="Y4" s="39"/>
-      <c r="Z4" s="38"/>
-      <c r="AA4" s="39"/>
-      <c r="AB4" s="38"/>
-      <c r="AC4" s="39"/>
-      <c r="AD4" s="38"/>
-      <c r="AE4" s="40"/>
-      <c r="AF4" s="41"/>
-      <c r="AG4" s="40"/>
-      <c r="AH4" s="40"/>
-      <c r="AI4" s="40"/>
-      <c r="AJ4" s="40"/>
-      <c r="AK4" s="40"/>
-      <c r="AL4" s="40"/>
-      <c r="AM4" s="40">
+      <c r="D4" s="33"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="33"/>
+      <c r="M4" s="34"/>
+      <c r="N4" s="33"/>
+      <c r="O4" s="34"/>
+      <c r="P4" s="33"/>
+      <c r="Q4" s="34"/>
+      <c r="R4" s="33"/>
+      <c r="S4" s="34"/>
+      <c r="T4" s="33"/>
+      <c r="U4" s="34"/>
+      <c r="V4" s="33"/>
+      <c r="W4" s="34"/>
+      <c r="X4" s="33"/>
+      <c r="Y4" s="34"/>
+      <c r="Z4" s="33"/>
+      <c r="AA4" s="34"/>
+      <c r="AB4" s="33"/>
+      <c r="AC4" s="34"/>
+      <c r="AD4" s="33"/>
+      <c r="AE4" s="35"/>
+      <c r="AF4" s="36"/>
+      <c r="AG4" s="35"/>
+      <c r="AH4" s="35"/>
+      <c r="AI4" s="35"/>
+      <c r="AJ4" s="35"/>
+      <c r="AK4" s="35"/>
+      <c r="AL4" s="35"/>
+      <c r="AM4" s="35">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="42" t="s">
+    <row r="5" spans="1:39" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="37" t="s">
         <v>110</v>
       </c>
-      <c r="B5" s="41">
+      <c r="B5" s="36">
         <f>'Anh Minh'!C11</f>
         <v>24</v>
       </c>
-      <c r="C5" s="41">
-        <f>'Anh Minh'!C19</f>
+      <c r="C5" s="36">
+        <f>'Anh Minh'!C20</f>
         <v>27</v>
       </c>
-      <c r="D5" s="41"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="43"/>
-      <c r="J5" s="41"/>
-      <c r="K5" s="43"/>
-      <c r="L5" s="41"/>
-      <c r="M5" s="43"/>
-      <c r="N5" s="41"/>
-      <c r="O5" s="43"/>
-      <c r="P5" s="41"/>
-      <c r="Q5" s="43"/>
-      <c r="R5" s="41"/>
-      <c r="S5" s="43"/>
-      <c r="T5" s="41"/>
-      <c r="U5" s="43"/>
-      <c r="V5" s="41"/>
-      <c r="W5" s="43"/>
-      <c r="X5" s="41"/>
-      <c r="Y5" s="43"/>
-      <c r="Z5" s="41"/>
-      <c r="AA5" s="43"/>
-      <c r="AB5" s="41"/>
-      <c r="AC5" s="43"/>
-      <c r="AD5" s="41"/>
-      <c r="AE5" s="44"/>
-      <c r="AF5" s="38"/>
-      <c r="AG5" s="44"/>
-      <c r="AH5" s="44"/>
-      <c r="AI5" s="44"/>
-      <c r="AJ5" s="44"/>
-      <c r="AK5" s="44"/>
-      <c r="AL5" s="44"/>
-      <c r="AM5" s="40">
+      <c r="D5" s="36"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="38"/>
+      <c r="L5" s="36"/>
+      <c r="M5" s="38"/>
+      <c r="N5" s="36"/>
+      <c r="O5" s="38"/>
+      <c r="P5" s="36"/>
+      <c r="Q5" s="38"/>
+      <c r="R5" s="36"/>
+      <c r="S5" s="38"/>
+      <c r="T5" s="36"/>
+      <c r="U5" s="38"/>
+      <c r="V5" s="36"/>
+      <c r="W5" s="38"/>
+      <c r="X5" s="36"/>
+      <c r="Y5" s="38"/>
+      <c r="Z5" s="36"/>
+      <c r="AA5" s="38"/>
+      <c r="AB5" s="36"/>
+      <c r="AC5" s="38"/>
+      <c r="AD5" s="36"/>
+      <c r="AE5" s="39"/>
+      <c r="AF5" s="33"/>
+      <c r="AG5" s="39"/>
+      <c r="AH5" s="39"/>
+      <c r="AI5" s="39"/>
+      <c r="AJ5" s="39"/>
+      <c r="AK5" s="39"/>
+      <c r="AL5" s="39"/>
+      <c r="AM5" s="35">
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="46" t="s">
+    <row r="6" spans="1:39" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="41" t="s">
         <v>111</v>
       </c>
-      <c r="B6" s="47">
+      <c r="B6" s="42">
         <f>'Như Phương'!C11</f>
         <v>27</v>
       </c>
-      <c r="C6" s="47">
-        <f>'Như Phương'!C19</f>
+      <c r="C6" s="42">
+        <f>'Như Phương'!C20</f>
         <v>29</v>
       </c>
-      <c r="D6" s="47"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="48"/>
-      <c r="J6" s="47"/>
-      <c r="K6" s="48"/>
-      <c r="L6" s="47"/>
-      <c r="M6" s="48"/>
-      <c r="N6" s="47"/>
-      <c r="O6" s="48"/>
-      <c r="P6" s="47"/>
-      <c r="Q6" s="48"/>
-      <c r="R6" s="47"/>
-      <c r="S6" s="48"/>
-      <c r="T6" s="47"/>
-      <c r="U6" s="48"/>
-      <c r="V6" s="47"/>
-      <c r="W6" s="48"/>
-      <c r="X6" s="47"/>
-      <c r="Y6" s="48"/>
-      <c r="Z6" s="47"/>
-      <c r="AA6" s="48"/>
-      <c r="AB6" s="47"/>
-      <c r="AC6" s="48"/>
-      <c r="AD6" s="47"/>
-      <c r="AE6" s="49"/>
-      <c r="AF6" s="41"/>
-      <c r="AG6" s="49"/>
-      <c r="AH6" s="49"/>
-      <c r="AI6" s="49"/>
-      <c r="AJ6" s="49"/>
-      <c r="AK6" s="49"/>
-      <c r="AL6" s="49"/>
-      <c r="AM6" s="40">
+      <c r="D6" s="42"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="43"/>
+      <c r="J6" s="42"/>
+      <c r="K6" s="43"/>
+      <c r="L6" s="42"/>
+      <c r="M6" s="43"/>
+      <c r="N6" s="42"/>
+      <c r="O6" s="43"/>
+      <c r="P6" s="42"/>
+      <c r="Q6" s="43"/>
+      <c r="R6" s="42"/>
+      <c r="S6" s="43"/>
+      <c r="T6" s="42"/>
+      <c r="U6" s="43"/>
+      <c r="V6" s="42"/>
+      <c r="W6" s="43"/>
+      <c r="X6" s="42"/>
+      <c r="Y6" s="43"/>
+      <c r="Z6" s="42"/>
+      <c r="AA6" s="43"/>
+      <c r="AB6" s="42"/>
+      <c r="AC6" s="43"/>
+      <c r="AD6" s="42"/>
+      <c r="AE6" s="44"/>
+      <c r="AF6" s="36"/>
+      <c r="AG6" s="44"/>
+      <c r="AH6" s="44"/>
+      <c r="AI6" s="44"/>
+      <c r="AJ6" s="44"/>
+      <c r="AK6" s="44"/>
+      <c r="AL6" s="44"/>
+      <c r="AM6" s="35">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="14">
+    <row r="7" spans="1:39" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="12">
         <f>SUM(B2:B6)</f>
         <v>127.5</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="12">
         <f t="shared" ref="C7:R7" si="1">SUM(C2:C6)+B7</f>
         <v>254</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="12">
         <f t="shared" si="1"/>
         <v>254</v>
       </c>
-      <c r="E7" s="14">
+      <c r="E7" s="12">
         <f t="shared" si="1"/>
         <v>254</v>
       </c>
-      <c r="F7" s="14">
+      <c r="F7" s="12">
         <f t="shared" si="1"/>
         <v>254</v>
       </c>
-      <c r="G7" s="14">
+      <c r="G7" s="12">
         <f t="shared" si="1"/>
         <v>254</v>
       </c>
-      <c r="H7" s="14">
+      <c r="H7" s="12">
         <f t="shared" si="1"/>
         <v>254</v>
       </c>
-      <c r="I7" s="14">
+      <c r="I7" s="12">
         <f t="shared" si="1"/>
         <v>254</v>
       </c>
-      <c r="J7" s="14">
+      <c r="J7" s="12">
         <f t="shared" si="1"/>
         <v>254</v>
       </c>
-      <c r="K7" s="14">
+      <c r="K7" s="12">
         <f t="shared" si="1"/>
         <v>254</v>
       </c>
-      <c r="L7" s="14">
+      <c r="L7" s="12">
         <f t="shared" si="1"/>
         <v>254</v>
       </c>
-      <c r="M7" s="14">
+      <c r="M7" s="12">
         <f t="shared" si="1"/>
         <v>254</v>
       </c>
-      <c r="N7" s="14">
+      <c r="N7" s="12">
         <f t="shared" si="1"/>
         <v>254</v>
       </c>
-      <c r="O7" s="14">
+      <c r="O7" s="12">
         <f t="shared" si="1"/>
         <v>254</v>
       </c>
-      <c r="P7" s="14">
+      <c r="P7" s="12">
         <f t="shared" si="1"/>
         <v>254</v>
       </c>
-      <c r="Q7" s="14">
+      <c r="Q7" s="12">
         <f t="shared" si="1"/>
         <v>254</v>
       </c>
-      <c r="R7" s="14">
+      <c r="R7" s="12">
         <f t="shared" si="1"/>
         <v>254</v>
       </c>
-      <c r="S7" s="14">
+      <c r="S7" s="12">
         <f t="shared" ref="S7" si="2">SUM(S2:S6)+R7</f>
         <v>254</v>
       </c>
-      <c r="T7" s="14">
+      <c r="T7" s="12">
         <f t="shared" ref="T7" si="3">SUM(T2:T6)+S7</f>
         <v>254</v>
       </c>
-      <c r="U7" s="14">
+      <c r="U7" s="12">
         <f t="shared" ref="U7" si="4">SUM(U2:U6)+T7</f>
         <v>254</v>
       </c>
-      <c r="V7" s="14">
+      <c r="V7" s="12">
         <f t="shared" ref="V7" si="5">SUM(V2:V6)+U7</f>
         <v>254</v>
       </c>
-      <c r="W7" s="14">
+      <c r="W7" s="12">
         <f t="shared" ref="W7" si="6">SUM(W2:W6)+V7</f>
         <v>254</v>
       </c>
-      <c r="X7" s="14">
+      <c r="X7" s="12">
         <f t="shared" ref="X7" si="7">SUM(X2:X6)+W7</f>
         <v>254</v>
       </c>
-      <c r="Y7" s="14">
+      <c r="Y7" s="12">
         <f t="shared" ref="Y7" si="8">SUM(Y2:Y6)+X7</f>
         <v>254</v>
       </c>
-      <c r="Z7" s="14">
+      <c r="Z7" s="12">
         <f t="shared" ref="Z7" si="9">SUM(Z2:Z6)+Y7</f>
         <v>254</v>
       </c>
-      <c r="AA7" s="14">
+      <c r="AA7" s="12">
         <f t="shared" ref="AA7" si="10">SUM(AA2:AA6)+Z7</f>
         <v>254</v>
       </c>
-      <c r="AB7" s="14">
+      <c r="AB7" s="12">
         <f t="shared" ref="AB7" si="11">SUM(AB2:AB6)+AA7</f>
         <v>254</v>
       </c>
-      <c r="AC7" s="14">
+      <c r="AC7" s="12">
         <f t="shared" ref="AC7" si="12">SUM(AC2:AC6)+AB7</f>
         <v>254</v>
       </c>
-      <c r="AD7" s="14">
+      <c r="AD7" s="12">
         <f t="shared" ref="AD7" si="13">SUM(AD2:AD6)+AC7</f>
         <v>254</v>
       </c>
-      <c r="AE7" s="14">
+      <c r="AE7" s="12">
         <f t="shared" ref="AE7" si="14">SUM(AE2:AE6)+AD7</f>
         <v>254</v>
       </c>
-      <c r="AF7" s="14">
+      <c r="AF7" s="12">
         <f t="shared" ref="AF7" si="15">SUM(AF2:AF6)+AE7</f>
         <v>254</v>
       </c>
-      <c r="AG7" s="14">
+      <c r="AG7" s="12">
         <f t="shared" ref="AG7" si="16">SUM(AG2:AG6)+AF7</f>
         <v>254</v>
       </c>
-      <c r="AH7" s="14">
+      <c r="AH7" s="12">
         <f t="shared" ref="AH7" si="17">SUM(AH2:AH6)+AG7</f>
         <v>254</v>
       </c>
-      <c r="AI7" s="14">
+      <c r="AI7" s="12">
         <f t="shared" ref="AI7" si="18">SUM(AI2:AI6)+AH7</f>
         <v>254</v>
       </c>
-      <c r="AJ7" s="14">
+      <c r="AJ7" s="12">
         <f t="shared" ref="AJ7" si="19">SUM(AJ2:AJ6)+AI7</f>
         <v>254</v>
       </c>
-      <c r="AK7" s="14">
+      <c r="AK7" s="12">
         <f t="shared" ref="AK7" si="20">SUM(AK2:AK6)+AJ7</f>
         <v>254</v>
       </c>
-      <c r="AL7" s="14">
+      <c r="AL7" s="12">
         <f t="shared" ref="AL7" si="21">SUM(AL2:AL6)+AK7</f>
         <v>254</v>
       </c>
     </row>
-    <row r="8" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="50" t="s">
+    <row r="8" spans="1:39" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="51" t="s">
+      <c r="B8" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="51" t="s">
+      <c r="C8" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="51" t="s">
+      <c r="D8" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="51" t="s">
+      <c r="E8" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="51" t="s">
+      <c r="F8" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="G8" s="51" t="s">
+      <c r="G8" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="H8" s="51" t="s">
+      <c r="H8" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="I8" s="51" t="s">
+      <c r="I8" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="J8" s="51" t="s">
+      <c r="J8" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="K8" s="51" t="s">
+      <c r="K8" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="L8" s="51" t="s">
+      <c r="L8" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="M8" s="51" t="s">
+      <c r="M8" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="N8" s="51" t="s">
+      <c r="N8" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="O8" s="51" t="s">
+      <c r="O8" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="P8" s="51" t="s">
+      <c r="P8" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="Q8" s="51" t="s">
+      <c r="Q8" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="R8" s="51" t="s">
+      <c r="R8" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="S8" s="51" t="s">
+      <c r="S8" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="T8" s="51" t="s">
+      <c r="T8" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="U8" s="51" t="s">
+      <c r="U8" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="V8" s="51" t="s">
+      <c r="V8" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="W8" s="51" t="s">
+      <c r="W8" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="X8" s="51" t="s">
+      <c r="X8" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="Y8" s="51" t="s">
+      <c r="Y8" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="Z8" s="51" t="s">
+      <c r="Z8" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="AA8" s="51" t="s">
+      <c r="AA8" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="AB8" s="51" t="s">
+      <c r="AB8" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="AC8" s="51" t="s">
+      <c r="AC8" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="AD8" s="51" t="s">
+      <c r="AD8" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="AE8" s="51" t="s">
+      <c r="AE8" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="AF8" s="52" t="s">
+      <c r="AF8" s="47" t="s">
         <v>54</v>
       </c>
-      <c r="AG8" s="51" t="s">
+      <c r="AG8" s="46" t="s">
         <v>55</v>
       </c>
-      <c r="AH8" s="51" t="s">
+      <c r="AH8" s="46" t="s">
         <v>56</v>
       </c>
-      <c r="AI8" s="51" t="s">
+      <c r="AI8" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="AJ8" s="51" t="s">
+      <c r="AJ8" s="46" t="s">
         <v>58</v>
       </c>
-      <c r="AK8" s="51" t="s">
+      <c r="AK8" s="46" t="s">
         <v>59</v>
       </c>
-      <c r="AL8" s="51" t="s">
+      <c r="AL8" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="AM8" s="51" t="s">
+      <c r="AM8" s="46" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="37" t="s">
+    <row r="9" spans="1:39" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="B9" s="69">
+      <c r="B9" s="64">
         <f>'Đạt Huỳnh'!H11</f>
         <v>24</v>
       </c>
-      <c r="C9" s="70">
-        <f>'Đạt Huỳnh'!H19</f>
+      <c r="C9" s="65">
+        <f>'Đạt Huỳnh'!H20</f>
         <v>34</v>
       </c>
-      <c r="D9" s="53"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="53"/>
-      <c r="G9" s="54"/>
-      <c r="H9" s="53"/>
-      <c r="I9" s="54"/>
-      <c r="J9" s="53"/>
-      <c r="K9" s="54"/>
-      <c r="L9" s="53"/>
-      <c r="M9" s="54"/>
-      <c r="N9" s="53"/>
-      <c r="O9" s="54"/>
-      <c r="P9" s="53"/>
-      <c r="Q9" s="54"/>
-      <c r="R9" s="53"/>
-      <c r="S9" s="54"/>
-      <c r="T9" s="53"/>
-      <c r="U9" s="54"/>
-      <c r="V9" s="53"/>
-      <c r="W9" s="54"/>
-      <c r="X9" s="53"/>
-      <c r="Y9" s="54"/>
-      <c r="Z9" s="53"/>
-      <c r="AA9" s="54"/>
-      <c r="AB9" s="53"/>
-      <c r="AC9" s="54"/>
-      <c r="AD9" s="53"/>
-      <c r="AE9" s="53"/>
-      <c r="AF9" s="55"/>
-      <c r="AG9" s="53"/>
-      <c r="AH9" s="53"/>
-      <c r="AI9" s="53"/>
-      <c r="AJ9" s="53"/>
-      <c r="AK9" s="53"/>
-      <c r="AL9" s="53"/>
-      <c r="AM9" s="53">
+      <c r="D9" s="48"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="48"/>
+      <c r="I9" s="49"/>
+      <c r="J9" s="48"/>
+      <c r="K9" s="49"/>
+      <c r="L9" s="48"/>
+      <c r="M9" s="49"/>
+      <c r="N9" s="48"/>
+      <c r="O9" s="49"/>
+      <c r="P9" s="48"/>
+      <c r="Q9" s="49"/>
+      <c r="R9" s="48"/>
+      <c r="S9" s="49"/>
+      <c r="T9" s="48"/>
+      <c r="U9" s="49"/>
+      <c r="V9" s="48"/>
+      <c r="W9" s="49"/>
+      <c r="X9" s="48"/>
+      <c r="Y9" s="49"/>
+      <c r="Z9" s="48"/>
+      <c r="AA9" s="49"/>
+      <c r="AB9" s="48"/>
+      <c r="AC9" s="49"/>
+      <c r="AD9" s="48"/>
+      <c r="AE9" s="48"/>
+      <c r="AF9" s="50"/>
+      <c r="AG9" s="48"/>
+      <c r="AH9" s="48"/>
+      <c r="AI9" s="48"/>
+      <c r="AJ9" s="48"/>
+      <c r="AK9" s="48"/>
+      <c r="AL9" s="48"/>
+      <c r="AM9" s="48">
         <f>SUM(B9:AL9)</f>
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="42" t="s">
+    <row r="10" spans="1:39" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="37" t="s">
         <v>108</v>
       </c>
-      <c r="B10" s="41">
+      <c r="B10" s="36">
         <f>'Quốc Nhân'!H11</f>
         <v>26</v>
       </c>
-      <c r="C10" s="41">
-        <f>'Quốc Nhân'!H19</f>
+      <c r="C10" s="36">
+        <f>'Quốc Nhân'!H20</f>
         <v>30</v>
       </c>
-      <c r="D10" s="42"/>
-      <c r="E10" s="56"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="56"/>
-      <c r="H10" s="42"/>
-      <c r="I10" s="56"/>
-      <c r="J10" s="42"/>
-      <c r="K10" s="56"/>
-      <c r="L10" s="42"/>
-      <c r="M10" s="56"/>
-      <c r="N10" s="42"/>
-      <c r="O10" s="56"/>
-      <c r="P10" s="42"/>
-      <c r="Q10" s="56"/>
-      <c r="R10" s="42"/>
-      <c r="S10" s="56"/>
-      <c r="T10" s="42"/>
-      <c r="U10" s="56"/>
-      <c r="V10" s="42"/>
-      <c r="W10" s="56"/>
-      <c r="X10" s="42"/>
-      <c r="Y10" s="56"/>
-      <c r="Z10" s="42"/>
-      <c r="AA10" s="56"/>
-      <c r="AB10" s="42"/>
-      <c r="AC10" s="56"/>
-      <c r="AD10" s="42"/>
-      <c r="AE10" s="42"/>
-      <c r="AF10" s="57"/>
-      <c r="AG10" s="42"/>
-      <c r="AH10" s="42"/>
-      <c r="AI10" s="42"/>
-      <c r="AJ10" s="42"/>
-      <c r="AK10" s="42"/>
-      <c r="AL10" s="42"/>
-      <c r="AM10" s="53">
+      <c r="D10" s="37"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="51"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="51"/>
+      <c r="J10" s="37"/>
+      <c r="K10" s="51"/>
+      <c r="L10" s="37"/>
+      <c r="M10" s="51"/>
+      <c r="N10" s="37"/>
+      <c r="O10" s="51"/>
+      <c r="P10" s="37"/>
+      <c r="Q10" s="51"/>
+      <c r="R10" s="37"/>
+      <c r="S10" s="51"/>
+      <c r="T10" s="37"/>
+      <c r="U10" s="51"/>
+      <c r="V10" s="37"/>
+      <c r="W10" s="51"/>
+      <c r="X10" s="37"/>
+      <c r="Y10" s="51"/>
+      <c r="Z10" s="37"/>
+      <c r="AA10" s="51"/>
+      <c r="AB10" s="37"/>
+      <c r="AC10" s="51"/>
+      <c r="AD10" s="37"/>
+      <c r="AE10" s="37"/>
+      <c r="AF10" s="52"/>
+      <c r="AG10" s="37"/>
+      <c r="AH10" s="37"/>
+      <c r="AI10" s="37"/>
+      <c r="AJ10" s="37"/>
+      <c r="AK10" s="37"/>
+      <c r="AL10" s="37"/>
+      <c r="AM10" s="48">
         <f t="shared" ref="AM10:AM13" si="22">SUM(B10:AL10)</f>
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="37" t="s">
+    <row r="11" spans="1:39" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="32" t="s">
         <v>109</v>
       </c>
-      <c r="B11" s="45">
+      <c r="B11" s="40">
         <f>'Vương Trương'!H11</f>
         <v>27.5</v>
       </c>
-      <c r="C11" s="45">
-        <f>'Vương Trương'!H19</f>
+      <c r="C11" s="40">
+        <f>'Vương Trương'!H20</f>
         <v>22</v>
       </c>
-      <c r="D11" s="37"/>
-      <c r="E11" s="58"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="58"/>
-      <c r="H11" s="37"/>
-      <c r="I11" s="58"/>
-      <c r="J11" s="37"/>
-      <c r="K11" s="58"/>
-      <c r="L11" s="37"/>
-      <c r="M11" s="58"/>
-      <c r="N11" s="37"/>
-      <c r="O11" s="58"/>
-      <c r="P11" s="37"/>
-      <c r="Q11" s="58"/>
-      <c r="R11" s="37"/>
-      <c r="S11" s="58"/>
-      <c r="T11" s="37"/>
-      <c r="U11" s="58"/>
-      <c r="V11" s="37"/>
-      <c r="W11" s="58"/>
-      <c r="X11" s="37"/>
-      <c r="Y11" s="58"/>
-      <c r="Z11" s="37"/>
-      <c r="AA11" s="58"/>
-      <c r="AB11" s="37"/>
-      <c r="AC11" s="58"/>
-      <c r="AD11" s="37"/>
-      <c r="AE11" s="37"/>
-      <c r="AF11" s="55"/>
-      <c r="AG11" s="37"/>
-      <c r="AH11" s="37"/>
-      <c r="AI11" s="37"/>
-      <c r="AJ11" s="37"/>
-      <c r="AK11" s="37"/>
-      <c r="AL11" s="37"/>
-      <c r="AM11" s="53">
+      <c r="D11" s="32"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="32"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="32"/>
+      <c r="M11" s="53"/>
+      <c r="N11" s="32"/>
+      <c r="O11" s="53"/>
+      <c r="P11" s="32"/>
+      <c r="Q11" s="53"/>
+      <c r="R11" s="32"/>
+      <c r="S11" s="53"/>
+      <c r="T11" s="32"/>
+      <c r="U11" s="53"/>
+      <c r="V11" s="32"/>
+      <c r="W11" s="53"/>
+      <c r="X11" s="32"/>
+      <c r="Y11" s="53"/>
+      <c r="Z11" s="32"/>
+      <c r="AA11" s="53"/>
+      <c r="AB11" s="32"/>
+      <c r="AC11" s="53"/>
+      <c r="AD11" s="32"/>
+      <c r="AE11" s="32"/>
+      <c r="AF11" s="50"/>
+      <c r="AG11" s="32"/>
+      <c r="AH11" s="32"/>
+      <c r="AI11" s="32"/>
+      <c r="AJ11" s="32"/>
+      <c r="AK11" s="32"/>
+      <c r="AL11" s="32"/>
+      <c r="AM11" s="48">
         <f t="shared" si="22"/>
         <v>49.5</v>
       </c>
     </row>
-    <row r="12" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="42" t="s">
+    <row r="12" spans="1:39" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="37" t="s">
         <v>110</v>
       </c>
-      <c r="B12" s="41">
+      <c r="B12" s="36">
         <f>'Anh Minh'!H11</f>
         <v>28</v>
       </c>
-      <c r="C12" s="41">
-        <f>'Anh Minh'!H19</f>
+      <c r="C12" s="36">
+        <f>'Anh Minh'!H20</f>
         <v>30</v>
       </c>
-      <c r="D12" s="42"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="56"/>
-      <c r="H12" s="42"/>
-      <c r="I12" s="56"/>
-      <c r="J12" s="42"/>
-      <c r="K12" s="56"/>
-      <c r="L12" s="42"/>
-      <c r="M12" s="56"/>
-      <c r="N12" s="42"/>
-      <c r="O12" s="56"/>
-      <c r="P12" s="42"/>
-      <c r="Q12" s="56"/>
-      <c r="R12" s="42"/>
-      <c r="S12" s="56"/>
-      <c r="T12" s="42"/>
-      <c r="U12" s="56"/>
-      <c r="V12" s="42"/>
-      <c r="W12" s="56"/>
-      <c r="X12" s="42"/>
-      <c r="Y12" s="56"/>
-      <c r="Z12" s="42"/>
-      <c r="AA12" s="56"/>
-      <c r="AB12" s="42"/>
-      <c r="AC12" s="56"/>
-      <c r="AD12" s="42"/>
-      <c r="AE12" s="42"/>
-      <c r="AF12" s="57"/>
-      <c r="AG12" s="42"/>
-      <c r="AH12" s="42"/>
-      <c r="AI12" s="42"/>
-      <c r="AJ12" s="42"/>
-      <c r="AK12" s="42"/>
-      <c r="AL12" s="42"/>
-      <c r="AM12" s="53">
+      <c r="D12" s="37"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="51"/>
+      <c r="J12" s="37"/>
+      <c r="K12" s="51"/>
+      <c r="L12" s="37"/>
+      <c r="M12" s="51"/>
+      <c r="N12" s="37"/>
+      <c r="O12" s="51"/>
+      <c r="P12" s="37"/>
+      <c r="Q12" s="51"/>
+      <c r="R12" s="37"/>
+      <c r="S12" s="51"/>
+      <c r="T12" s="37"/>
+      <c r="U12" s="51"/>
+      <c r="V12" s="37"/>
+      <c r="W12" s="51"/>
+      <c r="X12" s="37"/>
+      <c r="Y12" s="51"/>
+      <c r="Z12" s="37"/>
+      <c r="AA12" s="51"/>
+      <c r="AB12" s="37"/>
+      <c r="AC12" s="51"/>
+      <c r="AD12" s="37"/>
+      <c r="AE12" s="37"/>
+      <c r="AF12" s="52"/>
+      <c r="AG12" s="37"/>
+      <c r="AH12" s="37"/>
+      <c r="AI12" s="37"/>
+      <c r="AJ12" s="37"/>
+      <c r="AK12" s="37"/>
+      <c r="AL12" s="37"/>
+      <c r="AM12" s="48">
         <f t="shared" si="22"/>
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="46" t="s">
+    <row r="13" spans="1:39" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="41" t="s">
         <v>111</v>
       </c>
-      <c r="B13" s="47">
+      <c r="B13" s="42">
         <f>'Như Phương'!H11</f>
         <v>28</v>
       </c>
-      <c r="C13" s="47">
-        <f>'Như Phương'!H19</f>
+      <c r="C13" s="42">
+        <f>'Như Phương'!H20</f>
         <v>29</v>
       </c>
-      <c r="D13" s="46"/>
-      <c r="E13" s="59"/>
-      <c r="F13" s="46"/>
-      <c r="G13" s="59"/>
-      <c r="H13" s="46"/>
-      <c r="I13" s="59"/>
-      <c r="J13" s="46"/>
-      <c r="K13" s="59"/>
-      <c r="L13" s="46"/>
-      <c r="M13" s="59"/>
-      <c r="N13" s="46"/>
-      <c r="O13" s="59"/>
-      <c r="P13" s="46"/>
-      <c r="Q13" s="59"/>
-      <c r="R13" s="46"/>
-      <c r="S13" s="59"/>
-      <c r="T13" s="46"/>
-      <c r="U13" s="59"/>
-      <c r="V13" s="46"/>
-      <c r="W13" s="59"/>
-      <c r="X13" s="46"/>
-      <c r="Y13" s="59"/>
-      <c r="Z13" s="46"/>
-      <c r="AA13" s="59"/>
-      <c r="AB13" s="46"/>
-      <c r="AC13" s="59"/>
-      <c r="AD13" s="46"/>
-      <c r="AE13" s="46"/>
-      <c r="AF13" s="60"/>
-      <c r="AG13" s="46"/>
-      <c r="AH13" s="46"/>
-      <c r="AI13" s="46"/>
-      <c r="AJ13" s="46"/>
-      <c r="AK13" s="46"/>
-      <c r="AL13" s="46"/>
-      <c r="AM13" s="53">
+      <c r="D13" s="41"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="54"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="54"/>
+      <c r="J13" s="41"/>
+      <c r="K13" s="54"/>
+      <c r="L13" s="41"/>
+      <c r="M13" s="54"/>
+      <c r="N13" s="41"/>
+      <c r="O13" s="54"/>
+      <c r="P13" s="41"/>
+      <c r="Q13" s="54"/>
+      <c r="R13" s="41"/>
+      <c r="S13" s="54"/>
+      <c r="T13" s="41"/>
+      <c r="U13" s="54"/>
+      <c r="V13" s="41"/>
+      <c r="W13" s="54"/>
+      <c r="X13" s="41"/>
+      <c r="Y13" s="54"/>
+      <c r="Z13" s="41"/>
+      <c r="AA13" s="54"/>
+      <c r="AB13" s="41"/>
+      <c r="AC13" s="54"/>
+      <c r="AD13" s="41"/>
+      <c r="AE13" s="41"/>
+      <c r="AF13" s="55"/>
+      <c r="AG13" s="41"/>
+      <c r="AH13" s="41"/>
+      <c r="AI13" s="41"/>
+      <c r="AJ13" s="41"/>
+      <c r="AK13" s="41"/>
+      <c r="AL13" s="41"/>
+      <c r="AM13" s="48">
         <f t="shared" si="22"/>
         <v>57</v>
       </c>
     </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="B14" s="14">
+    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="B14" s="12">
         <f>SUM(B9:B13)</f>
         <v>133.5</v>
       </c>
-      <c r="C14" s="14">
+      <c r="C14" s="12">
         <f t="shared" ref="C14:R14" si="23">SUM(C9:C13)+B14</f>
         <v>278.5</v>
       </c>
-      <c r="D14" s="14">
+      <c r="D14" s="12">
         <f t="shared" si="23"/>
         <v>278.5</v>
       </c>
-      <c r="E14" s="14">
+      <c r="E14" s="12">
         <f t="shared" si="23"/>
         <v>278.5</v>
       </c>
-      <c r="F14" s="14">
+      <c r="F14" s="12">
         <f t="shared" si="23"/>
         <v>278.5</v>
       </c>
-      <c r="G14" s="14">
+      <c r="G14" s="12">
         <f t="shared" si="23"/>
         <v>278.5</v>
       </c>
-      <c r="H14" s="14">
+      <c r="H14" s="12">
         <f t="shared" si="23"/>
         <v>278.5</v>
       </c>
-      <c r="I14" s="14">
+      <c r="I14" s="12">
         <f t="shared" si="23"/>
         <v>278.5</v>
       </c>
-      <c r="J14" s="14">
+      <c r="J14" s="12">
         <f t="shared" si="23"/>
         <v>278.5</v>
       </c>
-      <c r="K14" s="14">
+      <c r="K14" s="12">
         <f t="shared" si="23"/>
         <v>278.5</v>
       </c>
-      <c r="L14" s="14">
+      <c r="L14" s="12">
         <f t="shared" si="23"/>
         <v>278.5</v>
       </c>
-      <c r="M14" s="14">
+      <c r="M14" s="12">
         <f t="shared" si="23"/>
         <v>278.5</v>
       </c>
-      <c r="N14" s="14">
+      <c r="N14" s="12">
         <f t="shared" si="23"/>
         <v>278.5</v>
       </c>
-      <c r="O14" s="14">
+      <c r="O14" s="12">
         <f t="shared" si="23"/>
         <v>278.5</v>
       </c>
-      <c r="P14" s="14">
+      <c r="P14" s="12">
         <f t="shared" si="23"/>
         <v>278.5</v>
       </c>
-      <c r="Q14" s="14">
+      <c r="Q14" s="12">
         <f t="shared" si="23"/>
         <v>278.5</v>
       </c>
-      <c r="R14" s="14">
+      <c r="R14" s="12">
         <f t="shared" si="23"/>
         <v>278.5</v>
       </c>
-      <c r="S14" s="14">
+      <c r="S14" s="12">
         <f t="shared" ref="S14" si="24">SUM(S9:S13)+R14</f>
         <v>278.5</v>
       </c>
-      <c r="T14" s="14">
+      <c r="T14" s="12">
         <f t="shared" ref="T14" si="25">SUM(T9:T13)+S14</f>
         <v>278.5</v>
       </c>
-      <c r="U14" s="14">
+      <c r="U14" s="12">
         <f t="shared" ref="U14" si="26">SUM(U9:U13)+T14</f>
         <v>278.5</v>
       </c>
-      <c r="V14" s="14">
+      <c r="V14" s="12">
         <f t="shared" ref="V14" si="27">SUM(V9:V13)+U14</f>
         <v>278.5</v>
       </c>
-      <c r="W14" s="14">
+      <c r="W14" s="12">
         <f t="shared" ref="W14" si="28">SUM(W9:W13)+V14</f>
         <v>278.5</v>
       </c>
-      <c r="X14" s="14">
+      <c r="X14" s="12">
         <f t="shared" ref="X14" si="29">SUM(X9:X13)+W14</f>
         <v>278.5</v>
       </c>
-      <c r="Y14" s="14">
+      <c r="Y14" s="12">
         <f t="shared" ref="Y14" si="30">SUM(Y9:Y13)+X14</f>
         <v>278.5</v>
       </c>
-      <c r="Z14" s="14">
+      <c r="Z14" s="12">
         <f t="shared" ref="Z14" si="31">SUM(Z9:Z13)+Y14</f>
         <v>278.5</v>
       </c>
-      <c r="AA14" s="14">
+      <c r="AA14" s="12">
         <f t="shared" ref="AA14" si="32">SUM(AA9:AA13)+Z14</f>
         <v>278.5</v>
       </c>
-      <c r="AB14" s="14">
+      <c r="AB14" s="12">
         <f t="shared" ref="AB14" si="33">SUM(AB9:AB13)+AA14</f>
         <v>278.5</v>
       </c>
-      <c r="AC14" s="14">
+      <c r="AC14" s="12">
         <f t="shared" ref="AC14" si="34">SUM(AC9:AC13)+AB14</f>
         <v>278.5</v>
       </c>
-      <c r="AD14" s="14">
+      <c r="AD14" s="12">
         <f t="shared" ref="AD14" si="35">SUM(AD9:AD13)+AC14</f>
         <v>278.5</v>
       </c>
-      <c r="AE14" s="14">
+      <c r="AE14" s="12">
         <f t="shared" ref="AE14" si="36">SUM(AE9:AE13)+AD14</f>
         <v>278.5</v>
       </c>
-      <c r="AF14" s="14">
+      <c r="AF14" s="12">
         <f t="shared" ref="AF14" si="37">SUM(AF9:AF13)+AE14</f>
         <v>278.5</v>
       </c>
-      <c r="AG14" s="14">
+      <c r="AG14" s="12">
         <f t="shared" ref="AG14" si="38">SUM(AG9:AG13)+AF14</f>
         <v>278.5</v>
       </c>
-      <c r="AH14" s="14">
+      <c r="AH14" s="12">
         <f t="shared" ref="AH14" si="39">SUM(AH9:AH13)+AG14</f>
         <v>278.5</v>
       </c>
-      <c r="AI14" s="14">
+      <c r="AI14" s="12">
         <f t="shared" ref="AI14" si="40">SUM(AI9:AI13)+AH14</f>
         <v>278.5</v>
       </c>
-      <c r="AJ14" s="14">
+      <c r="AJ14" s="12">
         <f t="shared" ref="AJ14" si="41">SUM(AJ9:AJ13)+AI14</f>
         <v>278.5</v>
       </c>
-      <c r="AK14" s="14">
+      <c r="AK14" s="12">
         <f t="shared" ref="AK14" si="42">SUM(AK9:AK13)+AJ14</f>
         <v>278.5</v>
       </c>
-      <c r="AL14" s="14">
+      <c r="AL14" s="12">
         <f t="shared" ref="AL14" si="43">SUM(AL9:AL13)+AK14</f>
         <v>278.5</v>
       </c>
@@ -4241,478 +4199,1128 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:I56"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D4" sqref="C4:I17"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:I56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.140625" style="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" style="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.85546875" style="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="42.7109375" style="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16" style="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9" style="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.85546875" style="14"/>
-    <col min="8" max="8" width="12.140625" style="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="49.28515625" style="14" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.85546875" style="14"/>
+    <col min="1" max="1" width="10.109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.88671875" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.88671875" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.6640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16" style="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" style="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.88671875" style="12"/>
+    <col min="8" max="8" width="12.109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="49.33203125" style="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.88671875" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="26"/>
-    </row>
-    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="73" t="s">
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="22"/>
+    </row>
+    <row r="2" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A2" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="75"/>
-      <c r="H2" s="75"/>
-      <c r="I2" s="76"/>
-    </row>
-    <row r="3" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="29" t="s">
+      <c r="B2" s="67"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="69"/>
+    </row>
+    <row r="3" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="15" t="s">
+      <c r="E3" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="15" t="s">
+      <c r="H3" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="16" t="s">
+      <c r="I3" s="24" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="12">
+    <row r="4" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A4" s="10">
         <v>1</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="D4" s="17"/>
-      <c r="E4" s="22" t="s">
+      <c r="D4" s="13"/>
+      <c r="E4" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="F4" s="8">
-        <v>4</v>
-      </c>
-      <c r="G4" s="8">
-        <v>4</v>
-      </c>
-      <c r="H4" s="18" t="s">
+      <c r="F4" s="6">
+        <v>4</v>
+      </c>
+      <c r="G4" s="6">
+        <v>4</v>
+      </c>
+      <c r="H4" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="19"/>
-    </row>
-    <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="12">
+      <c r="I4" s="15"/>
+    </row>
+    <row r="5" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A5" s="10">
         <v>1</v>
       </c>
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="C5" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="E5" s="23" t="s">
+      <c r="E5" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="6">
         <v>6</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5" s="6">
         <v>6</v>
       </c>
-      <c r="H5" s="18" t="s">
+      <c r="H5" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="19"/>
-      <c r="K5" s="14">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="I5" s="15"/>
+    </row>
+    <row r="6" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1</v>
       </c>
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="C6" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="E6" s="21" t="s">
+      <c r="E6" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="7">
         <v>6</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="7">
         <v>6</v>
       </c>
-      <c r="H6" s="18" t="s">
+      <c r="H6" s="14" t="s">
         <v>21</v>
       </c>
       <c r="I6" s="3"/>
     </row>
-    <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1</v>
       </c>
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="30" t="s">
+      <c r="C7" s="25" t="s">
         <v>19</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="E7" s="23" t="s">
+      <c r="E7" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="F7" s="9">
-        <v>4</v>
-      </c>
-      <c r="G7" s="9">
-        <v>4</v>
-      </c>
-      <c r="H7" s="18" t="s">
+      <c r="F7" s="7">
+        <v>4</v>
+      </c>
+      <c r="G7" s="7">
+        <v>4</v>
+      </c>
+      <c r="H7" s="14" t="s">
         <v>20</v>
       </c>
       <c r="I7" s="3"/>
     </row>
-    <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1</v>
       </c>
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="30" t="s">
+      <c r="C8" s="25" t="s">
         <v>61</v>
       </c>
       <c r="D8" s="2"/>
-      <c r="E8" s="20" t="s">
+      <c r="E8" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="F8" s="9">
-        <v>4</v>
-      </c>
-      <c r="G8" s="9">
-        <v>4</v>
-      </c>
-      <c r="H8" s="18" t="s">
+      <c r="F8" s="7">
+        <v>4</v>
+      </c>
+      <c r="G8" s="7">
+        <v>4</v>
+      </c>
+      <c r="H8" s="14" t="s">
         <v>20</v>
       </c>
       <c r="I8" s="3"/>
     </row>
-    <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>1</v>
       </c>
-      <c r="B9" s="32" t="s">
+      <c r="B9" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="12"/>
+      <c r="C9" s="10"/>
       <c r="D9" s="2"/>
-      <c r="E9" s="20" t="s">
+      <c r="E9" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="18"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="14"/>
       <c r="I9" s="3"/>
     </row>
-    <row r="10" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="11"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="11"/>
+    <row r="10" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="9"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="9"/>
       <c r="D10" s="4"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="18"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="14"/>
       <c r="I10" s="5"/>
     </row>
-    <row r="11" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+    <row r="11" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="71">
+      <c r="C11" s="70">
         <f>SUM(F4:F10)</f>
         <v>24</v>
       </c>
-      <c r="D11" s="71"/>
-      <c r="E11" s="71"/>
-      <c r="F11" s="72"/>
-      <c r="G11" s="7" t="s">
+      <c r="D11" s="70"/>
+      <c r="E11" s="70"/>
+      <c r="F11" s="71"/>
+      <c r="G11" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="71">
+      <c r="H11" s="70">
         <f>SUM(G4:G10)</f>
         <v>24</v>
       </c>
-      <c r="I11" s="72"/>
-    </row>
-    <row r="12" spans="1:11" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="12">
+      <c r="I11" s="71"/>
+    </row>
+    <row r="12" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="30" t="s">
+      <c r="C12" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="H12" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I12" s="24" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A13" s="10">
+        <v>2</v>
+      </c>
+      <c r="B13" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="30" t="s">
+      <c r="C13" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="D13" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="E12" s="22" t="s">
+      <c r="E13" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F13" s="6">
         <v>6</v>
       </c>
-      <c r="G12" s="8">
+      <c r="G13" s="6">
         <v>6</v>
       </c>
-      <c r="H12" s="18" t="s">
+      <c r="H13" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I12" s="19"/>
-    </row>
-    <row r="13" spans="1:11" ht="30" x14ac:dyDescent="0.2">
-      <c r="A13" s="12">
+      <c r="I13" s="15"/>
+    </row>
+    <row r="14" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A14" s="10">
         <v>2</v>
       </c>
-      <c r="B13" s="31" t="s">
+      <c r="B14" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="30" t="s">
+      <c r="C14" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="17" t="s">
+      <c r="D14" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="E13" s="23" t="s">
+      <c r="E14" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="F13" s="8">
+      <c r="F14" s="6">
         <v>6</v>
       </c>
-      <c r="G13" s="8">
+      <c r="G14" s="6">
         <v>6</v>
       </c>
-      <c r="H13" s="18" t="s">
+      <c r="H14" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I13" s="19" t="s">
+      <c r="I14" s="15" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="12">
+    <row r="15" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A15" s="10">
         <v>2</v>
       </c>
-      <c r="B14" s="32" t="s">
+      <c r="B15" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="30" t="s">
+      <c r="C15" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="21" t="s">
+      <c r="D15" s="2"/>
+      <c r="E15" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="F14" s="9">
-        <v>4</v>
-      </c>
-      <c r="G14" s="9">
-        <v>4</v>
-      </c>
-      <c r="H14" s="18" t="s">
+      <c r="F15" s="7">
+        <v>4</v>
+      </c>
+      <c r="G15" s="7">
+        <v>4</v>
+      </c>
+      <c r="H15" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="I14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="12">
+      <c r="I15" s="3"/>
+    </row>
+    <row r="16" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A16" s="10">
         <v>2</v>
       </c>
-      <c r="B15" s="32" t="s">
+      <c r="B16" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="30" t="s">
+      <c r="C16" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D16" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E15" s="23" t="s">
+      <c r="E16" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="F15" s="9">
+      <c r="F16" s="7">
         <v>6</v>
       </c>
-      <c r="G15" s="9">
+      <c r="G16" s="7">
         <v>6</v>
       </c>
-      <c r="H15" s="18" t="s">
+      <c r="H16" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="I15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="12">
+      <c r="I16" s="3"/>
+    </row>
+    <row r="17" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A17" s="10">
         <v>2</v>
       </c>
-      <c r="B16" s="32" t="s">
+      <c r="B17" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="30" t="s">
+      <c r="C17" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D17" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="E16" s="20" t="s">
+      <c r="E17" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9">
+      <c r="F17" s="7"/>
+      <c r="G17" s="7">
         <v>6</v>
       </c>
-      <c r="H16" s="18"/>
-      <c r="I16" s="3"/>
-    </row>
-    <row r="17" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="12">
+      <c r="H17" s="14"/>
+      <c r="I17" s="3"/>
+    </row>
+    <row r="18" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A18" s="10">
         <v>2</v>
       </c>
-      <c r="B17" s="32" t="s">
+      <c r="B18" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="30" t="s">
+      <c r="C18" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D18" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="E17" s="20" t="s">
+      <c r="E18" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9">
+      <c r="F18" s="7"/>
+      <c r="G18" s="7">
         <v>6</v>
       </c>
-      <c r="H17" s="18"/>
-      <c r="I17" s="3"/>
-    </row>
-    <row r="18" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="11"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="5"/>
-    </row>
-    <row r="19" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
+      <c r="H18" s="14"/>
+      <c r="I18" s="3"/>
+    </row>
+    <row r="19" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="9"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="5"/>
+    </row>
+    <row r="20" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B20" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="71">
-        <f>SUM(F12:F18)</f>
+      <c r="C20" s="70">
+        <f>SUM(F13:F19)</f>
         <v>22</v>
       </c>
-      <c r="D19" s="71"/>
-      <c r="E19" s="71"/>
-      <c r="F19" s="72"/>
-      <c r="G19" s="7" t="s">
+      <c r="D20" s="70"/>
+      <c r="E20" s="70"/>
+      <c r="F20" s="71"/>
+      <c r="G20" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="H19" s="71">
-        <f>SUM(G12:G18)</f>
+      <c r="H20" s="70">
+        <f>SUM(G13:G19)</f>
         <v>34</v>
       </c>
-      <c r="I19" s="72"/>
+      <c r="I20" s="71"/>
+    </row>
+    <row r="21" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="D21" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="G21" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="H21" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I21" s="24" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A22" s="10">
+        <v>3</v>
+      </c>
+      <c r="B22" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="25"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="15"/>
+    </row>
+    <row r="23" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A23" s="10">
+        <v>3</v>
+      </c>
+      <c r="B23" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="25"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="15"/>
+    </row>
+    <row r="24" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A24" s="10">
+        <v>3</v>
+      </c>
+      <c r="B24" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="25"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="3"/>
+    </row>
+    <row r="25" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A25" s="10">
+        <v>3</v>
+      </c>
+      <c r="B25" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="25"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="3"/>
+    </row>
+    <row r="26" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A26" s="10">
+        <v>3</v>
+      </c>
+      <c r="B26" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" s="25"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="3"/>
+    </row>
+    <row r="27" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A27" s="10">
+        <v>3</v>
+      </c>
+      <c r="B27" s="74" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" s="25"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="3"/>
+    </row>
+    <row r="28" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="5"/>
+    </row>
+    <row r="29" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="73" t="s">
+        <v>15</v>
+      </c>
+      <c r="B29" s="73" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" s="70">
+        <f>SUM(F22:F28)</f>
+        <v>0</v>
+      </c>
+      <c r="D29" s="70"/>
+      <c r="E29" s="70"/>
+      <c r="F29" s="71"/>
+      <c r="G29" s="72" t="s">
+        <v>17</v>
+      </c>
+      <c r="H29" s="70">
+        <f>SUM(G22:G28)</f>
+        <v>0</v>
+      </c>
+      <c r="I29" s="71"/>
+    </row>
+    <row r="30" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="B30" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="C30" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="D30" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E30" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="F30" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="G30" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="H30" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I30" s="24" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A31" s="10">
+        <v>4</v>
+      </c>
+      <c r="B31" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="25"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="15"/>
+    </row>
+    <row r="32" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A32" s="10">
+        <v>4</v>
+      </c>
+      <c r="B32" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="25"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="15"/>
+    </row>
+    <row r="33" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A33" s="10">
+        <v>4</v>
+      </c>
+      <c r="B33" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" s="25"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="3"/>
+    </row>
+    <row r="34" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A34" s="10">
+        <v>4</v>
+      </c>
+      <c r="B34" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" s="25"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="3"/>
+    </row>
+    <row r="35" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A35" s="10">
+        <v>4</v>
+      </c>
+      <c r="B35" s="74" t="s">
+        <v>13</v>
+      </c>
+      <c r="C35" s="25"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="3"/>
+    </row>
+    <row r="36" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A36" s="10">
+        <v>4</v>
+      </c>
+      <c r="B36" s="74" t="s">
+        <v>14</v>
+      </c>
+      <c r="C36" s="25"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="3"/>
+    </row>
+    <row r="37" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="5"/>
+    </row>
+    <row r="38" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="73" t="s">
+        <v>15</v>
+      </c>
+      <c r="B38" s="73" t="s">
+        <v>16</v>
+      </c>
+      <c r="C38" s="70">
+        <f>SUM(F31:F37)</f>
+        <v>0</v>
+      </c>
+      <c r="D38" s="70"/>
+      <c r="E38" s="70"/>
+      <c r="F38" s="71"/>
+      <c r="G38" s="72" t="s">
+        <v>17</v>
+      </c>
+      <c r="H38" s="70">
+        <f>SUM(G31:G37)</f>
+        <v>0</v>
+      </c>
+      <c r="I38" s="71"/>
+    </row>
+    <row r="39" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="B39" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="C39" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="D39" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E39" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="F39" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="G39" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="H39" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I39" s="24" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A40" s="10">
+        <v>5</v>
+      </c>
+      <c r="B40" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" s="25"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="18"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="14"/>
+      <c r="I40" s="15"/>
+    </row>
+    <row r="41" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A41" s="10">
+        <v>5</v>
+      </c>
+      <c r="B41" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C41" s="25"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="14"/>
+      <c r="I41" s="15"/>
+    </row>
+    <row r="42" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A42" s="10">
+        <v>5</v>
+      </c>
+      <c r="B42" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C42" s="25"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="14"/>
+      <c r="I42" s="3"/>
+    </row>
+    <row r="43" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A43" s="10">
+        <v>5</v>
+      </c>
+      <c r="B43" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C43" s="25"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="19"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="14"/>
+      <c r="I43" s="3"/>
+    </row>
+    <row r="44" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A44" s="10">
+        <v>5</v>
+      </c>
+      <c r="B44" s="74" t="s">
+        <v>13</v>
+      </c>
+      <c r="C44" s="25"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="16"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="14"/>
+      <c r="I44" s="3"/>
+    </row>
+    <row r="45" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A45" s="10">
+        <v>5</v>
+      </c>
+      <c r="B45" s="74" t="s">
+        <v>14</v>
+      </c>
+      <c r="C45" s="25"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="16"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="14"/>
+      <c r="I45" s="3"/>
+    </row>
+    <row r="46" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="9"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="16"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="14"/>
+      <c r="I46" s="5"/>
+    </row>
+    <row r="47" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="73" t="s">
+        <v>15</v>
+      </c>
+      <c r="B47" s="73" t="s">
+        <v>16</v>
+      </c>
+      <c r="C47" s="70">
+        <f>SUM(F40:F46)</f>
+        <v>0</v>
+      </c>
+      <c r="D47" s="70"/>
+      <c r="E47" s="70"/>
+      <c r="F47" s="71"/>
+      <c r="G47" s="72" t="s">
+        <v>17</v>
+      </c>
+      <c r="H47" s="70">
+        <f>SUM(G40:G46)</f>
+        <v>0</v>
+      </c>
+      <c r="I47" s="71"/>
+    </row>
+    <row r="48" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="B48" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="C48" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="D48" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E48" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="F48" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="G48" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="H48" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I48" s="24" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A49" s="10">
+        <v>6</v>
+      </c>
+      <c r="B49" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C49" s="25"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="18"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="6"/>
+      <c r="H49" s="14"/>
+      <c r="I49" s="15"/>
+    </row>
+    <row r="50" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A50" s="10">
+        <v>6</v>
+      </c>
+      <c r="B50" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C50" s="25"/>
+      <c r="D50" s="13"/>
+      <c r="E50" s="19"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="6"/>
+      <c r="H50" s="14"/>
+      <c r="I50" s="15"/>
+    </row>
+    <row r="51" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A51" s="10">
+        <v>6</v>
+      </c>
+      <c r="B51" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C51" s="25"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="17"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="7"/>
+      <c r="H51" s="14"/>
+      <c r="I51" s="3"/>
+    </row>
+    <row r="52" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A52" s="10">
+        <v>6</v>
+      </c>
+      <c r="B52" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C52" s="25"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="19"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="7"/>
+      <c r="H52" s="14"/>
+      <c r="I52" s="3"/>
+    </row>
+    <row r="53" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A53" s="10">
+        <v>6</v>
+      </c>
+      <c r="B53" s="74" t="s">
+        <v>13</v>
+      </c>
+      <c r="C53" s="25"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="16"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="7"/>
+      <c r="H53" s="14"/>
+      <c r="I53" s="3"/>
+    </row>
+    <row r="54" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A54" s="10">
+        <v>6</v>
+      </c>
+      <c r="B54" s="74" t="s">
+        <v>14</v>
+      </c>
+      <c r="C54" s="25"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="16"/>
+      <c r="F54" s="7"/>
+      <c r="G54" s="7"/>
+      <c r="H54" s="14"/>
+      <c r="I54" s="3"/>
+    </row>
+    <row r="55" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="9"/>
+      <c r="C55" s="9"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="16"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c r="H55" s="14"/>
+      <c r="I55" s="5"/>
+    </row>
+    <row r="56" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="73" t="s">
+        <v>15</v>
+      </c>
+      <c r="B56" s="73" t="s">
+        <v>16</v>
+      </c>
+      <c r="C56" s="70">
+        <f>SUM(F49:F55)</f>
+        <v>0</v>
+      </c>
+      <c r="D56" s="70"/>
+      <c r="E56" s="70"/>
+      <c r="F56" s="71"/>
+      <c r="G56" s="72" t="s">
+        <v>17</v>
+      </c>
+      <c r="H56" s="70">
+        <f>SUM(G49:G55)</f>
+        <v>0</v>
+      </c>
+      <c r="I56" s="71"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="13">
+    <mergeCell ref="C47:F47"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="C56:F56"/>
+    <mergeCell ref="H56:I56"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="C38:F38"/>
+    <mergeCell ref="H38:I38"/>
     <mergeCell ref="C11:F11"/>
     <mergeCell ref="H11:I11"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="H20:I20"/>
     <mergeCell ref="A2:I2"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
-  <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10 C18" xr:uid="{00000000-0002-0000-0100-000000000000}">
+  <dataValidations count="6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10 C19 C28 C37 C46 C55" xr:uid="{0BB0E9EB-C012-4B84-ADE0-06241CD0A572}">
       <formula1>"Project Management, Requirement, Architecture and Desgin, Implementation, Testing, Training, Meetting Customer, Meetting Mentor"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C9 C12:C17" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C9 C13:C18 C22:C27 C31:C36 C40:C45 C49:C54" xr:uid="{A5E9BD59-08EB-4C74-8AD5-B28C042D8541}">
       <formula1>"Project Management, Requirement, Architecture and Desgin, Implementation, Testing, Training, Meetting Customer, Meeting Mentor"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:H10 H12:H18" xr:uid="{00000000-0002-0000-0100-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:H10 H13:H19 H22:H28 H31:H37 H40:H46 H49:H55" xr:uid="{5ADEB9A5-7B77-4996-B65F-DB32EFA25F03}">
       <formula1>"Done,Inprogress "</formula1>
     </dataValidation>
-    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3" xr:uid="{00000000-0002-0000-0100-000003000000}">
+    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3 B12" xr:uid="{ED6FDAE4-9006-4B02-81E9-E85FDE801F79}">
       <formula1>B4</formula1>
       <formula2>B10</formula2>
+    </dataValidation>
+    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B21" xr:uid="{85F854A7-9AC8-4963-94A2-DF4E43B75BC1}">
+      <formula1>#REF!</formula1>
+      <formula2>B27</formula2>
+    </dataValidation>
+    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B30 B39 B48" xr:uid="{28C7F73E-D079-4F9E-AC12-39AC8A9947E5}">
+      <formula1>#REF!</formula1>
+      <formula2>B35</formula2>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4722,491 +5330,1148 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:I56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="C4:I17"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="57.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="49.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="57.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="49.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="26"/>
-    </row>
-    <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="73" t="s">
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="22"/>
+    </row>
+    <row r="2" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="75"/>
-      <c r="H2" s="75"/>
-      <c r="I2" s="76"/>
-    </row>
-    <row r="3" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="29" t="s">
+      <c r="B2" s="67"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="69"/>
+    </row>
+    <row r="3" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="15" t="s">
+      <c r="E3" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="15" t="s">
+      <c r="H3" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="16" t="s">
+      <c r="I3" s="24" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="12">
+    <row r="4" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="10">
         <v>1</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="D4" s="17"/>
-      <c r="E4" s="22" t="s">
+      <c r="D4" s="13"/>
+      <c r="E4" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="F4" s="8">
-        <v>4</v>
-      </c>
-      <c r="G4" s="8">
-        <v>4</v>
-      </c>
-      <c r="H4" s="18" t="s">
+      <c r="F4" s="6">
+        <v>4</v>
+      </c>
+      <c r="G4" s="6">
+        <v>4</v>
+      </c>
+      <c r="H4" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="19"/>
-    </row>
-    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="12">
+      <c r="I4" s="15"/>
+    </row>
+    <row r="5" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="10">
         <v>1</v>
       </c>
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="C5" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="E5" s="23" t="s">
+      <c r="E5" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="F5" s="8">
-        <v>4</v>
-      </c>
-      <c r="G5" s="8">
-        <v>4</v>
-      </c>
-      <c r="H5" s="18" t="s">
+      <c r="F5" s="6">
+        <v>4</v>
+      </c>
+      <c r="G5" s="6">
+        <v>4</v>
+      </c>
+      <c r="H5" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="19"/>
-    </row>
-    <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I5" s="15"/>
+    </row>
+    <row r="6" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>1</v>
       </c>
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="C6" s="25" t="s">
         <v>18</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="E6" s="21" t="s">
+      <c r="E6" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="F6" s="9">
-        <v>5</v>
-      </c>
-      <c r="G6" s="9">
-        <v>5</v>
-      </c>
-      <c r="H6" s="18" t="s">
+      <c r="F6" s="7">
+        <v>5</v>
+      </c>
+      <c r="G6" s="7">
+        <v>5</v>
+      </c>
+      <c r="H6" s="14" t="s">
         <v>21</v>
       </c>
       <c r="I6" s="3"/>
     </row>
-    <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>1</v>
       </c>
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="30" t="s">
+      <c r="C7" s="25" t="s">
         <v>19</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="E7" s="23" t="s">
+      <c r="E7" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="F7" s="9">
-        <v>5</v>
-      </c>
-      <c r="G7" s="9">
-        <v>5</v>
-      </c>
-      <c r="H7" s="18" t="s">
+      <c r="F7" s="7">
+        <v>5</v>
+      </c>
+      <c r="G7" s="7">
+        <v>5</v>
+      </c>
+      <c r="H7" s="14" t="s">
         <v>20</v>
       </c>
       <c r="I7" s="3"/>
     </row>
-    <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>1</v>
       </c>
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="30" t="s">
+      <c r="C8" s="25" t="s">
         <v>61</v>
       </c>
       <c r="D8" s="2"/>
-      <c r="E8" s="20" t="s">
+      <c r="E8" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="F8" s="9">
-        <v>4</v>
-      </c>
-      <c r="G8" s="9">
-        <v>4</v>
-      </c>
-      <c r="H8" s="18" t="s">
+      <c r="F8" s="7">
+        <v>4</v>
+      </c>
+      <c r="G8" s="7">
+        <v>4</v>
+      </c>
+      <c r="H8" s="14" t="s">
         <v>20</v>
       </c>
       <c r="I8" s="3"/>
     </row>
-    <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>1</v>
       </c>
-      <c r="B9" s="32" t="s">
+      <c r="B9" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="10" t="s">
         <v>18</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="E9" s="20" t="s">
+      <c r="E9" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="F9" s="9">
-        <v>4</v>
-      </c>
-      <c r="G9" s="9">
-        <v>4</v>
-      </c>
-      <c r="H9" s="18" t="s">
+      <c r="F9" s="7">
+        <v>4</v>
+      </c>
+      <c r="G9" s="7">
+        <v>4</v>
+      </c>
+      <c r="H9" s="14" t="s">
         <v>21</v>
       </c>
       <c r="I9" s="3"/>
     </row>
-    <row r="10" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="11"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="11"/>
+    <row r="10" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="9"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="9"/>
       <c r="D10" s="4"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="18"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="14"/>
       <c r="I10" s="5"/>
     </row>
-    <row r="11" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
+    <row r="11" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="71">
+      <c r="C11" s="77">
         <f>SUM(F4:F10)</f>
         <v>26</v>
       </c>
-      <c r="D11" s="71"/>
-      <c r="E11" s="71"/>
-      <c r="F11" s="72"/>
-      <c r="G11" s="7" t="s">
+      <c r="D11" s="70"/>
+      <c r="E11" s="70"/>
+      <c r="F11" s="71"/>
+      <c r="G11" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="71">
+      <c r="H11" s="70">
         <f>SUM(G4:G10)</f>
         <v>26</v>
       </c>
-      <c r="I11" s="72"/>
-    </row>
-    <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="12">
+      <c r="I11" s="71"/>
+    </row>
+    <row r="12" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="30" t="s">
+      <c r="C12" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="H12" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I12" s="24" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="10">
+        <v>2</v>
+      </c>
+      <c r="B13" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="30" t="s">
+      <c r="C13" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="D13" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="E12" s="22" t="s">
+      <c r="E13" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F13" s="6">
         <v>6</v>
       </c>
-      <c r="G12" s="8">
+      <c r="G13" s="6">
         <v>6</v>
       </c>
-      <c r="H12" s="18" t="s">
+      <c r="H13" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="I12" s="19" t="s">
+      <c r="I13" s="15" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="12">
+    <row r="14" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="10">
         <v>2</v>
       </c>
-      <c r="B13" s="31" t="s">
+      <c r="B14" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="30" t="s">
+      <c r="C14" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D14" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="E13" s="23" t="s">
+      <c r="E14" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="F13" s="8">
-        <v>5</v>
-      </c>
-      <c r="G13" s="8">
-        <v>5</v>
-      </c>
-      <c r="H13" s="18" t="s">
+      <c r="F14" s="6">
+        <v>5</v>
+      </c>
+      <c r="G14" s="6">
+        <v>5</v>
+      </c>
+      <c r="H14" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I13" s="19"/>
-    </row>
-    <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="12">
+      <c r="I14" s="15"/>
+    </row>
+    <row r="15" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="10">
         <v>2</v>
       </c>
-      <c r="B14" s="32" t="s">
+      <c r="B15" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="30" t="s">
+      <c r="C15" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="21" t="s">
+      <c r="D15" s="2"/>
+      <c r="E15" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="F14" s="9">
-        <v>4</v>
-      </c>
-      <c r="G14" s="9">
-        <v>4</v>
-      </c>
-      <c r="H14" s="18" t="s">
+      <c r="F15" s="7">
+        <v>4</v>
+      </c>
+      <c r="G15" s="7">
+        <v>4</v>
+      </c>
+      <c r="H15" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="I14" s="3"/>
-    </row>
-    <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="12">
+      <c r="I15" s="3"/>
+    </row>
+    <row r="16" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="10">
         <v>2</v>
       </c>
-      <c r="B15" s="32" t="s">
+      <c r="B16" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="30" t="s">
+      <c r="C16" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D16" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="E15" s="23" t="s">
+      <c r="E16" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="F15" s="9">
-        <v>5</v>
-      </c>
-      <c r="G15" s="9">
-        <v>5</v>
-      </c>
-      <c r="H15" s="18" t="s">
+      <c r="F16" s="7">
+        <v>5</v>
+      </c>
+      <c r="G16" s="7">
+        <v>5</v>
+      </c>
+      <c r="H16" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="I15" s="3" t="s">
+      <c r="I16" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="12">
+    <row r="17" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="10">
         <v>2</v>
       </c>
-      <c r="B16" s="32" t="s">
+      <c r="B17" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="30" t="s">
+      <c r="C17" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D17" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="E16" s="20" t="s">
+      <c r="E17" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="F16" s="9">
-        <v>5</v>
-      </c>
-      <c r="G16" s="9">
-        <v>5</v>
-      </c>
-      <c r="H16" s="18" t="s">
+      <c r="F17" s="7">
+        <v>5</v>
+      </c>
+      <c r="G17" s="7">
+        <v>5</v>
+      </c>
+      <c r="H17" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="I16" s="3"/>
-    </row>
-    <row r="17" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="12">
+      <c r="I17" s="3"/>
+    </row>
+    <row r="18" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="10">
         <v>2</v>
       </c>
-      <c r="B17" s="32" t="s">
+      <c r="B18" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="30" t="s">
+      <c r="C18" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D18" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="E17" s="20" t="s">
+      <c r="E18" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="F17" s="9">
-        <v>5</v>
-      </c>
-      <c r="G17" s="9">
-        <v>5</v>
-      </c>
-      <c r="H17" s="18" t="s">
+      <c r="F18" s="7">
+        <v>5</v>
+      </c>
+      <c r="G18" s="7">
+        <v>5</v>
+      </c>
+      <c r="H18" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="I17" s="3"/>
-    </row>
-    <row r="18" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="11"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="5"/>
-    </row>
-    <row r="19" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="6" t="s">
+      <c r="I18" s="3"/>
+    </row>
+    <row r="19" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="9"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="5"/>
+    </row>
+    <row r="20" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B20" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="71">
-        <f>SUM(F12:F18)</f>
+      <c r="C20" s="70">
+        <f>SUM(F13:F19)</f>
         <v>30</v>
       </c>
-      <c r="D19" s="71"/>
-      <c r="E19" s="71"/>
-      <c r="F19" s="72"/>
-      <c r="G19" s="7" t="s">
+      <c r="D20" s="70"/>
+      <c r="E20" s="70"/>
+      <c r="F20" s="71"/>
+      <c r="G20" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="H19" s="71">
-        <f>SUM(G12:G18)</f>
+      <c r="H20" s="70">
+        <f>SUM(G13:G19)</f>
         <v>30</v>
       </c>
-      <c r="I19" s="72"/>
+      <c r="I20" s="71"/>
+    </row>
+    <row r="21" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="D21" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="G21" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="H21" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I21" s="24" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="10">
+        <v>3</v>
+      </c>
+      <c r="B22" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="25"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="15"/>
+    </row>
+    <row r="23" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="10">
+        <v>3</v>
+      </c>
+      <c r="B23" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="25"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="15"/>
+    </row>
+    <row r="24" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="10">
+        <v>3</v>
+      </c>
+      <c r="B24" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="25"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="3"/>
+    </row>
+    <row r="25" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="10">
+        <v>3</v>
+      </c>
+      <c r="B25" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="25"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="3"/>
+    </row>
+    <row r="26" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A26" s="10">
+        <v>3</v>
+      </c>
+      <c r="B26" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" s="25"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="3"/>
+    </row>
+    <row r="27" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="10">
+        <v>3</v>
+      </c>
+      <c r="B27" s="74" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" s="25"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="3"/>
+    </row>
+    <row r="28" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="9"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="5"/>
+    </row>
+    <row r="29" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="73" t="s">
+        <v>15</v>
+      </c>
+      <c r="B29" s="73" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" s="70">
+        <f>SUM(F22:F28)</f>
+        <v>0</v>
+      </c>
+      <c r="D29" s="70"/>
+      <c r="E29" s="70"/>
+      <c r="F29" s="71"/>
+      <c r="G29" s="72" t="s">
+        <v>17</v>
+      </c>
+      <c r="H29" s="70">
+        <f>SUM(G22:G28)</f>
+        <v>0</v>
+      </c>
+      <c r="I29" s="71"/>
+    </row>
+    <row r="30" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="B30" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="C30" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="D30" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E30" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="F30" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="G30" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="H30" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I30" s="24" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A31" s="10">
+        <v>4</v>
+      </c>
+      <c r="B31" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="25"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="15"/>
+    </row>
+    <row r="32" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A32" s="10">
+        <v>4</v>
+      </c>
+      <c r="B32" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="25"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="15"/>
+    </row>
+    <row r="33" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A33" s="10">
+        <v>4</v>
+      </c>
+      <c r="B33" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" s="25"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="3"/>
+    </row>
+    <row r="34" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A34" s="10">
+        <v>4</v>
+      </c>
+      <c r="B34" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" s="25"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="3"/>
+    </row>
+    <row r="35" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A35" s="10">
+        <v>4</v>
+      </c>
+      <c r="B35" s="74" t="s">
+        <v>13</v>
+      </c>
+      <c r="C35" s="25"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="3"/>
+    </row>
+    <row r="36" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A36" s="10">
+        <v>4</v>
+      </c>
+      <c r="B36" s="74" t="s">
+        <v>14</v>
+      </c>
+      <c r="C36" s="25"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="3"/>
+    </row>
+    <row r="37" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="9"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="5"/>
+    </row>
+    <row r="38" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="73" t="s">
+        <v>15</v>
+      </c>
+      <c r="B38" s="73" t="s">
+        <v>16</v>
+      </c>
+      <c r="C38" s="70">
+        <f>SUM(F31:F37)</f>
+        <v>0</v>
+      </c>
+      <c r="D38" s="70"/>
+      <c r="E38" s="70"/>
+      <c r="F38" s="71"/>
+      <c r="G38" s="72" t="s">
+        <v>17</v>
+      </c>
+      <c r="H38" s="70">
+        <f>SUM(G31:G37)</f>
+        <v>0</v>
+      </c>
+      <c r="I38" s="71"/>
+    </row>
+    <row r="39" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="B39" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="C39" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="D39" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E39" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="F39" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="G39" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="H39" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I39" s="24" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A40" s="10">
+        <v>5</v>
+      </c>
+      <c r="B40" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" s="25"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="18"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="14"/>
+      <c r="I40" s="15"/>
+    </row>
+    <row r="41" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A41" s="10">
+        <v>5</v>
+      </c>
+      <c r="B41" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C41" s="25"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="14"/>
+      <c r="I41" s="15"/>
+    </row>
+    <row r="42" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A42" s="10">
+        <v>5</v>
+      </c>
+      <c r="B42" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C42" s="25"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="14"/>
+      <c r="I42" s="3"/>
+    </row>
+    <row r="43" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A43" s="10">
+        <v>5</v>
+      </c>
+      <c r="B43" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C43" s="25"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="19"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="14"/>
+      <c r="I43" s="3"/>
+    </row>
+    <row r="44" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A44" s="10">
+        <v>5</v>
+      </c>
+      <c r="B44" s="74" t="s">
+        <v>13</v>
+      </c>
+      <c r="C44" s="25"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="16"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="14"/>
+      <c r="I44" s="3"/>
+    </row>
+    <row r="45" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A45" s="10">
+        <v>5</v>
+      </c>
+      <c r="B45" s="74" t="s">
+        <v>14</v>
+      </c>
+      <c r="C45" s="25"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="16"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="14"/>
+      <c r="I45" s="3"/>
+    </row>
+    <row r="46" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="9"/>
+      <c r="B46" s="12"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="16"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="14"/>
+      <c r="I46" s="5"/>
+    </row>
+    <row r="47" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="73" t="s">
+        <v>15</v>
+      </c>
+      <c r="B47" s="73" t="s">
+        <v>16</v>
+      </c>
+      <c r="C47" s="70">
+        <f>SUM(F40:F46)</f>
+        <v>0</v>
+      </c>
+      <c r="D47" s="70"/>
+      <c r="E47" s="70"/>
+      <c r="F47" s="71"/>
+      <c r="G47" s="72" t="s">
+        <v>17</v>
+      </c>
+      <c r="H47" s="70">
+        <f>SUM(G40:G46)</f>
+        <v>0</v>
+      </c>
+      <c r="I47" s="71"/>
+    </row>
+    <row r="48" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="B48" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="C48" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="D48" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E48" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="F48" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="G48" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="H48" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I48" s="24" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A49" s="10">
+        <v>6</v>
+      </c>
+      <c r="B49" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C49" s="25"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="18"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="6"/>
+      <c r="H49" s="14"/>
+      <c r="I49" s="15"/>
+    </row>
+    <row r="50" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A50" s="10">
+        <v>6</v>
+      </c>
+      <c r="B50" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C50" s="25"/>
+      <c r="D50" s="13"/>
+      <c r="E50" s="19"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="6"/>
+      <c r="H50" s="14"/>
+      <c r="I50" s="15"/>
+    </row>
+    <row r="51" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A51" s="10">
+        <v>6</v>
+      </c>
+      <c r="B51" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C51" s="25"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="17"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="7"/>
+      <c r="H51" s="14"/>
+      <c r="I51" s="3"/>
+    </row>
+    <row r="52" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A52" s="10">
+        <v>6</v>
+      </c>
+      <c r="B52" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C52" s="25"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="19"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="7"/>
+      <c r="H52" s="14"/>
+      <c r="I52" s="3"/>
+    </row>
+    <row r="53" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A53" s="10">
+        <v>6</v>
+      </c>
+      <c r="B53" s="74" t="s">
+        <v>13</v>
+      </c>
+      <c r="C53" s="25"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="16"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="7"/>
+      <c r="H53" s="14"/>
+      <c r="I53" s="3"/>
+    </row>
+    <row r="54" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A54" s="10">
+        <v>6</v>
+      </c>
+      <c r="B54" s="74" t="s">
+        <v>14</v>
+      </c>
+      <c r="C54" s="25"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="16"/>
+      <c r="F54" s="7"/>
+      <c r="G54" s="7"/>
+      <c r="H54" s="14"/>
+      <c r="I54" s="3"/>
+    </row>
+    <row r="55" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="9"/>
+      <c r="B55" s="12"/>
+      <c r="C55" s="9"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="16"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c r="H55" s="14"/>
+      <c r="I55" s="5"/>
+    </row>
+    <row r="56" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="73" t="s">
+        <v>15</v>
+      </c>
+      <c r="B56" s="73" t="s">
+        <v>16</v>
+      </c>
+      <c r="C56" s="70">
+        <f>SUM(F49:F55)</f>
+        <v>0</v>
+      </c>
+      <c r="D56" s="70"/>
+      <c r="E56" s="70"/>
+      <c r="F56" s="71"/>
+      <c r="G56" s="72" t="s">
+        <v>17</v>
+      </c>
+      <c r="H56" s="70">
+        <f>SUM(G49:G55)</f>
+        <v>0</v>
+      </c>
+      <c r="I56" s="71"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="13">
+    <mergeCell ref="C38:F38"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="C47:F47"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="C56:F56"/>
+    <mergeCell ref="H56:I56"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="H29:I29"/>
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="C11:F11"/>
     <mergeCell ref="H11:I11"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="H20:I20"/>
   </mergeCells>
-  <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10 C18" xr:uid="{00000000-0002-0000-0300-000000000000}">
+  <dataValidations count="6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10 C19 C28 C37 C46 C55" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>"Project Management, Requirement, Architecture and Desgin, Implementation, Testing, Training, Meetting Customer, Meetting Mentor"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C9 C12:C17" xr:uid="{00000000-0002-0000-0300-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C9 C13:C18 C22:C27 C31:C36 C40:C45 C49:C54" xr:uid="{00000000-0002-0000-0300-000001000000}">
       <formula1>"Project Management, Requirement, Architecture and Desgin, Implementation, Testing, Training, Meetting Customer, Meeting Mentor"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:H10 H12:H18" xr:uid="{00000000-0002-0000-0300-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:H10 H13:H19 H22:H28 H31:H37 H40:H46 H49:H55" xr:uid="{00000000-0002-0000-0300-000002000000}">
       <formula1>"Done,Inprogress "</formula1>
     </dataValidation>
-    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3" xr:uid="{00000000-0002-0000-0300-000003000000}">
+    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3 B12" xr:uid="{00000000-0002-0000-0300-000003000000}">
       <formula1>B4</formula1>
       <formula2>B10</formula2>
+    </dataValidation>
+    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B30 B39 B48" xr:uid="{63606E3A-7A63-44DB-901A-5C116B0EEC91}">
+      <formula1>#REF!</formula1>
+      <formula2>B35</formula2>
+    </dataValidation>
+    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B21" xr:uid="{71540775-3402-4A75-B8C4-4C86F804AEE9}">
+      <formula1>#REF!</formula1>
+      <formula2>B27</formula2>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5215,144 +6480,144 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4F2588E-374C-4DBD-95A9-14304F022B88}">
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:I56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.85546875" customWidth="1"/>
-    <col min="9" max="9" width="11.85546875" customWidth="1"/>
+    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.88671875" customWidth="1"/>
+    <col min="9" max="9" width="11.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="26"/>
-    </row>
-    <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="73" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="22"/>
+    </row>
+    <row r="2" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="75"/>
-      <c r="H2" s="75"/>
-      <c r="I2" s="76"/>
-    </row>
-    <row r="3" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="29" t="s">
+      <c r="B2" s="67"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="69"/>
+    </row>
+    <row r="3" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="15" t="s">
+      <c r="E3" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="15" t="s">
+      <c r="H3" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="16" t="s">
+      <c r="I3" s="24" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="12">
+    <row r="4" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="10">
         <v>1</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="D4" s="61"/>
-      <c r="E4" s="22" t="s">
+      <c r="D4" s="56"/>
+      <c r="E4" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="F4" s="12">
-        <v>4</v>
-      </c>
-      <c r="G4" s="12">
-        <v>4</v>
-      </c>
-      <c r="H4" s="18" t="s">
+      <c r="F4" s="10">
+        <v>4</v>
+      </c>
+      <c r="G4" s="10">
+        <v>4</v>
+      </c>
+      <c r="H4" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="19"/>
-    </row>
-    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="12">
+      <c r="I4" s="15"/>
+    </row>
+    <row r="5" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="10">
         <v>1</v>
       </c>
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="C5" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="61" t="s">
+      <c r="D5" s="56" t="s">
         <v>92</v>
       </c>
-      <c r="E5" s="23" t="s">
+      <c r="E5" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="F5" s="12">
-        <v>5</v>
-      </c>
-      <c r="G5" s="12">
-        <v>5</v>
-      </c>
-      <c r="H5" s="18" t="s">
+      <c r="F5" s="10">
+        <v>5</v>
+      </c>
+      <c r="G5" s="10">
+        <v>5</v>
+      </c>
+      <c r="H5" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="19"/>
-    </row>
-    <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I5" s="15"/>
+    </row>
+    <row r="6" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>1</v>
       </c>
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="C6" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="62" t="s">
+      <c r="D6" s="57" t="s">
         <v>92</v>
       </c>
-      <c r="E6" s="21" t="s">
+      <c r="E6" s="17" t="s">
         <v>68</v>
       </c>
       <c r="F6" s="1">
@@ -5361,25 +6626,25 @@
       <c r="G6" s="1">
         <v>4.5</v>
       </c>
-      <c r="H6" s="18" t="s">
+      <c r="H6" s="14" t="s">
         <v>21</v>
       </c>
       <c r="I6" s="3"/>
     </row>
-    <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>1</v>
       </c>
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="30" t="s">
+      <c r="C7" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="62" t="s">
+      <c r="D7" s="57" t="s">
         <v>93</v>
       </c>
-      <c r="E7" s="23" t="s">
+      <c r="E7" s="19" t="s">
         <v>69</v>
       </c>
       <c r="F7" s="1">
@@ -5388,23 +6653,23 @@
       <c r="G7" s="1">
         <v>5</v>
       </c>
-      <c r="H7" s="18" t="s">
+      <c r="H7" s="14" t="s">
         <v>20</v>
       </c>
       <c r="I7" s="3"/>
     </row>
-    <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>1</v>
       </c>
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="30" t="s">
+      <c r="C8" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="D8" s="62"/>
-      <c r="E8" s="20" t="s">
+      <c r="D8" s="57"/>
+      <c r="E8" s="16" t="s">
         <v>62</v>
       </c>
       <c r="F8" s="1">
@@ -5413,23 +6678,23 @@
       <c r="G8" s="1">
         <v>4</v>
       </c>
-      <c r="H8" s="18" t="s">
+      <c r="H8" s="14" t="s">
         <v>20</v>
       </c>
       <c r="I8" s="3"/>
     </row>
-    <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>1</v>
       </c>
-      <c r="B9" s="32" t="s">
+      <c r="B9" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="30" t="s">
+      <c r="C9" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="12"/>
-      <c r="E9" s="63">
+      <c r="D9" s="10"/>
+      <c r="E9" s="58">
         <v>43757</v>
       </c>
       <c r="F9" s="1">
@@ -5438,252 +6703,909 @@
       <c r="G9" s="1">
         <v>5</v>
       </c>
-      <c r="H9" s="18" t="s">
+      <c r="H9" s="14" t="s">
         <v>21</v>
       </c>
       <c r="I9" s="3"/>
     </row>
-    <row r="10" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="11"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="64"/>
-      <c r="E10" s="63"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="18"/>
+    <row r="10" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="9"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="58"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="14"/>
       <c r="I10" s="5"/>
     </row>
-    <row r="11" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
+    <row r="11" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="77">
+      <c r="C11" s="75">
         <f>SUM(F4:F10)</f>
         <v>26.5</v>
       </c>
-      <c r="D11" s="77"/>
-      <c r="E11" s="77"/>
-      <c r="F11" s="78"/>
-      <c r="G11" s="7" t="s">
+      <c r="D11" s="75"/>
+      <c r="E11" s="75"/>
+      <c r="F11" s="76"/>
+      <c r="G11" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="77">
+      <c r="H11" s="75">
         <f>SUM(G4:G10)</f>
         <v>27.5</v>
       </c>
-      <c r="I11" s="78"/>
-    </row>
-    <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="12">
+      <c r="I11" s="76"/>
+    </row>
+    <row r="12" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="30" t="s">
+      <c r="C12" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="H12" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I12" s="24" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="10">
+        <v>2</v>
+      </c>
+      <c r="B13" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="30" t="s">
+      <c r="C13" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="61" t="s">
+      <c r="D13" s="56" t="s">
         <v>94</v>
       </c>
-      <c r="E12" s="65">
+      <c r="E13" s="60">
         <v>43759</v>
       </c>
-      <c r="F12" s="12">
+      <c r="F13" s="10">
         <v>5.5</v>
       </c>
-      <c r="G12" s="12">
+      <c r="G13" s="10">
         <v>6</v>
       </c>
-      <c r="H12" s="18" t="s">
+      <c r="H13" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="I12" s="19"/>
-    </row>
-    <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="12">
+      <c r="I13" s="15"/>
+    </row>
+    <row r="14" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="10">
         <v>2</v>
       </c>
-      <c r="B13" s="31" t="s">
+      <c r="B14" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="30" t="s">
+      <c r="C14" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="61" t="s">
+      <c r="D14" s="56" t="s">
         <v>95</v>
       </c>
-      <c r="E13" s="66">
+      <c r="E14" s="61">
         <v>43760</v>
       </c>
-      <c r="F13" s="12">
-        <v>5</v>
-      </c>
-      <c r="G13" s="12">
+      <c r="F14" s="10">
+        <v>5</v>
+      </c>
+      <c r="G14" s="10">
         <v>6</v>
       </c>
-      <c r="H13" s="18" t="s">
+      <c r="H14" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="I13" s="19"/>
-    </row>
-    <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="12">
+      <c r="I14" s="15"/>
+    </row>
+    <row r="15" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="10">
         <v>2</v>
       </c>
-      <c r="B14" s="32" t="s">
+      <c r="B15" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="30" t="s">
+      <c r="C15" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="D14" s="62"/>
-      <c r="E14" s="67">
+      <c r="D15" s="57"/>
+      <c r="E15" s="62">
         <v>43761</v>
       </c>
-      <c r="F14" s="1">
-        <v>4</v>
-      </c>
-      <c r="G14" s="1">
-        <v>4</v>
-      </c>
-      <c r="H14" s="18" t="s">
+      <c r="F15" s="1">
+        <v>4</v>
+      </c>
+      <c r="G15" s="1">
+        <v>4</v>
+      </c>
+      <c r="H15" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="I14" s="3"/>
-    </row>
-    <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="12">
+      <c r="I15" s="3"/>
+    </row>
+    <row r="16" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="10">
         <v>2</v>
       </c>
-      <c r="B15" s="32" t="s">
+      <c r="B16" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="30" t="s">
+      <c r="C16" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="62" t="s">
+      <c r="D16" s="57" t="s">
         <v>92</v>
       </c>
-      <c r="E15" s="66">
+      <c r="E16" s="61">
         <v>43762</v>
-      </c>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="I15" s="3"/>
-    </row>
-    <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="12">
-        <v>2</v>
-      </c>
-      <c r="B16" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16" s="62" t="s">
-        <v>96</v>
-      </c>
-      <c r="E16" s="63">
-        <v>43763</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
-      <c r="H16" s="18" t="s">
+      <c r="H16" s="14" t="s">
         <v>20</v>
       </c>
       <c r="I16" s="3"/>
     </row>
-    <row r="17" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="12">
+    <row r="17" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="10">
         <v>2</v>
       </c>
-      <c r="B17" s="32" t="s">
+      <c r="B17" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="57" t="s">
+        <v>96</v>
+      </c>
+      <c r="E17" s="58">
+        <v>43763</v>
+      </c>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I17" s="3"/>
+    </row>
+    <row r="18" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="10">
+        <v>2</v>
+      </c>
+      <c r="B18" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="30" t="s">
+      <c r="C18" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="62" t="s">
+      <c r="D18" s="57" t="s">
         <v>82</v>
       </c>
-      <c r="E17" s="20">
+      <c r="E18" s="16">
         <v>43764</v>
       </c>
-      <c r="F17" s="1">
-        <v>4</v>
-      </c>
-      <c r="G17" s="1">
+      <c r="F18" s="1">
+        <v>4</v>
+      </c>
+      <c r="G18" s="1">
         <v>6</v>
       </c>
-      <c r="H17" s="18" t="s">
+      <c r="H18" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="I17" s="3"/>
-    </row>
-    <row r="18" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="11"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="64"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="5"/>
-    </row>
-    <row r="19" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="6" t="s">
+      <c r="I18" s="3"/>
+    </row>
+    <row r="19" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="9"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="59"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="5"/>
+    </row>
+    <row r="20" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B20" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="77">
-        <f>SUM(F12:F18)</f>
+      <c r="C20" s="75">
+        <f>SUM(F13:F19)</f>
         <v>18.5</v>
       </c>
-      <c r="D19" s="77"/>
-      <c r="E19" s="77"/>
-      <c r="F19" s="78"/>
-      <c r="G19" s="7" t="s">
+      <c r="D20" s="75"/>
+      <c r="E20" s="75"/>
+      <c r="F20" s="76"/>
+      <c r="G20" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="H19" s="77">
-        <f>SUM(G12:G18)</f>
+      <c r="H20" s="75">
+        <f>SUM(G13:G19)</f>
         <v>22</v>
       </c>
-      <c r="I19" s="78"/>
+      <c r="I20" s="76"/>
+    </row>
+    <row r="21" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="D21" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="G21" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="H21" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I21" s="24" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="10">
+        <v>3</v>
+      </c>
+      <c r="B22" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="25"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="15"/>
+    </row>
+    <row r="23" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="10">
+        <v>3</v>
+      </c>
+      <c r="B23" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="25"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="15"/>
+    </row>
+    <row r="24" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="10">
+        <v>3</v>
+      </c>
+      <c r="B24" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="25"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="3"/>
+    </row>
+    <row r="25" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="10">
+        <v>3</v>
+      </c>
+      <c r="B25" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="25"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="3"/>
+    </row>
+    <row r="26" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A26" s="10">
+        <v>3</v>
+      </c>
+      <c r="B26" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" s="25"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="3"/>
+    </row>
+    <row r="27" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="10">
+        <v>3</v>
+      </c>
+      <c r="B27" s="74" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" s="25"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="3"/>
+    </row>
+    <row r="28" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="9"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="5"/>
+    </row>
+    <row r="29" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="73" t="s">
+        <v>15</v>
+      </c>
+      <c r="B29" s="73" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" s="70">
+        <f>SUM(F22:F28)</f>
+        <v>0</v>
+      </c>
+      <c r="D29" s="70"/>
+      <c r="E29" s="70"/>
+      <c r="F29" s="71"/>
+      <c r="G29" s="72" t="s">
+        <v>17</v>
+      </c>
+      <c r="H29" s="70">
+        <f>SUM(G22:G28)</f>
+        <v>0</v>
+      </c>
+      <c r="I29" s="71"/>
+    </row>
+    <row r="30" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="B30" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="C30" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="D30" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E30" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="F30" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="G30" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="H30" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I30" s="24" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A31" s="10">
+        <v>4</v>
+      </c>
+      <c r="B31" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="25"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="15"/>
+    </row>
+    <row r="32" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A32" s="10">
+        <v>4</v>
+      </c>
+      <c r="B32" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="25"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="15"/>
+    </row>
+    <row r="33" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A33" s="10">
+        <v>4</v>
+      </c>
+      <c r="B33" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" s="25"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="3"/>
+    </row>
+    <row r="34" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A34" s="10">
+        <v>4</v>
+      </c>
+      <c r="B34" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" s="25"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="3"/>
+    </row>
+    <row r="35" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A35" s="10">
+        <v>4</v>
+      </c>
+      <c r="B35" s="74" t="s">
+        <v>13</v>
+      </c>
+      <c r="C35" s="25"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="3"/>
+    </row>
+    <row r="36" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A36" s="10">
+        <v>4</v>
+      </c>
+      <c r="B36" s="74" t="s">
+        <v>14</v>
+      </c>
+      <c r="C36" s="25"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="3"/>
+    </row>
+    <row r="37" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="9"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="5"/>
+    </row>
+    <row r="38" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="73" t="s">
+        <v>15</v>
+      </c>
+      <c r="B38" s="73" t="s">
+        <v>16</v>
+      </c>
+      <c r="C38" s="70">
+        <f>SUM(F31:F37)</f>
+        <v>0</v>
+      </c>
+      <c r="D38" s="70"/>
+      <c r="E38" s="70"/>
+      <c r="F38" s="71"/>
+      <c r="G38" s="72" t="s">
+        <v>17</v>
+      </c>
+      <c r="H38" s="70">
+        <f>SUM(G31:G37)</f>
+        <v>0</v>
+      </c>
+      <c r="I38" s="71"/>
+    </row>
+    <row r="39" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="B39" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="C39" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="D39" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E39" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="F39" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="G39" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="H39" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I39" s="24" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A40" s="10">
+        <v>5</v>
+      </c>
+      <c r="B40" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" s="25"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="18"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="14"/>
+      <c r="I40" s="15"/>
+    </row>
+    <row r="41" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A41" s="10">
+        <v>5</v>
+      </c>
+      <c r="B41" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C41" s="25"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="14"/>
+      <c r="I41" s="15"/>
+    </row>
+    <row r="42" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A42" s="10">
+        <v>5</v>
+      </c>
+      <c r="B42" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C42" s="25"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="14"/>
+      <c r="I42" s="3"/>
+    </row>
+    <row r="43" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A43" s="10">
+        <v>5</v>
+      </c>
+      <c r="B43" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C43" s="25"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="19"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="14"/>
+      <c r="I43" s="3"/>
+    </row>
+    <row r="44" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A44" s="10">
+        <v>5</v>
+      </c>
+      <c r="B44" s="74" t="s">
+        <v>13</v>
+      </c>
+      <c r="C44" s="25"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="16"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="14"/>
+      <c r="I44" s="3"/>
+    </row>
+    <row r="45" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A45" s="10">
+        <v>5</v>
+      </c>
+      <c r="B45" s="74" t="s">
+        <v>14</v>
+      </c>
+      <c r="C45" s="25"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="16"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="14"/>
+      <c r="I45" s="3"/>
+    </row>
+    <row r="46" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="9"/>
+      <c r="B46" s="12"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="16"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="14"/>
+      <c r="I46" s="5"/>
+    </row>
+    <row r="47" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="73" t="s">
+        <v>15</v>
+      </c>
+      <c r="B47" s="73" t="s">
+        <v>16</v>
+      </c>
+      <c r="C47" s="70">
+        <f>SUM(F40:F46)</f>
+        <v>0</v>
+      </c>
+      <c r="D47" s="70"/>
+      <c r="E47" s="70"/>
+      <c r="F47" s="71"/>
+      <c r="G47" s="72" t="s">
+        <v>17</v>
+      </c>
+      <c r="H47" s="70">
+        <f>SUM(G40:G46)</f>
+        <v>0</v>
+      </c>
+      <c r="I47" s="71"/>
+    </row>
+    <row r="48" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="B48" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="C48" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="D48" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E48" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="F48" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="G48" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="H48" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I48" s="24" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A49" s="10">
+        <v>6</v>
+      </c>
+      <c r="B49" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C49" s="25"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="18"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="6"/>
+      <c r="H49" s="14"/>
+      <c r="I49" s="15"/>
+    </row>
+    <row r="50" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A50" s="10">
+        <v>6</v>
+      </c>
+      <c r="B50" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C50" s="25"/>
+      <c r="D50" s="13"/>
+      <c r="E50" s="19"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="6"/>
+      <c r="H50" s="14"/>
+      <c r="I50" s="15"/>
+    </row>
+    <row r="51" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A51" s="10">
+        <v>6</v>
+      </c>
+      <c r="B51" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C51" s="25"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="17"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="7"/>
+      <c r="H51" s="14"/>
+      <c r="I51" s="3"/>
+    </row>
+    <row r="52" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A52" s="10">
+        <v>6</v>
+      </c>
+      <c r="B52" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C52" s="25"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="19"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="7"/>
+      <c r="H52" s="14"/>
+      <c r="I52" s="3"/>
+    </row>
+    <row r="53" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A53" s="10">
+        <v>6</v>
+      </c>
+      <c r="B53" s="74" t="s">
+        <v>13</v>
+      </c>
+      <c r="C53" s="25"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="16"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="7"/>
+      <c r="H53" s="14"/>
+      <c r="I53" s="3"/>
+    </row>
+    <row r="54" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A54" s="10">
+        <v>6</v>
+      </c>
+      <c r="B54" s="74" t="s">
+        <v>14</v>
+      </c>
+      <c r="C54" s="25"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="16"/>
+      <c r="F54" s="7"/>
+      <c r="G54" s="7"/>
+      <c r="H54" s="14"/>
+      <c r="I54" s="3"/>
+    </row>
+    <row r="55" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="9"/>
+      <c r="B55" s="12"/>
+      <c r="C55" s="9"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="16"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c r="H55" s="14"/>
+      <c r="I55" s="5"/>
+    </row>
+    <row r="56" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="73" t="s">
+        <v>15</v>
+      </c>
+      <c r="B56" s="73" t="s">
+        <v>16</v>
+      </c>
+      <c r="C56" s="70">
+        <f>SUM(F49:F55)</f>
+        <v>0</v>
+      </c>
+      <c r="D56" s="70"/>
+      <c r="E56" s="70"/>
+      <c r="F56" s="71"/>
+      <c r="G56" s="72" t="s">
+        <v>17</v>
+      </c>
+      <c r="H56" s="70">
+        <f>SUM(G49:G55)</f>
+        <v>0</v>
+      </c>
+      <c r="I56" s="71"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="13">
+    <mergeCell ref="C56:F56"/>
+    <mergeCell ref="H56:I56"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="C38:F38"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="C47:F47"/>
+    <mergeCell ref="H47:I47"/>
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="C11:F11"/>
     <mergeCell ref="H11:I11"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="H20:I20"/>
   </mergeCells>
-  <dataValidations count="4">
-    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3" xr:uid="{6FFE7BB2-A561-485E-81E9-2571AC8DE5CA}">
+  <dataValidations count="6">
+    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3 B12" xr:uid="{6FFE7BB2-A561-485E-81E9-2571AC8DE5CA}">
       <formula1>B4</formula1>
       <formula2>B10</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:H10 H12:H18" xr:uid="{6631F660-441C-45AD-828B-61A224D5ADF2}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:H10 H13:H19 H22:H28 H31:H37 H40:H46 H49:H55" xr:uid="{6631F660-441C-45AD-828B-61A224D5ADF2}">
       <formula1>"Done,Inprogress "</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C12:C17 C9:D9 C4:C8" xr:uid="{F3CBFF43-1EA6-4105-8193-6BB7478B8CE7}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C13:C18 C9:D9 C4:C8 C22:C27 C31:C36 C40:C45 C49:C54" xr:uid="{F3CBFF43-1EA6-4105-8193-6BB7478B8CE7}">
       <formula1>"Project Management, Requirement, Architecture and Desgin, Implementation, Testing, Training, Meetting Customer, Meeting Mentor"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10 C18" xr:uid="{5A5FB21D-56FA-4666-866D-0DBF9359F400}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10 C19 C28 C37 C46 C55" xr:uid="{5A5FB21D-56FA-4666-866D-0DBF9359F400}">
       <formula1>"Project Management, Requirement, Architecture and Desgin, Implementation, Testing, Training, Meetting Customer, Meetting Mentor"</formula1>
+    </dataValidation>
+    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B21" xr:uid="{78AB9685-9DF4-4C53-9902-EEFD9793FA61}">
+      <formula1>#REF!</formula1>
+      <formula2>B27</formula2>
+    </dataValidation>
+    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B30 B39 B48" xr:uid="{02EB827E-FEA3-4391-8CF1-4E14FD3108CB}">
+      <formula1>#REF!</formula1>
+      <formula2>B35</formula2>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5692,144 +7614,144 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8D98322-3746-4D23-926C-85D7A07E9BC3}">
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:I56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="A21" sqref="A21:I56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" customWidth="1"/>
+    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="26"/>
-    </row>
-    <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="73" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="22"/>
+    </row>
+    <row r="2" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="75"/>
-      <c r="H2" s="75"/>
-      <c r="I2" s="76"/>
-    </row>
-    <row r="3" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="29" t="s">
+      <c r="B2" s="67"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="69"/>
+    </row>
+    <row r="3" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="15" t="s">
+      <c r="E3" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="15" t="s">
+      <c r="H3" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="16" t="s">
+      <c r="I3" s="24" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="12">
+    <row r="4" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="10">
         <v>1</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="D4" s="61"/>
-      <c r="E4" s="22" t="s">
+      <c r="D4" s="56"/>
+      <c r="E4" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="F4" s="12">
-        <v>4</v>
-      </c>
-      <c r="G4" s="12">
-        <v>4</v>
-      </c>
-      <c r="H4" s="18" t="s">
+      <c r="F4" s="10">
+        <v>4</v>
+      </c>
+      <c r="G4" s="10">
+        <v>4</v>
+      </c>
+      <c r="H4" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="19"/>
-    </row>
-    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="12">
+      <c r="I4" s="15"/>
+    </row>
+    <row r="5" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="10">
         <v>1</v>
       </c>
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="C5" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="61" t="s">
+      <c r="D5" s="56" t="s">
         <v>97</v>
       </c>
-      <c r="E5" s="23" t="s">
+      <c r="E5" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="F5" s="12">
-        <v>5</v>
-      </c>
-      <c r="G5" s="12">
-        <v>5</v>
-      </c>
-      <c r="H5" s="18" t="s">
+      <c r="F5" s="10">
+        <v>5</v>
+      </c>
+      <c r="G5" s="10">
+        <v>5</v>
+      </c>
+      <c r="H5" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="19"/>
-    </row>
-    <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I5" s="15"/>
+    </row>
+    <row r="6" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>1</v>
       </c>
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="C6" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="61" t="s">
+      <c r="D6" s="56" t="s">
         <v>97</v>
       </c>
-      <c r="E6" s="21" t="s">
+      <c r="E6" s="17" t="s">
         <v>68</v>
       </c>
       <c r="F6" s="1">
@@ -5838,25 +7760,25 @@
       <c r="G6" s="1">
         <v>5</v>
       </c>
-      <c r="H6" s="18" t="s">
+      <c r="H6" s="14" t="s">
         <v>21</v>
       </c>
       <c r="I6" s="3"/>
     </row>
-    <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>1</v>
       </c>
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="30" t="s">
+      <c r="C7" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="61" t="s">
+      <c r="D7" s="56" t="s">
         <v>97</v>
       </c>
-      <c r="E7" s="23" t="s">
+      <c r="E7" s="19" t="s">
         <v>69</v>
       </c>
       <c r="F7" s="1">
@@ -5865,23 +7787,23 @@
       <c r="G7" s="1">
         <v>5</v>
       </c>
-      <c r="H7" s="18" t="s">
+      <c r="H7" s="14" t="s">
         <v>21</v>
       </c>
       <c r="I7" s="3"/>
     </row>
-    <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>1</v>
       </c>
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="30" t="s">
+      <c r="C8" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="D8" s="62"/>
-      <c r="E8" s="20" t="s">
+      <c r="D8" s="57"/>
+      <c r="E8" s="16" t="s">
         <v>62</v>
       </c>
       <c r="F8" s="1">
@@ -5890,23 +7812,23 @@
       <c r="G8" s="1">
         <v>4</v>
       </c>
-      <c r="H8" s="18" t="s">
+      <c r="H8" s="14" t="s">
         <v>20</v>
       </c>
       <c r="I8" s="3"/>
     </row>
-    <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>1</v>
       </c>
-      <c r="B9" s="32" t="s">
+      <c r="B9" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="30" t="s">
+      <c r="C9" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="62"/>
-      <c r="E9" s="20" t="s">
+      <c r="D9" s="57"/>
+      <c r="E9" s="16" t="s">
         <v>75</v>
       </c>
       <c r="F9" s="1">
@@ -5915,260 +7837,917 @@
       <c r="G9" s="1">
         <v>5</v>
       </c>
-      <c r="H9" s="18" t="s">
+      <c r="H9" s="14" t="s">
         <v>21</v>
       </c>
       <c r="I9" s="3"/>
     </row>
-    <row r="10" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="11"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="64"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="18"/>
+    <row r="10" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="9"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="14"/>
       <c r="I10" s="5"/>
     </row>
-    <row r="11" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
+    <row r="11" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="77">
+      <c r="C11" s="75">
         <f>SUM(F4:F10)</f>
         <v>24</v>
       </c>
-      <c r="D11" s="77"/>
-      <c r="E11" s="77"/>
-      <c r="F11" s="78"/>
-      <c r="G11" s="7" t="s">
+      <c r="D11" s="75"/>
+      <c r="E11" s="75"/>
+      <c r="F11" s="76"/>
+      <c r="G11" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="77">
+      <c r="H11" s="75">
         <f>SUM(G4:G10)</f>
         <v>28</v>
       </c>
-      <c r="I11" s="78"/>
-    </row>
-    <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="12">
+      <c r="I11" s="76"/>
+    </row>
+    <row r="12" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="30" t="s">
+      <c r="C12" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="H12" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I12" s="24" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="10">
+        <v>2</v>
+      </c>
+      <c r="B13" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="30" t="s">
+      <c r="C13" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="61" t="s">
+      <c r="D13" s="56" t="s">
         <v>98</v>
       </c>
-      <c r="E12" s="23" t="s">
+      <c r="E13" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="F12" s="12">
-        <v>5</v>
-      </c>
-      <c r="G12" s="12">
-        <v>5</v>
-      </c>
-      <c r="H12" s="18" t="s">
+      <c r="F13" s="10">
+        <v>5</v>
+      </c>
+      <c r="G13" s="10">
+        <v>5</v>
+      </c>
+      <c r="H13" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="I12" s="19"/>
-    </row>
-    <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="12">
+      <c r="I13" s="15"/>
+    </row>
+    <row r="14" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="10">
         <v>2</v>
       </c>
-      <c r="B13" s="31" t="s">
+      <c r="B14" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="30" t="s">
+      <c r="C14" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="61" t="s">
+      <c r="D14" s="56" t="s">
         <v>99</v>
       </c>
-      <c r="E13" s="21" t="s">
+      <c r="E14" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="F13" s="12">
+      <c r="F14" s="10">
         <v>3</v>
       </c>
-      <c r="G13" s="12">
-        <v>5</v>
-      </c>
-      <c r="H13" s="18" t="s">
+      <c r="G14" s="10">
+        <v>5</v>
+      </c>
+      <c r="H14" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="I13" s="19"/>
-    </row>
-    <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="12">
+      <c r="I14" s="15"/>
+    </row>
+    <row r="15" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="10">
         <v>2</v>
       </c>
-      <c r="B14" s="32" t="s">
+      <c r="B15" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="30" t="s">
+      <c r="C15" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="D14" s="62"/>
-      <c r="E14" s="23" t="s">
+      <c r="D15" s="57"/>
+      <c r="E15" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="F14" s="1">
-        <v>4</v>
-      </c>
-      <c r="G14" s="1">
-        <v>4</v>
-      </c>
-      <c r="H14" s="18" t="s">
+      <c r="F15" s="1">
+        <v>4</v>
+      </c>
+      <c r="G15" s="1">
+        <v>4</v>
+      </c>
+      <c r="H15" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="I14" s="3"/>
-    </row>
-    <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="12">
+      <c r="I15" s="3"/>
+    </row>
+    <row r="16" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="10">
         <v>2</v>
       </c>
-      <c r="B15" s="32" t="s">
+      <c r="B16" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="30" t="s">
+      <c r="C16" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="62" t="s">
+      <c r="D16" s="57" t="s">
         <v>100</v>
       </c>
-      <c r="E15" s="20" t="s">
+      <c r="E16" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F16" s="1">
         <v>7</v>
       </c>
-      <c r="G15" s="1">
-        <v>5</v>
-      </c>
-      <c r="H15" s="18" t="s">
+      <c r="G16" s="1">
+        <v>5</v>
+      </c>
+      <c r="H16" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="I15" s="3"/>
-    </row>
-    <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="12">
+      <c r="I16" s="3"/>
+    </row>
+    <row r="17" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="10">
         <v>2</v>
       </c>
-      <c r="B16" s="32" t="s">
+      <c r="B17" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="30" t="s">
+      <c r="C17" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="62" t="s">
+      <c r="D17" s="57" t="s">
         <v>96</v>
       </c>
-      <c r="E16" s="20" t="s">
+      <c r="E17" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="F16" s="1">
-        <v>4</v>
-      </c>
-      <c r="G16" s="1">
-        <v>5</v>
-      </c>
-      <c r="H16" s="18" t="s">
+      <c r="F17" s="1">
+        <v>4</v>
+      </c>
+      <c r="G17" s="1">
+        <v>5</v>
+      </c>
+      <c r="H17" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="I16" s="3"/>
-    </row>
-    <row r="17" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="12">
+      <c r="I17" s="3"/>
+    </row>
+    <row r="18" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="10">
         <v>2</v>
       </c>
-      <c r="B17" s="32" t="s">
+      <c r="B18" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="30" t="s">
+      <c r="C18" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="62" t="s">
+      <c r="D18" s="57" t="s">
         <v>82</v>
       </c>
-      <c r="E17" s="20" t="s">
+      <c r="E18" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="F17" s="1">
-        <v>4</v>
-      </c>
-      <c r="G17" s="1">
+      <c r="F18" s="1">
+        <v>4</v>
+      </c>
+      <c r="G18" s="1">
         <v>6</v>
       </c>
-      <c r="H17" s="18" t="s">
+      <c r="H18" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="I17" s="3"/>
-    </row>
-    <row r="18" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="11"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="64"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="5"/>
-    </row>
-    <row r="19" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="6" t="s">
+      <c r="I18" s="3"/>
+    </row>
+    <row r="19" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="9"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="59"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="5"/>
+    </row>
+    <row r="20" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B20" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="77">
-        <f>SUM(F12:F18)</f>
+      <c r="C20" s="75">
+        <f>SUM(F13:F19)</f>
         <v>27</v>
       </c>
-      <c r="D19" s="77"/>
-      <c r="E19" s="77"/>
-      <c r="F19" s="78"/>
-      <c r="G19" s="7" t="s">
+      <c r="D20" s="75"/>
+      <c r="E20" s="75"/>
+      <c r="F20" s="76"/>
+      <c r="G20" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="H19" s="77">
-        <f>SUM(G12:G18)</f>
+      <c r="H20" s="75">
+        <f>SUM(G13:G19)</f>
         <v>30</v>
       </c>
-      <c r="I19" s="78"/>
+      <c r="I20" s="76"/>
+    </row>
+    <row r="21" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="D21" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="G21" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="H21" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I21" s="24" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="10">
+        <v>3</v>
+      </c>
+      <c r="B22" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="25"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="15"/>
+    </row>
+    <row r="23" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="10">
+        <v>3</v>
+      </c>
+      <c r="B23" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="25"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="15"/>
+    </row>
+    <row r="24" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="10">
+        <v>3</v>
+      </c>
+      <c r="B24" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="25"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="3"/>
+    </row>
+    <row r="25" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="10">
+        <v>3</v>
+      </c>
+      <c r="B25" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="25"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="3"/>
+    </row>
+    <row r="26" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A26" s="10">
+        <v>3</v>
+      </c>
+      <c r="B26" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" s="25"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="3"/>
+    </row>
+    <row r="27" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="10">
+        <v>3</v>
+      </c>
+      <c r="B27" s="74" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" s="25"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="3"/>
+    </row>
+    <row r="28" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="9"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="5"/>
+    </row>
+    <row r="29" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="73" t="s">
+        <v>15</v>
+      </c>
+      <c r="B29" s="73" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" s="70">
+        <f>SUM(F22:F28)</f>
+        <v>0</v>
+      </c>
+      <c r="D29" s="70"/>
+      <c r="E29" s="70"/>
+      <c r="F29" s="71"/>
+      <c r="G29" s="72" t="s">
+        <v>17</v>
+      </c>
+      <c r="H29" s="70">
+        <f>SUM(G22:G28)</f>
+        <v>0</v>
+      </c>
+      <c r="I29" s="71"/>
+    </row>
+    <row r="30" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="B30" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="C30" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="D30" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E30" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="F30" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="G30" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="H30" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I30" s="24" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A31" s="10">
+        <v>4</v>
+      </c>
+      <c r="B31" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="25"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="15"/>
+    </row>
+    <row r="32" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A32" s="10">
+        <v>4</v>
+      </c>
+      <c r="B32" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="25"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="15"/>
+    </row>
+    <row r="33" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A33" s="10">
+        <v>4</v>
+      </c>
+      <c r="B33" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" s="25"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="3"/>
+    </row>
+    <row r="34" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A34" s="10">
+        <v>4</v>
+      </c>
+      <c r="B34" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" s="25"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="3"/>
+    </row>
+    <row r="35" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A35" s="10">
+        <v>4</v>
+      </c>
+      <c r="B35" s="74" t="s">
+        <v>13</v>
+      </c>
+      <c r="C35" s="25"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="3"/>
+    </row>
+    <row r="36" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A36" s="10">
+        <v>4</v>
+      </c>
+      <c r="B36" s="74" t="s">
+        <v>14</v>
+      </c>
+      <c r="C36" s="25"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="3"/>
+    </row>
+    <row r="37" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="9"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="5"/>
+    </row>
+    <row r="38" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="73" t="s">
+        <v>15</v>
+      </c>
+      <c r="B38" s="73" t="s">
+        <v>16</v>
+      </c>
+      <c r="C38" s="70">
+        <f>SUM(F31:F37)</f>
+        <v>0</v>
+      </c>
+      <c r="D38" s="70"/>
+      <c r="E38" s="70"/>
+      <c r="F38" s="71"/>
+      <c r="G38" s="72" t="s">
+        <v>17</v>
+      </c>
+      <c r="H38" s="70">
+        <f>SUM(G31:G37)</f>
+        <v>0</v>
+      </c>
+      <c r="I38" s="71"/>
+    </row>
+    <row r="39" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="B39" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="C39" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="D39" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E39" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="F39" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="G39" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="H39" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I39" s="24" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A40" s="10">
+        <v>5</v>
+      </c>
+      <c r="B40" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" s="25"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="18"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="14"/>
+      <c r="I40" s="15"/>
+    </row>
+    <row r="41" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A41" s="10">
+        <v>5</v>
+      </c>
+      <c r="B41" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C41" s="25"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="14"/>
+      <c r="I41" s="15"/>
+    </row>
+    <row r="42" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A42" s="10">
+        <v>5</v>
+      </c>
+      <c r="B42" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C42" s="25"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="14"/>
+      <c r="I42" s="3"/>
+    </row>
+    <row r="43" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A43" s="10">
+        <v>5</v>
+      </c>
+      <c r="B43" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C43" s="25"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="19"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="14"/>
+      <c r="I43" s="3"/>
+    </row>
+    <row r="44" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A44" s="10">
+        <v>5</v>
+      </c>
+      <c r="B44" s="74" t="s">
+        <v>13</v>
+      </c>
+      <c r="C44" s="25"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="16"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="14"/>
+      <c r="I44" s="3"/>
+    </row>
+    <row r="45" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A45" s="10">
+        <v>5</v>
+      </c>
+      <c r="B45" s="74" t="s">
+        <v>14</v>
+      </c>
+      <c r="C45" s="25"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="16"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="14"/>
+      <c r="I45" s="3"/>
+    </row>
+    <row r="46" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="9"/>
+      <c r="B46" s="12"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="16"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="14"/>
+      <c r="I46" s="5"/>
+    </row>
+    <row r="47" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="73" t="s">
+        <v>15</v>
+      </c>
+      <c r="B47" s="73" t="s">
+        <v>16</v>
+      </c>
+      <c r="C47" s="70">
+        <f>SUM(F40:F46)</f>
+        <v>0</v>
+      </c>
+      <c r="D47" s="70"/>
+      <c r="E47" s="70"/>
+      <c r="F47" s="71"/>
+      <c r="G47" s="72" t="s">
+        <v>17</v>
+      </c>
+      <c r="H47" s="70">
+        <f>SUM(G40:G46)</f>
+        <v>0</v>
+      </c>
+      <c r="I47" s="71"/>
+    </row>
+    <row r="48" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="B48" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="C48" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="D48" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E48" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="F48" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="G48" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="H48" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I48" s="24" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A49" s="10">
+        <v>6</v>
+      </c>
+      <c r="B49" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C49" s="25"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="18"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="6"/>
+      <c r="H49" s="14"/>
+      <c r="I49" s="15"/>
+    </row>
+    <row r="50" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A50" s="10">
+        <v>6</v>
+      </c>
+      <c r="B50" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C50" s="25"/>
+      <c r="D50" s="13"/>
+      <c r="E50" s="19"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="6"/>
+      <c r="H50" s="14"/>
+      <c r="I50" s="15"/>
+    </row>
+    <row r="51" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A51" s="10">
+        <v>6</v>
+      </c>
+      <c r="B51" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C51" s="25"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="17"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="7"/>
+      <c r="H51" s="14"/>
+      <c r="I51" s="3"/>
+    </row>
+    <row r="52" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A52" s="10">
+        <v>6</v>
+      </c>
+      <c r="B52" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C52" s="25"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="19"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="7"/>
+      <c r="H52" s="14"/>
+      <c r="I52" s="3"/>
+    </row>
+    <row r="53" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A53" s="10">
+        <v>6</v>
+      </c>
+      <c r="B53" s="74" t="s">
+        <v>13</v>
+      </c>
+      <c r="C53" s="25"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="16"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="7"/>
+      <c r="H53" s="14"/>
+      <c r="I53" s="3"/>
+    </row>
+    <row r="54" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A54" s="10">
+        <v>6</v>
+      </c>
+      <c r="B54" s="74" t="s">
+        <v>14</v>
+      </c>
+      <c r="C54" s="25"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="16"/>
+      <c r="F54" s="7"/>
+      <c r="G54" s="7"/>
+      <c r="H54" s="14"/>
+      <c r="I54" s="3"/>
+    </row>
+    <row r="55" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="9"/>
+      <c r="B55" s="12"/>
+      <c r="C55" s="9"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="16"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c r="H55" s="14"/>
+      <c r="I55" s="5"/>
+    </row>
+    <row r="56" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="73" t="s">
+        <v>15</v>
+      </c>
+      <c r="B56" s="73" t="s">
+        <v>16</v>
+      </c>
+      <c r="C56" s="70">
+        <f>SUM(F49:F55)</f>
+        <v>0</v>
+      </c>
+      <c r="D56" s="70"/>
+      <c r="E56" s="70"/>
+      <c r="F56" s="71"/>
+      <c r="G56" s="72" t="s">
+        <v>17</v>
+      </c>
+      <c r="H56" s="70">
+        <f>SUM(G49:G55)</f>
+        <v>0</v>
+      </c>
+      <c r="I56" s="71"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="13">
+    <mergeCell ref="C56:F56"/>
+    <mergeCell ref="H56:I56"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="C38:F38"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="C47:F47"/>
+    <mergeCell ref="H47:I47"/>
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="C11:F11"/>
     <mergeCell ref="H11:I11"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="H20:I20"/>
   </mergeCells>
-  <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10 C18" xr:uid="{49E4ABBA-BF99-4A08-9146-05B03FF61551}">
+  <dataValidations count="6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10 C19 C28 C37 C46 C55" xr:uid="{49E4ABBA-BF99-4A08-9146-05B03FF61551}">
       <formula1>"Project Management, Requirement, Architecture and Desgin, Implementation, Testing, Training, Meetting Customer, Meetting Mentor"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C9 C12:C17" xr:uid="{7BB7431A-7120-424E-9970-47B42B760419}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C9 C13:C18 C22:C27 C31:C36 C40:C45 C49:C54" xr:uid="{7BB7431A-7120-424E-9970-47B42B760419}">
       <formula1>"Project Management, Requirement, Architecture and Desgin, Implementation, Testing, Training, Meetting Customer, Meeting Mentor"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:H10 H12:H18" xr:uid="{4A0F2AA5-85B8-464F-8CAA-CD36662ED450}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:H10 H13:H19 H22:H28 H31:H37 H40:H46 H49:H55" xr:uid="{4A0F2AA5-85B8-464F-8CAA-CD36662ED450}">
       <formula1>"Done,Inprogress "</formula1>
     </dataValidation>
-    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3" xr:uid="{22474DAD-5ABA-4447-B2F6-2025840C9401}">
+    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3 B12" xr:uid="{22474DAD-5ABA-4447-B2F6-2025840C9401}">
       <formula1>B4</formula1>
       <formula2>B10</formula2>
+    </dataValidation>
+    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B30 B39 B48" xr:uid="{41D4505D-1A87-429A-ABAB-79ABBDCBFCB1}">
+      <formula1>#REF!</formula1>
+      <formula2>B35</formula2>
+    </dataValidation>
+    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B21" xr:uid="{B68F232B-FC91-4BB4-9C4A-D7FE8146B9F0}">
+      <formula1>#REF!</formula1>
+      <formula2>B27</formula2>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6178,195 +8757,195 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{744DDA93-81BE-4148-9787-FFABC05BF7AA}">
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:I56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12:F17"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:I56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.85546875" customWidth="1"/>
+    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="26"/>
-    </row>
-    <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="73" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="22"/>
+    </row>
+    <row r="2" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="75"/>
-      <c r="H2" s="75"/>
-      <c r="I2" s="76"/>
-    </row>
-    <row r="3" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="29" t="s">
+      <c r="B2" s="67"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="69"/>
+    </row>
+    <row r="3" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="15" t="s">
+      <c r="E3" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="15" t="s">
+      <c r="H3" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="16" t="s">
+      <c r="I3" s="24" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="12">
+    <row r="4" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="10">
         <v>1</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="D4" s="61"/>
-      <c r="E4" s="22" t="s">
+      <c r="D4" s="56"/>
+      <c r="E4" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="F4" s="12">
-        <v>4</v>
-      </c>
-      <c r="G4" s="12">
-        <v>4</v>
-      </c>
-      <c r="H4" s="18" t="s">
+      <c r="F4" s="10">
+        <v>4</v>
+      </c>
+      <c r="G4" s="10">
+        <v>4</v>
+      </c>
+      <c r="H4" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="19"/>
-    </row>
-    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="12">
+      <c r="I4" s="15"/>
+    </row>
+    <row r="5" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="10">
         <v>1</v>
       </c>
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="C5" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="61" t="s">
+      <c r="D5" s="56" t="s">
         <v>102</v>
       </c>
-      <c r="E5" s="23" t="s">
+      <c r="E5" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="F5" s="12">
-        <v>5</v>
-      </c>
-      <c r="G5" s="12">
-        <v>5</v>
-      </c>
-      <c r="H5" s="18" t="s">
+      <c r="F5" s="10">
+        <v>5</v>
+      </c>
+      <c r="G5" s="10">
+        <v>5</v>
+      </c>
+      <c r="H5" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="I5" s="19"/>
-    </row>
-    <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I5" s="15"/>
+    </row>
+    <row r="6" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>1</v>
       </c>
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="C6" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="61" t="s">
+      <c r="D6" s="56" t="s">
         <v>102</v>
       </c>
-      <c r="E6" s="21" t="s">
+      <c r="E6" s="17" t="s">
         <v>68</v>
       </c>
       <c r="F6" s="1">
         <v>5</v>
       </c>
-      <c r="G6" s="12">
-        <v>5</v>
-      </c>
-      <c r="H6" s="18" t="s">
+      <c r="G6" s="10">
+        <v>5</v>
+      </c>
+      <c r="H6" s="14" t="s">
         <v>20</v>
       </c>
       <c r="I6" s="3"/>
     </row>
-    <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>1</v>
       </c>
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="30" t="s">
+      <c r="C7" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="61" t="s">
+      <c r="D7" s="56" t="s">
         <v>102</v>
       </c>
-      <c r="E7" s="23" t="s">
+      <c r="E7" s="19" t="s">
         <v>69</v>
       </c>
       <c r="F7" s="1">
         <v>5</v>
       </c>
-      <c r="G7" s="12">
-        <v>5</v>
-      </c>
-      <c r="H7" s="18" t="s">
+      <c r="G7" s="10">
+        <v>5</v>
+      </c>
+      <c r="H7" s="14" t="s">
         <v>20</v>
       </c>
       <c r="I7" s="3"/>
     </row>
-    <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>1</v>
       </c>
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="30" t="s">
+      <c r="C8" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="D8" s="62"/>
-      <c r="E8" s="20" t="s">
+      <c r="D8" s="57"/>
+      <c r="E8" s="16" t="s">
         <v>62</v>
       </c>
       <c r="F8" s="1">
@@ -6375,25 +8954,25 @@
       <c r="G8" s="1">
         <v>4</v>
       </c>
-      <c r="H8" s="18" t="s">
+      <c r="H8" s="14" t="s">
         <v>20</v>
       </c>
       <c r="I8" s="3"/>
     </row>
-    <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>1</v>
       </c>
-      <c r="B9" s="32" t="s">
+      <c r="B9" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="62" t="s">
+      <c r="D9" s="57" t="s">
         <v>103</v>
       </c>
-      <c r="E9" s="20" t="s">
+      <c r="E9" s="16" t="s">
         <v>75</v>
       </c>
       <c r="F9" s="1">
@@ -6402,260 +8981,917 @@
       <c r="G9" s="1">
         <v>5</v>
       </c>
-      <c r="H9" s="18" t="s">
+      <c r="H9" s="14" t="s">
         <v>20</v>
       </c>
       <c r="I9" s="3"/>
     </row>
-    <row r="10" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="11"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="64"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="18"/>
+    <row r="10" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="9"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="14"/>
       <c r="I10" s="5"/>
     </row>
-    <row r="11" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
+    <row r="11" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="77">
+      <c r="C11" s="75">
         <f>SUM(F4:F10)</f>
         <v>27</v>
       </c>
-      <c r="D11" s="77"/>
-      <c r="E11" s="77"/>
-      <c r="F11" s="78"/>
-      <c r="G11" s="7" t="s">
+      <c r="D11" s="75"/>
+      <c r="E11" s="75"/>
+      <c r="F11" s="76"/>
+      <c r="G11" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="77">
+      <c r="H11" s="75">
         <f>SUM(G4:G10)</f>
         <v>28</v>
       </c>
-      <c r="I11" s="78"/>
-    </row>
-    <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="12">
+      <c r="I11" s="76"/>
+    </row>
+    <row r="12" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="30" t="s">
+      <c r="C12" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="H12" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I12" s="24" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="10">
+        <v>2</v>
+      </c>
+      <c r="B13" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="30" t="s">
+      <c r="C13" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="61" t="s">
+      <c r="D13" s="56" t="s">
         <v>104</v>
       </c>
-      <c r="E12" s="22" t="s">
+      <c r="E13" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="F12" s="12">
-        <v>5</v>
-      </c>
-      <c r="G12" s="12">
-        <v>5</v>
-      </c>
-      <c r="H12" s="18" t="s">
+      <c r="F13" s="10">
+        <v>5</v>
+      </c>
+      <c r="G13" s="10">
+        <v>5</v>
+      </c>
+      <c r="H13" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="I12" s="19"/>
-    </row>
-    <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="12">
+      <c r="I13" s="15"/>
+    </row>
+    <row r="14" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="10">
         <v>2</v>
       </c>
-      <c r="B13" s="31" t="s">
+      <c r="B14" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="30" t="s">
+      <c r="C14" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="61" t="s">
+      <c r="D14" s="56" t="s">
         <v>105</v>
       </c>
-      <c r="E13" s="23" t="s">
+      <c r="E14" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="F13" s="12">
-        <v>5</v>
-      </c>
-      <c r="G13" s="12">
-        <v>5</v>
-      </c>
-      <c r="H13" s="18" t="s">
+      <c r="F14" s="10">
+        <v>5</v>
+      </c>
+      <c r="G14" s="10">
+        <v>5</v>
+      </c>
+      <c r="H14" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="I13" s="19"/>
-    </row>
-    <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="12">
+      <c r="I14" s="15"/>
+    </row>
+    <row r="15" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="10">
         <v>2</v>
       </c>
-      <c r="B14" s="32" t="s">
+      <c r="B15" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="30" t="s">
+      <c r="C15" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="D14" s="62"/>
-      <c r="E14" s="21" t="s">
+      <c r="D15" s="57"/>
+      <c r="E15" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="F14" s="1">
-        <v>4</v>
-      </c>
-      <c r="G14" s="1">
-        <v>4</v>
-      </c>
-      <c r="H14" s="18" t="s">
+      <c r="F15" s="1">
+        <v>4</v>
+      </c>
+      <c r="G15" s="1">
+        <v>4</v>
+      </c>
+      <c r="H15" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="I14" s="3"/>
-    </row>
-    <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="12">
+      <c r="I15" s="3"/>
+    </row>
+    <row r="16" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="10">
         <v>2</v>
       </c>
-      <c r="B15" s="32" t="s">
+      <c r="B16" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="30" t="s">
+      <c r="C16" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="62" t="s">
+      <c r="D16" s="57" t="s">
         <v>106</v>
       </c>
-      <c r="E15" s="23" t="s">
+      <c r="E16" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="F15" s="1">
-        <v>5</v>
-      </c>
-      <c r="G15" s="1">
-        <v>5</v>
-      </c>
-      <c r="H15" s="18" t="s">
+      <c r="F16" s="1">
+        <v>5</v>
+      </c>
+      <c r="G16" s="1">
+        <v>5</v>
+      </c>
+      <c r="H16" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="I15" s="3"/>
-    </row>
-    <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="12">
+      <c r="I16" s="3"/>
+    </row>
+    <row r="17" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="10">
         <v>2</v>
       </c>
-      <c r="B16" s="32" t="s">
+      <c r="B17" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="30" t="s">
+      <c r="C17" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="62" t="s">
+      <c r="D17" s="57" t="s">
         <v>106</v>
       </c>
-      <c r="E16" s="20" t="s">
+      <c r="E17" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="F16" s="1">
-        <v>5</v>
-      </c>
-      <c r="G16" s="1">
-        <v>5</v>
-      </c>
-      <c r="H16" s="18" t="s">
+      <c r="F17" s="1">
+        <v>5</v>
+      </c>
+      <c r="G17" s="1">
+        <v>5</v>
+      </c>
+      <c r="H17" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="I16" s="3"/>
-    </row>
-    <row r="17" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="12">
+      <c r="I17" s="3"/>
+    </row>
+    <row r="18" spans="1:9" ht="30" x14ac:dyDescent="0.3">
+      <c r="A18" s="10">
         <v>2</v>
       </c>
-      <c r="B17" s="32" t="s">
+      <c r="B18" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="30" t="s">
+      <c r="C18" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="68" t="s">
+      <c r="D18" s="63" t="s">
         <v>107</v>
       </c>
-      <c r="E17" s="20" t="s">
+      <c r="E18" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="F17" s="1">
-        <v>5</v>
-      </c>
-      <c r="G17" s="1">
-        <v>5</v>
-      </c>
-      <c r="H17" s="18" t="s">
+      <c r="F18" s="1">
+        <v>5</v>
+      </c>
+      <c r="G18" s="1">
+        <v>5</v>
+      </c>
+      <c r="H18" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="I17" s="3"/>
-    </row>
-    <row r="18" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="11"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="64"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="5"/>
-    </row>
-    <row r="19" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="6" t="s">
+      <c r="I18" s="3"/>
+    </row>
+    <row r="19" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="9"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="59"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="5"/>
+    </row>
+    <row r="20" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B20" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="77">
-        <f>SUM(F12:F18)</f>
+      <c r="C20" s="75">
+        <f>SUM(F13:F19)</f>
         <v>29</v>
       </c>
-      <c r="D19" s="77"/>
-      <c r="E19" s="77"/>
-      <c r="F19" s="78"/>
-      <c r="G19" s="7" t="s">
+      <c r="D20" s="75"/>
+      <c r="E20" s="75"/>
+      <c r="F20" s="76"/>
+      <c r="G20" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="H19" s="77">
-        <f>SUM(G12:G18)</f>
+      <c r="H20" s="75">
+        <f>SUM(G13:G19)</f>
         <v>29</v>
       </c>
-      <c r="I19" s="78"/>
+      <c r="I20" s="76"/>
+    </row>
+    <row r="21" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="D21" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="G21" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="H21" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I21" s="24" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="10">
+        <v>3</v>
+      </c>
+      <c r="B22" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="25"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="15"/>
+    </row>
+    <row r="23" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="10">
+        <v>3</v>
+      </c>
+      <c r="B23" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="25"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="15"/>
+    </row>
+    <row r="24" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="10">
+        <v>3</v>
+      </c>
+      <c r="B24" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="25"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="3"/>
+    </row>
+    <row r="25" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="10">
+        <v>3</v>
+      </c>
+      <c r="B25" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="25"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="3"/>
+    </row>
+    <row r="26" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A26" s="10">
+        <v>3</v>
+      </c>
+      <c r="B26" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" s="25"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="3"/>
+    </row>
+    <row r="27" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="10">
+        <v>3</v>
+      </c>
+      <c r="B27" s="74" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" s="25"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="3"/>
+    </row>
+    <row r="28" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="9"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="5"/>
+    </row>
+    <row r="29" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="73" t="s">
+        <v>15</v>
+      </c>
+      <c r="B29" s="73" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" s="70">
+        <f>SUM(F22:F28)</f>
+        <v>0</v>
+      </c>
+      <c r="D29" s="70"/>
+      <c r="E29" s="70"/>
+      <c r="F29" s="71"/>
+      <c r="G29" s="72" t="s">
+        <v>17</v>
+      </c>
+      <c r="H29" s="70">
+        <f>SUM(G22:G28)</f>
+        <v>0</v>
+      </c>
+      <c r="I29" s="71"/>
+    </row>
+    <row r="30" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="B30" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="C30" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="D30" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E30" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="F30" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="G30" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="H30" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I30" s="24" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A31" s="10">
+        <v>4</v>
+      </c>
+      <c r="B31" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="25"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="15"/>
+    </row>
+    <row r="32" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A32" s="10">
+        <v>4</v>
+      </c>
+      <c r="B32" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="25"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="15"/>
+    </row>
+    <row r="33" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A33" s="10">
+        <v>4</v>
+      </c>
+      <c r="B33" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" s="25"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="3"/>
+    </row>
+    <row r="34" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A34" s="10">
+        <v>4</v>
+      </c>
+      <c r="B34" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" s="25"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="3"/>
+    </row>
+    <row r="35" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A35" s="10">
+        <v>4</v>
+      </c>
+      <c r="B35" s="74" t="s">
+        <v>13</v>
+      </c>
+      <c r="C35" s="25"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="3"/>
+    </row>
+    <row r="36" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A36" s="10">
+        <v>4</v>
+      </c>
+      <c r="B36" s="74" t="s">
+        <v>14</v>
+      </c>
+      <c r="C36" s="25"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="3"/>
+    </row>
+    <row r="37" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="9"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="5"/>
+    </row>
+    <row r="38" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="73" t="s">
+        <v>15</v>
+      </c>
+      <c r="B38" s="73" t="s">
+        <v>16</v>
+      </c>
+      <c r="C38" s="70">
+        <f>SUM(F31:F37)</f>
+        <v>0</v>
+      </c>
+      <c r="D38" s="70"/>
+      <c r="E38" s="70"/>
+      <c r="F38" s="71"/>
+      <c r="G38" s="72" t="s">
+        <v>17</v>
+      </c>
+      <c r="H38" s="70">
+        <f>SUM(G31:G37)</f>
+        <v>0</v>
+      </c>
+      <c r="I38" s="71"/>
+    </row>
+    <row r="39" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="B39" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="C39" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="D39" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E39" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="F39" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="G39" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="H39" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I39" s="24" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A40" s="10">
+        <v>5</v>
+      </c>
+      <c r="B40" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" s="25"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="18"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="14"/>
+      <c r="I40" s="15"/>
+    </row>
+    <row r="41" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A41" s="10">
+        <v>5</v>
+      </c>
+      <c r="B41" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C41" s="25"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="14"/>
+      <c r="I41" s="15"/>
+    </row>
+    <row r="42" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A42" s="10">
+        <v>5</v>
+      </c>
+      <c r="B42" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C42" s="25"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="14"/>
+      <c r="I42" s="3"/>
+    </row>
+    <row r="43" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A43" s="10">
+        <v>5</v>
+      </c>
+      <c r="B43" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C43" s="25"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="19"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="14"/>
+      <c r="I43" s="3"/>
+    </row>
+    <row r="44" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A44" s="10">
+        <v>5</v>
+      </c>
+      <c r="B44" s="74" t="s">
+        <v>13</v>
+      </c>
+      <c r="C44" s="25"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="16"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="14"/>
+      <c r="I44" s="3"/>
+    </row>
+    <row r="45" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A45" s="10">
+        <v>5</v>
+      </c>
+      <c r="B45" s="74" t="s">
+        <v>14</v>
+      </c>
+      <c r="C45" s="25"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="16"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="14"/>
+      <c r="I45" s="3"/>
+    </row>
+    <row r="46" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="9"/>
+      <c r="B46" s="12"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="16"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="14"/>
+      <c r="I46" s="5"/>
+    </row>
+    <row r="47" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="73" t="s">
+        <v>15</v>
+      </c>
+      <c r="B47" s="73" t="s">
+        <v>16</v>
+      </c>
+      <c r="C47" s="70">
+        <f>SUM(F40:F46)</f>
+        <v>0</v>
+      </c>
+      <c r="D47" s="70"/>
+      <c r="E47" s="70"/>
+      <c r="F47" s="71"/>
+      <c r="G47" s="72" t="s">
+        <v>17</v>
+      </c>
+      <c r="H47" s="70">
+        <f>SUM(G40:G46)</f>
+        <v>0</v>
+      </c>
+      <c r="I47" s="71"/>
+    </row>
+    <row r="48" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="B48" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="C48" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="D48" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E48" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="F48" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="G48" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="H48" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I48" s="24" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A49" s="10">
+        <v>6</v>
+      </c>
+      <c r="B49" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C49" s="25"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="18"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="6"/>
+      <c r="H49" s="14"/>
+      <c r="I49" s="15"/>
+    </row>
+    <row r="50" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A50" s="10">
+        <v>6</v>
+      </c>
+      <c r="B50" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C50" s="25"/>
+      <c r="D50" s="13"/>
+      <c r="E50" s="19"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="6"/>
+      <c r="H50" s="14"/>
+      <c r="I50" s="15"/>
+    </row>
+    <row r="51" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A51" s="10">
+        <v>6</v>
+      </c>
+      <c r="B51" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C51" s="25"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="17"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="7"/>
+      <c r="H51" s="14"/>
+      <c r="I51" s="3"/>
+    </row>
+    <row r="52" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A52" s="10">
+        <v>6</v>
+      </c>
+      <c r="B52" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C52" s="25"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="19"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="7"/>
+      <c r="H52" s="14"/>
+      <c r="I52" s="3"/>
+    </row>
+    <row r="53" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A53" s="10">
+        <v>6</v>
+      </c>
+      <c r="B53" s="74" t="s">
+        <v>13</v>
+      </c>
+      <c r="C53" s="25"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="16"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="7"/>
+      <c r="H53" s="14"/>
+      <c r="I53" s="3"/>
+    </row>
+    <row r="54" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A54" s="10">
+        <v>6</v>
+      </c>
+      <c r="B54" s="74" t="s">
+        <v>14</v>
+      </c>
+      <c r="C54" s="25"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="16"/>
+      <c r="F54" s="7"/>
+      <c r="G54" s="7"/>
+      <c r="H54" s="14"/>
+      <c r="I54" s="3"/>
+    </row>
+    <row r="55" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="9"/>
+      <c r="B55" s="12"/>
+      <c r="C55" s="9"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="16"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c r="H55" s="14"/>
+      <c r="I55" s="5"/>
+    </row>
+    <row r="56" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="73" t="s">
+        <v>15</v>
+      </c>
+      <c r="B56" s="73" t="s">
+        <v>16</v>
+      </c>
+      <c r="C56" s="70">
+        <f>SUM(F49:F55)</f>
+        <v>0</v>
+      </c>
+      <c r="D56" s="70"/>
+      <c r="E56" s="70"/>
+      <c r="F56" s="71"/>
+      <c r="G56" s="72" t="s">
+        <v>17</v>
+      </c>
+      <c r="H56" s="70">
+        <f>SUM(G49:G55)</f>
+        <v>0</v>
+      </c>
+      <c r="I56" s="71"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="13">
+    <mergeCell ref="C56:F56"/>
+    <mergeCell ref="H56:I56"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="C38:F38"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="C47:F47"/>
+    <mergeCell ref="H47:I47"/>
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="C11:F11"/>
     <mergeCell ref="H11:I11"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="H20:I20"/>
   </mergeCells>
-  <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10 C18" xr:uid="{6E08E741-C8C7-4210-9264-8F4FCE40EB21}">
+  <dataValidations count="6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10 C19 C28 C37 C46 C55" xr:uid="{6E08E741-C8C7-4210-9264-8F4FCE40EB21}">
       <formula1>"Project Management, Requirement, Architecture and Desgin, Implementation, Testing, Training, Meetting Customer, Meetting Mentor"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C9 C12:C17" xr:uid="{FEE62105-1E1C-408F-82C0-11D2CE7772AA}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C9 C13:C18 C22:C27 C31:C36 C40:C45 C49:C54" xr:uid="{FEE62105-1E1C-408F-82C0-11D2CE7772AA}">
       <formula1>"Project Management, Requirement, Architecture and Desgin, Implementation, Testing, Training, Meetting Customer, Meeting Mentor"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:H10 H12:H18" xr:uid="{E64829C6-8241-4F40-B7F6-06026AC59D56}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:H10 H13:H19 H22:H28 H31:H37 H40:H46 H49:H55" xr:uid="{E64829C6-8241-4F40-B7F6-06026AC59D56}">
       <formula1>"Done,Inprogress "</formula1>
     </dataValidation>
-    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3" xr:uid="{33954315-0CBA-47B2-A2B7-73FE39F329C3}">
+    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3 B12" xr:uid="{33954315-0CBA-47B2-A2B7-73FE39F329C3}">
       <formula1>B4</formula1>
       <formula2>B10</formula2>
+    </dataValidation>
+    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B21" xr:uid="{6622A24D-4DEB-4C6F-A379-E82812C473F0}">
+      <formula1>#REF!</formula1>
+      <formula2>B27</formula2>
+    </dataValidation>
+    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B30 B39 B48" xr:uid="{CE3F35D2-C816-4009-8BAB-85DA53F798DE}">
+      <formula1>#REF!</formula1>
+      <formula2>B35</formula2>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Improgress/4. Timelog/PM_TimeLog.xlsx
+++ b/Improgress/4. Timelog/PM_TimeLog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo Legion Y7000\Documents\GitHub\Capstone-Project\Improgress\4. Timelog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60D08440-4418-43FD-9E1E-D1E70164627D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEF31C26-39BC-4194-866B-C41BDF3FBBE0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="112">
   <si>
     <t>Work in period</t>
   </si>
@@ -1028,6 +1030,21 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="20" fontId="3" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1040,28 +1057,13 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="3" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4199,10 +4201,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I56"/>
+  <dimension ref="A1:I65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:I56"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="B67" sqref="B67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4235,17 +4237,17 @@
       <c r="I1" s="22"/>
     </row>
     <row r="2" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="67"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="69"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="74"/>
     </row>
     <row r="3" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="24" t="s">
@@ -4436,27 +4438,27 @@
       <c r="I10" s="5"/>
     </row>
     <row r="11" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="73" t="s">
+      <c r="A11" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="73" t="s">
+      <c r="B11" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="70">
+      <c r="C11" s="69">
         <f>SUM(F4:F10)</f>
         <v>24</v>
       </c>
-      <c r="D11" s="70"/>
-      <c r="E11" s="70"/>
-      <c r="F11" s="71"/>
-      <c r="G11" s="72" t="s">
+      <c r="D11" s="69"/>
+      <c r="E11" s="69"/>
+      <c r="F11" s="70"/>
+      <c r="G11" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="70">
+      <c r="H11" s="69">
         <f>SUM(G4:G10)</f>
         <v>24</v>
       </c>
-      <c r="I11" s="71"/>
+      <c r="I11" s="70"/>
     </row>
     <row r="12" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="24" t="s">
@@ -4653,27 +4655,27 @@
       <c r="I19" s="5"/>
     </row>
     <row r="20" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="73" t="s">
+      <c r="A20" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="73" t="s">
+      <c r="B20" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="70">
+      <c r="C20" s="69">
         <f>SUM(F13:F19)</f>
         <v>22</v>
       </c>
-      <c r="D20" s="70"/>
-      <c r="E20" s="70"/>
-      <c r="F20" s="71"/>
-      <c r="G20" s="72" t="s">
+      <c r="D20" s="69"/>
+      <c r="E20" s="69"/>
+      <c r="F20" s="70"/>
+      <c r="G20" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H20" s="70">
+      <c r="H20" s="69">
         <f>SUM(G13:G19)</f>
         <v>34</v>
       </c>
-      <c r="I20" s="71"/>
+      <c r="I20" s="70"/>
     </row>
     <row r="21" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="24" t="s">
@@ -4783,7 +4785,7 @@
       <c r="A27" s="10">
         <v>3</v>
       </c>
-      <c r="B27" s="74" t="s">
+      <c r="B27" s="68" t="s">
         <v>14</v>
       </c>
       <c r="C27" s="25"/>
@@ -4805,27 +4807,27 @@
       <c r="I28" s="5"/>
     </row>
     <row r="29" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="73" t="s">
+      <c r="A29" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="B29" s="73" t="s">
+      <c r="B29" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="70">
+      <c r="C29" s="69">
         <f>SUM(F22:F28)</f>
         <v>0</v>
       </c>
-      <c r="D29" s="70"/>
-      <c r="E29" s="70"/>
-      <c r="F29" s="71"/>
-      <c r="G29" s="72" t="s">
+      <c r="D29" s="69"/>
+      <c r="E29" s="69"/>
+      <c r="F29" s="70"/>
+      <c r="G29" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H29" s="70">
+      <c r="H29" s="69">
         <f>SUM(G22:G28)</f>
         <v>0</v>
       </c>
-      <c r="I29" s="71"/>
+      <c r="I29" s="70"/>
     </row>
     <row r="30" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="24" t="s">
@@ -4920,7 +4922,7 @@
       <c r="A35" s="10">
         <v>4</v>
       </c>
-      <c r="B35" s="74" t="s">
+      <c r="B35" s="68" t="s">
         <v>13</v>
       </c>
       <c r="C35" s="25"/>
@@ -4935,7 +4937,7 @@
       <c r="A36" s="10">
         <v>4</v>
       </c>
-      <c r="B36" s="74" t="s">
+      <c r="B36" s="68" t="s">
         <v>14</v>
       </c>
       <c r="C36" s="25"/>
@@ -4957,27 +4959,27 @@
       <c r="I37" s="5"/>
     </row>
     <row r="38" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="73" t="s">
+      <c r="A38" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="B38" s="73" t="s">
+      <c r="B38" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C38" s="70">
+      <c r="C38" s="69">
         <f>SUM(F31:F37)</f>
         <v>0</v>
       </c>
-      <c r="D38" s="70"/>
-      <c r="E38" s="70"/>
-      <c r="F38" s="71"/>
-      <c r="G38" s="72" t="s">
+      <c r="D38" s="69"/>
+      <c r="E38" s="69"/>
+      <c r="F38" s="70"/>
+      <c r="G38" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H38" s="70">
+      <c r="H38" s="69">
         <f>SUM(G31:G37)</f>
         <v>0</v>
       </c>
-      <c r="I38" s="71"/>
+      <c r="I38" s="70"/>
     </row>
     <row r="39" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="24" t="s">
@@ -5072,7 +5074,7 @@
       <c r="A44" s="10">
         <v>5</v>
       </c>
-      <c r="B44" s="74" t="s">
+      <c r="B44" s="68" t="s">
         <v>13</v>
       </c>
       <c r="C44" s="25"/>
@@ -5087,7 +5089,7 @@
       <c r="A45" s="10">
         <v>5</v>
       </c>
-      <c r="B45" s="74" t="s">
+      <c r="B45" s="68" t="s">
         <v>14</v>
       </c>
       <c r="C45" s="25"/>
@@ -5109,27 +5111,27 @@
       <c r="I46" s="5"/>
     </row>
     <row r="47" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="73" t="s">
+      <c r="A47" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="B47" s="73" t="s">
+      <c r="B47" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C47" s="70">
+      <c r="C47" s="69">
         <f>SUM(F40:F46)</f>
         <v>0</v>
       </c>
-      <c r="D47" s="70"/>
-      <c r="E47" s="70"/>
-      <c r="F47" s="71"/>
-      <c r="G47" s="72" t="s">
+      <c r="D47" s="69"/>
+      <c r="E47" s="69"/>
+      <c r="F47" s="70"/>
+      <c r="G47" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H47" s="70">
+      <c r="H47" s="69">
         <f>SUM(G40:G46)</f>
         <v>0</v>
       </c>
-      <c r="I47" s="71"/>
+      <c r="I47" s="70"/>
     </row>
     <row r="48" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="24" t="s">
@@ -5224,7 +5226,7 @@
       <c r="A53" s="10">
         <v>6</v>
       </c>
-      <c r="B53" s="74" t="s">
+      <c r="B53" s="68" t="s">
         <v>13</v>
       </c>
       <c r="C53" s="25"/>
@@ -5239,7 +5241,7 @@
       <c r="A54" s="10">
         <v>6</v>
       </c>
-      <c r="B54" s="74" t="s">
+      <c r="B54" s="68" t="s">
         <v>14</v>
       </c>
       <c r="C54" s="25"/>
@@ -5261,30 +5263,189 @@
       <c r="I55" s="5"/>
     </row>
     <row r="56" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="73" t="s">
+      <c r="A56" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="B56" s="73" t="s">
+      <c r="B56" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C56" s="70">
+      <c r="C56" s="69">
         <f>SUM(F49:F55)</f>
         <v>0</v>
       </c>
-      <c r="D56" s="70"/>
-      <c r="E56" s="70"/>
-      <c r="F56" s="71"/>
-      <c r="G56" s="72" t="s">
+      <c r="D56" s="69"/>
+      <c r="E56" s="69"/>
+      <c r="F56" s="70"/>
+      <c r="G56" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H56" s="70">
+      <c r="H56" s="69">
         <f>SUM(G49:G55)</f>
         <v>0</v>
       </c>
-      <c r="I56" s="71"/>
+      <c r="I56" s="70"/>
+    </row>
+    <row r="57" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="B57" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="C57" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="D57" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E57" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="F57" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="G57" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="H57" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I57" s="24" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A58" s="10">
+        <v>7</v>
+      </c>
+      <c r="B58" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C58" s="25"/>
+      <c r="D58" s="13"/>
+      <c r="E58" s="18"/>
+      <c r="F58" s="6"/>
+      <c r="G58" s="6"/>
+      <c r="H58" s="14"/>
+      <c r="I58" s="15"/>
+    </row>
+    <row r="59" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A59" s="10">
+        <v>7</v>
+      </c>
+      <c r="B59" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C59" s="25"/>
+      <c r="D59" s="13"/>
+      <c r="E59" s="19"/>
+      <c r="F59" s="6"/>
+      <c r="G59" s="6"/>
+      <c r="H59" s="14"/>
+      <c r="I59" s="15"/>
+    </row>
+    <row r="60" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A60" s="10">
+        <v>7</v>
+      </c>
+      <c r="B60" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C60" s="25"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="17"/>
+      <c r="F60" s="7"/>
+      <c r="G60" s="7"/>
+      <c r="H60" s="14"/>
+      <c r="I60" s="3"/>
+    </row>
+    <row r="61" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A61" s="10">
+        <v>7</v>
+      </c>
+      <c r="B61" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C61" s="25"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="19"/>
+      <c r="F61" s="7"/>
+      <c r="G61" s="7"/>
+      <c r="H61" s="14"/>
+      <c r="I61" s="3"/>
+    </row>
+    <row r="62" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A62" s="10">
+        <v>7</v>
+      </c>
+      <c r="B62" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C62" s="25"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="16"/>
+      <c r="F62" s="7"/>
+      <c r="G62" s="7"/>
+      <c r="H62" s="14"/>
+      <c r="I62" s="3"/>
+    </row>
+    <row r="63" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A63" s="10">
+        <v>7</v>
+      </c>
+      <c r="B63" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="C63" s="25"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="16"/>
+      <c r="F63" s="7"/>
+      <c r="G63" s="7"/>
+      <c r="H63" s="14"/>
+      <c r="I63" s="3"/>
+    </row>
+    <row r="64" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="9"/>
+      <c r="C64" s="9"/>
+      <c r="D64" s="4"/>
+      <c r="E64" s="16"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c r="H64" s="14"/>
+      <c r="I64" s="5"/>
+    </row>
+    <row r="65" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="67" t="s">
+        <v>15</v>
+      </c>
+      <c r="B65" s="67" t="s">
+        <v>16</v>
+      </c>
+      <c r="C65" s="69">
+        <f>SUM(F58:F64)</f>
+        <v>0</v>
+      </c>
+      <c r="D65" s="69"/>
+      <c r="E65" s="69"/>
+      <c r="F65" s="70"/>
+      <c r="G65" s="66" t="s">
+        <v>17</v>
+      </c>
+      <c r="H65" s="69">
+        <f>SUM(G58:G64)</f>
+        <v>0</v>
+      </c>
+      <c r="I65" s="70"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="15">
+    <mergeCell ref="C65:F65"/>
+    <mergeCell ref="H65:I65"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="A2:I2"/>
     <mergeCell ref="C47:F47"/>
     <mergeCell ref="H47:I47"/>
     <mergeCell ref="C56:F56"/>
@@ -5293,21 +5454,16 @@
     <mergeCell ref="H29:I29"/>
     <mergeCell ref="C38:F38"/>
     <mergeCell ref="H38:I38"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="A2:I2"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10 C19 C28 C37 C46 C55" xr:uid="{0BB0E9EB-C012-4B84-ADE0-06241CD0A572}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10 C19 C28 C37 C46 C55 C64" xr:uid="{0BB0E9EB-C012-4B84-ADE0-06241CD0A572}">
       <formula1>"Project Management, Requirement, Architecture and Desgin, Implementation, Testing, Training, Meetting Customer, Meetting Mentor"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C9 C13:C18 C22:C27 C31:C36 C40:C45 C49:C54" xr:uid="{A5E9BD59-08EB-4C74-8AD5-B28C042D8541}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C9 C13:C18 C22:C27 C31:C36 C40:C45 C49:C54 C58:C63" xr:uid="{A5E9BD59-08EB-4C74-8AD5-B28C042D8541}">
       <formula1>"Project Management, Requirement, Architecture and Desgin, Implementation, Testing, Training, Meetting Customer, Meeting Mentor"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:H10 H13:H19 H22:H28 H31:H37 H40:H46 H49:H55" xr:uid="{5ADEB9A5-7B77-4996-B65F-DB32EFA25F03}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:H10 H13:H19 H22:H28 H31:H37 H40:H46 H49:H55 H58:H64" xr:uid="{5ADEB9A5-7B77-4996-B65F-DB32EFA25F03}">
       <formula1>"Done,Inprogress "</formula1>
     </dataValidation>
     <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3 B12" xr:uid="{ED6FDAE4-9006-4B02-81E9-E85FDE801F79}">
@@ -5318,7 +5474,7 @@
       <formula1>#REF!</formula1>
       <formula2>B27</formula2>
     </dataValidation>
-    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B30 B39 B48" xr:uid="{28C7F73E-D079-4F9E-AC12-39AC8A9947E5}">
+    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B30 B39 B48 B57" xr:uid="{28C7F73E-D079-4F9E-AC12-39AC8A9947E5}">
       <formula1>#REF!</formula1>
       <formula2>B35</formula2>
     </dataValidation>
@@ -5363,17 +5519,17 @@
       <c r="I1" s="22"/>
     </row>
     <row r="2" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="67"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="69"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="74"/>
     </row>
     <row r="3" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="24" t="s">
@@ -5574,27 +5730,27 @@
       <c r="I10" s="5"/>
     </row>
     <row r="11" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="73" t="s">
+      <c r="A11" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="73" t="s">
+      <c r="B11" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="77">
+      <c r="C11" s="75">
         <f>SUM(F4:F10)</f>
         <v>26</v>
       </c>
-      <c r="D11" s="70"/>
-      <c r="E11" s="70"/>
-      <c r="F11" s="71"/>
-      <c r="G11" s="72" t="s">
+      <c r="D11" s="69"/>
+      <c r="E11" s="69"/>
+      <c r="F11" s="70"/>
+      <c r="G11" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="70">
+      <c r="H11" s="69">
         <f>SUM(G4:G10)</f>
         <v>26</v>
       </c>
-      <c r="I11" s="71"/>
+      <c r="I11" s="70"/>
     </row>
     <row r="12" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="24" t="s">
@@ -5801,27 +5957,27 @@
       <c r="I19" s="5"/>
     </row>
     <row r="20" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="73" t="s">
+      <c r="A20" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="73" t="s">
+      <c r="B20" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="70">
+      <c r="C20" s="69">
         <f>SUM(F13:F19)</f>
         <v>30</v>
       </c>
-      <c r="D20" s="70"/>
-      <c r="E20" s="70"/>
-      <c r="F20" s="71"/>
-      <c r="G20" s="72" t="s">
+      <c r="D20" s="69"/>
+      <c r="E20" s="69"/>
+      <c r="F20" s="70"/>
+      <c r="G20" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H20" s="70">
+      <c r="H20" s="69">
         <f>SUM(G13:G19)</f>
         <v>30</v>
       </c>
-      <c r="I20" s="71"/>
+      <c r="I20" s="70"/>
     </row>
     <row r="21" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="24" t="s">
@@ -5931,7 +6087,7 @@
       <c r="A27" s="10">
         <v>3</v>
       </c>
-      <c r="B27" s="74" t="s">
+      <c r="B27" s="68" t="s">
         <v>14</v>
       </c>
       <c r="C27" s="25"/>
@@ -5954,27 +6110,27 @@
       <c r="I28" s="5"/>
     </row>
     <row r="29" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="73" t="s">
+      <c r="A29" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="B29" s="73" t="s">
+      <c r="B29" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="70">
+      <c r="C29" s="69">
         <f>SUM(F22:F28)</f>
         <v>0</v>
       </c>
-      <c r="D29" s="70"/>
-      <c r="E29" s="70"/>
-      <c r="F29" s="71"/>
-      <c r="G29" s="72" t="s">
+      <c r="D29" s="69"/>
+      <c r="E29" s="69"/>
+      <c r="F29" s="70"/>
+      <c r="G29" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H29" s="70">
+      <c r="H29" s="69">
         <f>SUM(G22:G28)</f>
         <v>0</v>
       </c>
-      <c r="I29" s="71"/>
+      <c r="I29" s="70"/>
     </row>
     <row r="30" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="24" t="s">
@@ -6069,7 +6225,7 @@
       <c r="A35" s="10">
         <v>4</v>
       </c>
-      <c r="B35" s="74" t="s">
+      <c r="B35" s="68" t="s">
         <v>13</v>
       </c>
       <c r="C35" s="25"/>
@@ -6084,7 +6240,7 @@
       <c r="A36" s="10">
         <v>4</v>
       </c>
-      <c r="B36" s="74" t="s">
+      <c r="B36" s="68" t="s">
         <v>14</v>
       </c>
       <c r="C36" s="25"/>
@@ -6107,27 +6263,27 @@
       <c r="I37" s="5"/>
     </row>
     <row r="38" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="73" t="s">
+      <c r="A38" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="B38" s="73" t="s">
+      <c r="B38" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C38" s="70">
+      <c r="C38" s="69">
         <f>SUM(F31:F37)</f>
         <v>0</v>
       </c>
-      <c r="D38" s="70"/>
-      <c r="E38" s="70"/>
-      <c r="F38" s="71"/>
-      <c r="G38" s="72" t="s">
+      <c r="D38" s="69"/>
+      <c r="E38" s="69"/>
+      <c r="F38" s="70"/>
+      <c r="G38" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H38" s="70">
+      <c r="H38" s="69">
         <f>SUM(G31:G37)</f>
         <v>0</v>
       </c>
-      <c r="I38" s="71"/>
+      <c r="I38" s="70"/>
     </row>
     <row r="39" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="24" t="s">
@@ -6222,7 +6378,7 @@
       <c r="A44" s="10">
         <v>5</v>
       </c>
-      <c r="B44" s="74" t="s">
+      <c r="B44" s="68" t="s">
         <v>13</v>
       </c>
       <c r="C44" s="25"/>
@@ -6237,7 +6393,7 @@
       <c r="A45" s="10">
         <v>5</v>
       </c>
-      <c r="B45" s="74" t="s">
+      <c r="B45" s="68" t="s">
         <v>14</v>
       </c>
       <c r="C45" s="25"/>
@@ -6260,27 +6416,27 @@
       <c r="I46" s="5"/>
     </row>
     <row r="47" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="73" t="s">
+      <c r="A47" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="B47" s="73" t="s">
+      <c r="B47" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C47" s="70">
+      <c r="C47" s="69">
         <f>SUM(F40:F46)</f>
         <v>0</v>
       </c>
-      <c r="D47" s="70"/>
-      <c r="E47" s="70"/>
-      <c r="F47" s="71"/>
-      <c r="G47" s="72" t="s">
+      <c r="D47" s="69"/>
+      <c r="E47" s="69"/>
+      <c r="F47" s="70"/>
+      <c r="G47" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H47" s="70">
+      <c r="H47" s="69">
         <f>SUM(G40:G46)</f>
         <v>0</v>
       </c>
-      <c r="I47" s="71"/>
+      <c r="I47" s="70"/>
     </row>
     <row r="48" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="24" t="s">
@@ -6375,7 +6531,7 @@
       <c r="A53" s="10">
         <v>6</v>
       </c>
-      <c r="B53" s="74" t="s">
+      <c r="B53" s="68" t="s">
         <v>13</v>
       </c>
       <c r="C53" s="25"/>
@@ -6390,7 +6546,7 @@
       <c r="A54" s="10">
         <v>6</v>
       </c>
-      <c r="B54" s="74" t="s">
+      <c r="B54" s="68" t="s">
         <v>14</v>
       </c>
       <c r="C54" s="25"/>
@@ -6413,36 +6569,30 @@
       <c r="I55" s="5"/>
     </row>
     <row r="56" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="73" t="s">
+      <c r="A56" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="B56" s="73" t="s">
+      <c r="B56" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C56" s="70">
+      <c r="C56" s="69">
         <f>SUM(F49:F55)</f>
         <v>0</v>
       </c>
-      <c r="D56" s="70"/>
-      <c r="E56" s="70"/>
-      <c r="F56" s="71"/>
-      <c r="G56" s="72" t="s">
+      <c r="D56" s="69"/>
+      <c r="E56" s="69"/>
+      <c r="F56" s="70"/>
+      <c r="G56" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H56" s="70">
+      <c r="H56" s="69">
         <f>SUM(G49:G55)</f>
         <v>0</v>
       </c>
-      <c r="I56" s="71"/>
+      <c r="I56" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="C38:F38"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="C47:F47"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="C56:F56"/>
-    <mergeCell ref="H56:I56"/>
     <mergeCell ref="C29:F29"/>
     <mergeCell ref="H29:I29"/>
     <mergeCell ref="A2:I2"/>
@@ -6450,6 +6600,12 @@
     <mergeCell ref="H11:I11"/>
     <mergeCell ref="C20:F20"/>
     <mergeCell ref="H20:I20"/>
+    <mergeCell ref="C38:F38"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="C47:F47"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="C56:F56"/>
+    <mergeCell ref="H56:I56"/>
   </mergeCells>
   <dataValidations count="6">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10 C19 C28 C37 C46 C55" xr:uid="{00000000-0002-0000-0300-000000000000}">
@@ -6511,17 +6667,17 @@
       <c r="I1" s="22"/>
     </row>
     <row r="2" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="67"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="69"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="74"/>
     </row>
     <row r="3" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="24" t="s">
@@ -6720,27 +6876,27 @@
       <c r="I10" s="5"/>
     </row>
     <row r="11" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="73" t="s">
+      <c r="A11" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="73" t="s">
+      <c r="B11" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="75">
+      <c r="C11" s="76">
         <f>SUM(F4:F10)</f>
         <v>26.5</v>
       </c>
-      <c r="D11" s="75"/>
-      <c r="E11" s="75"/>
-      <c r="F11" s="76"/>
-      <c r="G11" s="72" t="s">
+      <c r="D11" s="76"/>
+      <c r="E11" s="76"/>
+      <c r="F11" s="77"/>
+      <c r="G11" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="75">
+      <c r="H11" s="76">
         <f>SUM(G4:G10)</f>
         <v>27.5</v>
       </c>
-      <c r="I11" s="76"/>
+      <c r="I11" s="77"/>
     </row>
     <row r="12" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="24" t="s">
@@ -6935,27 +7091,27 @@
       <c r="I19" s="5"/>
     </row>
     <row r="20" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="73" t="s">
+      <c r="A20" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="73" t="s">
+      <c r="B20" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="75">
+      <c r="C20" s="76">
         <f>SUM(F13:F19)</f>
         <v>18.5</v>
       </c>
-      <c r="D20" s="75"/>
-      <c r="E20" s="75"/>
-      <c r="F20" s="76"/>
-      <c r="G20" s="72" t="s">
+      <c r="D20" s="76"/>
+      <c r="E20" s="76"/>
+      <c r="F20" s="77"/>
+      <c r="G20" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H20" s="75">
+      <c r="H20" s="76">
         <f>SUM(G13:G19)</f>
         <v>22</v>
       </c>
-      <c r="I20" s="76"/>
+      <c r="I20" s="77"/>
     </row>
     <row r="21" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="24" t="s">
@@ -7065,7 +7221,7 @@
       <c r="A27" s="10">
         <v>3</v>
       </c>
-      <c r="B27" s="74" t="s">
+      <c r="B27" s="68" t="s">
         <v>14</v>
       </c>
       <c r="C27" s="25"/>
@@ -7088,27 +7244,27 @@
       <c r="I28" s="5"/>
     </row>
     <row r="29" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="73" t="s">
+      <c r="A29" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="B29" s="73" t="s">
+      <c r="B29" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="70">
+      <c r="C29" s="69">
         <f>SUM(F22:F28)</f>
         <v>0</v>
       </c>
-      <c r="D29" s="70"/>
-      <c r="E29" s="70"/>
-      <c r="F29" s="71"/>
-      <c r="G29" s="72" t="s">
+      <c r="D29" s="69"/>
+      <c r="E29" s="69"/>
+      <c r="F29" s="70"/>
+      <c r="G29" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H29" s="70">
+      <c r="H29" s="69">
         <f>SUM(G22:G28)</f>
         <v>0</v>
       </c>
-      <c r="I29" s="71"/>
+      <c r="I29" s="70"/>
     </row>
     <row r="30" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="24" t="s">
@@ -7203,7 +7359,7 @@
       <c r="A35" s="10">
         <v>4</v>
       </c>
-      <c r="B35" s="74" t="s">
+      <c r="B35" s="68" t="s">
         <v>13</v>
       </c>
       <c r="C35" s="25"/>
@@ -7218,7 +7374,7 @@
       <c r="A36" s="10">
         <v>4</v>
       </c>
-      <c r="B36" s="74" t="s">
+      <c r="B36" s="68" t="s">
         <v>14</v>
       </c>
       <c r="C36" s="25"/>
@@ -7241,27 +7397,27 @@
       <c r="I37" s="5"/>
     </row>
     <row r="38" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="73" t="s">
+      <c r="A38" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="B38" s="73" t="s">
+      <c r="B38" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C38" s="70">
+      <c r="C38" s="69">
         <f>SUM(F31:F37)</f>
         <v>0</v>
       </c>
-      <c r="D38" s="70"/>
-      <c r="E38" s="70"/>
-      <c r="F38" s="71"/>
-      <c r="G38" s="72" t="s">
+      <c r="D38" s="69"/>
+      <c r="E38" s="69"/>
+      <c r="F38" s="70"/>
+      <c r="G38" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H38" s="70">
+      <c r="H38" s="69">
         <f>SUM(G31:G37)</f>
         <v>0</v>
       </c>
-      <c r="I38" s="71"/>
+      <c r="I38" s="70"/>
     </row>
     <row r="39" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="24" t="s">
@@ -7356,7 +7512,7 @@
       <c r="A44" s="10">
         <v>5</v>
       </c>
-      <c r="B44" s="74" t="s">
+      <c r="B44" s="68" t="s">
         <v>13</v>
       </c>
       <c r="C44" s="25"/>
@@ -7371,7 +7527,7 @@
       <c r="A45" s="10">
         <v>5</v>
       </c>
-      <c r="B45" s="74" t="s">
+      <c r="B45" s="68" t="s">
         <v>14</v>
       </c>
       <c r="C45" s="25"/>
@@ -7394,27 +7550,27 @@
       <c r="I46" s="5"/>
     </row>
     <row r="47" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="73" t="s">
+      <c r="A47" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="B47" s="73" t="s">
+      <c r="B47" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C47" s="70">
+      <c r="C47" s="69">
         <f>SUM(F40:F46)</f>
         <v>0</v>
       </c>
-      <c r="D47" s="70"/>
-      <c r="E47" s="70"/>
-      <c r="F47" s="71"/>
-      <c r="G47" s="72" t="s">
+      <c r="D47" s="69"/>
+      <c r="E47" s="69"/>
+      <c r="F47" s="70"/>
+      <c r="G47" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H47" s="70">
+      <c r="H47" s="69">
         <f>SUM(G40:G46)</f>
         <v>0</v>
       </c>
-      <c r="I47" s="71"/>
+      <c r="I47" s="70"/>
     </row>
     <row r="48" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="24" t="s">
@@ -7509,7 +7665,7 @@
       <c r="A53" s="10">
         <v>6</v>
       </c>
-      <c r="B53" s="74" t="s">
+      <c r="B53" s="68" t="s">
         <v>13</v>
       </c>
       <c r="C53" s="25"/>
@@ -7524,7 +7680,7 @@
       <c r="A54" s="10">
         <v>6</v>
       </c>
-      <c r="B54" s="74" t="s">
+      <c r="B54" s="68" t="s">
         <v>14</v>
       </c>
       <c r="C54" s="25"/>
@@ -7547,30 +7703,35 @@
       <c r="I55" s="5"/>
     </row>
     <row r="56" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="73" t="s">
+      <c r="A56" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="B56" s="73" t="s">
+      <c r="B56" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C56" s="70">
+      <c r="C56" s="69">
         <f>SUM(F49:F55)</f>
         <v>0</v>
       </c>
-      <c r="D56" s="70"/>
-      <c r="E56" s="70"/>
-      <c r="F56" s="71"/>
-      <c r="G56" s="72" t="s">
+      <c r="D56" s="69"/>
+      <c r="E56" s="69"/>
+      <c r="F56" s="70"/>
+      <c r="G56" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H56" s="70">
+      <c r="H56" s="69">
         <f>SUM(G49:G55)</f>
         <v>0</v>
       </c>
-      <c r="I56" s="71"/>
+      <c r="I56" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="H20:I20"/>
     <mergeCell ref="C56:F56"/>
     <mergeCell ref="H56:I56"/>
     <mergeCell ref="C29:F29"/>
@@ -7579,11 +7740,6 @@
     <mergeCell ref="H38:I38"/>
     <mergeCell ref="C47:F47"/>
     <mergeCell ref="H47:I47"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="H20:I20"/>
   </mergeCells>
   <dataValidations count="6">
     <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3 B12" xr:uid="{6FFE7BB2-A561-485E-81E9-2571AC8DE5CA}">
@@ -7645,17 +7801,17 @@
       <c r="I1" s="22"/>
     </row>
     <row r="2" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="67"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="69"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="74"/>
     </row>
     <row r="3" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="24" t="s">
@@ -7854,27 +8010,27 @@
       <c r="I10" s="5"/>
     </row>
     <row r="11" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="73" t="s">
+      <c r="A11" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="73" t="s">
+      <c r="B11" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="75">
+      <c r="C11" s="76">
         <f>SUM(F4:F10)</f>
         <v>24</v>
       </c>
-      <c r="D11" s="75"/>
-      <c r="E11" s="75"/>
-      <c r="F11" s="76"/>
-      <c r="G11" s="72" t="s">
+      <c r="D11" s="76"/>
+      <c r="E11" s="76"/>
+      <c r="F11" s="77"/>
+      <c r="G11" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="75">
+      <c r="H11" s="76">
         <f>SUM(G4:G10)</f>
         <v>28</v>
       </c>
-      <c r="I11" s="76"/>
+      <c r="I11" s="77"/>
     </row>
     <row r="12" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="24" t="s">
@@ -8077,27 +8233,27 @@
       <c r="I19" s="5"/>
     </row>
     <row r="20" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="73" t="s">
+      <c r="A20" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="73" t="s">
+      <c r="B20" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="75">
+      <c r="C20" s="76">
         <f>SUM(F13:F19)</f>
         <v>27</v>
       </c>
-      <c r="D20" s="75"/>
-      <c r="E20" s="75"/>
-      <c r="F20" s="76"/>
-      <c r="G20" s="72" t="s">
+      <c r="D20" s="76"/>
+      <c r="E20" s="76"/>
+      <c r="F20" s="77"/>
+      <c r="G20" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H20" s="75">
+      <c r="H20" s="76">
         <f>SUM(G13:G19)</f>
         <v>30</v>
       </c>
-      <c r="I20" s="76"/>
+      <c r="I20" s="77"/>
     </row>
     <row r="21" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="24" t="s">
@@ -8207,7 +8363,7 @@
       <c r="A27" s="10">
         <v>3</v>
       </c>
-      <c r="B27" s="74" t="s">
+      <c r="B27" s="68" t="s">
         <v>14</v>
       </c>
       <c r="C27" s="25"/>
@@ -8230,27 +8386,27 @@
       <c r="I28" s="5"/>
     </row>
     <row r="29" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="73" t="s">
+      <c r="A29" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="B29" s="73" t="s">
+      <c r="B29" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="70">
+      <c r="C29" s="69">
         <f>SUM(F22:F28)</f>
         <v>0</v>
       </c>
-      <c r="D29" s="70"/>
-      <c r="E29" s="70"/>
-      <c r="F29" s="71"/>
-      <c r="G29" s="72" t="s">
+      <c r="D29" s="69"/>
+      <c r="E29" s="69"/>
+      <c r="F29" s="70"/>
+      <c r="G29" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H29" s="70">
+      <c r="H29" s="69">
         <f>SUM(G22:G28)</f>
         <v>0</v>
       </c>
-      <c r="I29" s="71"/>
+      <c r="I29" s="70"/>
     </row>
     <row r="30" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="24" t="s">
@@ -8345,7 +8501,7 @@
       <c r="A35" s="10">
         <v>4</v>
       </c>
-      <c r="B35" s="74" t="s">
+      <c r="B35" s="68" t="s">
         <v>13</v>
       </c>
       <c r="C35" s="25"/>
@@ -8360,7 +8516,7 @@
       <c r="A36" s="10">
         <v>4</v>
       </c>
-      <c r="B36" s="74" t="s">
+      <c r="B36" s="68" t="s">
         <v>14</v>
       </c>
       <c r="C36" s="25"/>
@@ -8383,27 +8539,27 @@
       <c r="I37" s="5"/>
     </row>
     <row r="38" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="73" t="s">
+      <c r="A38" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="B38" s="73" t="s">
+      <c r="B38" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C38" s="70">
+      <c r="C38" s="69">
         <f>SUM(F31:F37)</f>
         <v>0</v>
       </c>
-      <c r="D38" s="70"/>
-      <c r="E38" s="70"/>
-      <c r="F38" s="71"/>
-      <c r="G38" s="72" t="s">
+      <c r="D38" s="69"/>
+      <c r="E38" s="69"/>
+      <c r="F38" s="70"/>
+      <c r="G38" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H38" s="70">
+      <c r="H38" s="69">
         <f>SUM(G31:G37)</f>
         <v>0</v>
       </c>
-      <c r="I38" s="71"/>
+      <c r="I38" s="70"/>
     </row>
     <row r="39" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="24" t="s">
@@ -8498,7 +8654,7 @@
       <c r="A44" s="10">
         <v>5</v>
       </c>
-      <c r="B44" s="74" t="s">
+      <c r="B44" s="68" t="s">
         <v>13</v>
       </c>
       <c r="C44" s="25"/>
@@ -8513,7 +8669,7 @@
       <c r="A45" s="10">
         <v>5</v>
       </c>
-      <c r="B45" s="74" t="s">
+      <c r="B45" s="68" t="s">
         <v>14</v>
       </c>
       <c r="C45" s="25"/>
@@ -8536,27 +8692,27 @@
       <c r="I46" s="5"/>
     </row>
     <row r="47" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="73" t="s">
+      <c r="A47" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="B47" s="73" t="s">
+      <c r="B47" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C47" s="70">
+      <c r="C47" s="69">
         <f>SUM(F40:F46)</f>
         <v>0</v>
       </c>
-      <c r="D47" s="70"/>
-      <c r="E47" s="70"/>
-      <c r="F47" s="71"/>
-      <c r="G47" s="72" t="s">
+      <c r="D47" s="69"/>
+      <c r="E47" s="69"/>
+      <c r="F47" s="70"/>
+      <c r="G47" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H47" s="70">
+      <c r="H47" s="69">
         <f>SUM(G40:G46)</f>
         <v>0</v>
       </c>
-      <c r="I47" s="71"/>
+      <c r="I47" s="70"/>
     </row>
     <row r="48" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="24" t="s">
@@ -8651,7 +8807,7 @@
       <c r="A53" s="10">
         <v>6</v>
       </c>
-      <c r="B53" s="74" t="s">
+      <c r="B53" s="68" t="s">
         <v>13</v>
       </c>
       <c r="C53" s="25"/>
@@ -8666,7 +8822,7 @@
       <c r="A54" s="10">
         <v>6</v>
       </c>
-      <c r="B54" s="74" t="s">
+      <c r="B54" s="68" t="s">
         <v>14</v>
       </c>
       <c r="C54" s="25"/>
@@ -8689,30 +8845,35 @@
       <c r="I55" s="5"/>
     </row>
     <row r="56" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="73" t="s">
+      <c r="A56" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="B56" s="73" t="s">
+      <c r="B56" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C56" s="70">
+      <c r="C56" s="69">
         <f>SUM(F49:F55)</f>
         <v>0</v>
       </c>
-      <c r="D56" s="70"/>
-      <c r="E56" s="70"/>
-      <c r="F56" s="71"/>
-      <c r="G56" s="72" t="s">
+      <c r="D56" s="69"/>
+      <c r="E56" s="69"/>
+      <c r="F56" s="70"/>
+      <c r="G56" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H56" s="70">
+      <c r="H56" s="69">
         <f>SUM(G49:G55)</f>
         <v>0</v>
       </c>
-      <c r="I56" s="71"/>
+      <c r="I56" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="H20:I20"/>
     <mergeCell ref="C56:F56"/>
     <mergeCell ref="H56:I56"/>
     <mergeCell ref="C29:F29"/>
@@ -8721,11 +8882,6 @@
     <mergeCell ref="H38:I38"/>
     <mergeCell ref="C47:F47"/>
     <mergeCell ref="H47:I47"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="H20:I20"/>
   </mergeCells>
   <dataValidations count="6">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10 C19 C28 C37 C46 C55" xr:uid="{49E4ABBA-BF99-4A08-9146-05B03FF61551}">
@@ -8787,17 +8943,17 @@
       <c r="I1" s="22"/>
     </row>
     <row r="2" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="67"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="69"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="74"/>
     </row>
     <row r="3" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="24" t="s">
@@ -8998,27 +9154,27 @@
       <c r="I10" s="5"/>
     </row>
     <row r="11" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="73" t="s">
+      <c r="A11" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="73" t="s">
+      <c r="B11" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="75">
+      <c r="C11" s="76">
         <f>SUM(F4:F10)</f>
         <v>27</v>
       </c>
-      <c r="D11" s="75"/>
-      <c r="E11" s="75"/>
-      <c r="F11" s="76"/>
-      <c r="G11" s="72" t="s">
+      <c r="D11" s="76"/>
+      <c r="E11" s="76"/>
+      <c r="F11" s="77"/>
+      <c r="G11" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="75">
+      <c r="H11" s="76">
         <f>SUM(G4:G10)</f>
         <v>28</v>
       </c>
-      <c r="I11" s="76"/>
+      <c r="I11" s="77"/>
     </row>
     <row r="12" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="24" t="s">
@@ -9221,27 +9377,27 @@
       <c r="I19" s="5"/>
     </row>
     <row r="20" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="73" t="s">
+      <c r="A20" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="73" t="s">
+      <c r="B20" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="75">
+      <c r="C20" s="76">
         <f>SUM(F13:F19)</f>
         <v>29</v>
       </c>
-      <c r="D20" s="75"/>
-      <c r="E20" s="75"/>
-      <c r="F20" s="76"/>
-      <c r="G20" s="72" t="s">
+      <c r="D20" s="76"/>
+      <c r="E20" s="76"/>
+      <c r="F20" s="77"/>
+      <c r="G20" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H20" s="75">
+      <c r="H20" s="76">
         <f>SUM(G13:G19)</f>
         <v>29</v>
       </c>
-      <c r="I20" s="76"/>
+      <c r="I20" s="77"/>
     </row>
     <row r="21" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="24" t="s">
@@ -9351,7 +9507,7 @@
       <c r="A27" s="10">
         <v>3</v>
       </c>
-      <c r="B27" s="74" t="s">
+      <c r="B27" s="68" t="s">
         <v>14</v>
       </c>
       <c r="C27" s="25"/>
@@ -9374,27 +9530,27 @@
       <c r="I28" s="5"/>
     </row>
     <row r="29" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="73" t="s">
+      <c r="A29" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="B29" s="73" t="s">
+      <c r="B29" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="70">
+      <c r="C29" s="69">
         <f>SUM(F22:F28)</f>
         <v>0</v>
       </c>
-      <c r="D29" s="70"/>
-      <c r="E29" s="70"/>
-      <c r="F29" s="71"/>
-      <c r="G29" s="72" t="s">
+      <c r="D29" s="69"/>
+      <c r="E29" s="69"/>
+      <c r="F29" s="70"/>
+      <c r="G29" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H29" s="70">
+      <c r="H29" s="69">
         <f>SUM(G22:G28)</f>
         <v>0</v>
       </c>
-      <c r="I29" s="71"/>
+      <c r="I29" s="70"/>
     </row>
     <row r="30" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="24" t="s">
@@ -9489,7 +9645,7 @@
       <c r="A35" s="10">
         <v>4</v>
       </c>
-      <c r="B35" s="74" t="s">
+      <c r="B35" s="68" t="s">
         <v>13</v>
       </c>
       <c r="C35" s="25"/>
@@ -9504,7 +9660,7 @@
       <c r="A36" s="10">
         <v>4</v>
       </c>
-      <c r="B36" s="74" t="s">
+      <c r="B36" s="68" t="s">
         <v>14</v>
       </c>
       <c r="C36" s="25"/>
@@ -9527,27 +9683,27 @@
       <c r="I37" s="5"/>
     </row>
     <row r="38" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="73" t="s">
+      <c r="A38" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="B38" s="73" t="s">
+      <c r="B38" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C38" s="70">
+      <c r="C38" s="69">
         <f>SUM(F31:F37)</f>
         <v>0</v>
       </c>
-      <c r="D38" s="70"/>
-      <c r="E38" s="70"/>
-      <c r="F38" s="71"/>
-      <c r="G38" s="72" t="s">
+      <c r="D38" s="69"/>
+      <c r="E38" s="69"/>
+      <c r="F38" s="70"/>
+      <c r="G38" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H38" s="70">
+      <c r="H38" s="69">
         <f>SUM(G31:G37)</f>
         <v>0</v>
       </c>
-      <c r="I38" s="71"/>
+      <c r="I38" s="70"/>
     </row>
     <row r="39" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="24" t="s">
@@ -9642,7 +9798,7 @@
       <c r="A44" s="10">
         <v>5</v>
       </c>
-      <c r="B44" s="74" t="s">
+      <c r="B44" s="68" t="s">
         <v>13</v>
       </c>
       <c r="C44" s="25"/>
@@ -9657,7 +9813,7 @@
       <c r="A45" s="10">
         <v>5</v>
       </c>
-      <c r="B45" s="74" t="s">
+      <c r="B45" s="68" t="s">
         <v>14</v>
       </c>
       <c r="C45" s="25"/>
@@ -9680,27 +9836,27 @@
       <c r="I46" s="5"/>
     </row>
     <row r="47" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="73" t="s">
+      <c r="A47" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="B47" s="73" t="s">
+      <c r="B47" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C47" s="70">
+      <c r="C47" s="69">
         <f>SUM(F40:F46)</f>
         <v>0</v>
       </c>
-      <c r="D47" s="70"/>
-      <c r="E47" s="70"/>
-      <c r="F47" s="71"/>
-      <c r="G47" s="72" t="s">
+      <c r="D47" s="69"/>
+      <c r="E47" s="69"/>
+      <c r="F47" s="70"/>
+      <c r="G47" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H47" s="70">
+      <c r="H47" s="69">
         <f>SUM(G40:G46)</f>
         <v>0</v>
       </c>
-      <c r="I47" s="71"/>
+      <c r="I47" s="70"/>
     </row>
     <row r="48" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="24" t="s">
@@ -9795,7 +9951,7 @@
       <c r="A53" s="10">
         <v>6</v>
       </c>
-      <c r="B53" s="74" t="s">
+      <c r="B53" s="68" t="s">
         <v>13</v>
       </c>
       <c r="C53" s="25"/>
@@ -9810,7 +9966,7 @@
       <c r="A54" s="10">
         <v>6</v>
       </c>
-      <c r="B54" s="74" t="s">
+      <c r="B54" s="68" t="s">
         <v>14</v>
       </c>
       <c r="C54" s="25"/>
@@ -9833,30 +9989,35 @@
       <c r="I55" s="5"/>
     </row>
     <row r="56" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="73" t="s">
+      <c r="A56" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="B56" s="73" t="s">
+      <c r="B56" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C56" s="70">
+      <c r="C56" s="69">
         <f>SUM(F49:F55)</f>
         <v>0</v>
       </c>
-      <c r="D56" s="70"/>
-      <c r="E56" s="70"/>
-      <c r="F56" s="71"/>
-      <c r="G56" s="72" t="s">
+      <c r="D56" s="69"/>
+      <c r="E56" s="69"/>
+      <c r="F56" s="70"/>
+      <c r="G56" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H56" s="70">
+      <c r="H56" s="69">
         <f>SUM(G49:G55)</f>
         <v>0</v>
       </c>
-      <c r="I56" s="71"/>
+      <c r="I56" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="H20:I20"/>
     <mergeCell ref="C56:F56"/>
     <mergeCell ref="H56:I56"/>
     <mergeCell ref="C29:F29"/>
@@ -9865,11 +10026,6 @@
     <mergeCell ref="H38:I38"/>
     <mergeCell ref="C47:F47"/>
     <mergeCell ref="H47:I47"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="H20:I20"/>
   </mergeCells>
   <dataValidations count="6">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10 C19 C28 C37 C46 C55" xr:uid="{6E08E741-C8C7-4210-9264-8F4FCE40EB21}">

--- a/Improgress/4. Timelog/PM_TimeLog.xlsx
+++ b/Improgress/4. Timelog/PM_TimeLog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo Legion Y7000\Documents\GitHub\Capstone-Project\Improgress\4. Timelog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEF31C26-39BC-4194-866B-C41BDF3FBBE0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D13ACF46-3AD3-40DB-A47D-5D52A7121631}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4044" yWindow="1044" windowWidth="11544" windowHeight="12504" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="7" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="Anh Minh" sheetId="14" r:id="rId5"/>
     <sheet name="Như Phương" sheetId="15" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="892" uniqueCount="117">
   <si>
     <t>Work in period</t>
   </si>
@@ -378,6 +378,21 @@
   </si>
   <si>
     <t>Như Phương</t>
+  </si>
+  <si>
+    <t>Create Control&amp;Monitoring Project</t>
+  </si>
+  <si>
+    <t>Create Comunication plan</t>
+  </si>
+  <si>
+    <t>Create EVM</t>
+  </si>
+  <si>
+    <t>Create Timeline</t>
+  </si>
+  <si>
+    <t>Review Documents</t>
   </si>
 </sst>
 </file>
@@ -1330,10 +1345,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="37"/>
                 <c:pt idx="0">
-                  <c:v>24</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3122,7 +3140,7 @@
   <dimension ref="A1:AM14"/>
   <sheetViews>
     <sheetView zoomScale="93" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3259,13 +3277,16 @@
       </c>
       <c r="B2" s="33">
         <f>'Đạt Huỳnh'!C11</f>
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C2" s="33">
         <f>'Đạt Huỳnh'!C20</f>
         <v>22</v>
       </c>
-      <c r="D2" s="33"/>
+      <c r="D2" s="33">
+        <f>'Đạt Huỳnh'!D20</f>
+        <v>0</v>
+      </c>
       <c r="E2" s="34"/>
       <c r="F2" s="33"/>
       <c r="G2" s="34"/>
@@ -3302,7 +3323,7 @@
       <c r="AL2" s="35"/>
       <c r="AM2" s="35">
         <f>SUM(B2:AL2)</f>
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:39" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -3516,151 +3537,151 @@
     <row r="7" spans="1:39" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="12">
         <f>SUM(B2:B6)</f>
-        <v>127.5</v>
+        <v>133.5</v>
       </c>
       <c r="C7" s="12">
         <f t="shared" ref="C7:R7" si="1">SUM(C2:C6)+B7</f>
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="D7" s="12">
         <f t="shared" si="1"/>
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="E7" s="12">
         <f t="shared" si="1"/>
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="F7" s="12">
         <f t="shared" si="1"/>
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="G7" s="12">
         <f t="shared" si="1"/>
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="H7" s="12">
         <f t="shared" si="1"/>
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="I7" s="12">
         <f t="shared" si="1"/>
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="J7" s="12">
         <f t="shared" si="1"/>
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="K7" s="12">
         <f t="shared" si="1"/>
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="L7" s="12">
         <f t="shared" si="1"/>
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="M7" s="12">
         <f t="shared" si="1"/>
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="N7" s="12">
         <f t="shared" si="1"/>
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="O7" s="12">
         <f t="shared" si="1"/>
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="P7" s="12">
         <f t="shared" si="1"/>
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="Q7" s="12">
         <f t="shared" si="1"/>
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="R7" s="12">
         <f t="shared" si="1"/>
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="S7" s="12">
         <f t="shared" ref="S7" si="2">SUM(S2:S6)+R7</f>
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="T7" s="12">
         <f t="shared" ref="T7" si="3">SUM(T2:T6)+S7</f>
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="U7" s="12">
         <f t="shared" ref="U7" si="4">SUM(U2:U6)+T7</f>
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="V7" s="12">
         <f t="shared" ref="V7" si="5">SUM(V2:V6)+U7</f>
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="W7" s="12">
         <f t="shared" ref="W7" si="6">SUM(W2:W6)+V7</f>
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="X7" s="12">
         <f t="shared" ref="X7" si="7">SUM(X2:X6)+W7</f>
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="Y7" s="12">
         <f t="shared" ref="Y7" si="8">SUM(Y2:Y6)+X7</f>
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="Z7" s="12">
         <f t="shared" ref="Z7" si="9">SUM(Z2:Z6)+Y7</f>
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="AA7" s="12">
         <f t="shared" ref="AA7" si="10">SUM(AA2:AA6)+Z7</f>
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="AB7" s="12">
         <f t="shared" ref="AB7" si="11">SUM(AB2:AB6)+AA7</f>
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="AC7" s="12">
         <f t="shared" ref="AC7" si="12">SUM(AC2:AC6)+AB7</f>
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="AD7" s="12">
         <f t="shared" ref="AD7" si="13">SUM(AD2:AD6)+AC7</f>
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="AE7" s="12">
         <f t="shared" ref="AE7" si="14">SUM(AE2:AE6)+AD7</f>
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="AF7" s="12">
         <f t="shared" ref="AF7" si="15">SUM(AF2:AF6)+AE7</f>
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="AG7" s="12">
         <f t="shared" ref="AG7" si="16">SUM(AG2:AG6)+AF7</f>
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="AH7" s="12">
         <f t="shared" ref="AH7" si="17">SUM(AH2:AH6)+AG7</f>
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="AI7" s="12">
         <f t="shared" ref="AI7" si="18">SUM(AI2:AI6)+AH7</f>
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="AJ7" s="12">
         <f t="shared" ref="AJ7" si="19">SUM(AJ2:AJ6)+AI7</f>
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="AK7" s="12">
         <f t="shared" ref="AK7" si="20">SUM(AK2:AK6)+AJ7</f>
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="AL7" s="12">
         <f t="shared" ref="AL7" si="21">SUM(AL2:AL6)+AK7</f>
-        <v>254</v>
+        <v>260</v>
       </c>
     </row>
     <row r="8" spans="1:39" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -3788,13 +3809,16 @@
       </c>
       <c r="B9" s="64">
         <f>'Đạt Huỳnh'!H11</f>
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C9" s="65">
         <f>'Đạt Huỳnh'!H20</f>
         <v>34</v>
       </c>
-      <c r="D9" s="48"/>
+      <c r="D9" s="64">
+        <f>'Đạt Huỳnh'!H30</f>
+        <v>38</v>
+      </c>
       <c r="E9" s="49"/>
       <c r="F9" s="48"/>
       <c r="G9" s="49"/>
@@ -3831,7 +3855,7 @@
       <c r="AL9" s="48"/>
       <c r="AM9" s="48">
         <f>SUM(B9:AL9)</f>
-        <v>58</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:39" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -4045,151 +4069,151 @@
     <row r="14" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B14" s="12">
         <f>SUM(B9:B13)</f>
-        <v>133.5</v>
+        <v>139.5</v>
       </c>
       <c r="C14" s="12">
         <f t="shared" ref="C14:R14" si="23">SUM(C9:C13)+B14</f>
-        <v>278.5</v>
+        <v>284.5</v>
       </c>
       <c r="D14" s="12">
         <f t="shared" si="23"/>
-        <v>278.5</v>
+        <v>322.5</v>
       </c>
       <c r="E14" s="12">
         <f t="shared" si="23"/>
-        <v>278.5</v>
+        <v>322.5</v>
       </c>
       <c r="F14" s="12">
         <f t="shared" si="23"/>
-        <v>278.5</v>
+        <v>322.5</v>
       </c>
       <c r="G14" s="12">
         <f t="shared" si="23"/>
-        <v>278.5</v>
+        <v>322.5</v>
       </c>
       <c r="H14" s="12">
         <f t="shared" si="23"/>
-        <v>278.5</v>
+        <v>322.5</v>
       </c>
       <c r="I14" s="12">
         <f t="shared" si="23"/>
-        <v>278.5</v>
+        <v>322.5</v>
       </c>
       <c r="J14" s="12">
         <f t="shared" si="23"/>
-        <v>278.5</v>
+        <v>322.5</v>
       </c>
       <c r="K14" s="12">
         <f t="shared" si="23"/>
-        <v>278.5</v>
+        <v>322.5</v>
       </c>
       <c r="L14" s="12">
         <f t="shared" si="23"/>
-        <v>278.5</v>
+        <v>322.5</v>
       </c>
       <c r="M14" s="12">
         <f t="shared" si="23"/>
-        <v>278.5</v>
+        <v>322.5</v>
       </c>
       <c r="N14" s="12">
         <f t="shared" si="23"/>
-        <v>278.5</v>
+        <v>322.5</v>
       </c>
       <c r="O14" s="12">
         <f t="shared" si="23"/>
-        <v>278.5</v>
+        <v>322.5</v>
       </c>
       <c r="P14" s="12">
         <f t="shared" si="23"/>
-        <v>278.5</v>
+        <v>322.5</v>
       </c>
       <c r="Q14" s="12">
         <f t="shared" si="23"/>
-        <v>278.5</v>
+        <v>322.5</v>
       </c>
       <c r="R14" s="12">
         <f t="shared" si="23"/>
-        <v>278.5</v>
+        <v>322.5</v>
       </c>
       <c r="S14" s="12">
         <f t="shared" ref="S14" si="24">SUM(S9:S13)+R14</f>
-        <v>278.5</v>
+        <v>322.5</v>
       </c>
       <c r="T14" s="12">
         <f t="shared" ref="T14" si="25">SUM(T9:T13)+S14</f>
-        <v>278.5</v>
+        <v>322.5</v>
       </c>
       <c r="U14" s="12">
         <f t="shared" ref="U14" si="26">SUM(U9:U13)+T14</f>
-        <v>278.5</v>
+        <v>322.5</v>
       </c>
       <c r="V14" s="12">
         <f t="shared" ref="V14" si="27">SUM(V9:V13)+U14</f>
-        <v>278.5</v>
+        <v>322.5</v>
       </c>
       <c r="W14" s="12">
         <f t="shared" ref="W14" si="28">SUM(W9:W13)+V14</f>
-        <v>278.5</v>
+        <v>322.5</v>
       </c>
       <c r="X14" s="12">
         <f t="shared" ref="X14" si="29">SUM(X9:X13)+W14</f>
-        <v>278.5</v>
+        <v>322.5</v>
       </c>
       <c r="Y14" s="12">
         <f t="shared" ref="Y14" si="30">SUM(Y9:Y13)+X14</f>
-        <v>278.5</v>
+        <v>322.5</v>
       </c>
       <c r="Z14" s="12">
         <f t="shared" ref="Z14" si="31">SUM(Z9:Z13)+Y14</f>
-        <v>278.5</v>
+        <v>322.5</v>
       </c>
       <c r="AA14" s="12">
         <f t="shared" ref="AA14" si="32">SUM(AA9:AA13)+Z14</f>
-        <v>278.5</v>
+        <v>322.5</v>
       </c>
       <c r="AB14" s="12">
         <f t="shared" ref="AB14" si="33">SUM(AB9:AB13)+AA14</f>
-        <v>278.5</v>
+        <v>322.5</v>
       </c>
       <c r="AC14" s="12">
         <f t="shared" ref="AC14" si="34">SUM(AC9:AC13)+AB14</f>
-        <v>278.5</v>
+        <v>322.5</v>
       </c>
       <c r="AD14" s="12">
         <f t="shared" ref="AD14" si="35">SUM(AD9:AD13)+AC14</f>
-        <v>278.5</v>
+        <v>322.5</v>
       </c>
       <c r="AE14" s="12">
         <f t="shared" ref="AE14" si="36">SUM(AE9:AE13)+AD14</f>
-        <v>278.5</v>
+        <v>322.5</v>
       </c>
       <c r="AF14" s="12">
         <f t="shared" ref="AF14" si="37">SUM(AF9:AF13)+AE14</f>
-        <v>278.5</v>
+        <v>322.5</v>
       </c>
       <c r="AG14" s="12">
         <f t="shared" ref="AG14" si="38">SUM(AG9:AG13)+AF14</f>
-        <v>278.5</v>
+        <v>322.5</v>
       </c>
       <c r="AH14" s="12">
         <f t="shared" ref="AH14" si="39">SUM(AH9:AH13)+AG14</f>
-        <v>278.5</v>
+        <v>322.5</v>
       </c>
       <c r="AI14" s="12">
         <f t="shared" ref="AI14" si="40">SUM(AI9:AI13)+AH14</f>
-        <v>278.5</v>
+        <v>322.5</v>
       </c>
       <c r="AJ14" s="12">
         <f t="shared" ref="AJ14" si="41">SUM(AJ9:AJ13)+AI14</f>
-        <v>278.5</v>
+        <v>322.5</v>
       </c>
       <c r="AK14" s="12">
         <f t="shared" ref="AK14" si="42">SUM(AK9:AK13)+AJ14</f>
-        <v>278.5</v>
+        <v>322.5</v>
       </c>
       <c r="AL14" s="12">
         <f t="shared" ref="AL14" si="43">SUM(AL9:AL13)+AK14</f>
-        <v>278.5</v>
+        <v>322.5</v>
       </c>
     </row>
   </sheetData>
@@ -4201,10 +4225,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I65"/>
+  <dimension ref="A1:I66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="B67" sqref="B67"/>
+    <sheetView tabSelected="1" topLeftCell="C14" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4416,14 +4440,24 @@
       <c r="B9" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="2"/>
+      <c r="C9" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>113</v>
+      </c>
       <c r="E9" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="14"/>
+      <c r="F9" s="7">
+        <v>6</v>
+      </c>
+      <c r="G9" s="7">
+        <v>6</v>
+      </c>
+      <c r="H9" s="14" t="s">
+        <v>20</v>
+      </c>
       <c r="I9" s="3"/>
     </row>
     <row r="10" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
@@ -4446,7 +4480,7 @@
       </c>
       <c r="C11" s="69">
         <f>SUM(F4:F10)</f>
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D11" s="69"/>
       <c r="E11" s="69"/>
@@ -4456,7 +4490,7 @@
       </c>
       <c r="H11" s="69">
         <f>SUM(G4:G10)</f>
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="I11" s="70"/>
     </row>
@@ -4706,764 +4740,885 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="10">
         <v>3</v>
       </c>
       <c r="B22" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="C22" s="25"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="18"/>
+      <c r="C22" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="E22" s="60">
+        <v>43766</v>
+      </c>
       <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="14"/>
+      <c r="G22" s="6">
+        <v>6</v>
+      </c>
+      <c r="H22" s="14" t="s">
+        <v>21</v>
+      </c>
       <c r="I22" s="15"/>
     </row>
-    <row r="23" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="10">
         <v>3</v>
       </c>
       <c r="B23" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="C23" s="25"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="19"/>
+      <c r="C23" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="E23" s="60">
+        <v>43767</v>
+      </c>
       <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="14"/>
+      <c r="G23" s="6">
+        <v>6</v>
+      </c>
+      <c r="H23" s="14" t="s">
+        <v>20</v>
+      </c>
       <c r="I23" s="15"/>
     </row>
-    <row r="24" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="10">
         <v>3</v>
       </c>
       <c r="B24" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="C24" s="25"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
+        <v>10</v>
+      </c>
+      <c r="C24" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="D24" s="13"/>
+      <c r="E24" s="60">
+        <v>43798</v>
+      </c>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6">
+        <v>4</v>
+      </c>
       <c r="H24" s="14"/>
-      <c r="I24" s="3"/>
-    </row>
-    <row r="25" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="I24" s="15"/>
+    </row>
+    <row r="25" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="10">
         <v>3</v>
       </c>
       <c r="B25" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" s="25"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="19"/>
+        <v>11</v>
+      </c>
+      <c r="C25" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="E25" s="60">
+        <v>43768</v>
+      </c>
       <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
+      <c r="G25" s="7">
+        <v>4</v>
+      </c>
       <c r="H25" s="14"/>
       <c r="I25" s="3"/>
     </row>
-    <row r="26" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="10">
         <v>3</v>
       </c>
       <c r="B26" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="C26" s="25"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="16"/>
+        <v>12</v>
+      </c>
+      <c r="C26" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E26" s="60">
+        <v>43769</v>
+      </c>
       <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
+      <c r="G26" s="7">
+        <v>6</v>
+      </c>
       <c r="H26" s="14"/>
       <c r="I26" s="3"/>
     </row>
-    <row r="27" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="10">
         <v>3</v>
       </c>
-      <c r="B27" s="68" t="s">
-        <v>14</v>
-      </c>
-      <c r="C27" s="25"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="16"/>
+      <c r="B27" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E27" s="60">
+        <v>43770</v>
+      </c>
       <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
+      <c r="G27" s="7">
+        <v>6</v>
+      </c>
       <c r="H27" s="14"/>
       <c r="I27" s="3"/>
     </row>
-    <row r="28" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
+    <row r="28" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A28" s="10">
+        <v>3</v>
+      </c>
+      <c r="B28" s="68" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E28" s="60">
+        <v>43771</v>
+      </c>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7">
+        <v>6</v>
+      </c>
       <c r="H28" s="14"/>
-      <c r="I28" s="5"/>
+      <c r="I28" s="3"/>
     </row>
     <row r="29" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="67" t="s">
+      <c r="A29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="5"/>
+    </row>
+    <row r="30" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="B29" s="67" t="s">
+      <c r="B30" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="69">
-        <f>SUM(F22:F28)</f>
+      <c r="C30" s="69">
+        <f>SUM(F22:F29)</f>
         <v>0</v>
       </c>
-      <c r="D29" s="69"/>
-      <c r="E29" s="69"/>
-      <c r="F29" s="70"/>
-      <c r="G29" s="66" t="s">
+      <c r="D30" s="69"/>
+      <c r="E30" s="69"/>
+      <c r="F30" s="70"/>
+      <c r="G30" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H29" s="69">
-        <f>SUM(G22:G28)</f>
-        <v>0</v>
-      </c>
-      <c r="I29" s="70"/>
-    </row>
-    <row r="30" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="24" t="s">
+      <c r="H30" s="69">
+        <f>SUM(G22:G29)</f>
+        <v>38</v>
+      </c>
+      <c r="I30" s="70"/>
+    </row>
+    <row r="31" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B30" s="24" t="s">
+      <c r="B31" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="C30" s="24" t="s">
+      <c r="C31" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="D30" s="24" t="s">
+      <c r="D31" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="E30" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="F30" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="G30" s="24" t="s">
+      <c r="E31" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="F31" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="G31" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="H30" s="24" t="s">
+      <c r="H31" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="I30" s="24" t="s">
+      <c r="I31" s="24" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A31" s="10">
-        <v>4</v>
-      </c>
-      <c r="B31" s="27" t="s">
+    <row r="32" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="10">
+        <v>4</v>
+      </c>
+      <c r="B32" s="27" t="s">
         <v>9</v>
-      </c>
-      <c r="C31" s="25"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="14"/>
-      <c r="I31" s="15"/>
-    </row>
-    <row r="32" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A32" s="10">
-        <v>4</v>
-      </c>
-      <c r="B32" s="27" t="s">
-        <v>10</v>
       </c>
       <c r="C32" s="25"/>
       <c r="D32" s="13"/>
-      <c r="E32" s="19"/>
+      <c r="E32" s="60">
+        <v>43773</v>
+      </c>
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
       <c r="H32" s="14"/>
       <c r="I32" s="15"/>
     </row>
-    <row r="33" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="10">
         <v>4</v>
       </c>
       <c r="B33" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" s="25"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="60">
+        <v>43774</v>
+      </c>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="15"/>
+    </row>
+    <row r="34" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="10">
+        <v>4</v>
+      </c>
+      <c r="B34" s="27" t="s">
         <v>11</v>
-      </c>
-      <c r="C33" s="25"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="14"/>
-      <c r="I33" s="3"/>
-    </row>
-    <row r="34" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A34" s="10">
-        <v>4</v>
-      </c>
-      <c r="B34" s="27" t="s">
-        <v>12</v>
       </c>
       <c r="C34" s="25"/>
       <c r="D34" s="2"/>
-      <c r="E34" s="19"/>
+      <c r="E34" s="60">
+        <v>43775</v>
+      </c>
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c r="H34" s="14"/>
       <c r="I34" s="3"/>
     </row>
-    <row r="35" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="10">
         <v>4</v>
       </c>
-      <c r="B35" s="68" t="s">
-        <v>13</v>
+      <c r="B35" s="27" t="s">
+        <v>12</v>
       </c>
       <c r="C35" s="25"/>
       <c r="D35" s="2"/>
-      <c r="E35" s="16"/>
+      <c r="E35" s="60">
+        <v>43776</v>
+      </c>
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c r="H35" s="14"/>
       <c r="I35" s="3"/>
     </row>
-    <row r="36" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="10">
         <v>4</v>
       </c>
       <c r="B36" s="68" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C36" s="25"/>
       <c r="D36" s="2"/>
-      <c r="E36" s="16"/>
+      <c r="E36" s="60">
+        <v>43777</v>
+      </c>
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c r="H36" s="14"/>
       <c r="I36" s="3"/>
     </row>
-    <row r="37" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="9"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="16"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
+    <row r="37" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A37" s="10">
+        <v>4</v>
+      </c>
+      <c r="B37" s="68" t="s">
+        <v>14</v>
+      </c>
+      <c r="C37" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E37" s="60">
+        <v>43778</v>
+      </c>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
       <c r="H37" s="14"/>
-      <c r="I37" s="5"/>
+      <c r="I37" s="3"/>
     </row>
     <row r="38" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="67" t="s">
+      <c r="A38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="14"/>
+      <c r="I38" s="5"/>
+    </row>
+    <row r="39" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="B38" s="67" t="s">
+      <c r="B39" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C38" s="69">
-        <f>SUM(F31:F37)</f>
+      <c r="C39" s="69">
+        <f>SUM(F32:F38)</f>
         <v>0</v>
       </c>
-      <c r="D38" s="69"/>
-      <c r="E38" s="69"/>
-      <c r="F38" s="70"/>
-      <c r="G38" s="66" t="s">
+      <c r="D39" s="69"/>
+      <c r="E39" s="69"/>
+      <c r="F39" s="70"/>
+      <c r="G39" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H38" s="69">
-        <f>SUM(G31:G37)</f>
+      <c r="H39" s="69">
+        <f>SUM(G32:G38)</f>
         <v>0</v>
       </c>
-      <c r="I38" s="70"/>
-    </row>
-    <row r="39" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="24" t="s">
+      <c r="I39" s="70"/>
+    </row>
+    <row r="40" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B39" s="24" t="s">
+      <c r="B40" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="C39" s="24" t="s">
+      <c r="C40" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="D39" s="24" t="s">
+      <c r="D40" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="E39" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="F39" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="G39" s="24" t="s">
+      <c r="E40" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="F40" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="G40" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="H39" s="24" t="s">
+      <c r="H40" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="I39" s="24" t="s">
+      <c r="I40" s="24" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A40" s="10">
-        <v>5</v>
-      </c>
-      <c r="B40" s="27" t="s">
+    <row r="41" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="10">
+        <v>5</v>
+      </c>
+      <c r="B41" s="27" t="s">
         <v>9</v>
-      </c>
-      <c r="C40" s="25"/>
-      <c r="D40" s="13"/>
-      <c r="E40" s="18"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="6"/>
-      <c r="H40" s="14"/>
-      <c r="I40" s="15"/>
-    </row>
-    <row r="41" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A41" s="10">
-        <v>5</v>
-      </c>
-      <c r="B41" s="27" t="s">
-        <v>10</v>
       </c>
       <c r="C41" s="25"/>
       <c r="D41" s="13"/>
-      <c r="E41" s="19"/>
+      <c r="E41" s="60">
+        <v>43780</v>
+      </c>
       <c r="F41" s="6"/>
       <c r="G41" s="6"/>
       <c r="H41" s="14"/>
       <c r="I41" s="15"/>
     </row>
-    <row r="42" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="10">
         <v>5</v>
       </c>
       <c r="B42" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C42" s="25"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="60">
+        <v>43781</v>
+      </c>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="14"/>
+      <c r="I42" s="15"/>
+    </row>
+    <row r="43" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="10">
+        <v>5</v>
+      </c>
+      <c r="B43" s="27" t="s">
         <v>11</v>
-      </c>
-      <c r="C42" s="25"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="17"/>
-      <c r="F42" s="7"/>
-      <c r="G42" s="7"/>
-      <c r="H42" s="14"/>
-      <c r="I42" s="3"/>
-    </row>
-    <row r="43" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A43" s="10">
-        <v>5</v>
-      </c>
-      <c r="B43" s="27" t="s">
-        <v>12</v>
       </c>
       <c r="C43" s="25"/>
       <c r="D43" s="2"/>
-      <c r="E43" s="19"/>
+      <c r="E43" s="60">
+        <v>43782</v>
+      </c>
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c r="H43" s="14"/>
       <c r="I43" s="3"/>
     </row>
-    <row r="44" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="10">
         <v>5</v>
       </c>
-      <c r="B44" s="68" t="s">
-        <v>13</v>
+      <c r="B44" s="27" t="s">
+        <v>12</v>
       </c>
       <c r="C44" s="25"/>
       <c r="D44" s="2"/>
-      <c r="E44" s="16"/>
+      <c r="E44" s="60">
+        <v>43783</v>
+      </c>
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c r="H44" s="14"/>
       <c r="I44" s="3"/>
     </row>
-    <row r="45" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="10">
         <v>5</v>
       </c>
       <c r="B45" s="68" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C45" s="25"/>
       <c r="D45" s="2"/>
-      <c r="E45" s="16"/>
+      <c r="E45" s="60">
+        <v>43784</v>
+      </c>
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
       <c r="H45" s="14"/>
       <c r="I45" s="3"/>
     </row>
-    <row r="46" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="9"/>
-      <c r="C46" s="9"/>
-      <c r="D46" s="4"/>
-      <c r="E46" s="16"/>
-      <c r="F46" s="8"/>
-      <c r="G46" s="8"/>
+    <row r="46" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A46" s="10">
+        <v>5</v>
+      </c>
+      <c r="B46" s="68" t="s">
+        <v>14</v>
+      </c>
+      <c r="C46" s="25"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="60">
+        <v>43785</v>
+      </c>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
       <c r="H46" s="14"/>
-      <c r="I46" s="5"/>
+      <c r="I46" s="3"/>
     </row>
     <row r="47" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="67" t="s">
+      <c r="A47" s="9"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="16"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c r="H47" s="14"/>
+      <c r="I47" s="5"/>
+    </row>
+    <row r="48" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="B47" s="67" t="s">
+      <c r="B48" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C47" s="69">
-        <f>SUM(F40:F46)</f>
+      <c r="C48" s="69">
+        <f>SUM(F41:F47)</f>
         <v>0</v>
       </c>
-      <c r="D47" s="69"/>
-      <c r="E47" s="69"/>
-      <c r="F47" s="70"/>
-      <c r="G47" s="66" t="s">
+      <c r="D48" s="69"/>
+      <c r="E48" s="69"/>
+      <c r="F48" s="70"/>
+      <c r="G48" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H47" s="69">
-        <f>SUM(G40:G46)</f>
+      <c r="H48" s="69">
+        <f>SUM(G41:G47)</f>
         <v>0</v>
       </c>
-      <c r="I47" s="70"/>
-    </row>
-    <row r="48" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="24" t="s">
+      <c r="I48" s="70"/>
+    </row>
+    <row r="49" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B48" s="24" t="s">
+      <c r="B49" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="C48" s="24" t="s">
+      <c r="C49" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="D48" s="24" t="s">
+      <c r="D49" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="E48" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="F48" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="G48" s="24" t="s">
+      <c r="E49" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="F49" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="G49" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="H48" s="24" t="s">
+      <c r="H49" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="I48" s="24" t="s">
+      <c r="I49" s="24" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A49" s="10">
-        <v>6</v>
-      </c>
-      <c r="B49" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="C49" s="25"/>
-      <c r="D49" s="13"/>
-      <c r="E49" s="18"/>
-      <c r="F49" s="6"/>
-      <c r="G49" s="6"/>
-      <c r="H49" s="14"/>
-      <c r="I49" s="15"/>
-    </row>
-    <row r="50" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="10">
         <v>6</v>
       </c>
       <c r="B50" s="27" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C50" s="25"/>
       <c r="D50" s="13"/>
-      <c r="E50" s="19"/>
+      <c r="E50" s="60">
+        <v>43787</v>
+      </c>
       <c r="F50" s="6"/>
       <c r="G50" s="6"/>
       <c r="H50" s="14"/>
       <c r="I50" s="15"/>
     </row>
-    <row r="51" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="10">
         <v>6</v>
       </c>
       <c r="B51" s="27" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C51" s="25"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="17"/>
-      <c r="F51" s="7"/>
-      <c r="G51" s="7"/>
+      <c r="D51" s="13"/>
+      <c r="E51" s="60">
+        <v>43788</v>
+      </c>
+      <c r="F51" s="6"/>
+      <c r="G51" s="6"/>
       <c r="H51" s="14"/>
-      <c r="I51" s="3"/>
-    </row>
-    <row r="52" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="I51" s="15"/>
+    </row>
+    <row r="52" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="10">
         <v>6</v>
       </c>
       <c r="B52" s="27" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C52" s="25"/>
       <c r="D52" s="2"/>
-      <c r="E52" s="19"/>
+      <c r="E52" s="60">
+        <v>43789</v>
+      </c>
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
       <c r="H52" s="14"/>
       <c r="I52" s="3"/>
     </row>
-    <row r="53" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="10">
         <v>6</v>
       </c>
-      <c r="B53" s="68" t="s">
-        <v>13</v>
+      <c r="B53" s="27" t="s">
+        <v>12</v>
       </c>
       <c r="C53" s="25"/>
       <c r="D53" s="2"/>
-      <c r="E53" s="16"/>
+      <c r="E53" s="60">
+        <v>43790</v>
+      </c>
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
       <c r="H53" s="14"/>
       <c r="I53" s="3"/>
     </row>
-    <row r="54" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="10">
         <v>6</v>
       </c>
       <c r="B54" s="68" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C54" s="25"/>
       <c r="D54" s="2"/>
-      <c r="E54" s="16"/>
+      <c r="E54" s="60">
+        <v>43791</v>
+      </c>
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
       <c r="H54" s="14"/>
       <c r="I54" s="3"/>
     </row>
-    <row r="55" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="9"/>
-      <c r="C55" s="9"/>
-      <c r="D55" s="4"/>
-      <c r="E55" s="16"/>
-      <c r="F55" s="8"/>
-      <c r="G55" s="8"/>
+    <row r="55" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A55" s="10">
+        <v>6</v>
+      </c>
+      <c r="B55" s="68" t="s">
+        <v>14</v>
+      </c>
+      <c r="C55" s="25"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="60">
+        <v>43792</v>
+      </c>
+      <c r="F55" s="7"/>
+      <c r="G55" s="7"/>
       <c r="H55" s="14"/>
-      <c r="I55" s="5"/>
+      <c r="I55" s="3"/>
     </row>
     <row r="56" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="67" t="s">
+      <c r="A56" s="9"/>
+      <c r="C56" s="9"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="16"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c r="H56" s="14"/>
+      <c r="I56" s="5"/>
+    </row>
+    <row r="57" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="B56" s="67" t="s">
+      <c r="B57" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C56" s="69">
-        <f>SUM(F49:F55)</f>
+      <c r="C57" s="69">
+        <f>SUM(F50:F56)</f>
         <v>0</v>
       </c>
-      <c r="D56" s="69"/>
-      <c r="E56" s="69"/>
-      <c r="F56" s="70"/>
-      <c r="G56" s="66" t="s">
+      <c r="D57" s="69"/>
+      <c r="E57" s="69"/>
+      <c r="F57" s="70"/>
+      <c r="G57" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H56" s="69">
-        <f>SUM(G49:G55)</f>
+      <c r="H57" s="69">
+        <f>SUM(G50:G56)</f>
         <v>0</v>
       </c>
-      <c r="I56" s="70"/>
-    </row>
-    <row r="57" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="24" t="s">
+      <c r="I57" s="70"/>
+    </row>
+    <row r="58" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B57" s="24" t="s">
+      <c r="B58" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="C57" s="24" t="s">
+      <c r="C58" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="D57" s="24" t="s">
+      <c r="D58" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="E57" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="F57" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="G57" s="24" t="s">
+      <c r="E58" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="F58" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="G58" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="H57" s="24" t="s">
+      <c r="H58" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="I57" s="24" t="s">
+      <c r="I58" s="24" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A58" s="10">
-        <v>7</v>
-      </c>
-      <c r="B58" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="C58" s="25"/>
-      <c r="D58" s="13"/>
-      <c r="E58" s="18"/>
-      <c r="F58" s="6"/>
-      <c r="G58" s="6"/>
-      <c r="H58" s="14"/>
-      <c r="I58" s="15"/>
-    </row>
-    <row r="59" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="10">
         <v>7</v>
       </c>
       <c r="B59" s="27" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C59" s="25"/>
       <c r="D59" s="13"/>
-      <c r="E59" s="19"/>
+      <c r="E59" s="60">
+        <v>43794</v>
+      </c>
       <c r="F59" s="6"/>
       <c r="G59" s="6"/>
       <c r="H59" s="14"/>
       <c r="I59" s="15"/>
     </row>
-    <row r="60" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="10">
         <v>7</v>
       </c>
       <c r="B60" s="27" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C60" s="25"/>
-      <c r="D60" s="2"/>
-      <c r="E60" s="17"/>
-      <c r="F60" s="7"/>
-      <c r="G60" s="7"/>
+      <c r="D60" s="13"/>
+      <c r="E60" s="60">
+        <v>43795</v>
+      </c>
+      <c r="F60" s="6"/>
+      <c r="G60" s="6"/>
       <c r="H60" s="14"/>
-      <c r="I60" s="3"/>
-    </row>
-    <row r="61" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="I60" s="15"/>
+    </row>
+    <row r="61" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="10">
         <v>7</v>
       </c>
       <c r="B61" s="27" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C61" s="25"/>
       <c r="D61" s="2"/>
-      <c r="E61" s="19"/>
+      <c r="E61" s="60">
+        <v>43796</v>
+      </c>
       <c r="F61" s="7"/>
       <c r="G61" s="7"/>
       <c r="H61" s="14"/>
       <c r="I61" s="3"/>
     </row>
-    <row r="62" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="10">
         <v>7</v>
       </c>
       <c r="B62" s="27" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C62" s="25"/>
       <c r="D62" s="2"/>
-      <c r="E62" s="16"/>
+      <c r="E62" s="60">
+        <v>43797</v>
+      </c>
       <c r="F62" s="7"/>
       <c r="G62" s="7"/>
       <c r="H62" s="14"/>
       <c r="I62" s="3"/>
     </row>
-    <row r="63" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="10">
         <v>7</v>
       </c>
       <c r="B63" s="27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C63" s="25"/>
       <c r="D63" s="2"/>
-      <c r="E63" s="16"/>
+      <c r="E63" s="60">
+        <v>43798</v>
+      </c>
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
       <c r="H63" s="14"/>
       <c r="I63" s="3"/>
     </row>
-    <row r="64" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="9"/>
-      <c r="C64" s="9"/>
-      <c r="D64" s="4"/>
-      <c r="E64" s="16"/>
-      <c r="F64" s="8"/>
-      <c r="G64" s="8"/>
+    <row r="64" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A64" s="10">
+        <v>7</v>
+      </c>
+      <c r="B64" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="C64" s="25"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="60">
+        <v>43799</v>
+      </c>
+      <c r="F64" s="7"/>
+      <c r="G64" s="7"/>
       <c r="H64" s="14"/>
-      <c r="I64" s="5"/>
+      <c r="I64" s="3"/>
     </row>
     <row r="65" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="67" t="s">
+      <c r="A65" s="9"/>
+      <c r="C65" s="9"/>
+      <c r="D65" s="4"/>
+      <c r="E65" s="16"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+      <c r="H65" s="14"/>
+      <c r="I65" s="5"/>
+    </row>
+    <row r="66" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="B65" s="67" t="s">
+      <c r="B66" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C65" s="69">
-        <f>SUM(F58:F64)</f>
+      <c r="C66" s="69">
+        <f>SUM(F59:F65)</f>
         <v>0</v>
       </c>
-      <c r="D65" s="69"/>
-      <c r="E65" s="69"/>
-      <c r="F65" s="70"/>
-      <c r="G65" s="66" t="s">
+      <c r="D66" s="69"/>
+      <c r="E66" s="69"/>
+      <c r="F66" s="70"/>
+      <c r="G66" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H65" s="69">
-        <f>SUM(G58:G64)</f>
+      <c r="H66" s="69">
+        <f>SUM(G59:G65)</f>
         <v>0</v>
       </c>
-      <c r="I65" s="70"/>
+      <c r="I66" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="C65:F65"/>
-    <mergeCell ref="H65:I65"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="C48:F48"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="C57:F57"/>
+    <mergeCell ref="H57:I57"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="C39:F39"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="C66:F66"/>
+    <mergeCell ref="H66:I66"/>
     <mergeCell ref="C11:F11"/>
     <mergeCell ref="H11:I11"/>
     <mergeCell ref="C20:F20"/>
     <mergeCell ref="H20:I20"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="C47:F47"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="C56:F56"/>
-    <mergeCell ref="H56:I56"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="C38:F38"/>
-    <mergeCell ref="H38:I38"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10 C19 C28 C37 C46 C55 C64" xr:uid="{0BB0E9EB-C012-4B84-ADE0-06241CD0A572}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10 C19 C29 C38 C47 C56 C65" xr:uid="{0BB0E9EB-C012-4B84-ADE0-06241CD0A572}">
       <formula1>"Project Management, Requirement, Architecture and Desgin, Implementation, Testing, Training, Meetting Customer, Meetting Mentor"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C9 C13:C18 C22:C27 C31:C36 C40:C45 C49:C54 C58:C63" xr:uid="{A5E9BD59-08EB-4C74-8AD5-B28C042D8541}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C9 C13:C18 C59:C64 C32:C37 C41:C46 C50:C55 C22:C28" xr:uid="{A5E9BD59-08EB-4C74-8AD5-B28C042D8541}">
       <formula1>"Project Management, Requirement, Architecture and Desgin, Implementation, Testing, Training, Meetting Customer, Meeting Mentor"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:H10 H13:H19 H22:H28 H31:H37 H40:H46 H49:H55 H58:H64" xr:uid="{5ADEB9A5-7B77-4996-B65F-DB32EFA25F03}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:H10 H13:H19 H59:H65 H32:H38 H41:H47 H50:H56 H22:H29" xr:uid="{5ADEB9A5-7B77-4996-B65F-DB32EFA25F03}">
       <formula1>"Done,Inprogress "</formula1>
     </dataValidation>
     <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3 B12" xr:uid="{ED6FDAE4-9006-4B02-81E9-E85FDE801F79}">
@@ -5472,11 +5627,11 @@
     </dataValidation>
     <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B21" xr:uid="{85F854A7-9AC8-4963-94A2-DF4E43B75BC1}">
       <formula1>#REF!</formula1>
-      <formula2>B27</formula2>
+      <formula2>B28</formula2>
     </dataValidation>
-    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B30 B39 B48 B57" xr:uid="{28C7F73E-D079-4F9E-AC12-39AC8A9947E5}">
+    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B31 B40 B49 B58" xr:uid="{28C7F73E-D079-4F9E-AC12-39AC8A9947E5}">
       <formula1>#REF!</formula1>
-      <formula2>B35</formula2>
+      <formula2>B36</formula2>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6593,6 +6748,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="C38:F38"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="C47:F47"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="C56:F56"/>
+    <mergeCell ref="H56:I56"/>
     <mergeCell ref="C29:F29"/>
     <mergeCell ref="H29:I29"/>
     <mergeCell ref="A2:I2"/>
@@ -6600,12 +6761,6 @@
     <mergeCell ref="H11:I11"/>
     <mergeCell ref="C20:F20"/>
     <mergeCell ref="H20:I20"/>
-    <mergeCell ref="C38:F38"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="C47:F47"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="C56:F56"/>
-    <mergeCell ref="H56:I56"/>
   </mergeCells>
   <dataValidations count="6">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10 C19 C28 C37 C46 C55" xr:uid="{00000000-0002-0000-0300-000000000000}">
@@ -7727,11 +7882,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="H20:I20"/>
     <mergeCell ref="C56:F56"/>
     <mergeCell ref="H56:I56"/>
     <mergeCell ref="C29:F29"/>
@@ -7740,6 +7890,11 @@
     <mergeCell ref="H38:I38"/>
     <mergeCell ref="C47:F47"/>
     <mergeCell ref="H47:I47"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="H20:I20"/>
   </mergeCells>
   <dataValidations count="6">
     <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3 B12" xr:uid="{6FFE7BB2-A561-485E-81E9-2571AC8DE5CA}">
@@ -8869,11 +9024,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="H20:I20"/>
     <mergeCell ref="C56:F56"/>
     <mergeCell ref="H56:I56"/>
     <mergeCell ref="C29:F29"/>
@@ -8882,6 +9032,11 @@
     <mergeCell ref="H38:I38"/>
     <mergeCell ref="C47:F47"/>
     <mergeCell ref="H47:I47"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="H20:I20"/>
   </mergeCells>
   <dataValidations count="6">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10 C19 C28 C37 C46 C55" xr:uid="{49E4ABBA-BF99-4A08-9146-05B03FF61551}">
@@ -8915,8 +9070,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{744DDA93-81BE-4148-9787-FFABC05BF7AA}">
   <dimension ref="A1:I56"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:I56"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10013,11 +10168,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="H20:I20"/>
     <mergeCell ref="C56:F56"/>
     <mergeCell ref="H56:I56"/>
     <mergeCell ref="C29:F29"/>
@@ -10026,6 +10176,11 @@
     <mergeCell ref="H38:I38"/>
     <mergeCell ref="C47:F47"/>
     <mergeCell ref="H47:I47"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="H20:I20"/>
   </mergeCells>
   <dataValidations count="6">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10 C19 C28 C37 C46 C55" xr:uid="{6E08E741-C8C7-4210-9264-8F4FCE40EB21}">

--- a/Improgress/4. Timelog/PM_TimeLog.xlsx
+++ b/Improgress/4. Timelog/PM_TimeLog.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo Legion Y7000\Documents\GitHub\Capstone-Project\Improgress\4. Timelog\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\Capstone-Project\Improgress\4. Timelog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D13ACF46-3AD3-40DB-A47D-5D52A7121631}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16770EF5-5418-4E4B-A448-21C535DD61A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4044" yWindow="1044" windowWidth="11544" windowHeight="12504" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="7" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="Anh Minh" sheetId="14" r:id="rId5"/>
     <sheet name="Như Phương" sheetId="15" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,9 +28,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -41,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="892" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="911" uniqueCount="118">
   <si>
     <t>Work in period</t>
   </si>
@@ -393,6 +391,9 @@
   </si>
   <si>
     <t>Review Documents</t>
+  </si>
+  <si>
+    <t>Create tracebility metrix</t>
   </si>
 </sst>
 </file>
@@ -1054,12 +1055,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1070,6 +1065,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3143,16 +3144,16 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.33203125" style="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.28515625" style="12" bestFit="1" customWidth="1"/>
     <col min="2" max="10" width="9" style="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="38" width="10.33203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="6.6640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="40" max="16384" width="8.88671875" style="12"/>
+    <col min="11" max="38" width="10.28515625" style="12" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="6.7109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="40" max="16384" width="8.85546875" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="28" t="s">
         <v>5</v>
       </c>
@@ -3271,7 +3272,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:39" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>66</v>
       </c>
@@ -3326,7 +3327,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:39" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="37" t="s">
         <v>108</v>
       </c>
@@ -3378,7 +3379,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:39" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="32" t="s">
         <v>109</v>
       </c>
@@ -3430,7 +3431,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:39" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="37" t="s">
         <v>110</v>
       </c>
@@ -3482,7 +3483,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:39" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="41" t="s">
         <v>111</v>
       </c>
@@ -3534,7 +3535,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:39" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="12">
         <f>SUM(B2:B6)</f>
         <v>133.5</v>
@@ -3684,7 +3685,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="8" spans="1:39" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="45" t="s">
         <v>23</v>
       </c>
@@ -3803,7 +3804,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:39" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="32" t="s">
         <v>66</v>
       </c>
@@ -3858,7 +3859,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="10" spans="1:39" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="37" t="s">
         <v>108</v>
       </c>
@@ -3910,7 +3911,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:39" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="32" t="s">
         <v>109</v>
       </c>
@@ -3962,7 +3963,7 @@
         <v>49.5</v>
       </c>
     </row>
-    <row r="12" spans="1:39" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="37" t="s">
         <v>110</v>
       </c>
@@ -4014,7 +4015,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:39" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="41" t="s">
         <v>111</v>
       </c>
@@ -4066,7 +4067,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:39" x14ac:dyDescent="0.2">
       <c r="B14" s="12">
         <f>SUM(B9:B13)</f>
         <v>139.5</v>
@@ -4227,25 +4228,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C14" workbookViewId="0">
+    <sheetView topLeftCell="C14" workbookViewId="0">
       <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.109375" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.88671875" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.88671875" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="42.6640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.85546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.7109375" style="12" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="12" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" style="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.88671875" style="12"/>
-    <col min="8" max="8" width="12.109375" style="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="49.33203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="12"/>
+    <col min="7" max="7" width="8.85546875" style="12"/>
+    <col min="8" max="8" width="12.140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="49.28515625" style="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.85546875" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>65</v>
       </c>
@@ -4260,20 +4261,20 @@
       <c r="H1" s="21"/>
       <c r="I1" s="22"/>
     </row>
-    <row r="2" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A2" s="71" t="s">
+    <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="72"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="73"/>
-      <c r="I2" s="74"/>
-    </row>
-    <row r="3" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="70"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="72"/>
+    </row>
+    <row r="3" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
         <v>1</v>
       </c>
@@ -4302,7 +4303,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A4" s="10">
         <v>1</v>
       </c>
@@ -4327,7 +4328,7 @@
       </c>
       <c r="I4" s="15"/>
     </row>
-    <row r="5" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A5" s="10">
         <v>1</v>
       </c>
@@ -4354,7 +4355,7 @@
       </c>
       <c r="I5" s="15"/>
     </row>
-    <row r="6" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -4381,7 +4382,7 @@
       </c>
       <c r="I6" s="3"/>
     </row>
-    <row r="7" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -4408,7 +4409,7 @@
       </c>
       <c r="I7" s="3"/>
     </row>
-    <row r="8" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>1</v>
       </c>
@@ -4433,7 +4434,7 @@
       </c>
       <c r="I8" s="3"/>
     </row>
-    <row r="9" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>1</v>
       </c>
@@ -4460,7 +4461,7 @@
       </c>
       <c r="I9" s="3"/>
     </row>
-    <row r="10" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9"/>
       <c r="B10" s="11"/>
       <c r="C10" s="9"/>
@@ -4471,30 +4472,30 @@
       <c r="H10" s="14"/>
       <c r="I10" s="5"/>
     </row>
-    <row r="11" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="67" t="s">
         <v>15</v>
       </c>
       <c r="B11" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="69">
+      <c r="C11" s="73">
         <f>SUM(F4:F10)</f>
         <v>30</v>
       </c>
-      <c r="D11" s="69"/>
-      <c r="E11" s="69"/>
-      <c r="F11" s="70"/>
+      <c r="D11" s="73"/>
+      <c r="E11" s="73"/>
+      <c r="F11" s="74"/>
       <c r="G11" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="69">
+      <c r="H11" s="73">
         <f>SUM(G4:G10)</f>
         <v>30</v>
       </c>
-      <c r="I11" s="70"/>
-    </row>
-    <row r="12" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I11" s="74"/>
+    </row>
+    <row r="12" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="24" t="s">
         <v>1</v>
       </c>
@@ -4523,7 +4524,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A13" s="10">
         <v>2</v>
       </c>
@@ -4550,7 +4551,7 @@
       </c>
       <c r="I13" s="15"/>
     </row>
-    <row r="14" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="30" x14ac:dyDescent="0.2">
       <c r="A14" s="10">
         <v>2</v>
       </c>
@@ -4579,7 +4580,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A15" s="10">
         <v>2</v>
       </c>
@@ -4604,7 +4605,7 @@
       </c>
       <c r="I15" s="3"/>
     </row>
-    <row r="16" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A16" s="10">
         <v>2</v>
       </c>
@@ -4631,7 +4632,7 @@
       </c>
       <c r="I16" s="3"/>
     </row>
-    <row r="17" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A17" s="10">
         <v>2</v>
       </c>
@@ -4654,7 +4655,7 @@
       <c r="H17" s="14"/>
       <c r="I17" s="3"/>
     </row>
-    <row r="18" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A18" s="10">
         <v>2</v>
       </c>
@@ -4677,7 +4678,7 @@
       <c r="H18" s="14"/>
       <c r="I18" s="3"/>
     </row>
-    <row r="19" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9"/>
       <c r="B19" s="11"/>
       <c r="C19" s="9"/>
@@ -4688,30 +4689,30 @@
       <c r="H19" s="14"/>
       <c r="I19" s="5"/>
     </row>
-    <row r="20" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="67" t="s">
         <v>15</v>
       </c>
       <c r="B20" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="69">
+      <c r="C20" s="73">
         <f>SUM(F13:F19)</f>
         <v>22</v>
       </c>
-      <c r="D20" s="69"/>
-      <c r="E20" s="69"/>
-      <c r="F20" s="70"/>
+      <c r="D20" s="73"/>
+      <c r="E20" s="73"/>
+      <c r="F20" s="74"/>
       <c r="G20" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H20" s="69">
+      <c r="H20" s="73">
         <f>SUM(G13:G19)</f>
         <v>34</v>
       </c>
-      <c r="I20" s="70"/>
-    </row>
-    <row r="21" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I20" s="74"/>
+    </row>
+    <row r="21" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="24" t="s">
         <v>1</v>
       </c>
@@ -4740,7 +4741,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="10">
         <v>3</v>
       </c>
@@ -4765,7 +4766,7 @@
       </c>
       <c r="I22" s="15"/>
     </row>
-    <row r="23" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="10">
         <v>3</v>
       </c>
@@ -4790,7 +4791,7 @@
       </c>
       <c r="I23" s="15"/>
     </row>
-    <row r="24" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="10">
         <v>3</v>
       </c>
@@ -4811,7 +4812,7 @@
       <c r="H24" s="14"/>
       <c r="I24" s="15"/>
     </row>
-    <row r="25" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="10">
         <v>3</v>
       </c>
@@ -4831,7 +4832,7 @@
       <c r="H25" s="14"/>
       <c r="I25" s="3"/>
     </row>
-    <row r="26" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="10">
         <v>3</v>
       </c>
@@ -4854,7 +4855,7 @@
       <c r="H26" s="14"/>
       <c r="I26" s="3"/>
     </row>
-    <row r="27" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="10">
         <v>3</v>
       </c>
@@ -4877,7 +4878,7 @@
       <c r="H27" s="14"/>
       <c r="I27" s="3"/>
     </row>
-    <row r="28" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A28" s="10">
         <v>3</v>
       </c>
@@ -4900,7 +4901,7 @@
       <c r="H28" s="14"/>
       <c r="I28" s="3"/>
     </row>
-    <row r="29" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="9"/>
       <c r="C29" s="9"/>
       <c r="E29" s="16"/>
@@ -4909,30 +4910,30 @@
       <c r="H29" s="14"/>
       <c r="I29" s="5"/>
     </row>
-    <row r="30" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="67" t="s">
         <v>15</v>
       </c>
       <c r="B30" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C30" s="69">
+      <c r="C30" s="73">
         <f>SUM(F22:F29)</f>
         <v>0</v>
       </c>
-      <c r="D30" s="69"/>
-      <c r="E30" s="69"/>
-      <c r="F30" s="70"/>
+      <c r="D30" s="73"/>
+      <c r="E30" s="73"/>
+      <c r="F30" s="74"/>
       <c r="G30" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H30" s="69">
+      <c r="H30" s="73">
         <f>SUM(G22:G29)</f>
         <v>38</v>
       </c>
-      <c r="I30" s="70"/>
-    </row>
-    <row r="31" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I30" s="74"/>
+    </row>
+    <row r="31" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="24" t="s">
         <v>1</v>
       </c>
@@ -4961,7 +4962,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="10">
         <v>4</v>
       </c>
@@ -4978,7 +4979,7 @@
       <c r="H32" s="14"/>
       <c r="I32" s="15"/>
     </row>
-    <row r="33" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="10">
         <v>4</v>
       </c>
@@ -4995,7 +4996,7 @@
       <c r="H33" s="14"/>
       <c r="I33" s="15"/>
     </row>
-    <row r="34" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="10">
         <v>4</v>
       </c>
@@ -5012,7 +5013,7 @@
       <c r="H34" s="14"/>
       <c r="I34" s="3"/>
     </row>
-    <row r="35" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="10">
         <v>4</v>
       </c>
@@ -5029,7 +5030,7 @@
       <c r="H35" s="14"/>
       <c r="I35" s="3"/>
     </row>
-    <row r="36" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="10">
         <v>4</v>
       </c>
@@ -5046,7 +5047,7 @@
       <c r="H36" s="14"/>
       <c r="I36" s="3"/>
     </row>
-    <row r="37" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A37" s="10">
         <v>4</v>
       </c>
@@ -5067,7 +5068,7 @@
       <c r="H37" s="14"/>
       <c r="I37" s="3"/>
     </row>
-    <row r="38" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="9"/>
       <c r="C38" s="9"/>
       <c r="D38" s="4"/>
@@ -5077,30 +5078,30 @@
       <c r="H38" s="14"/>
       <c r="I38" s="5"/>
     </row>
-    <row r="39" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="67" t="s">
         <v>15</v>
       </c>
       <c r="B39" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C39" s="69">
+      <c r="C39" s="73">
         <f>SUM(F32:F38)</f>
         <v>0</v>
       </c>
-      <c r="D39" s="69"/>
-      <c r="E39" s="69"/>
-      <c r="F39" s="70"/>
+      <c r="D39" s="73"/>
+      <c r="E39" s="73"/>
+      <c r="F39" s="74"/>
       <c r="G39" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H39" s="69">
+      <c r="H39" s="73">
         <f>SUM(G32:G38)</f>
         <v>0</v>
       </c>
-      <c r="I39" s="70"/>
-    </row>
-    <row r="40" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I39" s="74"/>
+    </row>
+    <row r="40" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="24" t="s">
         <v>1</v>
       </c>
@@ -5129,7 +5130,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="10">
         <v>5</v>
       </c>
@@ -5146,7 +5147,7 @@
       <c r="H41" s="14"/>
       <c r="I41" s="15"/>
     </row>
-    <row r="42" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="10">
         <v>5</v>
       </c>
@@ -5163,7 +5164,7 @@
       <c r="H42" s="14"/>
       <c r="I42" s="15"/>
     </row>
-    <row r="43" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="10">
         <v>5</v>
       </c>
@@ -5180,7 +5181,7 @@
       <c r="H43" s="14"/>
       <c r="I43" s="3"/>
     </row>
-    <row r="44" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="10">
         <v>5</v>
       </c>
@@ -5197,7 +5198,7 @@
       <c r="H44" s="14"/>
       <c r="I44" s="3"/>
     </row>
-    <row r="45" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="10">
         <v>5</v>
       </c>
@@ -5214,7 +5215,7 @@
       <c r="H45" s="14"/>
       <c r="I45" s="3"/>
     </row>
-    <row r="46" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A46" s="10">
         <v>5</v>
       </c>
@@ -5231,7 +5232,7 @@
       <c r="H46" s="14"/>
       <c r="I46" s="3"/>
     </row>
-    <row r="47" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="9"/>
       <c r="C47" s="9"/>
       <c r="D47" s="4"/>
@@ -5241,30 +5242,30 @@
       <c r="H47" s="14"/>
       <c r="I47" s="5"/>
     </row>
-    <row r="48" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="67" t="s">
         <v>15</v>
       </c>
       <c r="B48" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C48" s="69">
+      <c r="C48" s="73">
         <f>SUM(F41:F47)</f>
         <v>0</v>
       </c>
-      <c r="D48" s="69"/>
-      <c r="E48" s="69"/>
-      <c r="F48" s="70"/>
+      <c r="D48" s="73"/>
+      <c r="E48" s="73"/>
+      <c r="F48" s="74"/>
       <c r="G48" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H48" s="69">
+      <c r="H48" s="73">
         <f>SUM(G41:G47)</f>
         <v>0</v>
       </c>
-      <c r="I48" s="70"/>
-    </row>
-    <row r="49" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I48" s="74"/>
+    </row>
+    <row r="49" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="24" t="s">
         <v>1</v>
       </c>
@@ -5293,7 +5294,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="10">
         <v>6</v>
       </c>
@@ -5310,7 +5311,7 @@
       <c r="H50" s="14"/>
       <c r="I50" s="15"/>
     </row>
-    <row r="51" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="10">
         <v>6</v>
       </c>
@@ -5327,7 +5328,7 @@
       <c r="H51" s="14"/>
       <c r="I51" s="15"/>
     </row>
-    <row r="52" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="10">
         <v>6</v>
       </c>
@@ -5344,7 +5345,7 @@
       <c r="H52" s="14"/>
       <c r="I52" s="3"/>
     </row>
-    <row r="53" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" s="10">
         <v>6</v>
       </c>
@@ -5361,7 +5362,7 @@
       <c r="H53" s="14"/>
       <c r="I53" s="3"/>
     </row>
-    <row r="54" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="10">
         <v>6</v>
       </c>
@@ -5378,7 +5379,7 @@
       <c r="H54" s="14"/>
       <c r="I54" s="3"/>
     </row>
-    <row r="55" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A55" s="10">
         <v>6</v>
       </c>
@@ -5395,7 +5396,7 @@
       <c r="H55" s="14"/>
       <c r="I55" s="3"/>
     </row>
-    <row r="56" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A56" s="9"/>
       <c r="C56" s="9"/>
       <c r="D56" s="4"/>
@@ -5405,30 +5406,30 @@
       <c r="H56" s="14"/>
       <c r="I56" s="5"/>
     </row>
-    <row r="57" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A57" s="67" t="s">
         <v>15</v>
       </c>
       <c r="B57" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C57" s="69">
+      <c r="C57" s="73">
         <f>SUM(F50:F56)</f>
         <v>0</v>
       </c>
-      <c r="D57" s="69"/>
-      <c r="E57" s="69"/>
-      <c r="F57" s="70"/>
+      <c r="D57" s="73"/>
+      <c r="E57" s="73"/>
+      <c r="F57" s="74"/>
       <c r="G57" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H57" s="69">
+      <c r="H57" s="73">
         <f>SUM(G50:G56)</f>
         <v>0</v>
       </c>
-      <c r="I57" s="70"/>
-    </row>
-    <row r="58" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I57" s="74"/>
+    </row>
+    <row r="58" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A58" s="24" t="s">
         <v>1</v>
       </c>
@@ -5457,7 +5458,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A59" s="10">
         <v>7</v>
       </c>
@@ -5474,7 +5475,7 @@
       <c r="H59" s="14"/>
       <c r="I59" s="15"/>
     </row>
-    <row r="60" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A60" s="10">
         <v>7</v>
       </c>
@@ -5491,7 +5492,7 @@
       <c r="H60" s="14"/>
       <c r="I60" s="15"/>
     </row>
-    <row r="61" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A61" s="10">
         <v>7</v>
       </c>
@@ -5508,7 +5509,7 @@
       <c r="H61" s="14"/>
       <c r="I61" s="3"/>
     </row>
-    <row r="62" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A62" s="10">
         <v>7</v>
       </c>
@@ -5525,7 +5526,7 @@
       <c r="H62" s="14"/>
       <c r="I62" s="3"/>
     </row>
-    <row r="63" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A63" s="10">
         <v>7</v>
       </c>
@@ -5542,7 +5543,7 @@
       <c r="H63" s="14"/>
       <c r="I63" s="3"/>
     </row>
-    <row r="64" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A64" s="10">
         <v>7</v>
       </c>
@@ -5559,7 +5560,7 @@
       <c r="H64" s="14"/>
       <c r="I64" s="3"/>
     </row>
-    <row r="65" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A65" s="9"/>
       <c r="C65" s="9"/>
       <c r="D65" s="4"/>
@@ -5569,31 +5570,37 @@
       <c r="H65" s="14"/>
       <c r="I65" s="5"/>
     </row>
-    <row r="66" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A66" s="67" t="s">
         <v>15</v>
       </c>
       <c r="B66" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C66" s="69">
+      <c r="C66" s="73">
         <f>SUM(F59:F65)</f>
         <v>0</v>
       </c>
-      <c r="D66" s="69"/>
-      <c r="E66" s="69"/>
-      <c r="F66" s="70"/>
+      <c r="D66" s="73"/>
+      <c r="E66" s="73"/>
+      <c r="F66" s="74"/>
       <c r="G66" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H66" s="69">
+      <c r="H66" s="73">
         <f>SUM(G59:G65)</f>
         <v>0</v>
       </c>
-      <c r="I66" s="70"/>
+      <c r="I66" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="C66:F66"/>
+    <mergeCell ref="H66:I66"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="H20:I20"/>
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="C48:F48"/>
     <mergeCell ref="H48:I48"/>
@@ -5603,12 +5610,6 @@
     <mergeCell ref="H30:I30"/>
     <mergeCell ref="C39:F39"/>
     <mergeCell ref="H39:I39"/>
-    <mergeCell ref="C66:F66"/>
-    <mergeCell ref="H66:I66"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="H20:I20"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <dataValidations count="6">
@@ -5641,24 +5642,24 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:I56"/>
+  <dimension ref="A1:I65"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="D62" sqref="D62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="57.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="49.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="57.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="49.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>65</v>
       </c>
@@ -5673,20 +5674,20 @@
       <c r="H1" s="21"/>
       <c r="I1" s="22"/>
     </row>
-    <row r="2" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="71" t="s">
+    <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="72"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="73"/>
-      <c r="I2" s="74"/>
-    </row>
-    <row r="3" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="70"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="72"/>
+    </row>
+    <row r="3" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="24" t="s">
         <v>1</v>
       </c>
@@ -5715,7 +5716,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
         <v>1</v>
       </c>
@@ -5740,7 +5741,7 @@
       </c>
       <c r="I4" s="15"/>
     </row>
-    <row r="5" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
         <v>1</v>
       </c>
@@ -5767,7 +5768,7 @@
       </c>
       <c r="I5" s="15"/>
     </row>
-    <row r="6" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -5794,7 +5795,7 @@
       </c>
       <c r="I6" s="3"/>
     </row>
-    <row r="7" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -5821,7 +5822,7 @@
       </c>
       <c r="I7" s="3"/>
     </row>
-    <row r="8" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1</v>
       </c>
@@ -5846,7 +5847,7 @@
       </c>
       <c r="I8" s="3"/>
     </row>
-    <row r="9" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>1</v>
       </c>
@@ -5873,7 +5874,7 @@
       </c>
       <c r="I9" s="3"/>
     </row>
-    <row r="10" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="9"/>
       <c r="B10" s="11"/>
       <c r="C10" s="9"/>
@@ -5884,7 +5885,7 @@
       <c r="H10" s="14"/>
       <c r="I10" s="5"/>
     </row>
-    <row r="11" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="67" t="s">
         <v>15</v>
       </c>
@@ -5895,19 +5896,19 @@
         <f>SUM(F4:F10)</f>
         <v>26</v>
       </c>
-      <c r="D11" s="69"/>
-      <c r="E11" s="69"/>
-      <c r="F11" s="70"/>
+      <c r="D11" s="73"/>
+      <c r="E11" s="73"/>
+      <c r="F11" s="74"/>
       <c r="G11" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="69">
+      <c r="H11" s="73">
         <f>SUM(G4:G10)</f>
         <v>26</v>
       </c>
-      <c r="I11" s="70"/>
-    </row>
-    <row r="12" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I11" s="74"/>
+    </row>
+    <row r="12" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="24" t="s">
         <v>1</v>
       </c>
@@ -5936,7 +5937,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="10">
         <v>2</v>
       </c>
@@ -5965,7 +5966,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
         <v>2</v>
       </c>
@@ -5992,7 +5993,7 @@
       </c>
       <c r="I14" s="15"/>
     </row>
-    <row r="15" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="10">
         <v>2</v>
       </c>
@@ -6017,7 +6018,7 @@
       </c>
       <c r="I15" s="3"/>
     </row>
-    <row r="16" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="10">
         <v>2</v>
       </c>
@@ -6046,7 +6047,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="10">
         <v>2</v>
       </c>
@@ -6073,7 +6074,7 @@
       </c>
       <c r="I17" s="3"/>
     </row>
-    <row r="18" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="10">
         <v>2</v>
       </c>
@@ -6087,7 +6088,7 @@
         <v>82</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="F18" s="7">
         <v>5</v>
@@ -6100,7 +6101,7 @@
       </c>
       <c r="I18" s="3"/>
     </row>
-    <row r="19" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="9"/>
       <c r="B19" s="11"/>
       <c r="C19" s="9"/>
@@ -6111,30 +6112,30 @@
       <c r="H19" s="14"/>
       <c r="I19" s="5"/>
     </row>
-    <row r="20" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="67" t="s">
         <v>15</v>
       </c>
       <c r="B20" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="69">
+      <c r="C20" s="73">
         <f>SUM(F13:F19)</f>
         <v>30</v>
       </c>
-      <c r="D20" s="69"/>
-      <c r="E20" s="69"/>
-      <c r="F20" s="70"/>
+      <c r="D20" s="73"/>
+      <c r="E20" s="73"/>
+      <c r="F20" s="74"/>
       <c r="G20" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H20" s="69">
+      <c r="H20" s="73">
         <f>SUM(G13:G19)</f>
         <v>30</v>
       </c>
-      <c r="I20" s="70"/>
-    </row>
-    <row r="21" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I20" s="74"/>
+    </row>
+    <row r="21" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="24" t="s">
         <v>1</v>
       </c>
@@ -6163,7 +6164,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="10">
         <v>3</v>
       </c>
@@ -6172,13 +6173,15 @@
       </c>
       <c r="C22" s="25"/>
       <c r="D22" s="13"/>
-      <c r="E22" s="18"/>
+      <c r="E22" s="18">
+        <v>43766</v>
+      </c>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
       <c r="H22" s="14"/>
       <c r="I22" s="15"/>
     </row>
-    <row r="23" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="10">
         <v>3</v>
       </c>
@@ -6187,13 +6190,15 @@
       </c>
       <c r="C23" s="25"/>
       <c r="D23" s="13"/>
-      <c r="E23" s="19"/>
+      <c r="E23" s="18">
+        <v>43767</v>
+      </c>
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
       <c r="H23" s="14"/>
       <c r="I23" s="15"/>
     </row>
-    <row r="24" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="10">
         <v>3</v>
       </c>
@@ -6202,13 +6207,15 @@
       </c>
       <c r="C24" s="25"/>
       <c r="D24" s="2"/>
-      <c r="E24" s="17"/>
+      <c r="E24" s="18">
+        <v>43768</v>
+      </c>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c r="H24" s="14"/>
       <c r="I24" s="3"/>
     </row>
-    <row r="25" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="10">
         <v>3</v>
       </c>
@@ -6217,13 +6224,15 @@
       </c>
       <c r="C25" s="25"/>
       <c r="D25" s="2"/>
-      <c r="E25" s="19"/>
+      <c r="E25" s="18">
+        <v>43769</v>
+      </c>
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c r="H25" s="14"/>
       <c r="I25" s="3"/>
     </row>
-    <row r="26" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="10">
         <v>3</v>
       </c>
@@ -6232,13 +6241,15 @@
       </c>
       <c r="C26" s="25"/>
       <c r="D26" s="2"/>
-      <c r="E26" s="16"/>
+      <c r="E26" s="18">
+        <v>43770</v>
+      </c>
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c r="H26" s="14"/>
       <c r="I26" s="3"/>
     </row>
-    <row r="27" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="10">
         <v>3</v>
       </c>
@@ -6247,47 +6258,51 @@
       </c>
       <c r="C27" s="25"/>
       <c r="D27" s="2"/>
-      <c r="E27" s="16"/>
+      <c r="E27" s="18">
+        <v>43771</v>
+      </c>
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c r="H27" s="14"/>
       <c r="I27" s="3"/>
     </row>
-    <row r="28" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="9"/>
       <c r="B28" s="12"/>
       <c r="C28" s="9"/>
       <c r="D28" s="4"/>
-      <c r="E28" s="16"/>
+      <c r="E28" s="18">
+        <v>43772</v>
+      </c>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c r="H28" s="14"/>
       <c r="I28" s="5"/>
     </row>
-    <row r="29" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="67" t="s">
         <v>15</v>
       </c>
       <c r="B29" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="69">
+      <c r="C29" s="73">
         <f>SUM(F22:F28)</f>
         <v>0</v>
       </c>
-      <c r="D29" s="69"/>
-      <c r="E29" s="69"/>
-      <c r="F29" s="70"/>
+      <c r="D29" s="73"/>
+      <c r="E29" s="73"/>
+      <c r="F29" s="74"/>
       <c r="G29" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H29" s="69">
+      <c r="H29" s="73">
         <f>SUM(G22:G28)</f>
         <v>0</v>
       </c>
-      <c r="I29" s="70"/>
-    </row>
-    <row r="30" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I29" s="74"/>
+    </row>
+    <row r="30" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="24" t="s">
         <v>1</v>
       </c>
@@ -6316,7 +6331,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="10">
         <v>4</v>
       </c>
@@ -6325,13 +6340,15 @@
       </c>
       <c r="C31" s="25"/>
       <c r="D31" s="13"/>
-      <c r="E31" s="18"/>
+      <c r="E31" s="18">
+        <v>43773</v>
+      </c>
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
       <c r="H31" s="14"/>
       <c r="I31" s="15"/>
     </row>
-    <row r="32" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="10">
         <v>4</v>
       </c>
@@ -6340,13 +6357,15 @@
       </c>
       <c r="C32" s="25"/>
       <c r="D32" s="13"/>
-      <c r="E32" s="19"/>
+      <c r="E32" s="18">
+        <v>43774</v>
+      </c>
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
       <c r="H32" s="14"/>
       <c r="I32" s="15"/>
     </row>
-    <row r="33" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="10">
         <v>4</v>
       </c>
@@ -6355,13 +6374,15 @@
       </c>
       <c r="C33" s="25"/>
       <c r="D33" s="2"/>
-      <c r="E33" s="17"/>
+      <c r="E33" s="18">
+        <v>43775</v>
+      </c>
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c r="H33" s="14"/>
       <c r="I33" s="3"/>
     </row>
-    <row r="34" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="10">
         <v>4</v>
       </c>
@@ -6370,13 +6391,15 @@
       </c>
       <c r="C34" s="25"/>
       <c r="D34" s="2"/>
-      <c r="E34" s="19"/>
+      <c r="E34" s="18">
+        <v>43776</v>
+      </c>
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c r="H34" s="14"/>
       <c r="I34" s="3"/>
     </row>
-    <row r="35" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="10">
         <v>4</v>
       </c>
@@ -6385,13 +6408,15 @@
       </c>
       <c r="C35" s="25"/>
       <c r="D35" s="2"/>
-      <c r="E35" s="16"/>
+      <c r="E35" s="18">
+        <v>43777</v>
+      </c>
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c r="H35" s="14"/>
       <c r="I35" s="3"/>
     </row>
-    <row r="36" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="10">
         <v>4</v>
       </c>
@@ -6400,47 +6425,51 @@
       </c>
       <c r="C36" s="25"/>
       <c r="D36" s="2"/>
-      <c r="E36" s="16"/>
+      <c r="E36" s="18">
+        <v>43778</v>
+      </c>
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c r="H36" s="14"/>
       <c r="I36" s="3"/>
     </row>
-    <row r="37" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="9"/>
       <c r="B37" s="12"/>
       <c r="C37" s="9"/>
       <c r="D37" s="4"/>
-      <c r="E37" s="16"/>
+      <c r="E37" s="18">
+        <v>43779</v>
+      </c>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c r="H37" s="14"/>
       <c r="I37" s="5"/>
     </row>
-    <row r="38" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="67" t="s">
         <v>15</v>
       </c>
       <c r="B38" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C38" s="69">
+      <c r="C38" s="73">
         <f>SUM(F31:F37)</f>
         <v>0</v>
       </c>
-      <c r="D38" s="69"/>
-      <c r="E38" s="69"/>
-      <c r="F38" s="70"/>
+      <c r="D38" s="73"/>
+      <c r="E38" s="73"/>
+      <c r="F38" s="74"/>
       <c r="G38" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H38" s="69">
+      <c r="H38" s="73">
         <f>SUM(G31:G37)</f>
         <v>0</v>
       </c>
-      <c r="I38" s="70"/>
-    </row>
-    <row r="39" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I38" s="74"/>
+    </row>
+    <row r="39" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="24" t="s">
         <v>1</v>
       </c>
@@ -6469,7 +6498,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="10">
         <v>5</v>
       </c>
@@ -6478,13 +6507,15 @@
       </c>
       <c r="C40" s="25"/>
       <c r="D40" s="13"/>
-      <c r="E40" s="18"/>
+      <c r="E40" s="18">
+        <v>43780</v>
+      </c>
       <c r="F40" s="6"/>
       <c r="G40" s="6"/>
       <c r="H40" s="14"/>
       <c r="I40" s="15"/>
     </row>
-    <row r="41" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="10">
         <v>5</v>
       </c>
@@ -6493,13 +6524,15 @@
       </c>
       <c r="C41" s="25"/>
       <c r="D41" s="13"/>
-      <c r="E41" s="19"/>
+      <c r="E41" s="18">
+        <v>43781</v>
+      </c>
       <c r="F41" s="6"/>
       <c r="G41" s="6"/>
       <c r="H41" s="14"/>
       <c r="I41" s="15"/>
     </row>
-    <row r="42" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="10">
         <v>5</v>
       </c>
@@ -6508,13 +6541,15 @@
       </c>
       <c r="C42" s="25"/>
       <c r="D42" s="2"/>
-      <c r="E42" s="17"/>
+      <c r="E42" s="18">
+        <v>43782</v>
+      </c>
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c r="H42" s="14"/>
       <c r="I42" s="3"/>
     </row>
-    <row r="43" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="10">
         <v>5</v>
       </c>
@@ -6523,13 +6558,15 @@
       </c>
       <c r="C43" s="25"/>
       <c r="D43" s="2"/>
-      <c r="E43" s="19"/>
+      <c r="E43" s="18">
+        <v>43783</v>
+      </c>
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c r="H43" s="14"/>
       <c r="I43" s="3"/>
     </row>
-    <row r="44" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="10">
         <v>5</v>
       </c>
@@ -6538,13 +6575,15 @@
       </c>
       <c r="C44" s="25"/>
       <c r="D44" s="2"/>
-      <c r="E44" s="16"/>
+      <c r="E44" s="18">
+        <v>43784</v>
+      </c>
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c r="H44" s="14"/>
       <c r="I44" s="3"/>
     </row>
-    <row r="45" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="10">
         <v>5</v>
       </c>
@@ -6553,47 +6592,51 @@
       </c>
       <c r="C45" s="25"/>
       <c r="D45" s="2"/>
-      <c r="E45" s="16"/>
+      <c r="E45" s="18">
+        <v>43785</v>
+      </c>
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
       <c r="H45" s="14"/>
       <c r="I45" s="3"/>
     </row>
-    <row r="46" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="9"/>
       <c r="B46" s="12"/>
       <c r="C46" s="9"/>
       <c r="D46" s="4"/>
-      <c r="E46" s="16"/>
+      <c r="E46" s="18">
+        <v>43786</v>
+      </c>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c r="H46" s="14"/>
       <c r="I46" s="5"/>
     </row>
-    <row r="47" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="67" t="s">
         <v>15</v>
       </c>
       <c r="B47" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C47" s="69">
+      <c r="C47" s="73">
         <f>SUM(F40:F46)</f>
         <v>0</v>
       </c>
-      <c r="D47" s="69"/>
-      <c r="E47" s="69"/>
-      <c r="F47" s="70"/>
+      <c r="D47" s="73"/>
+      <c r="E47" s="73"/>
+      <c r="F47" s="74"/>
       <c r="G47" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H47" s="69">
+      <c r="H47" s="73">
         <f>SUM(G40:G46)</f>
         <v>0</v>
       </c>
-      <c r="I47" s="70"/>
-    </row>
-    <row r="48" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I47" s="74"/>
+    </row>
+    <row r="48" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="24" t="s">
         <v>1</v>
       </c>
@@ -6622,7 +6665,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="10">
         <v>6</v>
       </c>
@@ -6631,13 +6674,15 @@
       </c>
       <c r="C49" s="25"/>
       <c r="D49" s="13"/>
-      <c r="E49" s="18"/>
+      <c r="E49" s="18">
+        <v>43787</v>
+      </c>
       <c r="F49" s="6"/>
       <c r="G49" s="6"/>
       <c r="H49" s="14"/>
       <c r="I49" s="15"/>
     </row>
-    <row r="50" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="10">
         <v>6</v>
       </c>
@@ -6646,13 +6691,15 @@
       </c>
       <c r="C50" s="25"/>
       <c r="D50" s="13"/>
-      <c r="E50" s="19"/>
+      <c r="E50" s="18">
+        <v>43788</v>
+      </c>
       <c r="F50" s="6"/>
       <c r="G50" s="6"/>
       <c r="H50" s="14"/>
       <c r="I50" s="15"/>
     </row>
-    <row r="51" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="10">
         <v>6</v>
       </c>
@@ -6661,13 +6708,15 @@
       </c>
       <c r="C51" s="25"/>
       <c r="D51" s="2"/>
-      <c r="E51" s="17"/>
+      <c r="E51" s="18">
+        <v>43789</v>
+      </c>
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
       <c r="H51" s="14"/>
       <c r="I51" s="3"/>
     </row>
-    <row r="52" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="10">
         <v>6</v>
       </c>
@@ -6676,13 +6725,15 @@
       </c>
       <c r="C52" s="25"/>
       <c r="D52" s="2"/>
-      <c r="E52" s="19"/>
+      <c r="E52" s="18">
+        <v>43790</v>
+      </c>
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
       <c r="H52" s="14"/>
       <c r="I52" s="3"/>
     </row>
-    <row r="53" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="10">
         <v>6</v>
       </c>
@@ -6691,13 +6742,15 @@
       </c>
       <c r="C53" s="25"/>
       <c r="D53" s="2"/>
-      <c r="E53" s="16"/>
+      <c r="E53" s="18">
+        <v>43791</v>
+      </c>
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
       <c r="H53" s="14"/>
       <c r="I53" s="3"/>
     </row>
-    <row r="54" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="10">
         <v>6</v>
       </c>
@@ -6706,54 +6759,225 @@
       </c>
       <c r="C54" s="25"/>
       <c r="D54" s="2"/>
-      <c r="E54" s="16"/>
+      <c r="E54" s="18">
+        <v>43792</v>
+      </c>
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
       <c r="H54" s="14"/>
       <c r="I54" s="3"/>
     </row>
-    <row r="55" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="9"/>
       <c r="B55" s="12"/>
       <c r="C55" s="9"/>
       <c r="D55" s="4"/>
-      <c r="E55" s="16"/>
+      <c r="E55" s="18">
+        <v>43793</v>
+      </c>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c r="H55" s="14"/>
       <c r="I55" s="5"/>
     </row>
-    <row r="56" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="67" t="s">
         <v>15</v>
       </c>
       <c r="B56" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C56" s="69">
+      <c r="C56" s="73">
         <f>SUM(F49:F55)</f>
         <v>0</v>
       </c>
-      <c r="D56" s="69"/>
-      <c r="E56" s="69"/>
-      <c r="F56" s="70"/>
+      <c r="D56" s="73"/>
+      <c r="E56" s="73"/>
+      <c r="F56" s="74"/>
       <c r="G56" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H56" s="69">
+      <c r="H56" s="73">
         <f>SUM(G49:G55)</f>
         <v>0</v>
       </c>
-      <c r="I56" s="70"/>
+      <c r="I56" s="74"/>
+    </row>
+    <row r="57" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="B57" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="C57" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="D57" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E57" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="F57" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="G57" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="H57" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I57" s="24" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="10">
+        <v>7</v>
+      </c>
+      <c r="B58" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C58" s="25"/>
+      <c r="D58" s="13"/>
+      <c r="E58" s="18">
+        <v>43794</v>
+      </c>
+      <c r="F58" s="6"/>
+      <c r="G58" s="6"/>
+      <c r="H58" s="14"/>
+      <c r="I58" s="15"/>
+    </row>
+    <row r="59" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="10">
+        <v>7</v>
+      </c>
+      <c r="B59" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C59" s="25"/>
+      <c r="D59" s="13"/>
+      <c r="E59" s="18">
+        <v>43795</v>
+      </c>
+      <c r="F59" s="6"/>
+      <c r="G59" s="6"/>
+      <c r="H59" s="14"/>
+      <c r="I59" s="15"/>
+    </row>
+    <row r="60" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="10">
+        <v>7</v>
+      </c>
+      <c r="B60" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C60" s="25"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="18">
+        <v>43796</v>
+      </c>
+      <c r="F60" s="7"/>
+      <c r="G60" s="7"/>
+      <c r="H60" s="14"/>
+      <c r="I60" s="3"/>
+    </row>
+    <row r="61" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="10">
+        <v>7</v>
+      </c>
+      <c r="B61" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C61" s="25"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="18">
+        <v>43797</v>
+      </c>
+      <c r="F61" s="7"/>
+      <c r="G61" s="7"/>
+      <c r="H61" s="14"/>
+      <c r="I61" s="3"/>
+    </row>
+    <row r="62" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="10">
+        <v>7</v>
+      </c>
+      <c r="B62" s="68" t="s">
+        <v>13</v>
+      </c>
+      <c r="C62" s="25"/>
+      <c r="D62" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E62" s="18">
+        <v>43798</v>
+      </c>
+      <c r="F62" s="7">
+        <v>6</v>
+      </c>
+      <c r="G62" s="7"/>
+      <c r="H62" s="14"/>
+      <c r="I62" s="3"/>
+    </row>
+    <row r="63" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="10">
+        <v>7</v>
+      </c>
+      <c r="B63" s="68" t="s">
+        <v>14</v>
+      </c>
+      <c r="C63" s="25"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="18">
+        <v>43799</v>
+      </c>
+      <c r="F63" s="7"/>
+      <c r="G63" s="7"/>
+      <c r="H63" s="14"/>
+      <c r="I63" s="3"/>
+    </row>
+    <row r="64" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="9"/>
+      <c r="B64" s="12"/>
+      <c r="C64" s="9"/>
+      <c r="D64" s="4"/>
+      <c r="E64" s="18">
+        <v>43800</v>
+      </c>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c r="H64" s="14"/>
+      <c r="I64" s="5"/>
+    </row>
+    <row r="65" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="67" t="s">
+        <v>15</v>
+      </c>
+      <c r="B65" s="67" t="s">
+        <v>16</v>
+      </c>
+      <c r="C65" s="73">
+        <f>SUM(F58:F64)</f>
+        <v>6</v>
+      </c>
+      <c r="D65" s="73"/>
+      <c r="E65" s="73"/>
+      <c r="F65" s="74"/>
+      <c r="G65" s="66" t="s">
+        <v>17</v>
+      </c>
+      <c r="H65" s="73">
+        <f>SUM(G58:G64)</f>
+        <v>0</v>
+      </c>
+      <c r="I65" s="74"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="C38:F38"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="C47:F47"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="C56:F56"/>
-    <mergeCell ref="H56:I56"/>
+  <mergeCells count="15">
+    <mergeCell ref="C65:F65"/>
+    <mergeCell ref="H65:I65"/>
     <mergeCell ref="C29:F29"/>
     <mergeCell ref="H29:I29"/>
     <mergeCell ref="A2:I2"/>
@@ -6761,22 +6985,29 @@
     <mergeCell ref="H11:I11"/>
     <mergeCell ref="C20:F20"/>
     <mergeCell ref="H20:I20"/>
+    <mergeCell ref="C38:F38"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="C47:F47"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="C56:F56"/>
+    <mergeCell ref="H56:I56"/>
   </mergeCells>
+  <phoneticPr fontId="8" type="noConversion"/>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10 C19 C28 C37 C46 C55" xr:uid="{00000000-0002-0000-0300-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10 C19 C28 C37 C46 C55 C64" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>"Project Management, Requirement, Architecture and Desgin, Implementation, Testing, Training, Meetting Customer, Meetting Mentor"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C9 C13:C18 C22:C27 C31:C36 C40:C45 C49:C54" xr:uid="{00000000-0002-0000-0300-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C9 C13:C18 C22:C27 C31:C36 C40:C45 C49:C54 C58:C63" xr:uid="{00000000-0002-0000-0300-000001000000}">
       <formula1>"Project Management, Requirement, Architecture and Desgin, Implementation, Testing, Training, Meetting Customer, Meeting Mentor"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:H10 H13:H19 H22:H28 H31:H37 H40:H46 H49:H55" xr:uid="{00000000-0002-0000-0300-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:H10 H13:H19 H22:H28 H31:H37 H40:H46 H49:H55 H58:H64" xr:uid="{00000000-0002-0000-0300-000002000000}">
       <formula1>"Done,Inprogress "</formula1>
     </dataValidation>
     <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3 B12" xr:uid="{00000000-0002-0000-0300-000003000000}">
       <formula1>B4</formula1>
       <formula2>B10</formula2>
     </dataValidation>
-    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B30 B39 B48" xr:uid="{63606E3A-7A63-44DB-901A-5C116B0EEC91}">
+    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B30 B39 B48 B57" xr:uid="{63606E3A-7A63-44DB-901A-5C116B0EEC91}">
       <formula1>#REF!</formula1>
       <formula2>B35</formula2>
     </dataValidation>
@@ -6793,22 +7024,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4F2588E-374C-4DBD-95A9-14304F022B88}">
   <dimension ref="A1:I56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.88671875" customWidth="1"/>
-    <col min="9" max="9" width="11.88671875" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>65</v>
       </c>
@@ -6821,20 +7052,20 @@
       <c r="H1" s="21"/>
       <c r="I1" s="22"/>
     </row>
-    <row r="2" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="71" t="s">
+    <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="72"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="73"/>
-      <c r="I2" s="74"/>
-    </row>
-    <row r="3" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="70"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="72"/>
+    </row>
+    <row r="3" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="24" t="s">
         <v>1</v>
       </c>
@@ -6863,7 +7094,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
         <v>1</v>
       </c>
@@ -6888,7 +7119,7 @@
       </c>
       <c r="I4" s="15"/>
     </row>
-    <row r="5" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
         <v>1</v>
       </c>
@@ -6915,7 +7146,7 @@
       </c>
       <c r="I5" s="15"/>
     </row>
-    <row r="6" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -6942,7 +7173,7 @@
       </c>
       <c r="I6" s="3"/>
     </row>
-    <row r="7" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -6969,7 +7200,7 @@
       </c>
       <c r="I7" s="3"/>
     </row>
-    <row r="8" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1</v>
       </c>
@@ -6994,7 +7225,7 @@
       </c>
       <c r="I8" s="3"/>
     </row>
-    <row r="9" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>1</v>
       </c>
@@ -7019,7 +7250,7 @@
       </c>
       <c r="I9" s="3"/>
     </row>
-    <row r="10" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="9"/>
       <c r="B10" s="11"/>
       <c r="C10" s="9"/>
@@ -7030,7 +7261,7 @@
       <c r="H10" s="14"/>
       <c r="I10" s="5"/>
     </row>
-    <row r="11" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="67" t="s">
         <v>15</v>
       </c>
@@ -7053,7 +7284,7 @@
       </c>
       <c r="I11" s="77"/>
     </row>
-    <row r="12" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="24" t="s">
         <v>1</v>
       </c>
@@ -7082,7 +7313,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="10">
         <v>2</v>
       </c>
@@ -7109,7 +7340,7 @@
       </c>
       <c r="I13" s="15"/>
     </row>
-    <row r="14" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
         <v>2</v>
       </c>
@@ -7136,7 +7367,7 @@
       </c>
       <c r="I14" s="15"/>
     </row>
-    <row r="15" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="10">
         <v>2</v>
       </c>
@@ -7161,7 +7392,7 @@
       </c>
       <c r="I15" s="3"/>
     </row>
-    <row r="16" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="10">
         <v>2</v>
       </c>
@@ -7184,7 +7415,7 @@
       </c>
       <c r="I16" s="3"/>
     </row>
-    <row r="17" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="10">
         <v>2</v>
       </c>
@@ -7207,7 +7438,7 @@
       </c>
       <c r="I17" s="3"/>
     </row>
-    <row r="18" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="10">
         <v>2</v>
       </c>
@@ -7234,7 +7465,7 @@
       </c>
       <c r="I18" s="3"/>
     </row>
-    <row r="19" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="9"/>
       <c r="B19" s="11"/>
       <c r="C19" s="9"/>
@@ -7245,7 +7476,7 @@
       <c r="H19" s="14"/>
       <c r="I19" s="5"/>
     </row>
-    <row r="20" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="67" t="s">
         <v>15</v>
       </c>
@@ -7268,7 +7499,7 @@
       </c>
       <c r="I20" s="77"/>
     </row>
-    <row r="21" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="24" t="s">
         <v>1</v>
       </c>
@@ -7297,7 +7528,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="10">
         <v>3</v>
       </c>
@@ -7312,7 +7543,7 @@
       <c r="H22" s="14"/>
       <c r="I22" s="15"/>
     </row>
-    <row r="23" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="10">
         <v>3</v>
       </c>
@@ -7327,7 +7558,7 @@
       <c r="H23" s="14"/>
       <c r="I23" s="15"/>
     </row>
-    <row r="24" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="10">
         <v>3</v>
       </c>
@@ -7342,7 +7573,7 @@
       <c r="H24" s="14"/>
       <c r="I24" s="3"/>
     </row>
-    <row r="25" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="10">
         <v>3</v>
       </c>
@@ -7357,7 +7588,7 @@
       <c r="H25" s="14"/>
       <c r="I25" s="3"/>
     </row>
-    <row r="26" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="10">
         <v>3</v>
       </c>
@@ -7372,7 +7603,7 @@
       <c r="H26" s="14"/>
       <c r="I26" s="3"/>
     </row>
-    <row r="27" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="10">
         <v>3</v>
       </c>
@@ -7387,7 +7618,7 @@
       <c r="H27" s="14"/>
       <c r="I27" s="3"/>
     </row>
-    <row r="28" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="9"/>
       <c r="B28" s="12"/>
       <c r="C28" s="9"/>
@@ -7398,30 +7629,30 @@
       <c r="H28" s="14"/>
       <c r="I28" s="5"/>
     </row>
-    <row r="29" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="67" t="s">
         <v>15</v>
       </c>
       <c r="B29" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="69">
+      <c r="C29" s="73">
         <f>SUM(F22:F28)</f>
         <v>0</v>
       </c>
-      <c r="D29" s="69"/>
-      <c r="E29" s="69"/>
-      <c r="F29" s="70"/>
+      <c r="D29" s="73"/>
+      <c r="E29" s="73"/>
+      <c r="F29" s="74"/>
       <c r="G29" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H29" s="69">
+      <c r="H29" s="73">
         <f>SUM(G22:G28)</f>
         <v>0</v>
       </c>
-      <c r="I29" s="70"/>
-    </row>
-    <row r="30" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I29" s="74"/>
+    </row>
+    <row r="30" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="24" t="s">
         <v>1</v>
       </c>
@@ -7450,7 +7681,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="10">
         <v>4</v>
       </c>
@@ -7465,7 +7696,7 @@
       <c r="H31" s="14"/>
       <c r="I31" s="15"/>
     </row>
-    <row r="32" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="10">
         <v>4</v>
       </c>
@@ -7480,7 +7711,7 @@
       <c r="H32" s="14"/>
       <c r="I32" s="15"/>
     </row>
-    <row r="33" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="10">
         <v>4</v>
       </c>
@@ -7495,7 +7726,7 @@
       <c r="H33" s="14"/>
       <c r="I33" s="3"/>
     </row>
-    <row r="34" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="10">
         <v>4</v>
       </c>
@@ -7510,7 +7741,7 @@
       <c r="H34" s="14"/>
       <c r="I34" s="3"/>
     </row>
-    <row r="35" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="10">
         <v>4</v>
       </c>
@@ -7525,7 +7756,7 @@
       <c r="H35" s="14"/>
       <c r="I35" s="3"/>
     </row>
-    <row r="36" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="10">
         <v>4</v>
       </c>
@@ -7540,7 +7771,7 @@
       <c r="H36" s="14"/>
       <c r="I36" s="3"/>
     </row>
-    <row r="37" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="9"/>
       <c r="B37" s="12"/>
       <c r="C37" s="9"/>
@@ -7551,30 +7782,30 @@
       <c r="H37" s="14"/>
       <c r="I37" s="5"/>
     </row>
-    <row r="38" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="67" t="s">
         <v>15</v>
       </c>
       <c r="B38" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C38" s="69">
+      <c r="C38" s="73">
         <f>SUM(F31:F37)</f>
         <v>0</v>
       </c>
-      <c r="D38" s="69"/>
-      <c r="E38" s="69"/>
-      <c r="F38" s="70"/>
+      <c r="D38" s="73"/>
+      <c r="E38" s="73"/>
+      <c r="F38" s="74"/>
       <c r="G38" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H38" s="69">
+      <c r="H38" s="73">
         <f>SUM(G31:G37)</f>
         <v>0</v>
       </c>
-      <c r="I38" s="70"/>
-    </row>
-    <row r="39" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I38" s="74"/>
+    </row>
+    <row r="39" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="24" t="s">
         <v>1</v>
       </c>
@@ -7603,7 +7834,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="10">
         <v>5</v>
       </c>
@@ -7618,7 +7849,7 @@
       <c r="H40" s="14"/>
       <c r="I40" s="15"/>
     </row>
-    <row r="41" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="10">
         <v>5</v>
       </c>
@@ -7633,7 +7864,7 @@
       <c r="H41" s="14"/>
       <c r="I41" s="15"/>
     </row>
-    <row r="42" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="10">
         <v>5</v>
       </c>
@@ -7648,7 +7879,7 @@
       <c r="H42" s="14"/>
       <c r="I42" s="3"/>
     </row>
-    <row r="43" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="10">
         <v>5</v>
       </c>
@@ -7663,7 +7894,7 @@
       <c r="H43" s="14"/>
       <c r="I43" s="3"/>
     </row>
-    <row r="44" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="10">
         <v>5</v>
       </c>
@@ -7678,7 +7909,7 @@
       <c r="H44" s="14"/>
       <c r="I44" s="3"/>
     </row>
-    <row r="45" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="10">
         <v>5</v>
       </c>
@@ -7693,7 +7924,7 @@
       <c r="H45" s="14"/>
       <c r="I45" s="3"/>
     </row>
-    <row r="46" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="9"/>
       <c r="B46" s="12"/>
       <c r="C46" s="9"/>
@@ -7704,30 +7935,30 @@
       <c r="H46" s="14"/>
       <c r="I46" s="5"/>
     </row>
-    <row r="47" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="67" t="s">
         <v>15</v>
       </c>
       <c r="B47" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C47" s="69">
+      <c r="C47" s="73">
         <f>SUM(F40:F46)</f>
         <v>0</v>
       </c>
-      <c r="D47" s="69"/>
-      <c r="E47" s="69"/>
-      <c r="F47" s="70"/>
+      <c r="D47" s="73"/>
+      <c r="E47" s="73"/>
+      <c r="F47" s="74"/>
       <c r="G47" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H47" s="69">
+      <c r="H47" s="73">
         <f>SUM(G40:G46)</f>
         <v>0</v>
       </c>
-      <c r="I47" s="70"/>
-    </row>
-    <row r="48" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I47" s="74"/>
+    </row>
+    <row r="48" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="24" t="s">
         <v>1</v>
       </c>
@@ -7756,7 +7987,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="10">
         <v>6</v>
       </c>
@@ -7771,7 +8002,7 @@
       <c r="H49" s="14"/>
       <c r="I49" s="15"/>
     </row>
-    <row r="50" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="10">
         <v>6</v>
       </c>
@@ -7786,7 +8017,7 @@
       <c r="H50" s="14"/>
       <c r="I50" s="15"/>
     </row>
-    <row r="51" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="10">
         <v>6</v>
       </c>
@@ -7801,7 +8032,7 @@
       <c r="H51" s="14"/>
       <c r="I51" s="3"/>
     </row>
-    <row r="52" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="10">
         <v>6</v>
       </c>
@@ -7816,7 +8047,7 @@
       <c r="H52" s="14"/>
       <c r="I52" s="3"/>
     </row>
-    <row r="53" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="10">
         <v>6</v>
       </c>
@@ -7831,7 +8062,7 @@
       <c r="H53" s="14"/>
       <c r="I53" s="3"/>
     </row>
-    <row r="54" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="10">
         <v>6</v>
       </c>
@@ -7846,7 +8077,7 @@
       <c r="H54" s="14"/>
       <c r="I54" s="3"/>
     </row>
-    <row r="55" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="9"/>
       <c r="B55" s="12"/>
       <c r="C55" s="9"/>
@@ -7857,31 +8088,36 @@
       <c r="H55" s="14"/>
       <c r="I55" s="5"/>
     </row>
-    <row r="56" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="67" t="s">
         <v>15</v>
       </c>
       <c r="B56" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C56" s="69">
+      <c r="C56" s="73">
         <f>SUM(F49:F55)</f>
         <v>0</v>
       </c>
-      <c r="D56" s="69"/>
-      <c r="E56" s="69"/>
-      <c r="F56" s="70"/>
+      <c r="D56" s="73"/>
+      <c r="E56" s="73"/>
+      <c r="F56" s="74"/>
       <c r="G56" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H56" s="69">
+      <c r="H56" s="73">
         <f>SUM(G49:G55)</f>
         <v>0</v>
       </c>
-      <c r="I56" s="70"/>
+      <c r="I56" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="H20:I20"/>
     <mergeCell ref="C56:F56"/>
     <mergeCell ref="H56:I56"/>
     <mergeCell ref="C29:F29"/>
@@ -7890,11 +8126,6 @@
     <mergeCell ref="H38:I38"/>
     <mergeCell ref="C47:F47"/>
     <mergeCell ref="H47:I47"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="H20:I20"/>
   </mergeCells>
   <dataValidations count="6">
     <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3 B12" xr:uid="{6FFE7BB2-A561-485E-81E9-2571AC8DE5CA}">
@@ -7931,18 +8162,18 @@
       <selection activeCell="A21" sqref="A21:I56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>65</v>
       </c>
@@ -7955,20 +8186,20 @@
       <c r="H1" s="21"/>
       <c r="I1" s="22"/>
     </row>
-    <row r="2" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="71" t="s">
+    <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="72"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="73"/>
-      <c r="I2" s="74"/>
-    </row>
-    <row r="3" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="70"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="72"/>
+    </row>
+    <row r="3" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="24" t="s">
         <v>1</v>
       </c>
@@ -7997,7 +8228,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
         <v>1</v>
       </c>
@@ -8022,7 +8253,7 @@
       </c>
       <c r="I4" s="15"/>
     </row>
-    <row r="5" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
         <v>1</v>
       </c>
@@ -8049,7 +8280,7 @@
       </c>
       <c r="I5" s="15"/>
     </row>
-    <row r="6" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -8076,7 +8307,7 @@
       </c>
       <c r="I6" s="3"/>
     </row>
-    <row r="7" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -8103,7 +8334,7 @@
       </c>
       <c r="I7" s="3"/>
     </row>
-    <row r="8" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1</v>
       </c>
@@ -8128,7 +8359,7 @@
       </c>
       <c r="I8" s="3"/>
     </row>
-    <row r="9" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>1</v>
       </c>
@@ -8153,7 +8384,7 @@
       </c>
       <c r="I9" s="3"/>
     </row>
-    <row r="10" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="9"/>
       <c r="B10" s="11"/>
       <c r="C10" s="9"/>
@@ -8164,7 +8395,7 @@
       <c r="H10" s="14"/>
       <c r="I10" s="5"/>
     </row>
-    <row r="11" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="67" t="s">
         <v>15</v>
       </c>
@@ -8187,7 +8418,7 @@
       </c>
       <c r="I11" s="77"/>
     </row>
-    <row r="12" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="24" t="s">
         <v>1</v>
       </c>
@@ -8216,7 +8447,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="10">
         <v>2</v>
       </c>
@@ -8243,7 +8474,7 @@
       </c>
       <c r="I13" s="15"/>
     </row>
-    <row r="14" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
         <v>2</v>
       </c>
@@ -8270,7 +8501,7 @@
       </c>
       <c r="I14" s="15"/>
     </row>
-    <row r="15" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="10">
         <v>2</v>
       </c>
@@ -8295,7 +8526,7 @@
       </c>
       <c r="I15" s="3"/>
     </row>
-    <row r="16" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="10">
         <v>2</v>
       </c>
@@ -8322,7 +8553,7 @@
       </c>
       <c r="I16" s="3"/>
     </row>
-    <row r="17" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="10">
         <v>2</v>
       </c>
@@ -8349,7 +8580,7 @@
       </c>
       <c r="I17" s="3"/>
     </row>
-    <row r="18" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="10">
         <v>2</v>
       </c>
@@ -8376,7 +8607,7 @@
       </c>
       <c r="I18" s="3"/>
     </row>
-    <row r="19" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="9"/>
       <c r="B19" s="11"/>
       <c r="C19" s="9"/>
@@ -8387,7 +8618,7 @@
       <c r="H19" s="14"/>
       <c r="I19" s="5"/>
     </row>
-    <row r="20" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="67" t="s">
         <v>15</v>
       </c>
@@ -8410,7 +8641,7 @@
       </c>
       <c r="I20" s="77"/>
     </row>
-    <row r="21" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="24" t="s">
         <v>1</v>
       </c>
@@ -8439,7 +8670,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="10">
         <v>3</v>
       </c>
@@ -8454,7 +8685,7 @@
       <c r="H22" s="14"/>
       <c r="I22" s="15"/>
     </row>
-    <row r="23" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="10">
         <v>3</v>
       </c>
@@ -8469,7 +8700,7 @@
       <c r="H23" s="14"/>
       <c r="I23" s="15"/>
     </row>
-    <row r="24" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="10">
         <v>3</v>
       </c>
@@ -8484,7 +8715,7 @@
       <c r="H24" s="14"/>
       <c r="I24" s="3"/>
     </row>
-    <row r="25" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="10">
         <v>3</v>
       </c>
@@ -8499,7 +8730,7 @@
       <c r="H25" s="14"/>
       <c r="I25" s="3"/>
     </row>
-    <row r="26" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="10">
         <v>3</v>
       </c>
@@ -8514,7 +8745,7 @@
       <c r="H26" s="14"/>
       <c r="I26" s="3"/>
     </row>
-    <row r="27" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="10">
         <v>3</v>
       </c>
@@ -8529,7 +8760,7 @@
       <c r="H27" s="14"/>
       <c r="I27" s="3"/>
     </row>
-    <row r="28" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="9"/>
       <c r="B28" s="12"/>
       <c r="C28" s="9"/>
@@ -8540,30 +8771,30 @@
       <c r="H28" s="14"/>
       <c r="I28" s="5"/>
     </row>
-    <row r="29" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="67" t="s">
         <v>15</v>
       </c>
       <c r="B29" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="69">
+      <c r="C29" s="73">
         <f>SUM(F22:F28)</f>
         <v>0</v>
       </c>
-      <c r="D29" s="69"/>
-      <c r="E29" s="69"/>
-      <c r="F29" s="70"/>
+      <c r="D29" s="73"/>
+      <c r="E29" s="73"/>
+      <c r="F29" s="74"/>
       <c r="G29" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H29" s="69">
+      <c r="H29" s="73">
         <f>SUM(G22:G28)</f>
         <v>0</v>
       </c>
-      <c r="I29" s="70"/>
-    </row>
-    <row r="30" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I29" s="74"/>
+    </row>
+    <row r="30" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="24" t="s">
         <v>1</v>
       </c>
@@ -8592,7 +8823,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="10">
         <v>4</v>
       </c>
@@ -8607,7 +8838,7 @@
       <c r="H31" s="14"/>
       <c r="I31" s="15"/>
     </row>
-    <row r="32" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="10">
         <v>4</v>
       </c>
@@ -8622,7 +8853,7 @@
       <c r="H32" s="14"/>
       <c r="I32" s="15"/>
     </row>
-    <row r="33" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="10">
         <v>4</v>
       </c>
@@ -8637,7 +8868,7 @@
       <c r="H33" s="14"/>
       <c r="I33" s="3"/>
     </row>
-    <row r="34" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="10">
         <v>4</v>
       </c>
@@ -8652,7 +8883,7 @@
       <c r="H34" s="14"/>
       <c r="I34" s="3"/>
     </row>
-    <row r="35" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="10">
         <v>4</v>
       </c>
@@ -8667,7 +8898,7 @@
       <c r="H35" s="14"/>
       <c r="I35" s="3"/>
     </row>
-    <row r="36" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="10">
         <v>4</v>
       </c>
@@ -8682,7 +8913,7 @@
       <c r="H36" s="14"/>
       <c r="I36" s="3"/>
     </row>
-    <row r="37" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="9"/>
       <c r="B37" s="12"/>
       <c r="C37" s="9"/>
@@ -8693,30 +8924,30 @@
       <c r="H37" s="14"/>
       <c r="I37" s="5"/>
     </row>
-    <row r="38" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="67" t="s">
         <v>15</v>
       </c>
       <c r="B38" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C38" s="69">
+      <c r="C38" s="73">
         <f>SUM(F31:F37)</f>
         <v>0</v>
       </c>
-      <c r="D38" s="69"/>
-      <c r="E38" s="69"/>
-      <c r="F38" s="70"/>
+      <c r="D38" s="73"/>
+      <c r="E38" s="73"/>
+      <c r="F38" s="74"/>
       <c r="G38" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H38" s="69">
+      <c r="H38" s="73">
         <f>SUM(G31:G37)</f>
         <v>0</v>
       </c>
-      <c r="I38" s="70"/>
-    </row>
-    <row r="39" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I38" s="74"/>
+    </row>
+    <row r="39" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="24" t="s">
         <v>1</v>
       </c>
@@ -8745,7 +8976,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="10">
         <v>5</v>
       </c>
@@ -8760,7 +8991,7 @@
       <c r="H40" s="14"/>
       <c r="I40" s="15"/>
     </row>
-    <row r="41" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="10">
         <v>5</v>
       </c>
@@ -8775,7 +9006,7 @@
       <c r="H41" s="14"/>
       <c r="I41" s="15"/>
     </row>
-    <row r="42" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="10">
         <v>5</v>
       </c>
@@ -8790,7 +9021,7 @@
       <c r="H42" s="14"/>
       <c r="I42" s="3"/>
     </row>
-    <row r="43" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="10">
         <v>5</v>
       </c>
@@ -8805,7 +9036,7 @@
       <c r="H43" s="14"/>
       <c r="I43" s="3"/>
     </row>
-    <row r="44" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="10">
         <v>5</v>
       </c>
@@ -8820,7 +9051,7 @@
       <c r="H44" s="14"/>
       <c r="I44" s="3"/>
     </row>
-    <row r="45" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="10">
         <v>5</v>
       </c>
@@ -8835,7 +9066,7 @@
       <c r="H45" s="14"/>
       <c r="I45" s="3"/>
     </row>
-    <row r="46" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="9"/>
       <c r="B46" s="12"/>
       <c r="C46" s="9"/>
@@ -8846,30 +9077,30 @@
       <c r="H46" s="14"/>
       <c r="I46" s="5"/>
     </row>
-    <row r="47" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="67" t="s">
         <v>15</v>
       </c>
       <c r="B47" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C47" s="69">
+      <c r="C47" s="73">
         <f>SUM(F40:F46)</f>
         <v>0</v>
       </c>
-      <c r="D47" s="69"/>
-      <c r="E47" s="69"/>
-      <c r="F47" s="70"/>
+      <c r="D47" s="73"/>
+      <c r="E47" s="73"/>
+      <c r="F47" s="74"/>
       <c r="G47" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H47" s="69">
+      <c r="H47" s="73">
         <f>SUM(G40:G46)</f>
         <v>0</v>
       </c>
-      <c r="I47" s="70"/>
-    </row>
-    <row r="48" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I47" s="74"/>
+    </row>
+    <row r="48" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="24" t="s">
         <v>1</v>
       </c>
@@ -8898,7 +9129,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="10">
         <v>6</v>
       </c>
@@ -8913,7 +9144,7 @@
       <c r="H49" s="14"/>
       <c r="I49" s="15"/>
     </row>
-    <row r="50" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="10">
         <v>6</v>
       </c>
@@ -8928,7 +9159,7 @@
       <c r="H50" s="14"/>
       <c r="I50" s="15"/>
     </row>
-    <row r="51" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="10">
         <v>6</v>
       </c>
@@ -8943,7 +9174,7 @@
       <c r="H51" s="14"/>
       <c r="I51" s="3"/>
     </row>
-    <row r="52" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="10">
         <v>6</v>
       </c>
@@ -8958,7 +9189,7 @@
       <c r="H52" s="14"/>
       <c r="I52" s="3"/>
     </row>
-    <row r="53" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="10">
         <v>6</v>
       </c>
@@ -8973,7 +9204,7 @@
       <c r="H53" s="14"/>
       <c r="I53" s="3"/>
     </row>
-    <row r="54" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="10">
         <v>6</v>
       </c>
@@ -8988,7 +9219,7 @@
       <c r="H54" s="14"/>
       <c r="I54" s="3"/>
     </row>
-    <row r="55" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="9"/>
       <c r="B55" s="12"/>
       <c r="C55" s="9"/>
@@ -8999,31 +9230,36 @@
       <c r="H55" s="14"/>
       <c r="I55" s="5"/>
     </row>
-    <row r="56" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="67" t="s">
         <v>15</v>
       </c>
       <c r="B56" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C56" s="69">
+      <c r="C56" s="73">
         <f>SUM(F49:F55)</f>
         <v>0</v>
       </c>
-      <c r="D56" s="69"/>
-      <c r="E56" s="69"/>
-      <c r="F56" s="70"/>
+      <c r="D56" s="73"/>
+      <c r="E56" s="73"/>
+      <c r="F56" s="74"/>
       <c r="G56" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H56" s="69">
+      <c r="H56" s="73">
         <f>SUM(G49:G55)</f>
         <v>0</v>
       </c>
-      <c r="I56" s="70"/>
+      <c r="I56" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="H20:I20"/>
     <mergeCell ref="C56:F56"/>
     <mergeCell ref="H56:I56"/>
     <mergeCell ref="C29:F29"/>
@@ -9032,11 +9268,6 @@
     <mergeCell ref="H38:I38"/>
     <mergeCell ref="C47:F47"/>
     <mergeCell ref="H47:I47"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="H20:I20"/>
   </mergeCells>
   <dataValidations count="6">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10 C19 C28 C37 C46 C55" xr:uid="{49E4ABBA-BF99-4A08-9146-05B03FF61551}">
@@ -9074,17 +9305,17 @@
       <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.88671875" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>65</v>
       </c>
@@ -9097,20 +9328,20 @@
       <c r="H1" s="21"/>
       <c r="I1" s="22"/>
     </row>
-    <row r="2" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="71" t="s">
+    <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="72"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="73"/>
-      <c r="I2" s="74"/>
-    </row>
-    <row r="3" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="70"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="72"/>
+    </row>
+    <row r="3" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="24" t="s">
         <v>1</v>
       </c>
@@ -9139,7 +9370,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
         <v>1</v>
       </c>
@@ -9164,7 +9395,7 @@
       </c>
       <c r="I4" s="15"/>
     </row>
-    <row r="5" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
         <v>1</v>
       </c>
@@ -9191,7 +9422,7 @@
       </c>
       <c r="I5" s="15"/>
     </row>
-    <row r="6" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -9218,7 +9449,7 @@
       </c>
       <c r="I6" s="3"/>
     </row>
-    <row r="7" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -9245,7 +9476,7 @@
       </c>
       <c r="I7" s="3"/>
     </row>
-    <row r="8" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1</v>
       </c>
@@ -9270,7 +9501,7 @@
       </c>
       <c r="I8" s="3"/>
     </row>
-    <row r="9" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>1</v>
       </c>
@@ -9297,7 +9528,7 @@
       </c>
       <c r="I9" s="3"/>
     </row>
-    <row r="10" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="9"/>
       <c r="B10" s="11"/>
       <c r="C10" s="9"/>
@@ -9308,7 +9539,7 @@
       <c r="H10" s="14"/>
       <c r="I10" s="5"/>
     </row>
-    <row r="11" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="67" t="s">
         <v>15</v>
       </c>
@@ -9331,7 +9562,7 @@
       </c>
       <c r="I11" s="77"/>
     </row>
-    <row r="12" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="24" t="s">
         <v>1</v>
       </c>
@@ -9360,7 +9591,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="10">
         <v>2</v>
       </c>
@@ -9387,7 +9618,7 @@
       </c>
       <c r="I13" s="15"/>
     </row>
-    <row r="14" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
         <v>2</v>
       </c>
@@ -9414,7 +9645,7 @@
       </c>
       <c r="I14" s="15"/>
     </row>
-    <row r="15" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="10">
         <v>2</v>
       </c>
@@ -9439,7 +9670,7 @@
       </c>
       <c r="I15" s="3"/>
     </row>
-    <row r="16" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="10">
         <v>2</v>
       </c>
@@ -9466,7 +9697,7 @@
       </c>
       <c r="I16" s="3"/>
     </row>
-    <row r="17" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="10">
         <v>2</v>
       </c>
@@ -9493,7 +9724,7 @@
       </c>
       <c r="I17" s="3"/>
     </row>
-    <row r="18" spans="1:9" ht="30" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="10">
         <v>2</v>
       </c>
@@ -9520,7 +9751,7 @@
       </c>
       <c r="I18" s="3"/>
     </row>
-    <row r="19" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="9"/>
       <c r="B19" s="11"/>
       <c r="C19" s="9"/>
@@ -9531,7 +9762,7 @@
       <c r="H19" s="14"/>
       <c r="I19" s="5"/>
     </row>
-    <row r="20" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="67" t="s">
         <v>15</v>
       </c>
@@ -9554,7 +9785,7 @@
       </c>
       <c r="I20" s="77"/>
     </row>
-    <row r="21" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="24" t="s">
         <v>1</v>
       </c>
@@ -9583,7 +9814,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="10">
         <v>3</v>
       </c>
@@ -9598,7 +9829,7 @@
       <c r="H22" s="14"/>
       <c r="I22" s="15"/>
     </row>
-    <row r="23" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="10">
         <v>3</v>
       </c>
@@ -9613,7 +9844,7 @@
       <c r="H23" s="14"/>
       <c r="I23" s="15"/>
     </row>
-    <row r="24" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="10">
         <v>3</v>
       </c>
@@ -9628,7 +9859,7 @@
       <c r="H24" s="14"/>
       <c r="I24" s="3"/>
     </row>
-    <row r="25" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="10">
         <v>3</v>
       </c>
@@ -9643,7 +9874,7 @@
       <c r="H25" s="14"/>
       <c r="I25" s="3"/>
     </row>
-    <row r="26" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="10">
         <v>3</v>
       </c>
@@ -9658,7 +9889,7 @@
       <c r="H26" s="14"/>
       <c r="I26" s="3"/>
     </row>
-    <row r="27" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="10">
         <v>3</v>
       </c>
@@ -9673,7 +9904,7 @@
       <c r="H27" s="14"/>
       <c r="I27" s="3"/>
     </row>
-    <row r="28" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="9"/>
       <c r="B28" s="12"/>
       <c r="C28" s="9"/>
@@ -9684,30 +9915,30 @@
       <c r="H28" s="14"/>
       <c r="I28" s="5"/>
     </row>
-    <row r="29" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="67" t="s">
         <v>15</v>
       </c>
       <c r="B29" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="69">
+      <c r="C29" s="73">
         <f>SUM(F22:F28)</f>
         <v>0</v>
       </c>
-      <c r="D29" s="69"/>
-      <c r="E29" s="69"/>
-      <c r="F29" s="70"/>
+      <c r="D29" s="73"/>
+      <c r="E29" s="73"/>
+      <c r="F29" s="74"/>
       <c r="G29" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H29" s="69">
+      <c r="H29" s="73">
         <f>SUM(G22:G28)</f>
         <v>0</v>
       </c>
-      <c r="I29" s="70"/>
-    </row>
-    <row r="30" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I29" s="74"/>
+    </row>
+    <row r="30" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="24" t="s">
         <v>1</v>
       </c>
@@ -9736,7 +9967,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="10">
         <v>4</v>
       </c>
@@ -9751,7 +9982,7 @@
       <c r="H31" s="14"/>
       <c r="I31" s="15"/>
     </row>
-    <row r="32" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="10">
         <v>4</v>
       </c>
@@ -9766,7 +9997,7 @@
       <c r="H32" s="14"/>
       <c r="I32" s="15"/>
     </row>
-    <row r="33" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="10">
         <v>4</v>
       </c>
@@ -9781,7 +10012,7 @@
       <c r="H33" s="14"/>
       <c r="I33" s="3"/>
     </row>
-    <row r="34" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="10">
         <v>4</v>
       </c>
@@ -9796,7 +10027,7 @@
       <c r="H34" s="14"/>
       <c r="I34" s="3"/>
     </row>
-    <row r="35" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="10">
         <v>4</v>
       </c>
@@ -9811,7 +10042,7 @@
       <c r="H35" s="14"/>
       <c r="I35" s="3"/>
     </row>
-    <row r="36" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="10">
         <v>4</v>
       </c>
@@ -9826,7 +10057,7 @@
       <c r="H36" s="14"/>
       <c r="I36" s="3"/>
     </row>
-    <row r="37" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="9"/>
       <c r="B37" s="12"/>
       <c r="C37" s="9"/>
@@ -9837,30 +10068,30 @@
       <c r="H37" s="14"/>
       <c r="I37" s="5"/>
     </row>
-    <row r="38" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="67" t="s">
         <v>15</v>
       </c>
       <c r="B38" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C38" s="69">
+      <c r="C38" s="73">
         <f>SUM(F31:F37)</f>
         <v>0</v>
       </c>
-      <c r="D38" s="69"/>
-      <c r="E38" s="69"/>
-      <c r="F38" s="70"/>
+      <c r="D38" s="73"/>
+      <c r="E38" s="73"/>
+      <c r="F38" s="74"/>
       <c r="G38" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H38" s="69">
+      <c r="H38" s="73">
         <f>SUM(G31:G37)</f>
         <v>0</v>
       </c>
-      <c r="I38" s="70"/>
-    </row>
-    <row r="39" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I38" s="74"/>
+    </row>
+    <row r="39" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="24" t="s">
         <v>1</v>
       </c>
@@ -9889,7 +10120,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="10">
         <v>5</v>
       </c>
@@ -9904,7 +10135,7 @@
       <c r="H40" s="14"/>
       <c r="I40" s="15"/>
     </row>
-    <row r="41" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="10">
         <v>5</v>
       </c>
@@ -9919,7 +10150,7 @@
       <c r="H41" s="14"/>
       <c r="I41" s="15"/>
     </row>
-    <row r="42" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="10">
         <v>5</v>
       </c>
@@ -9934,7 +10165,7 @@
       <c r="H42" s="14"/>
       <c r="I42" s="3"/>
     </row>
-    <row r="43" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="10">
         <v>5</v>
       </c>
@@ -9949,7 +10180,7 @@
       <c r="H43" s="14"/>
       <c r="I43" s="3"/>
     </row>
-    <row r="44" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="10">
         <v>5</v>
       </c>
@@ -9964,7 +10195,7 @@
       <c r="H44" s="14"/>
       <c r="I44" s="3"/>
     </row>
-    <row r="45" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="10">
         <v>5</v>
       </c>
@@ -9979,7 +10210,7 @@
       <c r="H45" s="14"/>
       <c r="I45" s="3"/>
     </row>
-    <row r="46" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="9"/>
       <c r="B46" s="12"/>
       <c r="C46" s="9"/>
@@ -9990,30 +10221,30 @@
       <c r="H46" s="14"/>
       <c r="I46" s="5"/>
     </row>
-    <row r="47" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="67" t="s">
         <v>15</v>
       </c>
       <c r="B47" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C47" s="69">
+      <c r="C47" s="73">
         <f>SUM(F40:F46)</f>
         <v>0</v>
       </c>
-      <c r="D47" s="69"/>
-      <c r="E47" s="69"/>
-      <c r="F47" s="70"/>
+      <c r="D47" s="73"/>
+      <c r="E47" s="73"/>
+      <c r="F47" s="74"/>
       <c r="G47" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H47" s="69">
+      <c r="H47" s="73">
         <f>SUM(G40:G46)</f>
         <v>0</v>
       </c>
-      <c r="I47" s="70"/>
-    </row>
-    <row r="48" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I47" s="74"/>
+    </row>
+    <row r="48" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="24" t="s">
         <v>1</v>
       </c>
@@ -10042,7 +10273,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="10">
         <v>6</v>
       </c>
@@ -10057,7 +10288,7 @@
       <c r="H49" s="14"/>
       <c r="I49" s="15"/>
     </row>
-    <row r="50" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="10">
         <v>6</v>
       </c>
@@ -10072,7 +10303,7 @@
       <c r="H50" s="14"/>
       <c r="I50" s="15"/>
     </row>
-    <row r="51" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="10">
         <v>6</v>
       </c>
@@ -10087,7 +10318,7 @@
       <c r="H51" s="14"/>
       <c r="I51" s="3"/>
     </row>
-    <row r="52" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="10">
         <v>6</v>
       </c>
@@ -10102,7 +10333,7 @@
       <c r="H52" s="14"/>
       <c r="I52" s="3"/>
     </row>
-    <row r="53" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="10">
         <v>6</v>
       </c>
@@ -10117,7 +10348,7 @@
       <c r="H53" s="14"/>
       <c r="I53" s="3"/>
     </row>
-    <row r="54" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="10">
         <v>6</v>
       </c>
@@ -10132,7 +10363,7 @@
       <c r="H54" s="14"/>
       <c r="I54" s="3"/>
     </row>
-    <row r="55" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="9"/>
       <c r="B55" s="12"/>
       <c r="C55" s="9"/>
@@ -10143,31 +10374,36 @@
       <c r="H55" s="14"/>
       <c r="I55" s="5"/>
     </row>
-    <row r="56" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="67" t="s">
         <v>15</v>
       </c>
       <c r="B56" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C56" s="69">
+      <c r="C56" s="73">
         <f>SUM(F49:F55)</f>
         <v>0</v>
       </c>
-      <c r="D56" s="69"/>
-      <c r="E56" s="69"/>
-      <c r="F56" s="70"/>
+      <c r="D56" s="73"/>
+      <c r="E56" s="73"/>
+      <c r="F56" s="74"/>
       <c r="G56" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H56" s="69">
+      <c r="H56" s="73">
         <f>SUM(G49:G55)</f>
         <v>0</v>
       </c>
-      <c r="I56" s="70"/>
+      <c r="I56" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="H20:I20"/>
     <mergeCell ref="C56:F56"/>
     <mergeCell ref="H56:I56"/>
     <mergeCell ref="C29:F29"/>
@@ -10176,11 +10412,6 @@
     <mergeCell ref="H38:I38"/>
     <mergeCell ref="C47:F47"/>
     <mergeCell ref="H47:I47"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="H20:I20"/>
   </mergeCells>
   <dataValidations count="6">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10 C19 C28 C37 C46 C55" xr:uid="{6E08E741-C8C7-4210-9264-8F4FCE40EB21}">

--- a/Improgress/4. Timelog/PM_TimeLog.xlsx
+++ b/Improgress/4. Timelog/PM_TimeLog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\Capstone-Project\Improgress\4. Timelog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16770EF5-5418-4E4B-A448-21C535DD61A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C68C7452-55CC-4430-89D8-6B83C6933B69}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="911" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="998" uniqueCount="150">
   <si>
     <t>Work in period</t>
   </si>
@@ -394,6 +394,102 @@
   </si>
   <si>
     <t>Create tracebility metrix</t>
+  </si>
+  <si>
+    <t>Create Project plan v1.0, Install Android studio, Genymotion</t>
+  </si>
+  <si>
+    <t>Research Information React Native, Update Project plan v1.1</t>
+  </si>
+  <si>
+    <t>Meeting with Customer, Update Project plan v1.2</t>
+  </si>
+  <si>
+    <t>Install React Native</t>
+  </si>
+  <si>
+    <t>Update Project plan v1.3, Create project charter v1.0</t>
+  </si>
+  <si>
+    <t>Implementation</t>
+  </si>
+  <si>
+    <t>Sunday</t>
+  </si>
+  <si>
+    <t>PM_ProjectPlan_Ver1.1.docx</t>
+  </si>
+  <si>
+    <t>PM_ProjectPlan_Ver1.2.docx</t>
+  </si>
+  <si>
+    <t>PM_ProjectPlan_Ver1.3.docx</t>
+  </si>
+  <si>
+    <t>Create Question function v1.0, update project charter v1.0, update Milestone v1.0</t>
+  </si>
+  <si>
+    <t>Requirement</t>
+  </si>
+  <si>
+    <t>Create SRS v1.0, implement plan v1.0</t>
+  </si>
+  <si>
+    <t>PM_ProjectCharter_Ver1.0.docx, PM_Question_Ver1.0.xlxs, PM_Milestone_Ver1.0.xlxs</t>
+  </si>
+  <si>
+    <t>PM_SRS_Ver1.0.docx, PM_Implementplan_Ver1.0.docx</t>
+  </si>
+  <si>
+    <t>Review documents</t>
+  </si>
+  <si>
+    <t>Update implement process v1.1</t>
+  </si>
+  <si>
+    <t>Update detail design, training plan, RE plan</t>
+  </si>
+  <si>
+    <t>PM_Implementprocess_Ver1.0.docx</t>
+  </si>
+  <si>
+    <t>Create UC description RE (UC 25-36)</t>
+  </si>
+  <si>
+    <t>RE_UseCaseDescription_V1.0</t>
+  </si>
+  <si>
+    <t>Show UCDescription RE, Quality Attribute</t>
+  </si>
+  <si>
+    <t>Architecture and Desgin</t>
+  </si>
+  <si>
+    <t>Update Architecture Drive V1.0</t>
+  </si>
+  <si>
+    <t>PM_architecturedrive_V1.0</t>
+  </si>
+  <si>
+    <t>Create detail design (module login/logout admin &amp; website)</t>
+  </si>
+  <si>
+    <t>RE_Tracebilitymetrix_V1.0</t>
+  </si>
+  <si>
+    <t>Review ERD, datadictionary for RE</t>
+  </si>
+  <si>
+    <t>RE_SRS_V1.1</t>
+  </si>
+  <si>
+    <t>Update SRS document</t>
+  </si>
+  <si>
+    <t>Create Business rule, massage list</t>
+  </si>
+  <si>
+    <t>DE_BusinessRule_V1.0, DE_MessageList_V1.0</t>
   </si>
 </sst>
 </file>
@@ -879,7 +975,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1055,6 +1151,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1067,12 +1169,6 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1081,6 +1177,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -4262,17 +4361,17 @@
       <c r="I1" s="22"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="72"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="74"/>
     </row>
     <row r="3" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
@@ -4479,21 +4578,21 @@
       <c r="B11" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="73">
+      <c r="C11" s="69">
         <f>SUM(F4:F10)</f>
         <v>30</v>
       </c>
-      <c r="D11" s="73"/>
-      <c r="E11" s="73"/>
-      <c r="F11" s="74"/>
+      <c r="D11" s="69"/>
+      <c r="E11" s="69"/>
+      <c r="F11" s="70"/>
       <c r="G11" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="73">
+      <c r="H11" s="69">
         <f>SUM(G4:G10)</f>
         <v>30</v>
       </c>
-      <c r="I11" s="74"/>
+      <c r="I11" s="70"/>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="24" t="s">
@@ -4696,21 +4795,21 @@
       <c r="B20" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="73">
+      <c r="C20" s="69">
         <f>SUM(F13:F19)</f>
         <v>22</v>
       </c>
-      <c r="D20" s="73"/>
-      <c r="E20" s="73"/>
-      <c r="F20" s="74"/>
+      <c r="D20" s="69"/>
+      <c r="E20" s="69"/>
+      <c r="F20" s="70"/>
       <c r="G20" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H20" s="73">
+      <c r="H20" s="69">
         <f>SUM(G13:G19)</f>
         <v>34</v>
       </c>
-      <c r="I20" s="74"/>
+      <c r="I20" s="70"/>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="24" t="s">
@@ -4917,21 +5016,21 @@
       <c r="B30" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C30" s="73">
+      <c r="C30" s="69">
         <f>SUM(F22:F29)</f>
         <v>0</v>
       </c>
-      <c r="D30" s="73"/>
-      <c r="E30" s="73"/>
-      <c r="F30" s="74"/>
+      <c r="D30" s="69"/>
+      <c r="E30" s="69"/>
+      <c r="F30" s="70"/>
       <c r="G30" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H30" s="73">
+      <c r="H30" s="69">
         <f>SUM(G22:G29)</f>
         <v>38</v>
       </c>
-      <c r="I30" s="74"/>
+      <c r="I30" s="70"/>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="24" t="s">
@@ -5085,21 +5184,21 @@
       <c r="B39" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C39" s="73">
+      <c r="C39" s="69">
         <f>SUM(F32:F38)</f>
         <v>0</v>
       </c>
-      <c r="D39" s="73"/>
-      <c r="E39" s="73"/>
-      <c r="F39" s="74"/>
+      <c r="D39" s="69"/>
+      <c r="E39" s="69"/>
+      <c r="F39" s="70"/>
       <c r="G39" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H39" s="73">
+      <c r="H39" s="69">
         <f>SUM(G32:G38)</f>
         <v>0</v>
       </c>
-      <c r="I39" s="74"/>
+      <c r="I39" s="70"/>
     </row>
     <row r="40" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="24" t="s">
@@ -5249,21 +5348,21 @@
       <c r="B48" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C48" s="73">
+      <c r="C48" s="69">
         <f>SUM(F41:F47)</f>
         <v>0</v>
       </c>
-      <c r="D48" s="73"/>
-      <c r="E48" s="73"/>
-      <c r="F48" s="74"/>
+      <c r="D48" s="69"/>
+      <c r="E48" s="69"/>
+      <c r="F48" s="70"/>
       <c r="G48" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H48" s="73">
+      <c r="H48" s="69">
         <f>SUM(G41:G47)</f>
         <v>0</v>
       </c>
-      <c r="I48" s="74"/>
+      <c r="I48" s="70"/>
     </row>
     <row r="49" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="24" t="s">
@@ -5413,21 +5512,21 @@
       <c r="B57" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C57" s="73">
+      <c r="C57" s="69">
         <f>SUM(F50:F56)</f>
         <v>0</v>
       </c>
-      <c r="D57" s="73"/>
-      <c r="E57" s="73"/>
-      <c r="F57" s="74"/>
+      <c r="D57" s="69"/>
+      <c r="E57" s="69"/>
+      <c r="F57" s="70"/>
       <c r="G57" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H57" s="73">
+      <c r="H57" s="69">
         <f>SUM(G50:G56)</f>
         <v>0</v>
       </c>
-      <c r="I57" s="74"/>
+      <c r="I57" s="70"/>
     </row>
     <row r="58" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A58" s="24" t="s">
@@ -5577,30 +5676,24 @@
       <c r="B66" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C66" s="73">
+      <c r="C66" s="69">
         <f>SUM(F59:F65)</f>
         <v>0</v>
       </c>
-      <c r="D66" s="73"/>
-      <c r="E66" s="73"/>
-      <c r="F66" s="74"/>
+      <c r="D66" s="69"/>
+      <c r="E66" s="69"/>
+      <c r="F66" s="70"/>
       <c r="G66" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H66" s="73">
+      <c r="H66" s="69">
         <f>SUM(G59:G65)</f>
         <v>0</v>
       </c>
-      <c r="I66" s="74"/>
+      <c r="I66" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="C66:F66"/>
-    <mergeCell ref="H66:I66"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="H20:I20"/>
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="C48:F48"/>
     <mergeCell ref="H48:I48"/>
@@ -5610,6 +5703,12 @@
     <mergeCell ref="H30:I30"/>
     <mergeCell ref="C39:F39"/>
     <mergeCell ref="H39:I39"/>
+    <mergeCell ref="C66:F66"/>
+    <mergeCell ref="H66:I66"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="H20:I20"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <dataValidations count="6">
@@ -5642,10 +5741,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:I65"/>
+  <dimension ref="A1:I74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="D62" sqref="D62"/>
+    <sheetView tabSelected="1" topLeftCell="B58" workbookViewId="0">
+      <selection activeCell="F67" sqref="F67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5675,17 +5774,17 @@
       <c r="I1" s="22"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="72"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="74"/>
     </row>
     <row r="3" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="24" t="s">
@@ -5896,17 +5995,17 @@
         <f>SUM(F4:F10)</f>
         <v>26</v>
       </c>
-      <c r="D11" s="73"/>
-      <c r="E11" s="73"/>
-      <c r="F11" s="74"/>
+      <c r="D11" s="69"/>
+      <c r="E11" s="69"/>
+      <c r="F11" s="70"/>
       <c r="G11" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="73">
+      <c r="H11" s="69">
         <f>SUM(G4:G10)</f>
         <v>26</v>
       </c>
-      <c r="I11" s="74"/>
+      <c r="I11" s="70"/>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="24" t="s">
@@ -6119,21 +6218,21 @@
       <c r="B20" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="73">
+      <c r="C20" s="69">
         <f>SUM(F13:F19)</f>
         <v>30</v>
       </c>
-      <c r="D20" s="73"/>
-      <c r="E20" s="73"/>
-      <c r="F20" s="74"/>
+      <c r="D20" s="69"/>
+      <c r="E20" s="69"/>
+      <c r="F20" s="70"/>
       <c r="G20" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H20" s="73">
+      <c r="H20" s="69">
         <f>SUM(G13:G19)</f>
         <v>30</v>
       </c>
-      <c r="I20" s="74"/>
+      <c r="I20" s="70"/>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="24" t="s">
@@ -6164,39 +6263,57 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="10">
         <v>3</v>
       </c>
       <c r="B22" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="C22" s="25"/>
-      <c r="D22" s="13"/>
+      <c r="C22" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="78" t="s">
+        <v>118</v>
+      </c>
       <c r="E22" s="18">
         <v>43766</v>
       </c>
-      <c r="F22" s="6"/>
+      <c r="F22" s="10">
+        <v>8</v>
+      </c>
       <c r="G22" s="6"/>
-      <c r="H22" s="14"/>
+      <c r="H22" s="14" t="s">
+        <v>20</v>
+      </c>
       <c r="I22" s="15"/>
     </row>
-    <row r="23" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="10">
         <v>3</v>
       </c>
       <c r="B23" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="C23" s="25"/>
-      <c r="D23" s="13"/>
+      <c r="C23" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="78" t="s">
+        <v>119</v>
+      </c>
       <c r="E23" s="18">
         <v>43767</v>
       </c>
-      <c r="F23" s="6"/>
+      <c r="F23" s="10">
+        <v>10</v>
+      </c>
       <c r="G23" s="6"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="15"/>
+      <c r="H23" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I23" s="15" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="10">
@@ -6205,15 +6322,25 @@
       <c r="B24" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="25"/>
-      <c r="D24" s="2"/>
+      <c r="C24" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="D24" s="63" t="s">
+        <v>120</v>
+      </c>
       <c r="E24" s="18">
         <v>43768</v>
       </c>
-      <c r="F24" s="7"/>
+      <c r="F24" s="1">
+        <v>5</v>
+      </c>
       <c r="G24" s="7"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="3"/>
+      <c r="H24" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I24" s="15" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="10">
@@ -6222,14 +6349,22 @@
       <c r="B25" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="C25" s="25"/>
-      <c r="D25" s="2"/>
+      <c r="C25" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" s="57" t="s">
+        <v>121</v>
+      </c>
       <c r="E25" s="18">
         <v>43769</v>
       </c>
-      <c r="F25" s="7"/>
+      <c r="F25" s="1">
+        <v>10</v>
+      </c>
       <c r="G25" s="7"/>
-      <c r="H25" s="14"/>
+      <c r="H25" s="14" t="s">
+        <v>21</v>
+      </c>
       <c r="I25" s="3"/>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -6239,14 +6374,22 @@
       <c r="B26" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="C26" s="25"/>
-      <c r="D26" s="2"/>
+      <c r="C26" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="D26" s="57" t="s">
+        <v>121</v>
+      </c>
       <c r="E26" s="18">
         <v>43770</v>
       </c>
-      <c r="F26" s="7"/>
+      <c r="F26" s="1">
+        <v>5</v>
+      </c>
       <c r="G26" s="7"/>
-      <c r="H26" s="14"/>
+      <c r="H26" s="14" t="s">
+        <v>21</v>
+      </c>
       <c r="I26" s="3"/>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -6256,27 +6399,49 @@
       <c r="B27" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="C27" s="25"/>
-      <c r="D27" s="2"/>
+      <c r="C27" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" s="63" t="s">
+        <v>122</v>
+      </c>
       <c r="E27" s="18">
         <v>43771</v>
       </c>
-      <c r="F27" s="7"/>
+      <c r="F27" s="1">
+        <v>4</v>
+      </c>
       <c r="G27" s="7"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="3"/>
+      <c r="H27" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I27" s="15" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="9"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="4"/>
+      <c r="A28" s="9">
+        <v>3</v>
+      </c>
+      <c r="B28" s="68" t="s">
+        <v>124</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="D28" s="57" t="s">
+        <v>121</v>
+      </c>
       <c r="E28" s="18">
         <v>43772</v>
       </c>
-      <c r="F28" s="8"/>
+      <c r="F28" s="9">
+        <v>3</v>
+      </c>
       <c r="G28" s="8"/>
-      <c r="H28" s="14"/>
+      <c r="H28" s="14" t="s">
+        <v>20</v>
+      </c>
       <c r="I28" s="5"/>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -6286,21 +6451,21 @@
       <c r="B29" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="73">
+      <c r="C29" s="69">
         <f>SUM(F22:F28)</f>
-        <v>0</v>
-      </c>
-      <c r="D29" s="73"/>
-      <c r="E29" s="73"/>
-      <c r="F29" s="74"/>
+        <v>45</v>
+      </c>
+      <c r="D29" s="69"/>
+      <c r="E29" s="69"/>
+      <c r="F29" s="70"/>
       <c r="G29" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H29" s="73">
+      <c r="H29" s="69">
         <f>SUM(G22:G28)</f>
         <v>0</v>
       </c>
-      <c r="I29" s="74"/>
+      <c r="I29" s="70"/>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="24" t="s">
@@ -6331,22 +6496,30 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="10">
         <v>4</v>
       </c>
       <c r="B31" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C31" s="25"/>
-      <c r="D31" s="13"/>
+      <c r="C31" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D31" s="78" t="s">
+        <v>128</v>
+      </c>
       <c r="E31" s="18">
         <v>43773</v>
       </c>
-      <c r="F31" s="6"/>
+      <c r="F31" s="10">
+        <v>7</v>
+      </c>
       <c r="G31" s="6"/>
       <c r="H31" s="14"/>
-      <c r="I31" s="15"/>
+      <c r="I31" s="15" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="10">
@@ -6355,32 +6528,46 @@
       <c r="B32" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="C32" s="25"/>
-      <c r="D32" s="13"/>
+      <c r="C32" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="D32" s="57" t="s">
+        <v>133</v>
+      </c>
       <c r="E32" s="18">
         <v>43774</v>
       </c>
-      <c r="F32" s="6"/>
+      <c r="F32" s="10">
+        <v>3</v>
+      </c>
       <c r="G32" s="6"/>
       <c r="H32" s="14"/>
       <c r="I32" s="15"/>
     </row>
-    <row r="33" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="10">
         <v>4</v>
       </c>
       <c r="B33" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="C33" s="25"/>
-      <c r="D33" s="2"/>
+      <c r="C33" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="D33" s="57" t="s">
+        <v>130</v>
+      </c>
       <c r="E33" s="18">
         <v>43775</v>
       </c>
-      <c r="F33" s="7"/>
+      <c r="F33" s="7">
+        <v>10</v>
+      </c>
       <c r="G33" s="7"/>
       <c r="H33" s="14"/>
-      <c r="I33" s="3"/>
+      <c r="I33" s="15" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="10">
@@ -6389,15 +6576,23 @@
       <c r="B34" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="C34" s="25"/>
-      <c r="D34" s="2"/>
+      <c r="C34" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D34" s="57" t="s">
+        <v>134</v>
+      </c>
       <c r="E34" s="18">
         <v>43776</v>
       </c>
-      <c r="F34" s="7"/>
+      <c r="F34" s="7">
+        <v>5</v>
+      </c>
       <c r="G34" s="7"/>
       <c r="H34" s="14"/>
-      <c r="I34" s="3"/>
+      <c r="I34" s="3" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="35" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="10">
@@ -6406,12 +6601,18 @@
       <c r="B35" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="C35" s="25"/>
-      <c r="D35" s="2"/>
+      <c r="C35" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D35" s="57" t="s">
+        <v>135</v>
+      </c>
       <c r="E35" s="18">
         <v>43777</v>
       </c>
-      <c r="F35" s="7"/>
+      <c r="F35" s="7">
+        <v>8</v>
+      </c>
       <c r="G35" s="7"/>
       <c r="H35" s="14"/>
       <c r="I35" s="3"/>
@@ -6423,12 +6624,18 @@
       <c r="B36" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="C36" s="25"/>
-      <c r="D36" s="2"/>
+      <c r="C36" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D36" s="57" t="s">
+        <v>133</v>
+      </c>
       <c r="E36" s="18">
         <v>43778</v>
       </c>
-      <c r="F36" s="7"/>
+      <c r="F36" s="7">
+        <v>5</v>
+      </c>
       <c r="G36" s="7"/>
       <c r="H36" s="14"/>
       <c r="I36" s="3"/>
@@ -6453,21 +6660,21 @@
       <c r="B38" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C38" s="73">
+      <c r="C38" s="69">
         <f>SUM(F31:F37)</f>
-        <v>0</v>
-      </c>
-      <c r="D38" s="73"/>
-      <c r="E38" s="73"/>
-      <c r="F38" s="74"/>
+        <v>38</v>
+      </c>
+      <c r="D38" s="69"/>
+      <c r="E38" s="69"/>
+      <c r="F38" s="70"/>
       <c r="G38" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H38" s="73">
+      <c r="H38" s="69">
         <f>SUM(G31:G37)</f>
         <v>0</v>
       </c>
-      <c r="I38" s="74"/>
+      <c r="I38" s="70"/>
     </row>
     <row r="39" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="24" t="s">
@@ -6620,21 +6827,21 @@
       <c r="B47" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C47" s="73">
+      <c r="C47" s="69">
         <f>SUM(F40:F46)</f>
         <v>0</v>
       </c>
-      <c r="D47" s="73"/>
-      <c r="E47" s="73"/>
-      <c r="F47" s="74"/>
+      <c r="D47" s="69"/>
+      <c r="E47" s="69"/>
+      <c r="F47" s="70"/>
       <c r="G47" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H47" s="73">
+      <c r="H47" s="69">
         <f>SUM(G40:G46)</f>
         <v>0</v>
       </c>
-      <c r="I47" s="74"/>
+      <c r="I47" s="70"/>
     </row>
     <row r="48" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="24" t="s">
@@ -6787,21 +6994,21 @@
       <c r="B56" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C56" s="73">
+      <c r="C56" s="69">
         <f>SUM(F49:F55)</f>
         <v>0</v>
       </c>
-      <c r="D56" s="73"/>
-      <c r="E56" s="73"/>
-      <c r="F56" s="74"/>
+      <c r="D56" s="69"/>
+      <c r="E56" s="69"/>
+      <c r="F56" s="70"/>
       <c r="G56" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H56" s="73">
+      <c r="H56" s="69">
         <f>SUM(G49:G55)</f>
         <v>0</v>
       </c>
-      <c r="I56" s="74"/>
+      <c r="I56" s="70"/>
     </row>
     <row r="57" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="24" t="s">
@@ -6839,15 +7046,23 @@
       <c r="B58" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C58" s="25"/>
-      <c r="D58" s="13"/>
+      <c r="C58" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D58" s="13" t="s">
+        <v>137</v>
+      </c>
       <c r="E58" s="18">
         <v>43794</v>
       </c>
-      <c r="F58" s="6"/>
+      <c r="F58" s="6">
+        <v>10</v>
+      </c>
       <c r="G58" s="6"/>
       <c r="H58" s="14"/>
-      <c r="I58" s="15"/>
+      <c r="I58" s="15" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="59" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="10">
@@ -6856,12 +7071,18 @@
       <c r="B59" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="C59" s="25"/>
-      <c r="D59" s="13"/>
+      <c r="C59" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="D59" s="13" t="s">
+        <v>139</v>
+      </c>
       <c r="E59" s="18">
         <v>43795</v>
       </c>
-      <c r="F59" s="6"/>
+      <c r="F59" s="6">
+        <v>3</v>
+      </c>
       <c r="G59" s="6"/>
       <c r="H59" s="14"/>
       <c r="I59" s="15"/>
@@ -6873,15 +7094,23 @@
       <c r="B60" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="C60" s="25"/>
-      <c r="D60" s="2"/>
+      <c r="C60" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>141</v>
+      </c>
       <c r="E60" s="18">
         <v>43796</v>
       </c>
-      <c r="F60" s="7"/>
+      <c r="F60" s="7">
+        <v>10</v>
+      </c>
       <c r="G60" s="7"/>
       <c r="H60" s="14"/>
-      <c r="I60" s="3"/>
+      <c r="I60" s="3" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="61" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="10">
@@ -6890,12 +7119,18 @@
       <c r="B61" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="C61" s="25"/>
-      <c r="D61" s="2"/>
+      <c r="C61" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>143</v>
+      </c>
       <c r="E61" s="18">
         <v>43797</v>
       </c>
-      <c r="F61" s="7"/>
+      <c r="F61" s="7">
+        <v>10</v>
+      </c>
       <c r="G61" s="7"/>
       <c r="H61" s="14"/>
       <c r="I61" s="3"/>
@@ -6907,7 +7142,9 @@
       <c r="B62" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="C62" s="25"/>
+      <c r="C62" s="25" t="s">
+        <v>129</v>
+      </c>
       <c r="D62" s="2" t="s">
         <v>117</v>
       </c>
@@ -6919,7 +7156,9 @@
       </c>
       <c r="G62" s="7"/>
       <c r="H62" s="14"/>
-      <c r="I62" s="3"/>
+      <c r="I62" s="3" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="63" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="10">
@@ -6928,28 +7167,48 @@
       <c r="B63" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="C63" s="25"/>
-      <c r="D63" s="2"/>
+      <c r="C63" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>145</v>
+      </c>
       <c r="E63" s="18">
         <v>43799</v>
       </c>
-      <c r="F63" s="7"/>
+      <c r="F63" s="7">
+        <v>8</v>
+      </c>
       <c r="G63" s="7"/>
       <c r="H63" s="14"/>
-      <c r="I63" s="3"/>
+      <c r="I63" s="3" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="64" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="9"/>
-      <c r="B64" s="12"/>
-      <c r="C64" s="9"/>
-      <c r="D64" s="4"/>
+      <c r="A64" s="9">
+        <v>7</v>
+      </c>
+      <c r="B64" s="68" t="s">
+        <v>124</v>
+      </c>
+      <c r="C64" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>147</v>
+      </c>
       <c r="E64" s="18">
         <v>43800</v>
       </c>
-      <c r="F64" s="8"/>
+      <c r="F64" s="8">
+        <v>3</v>
+      </c>
       <c r="G64" s="8"/>
       <c r="H64" s="14"/>
-      <c r="I64" s="5"/>
+      <c r="I64" s="3" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="65" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="67" t="s">
@@ -6958,24 +7217,217 @@
       <c r="B65" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C65" s="73">
+      <c r="C65" s="69">
         <f>SUM(F58:F64)</f>
-        <v>6</v>
-      </c>
-      <c r="D65" s="73"/>
-      <c r="E65" s="73"/>
-      <c r="F65" s="74"/>
+        <v>50</v>
+      </c>
+      <c r="D65" s="69"/>
+      <c r="E65" s="69"/>
+      <c r="F65" s="70"/>
       <c r="G65" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H65" s="73">
+      <c r="H65" s="69">
         <f>SUM(G58:G64)</f>
         <v>0</v>
       </c>
-      <c r="I65" s="74"/>
+      <c r="I65" s="70"/>
+    </row>
+    <row r="66" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="B66" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="C66" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="D66" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E66" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="F66" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="G66" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="H66" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I66" s="24" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="10">
+        <v>8</v>
+      </c>
+      <c r="B67" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C67" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="D67" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="E67" s="18">
+        <v>43801</v>
+      </c>
+      <c r="F67" s="6">
+        <v>10</v>
+      </c>
+      <c r="G67" s="6"/>
+      <c r="H67" s="14"/>
+      <c r="I67" s="15" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="10">
+        <v>8</v>
+      </c>
+      <c r="B68" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C68" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="D68" s="13"/>
+      <c r="E68" s="18">
+        <v>43802</v>
+      </c>
+      <c r="F68" s="6"/>
+      <c r="G68" s="6"/>
+      <c r="H68" s="14"/>
+      <c r="I68" s="15"/>
+    </row>
+    <row r="69" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="10">
+        <v>8</v>
+      </c>
+      <c r="B69" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C69" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="D69" s="2"/>
+      <c r="E69" s="18">
+        <v>43803</v>
+      </c>
+      <c r="F69" s="7"/>
+      <c r="G69" s="7"/>
+      <c r="H69" s="14"/>
+      <c r="I69" s="3"/>
+    </row>
+    <row r="70" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="10">
+        <v>8</v>
+      </c>
+      <c r="B70" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C70" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="D70" s="2"/>
+      <c r="E70" s="18">
+        <v>43804</v>
+      </c>
+      <c r="F70" s="7"/>
+      <c r="G70" s="7"/>
+      <c r="H70" s="14"/>
+      <c r="I70" s="3"/>
+    </row>
+    <row r="71" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="10">
+        <v>8</v>
+      </c>
+      <c r="B71" s="68" t="s">
+        <v>13</v>
+      </c>
+      <c r="C71" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="D71" s="2"/>
+      <c r="E71" s="18">
+        <v>43805</v>
+      </c>
+      <c r="F71" s="7"/>
+      <c r="G71" s="7"/>
+      <c r="H71" s="14"/>
+      <c r="I71" s="3"/>
+    </row>
+    <row r="72" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="10">
+        <v>8</v>
+      </c>
+      <c r="B72" s="68" t="s">
+        <v>14</v>
+      </c>
+      <c r="C72" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="D72" s="2"/>
+      <c r="E72" s="18">
+        <v>43806</v>
+      </c>
+      <c r="F72" s="7"/>
+      <c r="G72" s="7"/>
+      <c r="H72" s="14"/>
+      <c r="I72" s="3"/>
+    </row>
+    <row r="73" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="10">
+        <v>8</v>
+      </c>
+      <c r="B73" s="68" t="s">
+        <v>124</v>
+      </c>
+      <c r="C73" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="D73" s="4"/>
+      <c r="E73" s="18">
+        <v>43807</v>
+      </c>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
+      <c r="H73" s="14"/>
+      <c r="I73" s="3"/>
+    </row>
+    <row r="74" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="67" t="s">
+        <v>15</v>
+      </c>
+      <c r="B74" s="67" t="s">
+        <v>16</v>
+      </c>
+      <c r="C74" s="69">
+        <f>SUM(F67:F73)</f>
+        <v>10</v>
+      </c>
+      <c r="D74" s="69"/>
+      <c r="E74" s="69"/>
+      <c r="F74" s="70"/>
+      <c r="G74" s="66" t="s">
+        <v>17</v>
+      </c>
+      <c r="H74" s="69">
+        <f>SUM(G67:G73)</f>
+        <v>0</v>
+      </c>
+      <c r="I74" s="70"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="17">
+    <mergeCell ref="C74:F74"/>
+    <mergeCell ref="H74:I74"/>
     <mergeCell ref="C65:F65"/>
     <mergeCell ref="H65:I65"/>
     <mergeCell ref="C29:F29"/>
@@ -6994,20 +7446,20 @@
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10 C19 C28 C37 C46 C55 C64" xr:uid="{00000000-0002-0000-0300-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10 C19 C28 C37 C46 C55" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>"Project Management, Requirement, Architecture and Desgin, Implementation, Testing, Training, Meetting Customer, Meetting Mentor"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C9 C13:C18 C22:C27 C31:C36 C40:C45 C49:C54 C58:C63" xr:uid="{00000000-0002-0000-0300-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C9 C13:C18 C58:C64 C22:C27 C40:C45 C49:C54 C31:C36 C67:C73" xr:uid="{00000000-0002-0000-0300-000001000000}">
       <formula1>"Project Management, Requirement, Architecture and Desgin, Implementation, Testing, Training, Meetting Customer, Meeting Mentor"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:H10 H13:H19 H22:H28 H31:H37 H40:H46 H49:H55 H58:H64" xr:uid="{00000000-0002-0000-0300-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:H10 H13:H19 H58:H64 H31:H37 H40:H46 H49:H55 H22:H28 H67:H73" xr:uid="{00000000-0002-0000-0300-000002000000}">
       <formula1>"Done,Inprogress "</formula1>
     </dataValidation>
     <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3 B12" xr:uid="{00000000-0002-0000-0300-000003000000}">
       <formula1>B4</formula1>
       <formula2>B10</formula2>
     </dataValidation>
-    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B30 B39 B48 B57" xr:uid="{63606E3A-7A63-44DB-901A-5C116B0EEC91}">
+    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B30 B39 B48 B57 B66" xr:uid="{63606E3A-7A63-44DB-901A-5C116B0EEC91}">
       <formula1>#REF!</formula1>
       <formula2>B35</formula2>
     </dataValidation>
@@ -7053,17 +7505,17 @@
       <c r="I1" s="22"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="72"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="74"/>
     </row>
     <row r="3" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="24" t="s">
@@ -7636,21 +8088,21 @@
       <c r="B29" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="73">
+      <c r="C29" s="69">
         <f>SUM(F22:F28)</f>
         <v>0</v>
       </c>
-      <c r="D29" s="73"/>
-      <c r="E29" s="73"/>
-      <c r="F29" s="74"/>
+      <c r="D29" s="69"/>
+      <c r="E29" s="69"/>
+      <c r="F29" s="70"/>
       <c r="G29" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H29" s="73">
+      <c r="H29" s="69">
         <f>SUM(G22:G28)</f>
         <v>0</v>
       </c>
-      <c r="I29" s="74"/>
+      <c r="I29" s="70"/>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="24" t="s">
@@ -7789,21 +8241,21 @@
       <c r="B38" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C38" s="73">
+      <c r="C38" s="69">
         <f>SUM(F31:F37)</f>
         <v>0</v>
       </c>
-      <c r="D38" s="73"/>
-      <c r="E38" s="73"/>
-      <c r="F38" s="74"/>
+      <c r="D38" s="69"/>
+      <c r="E38" s="69"/>
+      <c r="F38" s="70"/>
       <c r="G38" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H38" s="73">
+      <c r="H38" s="69">
         <f>SUM(G31:G37)</f>
         <v>0</v>
       </c>
-      <c r="I38" s="74"/>
+      <c r="I38" s="70"/>
     </row>
     <row r="39" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="24" t="s">
@@ -7942,21 +8394,21 @@
       <c r="B47" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C47" s="73">
+      <c r="C47" s="69">
         <f>SUM(F40:F46)</f>
         <v>0</v>
       </c>
-      <c r="D47" s="73"/>
-      <c r="E47" s="73"/>
-      <c r="F47" s="74"/>
+      <c r="D47" s="69"/>
+      <c r="E47" s="69"/>
+      <c r="F47" s="70"/>
       <c r="G47" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H47" s="73">
+      <c r="H47" s="69">
         <f>SUM(G40:G46)</f>
         <v>0</v>
       </c>
-      <c r="I47" s="74"/>
+      <c r="I47" s="70"/>
     </row>
     <row r="48" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="24" t="s">
@@ -8095,29 +8547,24 @@
       <c r="B56" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C56" s="73">
+      <c r="C56" s="69">
         <f>SUM(F49:F55)</f>
         <v>0</v>
       </c>
-      <c r="D56" s="73"/>
-      <c r="E56" s="73"/>
-      <c r="F56" s="74"/>
+      <c r="D56" s="69"/>
+      <c r="E56" s="69"/>
+      <c r="F56" s="70"/>
       <c r="G56" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H56" s="73">
+      <c r="H56" s="69">
         <f>SUM(G49:G55)</f>
         <v>0</v>
       </c>
-      <c r="I56" s="74"/>
+      <c r="I56" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="H20:I20"/>
     <mergeCell ref="C56:F56"/>
     <mergeCell ref="H56:I56"/>
     <mergeCell ref="C29:F29"/>
@@ -8126,6 +8573,11 @@
     <mergeCell ref="H38:I38"/>
     <mergeCell ref="C47:F47"/>
     <mergeCell ref="H47:I47"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="H20:I20"/>
   </mergeCells>
   <dataValidations count="6">
     <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3 B12" xr:uid="{6FFE7BB2-A561-485E-81E9-2571AC8DE5CA}">
@@ -8187,17 +8639,17 @@
       <c r="I1" s="22"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="72"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="74"/>
     </row>
     <row r="3" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="24" t="s">
@@ -8778,21 +9230,21 @@
       <c r="B29" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="73">
+      <c r="C29" s="69">
         <f>SUM(F22:F28)</f>
         <v>0</v>
       </c>
-      <c r="D29" s="73"/>
-      <c r="E29" s="73"/>
-      <c r="F29" s="74"/>
+      <c r="D29" s="69"/>
+      <c r="E29" s="69"/>
+      <c r="F29" s="70"/>
       <c r="G29" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H29" s="73">
+      <c r="H29" s="69">
         <f>SUM(G22:G28)</f>
         <v>0</v>
       </c>
-      <c r="I29" s="74"/>
+      <c r="I29" s="70"/>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="24" t="s">
@@ -8931,21 +9383,21 @@
       <c r="B38" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C38" s="73">
+      <c r="C38" s="69">
         <f>SUM(F31:F37)</f>
         <v>0</v>
       </c>
-      <c r="D38" s="73"/>
-      <c r="E38" s="73"/>
-      <c r="F38" s="74"/>
+      <c r="D38" s="69"/>
+      <c r="E38" s="69"/>
+      <c r="F38" s="70"/>
       <c r="G38" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H38" s="73">
+      <c r="H38" s="69">
         <f>SUM(G31:G37)</f>
         <v>0</v>
       </c>
-      <c r="I38" s="74"/>
+      <c r="I38" s="70"/>
     </row>
     <row r="39" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="24" t="s">
@@ -9084,21 +9536,21 @@
       <c r="B47" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C47" s="73">
+      <c r="C47" s="69">
         <f>SUM(F40:F46)</f>
         <v>0</v>
       </c>
-      <c r="D47" s="73"/>
-      <c r="E47" s="73"/>
-      <c r="F47" s="74"/>
+      <c r="D47" s="69"/>
+      <c r="E47" s="69"/>
+      <c r="F47" s="70"/>
       <c r="G47" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H47" s="73">
+      <c r="H47" s="69">
         <f>SUM(G40:G46)</f>
         <v>0</v>
       </c>
-      <c r="I47" s="74"/>
+      <c r="I47" s="70"/>
     </row>
     <row r="48" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="24" t="s">
@@ -9237,29 +9689,24 @@
       <c r="B56" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C56" s="73">
+      <c r="C56" s="69">
         <f>SUM(F49:F55)</f>
         <v>0</v>
       </c>
-      <c r="D56" s="73"/>
-      <c r="E56" s="73"/>
-      <c r="F56" s="74"/>
+      <c r="D56" s="69"/>
+      <c r="E56" s="69"/>
+      <c r="F56" s="70"/>
       <c r="G56" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H56" s="73">
+      <c r="H56" s="69">
         <f>SUM(G49:G55)</f>
         <v>0</v>
       </c>
-      <c r="I56" s="74"/>
+      <c r="I56" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="H20:I20"/>
     <mergeCell ref="C56:F56"/>
     <mergeCell ref="H56:I56"/>
     <mergeCell ref="C29:F29"/>
@@ -9268,6 +9715,11 @@
     <mergeCell ref="H38:I38"/>
     <mergeCell ref="C47:F47"/>
     <mergeCell ref="H47:I47"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="H20:I20"/>
   </mergeCells>
   <dataValidations count="6">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10 C19 C28 C37 C46 C55" xr:uid="{49E4ABBA-BF99-4A08-9146-05B03FF61551}">
@@ -9329,17 +9781,17 @@
       <c r="I1" s="22"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="72"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="74"/>
     </row>
     <row r="3" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="24" t="s">
@@ -9922,21 +10374,21 @@
       <c r="B29" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="73">
+      <c r="C29" s="69">
         <f>SUM(F22:F28)</f>
         <v>0</v>
       </c>
-      <c r="D29" s="73"/>
-      <c r="E29" s="73"/>
-      <c r="F29" s="74"/>
+      <c r="D29" s="69"/>
+      <c r="E29" s="69"/>
+      <c r="F29" s="70"/>
       <c r="G29" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H29" s="73">
+      <c r="H29" s="69">
         <f>SUM(G22:G28)</f>
         <v>0</v>
       </c>
-      <c r="I29" s="74"/>
+      <c r="I29" s="70"/>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="24" t="s">
@@ -10075,21 +10527,21 @@
       <c r="B38" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C38" s="73">
+      <c r="C38" s="69">
         <f>SUM(F31:F37)</f>
         <v>0</v>
       </c>
-      <c r="D38" s="73"/>
-      <c r="E38" s="73"/>
-      <c r="F38" s="74"/>
+      <c r="D38" s="69"/>
+      <c r="E38" s="69"/>
+      <c r="F38" s="70"/>
       <c r="G38" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H38" s="73">
+      <c r="H38" s="69">
         <f>SUM(G31:G37)</f>
         <v>0</v>
       </c>
-      <c r="I38" s="74"/>
+      <c r="I38" s="70"/>
     </row>
     <row r="39" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="24" t="s">
@@ -10228,21 +10680,21 @@
       <c r="B47" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C47" s="73">
+      <c r="C47" s="69">
         <f>SUM(F40:F46)</f>
         <v>0</v>
       </c>
-      <c r="D47" s="73"/>
-      <c r="E47" s="73"/>
-      <c r="F47" s="74"/>
+      <c r="D47" s="69"/>
+      <c r="E47" s="69"/>
+      <c r="F47" s="70"/>
       <c r="G47" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H47" s="73">
+      <c r="H47" s="69">
         <f>SUM(G40:G46)</f>
         <v>0</v>
       </c>
-      <c r="I47" s="74"/>
+      <c r="I47" s="70"/>
     </row>
     <row r="48" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="24" t="s">
@@ -10381,29 +10833,24 @@
       <c r="B56" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C56" s="73">
+      <c r="C56" s="69">
         <f>SUM(F49:F55)</f>
         <v>0</v>
       </c>
-      <c r="D56" s="73"/>
-      <c r="E56" s="73"/>
-      <c r="F56" s="74"/>
+      <c r="D56" s="69"/>
+      <c r="E56" s="69"/>
+      <c r="F56" s="70"/>
       <c r="G56" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H56" s="73">
+      <c r="H56" s="69">
         <f>SUM(G49:G55)</f>
         <v>0</v>
       </c>
-      <c r="I56" s="74"/>
+      <c r="I56" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="H20:I20"/>
     <mergeCell ref="C56:F56"/>
     <mergeCell ref="H56:I56"/>
     <mergeCell ref="C29:F29"/>
@@ -10412,6 +10859,11 @@
     <mergeCell ref="H38:I38"/>
     <mergeCell ref="C47:F47"/>
     <mergeCell ref="H47:I47"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="H20:I20"/>
   </mergeCells>
   <dataValidations count="6">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10 C19 C28 C37 C46 C55" xr:uid="{6E08E741-C8C7-4210-9264-8F4FCE40EB21}">

--- a/Improgress/4. Timelog/PM_TimeLog.xlsx
+++ b/Improgress/4. Timelog/PM_TimeLog.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\Capstone-Project\Improgress\4. Timelog\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\Capstone-Project\Improgress\4. Timelog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C68C7452-55CC-4430-89D8-6B83C6933B69}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D977B4F-A142-4D17-89EC-2A7FBA2FA925}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="7" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="Anh Minh" sheetId="14" r:id="rId5"/>
     <sheet name="Như Phương" sheetId="15" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +28,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="998" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1104" uniqueCount="188">
   <si>
     <t>Work in period</t>
   </si>
@@ -490,15 +492,149 @@
   </si>
   <si>
     <t>DE_BusinessRule_V1.0, DE_MessageList_V1.0</t>
+  </si>
+  <si>
+    <t>Meeting_Mentor_14/10/2019
+Meeting-customer_18/10/2019</t>
+  </si>
+  <si>
+    <t>Meeting_Mentor_23/10/2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Research GIS , 
+prepare question for customer 
+Test plan </t>
+  </si>
+  <si>
+    <t>28/10/2019</t>
+  </si>
+  <si>
+    <t>29/10/2019</t>
+  </si>
+  <si>
+    <t>30/10/2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test plan </t>
+  </si>
+  <si>
+    <t>31/10/2019</t>
+  </si>
+  <si>
+    <t>TE_Testplan_ver1.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Research React </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Complete the meeting minutes ; 
+Requiment plan </t>
+  </si>
+  <si>
+    <t>Meeting_Customer_29/10/2019
+Meeting_Mentor _30/10/2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Requiment plan </t>
+  </si>
+  <si>
+    <t>RE_RequimentPlan_ver1.0</t>
+  </si>
+  <si>
+    <t>Requiment process</t>
+  </si>
+  <si>
+    <t>RE_RequimentProcess_ver1.0</t>
+  </si>
+  <si>
+    <t>Test Process</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Complete the meeting minutes ; 
+Review document ,  test process </t>
+  </si>
+  <si>
+    <t>TE_Testprocess_ver1.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Complete the meeting minutes ;
+Review document 
+Analyst Requirement </t>
+  </si>
+  <si>
+    <t>Meeting_customer 8/10/2019
+Meeting_mentor 6/10/2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ConOP document </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Usecase Decription </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prepare EOMP #1 
+Update document </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Present EOMP1 
+Complete the meeting minutes 
+Report document for customer </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Complete the meeting minutes 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Complete RE document </t>
+  </si>
+  <si>
+    <t>Architure Driver</t>
+  </si>
+  <si>
+    <t>Update ConOP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Review document  
+Complete the meeting minutes 
+</t>
+  </si>
+  <si>
+    <t>Context Diagram</t>
+  </si>
+  <si>
+    <t>Architure Design</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ERD </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Complete the meeting minutes 
+Review document 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Detail Design </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TEst Case </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Case </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="[$-1010000]d/m/yy;@"/>
     <numFmt numFmtId="165" formatCode="[$-1010000]d/m/yyyy;@"/>
+    <numFmt numFmtId="166" formatCode="mm/dd/yyyy;@"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -602,7 +738,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="30">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -961,6 +1097,51 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -975,7 +1156,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1151,11 +1332,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1169,6 +1347,12 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1178,9 +1362,28 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
@@ -2125,10 +2328,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="37"/>
                 <c:pt idx="0">
-                  <c:v>27</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>29</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3586,13 +3789,13 @@
       <c r="A6" s="41" t="s">
         <v>111</v>
       </c>
-      <c r="B6" s="42">
-        <f>'Như Phương'!C11</f>
-        <v>27</v>
-      </c>
-      <c r="C6" s="42">
-        <f>'Như Phương'!C20</f>
-        <v>29</v>
+      <c r="B6" s="42" t="e">
+        <f>'Như Phương'!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C6" s="42" t="e">
+        <f>'Như Phương'!#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="D6" s="42"/>
       <c r="E6" s="43"/>
@@ -3629,159 +3832,159 @@
       <c r="AJ6" s="44"/>
       <c r="AK6" s="44"/>
       <c r="AL6" s="44"/>
-      <c r="AM6" s="35">
+      <c r="AM6" s="35" t="e">
         <f t="shared" si="0"/>
-        <v>56</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="7" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="12">
+      <c r="B7" s="12" t="e">
         <f>SUM(B2:B6)</f>
-        <v>133.5</v>
-      </c>
-      <c r="C7" s="12">
+        <v>#REF!</v>
+      </c>
+      <c r="C7" s="12" t="e">
         <f t="shared" ref="C7:R7" si="1">SUM(C2:C6)+B7</f>
-        <v>260</v>
-      </c>
-      <c r="D7" s="12">
+        <v>#REF!</v>
+      </c>
+      <c r="D7" s="12" t="e">
         <f t="shared" si="1"/>
-        <v>260</v>
-      </c>
-      <c r="E7" s="12">
+        <v>#REF!</v>
+      </c>
+      <c r="E7" s="12" t="e">
         <f t="shared" si="1"/>
-        <v>260</v>
-      </c>
-      <c r="F7" s="12">
+        <v>#REF!</v>
+      </c>
+      <c r="F7" s="12" t="e">
         <f t="shared" si="1"/>
-        <v>260</v>
-      </c>
-      <c r="G7" s="12">
+        <v>#REF!</v>
+      </c>
+      <c r="G7" s="12" t="e">
         <f t="shared" si="1"/>
-        <v>260</v>
-      </c>
-      <c r="H7" s="12">
+        <v>#REF!</v>
+      </c>
+      <c r="H7" s="12" t="e">
         <f t="shared" si="1"/>
-        <v>260</v>
-      </c>
-      <c r="I7" s="12">
+        <v>#REF!</v>
+      </c>
+      <c r="I7" s="12" t="e">
         <f t="shared" si="1"/>
-        <v>260</v>
-      </c>
-      <c r="J7" s="12">
+        <v>#REF!</v>
+      </c>
+      <c r="J7" s="12" t="e">
         <f t="shared" si="1"/>
-        <v>260</v>
-      </c>
-      <c r="K7" s="12">
+        <v>#REF!</v>
+      </c>
+      <c r="K7" s="12" t="e">
         <f t="shared" si="1"/>
-        <v>260</v>
-      </c>
-      <c r="L7" s="12">
+        <v>#REF!</v>
+      </c>
+      <c r="L7" s="12" t="e">
         <f t="shared" si="1"/>
-        <v>260</v>
-      </c>
-      <c r="M7" s="12">
+        <v>#REF!</v>
+      </c>
+      <c r="M7" s="12" t="e">
         <f t="shared" si="1"/>
-        <v>260</v>
-      </c>
-      <c r="N7" s="12">
+        <v>#REF!</v>
+      </c>
+      <c r="N7" s="12" t="e">
         <f t="shared" si="1"/>
-        <v>260</v>
-      </c>
-      <c r="O7" s="12">
+        <v>#REF!</v>
+      </c>
+      <c r="O7" s="12" t="e">
         <f t="shared" si="1"/>
-        <v>260</v>
-      </c>
-      <c r="P7" s="12">
+        <v>#REF!</v>
+      </c>
+      <c r="P7" s="12" t="e">
         <f t="shared" si="1"/>
-        <v>260</v>
-      </c>
-      <c r="Q7" s="12">
+        <v>#REF!</v>
+      </c>
+      <c r="Q7" s="12" t="e">
         <f t="shared" si="1"/>
-        <v>260</v>
-      </c>
-      <c r="R7" s="12">
+        <v>#REF!</v>
+      </c>
+      <c r="R7" s="12" t="e">
         <f t="shared" si="1"/>
-        <v>260</v>
-      </c>
-      <c r="S7" s="12">
+        <v>#REF!</v>
+      </c>
+      <c r="S7" s="12" t="e">
         <f t="shared" ref="S7" si="2">SUM(S2:S6)+R7</f>
-        <v>260</v>
-      </c>
-      <c r="T7" s="12">
+        <v>#REF!</v>
+      </c>
+      <c r="T7" s="12" t="e">
         <f t="shared" ref="T7" si="3">SUM(T2:T6)+S7</f>
-        <v>260</v>
-      </c>
-      <c r="U7" s="12">
+        <v>#REF!</v>
+      </c>
+      <c r="U7" s="12" t="e">
         <f t="shared" ref="U7" si="4">SUM(U2:U6)+T7</f>
-        <v>260</v>
-      </c>
-      <c r="V7" s="12">
+        <v>#REF!</v>
+      </c>
+      <c r="V7" s="12" t="e">
         <f t="shared" ref="V7" si="5">SUM(V2:V6)+U7</f>
-        <v>260</v>
-      </c>
-      <c r="W7" s="12">
+        <v>#REF!</v>
+      </c>
+      <c r="W7" s="12" t="e">
         <f t="shared" ref="W7" si="6">SUM(W2:W6)+V7</f>
-        <v>260</v>
-      </c>
-      <c r="X7" s="12">
+        <v>#REF!</v>
+      </c>
+      <c r="X7" s="12" t="e">
         <f t="shared" ref="X7" si="7">SUM(X2:X6)+W7</f>
-        <v>260</v>
-      </c>
-      <c r="Y7" s="12">
+        <v>#REF!</v>
+      </c>
+      <c r="Y7" s="12" t="e">
         <f t="shared" ref="Y7" si="8">SUM(Y2:Y6)+X7</f>
-        <v>260</v>
-      </c>
-      <c r="Z7" s="12">
+        <v>#REF!</v>
+      </c>
+      <c r="Z7" s="12" t="e">
         <f t="shared" ref="Z7" si="9">SUM(Z2:Z6)+Y7</f>
-        <v>260</v>
-      </c>
-      <c r="AA7" s="12">
+        <v>#REF!</v>
+      </c>
+      <c r="AA7" s="12" t="e">
         <f t="shared" ref="AA7" si="10">SUM(AA2:AA6)+Z7</f>
-        <v>260</v>
-      </c>
-      <c r="AB7" s="12">
+        <v>#REF!</v>
+      </c>
+      <c r="AB7" s="12" t="e">
         <f t="shared" ref="AB7" si="11">SUM(AB2:AB6)+AA7</f>
-        <v>260</v>
-      </c>
-      <c r="AC7" s="12">
+        <v>#REF!</v>
+      </c>
+      <c r="AC7" s="12" t="e">
         <f t="shared" ref="AC7" si="12">SUM(AC2:AC6)+AB7</f>
-        <v>260</v>
-      </c>
-      <c r="AD7" s="12">
+        <v>#REF!</v>
+      </c>
+      <c r="AD7" s="12" t="e">
         <f t="shared" ref="AD7" si="13">SUM(AD2:AD6)+AC7</f>
-        <v>260</v>
-      </c>
-      <c r="AE7" s="12">
+        <v>#REF!</v>
+      </c>
+      <c r="AE7" s="12" t="e">
         <f t="shared" ref="AE7" si="14">SUM(AE2:AE6)+AD7</f>
-        <v>260</v>
-      </c>
-      <c r="AF7" s="12">
+        <v>#REF!</v>
+      </c>
+      <c r="AF7" s="12" t="e">
         <f t="shared" ref="AF7" si="15">SUM(AF2:AF6)+AE7</f>
-        <v>260</v>
-      </c>
-      <c r="AG7" s="12">
+        <v>#REF!</v>
+      </c>
+      <c r="AG7" s="12" t="e">
         <f t="shared" ref="AG7" si="16">SUM(AG2:AG6)+AF7</f>
-        <v>260</v>
-      </c>
-      <c r="AH7" s="12">
+        <v>#REF!</v>
+      </c>
+      <c r="AH7" s="12" t="e">
         <f t="shared" ref="AH7" si="17">SUM(AH2:AH6)+AG7</f>
-        <v>260</v>
-      </c>
-      <c r="AI7" s="12">
+        <v>#REF!</v>
+      </c>
+      <c r="AI7" s="12" t="e">
         <f t="shared" ref="AI7" si="18">SUM(AI2:AI6)+AH7</f>
-        <v>260</v>
-      </c>
-      <c r="AJ7" s="12">
+        <v>#REF!</v>
+      </c>
+      <c r="AJ7" s="12" t="e">
         <f t="shared" ref="AJ7" si="19">SUM(AJ2:AJ6)+AI7</f>
-        <v>260</v>
-      </c>
-      <c r="AK7" s="12">
+        <v>#REF!</v>
+      </c>
+      <c r="AK7" s="12" t="e">
         <f t="shared" ref="AK7" si="20">SUM(AK2:AK6)+AJ7</f>
-        <v>260</v>
-      </c>
-      <c r="AL7" s="12">
+        <v>#REF!</v>
+      </c>
+      <c r="AL7" s="12" t="e">
         <f t="shared" ref="AL7" si="21">SUM(AL2:AL6)+AK7</f>
-        <v>260</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="8" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -4118,13 +4321,13 @@
       <c r="A13" s="41" t="s">
         <v>111</v>
       </c>
-      <c r="B13" s="42">
-        <f>'Như Phương'!H11</f>
-        <v>28</v>
-      </c>
-      <c r="C13" s="42">
-        <f>'Như Phương'!H20</f>
-        <v>29</v>
+      <c r="B13" s="42" t="e">
+        <f>'Như Phương'!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C13" s="42" t="e">
+        <f>'Như Phương'!#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="D13" s="41"/>
       <c r="E13" s="54"/>
@@ -4161,159 +4364,159 @@
       <c r="AJ13" s="41"/>
       <c r="AK13" s="41"/>
       <c r="AL13" s="41"/>
-      <c r="AM13" s="48">
+      <c r="AM13" s="48" t="e">
         <f t="shared" si="22"/>
-        <v>57</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="14" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="B14" s="12">
+      <c r="B14" s="12" t="e">
         <f>SUM(B9:B13)</f>
-        <v>139.5</v>
-      </c>
-      <c r="C14" s="12">
+        <v>#REF!</v>
+      </c>
+      <c r="C14" s="12" t="e">
         <f t="shared" ref="C14:R14" si="23">SUM(C9:C13)+B14</f>
-        <v>284.5</v>
-      </c>
-      <c r="D14" s="12">
+        <v>#REF!</v>
+      </c>
+      <c r="D14" s="12" t="e">
         <f t="shared" si="23"/>
-        <v>322.5</v>
-      </c>
-      <c r="E14" s="12">
+        <v>#REF!</v>
+      </c>
+      <c r="E14" s="12" t="e">
         <f t="shared" si="23"/>
-        <v>322.5</v>
-      </c>
-      <c r="F14" s="12">
+        <v>#REF!</v>
+      </c>
+      <c r="F14" s="12" t="e">
         <f t="shared" si="23"/>
-        <v>322.5</v>
-      </c>
-      <c r="G14" s="12">
+        <v>#REF!</v>
+      </c>
+      <c r="G14" s="12" t="e">
         <f t="shared" si="23"/>
-        <v>322.5</v>
-      </c>
-      <c r="H14" s="12">
+        <v>#REF!</v>
+      </c>
+      <c r="H14" s="12" t="e">
         <f t="shared" si="23"/>
-        <v>322.5</v>
-      </c>
-      <c r="I14" s="12">
+        <v>#REF!</v>
+      </c>
+      <c r="I14" s="12" t="e">
         <f t="shared" si="23"/>
-        <v>322.5</v>
-      </c>
-      <c r="J14" s="12">
+        <v>#REF!</v>
+      </c>
+      <c r="J14" s="12" t="e">
         <f t="shared" si="23"/>
-        <v>322.5</v>
-      </c>
-      <c r="K14" s="12">
+        <v>#REF!</v>
+      </c>
+      <c r="K14" s="12" t="e">
         <f t="shared" si="23"/>
-        <v>322.5</v>
-      </c>
-      <c r="L14" s="12">
+        <v>#REF!</v>
+      </c>
+      <c r="L14" s="12" t="e">
         <f t="shared" si="23"/>
-        <v>322.5</v>
-      </c>
-      <c r="M14" s="12">
+        <v>#REF!</v>
+      </c>
+      <c r="M14" s="12" t="e">
         <f t="shared" si="23"/>
-        <v>322.5</v>
-      </c>
-      <c r="N14" s="12">
+        <v>#REF!</v>
+      </c>
+      <c r="N14" s="12" t="e">
         <f t="shared" si="23"/>
-        <v>322.5</v>
-      </c>
-      <c r="O14" s="12">
+        <v>#REF!</v>
+      </c>
+      <c r="O14" s="12" t="e">
         <f t="shared" si="23"/>
-        <v>322.5</v>
-      </c>
-      <c r="P14" s="12">
+        <v>#REF!</v>
+      </c>
+      <c r="P14" s="12" t="e">
         <f t="shared" si="23"/>
-        <v>322.5</v>
-      </c>
-      <c r="Q14" s="12">
+        <v>#REF!</v>
+      </c>
+      <c r="Q14" s="12" t="e">
         <f t="shared" si="23"/>
-        <v>322.5</v>
-      </c>
-      <c r="R14" s="12">
+        <v>#REF!</v>
+      </c>
+      <c r="R14" s="12" t="e">
         <f t="shared" si="23"/>
-        <v>322.5</v>
-      </c>
-      <c r="S14" s="12">
+        <v>#REF!</v>
+      </c>
+      <c r="S14" s="12" t="e">
         <f t="shared" ref="S14" si="24">SUM(S9:S13)+R14</f>
-        <v>322.5</v>
-      </c>
-      <c r="T14" s="12">
+        <v>#REF!</v>
+      </c>
+      <c r="T14" s="12" t="e">
         <f t="shared" ref="T14" si="25">SUM(T9:T13)+S14</f>
-        <v>322.5</v>
-      </c>
-      <c r="U14" s="12">
+        <v>#REF!</v>
+      </c>
+      <c r="U14" s="12" t="e">
         <f t="shared" ref="U14" si="26">SUM(U9:U13)+T14</f>
-        <v>322.5</v>
-      </c>
-      <c r="V14" s="12">
+        <v>#REF!</v>
+      </c>
+      <c r="V14" s="12" t="e">
         <f t="shared" ref="V14" si="27">SUM(V9:V13)+U14</f>
-        <v>322.5</v>
-      </c>
-      <c r="W14" s="12">
+        <v>#REF!</v>
+      </c>
+      <c r="W14" s="12" t="e">
         <f t="shared" ref="W14" si="28">SUM(W9:W13)+V14</f>
-        <v>322.5</v>
-      </c>
-      <c r="X14" s="12">
+        <v>#REF!</v>
+      </c>
+      <c r="X14" s="12" t="e">
         <f t="shared" ref="X14" si="29">SUM(X9:X13)+W14</f>
-        <v>322.5</v>
-      </c>
-      <c r="Y14" s="12">
+        <v>#REF!</v>
+      </c>
+      <c r="Y14" s="12" t="e">
         <f t="shared" ref="Y14" si="30">SUM(Y9:Y13)+X14</f>
-        <v>322.5</v>
-      </c>
-      <c r="Z14" s="12">
+        <v>#REF!</v>
+      </c>
+      <c r="Z14" s="12" t="e">
         <f t="shared" ref="Z14" si="31">SUM(Z9:Z13)+Y14</f>
-        <v>322.5</v>
-      </c>
-      <c r="AA14" s="12">
+        <v>#REF!</v>
+      </c>
+      <c r="AA14" s="12" t="e">
         <f t="shared" ref="AA14" si="32">SUM(AA9:AA13)+Z14</f>
-        <v>322.5</v>
-      </c>
-      <c r="AB14" s="12">
+        <v>#REF!</v>
+      </c>
+      <c r="AB14" s="12" t="e">
         <f t="shared" ref="AB14" si="33">SUM(AB9:AB13)+AA14</f>
-        <v>322.5</v>
-      </c>
-      <c r="AC14" s="12">
+        <v>#REF!</v>
+      </c>
+      <c r="AC14" s="12" t="e">
         <f t="shared" ref="AC14" si="34">SUM(AC9:AC13)+AB14</f>
-        <v>322.5</v>
-      </c>
-      <c r="AD14" s="12">
+        <v>#REF!</v>
+      </c>
+      <c r="AD14" s="12" t="e">
         <f t="shared" ref="AD14" si="35">SUM(AD9:AD13)+AC14</f>
-        <v>322.5</v>
-      </c>
-      <c r="AE14" s="12">
+        <v>#REF!</v>
+      </c>
+      <c r="AE14" s="12" t="e">
         <f t="shared" ref="AE14" si="36">SUM(AE9:AE13)+AD14</f>
-        <v>322.5</v>
-      </c>
-      <c r="AF14" s="12">
+        <v>#REF!</v>
+      </c>
+      <c r="AF14" s="12" t="e">
         <f t="shared" ref="AF14" si="37">SUM(AF9:AF13)+AE14</f>
-        <v>322.5</v>
-      </c>
-      <c r="AG14" s="12">
+        <v>#REF!</v>
+      </c>
+      <c r="AG14" s="12" t="e">
         <f t="shared" ref="AG14" si="38">SUM(AG9:AG13)+AF14</f>
-        <v>322.5</v>
-      </c>
-      <c r="AH14" s="12">
+        <v>#REF!</v>
+      </c>
+      <c r="AH14" s="12" t="e">
         <f t="shared" ref="AH14" si="39">SUM(AH9:AH13)+AG14</f>
-        <v>322.5</v>
-      </c>
-      <c r="AI14" s="12">
+        <v>#REF!</v>
+      </c>
+      <c r="AI14" s="12" t="e">
         <f t="shared" ref="AI14" si="40">SUM(AI9:AI13)+AH14</f>
-        <v>322.5</v>
-      </c>
-      <c r="AJ14" s="12">
+        <v>#REF!</v>
+      </c>
+      <c r="AJ14" s="12" t="e">
         <f t="shared" ref="AJ14" si="41">SUM(AJ9:AJ13)+AI14</f>
-        <v>322.5</v>
-      </c>
-      <c r="AK14" s="12">
+        <v>#REF!</v>
+      </c>
+      <c r="AK14" s="12" t="e">
         <f t="shared" ref="AK14" si="42">SUM(AK9:AK13)+AJ14</f>
-        <v>322.5</v>
-      </c>
-      <c r="AL14" s="12">
+        <v>#REF!</v>
+      </c>
+      <c r="AL14" s="12" t="e">
         <f t="shared" ref="AL14" si="43">SUM(AL9:AL13)+AK14</f>
-        <v>322.5</v>
+        <v>#REF!</v>
       </c>
     </row>
   </sheetData>
@@ -4361,17 +4564,17 @@
       <c r="I1" s="22"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="72"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="73"/>
-      <c r="I2" s="74"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="73"/>
     </row>
     <row r="3" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
@@ -4578,21 +4781,21 @@
       <c r="B11" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="69">
+      <c r="C11" s="74">
         <f>SUM(F4:F10)</f>
         <v>30</v>
       </c>
-      <c r="D11" s="69"/>
-      <c r="E11" s="69"/>
-      <c r="F11" s="70"/>
+      <c r="D11" s="74"/>
+      <c r="E11" s="74"/>
+      <c r="F11" s="75"/>
       <c r="G11" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="69">
+      <c r="H11" s="74">
         <f>SUM(G4:G10)</f>
         <v>30</v>
       </c>
-      <c r="I11" s="70"/>
+      <c r="I11" s="75"/>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="24" t="s">
@@ -4795,21 +4998,21 @@
       <c r="B20" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="69">
+      <c r="C20" s="74">
         <f>SUM(F13:F19)</f>
         <v>22</v>
       </c>
-      <c r="D20" s="69"/>
-      <c r="E20" s="69"/>
-      <c r="F20" s="70"/>
+      <c r="D20" s="74"/>
+      <c r="E20" s="74"/>
+      <c r="F20" s="75"/>
       <c r="G20" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H20" s="69">
+      <c r="H20" s="74">
         <f>SUM(G13:G19)</f>
         <v>34</v>
       </c>
-      <c r="I20" s="70"/>
+      <c r="I20" s="75"/>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="24" t="s">
@@ -5016,21 +5219,21 @@
       <c r="B30" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C30" s="69">
+      <c r="C30" s="74">
         <f>SUM(F22:F29)</f>
         <v>0</v>
       </c>
-      <c r="D30" s="69"/>
-      <c r="E30" s="69"/>
-      <c r="F30" s="70"/>
+      <c r="D30" s="74"/>
+      <c r="E30" s="74"/>
+      <c r="F30" s="75"/>
       <c r="G30" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H30" s="69">
+      <c r="H30" s="74">
         <f>SUM(G22:G29)</f>
         <v>38</v>
       </c>
-      <c r="I30" s="70"/>
+      <c r="I30" s="75"/>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="24" t="s">
@@ -5184,21 +5387,21 @@
       <c r="B39" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C39" s="69">
+      <c r="C39" s="74">
         <f>SUM(F32:F38)</f>
         <v>0</v>
       </c>
-      <c r="D39" s="69"/>
-      <c r="E39" s="69"/>
-      <c r="F39" s="70"/>
+      <c r="D39" s="74"/>
+      <c r="E39" s="74"/>
+      <c r="F39" s="75"/>
       <c r="G39" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H39" s="69">
+      <c r="H39" s="74">
         <f>SUM(G32:G38)</f>
         <v>0</v>
       </c>
-      <c r="I39" s="70"/>
+      <c r="I39" s="75"/>
     </row>
     <row r="40" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="24" t="s">
@@ -5348,21 +5551,21 @@
       <c r="B48" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C48" s="69">
+      <c r="C48" s="74">
         <f>SUM(F41:F47)</f>
         <v>0</v>
       </c>
-      <c r="D48" s="69"/>
-      <c r="E48" s="69"/>
-      <c r="F48" s="70"/>
+      <c r="D48" s="74"/>
+      <c r="E48" s="74"/>
+      <c r="F48" s="75"/>
       <c r="G48" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H48" s="69">
+      <c r="H48" s="74">
         <f>SUM(G41:G47)</f>
         <v>0</v>
       </c>
-      <c r="I48" s="70"/>
+      <c r="I48" s="75"/>
     </row>
     <row r="49" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="24" t="s">
@@ -5512,21 +5715,21 @@
       <c r="B57" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C57" s="69">
+      <c r="C57" s="74">
         <f>SUM(F50:F56)</f>
         <v>0</v>
       </c>
-      <c r="D57" s="69"/>
-      <c r="E57" s="69"/>
-      <c r="F57" s="70"/>
+      <c r="D57" s="74"/>
+      <c r="E57" s="74"/>
+      <c r="F57" s="75"/>
       <c r="G57" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H57" s="69">
+      <c r="H57" s="74">
         <f>SUM(G50:G56)</f>
         <v>0</v>
       </c>
-      <c r="I57" s="70"/>
+      <c r="I57" s="75"/>
     </row>
     <row r="58" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A58" s="24" t="s">
@@ -5676,24 +5879,30 @@
       <c r="B66" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C66" s="69">
+      <c r="C66" s="74">
         <f>SUM(F59:F65)</f>
         <v>0</v>
       </c>
-      <c r="D66" s="69"/>
-      <c r="E66" s="69"/>
-      <c r="F66" s="70"/>
+      <c r="D66" s="74"/>
+      <c r="E66" s="74"/>
+      <c r="F66" s="75"/>
       <c r="G66" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H66" s="69">
+      <c r="H66" s="74">
         <f>SUM(G59:G65)</f>
         <v>0</v>
       </c>
-      <c r="I66" s="70"/>
+      <c r="I66" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="C66:F66"/>
+    <mergeCell ref="H66:I66"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="H20:I20"/>
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="C48:F48"/>
     <mergeCell ref="H48:I48"/>
@@ -5703,12 +5912,6 @@
     <mergeCell ref="H30:I30"/>
     <mergeCell ref="C39:F39"/>
     <mergeCell ref="H39:I39"/>
-    <mergeCell ref="C66:F66"/>
-    <mergeCell ref="H66:I66"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="H20:I20"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <dataValidations count="6">
@@ -5743,7 +5946,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B58" workbookViewId="0">
+    <sheetView topLeftCell="B58" workbookViewId="0">
       <selection activeCell="F67" sqref="F67"/>
     </sheetView>
   </sheetViews>
@@ -5774,17 +5977,17 @@
       <c r="I1" s="22"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="72"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="73"/>
-      <c r="I2" s="74"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="73"/>
     </row>
     <row r="3" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="24" t="s">
@@ -5991,21 +6194,21 @@
       <c r="B11" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="75">
+      <c r="C11" s="76">
         <f>SUM(F4:F10)</f>
         <v>26</v>
       </c>
-      <c r="D11" s="69"/>
-      <c r="E11" s="69"/>
-      <c r="F11" s="70"/>
+      <c r="D11" s="74"/>
+      <c r="E11" s="74"/>
+      <c r="F11" s="75"/>
       <c r="G11" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="69">
+      <c r="H11" s="74">
         <f>SUM(G4:G10)</f>
         <v>26</v>
       </c>
-      <c r="I11" s="70"/>
+      <c r="I11" s="75"/>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="24" t="s">
@@ -6218,21 +6421,21 @@
       <c r="B20" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="69">
+      <c r="C20" s="74">
         <f>SUM(F13:F19)</f>
         <v>30</v>
       </c>
-      <c r="D20" s="69"/>
-      <c r="E20" s="69"/>
-      <c r="F20" s="70"/>
+      <c r="D20" s="74"/>
+      <c r="E20" s="74"/>
+      <c r="F20" s="75"/>
       <c r="G20" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H20" s="69">
+      <c r="H20" s="74">
         <f>SUM(G13:G19)</f>
         <v>30</v>
       </c>
-      <c r="I20" s="70"/>
+      <c r="I20" s="75"/>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="24" t="s">
@@ -6273,7 +6476,7 @@
       <c r="C22" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="D22" s="78" t="s">
+      <c r="D22" s="69" t="s">
         <v>118</v>
       </c>
       <c r="E22" s="18">
@@ -6298,7 +6501,7 @@
       <c r="C23" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="D23" s="78" t="s">
+      <c r="D23" s="69" t="s">
         <v>119</v>
       </c>
       <c r="E23" s="18">
@@ -6451,21 +6654,21 @@
       <c r="B29" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="69">
+      <c r="C29" s="74">
         <f>SUM(F22:F28)</f>
         <v>45</v>
       </c>
-      <c r="D29" s="69"/>
-      <c r="E29" s="69"/>
-      <c r="F29" s="70"/>
+      <c r="D29" s="74"/>
+      <c r="E29" s="74"/>
+      <c r="F29" s="75"/>
       <c r="G29" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H29" s="69">
+      <c r="H29" s="74">
         <f>SUM(G22:G28)</f>
         <v>0</v>
       </c>
-      <c r="I29" s="70"/>
+      <c r="I29" s="75"/>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="24" t="s">
@@ -6506,7 +6709,7 @@
       <c r="C31" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="D31" s="78" t="s">
+      <c r="D31" s="69" t="s">
         <v>128</v>
       </c>
       <c r="E31" s="18">
@@ -6660,21 +6863,21 @@
       <c r="B38" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C38" s="69">
+      <c r="C38" s="74">
         <f>SUM(F31:F37)</f>
         <v>38</v>
       </c>
-      <c r="D38" s="69"/>
-      <c r="E38" s="69"/>
-      <c r="F38" s="70"/>
+      <c r="D38" s="74"/>
+      <c r="E38" s="74"/>
+      <c r="F38" s="75"/>
       <c r="G38" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H38" s="69">
+      <c r="H38" s="74">
         <f>SUM(G31:G37)</f>
         <v>0</v>
       </c>
-      <c r="I38" s="70"/>
+      <c r="I38" s="75"/>
     </row>
     <row r="39" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="24" t="s">
@@ -6827,21 +7030,21 @@
       <c r="B47" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C47" s="69">
+      <c r="C47" s="74">
         <f>SUM(F40:F46)</f>
         <v>0</v>
       </c>
-      <c r="D47" s="69"/>
-      <c r="E47" s="69"/>
-      <c r="F47" s="70"/>
+      <c r="D47" s="74"/>
+      <c r="E47" s="74"/>
+      <c r="F47" s="75"/>
       <c r="G47" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H47" s="69">
+      <c r="H47" s="74">
         <f>SUM(G40:G46)</f>
         <v>0</v>
       </c>
-      <c r="I47" s="70"/>
+      <c r="I47" s="75"/>
     </row>
     <row r="48" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="24" t="s">
@@ -6994,21 +7197,21 @@
       <c r="B56" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C56" s="69">
+      <c r="C56" s="74">
         <f>SUM(F49:F55)</f>
         <v>0</v>
       </c>
-      <c r="D56" s="69"/>
-      <c r="E56" s="69"/>
-      <c r="F56" s="70"/>
+      <c r="D56" s="74"/>
+      <c r="E56" s="74"/>
+      <c r="F56" s="75"/>
       <c r="G56" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H56" s="69">
+      <c r="H56" s="74">
         <f>SUM(G49:G55)</f>
         <v>0</v>
       </c>
-      <c r="I56" s="70"/>
+      <c r="I56" s="75"/>
     </row>
     <row r="57" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="24" t="s">
@@ -7217,21 +7420,21 @@
       <c r="B65" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C65" s="69">
+      <c r="C65" s="74">
         <f>SUM(F58:F64)</f>
         <v>50</v>
       </c>
-      <c r="D65" s="69"/>
-      <c r="E65" s="69"/>
-      <c r="F65" s="70"/>
+      <c r="D65" s="74"/>
+      <c r="E65" s="74"/>
+      <c r="F65" s="75"/>
       <c r="G65" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H65" s="69">
+      <c r="H65" s="74">
         <f>SUM(G58:G64)</f>
         <v>0</v>
       </c>
-      <c r="I65" s="70"/>
+      <c r="I65" s="75"/>
     </row>
     <row r="66" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="24" t="s">
@@ -7408,35 +7611,35 @@
       <c r="B74" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C74" s="69">
+      <c r="C74" s="74">
         <f>SUM(F67:F73)</f>
         <v>10</v>
       </c>
-      <c r="D74" s="69"/>
-      <c r="E74" s="69"/>
-      <c r="F74" s="70"/>
+      <c r="D74" s="74"/>
+      <c r="E74" s="74"/>
+      <c r="F74" s="75"/>
       <c r="G74" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H74" s="69">
+      <c r="H74" s="74">
         <f>SUM(G67:G73)</f>
         <v>0</v>
       </c>
-      <c r="I74" s="70"/>
+      <c r="I74" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="H20:I20"/>
     <mergeCell ref="C74:F74"/>
     <mergeCell ref="H74:I74"/>
     <mergeCell ref="C65:F65"/>
     <mergeCell ref="H65:I65"/>
     <mergeCell ref="C29:F29"/>
     <mergeCell ref="H29:I29"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="H20:I20"/>
     <mergeCell ref="C38:F38"/>
     <mergeCell ref="H38:I38"/>
     <mergeCell ref="C47:F47"/>
@@ -7505,17 +7708,17 @@
       <c r="I1" s="22"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="72"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="73"/>
-      <c r="I2" s="74"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="73"/>
     </row>
     <row r="3" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="24" t="s">
@@ -7720,21 +7923,21 @@
       <c r="B11" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="76">
+      <c r="C11" s="77">
         <f>SUM(F4:F10)</f>
         <v>26.5</v>
       </c>
-      <c r="D11" s="76"/>
-      <c r="E11" s="76"/>
-      <c r="F11" s="77"/>
+      <c r="D11" s="77"/>
+      <c r="E11" s="77"/>
+      <c r="F11" s="78"/>
       <c r="G11" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="76">
+      <c r="H11" s="77">
         <f>SUM(G4:G10)</f>
         <v>27.5</v>
       </c>
-      <c r="I11" s="77"/>
+      <c r="I11" s="78"/>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="24" t="s">
@@ -7935,21 +8138,21 @@
       <c r="B20" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="76">
+      <c r="C20" s="77">
         <f>SUM(F13:F19)</f>
         <v>18.5</v>
       </c>
-      <c r="D20" s="76"/>
-      <c r="E20" s="76"/>
-      <c r="F20" s="77"/>
+      <c r="D20" s="77"/>
+      <c r="E20" s="77"/>
+      <c r="F20" s="78"/>
       <c r="G20" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H20" s="76">
+      <c r="H20" s="77">
         <f>SUM(G13:G19)</f>
         <v>22</v>
       </c>
-      <c r="I20" s="77"/>
+      <c r="I20" s="78"/>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="24" t="s">
@@ -8088,21 +8291,21 @@
       <c r="B29" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="69">
+      <c r="C29" s="74">
         <f>SUM(F22:F28)</f>
         <v>0</v>
       </c>
-      <c r="D29" s="69"/>
-      <c r="E29" s="69"/>
-      <c r="F29" s="70"/>
+      <c r="D29" s="74"/>
+      <c r="E29" s="74"/>
+      <c r="F29" s="75"/>
       <c r="G29" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H29" s="69">
+      <c r="H29" s="74">
         <f>SUM(G22:G28)</f>
         <v>0</v>
       </c>
-      <c r="I29" s="70"/>
+      <c r="I29" s="75"/>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="24" t="s">
@@ -8241,21 +8444,21 @@
       <c r="B38" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C38" s="69">
+      <c r="C38" s="74">
         <f>SUM(F31:F37)</f>
         <v>0</v>
       </c>
-      <c r="D38" s="69"/>
-      <c r="E38" s="69"/>
-      <c r="F38" s="70"/>
+      <c r="D38" s="74"/>
+      <c r="E38" s="74"/>
+      <c r="F38" s="75"/>
       <c r="G38" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H38" s="69">
+      <c r="H38" s="74">
         <f>SUM(G31:G37)</f>
         <v>0</v>
       </c>
-      <c r="I38" s="70"/>
+      <c r="I38" s="75"/>
     </row>
     <row r="39" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="24" t="s">
@@ -8394,21 +8597,21 @@
       <c r="B47" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C47" s="69">
+      <c r="C47" s="74">
         <f>SUM(F40:F46)</f>
         <v>0</v>
       </c>
-      <c r="D47" s="69"/>
-      <c r="E47" s="69"/>
-      <c r="F47" s="70"/>
+      <c r="D47" s="74"/>
+      <c r="E47" s="74"/>
+      <c r="F47" s="75"/>
       <c r="G47" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H47" s="69">
+      <c r="H47" s="74">
         <f>SUM(G40:G46)</f>
         <v>0</v>
       </c>
-      <c r="I47" s="70"/>
+      <c r="I47" s="75"/>
     </row>
     <row r="48" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="24" t="s">
@@ -8547,24 +8750,29 @@
       <c r="B56" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C56" s="69">
+      <c r="C56" s="74">
         <f>SUM(F49:F55)</f>
         <v>0</v>
       </c>
-      <c r="D56" s="69"/>
-      <c r="E56" s="69"/>
-      <c r="F56" s="70"/>
+      <c r="D56" s="74"/>
+      <c r="E56" s="74"/>
+      <c r="F56" s="75"/>
       <c r="G56" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H56" s="69">
+      <c r="H56" s="74">
         <f>SUM(G49:G55)</f>
         <v>0</v>
       </c>
-      <c r="I56" s="70"/>
+      <c r="I56" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="H20:I20"/>
     <mergeCell ref="C56:F56"/>
     <mergeCell ref="H56:I56"/>
     <mergeCell ref="C29:F29"/>
@@ -8573,11 +8781,6 @@
     <mergeCell ref="H38:I38"/>
     <mergeCell ref="C47:F47"/>
     <mergeCell ref="H47:I47"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="H20:I20"/>
   </mergeCells>
   <dataValidations count="6">
     <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3 B12" xr:uid="{6FFE7BB2-A561-485E-81E9-2571AC8DE5CA}">
@@ -8639,17 +8842,17 @@
       <c r="I1" s="22"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="72"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="73"/>
-      <c r="I2" s="74"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="73"/>
     </row>
     <row r="3" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="24" t="s">
@@ -8854,21 +9057,21 @@
       <c r="B11" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="76">
+      <c r="C11" s="77">
         <f>SUM(F4:F10)</f>
         <v>24</v>
       </c>
-      <c r="D11" s="76"/>
-      <c r="E11" s="76"/>
-      <c r="F11" s="77"/>
+      <c r="D11" s="77"/>
+      <c r="E11" s="77"/>
+      <c r="F11" s="78"/>
       <c r="G11" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="76">
+      <c r="H11" s="77">
         <f>SUM(G4:G10)</f>
         <v>28</v>
       </c>
-      <c r="I11" s="77"/>
+      <c r="I11" s="78"/>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="24" t="s">
@@ -9077,21 +9280,21 @@
       <c r="B20" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="76">
+      <c r="C20" s="77">
         <f>SUM(F13:F19)</f>
         <v>27</v>
       </c>
-      <c r="D20" s="76"/>
-      <c r="E20" s="76"/>
-      <c r="F20" s="77"/>
+      <c r="D20" s="77"/>
+      <c r="E20" s="77"/>
+      <c r="F20" s="78"/>
       <c r="G20" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H20" s="76">
+      <c r="H20" s="77">
         <f>SUM(G13:G19)</f>
         <v>30</v>
       </c>
-      <c r="I20" s="77"/>
+      <c r="I20" s="78"/>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="24" t="s">
@@ -9230,21 +9433,21 @@
       <c r="B29" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="69">
+      <c r="C29" s="74">
         <f>SUM(F22:F28)</f>
         <v>0</v>
       </c>
-      <c r="D29" s="69"/>
-      <c r="E29" s="69"/>
-      <c r="F29" s="70"/>
+      <c r="D29" s="74"/>
+      <c r="E29" s="74"/>
+      <c r="F29" s="75"/>
       <c r="G29" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H29" s="69">
+      <c r="H29" s="74">
         <f>SUM(G22:G28)</f>
         <v>0</v>
       </c>
-      <c r="I29" s="70"/>
+      <c r="I29" s="75"/>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="24" t="s">
@@ -9383,21 +9586,21 @@
       <c r="B38" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C38" s="69">
+      <c r="C38" s="74">
         <f>SUM(F31:F37)</f>
         <v>0</v>
       </c>
-      <c r="D38" s="69"/>
-      <c r="E38" s="69"/>
-      <c r="F38" s="70"/>
+      <c r="D38" s="74"/>
+      <c r="E38" s="74"/>
+      <c r="F38" s="75"/>
       <c r="G38" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H38" s="69">
+      <c r="H38" s="74">
         <f>SUM(G31:G37)</f>
         <v>0</v>
       </c>
-      <c r="I38" s="70"/>
+      <c r="I38" s="75"/>
     </row>
     <row r="39" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="24" t="s">
@@ -9536,21 +9739,21 @@
       <c r="B47" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C47" s="69">
+      <c r="C47" s="74">
         <f>SUM(F40:F46)</f>
         <v>0</v>
       </c>
-      <c r="D47" s="69"/>
-      <c r="E47" s="69"/>
-      <c r="F47" s="70"/>
+      <c r="D47" s="74"/>
+      <c r="E47" s="74"/>
+      <c r="F47" s="75"/>
       <c r="G47" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H47" s="69">
+      <c r="H47" s="74">
         <f>SUM(G40:G46)</f>
         <v>0</v>
       </c>
-      <c r="I47" s="70"/>
+      <c r="I47" s="75"/>
     </row>
     <row r="48" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="24" t="s">
@@ -9689,24 +9892,29 @@
       <c r="B56" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C56" s="69">
+      <c r="C56" s="74">
         <f>SUM(F49:F55)</f>
         <v>0</v>
       </c>
-      <c r="D56" s="69"/>
-      <c r="E56" s="69"/>
-      <c r="F56" s="70"/>
+      <c r="D56" s="74"/>
+      <c r="E56" s="74"/>
+      <c r="F56" s="75"/>
       <c r="G56" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H56" s="69">
+      <c r="H56" s="74">
         <f>SUM(G49:G55)</f>
         <v>0</v>
       </c>
-      <c r="I56" s="70"/>
+      <c r="I56" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="H20:I20"/>
     <mergeCell ref="C56:F56"/>
     <mergeCell ref="H56:I56"/>
     <mergeCell ref="C29:F29"/>
@@ -9715,11 +9923,6 @@
     <mergeCell ref="H38:I38"/>
     <mergeCell ref="C47:F47"/>
     <mergeCell ref="H47:I47"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="H20:I20"/>
   </mergeCells>
   <dataValidations count="6">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10 C19 C28 C37 C46 C55" xr:uid="{49E4ABBA-BF99-4A08-9146-05B03FF61551}">
@@ -9751,10 +9954,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{744DDA93-81BE-4148-9787-FFABC05BF7AA}">
-  <dimension ref="A1:I56"/>
+  <dimension ref="A1:L75"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="A75" sqref="A75:I75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9764,10 +9967,10 @@
     <col min="3" max="3" width="22.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="40.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.85546875" customWidth="1"/>
+    <col min="9" max="9" width="30.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>65</v>
       </c>
@@ -9780,49 +9983,49 @@
       <c r="H1" s="21"/>
       <c r="I1" s="22"/>
     </row>
-    <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="71" t="s">
+    <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="72"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="73"/>
-      <c r="I2" s="74"/>
-    </row>
-    <row r="3" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="71"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="73"/>
+    </row>
+    <row r="3" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="24" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="79" t="s">
         <v>53</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="24" t="s">
+      <c r="E3" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="24" t="s">
+      <c r="F3" s="80" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="24" t="s">
+      <c r="H3" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="24" t="s">
+      <c r="I3" s="81" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
         <v>1</v>
       </c>
@@ -9847,7 +10050,7 @@
       </c>
       <c r="I4" s="15"/>
     </row>
-    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
         <v>1</v>
       </c>
@@ -9867,14 +10070,15 @@
         <v>5</v>
       </c>
       <c r="G5" s="10">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H5" s="14" t="s">
         <v>20</v>
       </c>
       <c r="I5" s="15"/>
-    </row>
-    <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="L5" s="86"/>
+    </row>
+    <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -9894,14 +10098,14 @@
         <v>5</v>
       </c>
       <c r="G6" s="10">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H6" s="14" t="s">
         <v>20</v>
       </c>
       <c r="I6" s="3"/>
     </row>
-    <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -9928,7 +10132,7 @@
       </c>
       <c r="I7" s="3"/>
     </row>
-    <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1</v>
       </c>
@@ -9953,7 +10157,7 @@
       </c>
       <c r="I8" s="3"/>
     </row>
-    <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>1</v>
       </c>
@@ -9978,9 +10182,11 @@
       <c r="H9" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="I9" s="3"/>
-    </row>
-    <row r="10" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I9" s="82" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="9"/>
       <c r="B10" s="11"/>
       <c r="C10" s="9"/>
@@ -9991,73 +10197,71 @@
       <c r="H10" s="14"/>
       <c r="I10" s="5"/>
     </row>
-    <row r="11" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="67" t="s">
         <v>15</v>
       </c>
       <c r="B11" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="76">
+      <c r="C11" s="77">
         <f>SUM(F4:F10)</f>
         <v>27</v>
       </c>
-      <c r="D11" s="76"/>
-      <c r="E11" s="76"/>
-      <c r="F11" s="77"/>
+      <c r="D11" s="77"/>
+      <c r="E11" s="77"/>
+      <c r="F11" s="78"/>
       <c r="G11" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="76">
+      <c r="H11" s="77">
         <f>SUM(G4:G10)</f>
-        <v>28</v>
-      </c>
-      <c r="I11" s="77"/>
-    </row>
-    <row r="12" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="B12" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="I11" s="78"/>
+    </row>
+    <row r="12" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="10">
         <v>2</v>
       </c>
-      <c r="C12" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="D12" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12" s="24" t="s">
+      <c r="B12" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="56" t="s">
+        <v>104</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="F12" s="10">
+        <v>5</v>
+      </c>
+      <c r="G12" s="10">
         <v>4</v>
       </c>
-      <c r="F12" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="G12" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="H12" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="I12" s="24" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H12" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I12" s="15"/>
+    </row>
+    <row r="13" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="10">
         <v>2</v>
       </c>
-      <c r="B13" s="25" t="s">
-        <v>9</v>
+      <c r="B13" s="26" t="s">
+        <v>10</v>
       </c>
       <c r="C13" s="25" t="s">
         <v>19</v>
       </c>
       <c r="D13" s="56" t="s">
-        <v>104</v>
-      </c>
-      <c r="E13" s="18" t="s">
-        <v>71</v>
+        <v>105</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>72</v>
       </c>
       <c r="F13" s="10">
         <v>5</v>
@@ -10070,64 +10274,64 @@
       </c>
       <c r="I13" s="15"/>
     </row>
-    <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
         <v>2</v>
       </c>
-      <c r="B14" s="26" t="s">
-        <v>10</v>
+      <c r="B14" s="27" t="s">
+        <v>11</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="56" t="s">
-        <v>105</v>
-      </c>
-      <c r="E14" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="F14" s="10">
-        <v>5</v>
-      </c>
-      <c r="G14" s="10">
+        <v>63</v>
+      </c>
+      <c r="D14" s="57"/>
+      <c r="E14" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="F14" s="1">
+        <v>4</v>
+      </c>
+      <c r="G14" s="1">
         <v>5</v>
       </c>
       <c r="H14" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="I14" s="15"/>
-    </row>
-    <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="10">
         <v>2</v>
       </c>
       <c r="B15" s="27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="D15" s="57"/>
-      <c r="E15" s="17" t="s">
-        <v>73</v>
+        <v>19</v>
+      </c>
+      <c r="D15" s="57" t="s">
+        <v>106</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>74</v>
       </c>
       <c r="F15" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G15" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H15" s="14" t="s">
         <v>20</v>
       </c>
       <c r="I15" s="3"/>
     </row>
-    <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="10">
         <v>2</v>
       </c>
       <c r="B16" s="27" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C16" s="25" t="s">
         <v>19</v>
@@ -10135,8 +10339,8 @@
       <c r="D16" s="57" t="s">
         <v>106</v>
       </c>
-      <c r="E16" s="19" t="s">
-        <v>74</v>
+      <c r="E16" s="16" t="s">
+        <v>76</v>
       </c>
       <c r="F16" s="1">
         <v>5</v>
@@ -10149,743 +10353,1408 @@
       </c>
       <c r="I16" s="3"/>
     </row>
-    <row r="17" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="10">
         <v>2</v>
       </c>
       <c r="B17" s="27" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C17" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="57" t="s">
-        <v>106</v>
+      <c r="D17" s="63" t="s">
+        <v>107</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="F17" s="1">
         <v>5</v>
       </c>
       <c r="G17" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H17" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="I17" s="3"/>
-    </row>
-    <row r="18" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="10">
-        <v>2</v>
-      </c>
-      <c r="B18" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" s="25" t="s">
+      <c r="I17" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="9"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="5"/>
+    </row>
+    <row r="19" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="67" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="67" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="77">
+        <f>SUM(F12:F18)</f>
+        <v>29</v>
+      </c>
+      <c r="D19" s="77"/>
+      <c r="E19" s="77"/>
+      <c r="F19" s="78"/>
+      <c r="G19" s="66" t="s">
+        <v>17</v>
+      </c>
+      <c r="H19" s="77">
+        <f>SUM(G12:G18)</f>
+        <v>30</v>
+      </c>
+      <c r="I19" s="78"/>
+    </row>
+    <row r="20" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="10">
+        <v>3</v>
+      </c>
+      <c r="B20" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="63" t="s">
-        <v>107</v>
-      </c>
-      <c r="E18" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="F18" s="1">
-        <v>5</v>
-      </c>
-      <c r="G18" s="1">
-        <v>5</v>
-      </c>
-      <c r="H18" s="14" t="s">
+      <c r="D20" s="69" t="s">
+        <v>152</v>
+      </c>
+      <c r="E20" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="F20" s="10">
+        <v>5.5</v>
+      </c>
+      <c r="G20" s="10">
+        <v>6</v>
+      </c>
+      <c r="H20" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I20" s="15"/>
+    </row>
+    <row r="21" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="10">
+        <v>3</v>
+      </c>
+      <c r="B21" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21" s="56"/>
+      <c r="E21" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="F21" s="10">
+        <v>4</v>
+      </c>
+      <c r="G21" s="10">
+        <v>5</v>
+      </c>
+      <c r="H21" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="I18" s="3"/>
-    </row>
-    <row r="19" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="9"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="59"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="5"/>
-    </row>
-    <row r="20" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="67" t="s">
-        <v>15</v>
-      </c>
-      <c r="B20" s="67" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="76">
-        <f>SUM(F13:F19)</f>
-        <v>29</v>
-      </c>
-      <c r="D20" s="76"/>
-      <c r="E20" s="76"/>
-      <c r="F20" s="77"/>
-      <c r="G20" s="66" t="s">
-        <v>17</v>
-      </c>
-      <c r="H20" s="76">
-        <f>SUM(G13:G19)</f>
-        <v>29</v>
-      </c>
-      <c r="I20" s="77"/>
-    </row>
-    <row r="21" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="B21" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="C21" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="D21" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="E21" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="F21" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="G21" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="H21" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="I21" s="24" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I21" s="15"/>
+    </row>
+    <row r="22" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="10">
         <v>3</v>
       </c>
-      <c r="B22" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" s="25"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="15"/>
-    </row>
-    <row r="23" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B22" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="D22" s="57"/>
+      <c r="E22" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="F22" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="G22" s="1">
+        <v>5</v>
+      </c>
+      <c r="H22" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I22" s="3"/>
+    </row>
+    <row r="23" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="10">
         <v>3</v>
       </c>
       <c r="B23" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="C23" s="25"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="15"/>
-    </row>
-    <row r="24" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="C23" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="57" t="s">
+        <v>156</v>
+      </c>
+      <c r="E23" s="83" t="s">
+        <v>157</v>
+      </c>
+      <c r="F23" s="1">
+        <v>5</v>
+      </c>
+      <c r="G23" s="1">
+        <v>6</v>
+      </c>
+      <c r="H23" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="10">
         <v>3</v>
       </c>
       <c r="B24" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="C24" s="25"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="14"/>
+        <v>13</v>
+      </c>
+      <c r="C24" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" s="57" t="s">
+        <v>159</v>
+      </c>
+      <c r="E24" s="83">
+        <v>43476</v>
+      </c>
+      <c r="F24" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="G24" s="1">
+        <v>6</v>
+      </c>
+      <c r="H24" s="14" t="s">
+        <v>20</v>
+      </c>
       <c r="I24" s="3"/>
     </row>
-    <row r="25" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A25" s="10">
         <v>3</v>
       </c>
       <c r="B25" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" s="25"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="3"/>
-    </row>
-    <row r="26" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="10">
-        <v>3</v>
-      </c>
-      <c r="B26" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="C26" s="25"/>
-      <c r="D26" s="2"/>
+        <v>14</v>
+      </c>
+      <c r="C25" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" s="63" t="s">
+        <v>160</v>
+      </c>
+      <c r="E25" s="83">
+        <v>43507</v>
+      </c>
+      <c r="F25" s="1">
+        <v>6</v>
+      </c>
+      <c r="G25" s="1">
+        <v>7</v>
+      </c>
+      <c r="H25" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I25" s="82" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="9"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="59"/>
       <c r="E26" s="16"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
       <c r="H26" s="14"/>
-      <c r="I26" s="3"/>
-    </row>
-    <row r="27" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="10">
-        <v>3</v>
-      </c>
-      <c r="B27" s="68" t="s">
-        <v>14</v>
-      </c>
-      <c r="C27" s="25"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="3"/>
-    </row>
-    <row r="28" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="9"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="5"/>
-    </row>
-    <row r="29" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="67" t="s">
+      <c r="I26" s="5"/>
+    </row>
+    <row r="27" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="B29" s="67" t="s">
+      <c r="B27" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="69">
-        <f>SUM(F22:F28)</f>
-        <v>0</v>
-      </c>
-      <c r="D29" s="69"/>
-      <c r="E29" s="69"/>
-      <c r="F29" s="70"/>
-      <c r="G29" s="66" t="s">
+      <c r="C27" s="77">
+        <f>SUM(F20:F26)</f>
+        <v>29.5</v>
+      </c>
+      <c r="D27" s="77"/>
+      <c r="E27" s="77"/>
+      <c r="F27" s="78"/>
+      <c r="G27" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H29" s="69">
-        <f>SUM(G22:G28)</f>
-        <v>0</v>
-      </c>
-      <c r="I29" s="70"/>
+      <c r="H27" s="77">
+        <f>SUM(G20:G26)</f>
+        <v>35</v>
+      </c>
+      <c r="I27" s="78"/>
+    </row>
+    <row r="28" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="10">
+        <v>4</v>
+      </c>
+      <c r="B28" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28" s="69" t="s">
+        <v>162</v>
+      </c>
+      <c r="E28" s="18">
+        <v>43773</v>
+      </c>
+      <c r="F28" s="10">
+        <v>5.5</v>
+      </c>
+      <c r="G28" s="10">
+        <v>7</v>
+      </c>
+      <c r="H28" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I28" s="15" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="10">
+        <v>4</v>
+      </c>
+      <c r="B29" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D29" s="56" t="s">
+        <v>164</v>
+      </c>
+      <c r="E29" s="18">
+        <v>43774</v>
+      </c>
+      <c r="F29" s="10">
+        <v>5</v>
+      </c>
+      <c r="G29" s="10">
+        <v>6</v>
+      </c>
+      <c r="H29" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I29" s="15" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="B30" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="C30" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="D30" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="E30" s="24" t="s">
+      <c r="A30" s="10">
         <v>4</v>
       </c>
-      <c r="F30" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="G30" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="H30" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="I30" s="24" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B30" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="D30" s="57"/>
+      <c r="E30" s="18">
+        <v>43775</v>
+      </c>
+      <c r="F30" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="G30" s="1">
+        <v>5</v>
+      </c>
+      <c r="H30" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I30" s="3"/>
+    </row>
+    <row r="31" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="10">
         <v>4</v>
       </c>
       <c r="B31" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="C31" s="25"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="14"/>
-      <c r="I31" s="15"/>
-    </row>
-    <row r="32" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="C31" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D31" s="57" t="s">
+        <v>166</v>
+      </c>
+      <c r="E31" s="18">
+        <v>43776</v>
+      </c>
+      <c r="F31" s="1">
+        <v>5</v>
+      </c>
+      <c r="G31" s="1">
+        <v>7</v>
+      </c>
+      <c r="H31" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I31" s="3"/>
+    </row>
+    <row r="32" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="10">
         <v>4</v>
       </c>
       <c r="B32" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="C32" s="25"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="14"/>
-      <c r="I32" s="15"/>
-    </row>
-    <row r="33" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="C32" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="D32" s="57"/>
+      <c r="E32" s="18">
+        <v>43777</v>
+      </c>
+      <c r="F32" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="G32" s="1">
+        <v>5</v>
+      </c>
+      <c r="H32" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I32" s="3"/>
+    </row>
+    <row r="33" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="10">
         <v>4</v>
       </c>
       <c r="B33" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D33" s="63" t="s">
+        <v>167</v>
+      </c>
+      <c r="E33" s="18">
+        <v>43778</v>
+      </c>
+      <c r="F33" s="1">
+        <v>7</v>
+      </c>
+      <c r="G33" s="1">
+        <v>5</v>
+      </c>
+      <c r="H33" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="9"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="59"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="5"/>
+    </row>
+    <row r="35" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="67" t="s">
+        <v>15</v>
+      </c>
+      <c r="B35" s="67" t="s">
+        <v>16</v>
+      </c>
+      <c r="C35" s="77">
+        <f>SUM(F28:F34)</f>
+        <v>31.5</v>
+      </c>
+      <c r="D35" s="77"/>
+      <c r="E35" s="77"/>
+      <c r="F35" s="78"/>
+      <c r="G35" s="66" t="s">
+        <v>17</v>
+      </c>
+      <c r="H35" s="77">
+        <f>SUM(G28:G34)</f>
+        <v>35</v>
+      </c>
+      <c r="I35" s="78"/>
+    </row>
+    <row r="36" spans="1:9" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="10">
+        <v>5</v>
+      </c>
+      <c r="B36" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D36" s="69" t="s">
+        <v>169</v>
+      </c>
+      <c r="E36" s="18">
+        <v>43773</v>
+      </c>
+      <c r="F36" s="10">
+        <v>6</v>
+      </c>
+      <c r="G36" s="10"/>
+      <c r="H36" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I36" s="15" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="10">
+        <v>5</v>
+      </c>
+      <c r="B37" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="D37" s="56"/>
+      <c r="E37" s="18">
+        <v>43774</v>
+      </c>
+      <c r="F37" s="10">
+        <v>4</v>
+      </c>
+      <c r="G37" s="10"/>
+      <c r="H37" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I37" s="15"/>
+    </row>
+    <row r="38" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="10">
+        <v>5</v>
+      </c>
+      <c r="B38" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="C33" s="25"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="14"/>
-      <c r="I33" s="3"/>
-    </row>
-    <row r="34" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="10">
+      <c r="C38" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D38" s="57" t="s">
+        <v>171</v>
+      </c>
+      <c r="E38" s="18">
+        <v>43775</v>
+      </c>
+      <c r="F38" s="1">
+        <v>5</v>
+      </c>
+      <c r="G38" s="10"/>
+      <c r="H38" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I38" s="3"/>
+    </row>
+    <row r="39" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="10">
+        <v>5</v>
+      </c>
+      <c r="B39" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C39" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D39" s="57" t="s">
+        <v>172</v>
+      </c>
+      <c r="E39" s="18">
+        <v>43776</v>
+      </c>
+      <c r="F39" s="1">
+        <v>5</v>
+      </c>
+      <c r="G39" s="10"/>
+      <c r="H39" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I39" s="3"/>
+    </row>
+    <row r="40" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="10">
+        <v>5</v>
+      </c>
+      <c r="B40" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C40" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D40" s="63" t="s">
+        <v>173</v>
+      </c>
+      <c r="E40" s="18">
+        <v>43777</v>
+      </c>
+      <c r="F40" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="G40" s="10"/>
+      <c r="H40" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I40" s="3"/>
+    </row>
+    <row r="41" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A41" s="10">
+        <v>5</v>
+      </c>
+      <c r="B41" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="C41" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D41" s="63" t="s">
+        <v>174</v>
+      </c>
+      <c r="E41" s="18">
+        <v>43778</v>
+      </c>
+      <c r="F41" s="1">
+        <v>6</v>
+      </c>
+      <c r="G41" s="10"/>
+      <c r="H41" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I41" s="3"/>
+    </row>
+    <row r="42" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="9"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="59"/>
+      <c r="E42" s="16"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="14"/>
+      <c r="I42" s="5"/>
+    </row>
+    <row r="43" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="67" t="s">
+        <v>15</v>
+      </c>
+      <c r="B43" s="67" t="s">
+        <v>16</v>
+      </c>
+      <c r="C43" s="77">
+        <f>SUM(F36:F42)</f>
+        <v>30.5</v>
+      </c>
+      <c r="D43" s="77"/>
+      <c r="E43" s="77"/>
+      <c r="F43" s="78"/>
+      <c r="G43" s="66" t="s">
+        <v>17</v>
+      </c>
+      <c r="H43" s="77">
+        <f>SUM(G36:G42)</f>
+        <v>0</v>
+      </c>
+      <c r="I43" s="78"/>
+    </row>
+    <row r="44" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="10">
+        <v>6</v>
+      </c>
+      <c r="B44" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D44" s="69"/>
+      <c r="E44" s="18">
+        <v>43780</v>
+      </c>
+      <c r="F44" s="10">
+        <v>6</v>
+      </c>
+      <c r="G44" s="10"/>
+      <c r="H44" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I44" s="15"/>
+    </row>
+    <row r="45" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="10">
+        <v>6</v>
+      </c>
+      <c r="B45" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C45" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="D45" s="56"/>
+      <c r="E45" s="18">
+        <v>43781</v>
+      </c>
+      <c r="F45" s="10">
         <v>4</v>
       </c>
-      <c r="B34" s="27" t="s">
+      <c r="G45" s="10"/>
+      <c r="H45" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I45" s="15"/>
+    </row>
+    <row r="46" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="10">
+        <v>6</v>
+      </c>
+      <c r="B46" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C46" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D46" s="57"/>
+      <c r="E46" s="18">
+        <v>43782</v>
+      </c>
+      <c r="F46" s="1">
+        <v>5</v>
+      </c>
+      <c r="G46" s="10"/>
+      <c r="H46" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I46" s="3"/>
+    </row>
+    <row r="47" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="10">
+        <v>6</v>
+      </c>
+      <c r="B47" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="C34" s="25"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="14"/>
-      <c r="I34" s="3"/>
-    </row>
-    <row r="35" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="10">
-        <v>4</v>
-      </c>
-      <c r="B35" s="68" t="s">
+      <c r="C47" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D47" s="57"/>
+      <c r="E47" s="18">
+        <v>43783</v>
+      </c>
+      <c r="F47" s="1">
+        <v>5</v>
+      </c>
+      <c r="G47" s="10"/>
+      <c r="H47" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I47" s="3"/>
+    </row>
+    <row r="48" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="10">
+        <v>6</v>
+      </c>
+      <c r="B48" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="C35" s="25"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="14"/>
-      <c r="I35" s="3"/>
-    </row>
-    <row r="36" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="10">
-        <v>4</v>
-      </c>
-      <c r="B36" s="68" t="s">
-        <v>14</v>
-      </c>
-      <c r="C36" s="25"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="16"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="14"/>
-      <c r="I36" s="3"/>
-    </row>
-    <row r="37" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="9"/>
-      <c r="B37" s="12"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="16"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="14"/>
-      <c r="I37" s="5"/>
-    </row>
-    <row r="38" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="67" t="s">
-        <v>15</v>
-      </c>
-      <c r="B38" s="67" t="s">
-        <v>16</v>
-      </c>
-      <c r="C38" s="69">
-        <f>SUM(F31:F37)</f>
-        <v>0</v>
-      </c>
-      <c r="D38" s="69"/>
-      <c r="E38" s="69"/>
-      <c r="F38" s="70"/>
-      <c r="G38" s="66" t="s">
-        <v>17</v>
-      </c>
-      <c r="H38" s="69">
-        <f>SUM(G31:G37)</f>
-        <v>0</v>
-      </c>
-      <c r="I38" s="70"/>
-    </row>
-    <row r="39" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="B39" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="C39" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="D39" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="E39" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="F39" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="G39" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="H39" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="I39" s="24" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="10">
-        <v>5</v>
-      </c>
-      <c r="B40" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="C40" s="25"/>
-      <c r="D40" s="13"/>
-      <c r="E40" s="18"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="6"/>
-      <c r="H40" s="14"/>
-      <c r="I40" s="15"/>
-    </row>
-    <row r="41" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="10">
-        <v>5</v>
-      </c>
-      <c r="B41" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="C41" s="25"/>
-      <c r="D41" s="13"/>
-      <c r="E41" s="19"/>
-      <c r="F41" s="6"/>
-      <c r="G41" s="6"/>
-      <c r="H41" s="14"/>
-      <c r="I41" s="15"/>
-    </row>
-    <row r="42" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="10">
-        <v>5</v>
-      </c>
-      <c r="B42" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="C42" s="25"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="17"/>
-      <c r="F42" s="7"/>
-      <c r="G42" s="7"/>
-      <c r="H42" s="14"/>
-      <c r="I42" s="3"/>
-    </row>
-    <row r="43" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="10">
-        <v>5</v>
-      </c>
-      <c r="B43" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="C43" s="25"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="19"/>
-      <c r="F43" s="7"/>
-      <c r="G43" s="7"/>
-      <c r="H43" s="14"/>
-      <c r="I43" s="3"/>
-    </row>
-    <row r="44" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="10">
-        <v>5</v>
-      </c>
-      <c r="B44" s="68" t="s">
-        <v>13</v>
-      </c>
-      <c r="C44" s="25"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="16"/>
-      <c r="F44" s="7"/>
-      <c r="G44" s="7"/>
-      <c r="H44" s="14"/>
-      <c r="I44" s="3"/>
-    </row>
-    <row r="45" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="10">
-        <v>5</v>
-      </c>
-      <c r="B45" s="68" t="s">
-        <v>14</v>
-      </c>
-      <c r="C45" s="25"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="16"/>
-      <c r="F45" s="7"/>
-      <c r="G45" s="7"/>
-      <c r="H45" s="14"/>
-      <c r="I45" s="3"/>
-    </row>
-    <row r="46" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="9"/>
-      <c r="B46" s="12"/>
-      <c r="C46" s="9"/>
-      <c r="D46" s="4"/>
-      <c r="E46" s="16"/>
-      <c r="F46" s="8"/>
-      <c r="G46" s="8"/>
-      <c r="H46" s="14"/>
-      <c r="I46" s="5"/>
-    </row>
-    <row r="47" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="67" t="s">
-        <v>15</v>
-      </c>
-      <c r="B47" s="67" t="s">
-        <v>16</v>
-      </c>
-      <c r="C47" s="69">
-        <f>SUM(F40:F46)</f>
-        <v>0</v>
-      </c>
-      <c r="D47" s="69"/>
-      <c r="E47" s="69"/>
-      <c r="F47" s="70"/>
-      <c r="G47" s="66" t="s">
-        <v>17</v>
-      </c>
-      <c r="H47" s="69">
-        <f>SUM(G40:G46)</f>
-        <v>0</v>
-      </c>
-      <c r="I47" s="70"/>
-    </row>
-    <row r="48" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="B48" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="C48" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="D48" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="E48" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="F48" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="G48" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="H48" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="I48" s="24" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C48" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D48" s="63" t="s">
+        <v>175</v>
+      </c>
+      <c r="E48" s="18">
+        <v>43784</v>
+      </c>
+      <c r="F48" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="G48" s="10"/>
+      <c r="H48" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I48" s="3"/>
+    </row>
+    <row r="49" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A49" s="10">
         <v>6</v>
       </c>
       <c r="B49" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="C49" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D49" s="63" t="s">
+        <v>176</v>
+      </c>
+      <c r="E49" s="18">
+        <v>43785</v>
+      </c>
+      <c r="F49" s="1">
+        <v>6</v>
+      </c>
+      <c r="G49" s="10"/>
+      <c r="H49" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I49" s="3"/>
+    </row>
+    <row r="50" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="9"/>
+      <c r="B50" s="11"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="59"/>
+      <c r="E50" s="16"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="9"/>
+      <c r="H50" s="14"/>
+      <c r="I50" s="5"/>
+    </row>
+    <row r="51" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="67" t="s">
+        <v>15</v>
+      </c>
+      <c r="B51" s="67" t="s">
+        <v>16</v>
+      </c>
+      <c r="C51" s="77">
+        <f>SUM(F44:F50)</f>
+        <v>30.5</v>
+      </c>
+      <c r="D51" s="77"/>
+      <c r="E51" s="77"/>
+      <c r="F51" s="78"/>
+      <c r="G51" s="66" t="s">
+        <v>17</v>
+      </c>
+      <c r="H51" s="77">
+        <f>SUM(G44:G50)</f>
+        <v>0</v>
+      </c>
+      <c r="I51" s="78"/>
+    </row>
+    <row r="52" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="10">
+        <v>7</v>
+      </c>
+      <c r="B52" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="C49" s="25"/>
-      <c r="D49" s="13"/>
-      <c r="E49" s="18"/>
-      <c r="F49" s="6"/>
-      <c r="G49" s="6"/>
-      <c r="H49" s="14"/>
-      <c r="I49" s="15"/>
-    </row>
-    <row r="50" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="10">
+      <c r="C52" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D52" s="69" t="s">
+        <v>177</v>
+      </c>
+      <c r="E52" s="18">
+        <v>43787</v>
+      </c>
+      <c r="F52" s="10">
         <v>6</v>
       </c>
-      <c r="B50" s="27" t="s">
+      <c r="G52" s="10"/>
+      <c r="H52" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I52" s="15"/>
+    </row>
+    <row r="53" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="10">
+        <v>7</v>
+      </c>
+      <c r="B53" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="C50" s="25"/>
-      <c r="D50" s="13"/>
-      <c r="E50" s="19"/>
-      <c r="F50" s="6"/>
-      <c r="G50" s="6"/>
-      <c r="H50" s="14"/>
-      <c r="I50" s="15"/>
-    </row>
-    <row r="51" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="10">
+      <c r="C53" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="D53" s="56"/>
+      <c r="E53" s="18">
+        <v>43788</v>
+      </c>
+      <c r="F53" s="10">
+        <v>4</v>
+      </c>
+      <c r="G53" s="10"/>
+      <c r="H53" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I53" s="15"/>
+    </row>
+    <row r="54" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="10">
+        <v>7</v>
+      </c>
+      <c r="B54" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C54" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D54" s="57" t="s">
+        <v>178</v>
+      </c>
+      <c r="E54" s="18">
+        <v>43789</v>
+      </c>
+      <c r="F54" s="1">
+        <v>5</v>
+      </c>
+      <c r="G54" s="10"/>
+      <c r="H54" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I54" s="3"/>
+    </row>
+    <row r="55" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="10">
+        <v>7</v>
+      </c>
+      <c r="B55" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C55" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D55" s="57" t="s">
+        <v>178</v>
+      </c>
+      <c r="E55" s="18">
+        <v>43790</v>
+      </c>
+      <c r="F55" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="G55" s="10"/>
+      <c r="H55" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I55" s="3"/>
+    </row>
+    <row r="56" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="10">
+        <v>7</v>
+      </c>
+      <c r="B56" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C56" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D56" s="63" t="s">
+        <v>179</v>
+      </c>
+      <c r="E56" s="18">
+        <v>43791</v>
+      </c>
+      <c r="F56" s="1">
+        <v>5</v>
+      </c>
+      <c r="G56" s="10"/>
+      <c r="H56" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I56" s="3"/>
+    </row>
+    <row r="57" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A57" s="10">
+        <v>7</v>
+      </c>
+      <c r="B57" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="C57" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D57" s="63" t="s">
+        <v>180</v>
+      </c>
+      <c r="E57" s="18">
+        <v>43792</v>
+      </c>
+      <c r="F57" s="1">
         <v>6</v>
       </c>
-      <c r="B51" s="27" t="s">
+      <c r="G57" s="10"/>
+      <c r="H57" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I57" s="3"/>
+    </row>
+    <row r="58" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="9"/>
+      <c r="B58" s="11"/>
+      <c r="C58" s="9"/>
+      <c r="D58" s="59"/>
+      <c r="E58" s="16"/>
+      <c r="F58" s="9"/>
+      <c r="G58" s="9"/>
+      <c r="H58" s="14"/>
+      <c r="I58" s="5"/>
+    </row>
+    <row r="59" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="67" t="s">
+        <v>15</v>
+      </c>
+      <c r="B59" s="67" t="s">
+        <v>16</v>
+      </c>
+      <c r="C59" s="77">
+        <f>SUM(F52:F58)</f>
+        <v>32.5</v>
+      </c>
+      <c r="D59" s="77"/>
+      <c r="E59" s="77"/>
+      <c r="F59" s="78"/>
+      <c r="G59" s="66" t="s">
+        <v>17</v>
+      </c>
+      <c r="H59" s="77">
+        <f>SUM(G52:G58)</f>
+        <v>0</v>
+      </c>
+      <c r="I59" s="78"/>
+    </row>
+    <row r="60" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="10">
+        <v>8</v>
+      </c>
+      <c r="B60" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C60" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D60" s="84" t="s">
+        <v>181</v>
+      </c>
+      <c r="E60" s="18">
+        <v>43794</v>
+      </c>
+      <c r="F60" s="10">
+        <v>6</v>
+      </c>
+      <c r="G60" s="10"/>
+      <c r="H60" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I60" s="15"/>
+    </row>
+    <row r="61" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="10">
+        <v>8</v>
+      </c>
+      <c r="B61" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C61" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="D61" s="56"/>
+      <c r="E61" s="18">
+        <v>43795</v>
+      </c>
+      <c r="F61" s="10">
+        <v>4</v>
+      </c>
+      <c r="G61" s="10"/>
+      <c r="H61" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I61" s="15"/>
+    </row>
+    <row r="62" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="10">
+        <v>8</v>
+      </c>
+      <c r="B62" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="C51" s="25"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="17"/>
-      <c r="F51" s="7"/>
-      <c r="G51" s="7"/>
-      <c r="H51" s="14"/>
-      <c r="I51" s="3"/>
-    </row>
-    <row r="52" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="10">
+      <c r="C62" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D62" s="57" t="s">
+        <v>182</v>
+      </c>
+      <c r="E62" s="18">
+        <v>43796</v>
+      </c>
+      <c r="F62" s="1">
         <v>6</v>
       </c>
-      <c r="B52" s="27" t="s">
+      <c r="G62" s="10"/>
+      <c r="H62" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I62" s="3"/>
+    </row>
+    <row r="63" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="10">
+        <v>8</v>
+      </c>
+      <c r="B63" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="C52" s="25"/>
-      <c r="D52" s="2"/>
-      <c r="E52" s="19"/>
-      <c r="F52" s="7"/>
-      <c r="G52" s="7"/>
-      <c r="H52" s="14"/>
-      <c r="I52" s="3"/>
-    </row>
-    <row r="53" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="10">
+      <c r="C63" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D63" s="57" t="s">
+        <v>172</v>
+      </c>
+      <c r="E63" s="18">
+        <v>43797</v>
+      </c>
+      <c r="F63" s="1">
+        <v>4</v>
+      </c>
+      <c r="G63" s="10"/>
+      <c r="H63" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I63" s="3"/>
+    </row>
+    <row r="64" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="10">
+        <v>8</v>
+      </c>
+      <c r="B64" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C64" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D64" s="63" t="s">
+        <v>183</v>
+      </c>
+      <c r="E64" s="18">
+        <v>43798</v>
+      </c>
+      <c r="F64" s="1">
+        <v>5.5</v>
+      </c>
+      <c r="G64" s="10"/>
+      <c r="H64" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I64" s="3"/>
+    </row>
+    <row r="65" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A65" s="10">
+        <v>8</v>
+      </c>
+      <c r="B65" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="C65" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D65" s="63" t="s">
+        <v>184</v>
+      </c>
+      <c r="E65" s="18">
+        <v>43799</v>
+      </c>
+      <c r="F65" s="1">
         <v>6</v>
       </c>
-      <c r="B53" s="68" t="s">
+      <c r="G65" s="10"/>
+      <c r="H65" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I65" s="3"/>
+    </row>
+    <row r="66" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="85">
+        <v>8</v>
+      </c>
+      <c r="B66" s="11"/>
+      <c r="C66" s="9"/>
+      <c r="D66" s="59"/>
+      <c r="E66" s="16"/>
+      <c r="F66" s="9"/>
+      <c r="G66" s="9"/>
+      <c r="H66" s="14"/>
+      <c r="I66" s="5"/>
+    </row>
+    <row r="67" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="67">
+        <v>8</v>
+      </c>
+      <c r="B67" s="67" t="s">
+        <v>16</v>
+      </c>
+      <c r="C67" s="77">
+        <f>SUM(F60:F66)</f>
+        <v>31.5</v>
+      </c>
+      <c r="D67" s="77"/>
+      <c r="E67" s="77"/>
+      <c r="F67" s="78"/>
+      <c r="G67" s="66" t="s">
+        <v>17</v>
+      </c>
+      <c r="H67" s="77">
+        <f>SUM(G60:G66)</f>
+        <v>0</v>
+      </c>
+      <c r="I67" s="78"/>
+    </row>
+    <row r="68" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="10">
+        <v>9</v>
+      </c>
+      <c r="B68" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C68" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D68" s="84" t="s">
+        <v>185</v>
+      </c>
+      <c r="E68" s="18">
+        <v>43801</v>
+      </c>
+      <c r="F68" s="10">
+        <v>6</v>
+      </c>
+      <c r="G68" s="10"/>
+      <c r="H68" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I68" s="15"/>
+    </row>
+    <row r="69" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="10">
+        <v>9</v>
+      </c>
+      <c r="B69" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C69" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="D69" s="56"/>
+      <c r="E69" s="18">
+        <v>43802</v>
+      </c>
+      <c r="F69" s="10">
+        <v>4</v>
+      </c>
+      <c r="G69" s="10"/>
+      <c r="H69" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I69" s="15"/>
+    </row>
+    <row r="70" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="10">
+        <v>9</v>
+      </c>
+      <c r="B70" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C70" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D70" s="57" t="s">
+        <v>185</v>
+      </c>
+      <c r="E70" s="18">
+        <v>43803</v>
+      </c>
+      <c r="F70" s="1">
+        <v>6</v>
+      </c>
+      <c r="G70" s="10"/>
+      <c r="H70" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I70" s="3"/>
+    </row>
+    <row r="71" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="10">
+        <v>9</v>
+      </c>
+      <c r="B71" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C71" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D71" s="57" t="s">
+        <v>186</v>
+      </c>
+      <c r="E71" s="18">
+        <v>43804</v>
+      </c>
+      <c r="F71" s="1">
+        <v>4</v>
+      </c>
+      <c r="G71" s="10"/>
+      <c r="H71" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I71" s="3"/>
+    </row>
+    <row r="72" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="10">
+        <v>9</v>
+      </c>
+      <c r="B72" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="C53" s="25"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="16"/>
-      <c r="F53" s="7"/>
-      <c r="G53" s="7"/>
-      <c r="H53" s="14"/>
-      <c r="I53" s="3"/>
-    </row>
-    <row r="54" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="10">
+      <c r="C72" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D72" s="63" t="s">
+        <v>187</v>
+      </c>
+      <c r="E72" s="18">
+        <v>43805</v>
+      </c>
+      <c r="F72" s="1">
+        <v>5.5</v>
+      </c>
+      <c r="G72" s="10"/>
+      <c r="H72" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I72" s="3"/>
+    </row>
+    <row r="73" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A73" s="10">
+        <v>9</v>
+      </c>
+      <c r="B73" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="C73" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D73" s="63" t="s">
+        <v>184</v>
+      </c>
+      <c r="E73" s="18">
+        <v>43806</v>
+      </c>
+      <c r="F73" s="1">
         <v>6</v>
       </c>
-      <c r="B54" s="68" t="s">
-        <v>14</v>
-      </c>
-      <c r="C54" s="25"/>
-      <c r="D54" s="2"/>
-      <c r="E54" s="16"/>
-      <c r="F54" s="7"/>
-      <c r="G54" s="7"/>
-      <c r="H54" s="14"/>
-      <c r="I54" s="3"/>
-    </row>
-    <row r="55" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="9"/>
-      <c r="B55" s="12"/>
-      <c r="C55" s="9"/>
-      <c r="D55" s="4"/>
-      <c r="E55" s="16"/>
-      <c r="F55" s="8"/>
-      <c r="G55" s="8"/>
-      <c r="H55" s="14"/>
-      <c r="I55" s="5"/>
-    </row>
-    <row r="56" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="67" t="s">
-        <v>15</v>
-      </c>
-      <c r="B56" s="67" t="s">
+      <c r="G73" s="10"/>
+      <c r="H73" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I73" s="3"/>
+    </row>
+    <row r="74" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="85">
+        <v>9</v>
+      </c>
+      <c r="B74" s="11"/>
+      <c r="C74" s="9"/>
+      <c r="D74" s="59"/>
+      <c r="E74" s="16"/>
+      <c r="F74" s="9"/>
+      <c r="G74" s="9"/>
+      <c r="H74" s="14"/>
+      <c r="I74" s="5"/>
+    </row>
+    <row r="75" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="67">
+        <v>9</v>
+      </c>
+      <c r="B75" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C56" s="69">
-        <f>SUM(F49:F55)</f>
+      <c r="C75" s="77">
+        <f>SUM(F68:F74)</f>
+        <v>31.5</v>
+      </c>
+      <c r="D75" s="77"/>
+      <c r="E75" s="77"/>
+      <c r="F75" s="78"/>
+      <c r="G75" s="66" t="s">
+        <v>17</v>
+      </c>
+      <c r="H75" s="77">
+        <f>SUM(G68:G74)</f>
         <v>0</v>
       </c>
-      <c r="D56" s="69"/>
-      <c r="E56" s="69"/>
-      <c r="F56" s="70"/>
-      <c r="G56" s="66" t="s">
-        <v>17</v>
-      </c>
-      <c r="H56" s="69">
-        <f>SUM(G49:G55)</f>
-        <v>0</v>
-      </c>
-      <c r="I56" s="70"/>
+      <c r="I75" s="78"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="C56:F56"/>
-    <mergeCell ref="H56:I56"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="C38:F38"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="C47:F47"/>
-    <mergeCell ref="H47:I47"/>
+  <mergeCells count="19">
+    <mergeCell ref="C59:F59"/>
+    <mergeCell ref="H59:I59"/>
+    <mergeCell ref="C67:F67"/>
+    <mergeCell ref="H67:I67"/>
+    <mergeCell ref="C75:F75"/>
+    <mergeCell ref="H75:I75"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="C43:F43"/>
+    <mergeCell ref="H43:I43"/>
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="C11:F11"/>
     <mergeCell ref="H11:I11"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="C51:F51"/>
+    <mergeCell ref="H51:I51"/>
   </mergeCells>
-  <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10 C19 C28 C37 C46 C55" xr:uid="{6E08E741-C8C7-4210-9264-8F4FCE40EB21}">
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10 C18 C26 C34 C42 C50 C58 C66 C74" xr:uid="{37F695A9-FAA1-4B0C-BCF8-EDBE86D67943}">
       <formula1>"Project Management, Requirement, Architecture and Desgin, Implementation, Testing, Training, Meetting Customer, Meetting Mentor"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C9 C13:C18 C22:C27 C31:C36 C40:C45 C49:C54" xr:uid="{FEE62105-1E1C-408F-82C0-11D2CE7772AA}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C9 C12:C17 C20:C25 C28:C33 C36:C41 C44:C49 C52:C57 C61:C65 C69:C73" xr:uid="{4DC3D9AA-11CE-4711-9ED3-197750CC8F84}">
       <formula1>"Project Management, Requirement, Architecture and Desgin, Implementation, Testing, Training, Meetting Customer, Meeting Mentor"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:H10 H13:H19 H22:H28 H31:H37 H40:H46 H49:H55" xr:uid="{E64829C6-8241-4F40-B7F6-06026AC59D56}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:H10 H12:H18 H20:H26 H28:H34 H36:H42 H44:H50 H68:H74 H60:H66 H52:H58" xr:uid="{2584A001-B154-4F5B-91E6-3C188ADCF05D}">
       <formula1>"Done,Inprogress "</formula1>
     </dataValidation>
-    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3 B12" xr:uid="{33954315-0CBA-47B2-A2B7-73FE39F329C3}">
+    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3" xr:uid="{EBEBF163-72C9-402A-BB5E-65147965157F}">
       <formula1>B4</formula1>
       <formula2>B10</formula2>
-    </dataValidation>
-    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B21" xr:uid="{6622A24D-4DEB-4C6F-A379-E82812C473F0}">
-      <formula1>#REF!</formula1>
-      <formula2>B27</formula2>
-    </dataValidation>
-    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B30 B39 B48" xr:uid="{CE3F35D2-C816-4009-8BAB-85DA53F798DE}">
-      <formula1>#REF!</formula1>
-      <formula2>B35</formula2>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Improgress/4. Timelog/PM_TimeLog.xlsx
+++ b/Improgress/4. Timelog/PM_TimeLog.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\Capstone-Project\Improgress\4. Timelog\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo Legion Y7000\Documents\GitHub\Capstone-Project\Improgress\4. Timelog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D977B4F-A142-4D17-89EC-2A7FBA2FA925}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35DFEF9F-F1BB-4208-9173-ABAE4717635E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="7" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1104" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1229" uniqueCount="203">
   <si>
     <t>Work in period</t>
   </si>
@@ -625,6 +625,51 @@
   </si>
   <si>
     <t xml:space="preserve">Test Case </t>
+  </si>
+  <si>
+    <t>PM_CommunicationPlan_Ver.docx</t>
+  </si>
+  <si>
+    <t>PM_ConfigurationManagementPlan_Ver.docx</t>
+  </si>
+  <si>
+    <t>PM_EVM.xlsx</t>
+  </si>
+  <si>
+    <t>Create Implementation Process</t>
+  </si>
+  <si>
+    <t>PM_ImplementProcess_Ver.docx</t>
+  </si>
+  <si>
+    <t>Create Test Process</t>
+  </si>
+  <si>
+    <t>TE_TestingProcess_Ver.docx</t>
+  </si>
+  <si>
+    <t>Write Usecase Decription</t>
+  </si>
+  <si>
+    <t>Create S.R.S</t>
+  </si>
+  <si>
+    <t>Present EOM#1</t>
+  </si>
+  <si>
+    <t>RE_SRS_Ver.docx</t>
+  </si>
+  <si>
+    <t>UC14 - UC25</t>
+  </si>
+  <si>
+    <t>Create ConOp</t>
+  </si>
+  <si>
+    <t>Create Tracebility Matrix</t>
+  </si>
+  <si>
+    <t>RE_TracebilityMetrix_Ver.xlsx</t>
   </si>
 </sst>
 </file>
@@ -1156,7 +1201,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1335,33 +1380,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1384,6 +1402,60 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
@@ -1651,7 +1723,7 @@
                   <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>22</c:v>
+                  <c:v>31.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -3443,19 +3515,19 @@
   <dimension ref="A1:AM14"/>
   <sheetViews>
     <sheetView zoomScale="93" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" style="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.33203125" style="12" bestFit="1" customWidth="1"/>
     <col min="2" max="10" width="9" style="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="38" width="10.28515625" style="12" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="6.7109375" style="12" bestFit="1" customWidth="1"/>
-    <col min="40" max="16384" width="8.85546875" style="12"/>
+    <col min="11" max="38" width="10.33203125" style="12" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="6.6640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="40" max="16384" width="8.88671875" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:39" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="28" t="s">
         <v>5</v>
       </c>
@@ -3574,7 +3646,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:39" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="32" t="s">
         <v>66</v>
       </c>
@@ -3584,7 +3656,7 @@
       </c>
       <c r="C2" s="33">
         <f>'Đạt Huỳnh'!C20</f>
-        <v>22</v>
+        <v>31.5</v>
       </c>
       <c r="D2" s="33">
         <f>'Đạt Huỳnh'!D20</f>
@@ -3626,10 +3698,10 @@
       <c r="AL2" s="35"/>
       <c r="AM2" s="35">
         <f>SUM(B2:AL2)</f>
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>61.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:39" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="37" t="s">
         <v>108</v>
       </c>
@@ -3681,7 +3753,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:39" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="32" t="s">
         <v>109</v>
       </c>
@@ -3733,7 +3805,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:39" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="37" t="s">
         <v>110</v>
       </c>
@@ -3785,7 +3857,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:39" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="41" t="s">
         <v>111</v>
       </c>
@@ -3837,7 +3909,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="7" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:39" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="12" t="e">
         <f>SUM(B2:B6)</f>
         <v>#REF!</v>
@@ -3987,7 +4059,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="8" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:39" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="45" t="s">
         <v>23</v>
       </c>
@@ -4106,7 +4178,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:39" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="32" t="s">
         <v>66</v>
       </c>
@@ -4161,7 +4233,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="10" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:39" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="37" t="s">
         <v>108</v>
       </c>
@@ -4213,7 +4285,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:39" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="32" t="s">
         <v>109</v>
       </c>
@@ -4265,7 +4337,7 @@
         <v>49.5</v>
       </c>
     </row>
-    <row r="12" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:39" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="37" t="s">
         <v>110</v>
       </c>
@@ -4317,7 +4389,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:39" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="41" t="s">
         <v>111</v>
       </c>
@@ -4369,7 +4441,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="e">
         <f>SUM(B9:B13)</f>
         <v>#REF!</v>
@@ -4528,27 +4600,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I66"/>
+  <dimension ref="A1:I95"/>
   <sheetViews>
-    <sheetView topLeftCell="C14" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.85546875" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="42.7109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.88671875" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.88671875" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.6640625" style="12" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="12" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" style="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.85546875" style="12"/>
-    <col min="8" max="8" width="12.140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="49.28515625" style="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.85546875" style="12"/>
+    <col min="7" max="7" width="8.88671875" style="12"/>
+    <col min="8" max="8" width="12.109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="49.33203125" style="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.88671875" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>65</v>
       </c>
@@ -4563,20 +4635,20 @@
       <c r="H1" s="21"/>
       <c r="I1" s="22"/>
     </row>
-    <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="70" t="s">
+    <row r="2" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A2" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="73"/>
-    </row>
-    <row r="3" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="81"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="83"/>
+    </row>
+    <row r="3" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="24" t="s">
         <v>1</v>
       </c>
@@ -4605,7 +4677,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
         <v>1</v>
       </c>
@@ -4628,9 +4700,9 @@
       <c r="H4" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="15"/>
-    </row>
-    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="I4" s="89"/>
+    </row>
+    <row r="5" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
         <v>1</v>
       </c>
@@ -4653,11 +4725,11 @@
         <v>6</v>
       </c>
       <c r="H5" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="I5" s="15"/>
-    </row>
-    <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+      <c r="I5" s="89"/>
+    </row>
+    <row r="6" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -4680,11 +4752,11 @@
         <v>6</v>
       </c>
       <c r="H6" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="I6" s="3"/>
-    </row>
-    <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+      <c r="I6" s="90"/>
+    </row>
+    <row r="7" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -4709,9 +4781,9 @@
       <c r="H7" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="I7" s="3"/>
-    </row>
-    <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="I7" s="90"/>
+    </row>
+    <row r="8" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1</v>
       </c>
@@ -4734,9 +4806,9 @@
       <c r="H8" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="I8" s="3"/>
-    </row>
-    <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="I8" s="90"/>
+    </row>
+    <row r="9" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>1</v>
       </c>
@@ -4761,9 +4833,11 @@
       <c r="H9" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="I9" s="3"/>
-    </row>
-    <row r="10" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I9" s="88" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="9"/>
       <c r="B10" s="11"/>
       <c r="C10" s="9"/>
@@ -4774,30 +4848,30 @@
       <c r="H10" s="14"/>
       <c r="I10" s="5"/>
     </row>
-    <row r="11" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="67" t="s">
         <v>15</v>
       </c>
       <c r="B11" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="74">
+      <c r="C11" s="78">
         <f>SUM(F4:F10)</f>
         <v>30</v>
       </c>
-      <c r="D11" s="74"/>
-      <c r="E11" s="74"/>
-      <c r="F11" s="75"/>
+      <c r="D11" s="78"/>
+      <c r="E11" s="78"/>
+      <c r="F11" s="79"/>
       <c r="G11" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="74">
+      <c r="H11" s="78">
         <f>SUM(G4:G10)</f>
         <v>30</v>
       </c>
-      <c r="I11" s="75"/>
-    </row>
-    <row r="12" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I11" s="79"/>
+    </row>
+    <row r="12" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="24" t="s">
         <v>1</v>
       </c>
@@ -4826,7 +4900,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A13" s="10">
         <v>2</v>
       </c>
@@ -4853,7 +4927,7 @@
       </c>
       <c r="I13" s="15"/>
     </row>
-    <row r="14" spans="1:9" ht="30" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
         <v>2</v>
       </c>
@@ -4876,13 +4950,13 @@
         <v>6</v>
       </c>
       <c r="H14" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="I14" s="15" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+      <c r="I14" s="87" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A15" s="10">
         <v>2</v>
       </c>
@@ -4907,7 +4981,7 @@
       </c>
       <c r="I15" s="3"/>
     </row>
-    <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A16" s="10">
         <v>2</v>
       </c>
@@ -4934,7 +5008,7 @@
       </c>
       <c r="I16" s="3"/>
     </row>
-    <row r="17" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A17" s="10">
         <v>2</v>
       </c>
@@ -4950,14 +5024,18 @@
       <c r="E17" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="F17" s="7"/>
+      <c r="F17" s="7">
+        <v>5</v>
+      </c>
       <c r="G17" s="7">
         <v>6</v>
       </c>
-      <c r="H17" s="14"/>
+      <c r="H17" s="14" t="s">
+        <v>21</v>
+      </c>
       <c r="I17" s="3"/>
     </row>
-    <row r="18" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A18" s="10">
         <v>2</v>
       </c>
@@ -4973,14 +5051,18 @@
       <c r="E18" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="F18" s="7"/>
+      <c r="F18" s="7">
+        <v>4.5</v>
+      </c>
       <c r="G18" s="7">
         <v>6</v>
       </c>
-      <c r="H18" s="14"/>
+      <c r="H18" s="14" t="s">
+        <v>20</v>
+      </c>
       <c r="I18" s="3"/>
     </row>
-    <row r="19" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="9"/>
       <c r="B19" s="11"/>
       <c r="C19" s="9"/>
@@ -4991,30 +5073,30 @@
       <c r="H19" s="14"/>
       <c r="I19" s="5"/>
     </row>
-    <row r="20" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="67" t="s">
         <v>15</v>
       </c>
       <c r="B20" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="74">
+      <c r="C20" s="78">
         <f>SUM(F13:F19)</f>
-        <v>22</v>
-      </c>
-      <c r="D20" s="74"/>
-      <c r="E20" s="74"/>
-      <c r="F20" s="75"/>
+        <v>31.5</v>
+      </c>
+      <c r="D20" s="78"/>
+      <c r="E20" s="78"/>
+      <c r="F20" s="79"/>
       <c r="G20" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H20" s="74">
+      <c r="H20" s="78">
         <f>SUM(G13:G19)</f>
         <v>34</v>
       </c>
-      <c r="I20" s="75"/>
-    </row>
-    <row r="21" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I20" s="79"/>
+    </row>
+    <row r="21" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="24" t="s">
         <v>1</v>
       </c>
@@ -5043,7 +5125,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="10">
         <v>3</v>
       </c>
@@ -5059,16 +5141,18 @@
       <c r="E22" s="60">
         <v>43766</v>
       </c>
-      <c r="F22" s="6"/>
+      <c r="F22" s="6">
+        <v>6</v>
+      </c>
       <c r="G22" s="6">
         <v>6</v>
       </c>
       <c r="H22" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I22" s="15"/>
-    </row>
-    <row r="23" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I22" s="91"/>
+    </row>
+    <row r="23" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="10">
         <v>3</v>
       </c>
@@ -5084,16 +5168,20 @@
       <c r="E23" s="60">
         <v>43767</v>
       </c>
-      <c r="F23" s="6"/>
+      <c r="F23" s="6">
+        <v>5.5</v>
+      </c>
       <c r="G23" s="6">
         <v>6</v>
       </c>
       <c r="H23" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="I23" s="15"/>
-    </row>
-    <row r="24" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I23" s="91" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="10">
         <v>3</v>
       </c>
@@ -5107,14 +5195,18 @@
       <c r="E24" s="60">
         <v>43798</v>
       </c>
-      <c r="F24" s="6"/>
+      <c r="F24" s="6">
+        <v>4</v>
+      </c>
       <c r="G24" s="6">
         <v>4</v>
       </c>
-      <c r="H24" s="14"/>
-      <c r="I24" s="15"/>
-    </row>
-    <row r="25" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H24" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I24" s="91"/>
+    </row>
+    <row r="25" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="10">
         <v>3</v>
       </c>
@@ -5127,14 +5219,18 @@
       <c r="E25" s="60">
         <v>43768</v>
       </c>
-      <c r="F25" s="7"/>
+      <c r="F25" s="7">
+        <v>4</v>
+      </c>
       <c r="G25" s="7">
         <v>4</v>
       </c>
-      <c r="H25" s="14"/>
-      <c r="I25" s="3"/>
-    </row>
-    <row r="26" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H25" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I25" s="92"/>
+    </row>
+    <row r="26" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="10">
         <v>3</v>
       </c>
@@ -5150,14 +5246,18 @@
       <c r="E26" s="60">
         <v>43769</v>
       </c>
-      <c r="F26" s="7"/>
+      <c r="F26" s="7">
+        <v>5.5</v>
+      </c>
       <c r="G26" s="7">
         <v>6</v>
       </c>
-      <c r="H26" s="14"/>
-      <c r="I26" s="3"/>
-    </row>
-    <row r="27" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H26" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I26" s="92"/>
+    </row>
+    <row r="27" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="10">
         <v>3</v>
       </c>
@@ -5173,14 +5273,18 @@
       <c r="E27" s="60">
         <v>43770</v>
       </c>
-      <c r="F27" s="7"/>
+      <c r="F27" s="7">
+        <v>6</v>
+      </c>
       <c r="G27" s="7">
         <v>6</v>
       </c>
-      <c r="H27" s="14"/>
-      <c r="I27" s="3"/>
-    </row>
-    <row r="28" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="H27" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I27" s="92"/>
+    </row>
+    <row r="28" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A28" s="10">
         <v>3</v>
       </c>
@@ -5196,46 +5300,52 @@
       <c r="E28" s="60">
         <v>43771</v>
       </c>
-      <c r="F28" s="7"/>
+      <c r="F28" s="7">
+        <v>5.5</v>
+      </c>
       <c r="G28" s="7">
         <v>6</v>
       </c>
-      <c r="H28" s="14"/>
-      <c r="I28" s="3"/>
-    </row>
-    <row r="29" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H28" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I28" s="92" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="9"/>
       <c r="C29" s="9"/>
       <c r="E29" s="16"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c r="H29" s="14"/>
-      <c r="I29" s="5"/>
-    </row>
-    <row r="30" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I29" s="93"/>
+    </row>
+    <row r="30" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="67" t="s">
         <v>15</v>
       </c>
       <c r="B30" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C30" s="74">
+      <c r="C30" s="78">
         <f>SUM(F22:F29)</f>
-        <v>0</v>
-      </c>
-      <c r="D30" s="74"/>
-      <c r="E30" s="74"/>
-      <c r="F30" s="75"/>
+        <v>36.5</v>
+      </c>
+      <c r="D30" s="78"/>
+      <c r="E30" s="78"/>
+      <c r="F30" s="79"/>
       <c r="G30" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H30" s="74">
+      <c r="H30" s="78">
         <f>SUM(G22:G29)</f>
         <v>38</v>
       </c>
-      <c r="I30" s="75"/>
-    </row>
-    <row r="31" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I30" s="79"/>
+    </row>
+    <row r="31" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="24" t="s">
         <v>1</v>
       </c>
@@ -5264,677 +5374,1459 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="10">
         <v>4</v>
       </c>
       <c r="B32" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C32" s="25"/>
-      <c r="D32" s="13"/>
+      <c r="C32" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>191</v>
+      </c>
       <c r="E32" s="60">
         <v>43773</v>
       </c>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="14"/>
+      <c r="F32" s="6">
+        <v>6</v>
+      </c>
+      <c r="G32" s="6">
+        <v>6</v>
+      </c>
+      <c r="H32" s="14" t="s">
+        <v>21</v>
+      </c>
       <c r="I32" s="15"/>
     </row>
-    <row r="33" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="10">
         <v>4</v>
       </c>
       <c r="B33" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="C33" s="25"/>
-      <c r="D33" s="13"/>
+      <c r="C33" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D33" s="13" t="s">
+        <v>191</v>
+      </c>
       <c r="E33" s="60">
         <v>43774</v>
       </c>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="14"/>
-      <c r="I33" s="15"/>
-    </row>
-    <row r="34" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F33" s="6">
+        <v>5.5</v>
+      </c>
+      <c r="G33" s="6">
+        <v>6</v>
+      </c>
+      <c r="H33" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I33" s="87" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="10">
         <v>4</v>
       </c>
       <c r="B34" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="C34" s="25"/>
+      <c r="C34" s="25" t="s">
+        <v>63</v>
+      </c>
       <c r="D34" s="2"/>
       <c r="E34" s="60">
         <v>43775</v>
       </c>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="14"/>
+      <c r="F34" s="7">
+        <v>4</v>
+      </c>
+      <c r="G34" s="7">
+        <v>4</v>
+      </c>
+      <c r="H34" s="14" t="s">
+        <v>20</v>
+      </c>
       <c r="I34" s="3"/>
     </row>
-    <row r="35" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="10">
         <v>4</v>
       </c>
       <c r="B35" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="C35" s="25"/>
-      <c r="D35" s="2"/>
+      <c r="C35" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>193</v>
+      </c>
       <c r="E35" s="60">
         <v>43776</v>
       </c>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="14"/>
+      <c r="F35" s="7">
+        <v>6</v>
+      </c>
+      <c r="G35" s="7">
+        <v>6</v>
+      </c>
+      <c r="H35" s="14" t="s">
+        <v>21</v>
+      </c>
       <c r="I35" s="3"/>
     </row>
-    <row r="36" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="10">
         <v>4</v>
       </c>
       <c r="B36" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="C36" s="25"/>
+      <c r="C36" s="25" t="s">
+        <v>61</v>
+      </c>
       <c r="D36" s="2"/>
       <c r="E36" s="60">
         <v>43777</v>
       </c>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="14"/>
+      <c r="F36" s="7">
+        <v>4</v>
+      </c>
+      <c r="G36" s="7">
+        <v>4</v>
+      </c>
+      <c r="H36" s="14" t="s">
+        <v>20</v>
+      </c>
       <c r="I36" s="3"/>
     </row>
-    <row r="37" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="10">
         <v>4</v>
       </c>
       <c r="B37" s="68" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C37" s="25" t="s">
         <v>19</v>
       </c>
       <c r="D37" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E37" s="60">
+        <v>43777</v>
+      </c>
+      <c r="F37" s="7">
+        <v>5.5</v>
+      </c>
+      <c r="G37" s="7">
+        <v>6</v>
+      </c>
+      <c r="H37" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I37" s="88" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A38" s="10">
+        <v>4</v>
+      </c>
+      <c r="B38" s="68" t="s">
+        <v>14</v>
+      </c>
+      <c r="C38" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D38" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="E37" s="60">
+      <c r="E38" s="60">
         <v>43778</v>
       </c>
-      <c r="F37" s="7"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="14"/>
-      <c r="I37" s="3"/>
-    </row>
-    <row r="38" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="9"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="16"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="14"/>
-      <c r="I38" s="5"/>
-    </row>
-    <row r="39" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="67" t="s">
+      <c r="F38" s="7">
+        <v>5.5</v>
+      </c>
+      <c r="G38" s="7">
+        <v>6</v>
+      </c>
+      <c r="H38" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I38" s="3"/>
+    </row>
+    <row r="39" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="9"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="14"/>
+      <c r="I39" s="5"/>
+    </row>
+    <row r="40" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="B39" s="67" t="s">
+      <c r="B40" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C39" s="74">
-        <f>SUM(F32:F38)</f>
-        <v>0</v>
-      </c>
-      <c r="D39" s="74"/>
-      <c r="E39" s="74"/>
-      <c r="F39" s="75"/>
-      <c r="G39" s="66" t="s">
+      <c r="C40" s="78">
+        <f>SUM(F32:F39)</f>
+        <v>36.5</v>
+      </c>
+      <c r="D40" s="78"/>
+      <c r="E40" s="78"/>
+      <c r="F40" s="79"/>
+      <c r="G40" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H39" s="74">
-        <f>SUM(G32:G38)</f>
-        <v>0</v>
-      </c>
-      <c r="I39" s="75"/>
-    </row>
-    <row r="40" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="24" t="s">
+      <c r="H40" s="78">
+        <f>SUM(G32:G39)</f>
+        <v>38</v>
+      </c>
+      <c r="I40" s="79"/>
+    </row>
+    <row r="41" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B40" s="24" t="s">
+      <c r="B41" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="C40" s="24" t="s">
+      <c r="C41" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="D40" s="24" t="s">
+      <c r="D41" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="E40" s="24" t="s">
+      <c r="E41" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="F40" s="24" t="s">
+      <c r="F41" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="G40" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="H40" s="24" t="s">
+      <c r="G41" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="H41" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="I40" s="24" t="s">
+      <c r="I41" s="24" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="10">
-        <v>5</v>
-      </c>
-      <c r="B41" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="C41" s="25"/>
-      <c r="D41" s="13"/>
-      <c r="E41" s="60">
-        <v>43780</v>
-      </c>
-      <c r="F41" s="6"/>
-      <c r="G41" s="6"/>
-      <c r="H41" s="14"/>
-      <c r="I41" s="15"/>
-    </row>
-    <row r="42" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="10">
         <v>5</v>
       </c>
       <c r="B42" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="C42" s="25"/>
-      <c r="D42" s="13"/>
+        <v>9</v>
+      </c>
+      <c r="C42" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="D42" s="13" t="s">
+        <v>195</v>
+      </c>
       <c r="E42" s="60">
-        <v>43781</v>
-      </c>
-      <c r="F42" s="6"/>
-      <c r="G42" s="6"/>
-      <c r="H42" s="14"/>
-      <c r="I42" s="15"/>
-    </row>
-    <row r="43" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+        <v>43780</v>
+      </c>
+      <c r="F42" s="6">
+        <v>6</v>
+      </c>
+      <c r="G42" s="6">
+        <v>6</v>
+      </c>
+      <c r="H42" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I42" s="87"/>
+    </row>
+    <row r="43" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="10">
         <v>5</v>
       </c>
       <c r="B43" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="C43" s="25"/>
-      <c r="D43" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="C43" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="D43" s="13"/>
       <c r="E43" s="60">
-        <v>43782</v>
-      </c>
-      <c r="F43" s="7"/>
-      <c r="G43" s="7"/>
-      <c r="H43" s="14"/>
-      <c r="I43" s="3"/>
-    </row>
-    <row r="44" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+        <v>43781</v>
+      </c>
+      <c r="F43" s="6">
+        <v>4</v>
+      </c>
+      <c r="G43" s="6">
+        <v>4</v>
+      </c>
+      <c r="H43" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I43" s="87"/>
+    </row>
+    <row r="44" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="10">
         <v>5</v>
       </c>
       <c r="B44" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="C44" s="25"/>
-      <c r="D44" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="C44" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="D44" s="13" t="s">
+        <v>195</v>
+      </c>
       <c r="E44" s="60">
-        <v>43783</v>
-      </c>
-      <c r="F44" s="7"/>
-      <c r="G44" s="7"/>
-      <c r="H44" s="14"/>
-      <c r="I44" s="3"/>
-    </row>
-    <row r="45" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+        <v>43782</v>
+      </c>
+      <c r="F44" s="7">
+        <v>6</v>
+      </c>
+      <c r="G44" s="7">
+        <v>6</v>
+      </c>
+      <c r="H44" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I44" s="88"/>
+    </row>
+    <row r="45" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="10">
         <v>5</v>
       </c>
-      <c r="B45" s="68" t="s">
-        <v>13</v>
-      </c>
-      <c r="C45" s="25"/>
-      <c r="D45" s="2"/>
+      <c r="B45" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C45" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>196</v>
+      </c>
       <c r="E45" s="60">
-        <v>43784</v>
-      </c>
-      <c r="F45" s="7"/>
-      <c r="G45" s="7"/>
-      <c r="H45" s="14"/>
-      <c r="I45" s="3"/>
-    </row>
-    <row r="46" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
+        <v>43783</v>
+      </c>
+      <c r="F45" s="7">
+        <v>6</v>
+      </c>
+      <c r="G45" s="7">
+        <v>6</v>
+      </c>
+      <c r="H45" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I45" s="88"/>
+    </row>
+    <row r="46" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="10">
         <v>5</v>
       </c>
       <c r="B46" s="68" t="s">
+        <v>13</v>
+      </c>
+      <c r="C46" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E46" s="60">
+        <v>43784</v>
+      </c>
+      <c r="F46" s="7">
+        <v>6</v>
+      </c>
+      <c r="G46" s="7">
+        <v>6</v>
+      </c>
+      <c r="H46" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I46" s="88"/>
+    </row>
+    <row r="47" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="10">
+        <v>5</v>
+      </c>
+      <c r="B47" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="C46" s="25"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="60">
+      <c r="C47" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="E47" s="60">
         <v>43785</v>
       </c>
-      <c r="F46" s="7"/>
-      <c r="G46" s="7"/>
-      <c r="H46" s="14"/>
-      <c r="I46" s="3"/>
-    </row>
-    <row r="47" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="9"/>
-      <c r="C47" s="9"/>
-      <c r="D47" s="4"/>
-      <c r="E47" s="16"/>
-      <c r="F47" s="8"/>
-      <c r="G47" s="8"/>
-      <c r="H47" s="14"/>
-      <c r="I47" s="5"/>
-    </row>
-    <row r="48" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="67" t="s">
+      <c r="F47" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="G47" s="7">
+        <v>1</v>
+      </c>
+      <c r="H47" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I47" s="88"/>
+    </row>
+    <row r="48" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A48" s="76">
+        <v>5</v>
+      </c>
+      <c r="B48" s="68" t="s">
+        <v>14</v>
+      </c>
+      <c r="C48" s="94" t="s">
+        <v>19</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E48" s="60">
+        <v>43785</v>
+      </c>
+      <c r="F48" s="8">
+        <v>5.5</v>
+      </c>
+      <c r="G48" s="8">
+        <v>6</v>
+      </c>
+      <c r="H48" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I48" s="95"/>
+    </row>
+    <row r="49" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="9"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="16"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="14"/>
+      <c r="I49" s="95"/>
+    </row>
+    <row r="50" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="B48" s="67" t="s">
+      <c r="B50" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C48" s="74">
-        <f>SUM(F41:F47)</f>
-        <v>0</v>
-      </c>
-      <c r="D48" s="74"/>
-      <c r="E48" s="74"/>
-      <c r="F48" s="75"/>
-      <c r="G48" s="66" t="s">
+      <c r="C50" s="78">
+        <f>SUM(F42:F49)</f>
+        <v>35</v>
+      </c>
+      <c r="D50" s="78"/>
+      <c r="E50" s="78"/>
+      <c r="F50" s="79"/>
+      <c r="G50" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H48" s="74">
-        <f>SUM(G41:G47)</f>
-        <v>0</v>
-      </c>
-      <c r="I48" s="75"/>
-    </row>
-    <row r="49" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="24" t="s">
+      <c r="H50" s="78">
+        <f>SUM(G42:G49)</f>
+        <v>35</v>
+      </c>
+      <c r="I50" s="79"/>
+    </row>
+    <row r="51" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B49" s="24" t="s">
+      <c r="B51" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="C49" s="24" t="s">
+      <c r="C51" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="D49" s="24" t="s">
+      <c r="D51" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="E49" s="24" t="s">
+      <c r="E51" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="F49" s="24" t="s">
+      <c r="F51" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="G49" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="H49" s="24" t="s">
+      <c r="G51" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="H51" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="I49" s="24" t="s">
+      <c r="I51" s="24" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="10">
-        <v>6</v>
-      </c>
-      <c r="B50" s="27" t="s">
+    <row r="52" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="10">
+        <v>6</v>
+      </c>
+      <c r="B52" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C50" s="25"/>
-      <c r="D50" s="13"/>
-      <c r="E50" s="60">
+      <c r="C52" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="D52" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="E52" s="60">
         <v>43787</v>
       </c>
-      <c r="F50" s="6"/>
-      <c r="G50" s="6"/>
-      <c r="H50" s="14"/>
-      <c r="I50" s="15"/>
-    </row>
-    <row r="51" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="10">
-        <v>6</v>
-      </c>
-      <c r="B51" s="27" t="s">
+      <c r="F52" s="6">
+        <v>5.5</v>
+      </c>
+      <c r="G52" s="6">
+        <v>6</v>
+      </c>
+      <c r="H52" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I52" s="87" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="10">
+        <v>6</v>
+      </c>
+      <c r="B53" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="C51" s="25"/>
-      <c r="D51" s="13"/>
-      <c r="E51" s="60">
+      <c r="C53" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="D53" s="13"/>
+      <c r="E53" s="60">
         <v>43788</v>
       </c>
-      <c r="F51" s="6"/>
-      <c r="G51" s="6"/>
-      <c r="H51" s="14"/>
-      <c r="I51" s="15"/>
-    </row>
-    <row r="52" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="10">
-        <v>6</v>
-      </c>
-      <c r="B52" s="27" t="s">
+      <c r="F53" s="6">
+        <v>4</v>
+      </c>
+      <c r="G53" s="6">
+        <v>4</v>
+      </c>
+      <c r="H53" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I53" s="87"/>
+    </row>
+    <row r="54" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="10">
+        <v>6</v>
+      </c>
+      <c r="B54" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="C52" s="25"/>
-      <c r="D52" s="2"/>
-      <c r="E52" s="60">
+      <c r="C54" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E54" s="60">
         <v>43789</v>
       </c>
-      <c r="F52" s="7"/>
-      <c r="G52" s="7"/>
-      <c r="H52" s="14"/>
-      <c r="I52" s="3"/>
-    </row>
-    <row r="53" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="10">
-        <v>6</v>
-      </c>
-      <c r="B53" s="27" t="s">
+      <c r="F54" s="7">
+        <v>5.5</v>
+      </c>
+      <c r="G54" s="7">
+        <v>6</v>
+      </c>
+      <c r="H54" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I54" s="88" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="10">
+        <v>6</v>
+      </c>
+      <c r="B55" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="C53" s="25"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="60">
+      <c r="C55" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E55" s="60">
         <v>43790</v>
       </c>
-      <c r="F53" s="7"/>
-      <c r="G53" s="7"/>
-      <c r="H53" s="14"/>
-      <c r="I53" s="3"/>
-    </row>
-    <row r="54" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="10">
-        <v>6</v>
-      </c>
-      <c r="B54" s="68" t="s">
+      <c r="F55" s="7">
+        <v>6</v>
+      </c>
+      <c r="G55" s="7">
+        <v>6</v>
+      </c>
+      <c r="H55" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I55" s="88"/>
+    </row>
+    <row r="56" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="10">
+        <v>6</v>
+      </c>
+      <c r="B56" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="C54" s="25"/>
-      <c r="D54" s="2"/>
-      <c r="E54" s="60">
+      <c r="C56" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E56" s="60">
         <v>43791</v>
       </c>
-      <c r="F54" s="7"/>
-      <c r="G54" s="7"/>
-      <c r="H54" s="14"/>
-      <c r="I54" s="3"/>
-    </row>
-    <row r="55" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A55" s="10">
-        <v>6</v>
-      </c>
-      <c r="B55" s="68" t="s">
+      <c r="F56" s="7">
+        <v>6</v>
+      </c>
+      <c r="G56" s="7">
+        <v>6</v>
+      </c>
+      <c r="H56" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I56" s="88" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A57" s="10">
+        <v>6</v>
+      </c>
+      <c r="B57" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="C55" s="25"/>
-      <c r="D55" s="2"/>
-      <c r="E55" s="60">
+      <c r="C57" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E57" s="60">
         <v>43792</v>
       </c>
-      <c r="F55" s="7"/>
-      <c r="G55" s="7"/>
-      <c r="H55" s="14"/>
-      <c r="I55" s="3"/>
-    </row>
-    <row r="56" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="9"/>
-      <c r="C56" s="9"/>
-      <c r="D56" s="4"/>
-      <c r="E56" s="16"/>
-      <c r="F56" s="8"/>
-      <c r="G56" s="8"/>
-      <c r="H56" s="14"/>
-      <c r="I56" s="5"/>
-    </row>
-    <row r="57" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="67" t="s">
+      <c r="F57" s="7">
+        <v>5.5</v>
+      </c>
+      <c r="G57" s="7">
+        <v>6</v>
+      </c>
+      <c r="H57" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I57" s="88"/>
+    </row>
+    <row r="58" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="9"/>
+      <c r="C58" s="9"/>
+      <c r="D58" s="4"/>
+      <c r="E58" s="16"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c r="H58" s="14"/>
+      <c r="I58" s="95"/>
+    </row>
+    <row r="59" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="B57" s="67" t="s">
+      <c r="B59" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C57" s="74">
-        <f>SUM(F50:F56)</f>
-        <v>0</v>
-      </c>
-      <c r="D57" s="74"/>
-      <c r="E57" s="74"/>
-      <c r="F57" s="75"/>
-      <c r="G57" s="66" t="s">
+      <c r="C59" s="78">
+        <f>SUM(F52:F58)</f>
+        <v>32.5</v>
+      </c>
+      <c r="D59" s="78"/>
+      <c r="E59" s="78"/>
+      <c r="F59" s="79"/>
+      <c r="G59" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H57" s="74">
-        <f>SUM(G50:G56)</f>
-        <v>0</v>
-      </c>
-      <c r="I57" s="75"/>
-    </row>
-    <row r="58" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="24" t="s">
+      <c r="H59" s="78">
+        <f>SUM(G52:G58)</f>
+        <v>34</v>
+      </c>
+      <c r="I59" s="79"/>
+    </row>
+    <row r="60" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B58" s="24" t="s">
+      <c r="B60" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="C58" s="24" t="s">
+      <c r="C60" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="D58" s="24" t="s">
+      <c r="D60" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="E58" s="24" t="s">
+      <c r="E60" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="F58" s="24" t="s">
+      <c r="F60" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="G58" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="H58" s="24" t="s">
+      <c r="G60" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="H60" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="I58" s="24" t="s">
+      <c r="I60" s="24" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="10">
-        <v>7</v>
-      </c>
-      <c r="B59" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="C59" s="25"/>
-      <c r="D59" s="13"/>
-      <c r="E59" s="60">
-        <v>43794</v>
-      </c>
-      <c r="F59" s="6"/>
-      <c r="G59" s="6"/>
-      <c r="H59" s="14"/>
-      <c r="I59" s="15"/>
-    </row>
-    <row r="60" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="10">
-        <v>7</v>
-      </c>
-      <c r="B60" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="C60" s="25"/>
-      <c r="D60" s="13"/>
-      <c r="E60" s="60">
-        <v>43795</v>
-      </c>
-      <c r="F60" s="6"/>
-      <c r="G60" s="6"/>
-      <c r="H60" s="14"/>
-      <c r="I60" s="15"/>
-    </row>
-    <row r="61" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="10">
         <v>7</v>
       </c>
       <c r="B61" s="27" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C61" s="25"/>
-      <c r="D61" s="2"/>
+      <c r="D61" s="13"/>
       <c r="E61" s="60">
-        <v>43796</v>
-      </c>
-      <c r="F61" s="7"/>
-      <c r="G61" s="7"/>
+        <v>43794</v>
+      </c>
+      <c r="F61" s="6"/>
+      <c r="G61" s="6">
+        <v>6</v>
+      </c>
       <c r="H61" s="14"/>
-      <c r="I61" s="3"/>
-    </row>
-    <row r="62" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I61" s="15"/>
+    </row>
+    <row r="62" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="10">
         <v>7</v>
       </c>
       <c r="B62" s="27" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C62" s="25"/>
-      <c r="D62" s="2"/>
+      <c r="D62" s="13"/>
       <c r="E62" s="60">
-        <v>43797</v>
-      </c>
-      <c r="F62" s="7"/>
-      <c r="G62" s="7"/>
+        <v>43795</v>
+      </c>
+      <c r="F62" s="6"/>
+      <c r="G62" s="6">
+        <v>6</v>
+      </c>
       <c r="H62" s="14"/>
-      <c r="I62" s="3"/>
-    </row>
-    <row r="63" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I62" s="15"/>
+    </row>
+    <row r="63" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="10">
         <v>7</v>
       </c>
       <c r="B63" s="27" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C63" s="25"/>
       <c r="D63" s="2"/>
       <c r="E63" s="60">
-        <v>43798</v>
+        <v>43796</v>
       </c>
       <c r="F63" s="7"/>
-      <c r="G63" s="7"/>
+      <c r="G63" s="7">
+        <v>6</v>
+      </c>
       <c r="H63" s="14"/>
       <c r="I63" s="3"/>
     </row>
-    <row r="64" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="10">
         <v>7</v>
       </c>
       <c r="B64" s="27" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C64" s="25"/>
       <c r="D64" s="2"/>
       <c r="E64" s="60">
-        <v>43799</v>
+        <v>43797</v>
       </c>
       <c r="F64" s="7"/>
-      <c r="G64" s="7"/>
+      <c r="G64" s="7">
+        <v>6</v>
+      </c>
       <c r="H64" s="14"/>
       <c r="I64" s="3"/>
     </row>
-    <row r="65" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="9"/>
-      <c r="C65" s="9"/>
-      <c r="D65" s="4"/>
-      <c r="E65" s="16"/>
-      <c r="F65" s="8"/>
-      <c r="G65" s="8"/>
+    <row r="65" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="10">
+        <v>7</v>
+      </c>
+      <c r="B65" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C65" s="25"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="60">
+        <v>43798</v>
+      </c>
+      <c r="F65" s="7"/>
+      <c r="G65" s="7">
+        <v>6</v>
+      </c>
       <c r="H65" s="14"/>
-      <c r="I65" s="5"/>
-    </row>
-    <row r="66" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="67" t="s">
+      <c r="I65" s="3"/>
+    </row>
+    <row r="66" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A66" s="10">
+        <v>7</v>
+      </c>
+      <c r="B66" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="C66" s="25"/>
+      <c r="D66" s="2"/>
+      <c r="E66" s="60">
+        <v>43799</v>
+      </c>
+      <c r="F66" s="7"/>
+      <c r="G66" s="7">
+        <v>6</v>
+      </c>
+      <c r="H66" s="14"/>
+      <c r="I66" s="3"/>
+    </row>
+    <row r="67" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="9"/>
+      <c r="C67" s="9"/>
+      <c r="D67" s="4"/>
+      <c r="E67" s="16"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+      <c r="H67" s="14"/>
+      <c r="I67" s="5"/>
+    </row>
+    <row r="68" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="B66" s="67" t="s">
+      <c r="B68" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C66" s="74">
-        <f>SUM(F59:F65)</f>
+      <c r="C68" s="78">
+        <f>SUM(F61:F67)</f>
         <v>0</v>
       </c>
-      <c r="D66" s="74"/>
-      <c r="E66" s="74"/>
-      <c r="F66" s="75"/>
-      <c r="G66" s="66" t="s">
+      <c r="D68" s="78"/>
+      <c r="E68" s="78"/>
+      <c r="F68" s="79"/>
+      <c r="G68" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H66" s="74">
-        <f>SUM(G59:G65)</f>
+      <c r="H68" s="78">
+        <f>SUM(G61:G67)</f>
+        <v>36</v>
+      </c>
+      <c r="I68" s="79"/>
+    </row>
+    <row r="69" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="B69" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="C69" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="D69" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E69" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="F69" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="G69" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="H69" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I69" s="24" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="10">
+        <v>8</v>
+      </c>
+      <c r="B70" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C70" s="25"/>
+      <c r="D70" s="13"/>
+      <c r="E70" s="60">
+        <v>43801</v>
+      </c>
+      <c r="F70" s="6"/>
+      <c r="G70" s="6">
+        <v>6</v>
+      </c>
+      <c r="H70" s="14"/>
+      <c r="I70" s="15"/>
+    </row>
+    <row r="71" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="10">
+        <v>8</v>
+      </c>
+      <c r="B71" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C71" s="25"/>
+      <c r="D71" s="13"/>
+      <c r="E71" s="60">
+        <v>43802</v>
+      </c>
+      <c r="F71" s="6"/>
+      <c r="G71" s="6">
+        <v>6</v>
+      </c>
+      <c r="H71" s="14"/>
+      <c r="I71" s="15"/>
+    </row>
+    <row r="72" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="10">
+        <v>8</v>
+      </c>
+      <c r="B72" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C72" s="25"/>
+      <c r="D72" s="2"/>
+      <c r="E72" s="60">
+        <v>43803</v>
+      </c>
+      <c r="F72" s="7"/>
+      <c r="G72" s="7">
+        <v>6</v>
+      </c>
+      <c r="H72" s="14"/>
+      <c r="I72" s="3"/>
+    </row>
+    <row r="73" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="10">
+        <v>8</v>
+      </c>
+      <c r="B73" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C73" s="25"/>
+      <c r="D73" s="2"/>
+      <c r="E73" s="60">
+        <v>43804</v>
+      </c>
+      <c r="F73" s="7"/>
+      <c r="G73" s="7">
+        <v>6</v>
+      </c>
+      <c r="H73" s="14"/>
+      <c r="I73" s="3"/>
+    </row>
+    <row r="74" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="10">
+        <v>8</v>
+      </c>
+      <c r="B74" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C74" s="25"/>
+      <c r="D74" s="2"/>
+      <c r="E74" s="60">
+        <v>43805</v>
+      </c>
+      <c r="F74" s="7"/>
+      <c r="G74" s="7">
+        <v>6</v>
+      </c>
+      <c r="H74" s="14"/>
+      <c r="I74" s="3"/>
+    </row>
+    <row r="75" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A75" s="10">
+        <v>8</v>
+      </c>
+      <c r="B75" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="C75" s="25"/>
+      <c r="D75" s="2"/>
+      <c r="E75" s="60">
+        <v>43806</v>
+      </c>
+      <c r="F75" s="7"/>
+      <c r="G75" s="7">
+        <v>6</v>
+      </c>
+      <c r="H75" s="14"/>
+      <c r="I75" s="3"/>
+    </row>
+    <row r="76" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="9"/>
+      <c r="C76" s="9"/>
+      <c r="D76" s="4"/>
+      <c r="E76" s="16"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+      <c r="H76" s="14"/>
+      <c r="I76" s="5"/>
+    </row>
+    <row r="77" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="67" t="s">
+        <v>15</v>
+      </c>
+      <c r="B77" s="67" t="s">
+        <v>16</v>
+      </c>
+      <c r="C77" s="78">
+        <f>SUM(F70:F76)</f>
         <v>0</v>
       </c>
-      <c r="I66" s="75"/>
+      <c r="D77" s="78"/>
+      <c r="E77" s="78"/>
+      <c r="F77" s="79"/>
+      <c r="G77" s="66" t="s">
+        <v>17</v>
+      </c>
+      <c r="H77" s="78">
+        <f>SUM(G70:G76)</f>
+        <v>36</v>
+      </c>
+      <c r="I77" s="79"/>
+    </row>
+    <row r="78" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="B78" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="C78" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="D78" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E78" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="F78" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="G78" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="H78" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I78" s="24" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="10">
+        <v>9</v>
+      </c>
+      <c r="B79" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C79" s="25"/>
+      <c r="D79" s="13"/>
+      <c r="E79" s="60">
+        <v>43808</v>
+      </c>
+      <c r="F79" s="6"/>
+      <c r="G79" s="6">
+        <v>6</v>
+      </c>
+      <c r="H79" s="14"/>
+      <c r="I79" s="15"/>
+    </row>
+    <row r="80" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="10">
+        <v>9</v>
+      </c>
+      <c r="B80" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C80" s="25"/>
+      <c r="D80" s="13"/>
+      <c r="E80" s="60">
+        <v>43809</v>
+      </c>
+      <c r="F80" s="6"/>
+      <c r="G80" s="6">
+        <v>6</v>
+      </c>
+      <c r="H80" s="14"/>
+      <c r="I80" s="15"/>
+    </row>
+    <row r="81" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="10">
+        <v>9</v>
+      </c>
+      <c r="B81" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C81" s="25"/>
+      <c r="D81" s="2"/>
+      <c r="E81" s="60">
+        <v>43810</v>
+      </c>
+      <c r="F81" s="7"/>
+      <c r="G81" s="7">
+        <v>6</v>
+      </c>
+      <c r="H81" s="14"/>
+      <c r="I81" s="3"/>
+    </row>
+    <row r="82" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="10">
+        <v>9</v>
+      </c>
+      <c r="B82" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C82" s="25"/>
+      <c r="D82" s="2"/>
+      <c r="E82" s="60">
+        <v>43811</v>
+      </c>
+      <c r="F82" s="7"/>
+      <c r="G82" s="7">
+        <v>6</v>
+      </c>
+      <c r="H82" s="14"/>
+      <c r="I82" s="3"/>
+    </row>
+    <row r="83" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="10">
+        <v>9</v>
+      </c>
+      <c r="B83" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C83" s="25"/>
+      <c r="D83" s="2"/>
+      <c r="E83" s="60">
+        <v>43812</v>
+      </c>
+      <c r="F83" s="7"/>
+      <c r="G83" s="7">
+        <v>6</v>
+      </c>
+      <c r="H83" s="14"/>
+      <c r="I83" s="3"/>
+    </row>
+    <row r="84" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A84" s="10">
+        <v>9</v>
+      </c>
+      <c r="B84" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="C84" s="25"/>
+      <c r="D84" s="2"/>
+      <c r="E84" s="60">
+        <v>43813</v>
+      </c>
+      <c r="F84" s="7"/>
+      <c r="G84" s="7">
+        <v>6</v>
+      </c>
+      <c r="H84" s="14"/>
+      <c r="I84" s="3"/>
+    </row>
+    <row r="85" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="9"/>
+      <c r="C85" s="9"/>
+      <c r="D85" s="4"/>
+      <c r="E85" s="16"/>
+      <c r="F85" s="8"/>
+      <c r="G85" s="8"/>
+      <c r="H85" s="14"/>
+      <c r="I85" s="5"/>
+    </row>
+    <row r="86" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="67" t="s">
+        <v>15</v>
+      </c>
+      <c r="B86" s="67" t="s">
+        <v>16</v>
+      </c>
+      <c r="C86" s="78">
+        <f>SUM(F79:F85)</f>
+        <v>0</v>
+      </c>
+      <c r="D86" s="78"/>
+      <c r="E86" s="78"/>
+      <c r="F86" s="79"/>
+      <c r="G86" s="66" t="s">
+        <v>17</v>
+      </c>
+      <c r="H86" s="78">
+        <f>SUM(G79:G85)</f>
+        <v>36</v>
+      </c>
+      <c r="I86" s="79"/>
+    </row>
+    <row r="87" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="B87" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="C87" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="D87" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E87" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="F87" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="G87" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="H87" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I87" s="24" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="10">
+        <v>10</v>
+      </c>
+      <c r="B88" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C88" s="25"/>
+      <c r="D88" s="13"/>
+      <c r="E88" s="60">
+        <v>43815</v>
+      </c>
+      <c r="F88" s="6"/>
+      <c r="G88" s="6">
+        <v>6</v>
+      </c>
+      <c r="H88" s="14"/>
+      <c r="I88" s="15"/>
+    </row>
+    <row r="89" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="10">
+        <v>10</v>
+      </c>
+      <c r="B89" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C89" s="25"/>
+      <c r="D89" s="13"/>
+      <c r="E89" s="60">
+        <v>43816</v>
+      </c>
+      <c r="F89" s="6"/>
+      <c r="G89" s="6">
+        <v>6</v>
+      </c>
+      <c r="H89" s="14"/>
+      <c r="I89" s="15"/>
+    </row>
+    <row r="90" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="10">
+        <v>10</v>
+      </c>
+      <c r="B90" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C90" s="25"/>
+      <c r="D90" s="2"/>
+      <c r="E90" s="60">
+        <v>43817</v>
+      </c>
+      <c r="F90" s="7"/>
+      <c r="G90" s="7">
+        <v>6</v>
+      </c>
+      <c r="H90" s="14"/>
+      <c r="I90" s="3"/>
+    </row>
+    <row r="91" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="10">
+        <v>10</v>
+      </c>
+      <c r="B91" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C91" s="25"/>
+      <c r="D91" s="2"/>
+      <c r="E91" s="60">
+        <v>43818</v>
+      </c>
+      <c r="F91" s="7"/>
+      <c r="G91" s="7">
+        <v>6</v>
+      </c>
+      <c r="H91" s="14"/>
+      <c r="I91" s="3"/>
+    </row>
+    <row r="92" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="10">
+        <v>10</v>
+      </c>
+      <c r="B92" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C92" s="25"/>
+      <c r="D92" s="2"/>
+      <c r="E92" s="60">
+        <v>43819</v>
+      </c>
+      <c r="F92" s="7"/>
+      <c r="G92" s="7">
+        <v>6</v>
+      </c>
+      <c r="H92" s="14"/>
+      <c r="I92" s="3"/>
+    </row>
+    <row r="93" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A93" s="10">
+        <v>10</v>
+      </c>
+      <c r="B93" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="C93" s="25"/>
+      <c r="D93" s="2"/>
+      <c r="E93" s="60">
+        <v>43820</v>
+      </c>
+      <c r="F93" s="7"/>
+      <c r="G93" s="7">
+        <v>6</v>
+      </c>
+      <c r="H93" s="14"/>
+      <c r="I93" s="3"/>
+    </row>
+    <row r="94" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="9"/>
+      <c r="C94" s="9"/>
+      <c r="D94" s="4"/>
+      <c r="E94" s="16"/>
+      <c r="F94" s="8"/>
+      <c r="G94" s="8"/>
+      <c r="H94" s="14"/>
+      <c r="I94" s="5"/>
+    </row>
+    <row r="95" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="67" t="s">
+        <v>15</v>
+      </c>
+      <c r="B95" s="67" t="s">
+        <v>16</v>
+      </c>
+      <c r="C95" s="78">
+        <f>SUM(F88:F94)</f>
+        <v>0</v>
+      </c>
+      <c r="D95" s="78"/>
+      <c r="E95" s="78"/>
+      <c r="F95" s="79"/>
+      <c r="G95" s="66" t="s">
+        <v>17</v>
+      </c>
+      <c r="H95" s="78">
+        <f>SUM(G88:G94)</f>
+        <v>36</v>
+      </c>
+      <c r="I95" s="79"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="C66:F66"/>
-    <mergeCell ref="H66:I66"/>
+  <mergeCells count="21">
+    <mergeCell ref="C77:F77"/>
+    <mergeCell ref="H77:I77"/>
+    <mergeCell ref="C86:F86"/>
+    <mergeCell ref="H86:I86"/>
+    <mergeCell ref="C95:F95"/>
+    <mergeCell ref="H95:I95"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="C50:F50"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="C59:F59"/>
+    <mergeCell ref="H59:I59"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="C40:F40"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="C68:F68"/>
+    <mergeCell ref="H68:I68"/>
     <mergeCell ref="C11:F11"/>
     <mergeCell ref="H11:I11"/>
     <mergeCell ref="C20:F20"/>
     <mergeCell ref="H20:I20"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="C48:F48"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="C57:F57"/>
-    <mergeCell ref="H57:I57"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="C39:F39"/>
-    <mergeCell ref="H39:I39"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
-  <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10 C19 C29 C38 C47 C56 C65" xr:uid="{0BB0E9EB-C012-4B84-ADE0-06241CD0A572}">
+  <dataValidations count="7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10 C19 C29 C39 C49 C58 C67 C76 C85 C94" xr:uid="{0C1E5D56-2C7E-4242-BC93-698D232B9812}">
       <formula1>"Project Management, Requirement, Architecture and Desgin, Implementation, Testing, Training, Meetting Customer, Meetting Mentor"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C9 C13:C18 C59:C64 C32:C37 C41:C46 C50:C55 C22:C28" xr:uid="{A5E9BD59-08EB-4C74-8AD5-B28C042D8541}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C9 C13:C18 C61:C66 C88:C93 C42:C48 C52:C57 C22:C28 C70:C75 C79:C84 C32:C38" xr:uid="{194D6EC0-0304-47CA-875C-6B887C34BE5E}">
       <formula1>"Project Management, Requirement, Architecture and Desgin, Implementation, Testing, Training, Meetting Customer, Meeting Mentor"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:H10 H13:H19 H59:H65 H32:H38 H41:H47 H50:H56 H22:H29" xr:uid="{5ADEB9A5-7B77-4996-B65F-DB32EFA25F03}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H13:H19 H22:H29 H61:H67 H88:H94 H32:H39 H42:H49 H4:H10 H70:H76 H79:H85 H52:H58" xr:uid="{A9DFDA5B-53C3-4CA5-8DEC-A5ECE81E83EA}">
       <formula1>"Done,Inprogress "</formula1>
     </dataValidation>
-    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3 B12" xr:uid="{ED6FDAE4-9006-4B02-81E9-E85FDE801F79}">
+    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3 B12" xr:uid="{DE27CDC3-D330-4F61-886F-AB13E3A05751}">
       <formula1>B4</formula1>
       <formula2>B10</formula2>
     </dataValidation>
-    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B21" xr:uid="{85F854A7-9AC8-4963-94A2-DF4E43B75BC1}">
+    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B21" xr:uid="{D2BFAE72-0E00-4D4B-8170-FC35AB31EE32}">
       <formula1>#REF!</formula1>
       <formula2>B28</formula2>
     </dataValidation>
-    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B31 B40 B49 B58" xr:uid="{28C7F73E-D079-4F9E-AC12-39AC8A9947E5}">
+    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B41 B51 B60 B69 B78 B87" xr:uid="{53E6E76C-165C-4DFF-BB29-1E304E6593B8}">
       <formula1>#REF!</formula1>
-      <formula2>B36</formula2>
+      <formula2>B46</formula2>
+    </dataValidation>
+    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B31" xr:uid="{1C3973D7-D8C7-41D5-A041-CCFD2B311426}">
+      <formula1>#REF!</formula1>
+      <formula2>B37</formula2>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5946,22 +6838,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I74"/>
   <sheetViews>
-    <sheetView topLeftCell="B58" workbookViewId="0">
-      <selection activeCell="F67" sqref="F67"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="57.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="49.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="57.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="49.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="20" t="s">
         <v>65</v>
       </c>
@@ -5976,20 +6868,20 @@
       <c r="H1" s="21"/>
       <c r="I1" s="22"/>
     </row>
-    <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="70" t="s">
+    <row r="2" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="73"/>
-    </row>
-    <row r="3" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="81"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="83"/>
+    </row>
+    <row r="3" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="24" t="s">
         <v>1</v>
       </c>
@@ -6018,7 +6910,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="10">
         <v>1</v>
       </c>
@@ -6043,7 +6935,7 @@
       </c>
       <c r="I4" s="15"/>
     </row>
-    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="10">
         <v>1</v>
       </c>
@@ -6070,7 +6962,7 @@
       </c>
       <c r="I5" s="15"/>
     </row>
-    <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -6097,7 +6989,7 @@
       </c>
       <c r="I6" s="3"/>
     </row>
-    <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -6124,7 +7016,7 @@
       </c>
       <c r="I7" s="3"/>
     </row>
-    <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>1</v>
       </c>
@@ -6149,7 +7041,7 @@
       </c>
       <c r="I8" s="3"/>
     </row>
-    <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>1</v>
       </c>
@@ -6176,7 +7068,7 @@
       </c>
       <c r="I9" s="3"/>
     </row>
-    <row r="10" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="9"/>
       <c r="B10" s="11"/>
       <c r="C10" s="9"/>
@@ -6187,30 +7079,30 @@
       <c r="H10" s="14"/>
       <c r="I10" s="5"/>
     </row>
-    <row r="11" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="67" t="s">
         <v>15</v>
       </c>
       <c r="B11" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="76">
+      <c r="C11" s="84">
         <f>SUM(F4:F10)</f>
         <v>26</v>
       </c>
-      <c r="D11" s="74"/>
-      <c r="E11" s="74"/>
-      <c r="F11" s="75"/>
+      <c r="D11" s="78"/>
+      <c r="E11" s="78"/>
+      <c r="F11" s="79"/>
       <c r="G11" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="74">
+      <c r="H11" s="78">
         <f>SUM(G4:G10)</f>
         <v>26</v>
       </c>
-      <c r="I11" s="75"/>
-    </row>
-    <row r="12" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I11" s="79"/>
+    </row>
+    <row r="12" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="24" t="s">
         <v>1</v>
       </c>
@@ -6239,7 +7131,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="10">
         <v>2</v>
       </c>
@@ -6268,7 +7160,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="10">
         <v>2</v>
       </c>
@@ -6295,7 +7187,7 @@
       </c>
       <c r="I14" s="15"/>
     </row>
-    <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="10">
         <v>2</v>
       </c>
@@ -6320,7 +7212,7 @@
       </c>
       <c r="I15" s="3"/>
     </row>
-    <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="10">
         <v>2</v>
       </c>
@@ -6349,7 +7241,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="10">
         <v>2</v>
       </c>
@@ -6376,7 +7268,7 @@
       </c>
       <c r="I17" s="3"/>
     </row>
-    <row r="18" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="10">
         <v>2</v>
       </c>
@@ -6403,7 +7295,7 @@
       </c>
       <c r="I18" s="3"/>
     </row>
-    <row r="19" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="9"/>
       <c r="B19" s="11"/>
       <c r="C19" s="9"/>
@@ -6414,30 +7306,30 @@
       <c r="H19" s="14"/>
       <c r="I19" s="5"/>
     </row>
-    <row r="20" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="67" t="s">
         <v>15</v>
       </c>
       <c r="B20" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="74">
+      <c r="C20" s="78">
         <f>SUM(F13:F19)</f>
         <v>30</v>
       </c>
-      <c r="D20" s="74"/>
-      <c r="E20" s="74"/>
-      <c r="F20" s="75"/>
+      <c r="D20" s="78"/>
+      <c r="E20" s="78"/>
+      <c r="F20" s="79"/>
       <c r="G20" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H20" s="74">
+      <c r="H20" s="78">
         <f>SUM(G13:G19)</f>
         <v>30</v>
       </c>
-      <c r="I20" s="75"/>
-    </row>
-    <row r="21" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I20" s="79"/>
+    </row>
+    <row r="21" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="24" t="s">
         <v>1</v>
       </c>
@@ -6466,7 +7358,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="10">
         <v>3</v>
       </c>
@@ -6485,13 +7377,15 @@
       <c r="F22" s="10">
         <v>8</v>
       </c>
-      <c r="G22" s="6"/>
+      <c r="G22" s="6">
+        <v>6</v>
+      </c>
       <c r="H22" s="14" t="s">
         <v>20</v>
       </c>
       <c r="I22" s="15"/>
     </row>
-    <row r="23" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="10">
         <v>3</v>
       </c>
@@ -6510,7 +7404,9 @@
       <c r="F23" s="10">
         <v>10</v>
       </c>
-      <c r="G23" s="6"/>
+      <c r="G23" s="6">
+        <v>6</v>
+      </c>
       <c r="H23" s="14" t="s">
         <v>21</v>
       </c>
@@ -6518,7 +7414,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="10">
         <v>3</v>
       </c>
@@ -6537,7 +7433,9 @@
       <c r="F24" s="1">
         <v>5</v>
       </c>
-      <c r="G24" s="7"/>
+      <c r="G24" s="7">
+        <v>4</v>
+      </c>
       <c r="H24" s="14" t="s">
         <v>21</v>
       </c>
@@ -6545,7 +7443,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="10">
         <v>3</v>
       </c>
@@ -6564,13 +7462,15 @@
       <c r="F25" s="1">
         <v>10</v>
       </c>
-      <c r="G25" s="7"/>
+      <c r="G25" s="7">
+        <v>6</v>
+      </c>
       <c r="H25" s="14" t="s">
         <v>21</v>
       </c>
       <c r="I25" s="3"/>
     </row>
-    <row r="26" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="10">
         <v>3</v>
       </c>
@@ -6589,13 +7489,15 @@
       <c r="F26" s="1">
         <v>5</v>
       </c>
-      <c r="G26" s="7"/>
+      <c r="G26" s="7">
+        <v>6</v>
+      </c>
       <c r="H26" s="14" t="s">
         <v>21</v>
       </c>
       <c r="I26" s="3"/>
     </row>
-    <row r="27" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="10">
         <v>3</v>
       </c>
@@ -6614,7 +7516,9 @@
       <c r="F27" s="1">
         <v>4</v>
       </c>
-      <c r="G27" s="7"/>
+      <c r="G27" s="7">
+        <v>6</v>
+      </c>
       <c r="H27" s="14" t="s">
         <v>21</v>
       </c>
@@ -6622,7 +7526,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="9">
         <v>3</v>
       </c>
@@ -6641,36 +7545,38 @@
       <c r="F28" s="9">
         <v>3</v>
       </c>
-      <c r="G28" s="8"/>
+      <c r="G28" s="8">
+        <v>3</v>
+      </c>
       <c r="H28" s="14" t="s">
         <v>20</v>
       </c>
       <c r="I28" s="5"/>
     </row>
-    <row r="29" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="67" t="s">
         <v>15</v>
       </c>
       <c r="B29" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="74">
+      <c r="C29" s="78">
         <f>SUM(F22:F28)</f>
         <v>45</v>
       </c>
-      <c r="D29" s="74"/>
-      <c r="E29" s="74"/>
-      <c r="F29" s="75"/>
+      <c r="D29" s="78"/>
+      <c r="E29" s="78"/>
+      <c r="F29" s="79"/>
       <c r="G29" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H29" s="74">
+      <c r="H29" s="78">
         <f>SUM(G22:G28)</f>
-        <v>0</v>
-      </c>
-      <c r="I29" s="75"/>
-    </row>
-    <row r="30" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+      <c r="I29" s="79"/>
+    </row>
+    <row r="30" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="24" t="s">
         <v>1</v>
       </c>
@@ -6699,7 +7605,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" ht="45.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="10">
         <v>4</v>
       </c>
@@ -6724,7 +7630,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="10">
         <v>4</v>
       </c>
@@ -6747,7 +7653,7 @@
       <c r="H32" s="14"/>
       <c r="I32" s="15"/>
     </row>
-    <row r="33" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="10">
         <v>4</v>
       </c>
@@ -6772,7 +7678,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="10">
         <v>4</v>
       </c>
@@ -6797,7 +7703,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="10">
         <v>4</v>
       </c>
@@ -6820,7 +7726,7 @@
       <c r="H35" s="14"/>
       <c r="I35" s="3"/>
     </row>
-    <row r="36" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="10">
         <v>4</v>
       </c>
@@ -6843,7 +7749,7 @@
       <c r="H36" s="14"/>
       <c r="I36" s="3"/>
     </row>
-    <row r="37" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="9"/>
       <c r="B37" s="12"/>
       <c r="C37" s="9"/>
@@ -6856,30 +7762,30 @@
       <c r="H37" s="14"/>
       <c r="I37" s="5"/>
     </row>
-    <row r="38" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="67" t="s">
         <v>15</v>
       </c>
       <c r="B38" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C38" s="74">
+      <c r="C38" s="78">
         <f>SUM(F31:F37)</f>
         <v>38</v>
       </c>
-      <c r="D38" s="74"/>
-      <c r="E38" s="74"/>
-      <c r="F38" s="75"/>
+      <c r="D38" s="78"/>
+      <c r="E38" s="78"/>
+      <c r="F38" s="79"/>
       <c r="G38" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H38" s="74">
+      <c r="H38" s="78">
         <f>SUM(G31:G37)</f>
         <v>0</v>
       </c>
-      <c r="I38" s="75"/>
-    </row>
-    <row r="39" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I38" s="79"/>
+    </row>
+    <row r="39" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="24" t="s">
         <v>1</v>
       </c>
@@ -6908,7 +7814,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="10">
         <v>5</v>
       </c>
@@ -6925,7 +7831,7 @@
       <c r="H40" s="14"/>
       <c r="I40" s="15"/>
     </row>
-    <row r="41" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="10">
         <v>5</v>
       </c>
@@ -6942,7 +7848,7 @@
       <c r="H41" s="14"/>
       <c r="I41" s="15"/>
     </row>
-    <row r="42" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="10">
         <v>5</v>
       </c>
@@ -6959,7 +7865,7 @@
       <c r="H42" s="14"/>
       <c r="I42" s="3"/>
     </row>
-    <row r="43" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="10">
         <v>5</v>
       </c>
@@ -6976,7 +7882,7 @@
       <c r="H43" s="14"/>
       <c r="I43" s="3"/>
     </row>
-    <row r="44" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="10">
         <v>5</v>
       </c>
@@ -6993,7 +7899,7 @@
       <c r="H44" s="14"/>
       <c r="I44" s="3"/>
     </row>
-    <row r="45" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="10">
         <v>5</v>
       </c>
@@ -7010,7 +7916,7 @@
       <c r="H45" s="14"/>
       <c r="I45" s="3"/>
     </row>
-    <row r="46" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="9"/>
       <c r="B46" s="12"/>
       <c r="C46" s="9"/>
@@ -7023,30 +7929,30 @@
       <c r="H46" s="14"/>
       <c r="I46" s="5"/>
     </row>
-    <row r="47" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="67" t="s">
         <v>15</v>
       </c>
       <c r="B47" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C47" s="74">
+      <c r="C47" s="78">
         <f>SUM(F40:F46)</f>
         <v>0</v>
       </c>
-      <c r="D47" s="74"/>
-      <c r="E47" s="74"/>
-      <c r="F47" s="75"/>
+      <c r="D47" s="78"/>
+      <c r="E47" s="78"/>
+      <c r="F47" s="79"/>
       <c r="G47" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H47" s="74">
+      <c r="H47" s="78">
         <f>SUM(G40:G46)</f>
         <v>0</v>
       </c>
-      <c r="I47" s="75"/>
-    </row>
-    <row r="48" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I47" s="79"/>
+    </row>
+    <row r="48" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="24" t="s">
         <v>1</v>
       </c>
@@ -7075,7 +7981,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="10">
         <v>6</v>
       </c>
@@ -7092,7 +7998,7 @@
       <c r="H49" s="14"/>
       <c r="I49" s="15"/>
     </row>
-    <row r="50" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="10">
         <v>6</v>
       </c>
@@ -7109,7 +8015,7 @@
       <c r="H50" s="14"/>
       <c r="I50" s="15"/>
     </row>
-    <row r="51" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="10">
         <v>6</v>
       </c>
@@ -7126,7 +8032,7 @@
       <c r="H51" s="14"/>
       <c r="I51" s="3"/>
     </row>
-    <row r="52" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="10">
         <v>6</v>
       </c>
@@ -7143,7 +8049,7 @@
       <c r="H52" s="14"/>
       <c r="I52" s="3"/>
     </row>
-    <row r="53" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="10">
         <v>6</v>
       </c>
@@ -7160,7 +8066,7 @@
       <c r="H53" s="14"/>
       <c r="I53" s="3"/>
     </row>
-    <row r="54" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="10">
         <v>6</v>
       </c>
@@ -7177,7 +8083,7 @@
       <c r="H54" s="14"/>
       <c r="I54" s="3"/>
     </row>
-    <row r="55" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="9"/>
       <c r="B55" s="12"/>
       <c r="C55" s="9"/>
@@ -7190,30 +8096,30 @@
       <c r="H55" s="14"/>
       <c r="I55" s="5"/>
     </row>
-    <row r="56" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="67" t="s">
         <v>15</v>
       </c>
       <c r="B56" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C56" s="74">
+      <c r="C56" s="78">
         <f>SUM(F49:F55)</f>
         <v>0</v>
       </c>
-      <c r="D56" s="74"/>
-      <c r="E56" s="74"/>
-      <c r="F56" s="75"/>
+      <c r="D56" s="78"/>
+      <c r="E56" s="78"/>
+      <c r="F56" s="79"/>
       <c r="G56" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H56" s="74">
+      <c r="H56" s="78">
         <f>SUM(G49:G55)</f>
         <v>0</v>
       </c>
-      <c r="I56" s="75"/>
-    </row>
-    <row r="57" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I56" s="79"/>
+    </row>
+    <row r="57" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="24" t="s">
         <v>1</v>
       </c>
@@ -7242,7 +8148,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="10">
         <v>7</v>
       </c>
@@ -7267,7 +8173,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="10">
         <v>7</v>
       </c>
@@ -7290,7 +8196,7 @@
       <c r="H59" s="14"/>
       <c r="I59" s="15"/>
     </row>
-    <row r="60" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="10">
         <v>7</v>
       </c>
@@ -7315,7 +8221,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="10">
         <v>7</v>
       </c>
@@ -7338,7 +8244,7 @@
       <c r="H61" s="14"/>
       <c r="I61" s="3"/>
     </row>
-    <row r="62" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="10">
         <v>7</v>
       </c>
@@ -7363,7 +8269,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="10">
         <v>7</v>
       </c>
@@ -7388,7 +8294,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="9">
         <v>7</v>
       </c>
@@ -7413,30 +8319,30 @@
         <v>146</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="67" t="s">
         <v>15</v>
       </c>
       <c r="B65" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C65" s="74">
+      <c r="C65" s="78">
         <f>SUM(F58:F64)</f>
         <v>50</v>
       </c>
-      <c r="D65" s="74"/>
-      <c r="E65" s="74"/>
-      <c r="F65" s="75"/>
+      <c r="D65" s="78"/>
+      <c r="E65" s="78"/>
+      <c r="F65" s="79"/>
       <c r="G65" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H65" s="74">
+      <c r="H65" s="78">
         <f>SUM(G58:G64)</f>
         <v>0</v>
       </c>
-      <c r="I65" s="75"/>
-    </row>
-    <row r="66" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I65" s="79"/>
+    </row>
+    <row r="66" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="24" t="s">
         <v>1</v>
       </c>
@@ -7465,7 +8371,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="10">
         <v>8</v>
       </c>
@@ -7490,7 +8396,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="10">
         <v>8</v>
       </c>
@@ -7509,7 +8415,7 @@
       <c r="H68" s="14"/>
       <c r="I68" s="15"/>
     </row>
-    <row r="69" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="10">
         <v>8</v>
       </c>
@@ -7528,7 +8434,7 @@
       <c r="H69" s="14"/>
       <c r="I69" s="3"/>
     </row>
-    <row r="70" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="10">
         <v>8</v>
       </c>
@@ -7547,7 +8453,7 @@
       <c r="H70" s="14"/>
       <c r="I70" s="3"/>
     </row>
-    <row r="71" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="10">
         <v>8</v>
       </c>
@@ -7566,7 +8472,7 @@
       <c r="H71" s="14"/>
       <c r="I71" s="3"/>
     </row>
-    <row r="72" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="10">
         <v>8</v>
       </c>
@@ -7585,7 +8491,7 @@
       <c r="H72" s="14"/>
       <c r="I72" s="3"/>
     </row>
-    <row r="73" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="10">
         <v>8</v>
       </c>
@@ -7604,36 +8510,31 @@
       <c r="H73" s="14"/>
       <c r="I73" s="3"/>
     </row>
-    <row r="74" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="67" t="s">
         <v>15</v>
       </c>
       <c r="B74" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C74" s="74">
+      <c r="C74" s="78">
         <f>SUM(F67:F73)</f>
         <v>10</v>
       </c>
-      <c r="D74" s="74"/>
-      <c r="E74" s="74"/>
-      <c r="F74" s="75"/>
+      <c r="D74" s="78"/>
+      <c r="E74" s="78"/>
+      <c r="F74" s="79"/>
       <c r="G74" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H74" s="74">
+      <c r="H74" s="78">
         <f>SUM(G67:G73)</f>
         <v>0</v>
       </c>
-      <c r="I74" s="75"/>
+      <c r="I74" s="79"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="H20:I20"/>
     <mergeCell ref="C74:F74"/>
     <mergeCell ref="H74:I74"/>
     <mergeCell ref="C65:F65"/>
@@ -7646,6 +8547,11 @@
     <mergeCell ref="H47:I47"/>
     <mergeCell ref="C56:F56"/>
     <mergeCell ref="H56:I56"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="H20:I20"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <dataValidations count="6">
@@ -7679,22 +8585,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4F2588E-374C-4DBD-95A9-14304F022B88}">
   <dimension ref="A1:I56"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.85546875" customWidth="1"/>
-    <col min="9" max="9" width="11.85546875" customWidth="1"/>
+    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.88671875" customWidth="1"/>
+    <col min="9" max="9" width="11.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="20" t="s">
         <v>65</v>
       </c>
@@ -7707,20 +8613,20 @@
       <c r="H1" s="21"/>
       <c r="I1" s="22"/>
     </row>
-    <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="70" t="s">
+    <row r="2" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="73"/>
-    </row>
-    <row r="3" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="81"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="83"/>
+    </row>
+    <row r="3" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="24" t="s">
         <v>1</v>
       </c>
@@ -7749,7 +8655,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="10">
         <v>1</v>
       </c>
@@ -7774,7 +8680,7 @@
       </c>
       <c r="I4" s="15"/>
     </row>
-    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="10">
         <v>1</v>
       </c>
@@ -7801,7 +8707,7 @@
       </c>
       <c r="I5" s="15"/>
     </row>
-    <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -7828,7 +8734,7 @@
       </c>
       <c r="I6" s="3"/>
     </row>
-    <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -7855,7 +8761,7 @@
       </c>
       <c r="I7" s="3"/>
     </row>
-    <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>1</v>
       </c>
@@ -7880,7 +8786,7 @@
       </c>
       <c r="I8" s="3"/>
     </row>
-    <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>1</v>
       </c>
@@ -7905,7 +8811,7 @@
       </c>
       <c r="I9" s="3"/>
     </row>
-    <row r="10" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="9"/>
       <c r="B10" s="11"/>
       <c r="C10" s="9"/>
@@ -7916,30 +8822,30 @@
       <c r="H10" s="14"/>
       <c r="I10" s="5"/>
     </row>
-    <row r="11" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="67" t="s">
         <v>15</v>
       </c>
       <c r="B11" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="77">
+      <c r="C11" s="85">
         <f>SUM(F4:F10)</f>
         <v>26.5</v>
       </c>
-      <c r="D11" s="77"/>
-      <c r="E11" s="77"/>
-      <c r="F11" s="78"/>
+      <c r="D11" s="85"/>
+      <c r="E11" s="85"/>
+      <c r="F11" s="86"/>
       <c r="G11" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="77">
+      <c r="H11" s="85">
         <f>SUM(G4:G10)</f>
         <v>27.5</v>
       </c>
-      <c r="I11" s="78"/>
-    </row>
-    <row r="12" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I11" s="86"/>
+    </row>
+    <row r="12" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="24" t="s">
         <v>1</v>
       </c>
@@ -7968,7 +8874,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="10">
         <v>2</v>
       </c>
@@ -7995,7 +8901,7 @@
       </c>
       <c r="I13" s="15"/>
     </row>
-    <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="10">
         <v>2</v>
       </c>
@@ -8022,7 +8928,7 @@
       </c>
       <c r="I14" s="15"/>
     </row>
-    <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="10">
         <v>2</v>
       </c>
@@ -8047,7 +8953,7 @@
       </c>
       <c r="I15" s="3"/>
     </row>
-    <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="10">
         <v>2</v>
       </c>
@@ -8070,7 +8976,7 @@
       </c>
       <c r="I16" s="3"/>
     </row>
-    <row r="17" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="10">
         <v>2</v>
       </c>
@@ -8093,7 +8999,7 @@
       </c>
       <c r="I17" s="3"/>
     </row>
-    <row r="18" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="10">
         <v>2</v>
       </c>
@@ -8120,7 +9026,7 @@
       </c>
       <c r="I18" s="3"/>
     </row>
-    <row r="19" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="9"/>
       <c r="B19" s="11"/>
       <c r="C19" s="9"/>
@@ -8131,30 +9037,30 @@
       <c r="H19" s="14"/>
       <c r="I19" s="5"/>
     </row>
-    <row r="20" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="67" t="s">
         <v>15</v>
       </c>
       <c r="B20" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="77">
+      <c r="C20" s="85">
         <f>SUM(F13:F19)</f>
         <v>18.5</v>
       </c>
-      <c r="D20" s="77"/>
-      <c r="E20" s="77"/>
-      <c r="F20" s="78"/>
+      <c r="D20" s="85"/>
+      <c r="E20" s="85"/>
+      <c r="F20" s="86"/>
       <c r="G20" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H20" s="77">
+      <c r="H20" s="85">
         <f>SUM(G13:G19)</f>
         <v>22</v>
       </c>
-      <c r="I20" s="78"/>
-    </row>
-    <row r="21" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I20" s="86"/>
+    </row>
+    <row r="21" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="24" t="s">
         <v>1</v>
       </c>
@@ -8183,7 +9089,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="10">
         <v>3</v>
       </c>
@@ -8198,7 +9104,7 @@
       <c r="H22" s="14"/>
       <c r="I22" s="15"/>
     </row>
-    <row r="23" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="10">
         <v>3</v>
       </c>
@@ -8213,7 +9119,7 @@
       <c r="H23" s="14"/>
       <c r="I23" s="15"/>
     </row>
-    <row r="24" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="10">
         <v>3</v>
       </c>
@@ -8228,7 +9134,7 @@
       <c r="H24" s="14"/>
       <c r="I24" s="3"/>
     </row>
-    <row r="25" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="10">
         <v>3</v>
       </c>
@@ -8243,7 +9149,7 @@
       <c r="H25" s="14"/>
       <c r="I25" s="3"/>
     </row>
-    <row r="26" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="10">
         <v>3</v>
       </c>
@@ -8258,7 +9164,7 @@
       <c r="H26" s="14"/>
       <c r="I26" s="3"/>
     </row>
-    <row r="27" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="10">
         <v>3</v>
       </c>
@@ -8273,7 +9179,7 @@
       <c r="H27" s="14"/>
       <c r="I27" s="3"/>
     </row>
-    <row r="28" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="9"/>
       <c r="B28" s="12"/>
       <c r="C28" s="9"/>
@@ -8284,30 +9190,30 @@
       <c r="H28" s="14"/>
       <c r="I28" s="5"/>
     </row>
-    <row r="29" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="67" t="s">
         <v>15</v>
       </c>
       <c r="B29" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="74">
+      <c r="C29" s="78">
         <f>SUM(F22:F28)</f>
         <v>0</v>
       </c>
-      <c r="D29" s="74"/>
-      <c r="E29" s="74"/>
-      <c r="F29" s="75"/>
+      <c r="D29" s="78"/>
+      <c r="E29" s="78"/>
+      <c r="F29" s="79"/>
       <c r="G29" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H29" s="74">
+      <c r="H29" s="78">
         <f>SUM(G22:G28)</f>
         <v>0</v>
       </c>
-      <c r="I29" s="75"/>
-    </row>
-    <row r="30" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I29" s="79"/>
+    </row>
+    <row r="30" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="24" t="s">
         <v>1</v>
       </c>
@@ -8336,7 +9242,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="10">
         <v>4</v>
       </c>
@@ -8351,7 +9257,7 @@
       <c r="H31" s="14"/>
       <c r="I31" s="15"/>
     </row>
-    <row r="32" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="10">
         <v>4</v>
       </c>
@@ -8366,7 +9272,7 @@
       <c r="H32" s="14"/>
       <c r="I32" s="15"/>
     </row>
-    <row r="33" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="10">
         <v>4</v>
       </c>
@@ -8381,7 +9287,7 @@
       <c r="H33" s="14"/>
       <c r="I33" s="3"/>
     </row>
-    <row r="34" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="10">
         <v>4</v>
       </c>
@@ -8396,7 +9302,7 @@
       <c r="H34" s="14"/>
       <c r="I34" s="3"/>
     </row>
-    <row r="35" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="10">
         <v>4</v>
       </c>
@@ -8411,7 +9317,7 @@
       <c r="H35" s="14"/>
       <c r="I35" s="3"/>
     </row>
-    <row r="36" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="10">
         <v>4</v>
       </c>
@@ -8426,7 +9332,7 @@
       <c r="H36" s="14"/>
       <c r="I36" s="3"/>
     </row>
-    <row r="37" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="9"/>
       <c r="B37" s="12"/>
       <c r="C37" s="9"/>
@@ -8437,30 +9343,30 @@
       <c r="H37" s="14"/>
       <c r="I37" s="5"/>
     </row>
-    <row r="38" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="67" t="s">
         <v>15</v>
       </c>
       <c r="B38" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C38" s="74">
+      <c r="C38" s="78">
         <f>SUM(F31:F37)</f>
         <v>0</v>
       </c>
-      <c r="D38" s="74"/>
-      <c r="E38" s="74"/>
-      <c r="F38" s="75"/>
+      <c r="D38" s="78"/>
+      <c r="E38" s="78"/>
+      <c r="F38" s="79"/>
       <c r="G38" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H38" s="74">
+      <c r="H38" s="78">
         <f>SUM(G31:G37)</f>
         <v>0</v>
       </c>
-      <c r="I38" s="75"/>
-    </row>
-    <row r="39" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I38" s="79"/>
+    </row>
+    <row r="39" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="24" t="s">
         <v>1</v>
       </c>
@@ -8489,7 +9395,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="10">
         <v>5</v>
       </c>
@@ -8504,7 +9410,7 @@
       <c r="H40" s="14"/>
       <c r="I40" s="15"/>
     </row>
-    <row r="41" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="10">
         <v>5</v>
       </c>
@@ -8519,7 +9425,7 @@
       <c r="H41" s="14"/>
       <c r="I41" s="15"/>
     </row>
-    <row r="42" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="10">
         <v>5</v>
       </c>
@@ -8534,7 +9440,7 @@
       <c r="H42" s="14"/>
       <c r="I42" s="3"/>
     </row>
-    <row r="43" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="10">
         <v>5</v>
       </c>
@@ -8549,7 +9455,7 @@
       <c r="H43" s="14"/>
       <c r="I43" s="3"/>
     </row>
-    <row r="44" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="10">
         <v>5</v>
       </c>
@@ -8564,7 +9470,7 @@
       <c r="H44" s="14"/>
       <c r="I44" s="3"/>
     </row>
-    <row r="45" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" s="10">
         <v>5</v>
       </c>
@@ -8579,7 +9485,7 @@
       <c r="H45" s="14"/>
       <c r="I45" s="3"/>
     </row>
-    <row r="46" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="9"/>
       <c r="B46" s="12"/>
       <c r="C46" s="9"/>
@@ -8590,30 +9496,30 @@
       <c r="H46" s="14"/>
       <c r="I46" s="5"/>
     </row>
-    <row r="47" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="67" t="s">
         <v>15</v>
       </c>
       <c r="B47" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C47" s="74">
+      <c r="C47" s="78">
         <f>SUM(F40:F46)</f>
         <v>0</v>
       </c>
-      <c r="D47" s="74"/>
-      <c r="E47" s="74"/>
-      <c r="F47" s="75"/>
+      <c r="D47" s="78"/>
+      <c r="E47" s="78"/>
+      <c r="F47" s="79"/>
       <c r="G47" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H47" s="74">
+      <c r="H47" s="78">
         <f>SUM(G40:G46)</f>
         <v>0</v>
       </c>
-      <c r="I47" s="75"/>
-    </row>
-    <row r="48" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I47" s="79"/>
+    </row>
+    <row r="48" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="24" t="s">
         <v>1</v>
       </c>
@@ -8642,7 +9548,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" s="10">
         <v>6</v>
       </c>
@@ -8657,7 +9563,7 @@
       <c r="H49" s="14"/>
       <c r="I49" s="15"/>
     </row>
-    <row r="50" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" s="10">
         <v>6</v>
       </c>
@@ -8672,7 +9578,7 @@
       <c r="H50" s="14"/>
       <c r="I50" s="15"/>
     </row>
-    <row r="51" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A51" s="10">
         <v>6</v>
       </c>
@@ -8687,7 +9593,7 @@
       <c r="H51" s="14"/>
       <c r="I51" s="3"/>
     </row>
-    <row r="52" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" s="10">
         <v>6</v>
       </c>
@@ -8702,7 +9608,7 @@
       <c r="H52" s="14"/>
       <c r="I52" s="3"/>
     </row>
-    <row r="53" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53" s="10">
         <v>6</v>
       </c>
@@ -8717,7 +9623,7 @@
       <c r="H53" s="14"/>
       <c r="I53" s="3"/>
     </row>
-    <row r="54" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A54" s="10">
         <v>6</v>
       </c>
@@ -8732,7 +9638,7 @@
       <c r="H54" s="14"/>
       <c r="I54" s="3"/>
     </row>
-    <row r="55" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="9"/>
       <c r="B55" s="12"/>
       <c r="C55" s="9"/>
@@ -8743,36 +9649,31 @@
       <c r="H55" s="14"/>
       <c r="I55" s="5"/>
     </row>
-    <row r="56" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="67" t="s">
         <v>15</v>
       </c>
       <c r="B56" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C56" s="74">
+      <c r="C56" s="78">
         <f>SUM(F49:F55)</f>
         <v>0</v>
       </c>
-      <c r="D56" s="74"/>
-      <c r="E56" s="74"/>
-      <c r="F56" s="75"/>
+      <c r="D56" s="78"/>
+      <c r="E56" s="78"/>
+      <c r="F56" s="79"/>
       <c r="G56" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H56" s="74">
+      <c r="H56" s="78">
         <f>SUM(G49:G55)</f>
         <v>0</v>
       </c>
-      <c r="I56" s="75"/>
+      <c r="I56" s="79"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="H20:I20"/>
     <mergeCell ref="C56:F56"/>
     <mergeCell ref="H56:I56"/>
     <mergeCell ref="C29:F29"/>
@@ -8781,6 +9682,11 @@
     <mergeCell ref="H38:I38"/>
     <mergeCell ref="C47:F47"/>
     <mergeCell ref="H47:I47"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="H20:I20"/>
   </mergeCells>
   <dataValidations count="6">
     <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3 B12" xr:uid="{6FFE7BB2-A561-485E-81E9-2571AC8DE5CA}">
@@ -8817,18 +9723,18 @@
       <selection activeCell="A21" sqref="A21:I56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" customWidth="1"/>
+    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="20" t="s">
         <v>65</v>
       </c>
@@ -8841,20 +9747,20 @@
       <c r="H1" s="21"/>
       <c r="I1" s="22"/>
     </row>
-    <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="70" t="s">
+    <row r="2" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="73"/>
-    </row>
-    <row r="3" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="81"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="83"/>
+    </row>
+    <row r="3" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="24" t="s">
         <v>1</v>
       </c>
@@ -8883,7 +9789,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="10">
         <v>1</v>
       </c>
@@ -8908,7 +9814,7 @@
       </c>
       <c r="I4" s="15"/>
     </row>
-    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="10">
         <v>1</v>
       </c>
@@ -8935,7 +9841,7 @@
       </c>
       <c r="I5" s="15"/>
     </row>
-    <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -8962,7 +9868,7 @@
       </c>
       <c r="I6" s="3"/>
     </row>
-    <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -8989,7 +9895,7 @@
       </c>
       <c r="I7" s="3"/>
     </row>
-    <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>1</v>
       </c>
@@ -9014,7 +9920,7 @@
       </c>
       <c r="I8" s="3"/>
     </row>
-    <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>1</v>
       </c>
@@ -9039,7 +9945,7 @@
       </c>
       <c r="I9" s="3"/>
     </row>
-    <row r="10" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="9"/>
       <c r="B10" s="11"/>
       <c r="C10" s="9"/>
@@ -9050,30 +9956,30 @@
       <c r="H10" s="14"/>
       <c r="I10" s="5"/>
     </row>
-    <row r="11" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="67" t="s">
         <v>15</v>
       </c>
       <c r="B11" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="77">
+      <c r="C11" s="85">
         <f>SUM(F4:F10)</f>
         <v>24</v>
       </c>
-      <c r="D11" s="77"/>
-      <c r="E11" s="77"/>
-      <c r="F11" s="78"/>
+      <c r="D11" s="85"/>
+      <c r="E11" s="85"/>
+      <c r="F11" s="86"/>
       <c r="G11" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="77">
+      <c r="H11" s="85">
         <f>SUM(G4:G10)</f>
         <v>28</v>
       </c>
-      <c r="I11" s="78"/>
-    </row>
-    <row r="12" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I11" s="86"/>
+    </row>
+    <row r="12" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="24" t="s">
         <v>1</v>
       </c>
@@ -9102,7 +10008,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="10">
         <v>2</v>
       </c>
@@ -9129,7 +10035,7 @@
       </c>
       <c r="I13" s="15"/>
     </row>
-    <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="10">
         <v>2</v>
       </c>
@@ -9156,7 +10062,7 @@
       </c>
       <c r="I14" s="15"/>
     </row>
-    <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="10">
         <v>2</v>
       </c>
@@ -9181,7 +10087,7 @@
       </c>
       <c r="I15" s="3"/>
     </row>
-    <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="10">
         <v>2</v>
       </c>
@@ -9208,7 +10114,7 @@
       </c>
       <c r="I16" s="3"/>
     </row>
-    <row r="17" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="10">
         <v>2</v>
       </c>
@@ -9235,7 +10141,7 @@
       </c>
       <c r="I17" s="3"/>
     </row>
-    <row r="18" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="10">
         <v>2</v>
       </c>
@@ -9262,7 +10168,7 @@
       </c>
       <c r="I18" s="3"/>
     </row>
-    <row r="19" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="9"/>
       <c r="B19" s="11"/>
       <c r="C19" s="9"/>
@@ -9273,30 +10179,30 @@
       <c r="H19" s="14"/>
       <c r="I19" s="5"/>
     </row>
-    <row r="20" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="67" t="s">
         <v>15</v>
       </c>
       <c r="B20" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="77">
+      <c r="C20" s="85">
         <f>SUM(F13:F19)</f>
         <v>27</v>
       </c>
-      <c r="D20" s="77"/>
-      <c r="E20" s="77"/>
-      <c r="F20" s="78"/>
+      <c r="D20" s="85"/>
+      <c r="E20" s="85"/>
+      <c r="F20" s="86"/>
       <c r="G20" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H20" s="77">
+      <c r="H20" s="85">
         <f>SUM(G13:G19)</f>
         <v>30</v>
       </c>
-      <c r="I20" s="78"/>
-    </row>
-    <row r="21" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I20" s="86"/>
+    </row>
+    <row r="21" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="24" t="s">
         <v>1</v>
       </c>
@@ -9325,7 +10231,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="10">
         <v>3</v>
       </c>
@@ -9340,7 +10246,7 @@
       <c r="H22" s="14"/>
       <c r="I22" s="15"/>
     </row>
-    <row r="23" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="10">
         <v>3</v>
       </c>
@@ -9355,7 +10261,7 @@
       <c r="H23" s="14"/>
       <c r="I23" s="15"/>
     </row>
-    <row r="24" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="10">
         <v>3</v>
       </c>
@@ -9370,7 +10276,7 @@
       <c r="H24" s="14"/>
       <c r="I24" s="3"/>
     </row>
-    <row r="25" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="10">
         <v>3</v>
       </c>
@@ -9385,7 +10291,7 @@
       <c r="H25" s="14"/>
       <c r="I25" s="3"/>
     </row>
-    <row r="26" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="10">
         <v>3</v>
       </c>
@@ -9400,7 +10306,7 @@
       <c r="H26" s="14"/>
       <c r="I26" s="3"/>
     </row>
-    <row r="27" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="10">
         <v>3</v>
       </c>
@@ -9415,7 +10321,7 @@
       <c r="H27" s="14"/>
       <c r="I27" s="3"/>
     </row>
-    <row r="28" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="9"/>
       <c r="B28" s="12"/>
       <c r="C28" s="9"/>
@@ -9426,30 +10332,30 @@
       <c r="H28" s="14"/>
       <c r="I28" s="5"/>
     </row>
-    <row r="29" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="67" t="s">
         <v>15</v>
       </c>
       <c r="B29" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="74">
+      <c r="C29" s="78">
         <f>SUM(F22:F28)</f>
         <v>0</v>
       </c>
-      <c r="D29" s="74"/>
-      <c r="E29" s="74"/>
-      <c r="F29" s="75"/>
+      <c r="D29" s="78"/>
+      <c r="E29" s="78"/>
+      <c r="F29" s="79"/>
       <c r="G29" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H29" s="74">
+      <c r="H29" s="78">
         <f>SUM(G22:G28)</f>
         <v>0</v>
       </c>
-      <c r="I29" s="75"/>
-    </row>
-    <row r="30" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I29" s="79"/>
+    </row>
+    <row r="30" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="24" t="s">
         <v>1</v>
       </c>
@@ -9478,7 +10384,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="10">
         <v>4</v>
       </c>
@@ -9493,7 +10399,7 @@
       <c r="H31" s="14"/>
       <c r="I31" s="15"/>
     </row>
-    <row r="32" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="10">
         <v>4</v>
       </c>
@@ -9508,7 +10414,7 @@
       <c r="H32" s="14"/>
       <c r="I32" s="15"/>
     </row>
-    <row r="33" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="10">
         <v>4</v>
       </c>
@@ -9523,7 +10429,7 @@
       <c r="H33" s="14"/>
       <c r="I33" s="3"/>
     </row>
-    <row r="34" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="10">
         <v>4</v>
       </c>
@@ -9538,7 +10444,7 @@
       <c r="H34" s="14"/>
       <c r="I34" s="3"/>
     </row>
-    <row r="35" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="10">
         <v>4</v>
       </c>
@@ -9553,7 +10459,7 @@
       <c r="H35" s="14"/>
       <c r="I35" s="3"/>
     </row>
-    <row r="36" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="10">
         <v>4</v>
       </c>
@@ -9568,7 +10474,7 @@
       <c r="H36" s="14"/>
       <c r="I36" s="3"/>
     </row>
-    <row r="37" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="9"/>
       <c r="B37" s="12"/>
       <c r="C37" s="9"/>
@@ -9579,30 +10485,30 @@
       <c r="H37" s="14"/>
       <c r="I37" s="5"/>
     </row>
-    <row r="38" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="67" t="s">
         <v>15</v>
       </c>
       <c r="B38" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C38" s="74">
+      <c r="C38" s="78">
         <f>SUM(F31:F37)</f>
         <v>0</v>
       </c>
-      <c r="D38" s="74"/>
-      <c r="E38" s="74"/>
-      <c r="F38" s="75"/>
+      <c r="D38" s="78"/>
+      <c r="E38" s="78"/>
+      <c r="F38" s="79"/>
       <c r="G38" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H38" s="74">
+      <c r="H38" s="78">
         <f>SUM(G31:G37)</f>
         <v>0</v>
       </c>
-      <c r="I38" s="75"/>
-    </row>
-    <row r="39" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I38" s="79"/>
+    </row>
+    <row r="39" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="24" t="s">
         <v>1</v>
       </c>
@@ -9631,7 +10537,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="10">
         <v>5</v>
       </c>
@@ -9646,7 +10552,7 @@
       <c r="H40" s="14"/>
       <c r="I40" s="15"/>
     </row>
-    <row r="41" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="10">
         <v>5</v>
       </c>
@@ -9661,7 +10567,7 @@
       <c r="H41" s="14"/>
       <c r="I41" s="15"/>
     </row>
-    <row r="42" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="10">
         <v>5</v>
       </c>
@@ -9676,7 +10582,7 @@
       <c r="H42" s="14"/>
       <c r="I42" s="3"/>
     </row>
-    <row r="43" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="10">
         <v>5</v>
       </c>
@@ -9691,7 +10597,7 @@
       <c r="H43" s="14"/>
       <c r="I43" s="3"/>
     </row>
-    <row r="44" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="10">
         <v>5</v>
       </c>
@@ -9706,7 +10612,7 @@
       <c r="H44" s="14"/>
       <c r="I44" s="3"/>
     </row>
-    <row r="45" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" s="10">
         <v>5</v>
       </c>
@@ -9721,7 +10627,7 @@
       <c r="H45" s="14"/>
       <c r="I45" s="3"/>
     </row>
-    <row r="46" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="9"/>
       <c r="B46" s="12"/>
       <c r="C46" s="9"/>
@@ -9732,30 +10638,30 @@
       <c r="H46" s="14"/>
       <c r="I46" s="5"/>
     </row>
-    <row r="47" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="67" t="s">
         <v>15</v>
       </c>
       <c r="B47" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C47" s="74">
+      <c r="C47" s="78">
         <f>SUM(F40:F46)</f>
         <v>0</v>
       </c>
-      <c r="D47" s="74"/>
-      <c r="E47" s="74"/>
-      <c r="F47" s="75"/>
+      <c r="D47" s="78"/>
+      <c r="E47" s="78"/>
+      <c r="F47" s="79"/>
       <c r="G47" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H47" s="74">
+      <c r="H47" s="78">
         <f>SUM(G40:G46)</f>
         <v>0</v>
       </c>
-      <c r="I47" s="75"/>
-    </row>
-    <row r="48" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I47" s="79"/>
+    </row>
+    <row r="48" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="24" t="s">
         <v>1</v>
       </c>
@@ -9784,7 +10690,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" s="10">
         <v>6</v>
       </c>
@@ -9799,7 +10705,7 @@
       <c r="H49" s="14"/>
       <c r="I49" s="15"/>
     </row>
-    <row r="50" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" s="10">
         <v>6</v>
       </c>
@@ -9814,7 +10720,7 @@
       <c r="H50" s="14"/>
       <c r="I50" s="15"/>
     </row>
-    <row r="51" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A51" s="10">
         <v>6</v>
       </c>
@@ -9829,7 +10735,7 @@
       <c r="H51" s="14"/>
       <c r="I51" s="3"/>
     </row>
-    <row r="52" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" s="10">
         <v>6</v>
       </c>
@@ -9844,7 +10750,7 @@
       <c r="H52" s="14"/>
       <c r="I52" s="3"/>
     </row>
-    <row r="53" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53" s="10">
         <v>6</v>
       </c>
@@ -9859,7 +10765,7 @@
       <c r="H53" s="14"/>
       <c r="I53" s="3"/>
     </row>
-    <row r="54" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A54" s="10">
         <v>6</v>
       </c>
@@ -9874,7 +10780,7 @@
       <c r="H54" s="14"/>
       <c r="I54" s="3"/>
     </row>
-    <row r="55" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="9"/>
       <c r="B55" s="12"/>
       <c r="C55" s="9"/>
@@ -9885,36 +10791,31 @@
       <c r="H55" s="14"/>
       <c r="I55" s="5"/>
     </row>
-    <row r="56" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="67" t="s">
         <v>15</v>
       </c>
       <c r="B56" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C56" s="74">
+      <c r="C56" s="78">
         <f>SUM(F49:F55)</f>
         <v>0</v>
       </c>
-      <c r="D56" s="74"/>
-      <c r="E56" s="74"/>
-      <c r="F56" s="75"/>
+      <c r="D56" s="78"/>
+      <c r="E56" s="78"/>
+      <c r="F56" s="79"/>
       <c r="G56" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H56" s="74">
+      <c r="H56" s="78">
         <f>SUM(G49:G55)</f>
         <v>0</v>
       </c>
-      <c r="I56" s="75"/>
+      <c r="I56" s="79"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="H20:I20"/>
     <mergeCell ref="C56:F56"/>
     <mergeCell ref="H56:I56"/>
     <mergeCell ref="C29:F29"/>
@@ -9923,6 +10824,11 @@
     <mergeCell ref="H38:I38"/>
     <mergeCell ref="C47:F47"/>
     <mergeCell ref="H47:I47"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="H20:I20"/>
   </mergeCells>
   <dataValidations count="6">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10 C19 C28 C37 C46 C55" xr:uid="{49E4ABBA-BF99-4A08-9146-05B03FF61551}">
@@ -9956,21 +10862,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{744DDA93-81BE-4148-9787-FFABC05BF7AA}">
   <dimension ref="A1:L75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="A75" sqref="A75:I75"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="30.7109375" customWidth="1"/>
+    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="20" t="s">
         <v>65</v>
       </c>
@@ -9983,49 +10890,49 @@
       <c r="H1" s="21"/>
       <c r="I1" s="22"/>
     </row>
-    <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="70" t="s">
+    <row r="2" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="73"/>
-    </row>
-    <row r="3" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="81"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="83"/>
+    </row>
+    <row r="3" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="24" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="79" t="s">
+      <c r="C3" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="D3" s="80" t="s">
+      <c r="D3" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="80" t="s">
+      <c r="E3" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="80" t="s">
+      <c r="F3" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="80" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" s="80" t="s">
+      <c r="G3" s="71" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="81" t="s">
+      <c r="I3" s="72" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="10">
         <v>1</v>
       </c>
@@ -10050,7 +10957,7 @@
       </c>
       <c r="I4" s="15"/>
     </row>
-    <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="10">
         <v>1</v>
       </c>
@@ -10076,9 +10983,9 @@
         <v>20</v>
       </c>
       <c r="I5" s="15"/>
-      <c r="L5" s="86"/>
-    </row>
-    <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="L5" s="77"/>
+    </row>
+    <row r="6" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -10105,7 +11012,7 @@
       </c>
       <c r="I6" s="3"/>
     </row>
-    <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -10132,7 +11039,7 @@
       </c>
       <c r="I7" s="3"/>
     </row>
-    <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>1</v>
       </c>
@@ -10157,7 +11064,7 @@
       </c>
       <c r="I8" s="3"/>
     </row>
-    <row r="9" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="45" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>1</v>
       </c>
@@ -10182,11 +11089,11 @@
       <c r="H9" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="I9" s="82" t="s">
+      <c r="I9" s="73" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="9"/>
       <c r="B10" s="11"/>
       <c r="C10" s="9"/>
@@ -10197,30 +11104,30 @@
       <c r="H10" s="14"/>
       <c r="I10" s="5"/>
     </row>
-    <row r="11" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="67" t="s">
         <v>15</v>
       </c>
       <c r="B11" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="77">
+      <c r="C11" s="85">
         <f>SUM(F4:F10)</f>
         <v>27</v>
       </c>
-      <c r="D11" s="77"/>
-      <c r="E11" s="77"/>
-      <c r="F11" s="78"/>
+      <c r="D11" s="85"/>
+      <c r="E11" s="85"/>
+      <c r="F11" s="86"/>
       <c r="G11" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="77">
+      <c r="H11" s="85">
         <f>SUM(G4:G10)</f>
         <v>30</v>
       </c>
-      <c r="I11" s="78"/>
-    </row>
-    <row r="12" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I11" s="86"/>
+    </row>
+    <row r="12" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="10">
         <v>2</v>
       </c>
@@ -10247,7 +11154,7 @@
       </c>
       <c r="I12" s="15"/>
     </row>
-    <row r="13" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="10">
         <v>2</v>
       </c>
@@ -10274,7 +11181,7 @@
       </c>
       <c r="I13" s="15"/>
     </row>
-    <row r="14" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="10">
         <v>2</v>
       </c>
@@ -10299,7 +11206,7 @@
       </c>
       <c r="I14" s="3"/>
     </row>
-    <row r="15" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="10">
         <v>2</v>
       </c>
@@ -10326,7 +11233,7 @@
       </c>
       <c r="I15" s="3"/>
     </row>
-    <row r="16" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="10">
         <v>2</v>
       </c>
@@ -10353,7 +11260,7 @@
       </c>
       <c r="I16" s="3"/>
     </row>
-    <row r="17" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="30" x14ac:dyDescent="0.3">
       <c r="A17" s="10">
         <v>2</v>
       </c>
@@ -10382,7 +11289,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="9"/>
       <c r="B18" s="11"/>
       <c r="C18" s="9"/>
@@ -10393,30 +11300,30 @@
       <c r="H18" s="14"/>
       <c r="I18" s="5"/>
     </row>
-    <row r="19" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="67" t="s">
         <v>15</v>
       </c>
       <c r="B19" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="77">
+      <c r="C19" s="85">
         <f>SUM(F12:F18)</f>
         <v>29</v>
       </c>
-      <c r="D19" s="77"/>
-      <c r="E19" s="77"/>
-      <c r="F19" s="78"/>
+      <c r="D19" s="85"/>
+      <c r="E19" s="85"/>
+      <c r="F19" s="86"/>
       <c r="G19" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H19" s="77">
+      <c r="H19" s="85">
         <f>SUM(G12:G18)</f>
         <v>30</v>
       </c>
-      <c r="I19" s="78"/>
-    </row>
-    <row r="20" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I19" s="86"/>
+    </row>
+    <row r="20" spans="1:9" ht="45.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="10">
         <v>3</v>
       </c>
@@ -10443,7 +11350,7 @@
       </c>
       <c r="I20" s="15"/>
     </row>
-    <row r="21" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="10">
         <v>3</v>
       </c>
@@ -10468,7 +11375,7 @@
       </c>
       <c r="I21" s="15"/>
     </row>
-    <row r="22" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="10">
         <v>3</v>
       </c>
@@ -10493,7 +11400,7 @@
       </c>
       <c r="I22" s="3"/>
     </row>
-    <row r="23" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="10">
         <v>3</v>
       </c>
@@ -10506,7 +11413,7 @@
       <c r="D23" s="57" t="s">
         <v>156</v>
       </c>
-      <c r="E23" s="83" t="s">
+      <c r="E23" s="74" t="s">
         <v>157</v>
       </c>
       <c r="F23" s="1">
@@ -10522,7 +11429,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="10">
         <v>3</v>
       </c>
@@ -10535,7 +11442,7 @@
       <c r="D24" s="57" t="s">
         <v>159</v>
       </c>
-      <c r="E24" s="83">
+      <c r="E24" s="74">
         <v>43476</v>
       </c>
       <c r="F24" s="1">
@@ -10549,7 +11456,7 @@
       </c>
       <c r="I24" s="3"/>
     </row>
-    <row r="25" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="45" x14ac:dyDescent="0.3">
       <c r="A25" s="10">
         <v>3</v>
       </c>
@@ -10562,7 +11469,7 @@
       <c r="D25" s="63" t="s">
         <v>160</v>
       </c>
-      <c r="E25" s="83">
+      <c r="E25" s="74">
         <v>43507</v>
       </c>
       <c r="F25" s="1">
@@ -10574,11 +11481,11 @@
       <c r="H25" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I25" s="82" t="s">
+      <c r="I25" s="73" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="9"/>
       <c r="B26" s="11"/>
       <c r="C26" s="9"/>
@@ -10589,30 +11496,30 @@
       <c r="H26" s="14"/>
       <c r="I26" s="5"/>
     </row>
-    <row r="27" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="67" t="s">
         <v>15</v>
       </c>
       <c r="B27" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C27" s="77">
+      <c r="C27" s="85">
         <f>SUM(F20:F26)</f>
         <v>29.5</v>
       </c>
-      <c r="D27" s="77"/>
-      <c r="E27" s="77"/>
-      <c r="F27" s="78"/>
+      <c r="D27" s="85"/>
+      <c r="E27" s="85"/>
+      <c r="F27" s="86"/>
       <c r="G27" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H27" s="77">
+      <c r="H27" s="85">
         <f>SUM(G20:G26)</f>
         <v>35</v>
       </c>
-      <c r="I27" s="78"/>
-    </row>
-    <row r="28" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I27" s="86"/>
+    </row>
+    <row r="28" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="10">
         <v>4</v>
       </c>
@@ -10641,7 +11548,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="10">
         <v>4</v>
       </c>
@@ -10670,7 +11577,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="10">
         <v>4</v>
       </c>
@@ -10695,7 +11602,7 @@
       </c>
       <c r="I30" s="3"/>
     </row>
-    <row r="31" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="10">
         <v>4</v>
       </c>
@@ -10722,7 +11629,7 @@
       </c>
       <c r="I31" s="3"/>
     </row>
-    <row r="32" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="10">
         <v>4</v>
       </c>
@@ -10747,7 +11654,7 @@
       </c>
       <c r="I32" s="3"/>
     </row>
-    <row r="33" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" ht="30" x14ac:dyDescent="0.3">
       <c r="A33" s="10">
         <v>4</v>
       </c>
@@ -10776,7 +11683,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="9"/>
       <c r="B34" s="11"/>
       <c r="C34" s="9"/>
@@ -10787,30 +11694,30 @@
       <c r="H34" s="14"/>
       <c r="I34" s="5"/>
     </row>
-    <row r="35" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="67" t="s">
         <v>15</v>
       </c>
       <c r="B35" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C35" s="77">
+      <c r="C35" s="85">
         <f>SUM(F28:F34)</f>
         <v>31.5</v>
       </c>
-      <c r="D35" s="77"/>
-      <c r="E35" s="77"/>
-      <c r="F35" s="78"/>
+      <c r="D35" s="85"/>
+      <c r="E35" s="85"/>
+      <c r="F35" s="86"/>
       <c r="G35" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H35" s="77">
+      <c r="H35" s="85">
         <f>SUM(G28:G34)</f>
         <v>35</v>
       </c>
-      <c r="I35" s="78"/>
-    </row>
-    <row r="36" spans="1:9" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I35" s="86"/>
+    </row>
+    <row r="36" spans="1:9" ht="45.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="10">
         <v>5</v>
       </c>
@@ -10837,7 +11744,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="10">
         <v>5</v>
       </c>
@@ -10860,7 +11767,7 @@
       </c>
       <c r="I37" s="15"/>
     </row>
-    <row r="38" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="10">
         <v>5</v>
       </c>
@@ -10885,7 +11792,7 @@
       </c>
       <c r="I38" s="3"/>
     </row>
-    <row r="39" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="10">
         <v>5</v>
       </c>
@@ -10910,7 +11817,7 @@
       </c>
       <c r="I39" s="3"/>
     </row>
-    <row r="40" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="10">
         <v>5</v>
       </c>
@@ -10935,7 +11842,7 @@
       </c>
       <c r="I40" s="3"/>
     </row>
-    <row r="41" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" ht="45" x14ac:dyDescent="0.3">
       <c r="A41" s="10">
         <v>5</v>
       </c>
@@ -10960,7 +11867,7 @@
       </c>
       <c r="I41" s="3"/>
     </row>
-    <row r="42" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="9"/>
       <c r="B42" s="11"/>
       <c r="C42" s="9"/>
@@ -10971,30 +11878,30 @@
       <c r="H42" s="14"/>
       <c r="I42" s="5"/>
     </row>
-    <row r="43" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="67" t="s">
         <v>15</v>
       </c>
       <c r="B43" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C43" s="77">
+      <c r="C43" s="85">
         <f>SUM(F36:F42)</f>
         <v>30.5</v>
       </c>
-      <c r="D43" s="77"/>
-      <c r="E43" s="77"/>
-      <c r="F43" s="78"/>
+      <c r="D43" s="85"/>
+      <c r="E43" s="85"/>
+      <c r="F43" s="86"/>
       <c r="G43" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H43" s="77">
+      <c r="H43" s="85">
         <f>SUM(G36:G42)</f>
         <v>0</v>
       </c>
-      <c r="I43" s="78"/>
-    </row>
-    <row r="44" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I43" s="86"/>
+    </row>
+    <row r="44" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="10">
         <v>6</v>
       </c>
@@ -11017,7 +11924,7 @@
       </c>
       <c r="I44" s="15"/>
     </row>
-    <row r="45" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="10">
         <v>6</v>
       </c>
@@ -11040,7 +11947,7 @@
       </c>
       <c r="I45" s="15"/>
     </row>
-    <row r="46" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="10">
         <v>6</v>
       </c>
@@ -11063,7 +11970,7 @@
       </c>
       <c r="I46" s="3"/>
     </row>
-    <row r="47" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="10">
         <v>6</v>
       </c>
@@ -11086,7 +11993,7 @@
       </c>
       <c r="I47" s="3"/>
     </row>
-    <row r="48" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="10">
         <v>6</v>
       </c>
@@ -11111,7 +12018,7 @@
       </c>
       <c r="I48" s="3"/>
     </row>
-    <row r="49" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" ht="45" x14ac:dyDescent="0.3">
       <c r="A49" s="10">
         <v>6</v>
       </c>
@@ -11136,7 +12043,7 @@
       </c>
       <c r="I49" s="3"/>
     </row>
-    <row r="50" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="9"/>
       <c r="B50" s="11"/>
       <c r="C50" s="9"/>
@@ -11147,30 +12054,30 @@
       <c r="H50" s="14"/>
       <c r="I50" s="5"/>
     </row>
-    <row r="51" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="67" t="s">
         <v>15</v>
       </c>
       <c r="B51" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C51" s="77">
+      <c r="C51" s="85">
         <f>SUM(F44:F50)</f>
         <v>30.5</v>
       </c>
-      <c r="D51" s="77"/>
-      <c r="E51" s="77"/>
-      <c r="F51" s="78"/>
+      <c r="D51" s="85"/>
+      <c r="E51" s="85"/>
+      <c r="F51" s="86"/>
       <c r="G51" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H51" s="77">
+      <c r="H51" s="85">
         <f>SUM(G44:G50)</f>
         <v>0</v>
       </c>
-      <c r="I51" s="78"/>
-    </row>
-    <row r="52" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I51" s="86"/>
+    </row>
+    <row r="52" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="10">
         <v>7</v>
       </c>
@@ -11195,7 +12102,7 @@
       </c>
       <c r="I52" s="15"/>
     </row>
-    <row r="53" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="10">
         <v>7</v>
       </c>
@@ -11218,7 +12125,7 @@
       </c>
       <c r="I53" s="15"/>
     </row>
-    <row r="54" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="10">
         <v>7</v>
       </c>
@@ -11243,7 +12150,7 @@
       </c>
       <c r="I54" s="3"/>
     </row>
-    <row r="55" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="10">
         <v>7</v>
       </c>
@@ -11268,7 +12175,7 @@
       </c>
       <c r="I55" s="3"/>
     </row>
-    <row r="56" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="10">
         <v>7</v>
       </c>
@@ -11293,7 +12200,7 @@
       </c>
       <c r="I56" s="3"/>
     </row>
-    <row r="57" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" ht="45" x14ac:dyDescent="0.3">
       <c r="A57" s="10">
         <v>7</v>
       </c>
@@ -11318,7 +12225,7 @@
       </c>
       <c r="I57" s="3"/>
     </row>
-    <row r="58" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="9"/>
       <c r="B58" s="11"/>
       <c r="C58" s="9"/>
@@ -11329,30 +12236,30 @@
       <c r="H58" s="14"/>
       <c r="I58" s="5"/>
     </row>
-    <row r="59" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="67" t="s">
         <v>15</v>
       </c>
       <c r="B59" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C59" s="77">
+      <c r="C59" s="85">
         <f>SUM(F52:F58)</f>
         <v>32.5</v>
       </c>
-      <c r="D59" s="77"/>
-      <c r="E59" s="77"/>
-      <c r="F59" s="78"/>
+      <c r="D59" s="85"/>
+      <c r="E59" s="85"/>
+      <c r="F59" s="86"/>
       <c r="G59" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H59" s="77">
+      <c r="H59" s="85">
         <f>SUM(G52:G58)</f>
         <v>0</v>
       </c>
-      <c r="I59" s="78"/>
-    </row>
-    <row r="60" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I59" s="86"/>
+    </row>
+    <row r="60" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="10">
         <v>8</v>
       </c>
@@ -11362,7 +12269,7 @@
       <c r="C60" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D60" s="84" t="s">
+      <c r="D60" s="75" t="s">
         <v>181</v>
       </c>
       <c r="E60" s="18">
@@ -11377,7 +12284,7 @@
       </c>
       <c r="I60" s="15"/>
     </row>
-    <row r="61" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="10">
         <v>8</v>
       </c>
@@ -11400,7 +12307,7 @@
       </c>
       <c r="I61" s="15"/>
     </row>
-    <row r="62" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="10">
         <v>8</v>
       </c>
@@ -11425,7 +12332,7 @@
       </c>
       <c r="I62" s="3"/>
     </row>
-    <row r="63" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="10">
         <v>8</v>
       </c>
@@ -11450,7 +12357,7 @@
       </c>
       <c r="I63" s="3"/>
     </row>
-    <row r="64" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="10">
         <v>8</v>
       </c>
@@ -11475,7 +12382,7 @@
       </c>
       <c r="I64" s="3"/>
     </row>
-    <row r="65" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" ht="60" x14ac:dyDescent="0.3">
       <c r="A65" s="10">
         <v>8</v>
       </c>
@@ -11500,8 +12407,8 @@
       </c>
       <c r="I65" s="3"/>
     </row>
-    <row r="66" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="85">
+    <row r="66" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="76">
         <v>8</v>
       </c>
       <c r="B66" s="11"/>
@@ -11513,30 +12420,30 @@
       <c r="H66" s="14"/>
       <c r="I66" s="5"/>
     </row>
-    <row r="67" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="67">
         <v>8</v>
       </c>
       <c r="B67" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C67" s="77">
+      <c r="C67" s="85">
         <f>SUM(F60:F66)</f>
         <v>31.5</v>
       </c>
-      <c r="D67" s="77"/>
-      <c r="E67" s="77"/>
-      <c r="F67" s="78"/>
+      <c r="D67" s="85"/>
+      <c r="E67" s="85"/>
+      <c r="F67" s="86"/>
       <c r="G67" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H67" s="77">
+      <c r="H67" s="85">
         <f>SUM(G60:G66)</f>
         <v>0</v>
       </c>
-      <c r="I67" s="78"/>
-    </row>
-    <row r="68" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I67" s="86"/>
+    </row>
+    <row r="68" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="10">
         <v>9</v>
       </c>
@@ -11546,7 +12453,7 @@
       <c r="C68" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D68" s="84" t="s">
+      <c r="D68" s="75" t="s">
         <v>185</v>
       </c>
       <c r="E68" s="18">
@@ -11561,7 +12468,7 @@
       </c>
       <c r="I68" s="15"/>
     </row>
-    <row r="69" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="10">
         <v>9</v>
       </c>
@@ -11584,7 +12491,7 @@
       </c>
       <c r="I69" s="15"/>
     </row>
-    <row r="70" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="10">
         <v>9</v>
       </c>
@@ -11609,7 +12516,7 @@
       </c>
       <c r="I70" s="3"/>
     </row>
-    <row r="71" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="10">
         <v>9</v>
       </c>
@@ -11634,7 +12541,7 @@
       </c>
       <c r="I71" s="3"/>
     </row>
-    <row r="72" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="10">
         <v>9</v>
       </c>
@@ -11659,7 +12566,7 @@
       </c>
       <c r="I72" s="3"/>
     </row>
-    <row r="73" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" ht="60" x14ac:dyDescent="0.3">
       <c r="A73" s="10">
         <v>9</v>
       </c>
@@ -11684,8 +12591,8 @@
       </c>
       <c r="I73" s="3"/>
     </row>
-    <row r="74" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="85">
+    <row r="74" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="76">
         <v>9</v>
       </c>
       <c r="B74" s="11"/>
@@ -11697,50 +12604,50 @@
       <c r="H74" s="14"/>
       <c r="I74" s="5"/>
     </row>
-    <row r="75" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="67">
         <v>9</v>
       </c>
       <c r="B75" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C75" s="77">
+      <c r="C75" s="85">
         <f>SUM(F68:F74)</f>
         <v>31.5</v>
       </c>
-      <c r="D75" s="77"/>
-      <c r="E75" s="77"/>
-      <c r="F75" s="78"/>
+      <c r="D75" s="85"/>
+      <c r="E75" s="85"/>
+      <c r="F75" s="86"/>
       <c r="G75" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H75" s="77">
+      <c r="H75" s="85">
         <f>SUM(G68:G74)</f>
         <v>0</v>
       </c>
-      <c r="I75" s="78"/>
+      <c r="I75" s="86"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="C51:F51"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="C43:F43"/>
+    <mergeCell ref="H43:I43"/>
     <mergeCell ref="C59:F59"/>
     <mergeCell ref="H59:I59"/>
     <mergeCell ref="C67:F67"/>
     <mergeCell ref="H67:I67"/>
     <mergeCell ref="C75:F75"/>
     <mergeCell ref="H75:I75"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="C43:F43"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="C51:F51"/>
-    <mergeCell ref="H51:I51"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10 C18 C26 C34 C42 C50 C58 C66 C74" xr:uid="{37F695A9-FAA1-4B0C-BCF8-EDBE86D67943}">

--- a/Improgress/4. Timelog/PM_TimeLog.xlsx
+++ b/Improgress/4. Timelog/PM_TimeLog.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo Legion Y7000\Documents\GitHub\Capstone-Project\Improgress\4. Timelog\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Capstone-Project\Improgress\4. Timelog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35DFEF9F-F1BB-4208-9173-ABAE4717635E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A51270F-E730-4ADE-81DE-D0E51D9C9EAB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="7" r:id="rId1"/>
@@ -28,9 +28,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -41,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1229" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1327" uniqueCount="206">
   <si>
     <t>Work in period</t>
   </si>
@@ -670,6 +668,15 @@
   </si>
   <si>
     <t>RE_TracebilityMetrix_Ver.xlsx</t>
+  </si>
+  <si>
+    <t>Install React native</t>
+  </si>
+  <si>
+    <t>Create Risk Management Plan</t>
+  </si>
+  <si>
+    <t>Create Quality Management Plan</t>
   </si>
 </sst>
 </file>
@@ -1201,7 +1208,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="127">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1402,6 +1409,108 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1429,46 +1538,37 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
     <cellStyle name="Accent6" xfId="1" builtinId="49"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
+    <cellStyle name="Siêu kết nối" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Siêu kết nối" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Siêu kết nối" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Siêu kết nối" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Siêu kết nối đã Bấm vào" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Siêu kết nối đã Bấm vào" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Siêu kết nối đã Bấm vào" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Siêu kết nối đã Bấm vào" xfId="10" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1486,7 +1586,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="vi-VN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3518,16 +3618,16 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.33203125" style="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.28515625" style="12" bestFit="1" customWidth="1"/>
     <col min="2" max="10" width="9" style="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="38" width="10.33203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="6.6640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="40" max="16384" width="8.88671875" style="12"/>
+    <col min="11" max="38" width="10.28515625" style="12" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="6.7109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="40" max="16384" width="8.85546875" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="28" t="s">
         <v>5</v>
       </c>
@@ -3646,7 +3746,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:39" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>66</v>
       </c>
@@ -3701,7 +3801,7 @@
         <v>61.5</v>
       </c>
     </row>
-    <row r="3" spans="1:39" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="37" t="s">
         <v>108</v>
       </c>
@@ -3753,7 +3853,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:39" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="32" t="s">
         <v>109</v>
       </c>
@@ -3805,7 +3905,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:39" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="37" t="s">
         <v>110</v>
       </c>
@@ -3857,7 +3957,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:39" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="41" t="s">
         <v>111</v>
       </c>
@@ -3909,7 +4009,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="7" spans="1:39" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="12" t="e">
         <f>SUM(B2:B6)</f>
         <v>#REF!</v>
@@ -4059,7 +4159,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="8" spans="1:39" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="45" t="s">
         <v>23</v>
       </c>
@@ -4178,7 +4278,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:39" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="32" t="s">
         <v>66</v>
       </c>
@@ -4233,7 +4333,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="10" spans="1:39" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="37" t="s">
         <v>108</v>
       </c>
@@ -4285,7 +4385,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:39" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="32" t="s">
         <v>109</v>
       </c>
@@ -4337,7 +4437,7 @@
         <v>49.5</v>
       </c>
     </row>
-    <row r="12" spans="1:39" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="37" t="s">
         <v>110</v>
       </c>
@@ -4389,7 +4489,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:39" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="41" t="s">
         <v>111</v>
       </c>
@@ -4441,7 +4541,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:39" x14ac:dyDescent="0.2">
       <c r="B14" s="12" t="e">
         <f>SUM(B9:B13)</f>
         <v>#REF!</v>
@@ -4602,25 +4702,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+    <sheetView topLeftCell="A38" workbookViewId="0">
       <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.109375" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.88671875" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.88671875" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="42.6640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.85546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.7109375" style="12" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="12" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" style="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.88671875" style="12"/>
-    <col min="8" max="8" width="12.109375" style="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="49.33203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="12"/>
+    <col min="7" max="7" width="8.85546875" style="12"/>
+    <col min="8" max="8" width="12.140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="49.28515625" style="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.85546875" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>65</v>
       </c>
@@ -4635,20 +4735,20 @@
       <c r="H1" s="21"/>
       <c r="I1" s="22"/>
     </row>
-    <row r="2" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+    <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="114" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="82"/>
-      <c r="I2" s="83"/>
-    </row>
-    <row r="3" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="115"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="116"/>
+      <c r="G2" s="116"/>
+      <c r="H2" s="116"/>
+      <c r="I2" s="117"/>
+    </row>
+    <row r="3" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
         <v>1</v>
       </c>
@@ -4677,7 +4777,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A4" s="10">
         <v>1</v>
       </c>
@@ -4700,9 +4800,9 @@
       <c r="H4" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="89"/>
-    </row>
-    <row r="5" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="I4" s="80"/>
+    </row>
+    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A5" s="10">
         <v>1</v>
       </c>
@@ -4727,9 +4827,9 @@
       <c r="H5" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="I5" s="89"/>
-    </row>
-    <row r="6" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="I5" s="80"/>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -4754,9 +4854,9 @@
       <c r="H6" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="I6" s="90"/>
-    </row>
-    <row r="7" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="I6" s="81"/>
+    </row>
+    <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -4781,9 +4881,9 @@
       <c r="H7" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="I7" s="90"/>
-    </row>
-    <row r="8" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="I7" s="81"/>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>1</v>
       </c>
@@ -4806,9 +4906,9 @@
       <c r="H8" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="I8" s="90"/>
-    </row>
-    <row r="9" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="I8" s="81"/>
+    </row>
+    <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>1</v>
       </c>
@@ -4833,11 +4933,11 @@
       <c r="H9" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="I9" s="88" t="s">
+      <c r="I9" s="79" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9"/>
       <c r="B10" s="11"/>
       <c r="C10" s="9"/>
@@ -4848,30 +4948,30 @@
       <c r="H10" s="14"/>
       <c r="I10" s="5"/>
     </row>
-    <row r="11" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="67" t="s">
         <v>15</v>
       </c>
       <c r="B11" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="78">
+      <c r="C11" s="112">
         <f>SUM(F4:F10)</f>
         <v>30</v>
       </c>
-      <c r="D11" s="78"/>
-      <c r="E11" s="78"/>
-      <c r="F11" s="79"/>
+      <c r="D11" s="112"/>
+      <c r="E11" s="112"/>
+      <c r="F11" s="113"/>
       <c r="G11" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="78">
+      <c r="H11" s="112">
         <f>SUM(G4:G10)</f>
         <v>30</v>
       </c>
-      <c r="I11" s="79"/>
-    </row>
-    <row r="12" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I11" s="113"/>
+    </row>
+    <row r="12" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="24" t="s">
         <v>1</v>
       </c>
@@ -4900,7 +5000,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A13" s="10">
         <v>2</v>
       </c>
@@ -4927,7 +5027,7 @@
       </c>
       <c r="I13" s="15"/>
     </row>
-    <row r="14" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A14" s="10">
         <v>2</v>
       </c>
@@ -4952,11 +5052,11 @@
       <c r="H14" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="I14" s="87" t="s">
+      <c r="I14" s="78" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A15" s="10">
         <v>2</v>
       </c>
@@ -4981,7 +5081,7 @@
       </c>
       <c r="I15" s="3"/>
     </row>
-    <row r="16" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A16" s="10">
         <v>2</v>
       </c>
@@ -5008,7 +5108,7 @@
       </c>
       <c r="I16" s="3"/>
     </row>
-    <row r="17" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A17" s="10">
         <v>2</v>
       </c>
@@ -5035,7 +5135,7 @@
       </c>
       <c r="I17" s="3"/>
     </row>
-    <row r="18" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A18" s="10">
         <v>2</v>
       </c>
@@ -5062,7 +5162,7 @@
       </c>
       <c r="I18" s="3"/>
     </row>
-    <row r="19" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9"/>
       <c r="B19" s="11"/>
       <c r="C19" s="9"/>
@@ -5073,30 +5173,30 @@
       <c r="H19" s="14"/>
       <c r="I19" s="5"/>
     </row>
-    <row r="20" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="67" t="s">
         <v>15</v>
       </c>
       <c r="B20" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="78">
+      <c r="C20" s="112">
         <f>SUM(F13:F19)</f>
         <v>31.5</v>
       </c>
-      <c r="D20" s="78"/>
-      <c r="E20" s="78"/>
-      <c r="F20" s="79"/>
+      <c r="D20" s="112"/>
+      <c r="E20" s="112"/>
+      <c r="F20" s="113"/>
       <c r="G20" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H20" s="78">
+      <c r="H20" s="112">
         <f>SUM(G13:G19)</f>
         <v>34</v>
       </c>
-      <c r="I20" s="79"/>
-    </row>
-    <row r="21" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I20" s="113"/>
+    </row>
+    <row r="21" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="24" t="s">
         <v>1</v>
       </c>
@@ -5125,7 +5225,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="10">
         <v>3</v>
       </c>
@@ -5150,9 +5250,9 @@
       <c r="H22" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I22" s="91"/>
-    </row>
-    <row r="23" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I22" s="82"/>
+    </row>
+    <row r="23" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="10">
         <v>3</v>
       </c>
@@ -5177,11 +5277,11 @@
       <c r="H23" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="I23" s="91" t="s">
+      <c r="I23" s="82" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="10">
         <v>3</v>
       </c>
@@ -5204,9 +5304,9 @@
       <c r="H24" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="I24" s="91"/>
-    </row>
-    <row r="25" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I24" s="82"/>
+    </row>
+    <row r="25" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="10">
         <v>3</v>
       </c>
@@ -5228,9 +5328,9 @@
       <c r="H25" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="I25" s="92"/>
-    </row>
-    <row r="26" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I25" s="83"/>
+    </row>
+    <row r="26" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="10">
         <v>3</v>
       </c>
@@ -5255,9 +5355,9 @@
       <c r="H26" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="I26" s="92"/>
-    </row>
-    <row r="27" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I26" s="83"/>
+    </row>
+    <row r="27" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="10">
         <v>3</v>
       </c>
@@ -5282,9 +5382,9 @@
       <c r="H27" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I27" s="92"/>
-    </row>
-    <row r="28" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="I27" s="83"/>
+    </row>
+    <row r="28" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A28" s="10">
         <v>3</v>
       </c>
@@ -5309,43 +5409,43 @@
       <c r="H28" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="I28" s="92" t="s">
+      <c r="I28" s="83" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="9"/>
       <c r="C29" s="9"/>
       <c r="E29" s="16"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c r="H29" s="14"/>
-      <c r="I29" s="93"/>
-    </row>
-    <row r="30" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I29" s="84"/>
+    </row>
+    <row r="30" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="67" t="s">
         <v>15</v>
       </c>
       <c r="B30" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C30" s="78">
+      <c r="C30" s="112">
         <f>SUM(F22:F29)</f>
         <v>36.5</v>
       </c>
-      <c r="D30" s="78"/>
-      <c r="E30" s="78"/>
-      <c r="F30" s="79"/>
+      <c r="D30" s="112"/>
+      <c r="E30" s="112"/>
+      <c r="F30" s="113"/>
       <c r="G30" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H30" s="78">
+      <c r="H30" s="112">
         <f>SUM(G22:G29)</f>
         <v>38</v>
       </c>
-      <c r="I30" s="79"/>
-    </row>
-    <row r="31" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I30" s="113"/>
+    </row>
+    <row r="31" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="24" t="s">
         <v>1</v>
       </c>
@@ -5374,7 +5474,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="10">
         <v>4</v>
       </c>
@@ -5401,7 +5501,7 @@
       </c>
       <c r="I32" s="15"/>
     </row>
-    <row r="33" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="10">
         <v>4</v>
       </c>
@@ -5426,11 +5526,11 @@
       <c r="H33" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="I33" s="87" t="s">
+      <c r="I33" s="78" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="10">
         <v>4</v>
       </c>
@@ -5455,7 +5555,7 @@
       </c>
       <c r="I34" s="3"/>
     </row>
-    <row r="35" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="10">
         <v>4</v>
       </c>
@@ -5482,7 +5582,7 @@
       </c>
       <c r="I35" s="3"/>
     </row>
-    <row r="36" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="10">
         <v>4</v>
       </c>
@@ -5507,7 +5607,7 @@
       </c>
       <c r="I36" s="3"/>
     </row>
-    <row r="37" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="10">
         <v>4</v>
       </c>
@@ -5532,11 +5632,11 @@
       <c r="H37" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="I37" s="88" t="s">
+      <c r="I37" s="79" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A38" s="10">
         <v>4</v>
       </c>
@@ -5563,7 +5663,7 @@
       </c>
       <c r="I38" s="3"/>
     </row>
-    <row r="39" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="9"/>
       <c r="C39" s="9"/>
       <c r="D39" s="4"/>
@@ -5573,30 +5673,30 @@
       <c r="H39" s="14"/>
       <c r="I39" s="5"/>
     </row>
-    <row r="40" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="67" t="s">
         <v>15</v>
       </c>
       <c r="B40" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C40" s="78">
+      <c r="C40" s="112">
         <f>SUM(F32:F39)</f>
         <v>36.5</v>
       </c>
-      <c r="D40" s="78"/>
-      <c r="E40" s="78"/>
-      <c r="F40" s="79"/>
+      <c r="D40" s="112"/>
+      <c r="E40" s="112"/>
+      <c r="F40" s="113"/>
       <c r="G40" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H40" s="78">
+      <c r="H40" s="112">
         <f>SUM(G32:G39)</f>
         <v>38</v>
       </c>
-      <c r="I40" s="79"/>
-    </row>
-    <row r="41" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I40" s="113"/>
+    </row>
+    <row r="41" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="24" t="s">
         <v>1</v>
       </c>
@@ -5625,7 +5725,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="10">
         <v>5</v>
       </c>
@@ -5650,9 +5750,9 @@
       <c r="H42" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I42" s="87"/>
-    </row>
-    <row r="43" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I42" s="78"/>
+    </row>
+    <row r="43" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="10">
         <v>5</v>
       </c>
@@ -5675,9 +5775,9 @@
       <c r="H43" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="I43" s="87"/>
-    </row>
-    <row r="44" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I43" s="78"/>
+    </row>
+    <row r="44" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="10">
         <v>5</v>
       </c>
@@ -5702,9 +5802,9 @@
       <c r="H44" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I44" s="88"/>
-    </row>
-    <row r="45" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I44" s="79"/>
+    </row>
+    <row r="45" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="10">
         <v>5</v>
       </c>
@@ -5729,9 +5829,9 @@
       <c r="H45" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I45" s="88"/>
-    </row>
-    <row r="46" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I45" s="79"/>
+    </row>
+    <row r="46" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="10">
         <v>5</v>
       </c>
@@ -5756,9 +5856,9 @@
       <c r="H46" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I46" s="88"/>
-    </row>
-    <row r="47" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I46" s="79"/>
+    </row>
+    <row r="47" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="10">
         <v>5</v>
       </c>
@@ -5783,16 +5883,16 @@
       <c r="H47" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="I47" s="88"/>
-    </row>
-    <row r="48" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="I47" s="79"/>
+    </row>
+    <row r="48" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A48" s="76">
         <v>5</v>
       </c>
       <c r="B48" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="C48" s="94" t="s">
+      <c r="C48" s="85" t="s">
         <v>19</v>
       </c>
       <c r="D48" s="2" t="s">
@@ -5810,9 +5910,9 @@
       <c r="H48" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="I48" s="95"/>
-    </row>
-    <row r="49" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I48" s="86"/>
+    </row>
+    <row r="49" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="9"/>
       <c r="C49" s="9"/>
       <c r="D49" s="4"/>
@@ -5820,32 +5920,32 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c r="H49" s="14"/>
-      <c r="I49" s="95"/>
-    </row>
-    <row r="50" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I49" s="86"/>
+    </row>
+    <row r="50" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="67" t="s">
         <v>15</v>
       </c>
       <c r="B50" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C50" s="78">
+      <c r="C50" s="112">
         <f>SUM(F42:F49)</f>
         <v>35</v>
       </c>
-      <c r="D50" s="78"/>
-      <c r="E50" s="78"/>
-      <c r="F50" s="79"/>
+      <c r="D50" s="112"/>
+      <c r="E50" s="112"/>
+      <c r="F50" s="113"/>
       <c r="G50" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H50" s="78">
+      <c r="H50" s="112">
         <f>SUM(G42:G49)</f>
         <v>35</v>
       </c>
-      <c r="I50" s="79"/>
-    </row>
-    <row r="51" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I50" s="113"/>
+    </row>
+    <row r="51" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="24" t="s">
         <v>1</v>
       </c>
@@ -5874,7 +5974,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="10">
         <v>6</v>
       </c>
@@ -5899,11 +5999,11 @@
       <c r="H52" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="I52" s="87" t="s">
+      <c r="I52" s="78" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" s="10">
         <v>6</v>
       </c>
@@ -5926,9 +6026,9 @@
       <c r="H53" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="I53" s="87"/>
-    </row>
-    <row r="54" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I53" s="78"/>
+    </row>
+    <row r="54" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="10">
         <v>6</v>
       </c>
@@ -5953,11 +6053,11 @@
       <c r="H54" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="I54" s="88" t="s">
+      <c r="I54" s="79" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A55" s="10">
         <v>6</v>
       </c>
@@ -5982,9 +6082,9 @@
       <c r="H55" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="I55" s="88"/>
-    </row>
-    <row r="56" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I55" s="79"/>
+    </row>
+    <row r="56" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A56" s="10">
         <v>6</v>
       </c>
@@ -6009,11 +6109,11 @@
       <c r="H56" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="I56" s="88" t="s">
+      <c r="I56" s="79" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A57" s="10">
         <v>6</v>
       </c>
@@ -6038,9 +6138,9 @@
       <c r="H57" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="I57" s="88"/>
-    </row>
-    <row r="58" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I57" s="79"/>
+    </row>
+    <row r="58" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A58" s="9"/>
       <c r="C58" s="9"/>
       <c r="D58" s="4"/>
@@ -6048,32 +6148,32 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c r="H58" s="14"/>
-      <c r="I58" s="95"/>
-    </row>
-    <row r="59" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I58" s="86"/>
+    </row>
+    <row r="59" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A59" s="67" t="s">
         <v>15</v>
       </c>
       <c r="B59" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C59" s="78">
+      <c r="C59" s="112">
         <f>SUM(F52:F58)</f>
         <v>32.5</v>
       </c>
-      <c r="D59" s="78"/>
-      <c r="E59" s="78"/>
-      <c r="F59" s="79"/>
+      <c r="D59" s="112"/>
+      <c r="E59" s="112"/>
+      <c r="F59" s="113"/>
       <c r="G59" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H59" s="78">
+      <c r="H59" s="112">
         <f>SUM(G52:G58)</f>
         <v>34</v>
       </c>
-      <c r="I59" s="79"/>
-    </row>
-    <row r="60" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I59" s="113"/>
+    </row>
+    <row r="60" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A60" s="24" t="s">
         <v>1</v>
       </c>
@@ -6102,7 +6202,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A61" s="10">
         <v>7</v>
       </c>
@@ -6121,7 +6221,7 @@
       <c r="H61" s="14"/>
       <c r="I61" s="15"/>
     </row>
-    <row r="62" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A62" s="10">
         <v>7</v>
       </c>
@@ -6140,7 +6240,7 @@
       <c r="H62" s="14"/>
       <c r="I62" s="15"/>
     </row>
-    <row r="63" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A63" s="10">
         <v>7</v>
       </c>
@@ -6159,7 +6259,7 @@
       <c r="H63" s="14"/>
       <c r="I63" s="3"/>
     </row>
-    <row r="64" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A64" s="10">
         <v>7</v>
       </c>
@@ -6178,7 +6278,7 @@
       <c r="H64" s="14"/>
       <c r="I64" s="3"/>
     </row>
-    <row r="65" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A65" s="10">
         <v>7</v>
       </c>
@@ -6197,7 +6297,7 @@
       <c r="H65" s="14"/>
       <c r="I65" s="3"/>
     </row>
-    <row r="66" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A66" s="10">
         <v>7</v>
       </c>
@@ -6216,7 +6316,7 @@
       <c r="H66" s="14"/>
       <c r="I66" s="3"/>
     </row>
-    <row r="67" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A67" s="9"/>
       <c r="C67" s="9"/>
       <c r="D67" s="4"/>
@@ -6226,30 +6326,30 @@
       <c r="H67" s="14"/>
       <c r="I67" s="5"/>
     </row>
-    <row r="68" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A68" s="67" t="s">
         <v>15</v>
       </c>
       <c r="B68" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C68" s="78">
+      <c r="C68" s="112">
         <f>SUM(F61:F67)</f>
         <v>0</v>
       </c>
-      <c r="D68" s="78"/>
-      <c r="E68" s="78"/>
-      <c r="F68" s="79"/>
+      <c r="D68" s="112"/>
+      <c r="E68" s="112"/>
+      <c r="F68" s="113"/>
       <c r="G68" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H68" s="78">
+      <c r="H68" s="112">
         <f>SUM(G61:G67)</f>
         <v>36</v>
       </c>
-      <c r="I68" s="79"/>
-    </row>
-    <row r="69" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I68" s="113"/>
+    </row>
+    <row r="69" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A69" s="24" t="s">
         <v>1</v>
       </c>
@@ -6278,7 +6378,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A70" s="10">
         <v>8</v>
       </c>
@@ -6297,7 +6397,7 @@
       <c r="H70" s="14"/>
       <c r="I70" s="15"/>
     </row>
-    <row r="71" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A71" s="10">
         <v>8</v>
       </c>
@@ -6316,7 +6416,7 @@
       <c r="H71" s="14"/>
       <c r="I71" s="15"/>
     </row>
-    <row r="72" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A72" s="10">
         <v>8</v>
       </c>
@@ -6335,7 +6435,7 @@
       <c r="H72" s="14"/>
       <c r="I72" s="3"/>
     </row>
-    <row r="73" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A73" s="10">
         <v>8</v>
       </c>
@@ -6354,7 +6454,7 @@
       <c r="H73" s="14"/>
       <c r="I73" s="3"/>
     </row>
-    <row r="74" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A74" s="10">
         <v>8</v>
       </c>
@@ -6373,7 +6473,7 @@
       <c r="H74" s="14"/>
       <c r="I74" s="3"/>
     </row>
-    <row r="75" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A75" s="10">
         <v>8</v>
       </c>
@@ -6392,7 +6492,7 @@
       <c r="H75" s="14"/>
       <c r="I75" s="3"/>
     </row>
-    <row r="76" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A76" s="9"/>
       <c r="C76" s="9"/>
       <c r="D76" s="4"/>
@@ -6402,30 +6502,30 @@
       <c r="H76" s="14"/>
       <c r="I76" s="5"/>
     </row>
-    <row r="77" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A77" s="67" t="s">
         <v>15</v>
       </c>
       <c r="B77" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C77" s="78">
+      <c r="C77" s="112">
         <f>SUM(F70:F76)</f>
         <v>0</v>
       </c>
-      <c r="D77" s="78"/>
-      <c r="E77" s="78"/>
-      <c r="F77" s="79"/>
+      <c r="D77" s="112"/>
+      <c r="E77" s="112"/>
+      <c r="F77" s="113"/>
       <c r="G77" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H77" s="78">
+      <c r="H77" s="112">
         <f>SUM(G70:G76)</f>
         <v>36</v>
       </c>
-      <c r="I77" s="79"/>
-    </row>
-    <row r="78" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I77" s="113"/>
+    </row>
+    <row r="78" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A78" s="24" t="s">
         <v>1</v>
       </c>
@@ -6454,7 +6554,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="79" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A79" s="10">
         <v>9</v>
       </c>
@@ -6473,7 +6573,7 @@
       <c r="H79" s="14"/>
       <c r="I79" s="15"/>
     </row>
-    <row r="80" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A80" s="10">
         <v>9</v>
       </c>
@@ -6492,7 +6592,7 @@
       <c r="H80" s="14"/>
       <c r="I80" s="15"/>
     </row>
-    <row r="81" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A81" s="10">
         <v>9</v>
       </c>
@@ -6511,7 +6611,7 @@
       <c r="H81" s="14"/>
       <c r="I81" s="3"/>
     </row>
-    <row r="82" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A82" s="10">
         <v>9</v>
       </c>
@@ -6530,7 +6630,7 @@
       <c r="H82" s="14"/>
       <c r="I82" s="3"/>
     </row>
-    <row r="83" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A83" s="10">
         <v>9</v>
       </c>
@@ -6549,7 +6649,7 @@
       <c r="H83" s="14"/>
       <c r="I83" s="3"/>
     </row>
-    <row r="84" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A84" s="10">
         <v>9</v>
       </c>
@@ -6568,7 +6668,7 @@
       <c r="H84" s="14"/>
       <c r="I84" s="3"/>
     </row>
-    <row r="85" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A85" s="9"/>
       <c r="C85" s="9"/>
       <c r="D85" s="4"/>
@@ -6578,30 +6678,30 @@
       <c r="H85" s="14"/>
       <c r="I85" s="5"/>
     </row>
-    <row r="86" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A86" s="67" t="s">
         <v>15</v>
       </c>
       <c r="B86" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C86" s="78">
+      <c r="C86" s="112">
         <f>SUM(F79:F85)</f>
         <v>0</v>
       </c>
-      <c r="D86" s="78"/>
-      <c r="E86" s="78"/>
-      <c r="F86" s="79"/>
+      <c r="D86" s="112"/>
+      <c r="E86" s="112"/>
+      <c r="F86" s="113"/>
       <c r="G86" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H86" s="78">
+      <c r="H86" s="112">
         <f>SUM(G79:G85)</f>
         <v>36</v>
       </c>
-      <c r="I86" s="79"/>
-    </row>
-    <row r="87" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I86" s="113"/>
+    </row>
+    <row r="87" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A87" s="24" t="s">
         <v>1</v>
       </c>
@@ -6630,7 +6730,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="88" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A88" s="10">
         <v>10</v>
       </c>
@@ -6649,7 +6749,7 @@
       <c r="H88" s="14"/>
       <c r="I88" s="15"/>
     </row>
-    <row r="89" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A89" s="10">
         <v>10</v>
       </c>
@@ -6668,7 +6768,7 @@
       <c r="H89" s="14"/>
       <c r="I89" s="15"/>
     </row>
-    <row r="90" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A90" s="10">
         <v>10</v>
       </c>
@@ -6687,7 +6787,7 @@
       <c r="H90" s="14"/>
       <c r="I90" s="3"/>
     </row>
-    <row r="91" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A91" s="10">
         <v>10</v>
       </c>
@@ -6706,7 +6806,7 @@
       <c r="H91" s="14"/>
       <c r="I91" s="3"/>
     </row>
-    <row r="92" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A92" s="10">
         <v>10</v>
       </c>
@@ -6725,7 +6825,7 @@
       <c r="H92" s="14"/>
       <c r="I92" s="3"/>
     </row>
-    <row r="93" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A93" s="10">
         <v>10</v>
       </c>
@@ -6744,7 +6844,7 @@
       <c r="H93" s="14"/>
       <c r="I93" s="3"/>
     </row>
-    <row r="94" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A94" s="9"/>
       <c r="C94" s="9"/>
       <c r="D94" s="4"/>
@@ -6754,28 +6854,28 @@
       <c r="H94" s="14"/>
       <c r="I94" s="5"/>
     </row>
-    <row r="95" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A95" s="67" t="s">
         <v>15</v>
       </c>
       <c r="B95" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C95" s="78">
+      <c r="C95" s="112">
         <f>SUM(F88:F94)</f>
         <v>0</v>
       </c>
-      <c r="D95" s="78"/>
-      <c r="E95" s="78"/>
-      <c r="F95" s="79"/>
+      <c r="D95" s="112"/>
+      <c r="E95" s="112"/>
+      <c r="F95" s="113"/>
       <c r="G95" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H95" s="78">
+      <c r="H95" s="112">
         <f>SUM(G88:G94)</f>
         <v>36</v>
       </c>
-      <c r="I95" s="79"/>
+      <c r="I95" s="113"/>
     </row>
   </sheetData>
   <mergeCells count="21">
@@ -6842,18 +6942,18 @@
       <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="57.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="49.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="57.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="49.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>65</v>
       </c>
@@ -6868,20 +6968,20 @@
       <c r="H1" s="21"/>
       <c r="I1" s="22"/>
     </row>
-    <row r="2" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="80" t="s">
+    <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="114" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="82"/>
-      <c r="I2" s="83"/>
-    </row>
-    <row r="3" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="115"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="116"/>
+      <c r="G2" s="116"/>
+      <c r="H2" s="116"/>
+      <c r="I2" s="117"/>
+    </row>
+    <row r="3" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="24" t="s">
         <v>1</v>
       </c>
@@ -6910,7 +7010,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
         <v>1</v>
       </c>
@@ -6935,7 +7035,7 @@
       </c>
       <c r="I4" s="15"/>
     </row>
-    <row r="5" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
         <v>1</v>
       </c>
@@ -6962,7 +7062,7 @@
       </c>
       <c r="I5" s="15"/>
     </row>
-    <row r="6" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -6989,7 +7089,7 @@
       </c>
       <c r="I6" s="3"/>
     </row>
-    <row r="7" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -7016,7 +7116,7 @@
       </c>
       <c r="I7" s="3"/>
     </row>
-    <row r="8" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1</v>
       </c>
@@ -7041,7 +7141,7 @@
       </c>
       <c r="I8" s="3"/>
     </row>
-    <row r="9" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>1</v>
       </c>
@@ -7068,7 +7168,7 @@
       </c>
       <c r="I9" s="3"/>
     </row>
-    <row r="10" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="9"/>
       <c r="B10" s="11"/>
       <c r="C10" s="9"/>
@@ -7079,30 +7179,30 @@
       <c r="H10" s="14"/>
       <c r="I10" s="5"/>
     </row>
-    <row r="11" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="67" t="s">
         <v>15</v>
       </c>
       <c r="B11" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="84">
+      <c r="C11" s="118">
         <f>SUM(F4:F10)</f>
         <v>26</v>
       </c>
-      <c r="D11" s="78"/>
-      <c r="E11" s="78"/>
-      <c r="F11" s="79"/>
+      <c r="D11" s="112"/>
+      <c r="E11" s="112"/>
+      <c r="F11" s="113"/>
       <c r="G11" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="78">
+      <c r="H11" s="112">
         <f>SUM(G4:G10)</f>
         <v>26</v>
       </c>
-      <c r="I11" s="79"/>
-    </row>
-    <row r="12" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I11" s="113"/>
+    </row>
+    <row r="12" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="24" t="s">
         <v>1</v>
       </c>
@@ -7131,7 +7231,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="10">
         <v>2</v>
       </c>
@@ -7160,7 +7260,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
         <v>2</v>
       </c>
@@ -7187,7 +7287,7 @@
       </c>
       <c r="I14" s="15"/>
     </row>
-    <row r="15" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="10">
         <v>2</v>
       </c>
@@ -7212,7 +7312,7 @@
       </c>
       <c r="I15" s="3"/>
     </row>
-    <row r="16" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="10">
         <v>2</v>
       </c>
@@ -7241,7 +7341,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="10">
         <v>2</v>
       </c>
@@ -7268,7 +7368,7 @@
       </c>
       <c r="I17" s="3"/>
     </row>
-    <row r="18" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="10">
         <v>2</v>
       </c>
@@ -7295,7 +7395,7 @@
       </c>
       <c r="I18" s="3"/>
     </row>
-    <row r="19" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="9"/>
       <c r="B19" s="11"/>
       <c r="C19" s="9"/>
@@ -7306,30 +7406,30 @@
       <c r="H19" s="14"/>
       <c r="I19" s="5"/>
     </row>
-    <row r="20" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="67" t="s">
         <v>15</v>
       </c>
       <c r="B20" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="78">
+      <c r="C20" s="112">
         <f>SUM(F13:F19)</f>
         <v>30</v>
       </c>
-      <c r="D20" s="78"/>
-      <c r="E20" s="78"/>
-      <c r="F20" s="79"/>
+      <c r="D20" s="112"/>
+      <c r="E20" s="112"/>
+      <c r="F20" s="113"/>
       <c r="G20" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H20" s="78">
+      <c r="H20" s="112">
         <f>SUM(G13:G19)</f>
         <v>30</v>
       </c>
-      <c r="I20" s="79"/>
-    </row>
-    <row r="21" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I20" s="113"/>
+    </row>
+    <row r="21" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="24" t="s">
         <v>1</v>
       </c>
@@ -7358,7 +7458,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="10">
         <v>3</v>
       </c>
@@ -7385,7 +7485,7 @@
       </c>
       <c r="I22" s="15"/>
     </row>
-    <row r="23" spans="1:9" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="10">
         <v>3</v>
       </c>
@@ -7414,7 +7514,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="10">
         <v>3</v>
       </c>
@@ -7443,7 +7543,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="10">
         <v>3</v>
       </c>
@@ -7470,7 +7570,7 @@
       </c>
       <c r="I25" s="3"/>
     </row>
-    <row r="26" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="10">
         <v>3</v>
       </c>
@@ -7497,7 +7597,7 @@
       </c>
       <c r="I26" s="3"/>
     </row>
-    <row r="27" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="10">
         <v>3</v>
       </c>
@@ -7526,7 +7626,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="9">
         <v>3</v>
       </c>
@@ -7553,30 +7653,30 @@
       </c>
       <c r="I28" s="5"/>
     </row>
-    <row r="29" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="67" t="s">
         <v>15</v>
       </c>
       <c r="B29" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="78">
+      <c r="C29" s="112">
         <f>SUM(F22:F28)</f>
         <v>45</v>
       </c>
-      <c r="D29" s="78"/>
-      <c r="E29" s="78"/>
-      <c r="F29" s="79"/>
+      <c r="D29" s="112"/>
+      <c r="E29" s="112"/>
+      <c r="F29" s="113"/>
       <c r="G29" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H29" s="78">
+      <c r="H29" s="112">
         <f>SUM(G22:G28)</f>
         <v>37</v>
       </c>
-      <c r="I29" s="79"/>
-    </row>
-    <row r="30" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I29" s="113"/>
+    </row>
+    <row r="30" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="24" t="s">
         <v>1</v>
       </c>
@@ -7605,7 +7705,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="45.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="10">
         <v>4</v>
       </c>
@@ -7630,7 +7730,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="10">
         <v>4</v>
       </c>
@@ -7653,7 +7753,7 @@
       <c r="H32" s="14"/>
       <c r="I32" s="15"/>
     </row>
-    <row r="33" spans="1:9" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="10">
         <v>4</v>
       </c>
@@ -7678,7 +7778,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="10">
         <v>4</v>
       </c>
@@ -7703,7 +7803,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="10">
         <v>4</v>
       </c>
@@ -7726,7 +7826,7 @@
       <c r="H35" s="14"/>
       <c r="I35" s="3"/>
     </row>
-    <row r="36" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="10">
         <v>4</v>
       </c>
@@ -7749,7 +7849,7 @@
       <c r="H36" s="14"/>
       <c r="I36" s="3"/>
     </row>
-    <row r="37" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="9"/>
       <c r="B37" s="12"/>
       <c r="C37" s="9"/>
@@ -7762,30 +7862,30 @@
       <c r="H37" s="14"/>
       <c r="I37" s="5"/>
     </row>
-    <row r="38" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="67" t="s">
         <v>15</v>
       </c>
       <c r="B38" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C38" s="78">
+      <c r="C38" s="112">
         <f>SUM(F31:F37)</f>
         <v>38</v>
       </c>
-      <c r="D38" s="78"/>
-      <c r="E38" s="78"/>
-      <c r="F38" s="79"/>
+      <c r="D38" s="112"/>
+      <c r="E38" s="112"/>
+      <c r="F38" s="113"/>
       <c r="G38" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H38" s="78">
+      <c r="H38" s="112">
         <f>SUM(G31:G37)</f>
         <v>0</v>
       </c>
-      <c r="I38" s="79"/>
-    </row>
-    <row r="39" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I38" s="113"/>
+    </row>
+    <row r="39" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="24" t="s">
         <v>1</v>
       </c>
@@ -7814,7 +7914,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="10">
         <v>5</v>
       </c>
@@ -7831,7 +7931,7 @@
       <c r="H40" s="14"/>
       <c r="I40" s="15"/>
     </row>
-    <row r="41" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="10">
         <v>5</v>
       </c>
@@ -7848,7 +7948,7 @@
       <c r="H41" s="14"/>
       <c r="I41" s="15"/>
     </row>
-    <row r="42" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="10">
         <v>5</v>
       </c>
@@ -7865,7 +7965,7 @@
       <c r="H42" s="14"/>
       <c r="I42" s="3"/>
     </row>
-    <row r="43" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="10">
         <v>5</v>
       </c>
@@ -7882,7 +7982,7 @@
       <c r="H43" s="14"/>
       <c r="I43" s="3"/>
     </row>
-    <row r="44" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="10">
         <v>5</v>
       </c>
@@ -7899,7 +7999,7 @@
       <c r="H44" s="14"/>
       <c r="I44" s="3"/>
     </row>
-    <row r="45" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="10">
         <v>5</v>
       </c>
@@ -7916,7 +8016,7 @@
       <c r="H45" s="14"/>
       <c r="I45" s="3"/>
     </row>
-    <row r="46" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="9"/>
       <c r="B46" s="12"/>
       <c r="C46" s="9"/>
@@ -7929,30 +8029,30 @@
       <c r="H46" s="14"/>
       <c r="I46" s="5"/>
     </row>
-    <row r="47" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="67" t="s">
         <v>15</v>
       </c>
       <c r="B47" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C47" s="78">
+      <c r="C47" s="112">
         <f>SUM(F40:F46)</f>
         <v>0</v>
       </c>
-      <c r="D47" s="78"/>
-      <c r="E47" s="78"/>
-      <c r="F47" s="79"/>
+      <c r="D47" s="112"/>
+      <c r="E47" s="112"/>
+      <c r="F47" s="113"/>
       <c r="G47" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H47" s="78">
+      <c r="H47" s="112">
         <f>SUM(G40:G46)</f>
         <v>0</v>
       </c>
-      <c r="I47" s="79"/>
-    </row>
-    <row r="48" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I47" s="113"/>
+    </row>
+    <row r="48" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="24" t="s">
         <v>1</v>
       </c>
@@ -7981,7 +8081,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="10">
         <v>6</v>
       </c>
@@ -7998,7 +8098,7 @@
       <c r="H49" s="14"/>
       <c r="I49" s="15"/>
     </row>
-    <row r="50" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="10">
         <v>6</v>
       </c>
@@ -8015,7 +8115,7 @@
       <c r="H50" s="14"/>
       <c r="I50" s="15"/>
     </row>
-    <row r="51" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="10">
         <v>6</v>
       </c>
@@ -8032,7 +8132,7 @@
       <c r="H51" s="14"/>
       <c r="I51" s="3"/>
     </row>
-    <row r="52" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="10">
         <v>6</v>
       </c>
@@ -8049,7 +8149,7 @@
       <c r="H52" s="14"/>
       <c r="I52" s="3"/>
     </row>
-    <row r="53" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="10">
         <v>6</v>
       </c>
@@ -8066,7 +8166,7 @@
       <c r="H53" s="14"/>
       <c r="I53" s="3"/>
     </row>
-    <row r="54" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="10">
         <v>6</v>
       </c>
@@ -8083,7 +8183,7 @@
       <c r="H54" s="14"/>
       <c r="I54" s="3"/>
     </row>
-    <row r="55" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="9"/>
       <c r="B55" s="12"/>
       <c r="C55" s="9"/>
@@ -8096,30 +8196,30 @@
       <c r="H55" s="14"/>
       <c r="I55" s="5"/>
     </row>
-    <row r="56" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="67" t="s">
         <v>15</v>
       </c>
       <c r="B56" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C56" s="78">
+      <c r="C56" s="112">
         <f>SUM(F49:F55)</f>
         <v>0</v>
       </c>
-      <c r="D56" s="78"/>
-      <c r="E56" s="78"/>
-      <c r="F56" s="79"/>
+      <c r="D56" s="112"/>
+      <c r="E56" s="112"/>
+      <c r="F56" s="113"/>
       <c r="G56" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H56" s="78">
+      <c r="H56" s="112">
         <f>SUM(G49:G55)</f>
         <v>0</v>
       </c>
-      <c r="I56" s="79"/>
-    </row>
-    <row r="57" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I56" s="113"/>
+    </row>
+    <row r="57" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="24" t="s">
         <v>1</v>
       </c>
@@ -8148,7 +8248,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="10">
         <v>7</v>
       </c>
@@ -8173,7 +8273,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="10">
         <v>7</v>
       </c>
@@ -8196,7 +8296,7 @@
       <c r="H59" s="14"/>
       <c r="I59" s="15"/>
     </row>
-    <row r="60" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="10">
         <v>7</v>
       </c>
@@ -8221,7 +8321,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="10">
         <v>7</v>
       </c>
@@ -8244,7 +8344,7 @@
       <c r="H61" s="14"/>
       <c r="I61" s="3"/>
     </row>
-    <row r="62" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="10">
         <v>7</v>
       </c>
@@ -8269,7 +8369,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="10">
         <v>7</v>
       </c>
@@ -8294,7 +8394,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="9">
         <v>7</v>
       </c>
@@ -8319,30 +8419,30 @@
         <v>146</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="67" t="s">
         <v>15</v>
       </c>
       <c r="B65" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C65" s="78">
+      <c r="C65" s="112">
         <f>SUM(F58:F64)</f>
         <v>50</v>
       </c>
-      <c r="D65" s="78"/>
-      <c r="E65" s="78"/>
-      <c r="F65" s="79"/>
+      <c r="D65" s="112"/>
+      <c r="E65" s="112"/>
+      <c r="F65" s="113"/>
       <c r="G65" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H65" s="78">
+      <c r="H65" s="112">
         <f>SUM(G58:G64)</f>
         <v>0</v>
       </c>
-      <c r="I65" s="79"/>
-    </row>
-    <row r="66" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I65" s="113"/>
+    </row>
+    <row r="66" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="24" t="s">
         <v>1</v>
       </c>
@@ -8371,7 +8471,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="10">
         <v>8</v>
       </c>
@@ -8396,7 +8496,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="10">
         <v>8</v>
       </c>
@@ -8415,7 +8515,7 @@
       <c r="H68" s="14"/>
       <c r="I68" s="15"/>
     </row>
-    <row r="69" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="10">
         <v>8</v>
       </c>
@@ -8434,7 +8534,7 @@
       <c r="H69" s="14"/>
       <c r="I69" s="3"/>
     </row>
-    <row r="70" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="10">
         <v>8</v>
       </c>
@@ -8453,7 +8553,7 @@
       <c r="H70" s="14"/>
       <c r="I70" s="3"/>
     </row>
-    <row r="71" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="10">
         <v>8</v>
       </c>
@@ -8472,7 +8572,7 @@
       <c r="H71" s="14"/>
       <c r="I71" s="3"/>
     </row>
-    <row r="72" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="10">
         <v>8</v>
       </c>
@@ -8491,7 +8591,7 @@
       <c r="H72" s="14"/>
       <c r="I72" s="3"/>
     </row>
-    <row r="73" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="10">
         <v>8</v>
       </c>
@@ -8510,28 +8610,28 @@
       <c r="H73" s="14"/>
       <c r="I73" s="3"/>
     </row>
-    <row r="74" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="67" t="s">
         <v>15</v>
       </c>
       <c r="B74" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C74" s="78">
+      <c r="C74" s="112">
         <f>SUM(F67:F73)</f>
         <v>10</v>
       </c>
-      <c r="D74" s="78"/>
-      <c r="E74" s="78"/>
-      <c r="F74" s="79"/>
+      <c r="D74" s="112"/>
+      <c r="E74" s="112"/>
+      <c r="F74" s="113"/>
       <c r="G74" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H74" s="78">
+      <c r="H74" s="112">
         <f>SUM(G67:G73)</f>
         <v>0</v>
       </c>
-      <c r="I74" s="79"/>
+      <c r="I74" s="113"/>
     </row>
   </sheetData>
   <mergeCells count="17">
@@ -8589,18 +8689,18 @@
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.88671875" customWidth="1"/>
-    <col min="9" max="9" width="11.88671875" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>65</v>
       </c>
@@ -8613,20 +8713,20 @@
       <c r="H1" s="21"/>
       <c r="I1" s="22"/>
     </row>
-    <row r="2" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="80" t="s">
+    <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="114" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="82"/>
-      <c r="I2" s="83"/>
-    </row>
-    <row r="3" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="115"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="116"/>
+      <c r="G2" s="116"/>
+      <c r="H2" s="116"/>
+      <c r="I2" s="117"/>
+    </row>
+    <row r="3" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="24" t="s">
         <v>1</v>
       </c>
@@ -8655,7 +8755,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
         <v>1</v>
       </c>
@@ -8680,7 +8780,7 @@
       </c>
       <c r="I4" s="15"/>
     </row>
-    <row r="5" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
         <v>1</v>
       </c>
@@ -8707,7 +8807,7 @@
       </c>
       <c r="I5" s="15"/>
     </row>
-    <row r="6" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -8734,7 +8834,7 @@
       </c>
       <c r="I6" s="3"/>
     </row>
-    <row r="7" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -8761,7 +8861,7 @@
       </c>
       <c r="I7" s="3"/>
     </row>
-    <row r="8" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1</v>
       </c>
@@ -8786,7 +8886,7 @@
       </c>
       <c r="I8" s="3"/>
     </row>
-    <row r="9" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>1</v>
       </c>
@@ -8811,7 +8911,7 @@
       </c>
       <c r="I9" s="3"/>
     </row>
-    <row r="10" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="9"/>
       <c r="B10" s="11"/>
       <c r="C10" s="9"/>
@@ -8822,30 +8922,30 @@
       <c r="H10" s="14"/>
       <c r="I10" s="5"/>
     </row>
-    <row r="11" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="67" t="s">
         <v>15</v>
       </c>
       <c r="B11" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="85">
+      <c r="C11" s="119">
         <f>SUM(F4:F10)</f>
         <v>26.5</v>
       </c>
-      <c r="D11" s="85"/>
-      <c r="E11" s="85"/>
-      <c r="F11" s="86"/>
+      <c r="D11" s="119"/>
+      <c r="E11" s="119"/>
+      <c r="F11" s="120"/>
       <c r="G11" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="85">
+      <c r="H11" s="119">
         <f>SUM(G4:G10)</f>
         <v>27.5</v>
       </c>
-      <c r="I11" s="86"/>
-    </row>
-    <row r="12" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I11" s="120"/>
+    </row>
+    <row r="12" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="24" t="s">
         <v>1</v>
       </c>
@@ -8874,7 +8974,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="10">
         <v>2</v>
       </c>
@@ -8901,7 +9001,7 @@
       </c>
       <c r="I13" s="15"/>
     </row>
-    <row r="14" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
         <v>2</v>
       </c>
@@ -8928,7 +9028,7 @@
       </c>
       <c r="I14" s="15"/>
     </row>
-    <row r="15" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="10">
         <v>2</v>
       </c>
@@ -8953,7 +9053,7 @@
       </c>
       <c r="I15" s="3"/>
     </row>
-    <row r="16" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="10">
         <v>2</v>
       </c>
@@ -8976,7 +9076,7 @@
       </c>
       <c r="I16" s="3"/>
     </row>
-    <row r="17" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="10">
         <v>2</v>
       </c>
@@ -8999,7 +9099,7 @@
       </c>
       <c r="I17" s="3"/>
     </row>
-    <row r="18" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="10">
         <v>2</v>
       </c>
@@ -9026,7 +9126,7 @@
       </c>
       <c r="I18" s="3"/>
     </row>
-    <row r="19" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="9"/>
       <c r="B19" s="11"/>
       <c r="C19" s="9"/>
@@ -9037,30 +9137,30 @@
       <c r="H19" s="14"/>
       <c r="I19" s="5"/>
     </row>
-    <row r="20" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="67" t="s">
         <v>15</v>
       </c>
       <c r="B20" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="85">
+      <c r="C20" s="119">
         <f>SUM(F13:F19)</f>
         <v>18.5</v>
       </c>
-      <c r="D20" s="85"/>
-      <c r="E20" s="85"/>
-      <c r="F20" s="86"/>
+      <c r="D20" s="119"/>
+      <c r="E20" s="119"/>
+      <c r="F20" s="120"/>
       <c r="G20" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H20" s="85">
+      <c r="H20" s="119">
         <f>SUM(G13:G19)</f>
         <v>22</v>
       </c>
-      <c r="I20" s="86"/>
-    </row>
-    <row r="21" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I20" s="120"/>
+    </row>
+    <row r="21" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="24" t="s">
         <v>1</v>
       </c>
@@ -9089,7 +9189,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="10">
         <v>3</v>
       </c>
@@ -9104,7 +9204,7 @@
       <c r="H22" s="14"/>
       <c r="I22" s="15"/>
     </row>
-    <row r="23" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="10">
         <v>3</v>
       </c>
@@ -9119,7 +9219,7 @@
       <c r="H23" s="14"/>
       <c r="I23" s="15"/>
     </row>
-    <row r="24" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="10">
         <v>3</v>
       </c>
@@ -9134,7 +9234,7 @@
       <c r="H24" s="14"/>
       <c r="I24" s="3"/>
     </row>
-    <row r="25" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="10">
         <v>3</v>
       </c>
@@ -9149,7 +9249,7 @@
       <c r="H25" s="14"/>
       <c r="I25" s="3"/>
     </row>
-    <row r="26" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="10">
         <v>3</v>
       </c>
@@ -9164,7 +9264,7 @@
       <c r="H26" s="14"/>
       <c r="I26" s="3"/>
     </row>
-    <row r="27" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="10">
         <v>3</v>
       </c>
@@ -9179,7 +9279,7 @@
       <c r="H27" s="14"/>
       <c r="I27" s="3"/>
     </row>
-    <row r="28" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="9"/>
       <c r="B28" s="12"/>
       <c r="C28" s="9"/>
@@ -9190,30 +9290,30 @@
       <c r="H28" s="14"/>
       <c r="I28" s="5"/>
     </row>
-    <row r="29" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="67" t="s">
         <v>15</v>
       </c>
       <c r="B29" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="78">
+      <c r="C29" s="112">
         <f>SUM(F22:F28)</f>
         <v>0</v>
       </c>
-      <c r="D29" s="78"/>
-      <c r="E29" s="78"/>
-      <c r="F29" s="79"/>
+      <c r="D29" s="112"/>
+      <c r="E29" s="112"/>
+      <c r="F29" s="113"/>
       <c r="G29" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H29" s="78">
+      <c r="H29" s="112">
         <f>SUM(G22:G28)</f>
         <v>0</v>
       </c>
-      <c r="I29" s="79"/>
-    </row>
-    <row r="30" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I29" s="113"/>
+    </row>
+    <row r="30" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="24" t="s">
         <v>1</v>
       </c>
@@ -9242,7 +9342,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="10">
         <v>4</v>
       </c>
@@ -9257,7 +9357,7 @@
       <c r="H31" s="14"/>
       <c r="I31" s="15"/>
     </row>
-    <row r="32" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="10">
         <v>4</v>
       </c>
@@ -9272,7 +9372,7 @@
       <c r="H32" s="14"/>
       <c r="I32" s="15"/>
     </row>
-    <row r="33" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="10">
         <v>4</v>
       </c>
@@ -9287,7 +9387,7 @@
       <c r="H33" s="14"/>
       <c r="I33" s="3"/>
     </row>
-    <row r="34" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="10">
         <v>4</v>
       </c>
@@ -9302,7 +9402,7 @@
       <c r="H34" s="14"/>
       <c r="I34" s="3"/>
     </row>
-    <row r="35" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="10">
         <v>4</v>
       </c>
@@ -9317,7 +9417,7 @@
       <c r="H35" s="14"/>
       <c r="I35" s="3"/>
     </row>
-    <row r="36" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="10">
         <v>4</v>
       </c>
@@ -9332,7 +9432,7 @@
       <c r="H36" s="14"/>
       <c r="I36" s="3"/>
     </row>
-    <row r="37" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="9"/>
       <c r="B37" s="12"/>
       <c r="C37" s="9"/>
@@ -9343,30 +9443,30 @@
       <c r="H37" s="14"/>
       <c r="I37" s="5"/>
     </row>
-    <row r="38" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="67" t="s">
         <v>15</v>
       </c>
       <c r="B38" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C38" s="78">
+      <c r="C38" s="112">
         <f>SUM(F31:F37)</f>
         <v>0</v>
       </c>
-      <c r="D38" s="78"/>
-      <c r="E38" s="78"/>
-      <c r="F38" s="79"/>
+      <c r="D38" s="112"/>
+      <c r="E38" s="112"/>
+      <c r="F38" s="113"/>
       <c r="G38" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H38" s="78">
+      <c r="H38" s="112">
         <f>SUM(G31:G37)</f>
         <v>0</v>
       </c>
-      <c r="I38" s="79"/>
-    </row>
-    <row r="39" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I38" s="113"/>
+    </row>
+    <row r="39" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="24" t="s">
         <v>1</v>
       </c>
@@ -9395,7 +9495,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="10">
         <v>5</v>
       </c>
@@ -9410,7 +9510,7 @@
       <c r="H40" s="14"/>
       <c r="I40" s="15"/>
     </row>
-    <row r="41" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="10">
         <v>5</v>
       </c>
@@ -9425,7 +9525,7 @@
       <c r="H41" s="14"/>
       <c r="I41" s="15"/>
     </row>
-    <row r="42" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="10">
         <v>5</v>
       </c>
@@ -9440,7 +9540,7 @@
       <c r="H42" s="14"/>
       <c r="I42" s="3"/>
     </row>
-    <row r="43" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="10">
         <v>5</v>
       </c>
@@ -9455,7 +9555,7 @@
       <c r="H43" s="14"/>
       <c r="I43" s="3"/>
     </row>
-    <row r="44" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="10">
         <v>5</v>
       </c>
@@ -9470,7 +9570,7 @@
       <c r="H44" s="14"/>
       <c r="I44" s="3"/>
     </row>
-    <row r="45" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="10">
         <v>5</v>
       </c>
@@ -9485,7 +9585,7 @@
       <c r="H45" s="14"/>
       <c r="I45" s="3"/>
     </row>
-    <row r="46" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="9"/>
       <c r="B46" s="12"/>
       <c r="C46" s="9"/>
@@ -9496,30 +9596,30 @@
       <c r="H46" s="14"/>
       <c r="I46" s="5"/>
     </row>
-    <row r="47" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="67" t="s">
         <v>15</v>
       </c>
       <c r="B47" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C47" s="78">
+      <c r="C47" s="112">
         <f>SUM(F40:F46)</f>
         <v>0</v>
       </c>
-      <c r="D47" s="78"/>
-      <c r="E47" s="78"/>
-      <c r="F47" s="79"/>
+      <c r="D47" s="112"/>
+      <c r="E47" s="112"/>
+      <c r="F47" s="113"/>
       <c r="G47" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H47" s="78">
+      <c r="H47" s="112">
         <f>SUM(G40:G46)</f>
         <v>0</v>
       </c>
-      <c r="I47" s="79"/>
-    </row>
-    <row r="48" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I47" s="113"/>
+    </row>
+    <row r="48" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="24" t="s">
         <v>1</v>
       </c>
@@ -9548,7 +9648,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="10">
         <v>6</v>
       </c>
@@ -9563,7 +9663,7 @@
       <c r="H49" s="14"/>
       <c r="I49" s="15"/>
     </row>
-    <row r="50" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="10">
         <v>6</v>
       </c>
@@ -9578,7 +9678,7 @@
       <c r="H50" s="14"/>
       <c r="I50" s="15"/>
     </row>
-    <row r="51" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="10">
         <v>6</v>
       </c>
@@ -9593,7 +9693,7 @@
       <c r="H51" s="14"/>
       <c r="I51" s="3"/>
     </row>
-    <row r="52" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="10">
         <v>6</v>
       </c>
@@ -9608,7 +9708,7 @@
       <c r="H52" s="14"/>
       <c r="I52" s="3"/>
     </row>
-    <row r="53" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="10">
         <v>6</v>
       </c>
@@ -9623,7 +9723,7 @@
       <c r="H53" s="14"/>
       <c r="I53" s="3"/>
     </row>
-    <row r="54" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="10">
         <v>6</v>
       </c>
@@ -9638,7 +9738,7 @@
       <c r="H54" s="14"/>
       <c r="I54" s="3"/>
     </row>
-    <row r="55" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="9"/>
       <c r="B55" s="12"/>
       <c r="C55" s="9"/>
@@ -9649,28 +9749,28 @@
       <c r="H55" s="14"/>
       <c r="I55" s="5"/>
     </row>
-    <row r="56" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="67" t="s">
         <v>15</v>
       </c>
       <c r="B56" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C56" s="78">
+      <c r="C56" s="112">
         <f>SUM(F49:F55)</f>
         <v>0</v>
       </c>
-      <c r="D56" s="78"/>
-      <c r="E56" s="78"/>
-      <c r="F56" s="79"/>
+      <c r="D56" s="112"/>
+      <c r="E56" s="112"/>
+      <c r="F56" s="113"/>
       <c r="G56" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H56" s="78">
+      <c r="H56" s="112">
         <f>SUM(G49:G55)</f>
         <v>0</v>
       </c>
-      <c r="I56" s="79"/>
+      <c r="I56" s="113"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -9717,1136 +9817,1810 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8D98322-3746-4D23-926C-85D7A07E9BC3}">
-  <dimension ref="A1:I56"/>
+  <dimension ref="A1:I77"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:I56"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="I27" sqref="I24:I27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="17" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" customWidth="1"/>
+    <col min="1" max="2" width="17" style="91"/>
+    <col min="3" max="3" width="22.28515625" style="91" customWidth="1"/>
+    <col min="4" max="4" width="40.42578125" style="91" customWidth="1"/>
+    <col min="5" max="8" width="17" style="91"/>
+    <col min="9" max="9" width="52.85546875" style="91" customWidth="1"/>
+    <col min="10" max="16384" width="17" style="91"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="87" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="22"/>
-    </row>
-    <row r="2" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="80" t="s">
+      <c r="B1" s="88"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="90"/>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="123" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="82"/>
-      <c r="I2" s="83"/>
-    </row>
-    <row r="3" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="24" t="s">
+      <c r="B2" s="124"/>
+      <c r="C2" s="125"/>
+      <c r="D2" s="125"/>
+      <c r="E2" s="125"/>
+      <c r="F2" s="125"/>
+      <c r="G2" s="125"/>
+      <c r="H2" s="125"/>
+      <c r="I2" s="126"/>
+    </row>
+    <row r="3" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="92" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="92" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="92" t="s">
         <v>53</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="92" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="24" t="s">
+      <c r="E3" s="92" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" s="24" t="s">
+      <c r="F3" s="92" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="92" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="24" t="s">
+      <c r="I3" s="92" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="10">
+    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="93">
         <v>1</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="94" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="94" t="s">
         <v>63</v>
       </c>
-      <c r="D4" s="56"/>
-      <c r="E4" s="18" t="s">
+      <c r="D4" s="69"/>
+      <c r="E4" s="95" t="s">
         <v>64</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="93">
         <v>4</v>
       </c>
-      <c r="G4" s="10">
+      <c r="G4" s="93">
         <v>4</v>
       </c>
-      <c r="H4" s="14" t="s">
+      <c r="H4" s="96" t="s">
         <v>20</v>
       </c>
       <c r="I4" s="15"/>
     </row>
-    <row r="5" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="10">
+    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="93">
         <v>1</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="97" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="94" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="56" t="s">
+      <c r="D5" s="69" t="s">
         <v>97</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="E5" s="98" t="s">
         <v>67</v>
       </c>
-      <c r="F5" s="10">
-        <v>5</v>
-      </c>
-      <c r="G5" s="10">
-        <v>5</v>
-      </c>
-      <c r="H5" s="14" t="s">
+      <c r="F5" s="93">
+        <v>5</v>
+      </c>
+      <c r="G5" s="93">
+        <v>5</v>
+      </c>
+      <c r="H5" s="96" t="s">
         <v>21</v>
       </c>
       <c r="I5" s="15"/>
     </row>
-    <row r="6" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
+    <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="99">
         <v>1</v>
       </c>
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="100" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="94" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="56" t="s">
+      <c r="D6" s="69" t="s">
         <v>97</v>
       </c>
-      <c r="E6" s="17" t="s">
+      <c r="E6" s="101" t="s">
         <v>68</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="99">
         <v>3</v>
       </c>
-      <c r="G6" s="1">
-        <v>5</v>
-      </c>
-      <c r="H6" s="14" t="s">
+      <c r="G6" s="99">
+        <v>5</v>
+      </c>
+      <c r="H6" s="96" t="s">
         <v>21</v>
       </c>
-      <c r="I6" s="3"/>
-    </row>
-    <row r="7" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
+      <c r="I6" s="73"/>
+    </row>
+    <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="99">
         <v>1</v>
       </c>
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="100" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="94" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="56" t="s">
+      <c r="D7" s="69" t="s">
         <v>97</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="E7" s="98" t="s">
         <v>69</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="99">
         <v>3</v>
       </c>
-      <c r="G7" s="1">
-        <v>5</v>
-      </c>
-      <c r="H7" s="14" t="s">
+      <c r="G7" s="99">
+        <v>5</v>
+      </c>
+      <c r="H7" s="96" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7" s="73"/>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="99">
+        <v>1</v>
+      </c>
+      <c r="B8" s="100" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="94" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" s="63"/>
+      <c r="E8" s="102" t="s">
+        <v>62</v>
+      </c>
+      <c r="F8" s="99">
+        <v>4</v>
+      </c>
+      <c r="G8" s="99">
+        <v>4</v>
+      </c>
+      <c r="H8" s="96" t="s">
+        <v>20</v>
+      </c>
+      <c r="I8" s="73"/>
+    </row>
+    <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="99">
+        <v>1</v>
+      </c>
+      <c r="B9" s="100" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="94" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="63"/>
+      <c r="E9" s="102" t="s">
+        <v>75</v>
+      </c>
+      <c r="F9" s="99">
+        <v>5</v>
+      </c>
+      <c r="G9" s="99">
+        <v>5</v>
+      </c>
+      <c r="H9" s="96" t="s">
         <v>21</v>
       </c>
-      <c r="I7" s="3"/>
-    </row>
-    <row r="8" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>1</v>
-      </c>
-      <c r="B8" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="D8" s="57"/>
-      <c r="E8" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="F8" s="1">
-        <v>4</v>
-      </c>
-      <c r="G8" s="1">
-        <v>4</v>
-      </c>
-      <c r="H8" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="I8" s="3"/>
-    </row>
-    <row r="9" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <v>1</v>
-      </c>
-      <c r="B9" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="57"/>
-      <c r="E9" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="F9" s="1">
-        <v>5</v>
-      </c>
-      <c r="G9" s="1">
-        <v>5</v>
-      </c>
-      <c r="H9" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="I9" s="3"/>
-    </row>
-    <row r="10" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="9"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="59"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="5"/>
-    </row>
-    <row r="11" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="67" t="s">
+      <c r="I9" s="73"/>
+    </row>
+    <row r="10" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="103"/>
+      <c r="B10" s="104"/>
+      <c r="C10" s="103"/>
+      <c r="D10" s="105"/>
+      <c r="E10" s="102"/>
+      <c r="F10" s="103"/>
+      <c r="G10" s="103"/>
+      <c r="H10" s="96"/>
+      <c r="I10" s="106"/>
+    </row>
+    <row r="11" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="107" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="67" t="s">
+      <c r="B11" s="107" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="85">
+      <c r="C11" s="121">
         <f>SUM(F4:F10)</f>
         <v>24</v>
       </c>
-      <c r="D11" s="85"/>
-      <c r="E11" s="85"/>
-      <c r="F11" s="86"/>
-      <c r="G11" s="66" t="s">
+      <c r="D11" s="121"/>
+      <c r="E11" s="121"/>
+      <c r="F11" s="122"/>
+      <c r="G11" s="108" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="85">
+      <c r="H11" s="121">
         <f>SUM(G4:G10)</f>
         <v>28</v>
       </c>
-      <c r="I11" s="86"/>
-    </row>
-    <row r="12" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="24" t="s">
+      <c r="I11" s="122"/>
+    </row>
+    <row r="12" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="92" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="24" t="s">
+      <c r="B12" s="92" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="24" t="s">
+      <c r="C12" s="92" t="s">
         <v>53</v>
       </c>
-      <c r="D12" s="24" t="s">
+      <c r="D12" s="92" t="s">
         <v>3</v>
       </c>
-      <c r="E12" s="24" t="s">
+      <c r="E12" s="92" t="s">
         <v>4</v>
       </c>
-      <c r="F12" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="G12" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="H12" s="24" t="s">
+      <c r="F12" s="92" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" s="92" t="s">
+        <v>6</v>
+      </c>
+      <c r="H12" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="I12" s="24" t="s">
+      <c r="I12" s="92" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="10">
+    <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="93">
         <v>2</v>
       </c>
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="94" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="25" t="s">
+      <c r="C13" s="94" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="56" t="s">
+      <c r="D13" s="69" t="s">
         <v>98</v>
       </c>
-      <c r="E13" s="19" t="s">
+      <c r="E13" s="98" t="s">
         <v>71</v>
       </c>
-      <c r="F13" s="10">
-        <v>5</v>
-      </c>
-      <c r="G13" s="10">
-        <v>5</v>
-      </c>
-      <c r="H13" s="14" t="s">
+      <c r="F13" s="93">
+        <v>5</v>
+      </c>
+      <c r="G13" s="93">
+        <v>5</v>
+      </c>
+      <c r="H13" s="96" t="s">
         <v>20</v>
       </c>
       <c r="I13" s="15"/>
     </row>
-    <row r="14" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="10">
+    <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="93">
         <v>2</v>
       </c>
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="97" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="25" t="s">
+      <c r="C14" s="94" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="56" t="s">
+      <c r="D14" s="69" t="s">
         <v>99</v>
       </c>
-      <c r="E14" s="17" t="s">
+      <c r="E14" s="101" t="s">
         <v>72</v>
       </c>
-      <c r="F14" s="10">
+      <c r="F14" s="93">
         <v>3</v>
       </c>
-      <c r="G14" s="10">
-        <v>5</v>
-      </c>
-      <c r="H14" s="14" t="s">
+      <c r="G14" s="93">
+        <v>5</v>
+      </c>
+      <c r="H14" s="96" t="s">
         <v>20</v>
       </c>
       <c r="I14" s="15"/>
     </row>
-    <row r="15" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="10">
+    <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="93">
         <v>2</v>
       </c>
-      <c r="B15" s="27" t="s">
+      <c r="B15" s="100" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="25" t="s">
+      <c r="C15" s="94" t="s">
         <v>63</v>
       </c>
-      <c r="D15" s="57"/>
-      <c r="E15" s="19" t="s">
+      <c r="D15" s="63"/>
+      <c r="E15" s="98" t="s">
         <v>73</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F15" s="99">
         <v>4</v>
       </c>
-      <c r="G15" s="1">
+      <c r="G15" s="99">
         <v>4</v>
       </c>
-      <c r="H15" s="14" t="s">
+      <c r="H15" s="96" t="s">
         <v>20</v>
       </c>
-      <c r="I15" s="3"/>
-    </row>
-    <row r="16" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="10">
+      <c r="I15" s="73"/>
+    </row>
+    <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="93">
         <v>2</v>
       </c>
-      <c r="B16" s="27" t="s">
+      <c r="B16" s="100" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="25" t="s">
+      <c r="C16" s="94" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="57" t="s">
+      <c r="D16" s="63" t="s">
         <v>100</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="102" t="s">
         <v>74</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F16" s="99">
         <v>7</v>
       </c>
-      <c r="G16" s="1">
-        <v>5</v>
-      </c>
-      <c r="H16" s="14" t="s">
+      <c r="G16" s="99">
+        <v>5</v>
+      </c>
+      <c r="H16" s="96" t="s">
         <v>20</v>
       </c>
-      <c r="I16" s="3"/>
-    </row>
-    <row r="17" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="10">
+      <c r="I16" s="73"/>
+    </row>
+    <row r="17" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="93">
         <v>2</v>
       </c>
-      <c r="B17" s="27" t="s">
+      <c r="B17" s="100" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="25" t="s">
+      <c r="C17" s="94" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="57" t="s">
+      <c r="D17" s="63" t="s">
         <v>96</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="102" t="s">
         <v>76</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F17" s="99">
         <v>4</v>
       </c>
-      <c r="G17" s="1">
-        <v>5</v>
-      </c>
-      <c r="H17" s="14" t="s">
+      <c r="G17" s="99">
+        <v>5</v>
+      </c>
+      <c r="H17" s="96" t="s">
         <v>20</v>
       </c>
-      <c r="I17" s="3"/>
-    </row>
-    <row r="18" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="10">
+      <c r="I17" s="73"/>
+    </row>
+    <row r="18" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="93">
         <v>2</v>
       </c>
-      <c r="B18" s="27" t="s">
+      <c r="B18" s="100" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="25" t="s">
+      <c r="C18" s="94" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="57" t="s">
+      <c r="D18" s="63" t="s">
         <v>82</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="E18" s="102" t="s">
         <v>101</v>
       </c>
-      <c r="F18" s="1">
+      <c r="F18" s="99">
         <v>4</v>
       </c>
-      <c r="G18" s="1">
-        <v>6</v>
-      </c>
-      <c r="H18" s="14" t="s">
+      <c r="G18" s="99">
+        <v>6</v>
+      </c>
+      <c r="H18" s="96" t="s">
         <v>20</v>
       </c>
-      <c r="I18" s="3"/>
-    </row>
-    <row r="19" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="9"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="59"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="5"/>
-    </row>
-    <row r="20" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="67" t="s">
+      <c r="I18" s="73"/>
+    </row>
+    <row r="19" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="103"/>
+      <c r="B19" s="104"/>
+      <c r="C19" s="103"/>
+      <c r="D19" s="105"/>
+      <c r="E19" s="102"/>
+      <c r="F19" s="103"/>
+      <c r="G19" s="103"/>
+      <c r="H19" s="96"/>
+      <c r="I19" s="106"/>
+    </row>
+    <row r="20" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="107" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="67" t="s">
+      <c r="B20" s="107" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="85">
+      <c r="C20" s="121">
         <f>SUM(F13:F19)</f>
         <v>27</v>
       </c>
-      <c r="D20" s="85"/>
-      <c r="E20" s="85"/>
-      <c r="F20" s="86"/>
-      <c r="G20" s="66" t="s">
+      <c r="D20" s="121"/>
+      <c r="E20" s="121"/>
+      <c r="F20" s="122"/>
+      <c r="G20" s="108" t="s">
         <v>17</v>
       </c>
-      <c r="H20" s="85">
+      <c r="H20" s="121">
         <f>SUM(G13:G19)</f>
         <v>30</v>
       </c>
-      <c r="I20" s="86"/>
-    </row>
-    <row r="21" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="24" t="s">
+      <c r="I20" s="122"/>
+    </row>
+    <row r="21" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="92" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="24" t="s">
+      <c r="B21" s="92" t="s">
         <v>2</v>
       </c>
-      <c r="C21" s="24" t="s">
+      <c r="C21" s="92" t="s">
         <v>53</v>
       </c>
-      <c r="D21" s="24" t="s">
+      <c r="D21" s="92" t="s">
         <v>3</v>
       </c>
-      <c r="E21" s="24" t="s">
+      <c r="E21" s="92" t="s">
         <v>4</v>
       </c>
-      <c r="F21" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="G21" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="H21" s="24" t="s">
+      <c r="F21" s="92" t="s">
+        <v>5</v>
+      </c>
+      <c r="G21" s="92" t="s">
+        <v>6</v>
+      </c>
+      <c r="H21" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="I21" s="24" t="s">
+      <c r="I21" s="92" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="10">
+    <row r="22" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="93">
         <v>3</v>
       </c>
-      <c r="B22" s="26" t="s">
+      <c r="B22" s="94" t="s">
         <v>9</v>
       </c>
-      <c r="C22" s="25"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="14"/>
+      <c r="C22" s="94" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="E22" s="95" t="s">
+        <v>153</v>
+      </c>
+      <c r="F22" s="6">
+        <v>6</v>
+      </c>
+      <c r="G22" s="6">
+        <v>6</v>
+      </c>
+      <c r="H22" s="14" t="s">
+        <v>20</v>
+      </c>
       <c r="I22" s="15"/>
     </row>
-    <row r="23" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="10">
+    <row r="23" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="93">
         <v>3</v>
       </c>
-      <c r="B23" s="27" t="s">
+      <c r="B23" s="97" t="s">
         <v>10</v>
       </c>
-      <c r="C23" s="25"/>
+      <c r="C23" s="94" t="s">
+        <v>63</v>
+      </c>
       <c r="D23" s="13"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="14"/>
+      <c r="E23" s="95" t="s">
+        <v>154</v>
+      </c>
+      <c r="F23" s="6">
+        <v>4</v>
+      </c>
+      <c r="G23" s="6">
+        <v>4</v>
+      </c>
+      <c r="H23" s="14" t="s">
+        <v>20</v>
+      </c>
       <c r="I23" s="15"/>
     </row>
-    <row r="24" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="10">
+    <row r="24" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="93">
         <v>3</v>
       </c>
-      <c r="B24" s="27" t="s">
+      <c r="B24" s="100" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="25"/>
+      <c r="C24" s="94" t="s">
+        <v>61</v>
+      </c>
       <c r="D24" s="2"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="3"/>
-    </row>
-    <row r="25" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="10">
+      <c r="E24" s="95" t="s">
+        <v>155</v>
+      </c>
+      <c r="F24" s="7">
+        <v>4</v>
+      </c>
+      <c r="G24" s="7">
+        <v>4</v>
+      </c>
+      <c r="H24" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I24" s="73"/>
+    </row>
+    <row r="25" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="93">
         <v>3</v>
       </c>
-      <c r="B25" s="27" t="s">
+      <c r="B25" s="100" t="s">
         <v>12</v>
       </c>
-      <c r="C25" s="25"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="3"/>
-    </row>
-    <row r="26" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="10">
+      <c r="C25" s="94" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="E25" s="109" t="s">
+        <v>157</v>
+      </c>
+      <c r="F25" s="7">
+        <v>6</v>
+      </c>
+      <c r="G25" s="7">
+        <v>6</v>
+      </c>
+      <c r="H25" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I25" s="73"/>
+    </row>
+    <row r="26" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="93">
         <v>3</v>
       </c>
-      <c r="B26" s="27" t="s">
+      <c r="B26" s="100" t="s">
         <v>13</v>
       </c>
-      <c r="C26" s="25"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="3"/>
-    </row>
-    <row r="27" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="10">
+      <c r="C26" s="94" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="E26" s="109">
+        <v>43476</v>
+      </c>
+      <c r="F26" s="7">
+        <v>5</v>
+      </c>
+      <c r="G26" s="7">
+        <v>5</v>
+      </c>
+      <c r="H26" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I26" s="73"/>
+    </row>
+    <row r="27" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A27" s="93">
         <v>3</v>
       </c>
-      <c r="B27" s="68" t="s">
+      <c r="B27" s="100" t="s">
         <v>14</v>
       </c>
-      <c r="C27" s="25"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="3"/>
-    </row>
-    <row r="28" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="9"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="5"/>
-    </row>
-    <row r="29" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="67" t="s">
+      <c r="C27" s="94" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="E27" s="109">
+        <v>43507</v>
+      </c>
+      <c r="F27" s="7">
+        <v>5</v>
+      </c>
+      <c r="G27" s="7">
+        <v>5</v>
+      </c>
+      <c r="H27" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I27" s="73"/>
+    </row>
+    <row r="28" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="103"/>
+      <c r="B28" s="104"/>
+      <c r="C28" s="103"/>
+      <c r="D28" s="105"/>
+      <c r="E28" s="102"/>
+      <c r="F28" s="103"/>
+      <c r="G28" s="103"/>
+      <c r="H28" s="96"/>
+      <c r="I28" s="106"/>
+    </row>
+    <row r="29" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="107" t="s">
         <v>15</v>
       </c>
-      <c r="B29" s="67" t="s">
+      <c r="B29" s="107" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="78">
+      <c r="C29" s="121">
         <f>SUM(F22:F28)</f>
+        <v>30</v>
+      </c>
+      <c r="D29" s="121"/>
+      <c r="E29" s="121"/>
+      <c r="F29" s="122"/>
+      <c r="G29" s="108" t="s">
+        <v>17</v>
+      </c>
+      <c r="H29" s="121">
+        <f>SUM(G22:G28)</f>
+        <v>30</v>
+      </c>
+      <c r="I29" s="122"/>
+    </row>
+    <row r="30" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="93">
+        <v>4</v>
+      </c>
+      <c r="B30" s="94" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="94" t="s">
+        <v>19</v>
+      </c>
+      <c r="D30" s="69"/>
+      <c r="E30" s="95">
+        <v>43773</v>
+      </c>
+      <c r="F30" s="93">
+        <v>5.5</v>
+      </c>
+      <c r="G30" s="93">
+        <v>7</v>
+      </c>
+      <c r="H30" s="96" t="s">
+        <v>20</v>
+      </c>
+      <c r="I30" s="15"/>
+    </row>
+    <row r="31" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="93">
+        <v>4</v>
+      </c>
+      <c r="B31" s="97" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" s="94" t="s">
+        <v>19</v>
+      </c>
+      <c r="D31" s="69"/>
+      <c r="E31" s="95">
+        <v>43774</v>
+      </c>
+      <c r="F31" s="93">
+        <v>5</v>
+      </c>
+      <c r="G31" s="93">
+        <v>6</v>
+      </c>
+      <c r="H31" s="96" t="s">
+        <v>20</v>
+      </c>
+      <c r="I31" s="15"/>
+    </row>
+    <row r="32" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="93">
+        <v>4</v>
+      </c>
+      <c r="B32" s="100" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" s="94" t="s">
+        <v>63</v>
+      </c>
+      <c r="D32" s="63"/>
+      <c r="E32" s="95">
+        <v>43775</v>
+      </c>
+      <c r="F32" s="99">
+        <v>4.5</v>
+      </c>
+      <c r="G32" s="99">
+        <v>5</v>
+      </c>
+      <c r="H32" s="96" t="s">
+        <v>20</v>
+      </c>
+      <c r="I32" s="73"/>
+    </row>
+    <row r="33" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="93">
+        <v>4</v>
+      </c>
+      <c r="B33" s="100" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" s="94" t="s">
+        <v>19</v>
+      </c>
+      <c r="D33" s="63"/>
+      <c r="E33" s="95">
+        <v>43776</v>
+      </c>
+      <c r="F33" s="99">
+        <v>5</v>
+      </c>
+      <c r="G33" s="99">
+        <v>7</v>
+      </c>
+      <c r="H33" s="96" t="s">
+        <v>20</v>
+      </c>
+      <c r="I33" s="73"/>
+    </row>
+    <row r="34" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="93">
+        <v>4</v>
+      </c>
+      <c r="B34" s="100" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" s="94" t="s">
+        <v>61</v>
+      </c>
+      <c r="D34" s="63"/>
+      <c r="E34" s="95">
+        <v>43777</v>
+      </c>
+      <c r="F34" s="99">
+        <v>4.5</v>
+      </c>
+      <c r="G34" s="99">
+        <v>5</v>
+      </c>
+      <c r="H34" s="96" t="s">
+        <v>20</v>
+      </c>
+      <c r="I34" s="73"/>
+    </row>
+    <row r="35" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A35" s="93">
+        <v>4</v>
+      </c>
+      <c r="B35" s="100" t="s">
+        <v>14</v>
+      </c>
+      <c r="C35" s="94" t="s">
+        <v>19</v>
+      </c>
+      <c r="D35" s="63" t="s">
+        <v>167</v>
+      </c>
+      <c r="E35" s="95">
+        <v>43778</v>
+      </c>
+      <c r="F35" s="99">
+        <v>7</v>
+      </c>
+      <c r="G35" s="99">
+        <v>5</v>
+      </c>
+      <c r="H35" s="96" t="s">
+        <v>21</v>
+      </c>
+      <c r="I35" s="73"/>
+    </row>
+    <row r="36" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="103"/>
+      <c r="B36" s="104"/>
+      <c r="C36" s="103"/>
+      <c r="D36" s="105"/>
+      <c r="E36" s="102"/>
+      <c r="F36" s="103"/>
+      <c r="G36" s="103"/>
+      <c r="H36" s="96"/>
+      <c r="I36" s="106"/>
+    </row>
+    <row r="37" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="107" t="s">
+        <v>15</v>
+      </c>
+      <c r="B37" s="107" t="s">
+        <v>16</v>
+      </c>
+      <c r="C37" s="121">
+        <f>SUM(F30:F36)</f>
+        <v>31.5</v>
+      </c>
+      <c r="D37" s="121"/>
+      <c r="E37" s="121"/>
+      <c r="F37" s="122"/>
+      <c r="G37" s="108" t="s">
+        <v>17</v>
+      </c>
+      <c r="H37" s="121">
+        <f>SUM(G30:G36)</f>
+        <v>35</v>
+      </c>
+      <c r="I37" s="122"/>
+    </row>
+    <row r="38" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="93">
+        <v>5</v>
+      </c>
+      <c r="B38" s="94" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" s="94" t="s">
+        <v>19</v>
+      </c>
+      <c r="D38" s="69"/>
+      <c r="E38" s="95">
+        <v>43773</v>
+      </c>
+      <c r="F38" s="93">
+        <v>6</v>
+      </c>
+      <c r="G38" s="93"/>
+      <c r="H38" s="96" t="s">
+        <v>20</v>
+      </c>
+      <c r="I38" s="15"/>
+    </row>
+    <row r="39" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="93">
+        <v>5</v>
+      </c>
+      <c r="B39" s="97" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" s="94" t="s">
+        <v>63</v>
+      </c>
+      <c r="D39" s="69"/>
+      <c r="E39" s="95">
+        <v>43774</v>
+      </c>
+      <c r="F39" s="93">
+        <v>4</v>
+      </c>
+      <c r="G39" s="93"/>
+      <c r="H39" s="96" t="s">
+        <v>20</v>
+      </c>
+      <c r="I39" s="15"/>
+    </row>
+    <row r="40" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="93">
+        <v>5</v>
+      </c>
+      <c r="B40" s="100" t="s">
+        <v>11</v>
+      </c>
+      <c r="C40" s="94" t="s">
+        <v>19</v>
+      </c>
+      <c r="D40" s="63"/>
+      <c r="E40" s="95">
+        <v>43775</v>
+      </c>
+      <c r="F40" s="99">
+        <v>5</v>
+      </c>
+      <c r="G40" s="93"/>
+      <c r="H40" s="96" t="s">
+        <v>21</v>
+      </c>
+      <c r="I40" s="73"/>
+    </row>
+    <row r="41" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="93">
+        <v>5</v>
+      </c>
+      <c r="B41" s="100" t="s">
+        <v>12</v>
+      </c>
+      <c r="C41" s="94" t="s">
+        <v>19</v>
+      </c>
+      <c r="D41" s="63" t="s">
+        <v>172</v>
+      </c>
+      <c r="E41" s="95">
+        <v>43776</v>
+      </c>
+      <c r="F41" s="99">
+        <v>5</v>
+      </c>
+      <c r="G41" s="93"/>
+      <c r="H41" s="96" t="s">
+        <v>21</v>
+      </c>
+      <c r="I41" s="73"/>
+    </row>
+    <row r="42" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="93">
+        <v>5</v>
+      </c>
+      <c r="B42" s="100" t="s">
+        <v>13</v>
+      </c>
+      <c r="C42" s="94" t="s">
+        <v>19</v>
+      </c>
+      <c r="D42" s="63"/>
+      <c r="E42" s="95">
+        <v>43777</v>
+      </c>
+      <c r="F42" s="99">
+        <v>4.5</v>
+      </c>
+      <c r="G42" s="93"/>
+      <c r="H42" s="96" t="s">
+        <v>20</v>
+      </c>
+      <c r="I42" s="73"/>
+    </row>
+    <row r="43" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A43" s="93">
+        <v>5</v>
+      </c>
+      <c r="B43" s="100" t="s">
+        <v>14</v>
+      </c>
+      <c r="C43" s="94" t="s">
+        <v>19</v>
+      </c>
+      <c r="D43" s="63" t="s">
+        <v>174</v>
+      </c>
+      <c r="E43" s="95">
+        <v>43778</v>
+      </c>
+      <c r="F43" s="99">
+        <v>6</v>
+      </c>
+      <c r="G43" s="93"/>
+      <c r="H43" s="96" t="s">
+        <v>20</v>
+      </c>
+      <c r="I43" s="73"/>
+    </row>
+    <row r="44" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="103"/>
+      <c r="B44" s="104"/>
+      <c r="C44" s="103"/>
+      <c r="D44" s="105"/>
+      <c r="E44" s="102"/>
+      <c r="F44" s="103"/>
+      <c r="G44" s="103"/>
+      <c r="H44" s="96"/>
+      <c r="I44" s="106"/>
+    </row>
+    <row r="45" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="107" t="s">
+        <v>15</v>
+      </c>
+      <c r="B45" s="107" t="s">
+        <v>16</v>
+      </c>
+      <c r="C45" s="121">
+        <f>SUM(F38:F44)</f>
+        <v>30.5</v>
+      </c>
+      <c r="D45" s="121"/>
+      <c r="E45" s="121"/>
+      <c r="F45" s="122"/>
+      <c r="G45" s="108" t="s">
+        <v>17</v>
+      </c>
+      <c r="H45" s="121">
+        <f>SUM(G38:G44)</f>
         <v>0</v>
       </c>
-      <c r="D29" s="78"/>
-      <c r="E29" s="78"/>
-      <c r="F29" s="79"/>
-      <c r="G29" s="66" t="s">
+      <c r="I45" s="122"/>
+    </row>
+    <row r="46" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="93">
+        <v>6</v>
+      </c>
+      <c r="B46" s="94" t="s">
+        <v>9</v>
+      </c>
+      <c r="C46" s="94" t="s">
+        <v>19</v>
+      </c>
+      <c r="D46" s="69"/>
+      <c r="E46" s="95">
+        <v>43780</v>
+      </c>
+      <c r="F46" s="93">
+        <v>6</v>
+      </c>
+      <c r="G46" s="93"/>
+      <c r="H46" s="96" t="s">
+        <v>20</v>
+      </c>
+      <c r="I46" s="15"/>
+    </row>
+    <row r="47" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="93">
+        <v>6</v>
+      </c>
+      <c r="B47" s="97" t="s">
+        <v>10</v>
+      </c>
+      <c r="C47" s="94" t="s">
+        <v>63</v>
+      </c>
+      <c r="D47" s="69"/>
+      <c r="E47" s="95">
+        <v>43781</v>
+      </c>
+      <c r="F47" s="93">
+        <v>4</v>
+      </c>
+      <c r="G47" s="93"/>
+      <c r="H47" s="96" t="s">
+        <v>20</v>
+      </c>
+      <c r="I47" s="15"/>
+    </row>
+    <row r="48" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="93">
+        <v>6</v>
+      </c>
+      <c r="B48" s="100" t="s">
+        <v>11</v>
+      </c>
+      <c r="C48" s="94" t="s">
+        <v>19</v>
+      </c>
+      <c r="D48" s="63"/>
+      <c r="E48" s="95">
+        <v>43782</v>
+      </c>
+      <c r="F48" s="99">
+        <v>5</v>
+      </c>
+      <c r="G48" s="93"/>
+      <c r="H48" s="96" t="s">
+        <v>21</v>
+      </c>
+      <c r="I48" s="73"/>
+    </row>
+    <row r="49" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="93">
+        <v>6</v>
+      </c>
+      <c r="B49" s="100" t="s">
+        <v>12</v>
+      </c>
+      <c r="C49" s="94" t="s">
+        <v>19</v>
+      </c>
+      <c r="D49" s="63"/>
+      <c r="E49" s="95">
+        <v>43783</v>
+      </c>
+      <c r="F49" s="99">
+        <v>5</v>
+      </c>
+      <c r="G49" s="93"/>
+      <c r="H49" s="96" t="s">
+        <v>21</v>
+      </c>
+      <c r="I49" s="73"/>
+    </row>
+    <row r="50" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="93">
+        <v>6</v>
+      </c>
+      <c r="B50" s="100" t="s">
+        <v>13</v>
+      </c>
+      <c r="C50" s="94" t="s">
+        <v>19</v>
+      </c>
+      <c r="D50" s="63" t="s">
+        <v>175</v>
+      </c>
+      <c r="E50" s="95">
+        <v>43784</v>
+      </c>
+      <c r="F50" s="99">
+        <v>4.5</v>
+      </c>
+      <c r="G50" s="93"/>
+      <c r="H50" s="96" t="s">
+        <v>20</v>
+      </c>
+      <c r="I50" s="73"/>
+    </row>
+    <row r="51" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A51" s="93">
+        <v>6</v>
+      </c>
+      <c r="B51" s="100" t="s">
+        <v>14</v>
+      </c>
+      <c r="C51" s="94" t="s">
+        <v>19</v>
+      </c>
+      <c r="D51" s="63" t="s">
+        <v>176</v>
+      </c>
+      <c r="E51" s="95">
+        <v>43785</v>
+      </c>
+      <c r="F51" s="99">
+        <v>6</v>
+      </c>
+      <c r="G51" s="93"/>
+      <c r="H51" s="96" t="s">
+        <v>20</v>
+      </c>
+      <c r="I51" s="73"/>
+    </row>
+    <row r="52" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="103"/>
+      <c r="B52" s="104"/>
+      <c r="C52" s="103"/>
+      <c r="D52" s="105"/>
+      <c r="E52" s="102"/>
+      <c r="F52" s="103"/>
+      <c r="G52" s="103"/>
+      <c r="H52" s="96"/>
+      <c r="I52" s="106"/>
+    </row>
+    <row r="53" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="107" t="s">
+        <v>15</v>
+      </c>
+      <c r="B53" s="107" t="s">
+        <v>16</v>
+      </c>
+      <c r="C53" s="121">
+        <f>SUM(F46:F52)</f>
+        <v>30.5</v>
+      </c>
+      <c r="D53" s="121"/>
+      <c r="E53" s="121"/>
+      <c r="F53" s="122"/>
+      <c r="G53" s="108" t="s">
         <v>17</v>
       </c>
-      <c r="H29" s="78">
-        <f>SUM(G22:G28)</f>
+      <c r="H53" s="121">
+        <f>SUM(G46:G52)</f>
         <v>0</v>
       </c>
-      <c r="I29" s="79"/>
-    </row>
-    <row r="30" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="B30" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="C30" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="D30" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="E30" s="24" t="s">
+      <c r="I53" s="122"/>
+    </row>
+    <row r="54" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="93">
+        <v>7</v>
+      </c>
+      <c r="B54" s="94" t="s">
+        <v>9</v>
+      </c>
+      <c r="C54" s="94" t="s">
+        <v>19</v>
+      </c>
+      <c r="D54" s="69"/>
+      <c r="E54" s="95">
+        <v>43787</v>
+      </c>
+      <c r="F54" s="93">
+        <v>6</v>
+      </c>
+      <c r="G54" s="93"/>
+      <c r="H54" s="96" t="s">
+        <v>20</v>
+      </c>
+      <c r="I54" s="15"/>
+    </row>
+    <row r="55" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="93">
+        <v>7</v>
+      </c>
+      <c r="B55" s="97" t="s">
+        <v>10</v>
+      </c>
+      <c r="C55" s="94" t="s">
+        <v>63</v>
+      </c>
+      <c r="D55" s="69"/>
+      <c r="E55" s="95">
+        <v>43788</v>
+      </c>
+      <c r="F55" s="93">
         <v>4</v>
       </c>
-      <c r="F30" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="G30" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="H30" s="24" t="s">
+      <c r="G55" s="93"/>
+      <c r="H55" s="96" t="s">
+        <v>20</v>
+      </c>
+      <c r="I55" s="15"/>
+    </row>
+    <row r="56" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="93">
         <v>7</v>
       </c>
-      <c r="I30" s="24" t="s">
+      <c r="B56" s="100" t="s">
+        <v>11</v>
+      </c>
+      <c r="C56" s="94" t="s">
+        <v>19</v>
+      </c>
+      <c r="D56" s="63"/>
+      <c r="E56" s="95">
+        <v>43789</v>
+      </c>
+      <c r="F56" s="99">
+        <v>5</v>
+      </c>
+      <c r="G56" s="93"/>
+      <c r="H56" s="96" t="s">
+        <v>20</v>
+      </c>
+      <c r="I56" s="73"/>
+    </row>
+    <row r="57" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="93">
+        <v>7</v>
+      </c>
+      <c r="B57" s="100" t="s">
+        <v>12</v>
+      </c>
+      <c r="C57" s="94" t="s">
+        <v>19</v>
+      </c>
+      <c r="D57" s="63"/>
+      <c r="E57" s="95">
+        <v>43790</v>
+      </c>
+      <c r="F57" s="99">
+        <v>6.5</v>
+      </c>
+      <c r="G57" s="93"/>
+      <c r="H57" s="96" t="s">
+        <v>20</v>
+      </c>
+      <c r="I57" s="73"/>
+    </row>
+    <row r="58" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="93">
+        <v>7</v>
+      </c>
+      <c r="B58" s="100" t="s">
+        <v>13</v>
+      </c>
+      <c r="C58" s="94" t="s">
+        <v>19</v>
+      </c>
+      <c r="D58" s="63"/>
+      <c r="E58" s="95">
+        <v>43791</v>
+      </c>
+      <c r="F58" s="99">
+        <v>5</v>
+      </c>
+      <c r="G58" s="93"/>
+      <c r="H58" s="96" t="s">
+        <v>20</v>
+      </c>
+      <c r="I58" s="73"/>
+    </row>
+    <row r="59" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A59" s="93">
+        <v>7</v>
+      </c>
+      <c r="B59" s="100" t="s">
+        <v>14</v>
+      </c>
+      <c r="C59" s="94" t="s">
+        <v>19</v>
+      </c>
+      <c r="D59" s="63" t="s">
+        <v>180</v>
+      </c>
+      <c r="E59" s="95">
+        <v>43792</v>
+      </c>
+      <c r="F59" s="99">
+        <v>6</v>
+      </c>
+      <c r="G59" s="93"/>
+      <c r="H59" s="96" t="s">
+        <v>20</v>
+      </c>
+      <c r="I59" s="73"/>
+    </row>
+    <row r="60" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="103"/>
+      <c r="B60" s="104"/>
+      <c r="C60" s="103"/>
+      <c r="D60" s="105"/>
+      <c r="E60" s="102"/>
+      <c r="F60" s="103"/>
+      <c r="G60" s="103"/>
+      <c r="H60" s="96"/>
+      <c r="I60" s="106"/>
+    </row>
+    <row r="61" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="107" t="s">
+        <v>15</v>
+      </c>
+      <c r="B61" s="107" t="s">
+        <v>16</v>
+      </c>
+      <c r="C61" s="121">
+        <f>SUM(F54:F60)</f>
+        <v>32.5</v>
+      </c>
+      <c r="D61" s="121"/>
+      <c r="E61" s="121"/>
+      <c r="F61" s="122"/>
+      <c r="G61" s="108" t="s">
+        <v>17</v>
+      </c>
+      <c r="H61" s="121">
+        <f>SUM(G54:G60)</f>
+        <v>0</v>
+      </c>
+      <c r="I61" s="122"/>
+    </row>
+    <row r="62" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="93">
         <v>8</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A31" s="10">
+      <c r="B62" s="93" t="s">
+        <v>9</v>
+      </c>
+      <c r="C62" s="93" t="s">
+        <v>19</v>
+      </c>
+      <c r="D62" s="110"/>
+      <c r="E62" s="95">
+        <v>43794</v>
+      </c>
+      <c r="F62" s="93">
+        <v>6</v>
+      </c>
+      <c r="G62" s="93"/>
+      <c r="H62" s="96" t="s">
+        <v>20</v>
+      </c>
+      <c r="I62" s="15"/>
+    </row>
+    <row r="63" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="93">
+        <v>8</v>
+      </c>
+      <c r="B63" s="97" t="s">
+        <v>10</v>
+      </c>
+      <c r="C63" s="94" t="s">
+        <v>63</v>
+      </c>
+      <c r="D63" s="69"/>
+      <c r="E63" s="95">
+        <v>43795</v>
+      </c>
+      <c r="F63" s="93">
         <v>4</v>
       </c>
-      <c r="B31" s="27" t="s">
+      <c r="G63" s="93"/>
+      <c r="H63" s="96" t="s">
+        <v>20</v>
+      </c>
+      <c r="I63" s="15"/>
+    </row>
+    <row r="64" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="93">
+        <v>8</v>
+      </c>
+      <c r="B64" s="100" t="s">
+        <v>11</v>
+      </c>
+      <c r="C64" s="94" t="s">
+        <v>19</v>
+      </c>
+      <c r="D64" s="63"/>
+      <c r="E64" s="95">
+        <v>43796</v>
+      </c>
+      <c r="F64" s="99">
+        <v>6</v>
+      </c>
+      <c r="G64" s="93"/>
+      <c r="H64" s="96" t="s">
+        <v>21</v>
+      </c>
+      <c r="I64" s="73"/>
+    </row>
+    <row r="65" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="93">
+        <v>8</v>
+      </c>
+      <c r="B65" s="100" t="s">
+        <v>12</v>
+      </c>
+      <c r="C65" s="94" t="s">
+        <v>19</v>
+      </c>
+      <c r="D65" s="63"/>
+      <c r="E65" s="95">
+        <v>43797</v>
+      </c>
+      <c r="F65" s="99">
+        <v>4</v>
+      </c>
+      <c r="G65" s="93"/>
+      <c r="H65" s="96" t="s">
+        <v>21</v>
+      </c>
+      <c r="I65" s="73"/>
+    </row>
+    <row r="66" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="93">
+        <v>8</v>
+      </c>
+      <c r="B66" s="100" t="s">
+        <v>13</v>
+      </c>
+      <c r="C66" s="94" t="s">
+        <v>19</v>
+      </c>
+      <c r="D66" s="63"/>
+      <c r="E66" s="95">
+        <v>43798</v>
+      </c>
+      <c r="F66" s="99">
+        <v>5.5</v>
+      </c>
+      <c r="G66" s="93"/>
+      <c r="H66" s="96" t="s">
+        <v>20</v>
+      </c>
+      <c r="I66" s="73"/>
+    </row>
+    <row r="67" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A67" s="93">
+        <v>8</v>
+      </c>
+      <c r="B67" s="100" t="s">
+        <v>14</v>
+      </c>
+      <c r="C67" s="94" t="s">
+        <v>19</v>
+      </c>
+      <c r="D67" s="63" t="s">
+        <v>184</v>
+      </c>
+      <c r="E67" s="95">
+        <v>43799</v>
+      </c>
+      <c r="F67" s="99">
+        <v>6</v>
+      </c>
+      <c r="G67" s="93"/>
+      <c r="H67" s="96" t="s">
+        <v>20</v>
+      </c>
+      <c r="I67" s="73"/>
+    </row>
+    <row r="68" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="111">
+        <v>8</v>
+      </c>
+      <c r="B68" s="104"/>
+      <c r="C68" s="103"/>
+      <c r="D68" s="105"/>
+      <c r="E68" s="102"/>
+      <c r="F68" s="103"/>
+      <c r="G68" s="103"/>
+      <c r="H68" s="96"/>
+      <c r="I68" s="106"/>
+    </row>
+    <row r="69" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="107">
+        <v>8</v>
+      </c>
+      <c r="B69" s="107" t="s">
+        <v>16</v>
+      </c>
+      <c r="C69" s="121">
+        <f>SUM(F62:F68)</f>
+        <v>31.5</v>
+      </c>
+      <c r="D69" s="121"/>
+      <c r="E69" s="121"/>
+      <c r="F69" s="122"/>
+      <c r="G69" s="108" t="s">
+        <v>17</v>
+      </c>
+      <c r="H69" s="121">
+        <f>SUM(G62:G68)</f>
+        <v>0</v>
+      </c>
+      <c r="I69" s="122"/>
+    </row>
+    <row r="70" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="93">
         <v>9</v>
       </c>
-      <c r="C31" s="25"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="14"/>
-      <c r="I31" s="15"/>
-    </row>
-    <row r="32" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A32" s="10">
+      <c r="B70" s="93" t="s">
+        <v>9</v>
+      </c>
+      <c r="C70" s="93" t="s">
+        <v>19</v>
+      </c>
+      <c r="D70" s="110"/>
+      <c r="E70" s="95">
+        <v>43801</v>
+      </c>
+      <c r="F70" s="93">
+        <v>6</v>
+      </c>
+      <c r="G70" s="93"/>
+      <c r="H70" s="96" t="s">
+        <v>20</v>
+      </c>
+      <c r="I70" s="15"/>
+    </row>
+    <row r="71" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="93">
+        <v>9</v>
+      </c>
+      <c r="B71" s="97" t="s">
+        <v>10</v>
+      </c>
+      <c r="C71" s="94" t="s">
+        <v>63</v>
+      </c>
+      <c r="D71" s="69"/>
+      <c r="E71" s="95">
+        <v>43802</v>
+      </c>
+      <c r="F71" s="93">
         <v>4</v>
       </c>
-      <c r="B32" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="C32" s="25"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="14"/>
-      <c r="I32" s="15"/>
-    </row>
-    <row r="33" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A33" s="10">
+      <c r="G71" s="93"/>
+      <c r="H71" s="96" t="s">
+        <v>20</v>
+      </c>
+      <c r="I71" s="15"/>
+    </row>
+    <row r="72" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="93">
+        <v>9</v>
+      </c>
+      <c r="B72" s="100" t="s">
+        <v>11</v>
+      </c>
+      <c r="C72" s="94" t="s">
+        <v>19</v>
+      </c>
+      <c r="D72" s="63"/>
+      <c r="E72" s="95">
+        <v>43803</v>
+      </c>
+      <c r="F72" s="99">
+        <v>6</v>
+      </c>
+      <c r="G72" s="93"/>
+      <c r="H72" s="96" t="s">
+        <v>21</v>
+      </c>
+      <c r="I72" s="73"/>
+    </row>
+    <row r="73" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="93">
+        <v>9</v>
+      </c>
+      <c r="B73" s="100" t="s">
+        <v>12</v>
+      </c>
+      <c r="C73" s="94" t="s">
+        <v>19</v>
+      </c>
+      <c r="D73" s="63"/>
+      <c r="E73" s="95">
+        <v>43804</v>
+      </c>
+      <c r="F73" s="99">
         <v>4</v>
       </c>
-      <c r="B33" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="C33" s="25"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="14"/>
-      <c r="I33" s="3"/>
-    </row>
-    <row r="34" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A34" s="10">
-        <v>4</v>
-      </c>
-      <c r="B34" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="C34" s="25"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="14"/>
-      <c r="I34" s="3"/>
-    </row>
-    <row r="35" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A35" s="10">
-        <v>4</v>
-      </c>
-      <c r="B35" s="68" t="s">
+      <c r="G73" s="93"/>
+      <c r="H73" s="96" t="s">
+        <v>21</v>
+      </c>
+      <c r="I73" s="73"/>
+    </row>
+    <row r="74" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="93">
+        <v>9</v>
+      </c>
+      <c r="B74" s="100" t="s">
         <v>13</v>
       </c>
-      <c r="C35" s="25"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="14"/>
-      <c r="I35" s="3"/>
-    </row>
-    <row r="36" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A36" s="10">
-        <v>4</v>
-      </c>
-      <c r="B36" s="68" t="s">
+      <c r="C74" s="94" t="s">
+        <v>19</v>
+      </c>
+      <c r="D74" s="63"/>
+      <c r="E74" s="95">
+        <v>43805</v>
+      </c>
+      <c r="F74" s="99">
+        <v>5.5</v>
+      </c>
+      <c r="G74" s="93"/>
+      <c r="H74" s="96" t="s">
+        <v>20</v>
+      </c>
+      <c r="I74" s="73"/>
+    </row>
+    <row r="75" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A75" s="93">
+        <v>9</v>
+      </c>
+      <c r="B75" s="100" t="s">
         <v>14</v>
       </c>
-      <c r="C36" s="25"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="16"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="14"/>
-      <c r="I36" s="3"/>
-    </row>
-    <row r="37" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="9"/>
-      <c r="B37" s="12"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="16"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="14"/>
-      <c r="I37" s="5"/>
-    </row>
-    <row r="38" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="67" t="s">
-        <v>15</v>
-      </c>
-      <c r="B38" s="67" t="s">
+      <c r="C75" s="94" t="s">
+        <v>19</v>
+      </c>
+      <c r="D75" s="63" t="s">
+        <v>184</v>
+      </c>
+      <c r="E75" s="95">
+        <v>43806</v>
+      </c>
+      <c r="F75" s="99">
+        <v>6</v>
+      </c>
+      <c r="G75" s="93"/>
+      <c r="H75" s="96" t="s">
+        <v>20</v>
+      </c>
+      <c r="I75" s="73"/>
+    </row>
+    <row r="76" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="111">
+        <v>9</v>
+      </c>
+      <c r="B76" s="104"/>
+      <c r="C76" s="103"/>
+      <c r="D76" s="105"/>
+      <c r="E76" s="102"/>
+      <c r="F76" s="103"/>
+      <c r="G76" s="103"/>
+      <c r="H76" s="96"/>
+      <c r="I76" s="106"/>
+    </row>
+    <row r="77" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="107">
+        <v>9</v>
+      </c>
+      <c r="B77" s="107" t="s">
         <v>16</v>
       </c>
-      <c r="C38" s="78">
-        <f>SUM(F31:F37)</f>
+      <c r="C77" s="121">
+        <f>SUM(F70:F76)</f>
+        <v>31.5</v>
+      </c>
+      <c r="D77" s="121"/>
+      <c r="E77" s="121"/>
+      <c r="F77" s="122"/>
+      <c r="G77" s="108" t="s">
+        <v>17</v>
+      </c>
+      <c r="H77" s="121">
+        <f>SUM(G70:G76)</f>
         <v>0</v>
       </c>
-      <c r="D38" s="78"/>
-      <c r="E38" s="78"/>
-      <c r="F38" s="79"/>
-      <c r="G38" s="66" t="s">
-        <v>17</v>
-      </c>
-      <c r="H38" s="78">
-        <f>SUM(G31:G37)</f>
-        <v>0</v>
-      </c>
-      <c r="I38" s="79"/>
-    </row>
-    <row r="39" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="B39" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="C39" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="D39" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="E39" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="F39" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="G39" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="H39" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="I39" s="24" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A40" s="10">
-        <v>5</v>
-      </c>
-      <c r="B40" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="C40" s="25"/>
-      <c r="D40" s="13"/>
-      <c r="E40" s="18"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="6"/>
-      <c r="H40" s="14"/>
-      <c r="I40" s="15"/>
-    </row>
-    <row r="41" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A41" s="10">
-        <v>5</v>
-      </c>
-      <c r="B41" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="C41" s="25"/>
-      <c r="D41" s="13"/>
-      <c r="E41" s="19"/>
-      <c r="F41" s="6"/>
-      <c r="G41" s="6"/>
-      <c r="H41" s="14"/>
-      <c r="I41" s="15"/>
-    </row>
-    <row r="42" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A42" s="10">
-        <v>5</v>
-      </c>
-      <c r="B42" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="C42" s="25"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="17"/>
-      <c r="F42" s="7"/>
-      <c r="G42" s="7"/>
-      <c r="H42" s="14"/>
-      <c r="I42" s="3"/>
-    </row>
-    <row r="43" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A43" s="10">
-        <v>5</v>
-      </c>
-      <c r="B43" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="C43" s="25"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="19"/>
-      <c r="F43" s="7"/>
-      <c r="G43" s="7"/>
-      <c r="H43" s="14"/>
-      <c r="I43" s="3"/>
-    </row>
-    <row r="44" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A44" s="10">
-        <v>5</v>
-      </c>
-      <c r="B44" s="68" t="s">
-        <v>13</v>
-      </c>
-      <c r="C44" s="25"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="16"/>
-      <c r="F44" s="7"/>
-      <c r="G44" s="7"/>
-      <c r="H44" s="14"/>
-      <c r="I44" s="3"/>
-    </row>
-    <row r="45" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A45" s="10">
-        <v>5</v>
-      </c>
-      <c r="B45" s="68" t="s">
-        <v>14</v>
-      </c>
-      <c r="C45" s="25"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="16"/>
-      <c r="F45" s="7"/>
-      <c r="G45" s="7"/>
-      <c r="H45" s="14"/>
-      <c r="I45" s="3"/>
-    </row>
-    <row r="46" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="9"/>
-      <c r="B46" s="12"/>
-      <c r="C46" s="9"/>
-      <c r="D46" s="4"/>
-      <c r="E46" s="16"/>
-      <c r="F46" s="8"/>
-      <c r="G46" s="8"/>
-      <c r="H46" s="14"/>
-      <c r="I46" s="5"/>
-    </row>
-    <row r="47" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="67" t="s">
-        <v>15</v>
-      </c>
-      <c r="B47" s="67" t="s">
-        <v>16</v>
-      </c>
-      <c r="C47" s="78">
-        <f>SUM(F40:F46)</f>
-        <v>0</v>
-      </c>
-      <c r="D47" s="78"/>
-      <c r="E47" s="78"/>
-      <c r="F47" s="79"/>
-      <c r="G47" s="66" t="s">
-        <v>17</v>
-      </c>
-      <c r="H47" s="78">
-        <f>SUM(G40:G46)</f>
-        <v>0</v>
-      </c>
-      <c r="I47" s="79"/>
-    </row>
-    <row r="48" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="B48" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="C48" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="D48" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="E48" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="F48" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="G48" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="H48" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="I48" s="24" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A49" s="10">
-        <v>6</v>
-      </c>
-      <c r="B49" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="C49" s="25"/>
-      <c r="D49" s="13"/>
-      <c r="E49" s="18"/>
-      <c r="F49" s="6"/>
-      <c r="G49" s="6"/>
-      <c r="H49" s="14"/>
-      <c r="I49" s="15"/>
-    </row>
-    <row r="50" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A50" s="10">
-        <v>6</v>
-      </c>
-      <c r="B50" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="C50" s="25"/>
-      <c r="D50" s="13"/>
-      <c r="E50" s="19"/>
-      <c r="F50" s="6"/>
-      <c r="G50" s="6"/>
-      <c r="H50" s="14"/>
-      <c r="I50" s="15"/>
-    </row>
-    <row r="51" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A51" s="10">
-        <v>6</v>
-      </c>
-      <c r="B51" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="C51" s="25"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="17"/>
-      <c r="F51" s="7"/>
-      <c r="G51" s="7"/>
-      <c r="H51" s="14"/>
-      <c r="I51" s="3"/>
-    </row>
-    <row r="52" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A52" s="10">
-        <v>6</v>
-      </c>
-      <c r="B52" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="C52" s="25"/>
-      <c r="D52" s="2"/>
-      <c r="E52" s="19"/>
-      <c r="F52" s="7"/>
-      <c r="G52" s="7"/>
-      <c r="H52" s="14"/>
-      <c r="I52" s="3"/>
-    </row>
-    <row r="53" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A53" s="10">
-        <v>6</v>
-      </c>
-      <c r="B53" s="68" t="s">
-        <v>13</v>
-      </c>
-      <c r="C53" s="25"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="16"/>
-      <c r="F53" s="7"/>
-      <c r="G53" s="7"/>
-      <c r="H53" s="14"/>
-      <c r="I53" s="3"/>
-    </row>
-    <row r="54" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A54" s="10">
-        <v>6</v>
-      </c>
-      <c r="B54" s="68" t="s">
-        <v>14</v>
-      </c>
-      <c r="C54" s="25"/>
-      <c r="D54" s="2"/>
-      <c r="E54" s="16"/>
-      <c r="F54" s="7"/>
-      <c r="G54" s="7"/>
-      <c r="H54" s="14"/>
-      <c r="I54" s="3"/>
-    </row>
-    <row r="55" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="9"/>
-      <c r="B55" s="12"/>
-      <c r="C55" s="9"/>
-      <c r="D55" s="4"/>
-      <c r="E55" s="16"/>
-      <c r="F55" s="8"/>
-      <c r="G55" s="8"/>
-      <c r="H55" s="14"/>
-      <c r="I55" s="5"/>
-    </row>
-    <row r="56" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="67" t="s">
-        <v>15</v>
-      </c>
-      <c r="B56" s="67" t="s">
-        <v>16</v>
-      </c>
-      <c r="C56" s="78">
-        <f>SUM(F49:F55)</f>
-        <v>0</v>
-      </c>
-      <c r="D56" s="78"/>
-      <c r="E56" s="78"/>
-      <c r="F56" s="79"/>
-      <c r="G56" s="66" t="s">
-        <v>17</v>
-      </c>
-      <c r="H56" s="78">
-        <f>SUM(G49:G55)</f>
-        <v>0</v>
-      </c>
-      <c r="I56" s="79"/>
+      <c r="I77" s="122"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="C56:F56"/>
-    <mergeCell ref="H56:I56"/>
+  <mergeCells count="19">
+    <mergeCell ref="C53:F53"/>
+    <mergeCell ref="H53:I53"/>
     <mergeCell ref="C29:F29"/>
     <mergeCell ref="H29:I29"/>
-    <mergeCell ref="C38:F38"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="C47:F47"/>
-    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="C37:F37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="C45:F45"/>
+    <mergeCell ref="H45:I45"/>
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="C11:F11"/>
     <mergeCell ref="H11:I11"/>
     <mergeCell ref="C20:F20"/>
     <mergeCell ref="H20:I20"/>
+    <mergeCell ref="C61:F61"/>
+    <mergeCell ref="H61:I61"/>
+    <mergeCell ref="C69:F69"/>
+    <mergeCell ref="H69:I69"/>
+    <mergeCell ref="C77:F77"/>
+    <mergeCell ref="H77:I77"/>
   </mergeCells>
-  <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10 C19 C28 C37 C46 C55" xr:uid="{49E4ABBA-BF99-4A08-9146-05B03FF61551}">
+  <dataValidations count="5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10 C19 C28 C36 C44 C52 C60 C68 C76" xr:uid="{49E4ABBA-BF99-4A08-9146-05B03FF61551}">
       <formula1>"Project Management, Requirement, Architecture and Desgin, Implementation, Testing, Training, Meetting Customer, Meetting Mentor"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C9 C13:C18 C22:C27 C31:C36 C40:C45 C49:C54" xr:uid="{7BB7431A-7120-424E-9970-47B42B760419}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C9 C13:C18 C22:C27 C30:C35 C38:C43 C46:C51 C54:C59 C63:C67 C71:C75" xr:uid="{7BB7431A-7120-424E-9970-47B42B760419}">
       <formula1>"Project Management, Requirement, Architecture and Desgin, Implementation, Testing, Training, Meetting Customer, Meeting Mentor"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:H10 H13:H19 H22:H28 H31:H37 H40:H46 H49:H55" xr:uid="{4A0F2AA5-85B8-464F-8CAA-CD36662ED450}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:H10 H13:H19 H54:H60 H30:H36 H38:H44 H46:H52 H70:H76 H62:H68 H22:H28" xr:uid="{4A0F2AA5-85B8-464F-8CAA-CD36662ED450}">
       <formula1>"Done,Inprogress "</formula1>
     </dataValidation>
     <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3 B12" xr:uid="{22474DAD-5ABA-4447-B2F6-2025840C9401}">
       <formula1>B4</formula1>
       <formula2>B10</formula2>
-    </dataValidation>
-    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B30 B39 B48" xr:uid="{41D4505D-1A87-429A-ABAB-79ABBDCBFCB1}">
-      <formula1>#REF!</formula1>
-      <formula2>B35</formula2>
     </dataValidation>
     <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B21" xr:uid="{B68F232B-FC91-4BB4-9C4A-D7FE8146B9F0}">
       <formula1>#REF!</formula1>
@@ -10862,22 +11636,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{744DDA93-81BE-4148-9787-FFABC05BF7AA}">
   <dimension ref="A1:L75"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:I75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="30.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>65</v>
       </c>
@@ -10890,20 +11664,20 @@
       <c r="H1" s="21"/>
       <c r="I1" s="22"/>
     </row>
-    <row r="2" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="80" t="s">
+    <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="114" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="82"/>
-      <c r="I2" s="83"/>
-    </row>
-    <row r="3" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="115"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="116"/>
+      <c r="G2" s="116"/>
+      <c r="H2" s="116"/>
+      <c r="I2" s="117"/>
+    </row>
+    <row r="3" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="24" t="s">
         <v>1</v>
       </c>
@@ -10932,7 +11706,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
         <v>1</v>
       </c>
@@ -10957,7 +11731,7 @@
       </c>
       <c r="I4" s="15"/>
     </row>
-    <row r="5" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
         <v>1</v>
       </c>
@@ -10985,7 +11759,7 @@
       <c r="I5" s="15"/>
       <c r="L5" s="77"/>
     </row>
-    <row r="6" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -11012,7 +11786,7 @@
       </c>
       <c r="I6" s="3"/>
     </row>
-    <row r="7" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -11039,7 +11813,7 @@
       </c>
       <c r="I7" s="3"/>
     </row>
-    <row r="8" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1</v>
       </c>
@@ -11064,7 +11838,7 @@
       </c>
       <c r="I8" s="3"/>
     </row>
-    <row r="9" spans="1:12" ht="45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>1</v>
       </c>
@@ -11093,7 +11867,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="9"/>
       <c r="B10" s="11"/>
       <c r="C10" s="9"/>
@@ -11104,30 +11878,30 @@
       <c r="H10" s="14"/>
       <c r="I10" s="5"/>
     </row>
-    <row r="11" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="67" t="s">
         <v>15</v>
       </c>
       <c r="B11" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="85">
+      <c r="C11" s="119">
         <f>SUM(F4:F10)</f>
         <v>27</v>
       </c>
-      <c r="D11" s="85"/>
-      <c r="E11" s="85"/>
-      <c r="F11" s="86"/>
+      <c r="D11" s="119"/>
+      <c r="E11" s="119"/>
+      <c r="F11" s="120"/>
       <c r="G11" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="85">
+      <c r="H11" s="119">
         <f>SUM(G4:G10)</f>
         <v>30</v>
       </c>
-      <c r="I11" s="86"/>
-    </row>
-    <row r="12" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I11" s="120"/>
+    </row>
+    <row r="12" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
         <v>2</v>
       </c>
@@ -11154,7 +11928,7 @@
       </c>
       <c r="I12" s="15"/>
     </row>
-    <row r="13" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="10">
         <v>2</v>
       </c>
@@ -11181,7 +11955,7 @@
       </c>
       <c r="I13" s="15"/>
     </row>
-    <row r="14" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
         <v>2</v>
       </c>
@@ -11206,7 +11980,7 @@
       </c>
       <c r="I14" s="3"/>
     </row>
-    <row r="15" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="10">
         <v>2</v>
       </c>
@@ -11233,7 +12007,7 @@
       </c>
       <c r="I15" s="3"/>
     </row>
-    <row r="16" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="10">
         <v>2</v>
       </c>
@@ -11260,7 +12034,7 @@
       </c>
       <c r="I16" s="3"/>
     </row>
-    <row r="17" spans="1:9" ht="30" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="10">
         <v>2</v>
       </c>
@@ -11289,7 +12063,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="9"/>
       <c r="B18" s="11"/>
       <c r="C18" s="9"/>
@@ -11300,30 +12074,30 @@
       <c r="H18" s="14"/>
       <c r="I18" s="5"/>
     </row>
-    <row r="19" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="67" t="s">
         <v>15</v>
       </c>
       <c r="B19" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="85">
+      <c r="C19" s="119">
         <f>SUM(F12:F18)</f>
         <v>29</v>
       </c>
-      <c r="D19" s="85"/>
-      <c r="E19" s="85"/>
-      <c r="F19" s="86"/>
+      <c r="D19" s="119"/>
+      <c r="E19" s="119"/>
+      <c r="F19" s="120"/>
       <c r="G19" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H19" s="85">
+      <c r="H19" s="119">
         <f>SUM(G12:G18)</f>
         <v>30</v>
       </c>
-      <c r="I19" s="86"/>
-    </row>
-    <row r="20" spans="1:9" ht="45.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I19" s="120"/>
+    </row>
+    <row r="20" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="10">
         <v>3</v>
       </c>
@@ -11350,7 +12124,7 @@
       </c>
       <c r="I20" s="15"/>
     </row>
-    <row r="21" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="10">
         <v>3</v>
       </c>
@@ -11375,7 +12149,7 @@
       </c>
       <c r="I21" s="15"/>
     </row>
-    <row r="22" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="10">
         <v>3</v>
       </c>
@@ -11400,7 +12174,7 @@
       </c>
       <c r="I22" s="3"/>
     </row>
-    <row r="23" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="10">
         <v>3</v>
       </c>
@@ -11429,7 +12203,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="10">
         <v>3</v>
       </c>
@@ -11456,7 +12230,7 @@
       </c>
       <c r="I24" s="3"/>
     </row>
-    <row r="25" spans="1:9" ht="45" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A25" s="10">
         <v>3</v>
       </c>
@@ -11485,7 +12259,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="9"/>
       <c r="B26" s="11"/>
       <c r="C26" s="9"/>
@@ -11496,30 +12270,30 @@
       <c r="H26" s="14"/>
       <c r="I26" s="5"/>
     </row>
-    <row r="27" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="67" t="s">
         <v>15</v>
       </c>
       <c r="B27" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C27" s="85">
+      <c r="C27" s="119">
         <f>SUM(F20:F26)</f>
         <v>29.5</v>
       </c>
-      <c r="D27" s="85"/>
-      <c r="E27" s="85"/>
-      <c r="F27" s="86"/>
+      <c r="D27" s="119"/>
+      <c r="E27" s="119"/>
+      <c r="F27" s="120"/>
       <c r="G27" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H27" s="85">
+      <c r="H27" s="119">
         <f>SUM(G20:G26)</f>
         <v>35</v>
       </c>
-      <c r="I27" s="86"/>
-    </row>
-    <row r="28" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I27" s="120"/>
+    </row>
+    <row r="28" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="10">
         <v>4</v>
       </c>
@@ -11548,7 +12322,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="10">
         <v>4</v>
       </c>
@@ -11577,7 +12351,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="10">
         <v>4</v>
       </c>
@@ -11602,7 +12376,7 @@
       </c>
       <c r="I30" s="3"/>
     </row>
-    <row r="31" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="10">
         <v>4</v>
       </c>
@@ -11629,7 +12403,7 @@
       </c>
       <c r="I31" s="3"/>
     </row>
-    <row r="32" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="10">
         <v>4</v>
       </c>
@@ -11654,7 +12428,7 @@
       </c>
       <c r="I32" s="3"/>
     </row>
-    <row r="33" spans="1:9" ht="30" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="10">
         <v>4</v>
       </c>
@@ -11683,7 +12457,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="9"/>
       <c r="B34" s="11"/>
       <c r="C34" s="9"/>
@@ -11694,30 +12468,30 @@
       <c r="H34" s="14"/>
       <c r="I34" s="5"/>
     </row>
-    <row r="35" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="67" t="s">
         <v>15</v>
       </c>
       <c r="B35" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C35" s="85">
+      <c r="C35" s="119">
         <f>SUM(F28:F34)</f>
         <v>31.5</v>
       </c>
-      <c r="D35" s="85"/>
-      <c r="E35" s="85"/>
-      <c r="F35" s="86"/>
+      <c r="D35" s="119"/>
+      <c r="E35" s="119"/>
+      <c r="F35" s="120"/>
       <c r="G35" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H35" s="85">
+      <c r="H35" s="119">
         <f>SUM(G28:G34)</f>
         <v>35</v>
       </c>
-      <c r="I35" s="86"/>
-    </row>
-    <row r="36" spans="1:9" ht="45.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I35" s="120"/>
+    </row>
+    <row r="36" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="10">
         <v>5</v>
       </c>
@@ -11744,7 +12518,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="10">
         <v>5</v>
       </c>
@@ -11767,7 +12541,7 @@
       </c>
       <c r="I37" s="15"/>
     </row>
-    <row r="38" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="10">
         <v>5</v>
       </c>
@@ -11792,7 +12566,7 @@
       </c>
       <c r="I38" s="3"/>
     </row>
-    <row r="39" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="10">
         <v>5</v>
       </c>
@@ -11817,7 +12591,7 @@
       </c>
       <c r="I39" s="3"/>
     </row>
-    <row r="40" spans="1:9" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="10">
         <v>5</v>
       </c>
@@ -11842,7 +12616,7 @@
       </c>
       <c r="I40" s="3"/>
     </row>
-    <row r="41" spans="1:9" ht="45" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A41" s="10">
         <v>5</v>
       </c>
@@ -11867,7 +12641,7 @@
       </c>
       <c r="I41" s="3"/>
     </row>
-    <row r="42" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="9"/>
       <c r="B42" s="11"/>
       <c r="C42" s="9"/>
@@ -11878,30 +12652,30 @@
       <c r="H42" s="14"/>
       <c r="I42" s="5"/>
     </row>
-    <row r="43" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="67" t="s">
         <v>15</v>
       </c>
       <c r="B43" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C43" s="85">
+      <c r="C43" s="119">
         <f>SUM(F36:F42)</f>
         <v>30.5</v>
       </c>
-      <c r="D43" s="85"/>
-      <c r="E43" s="85"/>
-      <c r="F43" s="86"/>
+      <c r="D43" s="119"/>
+      <c r="E43" s="119"/>
+      <c r="F43" s="120"/>
       <c r="G43" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H43" s="85">
+      <c r="H43" s="119">
         <f>SUM(G36:G42)</f>
         <v>0</v>
       </c>
-      <c r="I43" s="86"/>
-    </row>
-    <row r="44" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I43" s="120"/>
+    </row>
+    <row r="44" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="10">
         <v>6</v>
       </c>
@@ -11924,7 +12698,7 @@
       </c>
       <c r="I44" s="15"/>
     </row>
-    <row r="45" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="10">
         <v>6</v>
       </c>
@@ -11947,7 +12721,7 @@
       </c>
       <c r="I45" s="15"/>
     </row>
-    <row r="46" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="10">
         <v>6</v>
       </c>
@@ -11970,7 +12744,7 @@
       </c>
       <c r="I46" s="3"/>
     </row>
-    <row r="47" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="10">
         <v>6</v>
       </c>
@@ -11993,7 +12767,7 @@
       </c>
       <c r="I47" s="3"/>
     </row>
-    <row r="48" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="10">
         <v>6</v>
       </c>
@@ -12018,7 +12792,7 @@
       </c>
       <c r="I48" s="3"/>
     </row>
-    <row r="49" spans="1:9" ht="45" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A49" s="10">
         <v>6</v>
       </c>
@@ -12043,7 +12817,7 @@
       </c>
       <c r="I49" s="3"/>
     </row>
-    <row r="50" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="9"/>
       <c r="B50" s="11"/>
       <c r="C50" s="9"/>
@@ -12054,30 +12828,30 @@
       <c r="H50" s="14"/>
       <c r="I50" s="5"/>
     </row>
-    <row r="51" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="67" t="s">
         <v>15</v>
       </c>
       <c r="B51" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C51" s="85">
+      <c r="C51" s="119">
         <f>SUM(F44:F50)</f>
         <v>30.5</v>
       </c>
-      <c r="D51" s="85"/>
-      <c r="E51" s="85"/>
-      <c r="F51" s="86"/>
+      <c r="D51" s="119"/>
+      <c r="E51" s="119"/>
+      <c r="F51" s="120"/>
       <c r="G51" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H51" s="85">
+      <c r="H51" s="119">
         <f>SUM(G44:G50)</f>
         <v>0</v>
       </c>
-      <c r="I51" s="86"/>
-    </row>
-    <row r="52" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I51" s="120"/>
+    </row>
+    <row r="52" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="10">
         <v>7</v>
       </c>
@@ -12102,7 +12876,7 @@
       </c>
       <c r="I52" s="15"/>
     </row>
-    <row r="53" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="10">
         <v>7</v>
       </c>
@@ -12125,7 +12899,7 @@
       </c>
       <c r="I53" s="15"/>
     </row>
-    <row r="54" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="10">
         <v>7</v>
       </c>
@@ -12150,7 +12924,7 @@
       </c>
       <c r="I54" s="3"/>
     </row>
-    <row r="55" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="10">
         <v>7</v>
       </c>
@@ -12175,7 +12949,7 @@
       </c>
       <c r="I55" s="3"/>
     </row>
-    <row r="56" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="10">
         <v>7</v>
       </c>
@@ -12200,7 +12974,7 @@
       </c>
       <c r="I56" s="3"/>
     </row>
-    <row r="57" spans="1:9" ht="45" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A57" s="10">
         <v>7</v>
       </c>
@@ -12225,7 +12999,7 @@
       </c>
       <c r="I57" s="3"/>
     </row>
-    <row r="58" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="9"/>
       <c r="B58" s="11"/>
       <c r="C58" s="9"/>
@@ -12236,30 +13010,30 @@
       <c r="H58" s="14"/>
       <c r="I58" s="5"/>
     </row>
-    <row r="59" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="67" t="s">
         <v>15</v>
       </c>
       <c r="B59" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C59" s="85">
+      <c r="C59" s="119">
         <f>SUM(F52:F58)</f>
         <v>32.5</v>
       </c>
-      <c r="D59" s="85"/>
-      <c r="E59" s="85"/>
-      <c r="F59" s="86"/>
+      <c r="D59" s="119"/>
+      <c r="E59" s="119"/>
+      <c r="F59" s="120"/>
       <c r="G59" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H59" s="85">
+      <c r="H59" s="119">
         <f>SUM(G52:G58)</f>
         <v>0</v>
       </c>
-      <c r="I59" s="86"/>
-    </row>
-    <row r="60" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I59" s="120"/>
+    </row>
+    <row r="60" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="10">
         <v>8</v>
       </c>
@@ -12284,7 +13058,7 @@
       </c>
       <c r="I60" s="15"/>
     </row>
-    <row r="61" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="10">
         <v>8</v>
       </c>
@@ -12307,7 +13081,7 @@
       </c>
       <c r="I61" s="15"/>
     </row>
-    <row r="62" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="10">
         <v>8</v>
       </c>
@@ -12332,7 +13106,7 @@
       </c>
       <c r="I62" s="3"/>
     </row>
-    <row r="63" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="10">
         <v>8</v>
       </c>
@@ -12357,7 +13131,7 @@
       </c>
       <c r="I63" s="3"/>
     </row>
-    <row r="64" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="10">
         <v>8</v>
       </c>
@@ -12382,7 +13156,7 @@
       </c>
       <c r="I64" s="3"/>
     </row>
-    <row r="65" spans="1:9" ht="60" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A65" s="10">
         <v>8</v>
       </c>
@@ -12407,7 +13181,7 @@
       </c>
       <c r="I65" s="3"/>
     </row>
-    <row r="66" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="76">
         <v>8</v>
       </c>
@@ -12420,30 +13194,30 @@
       <c r="H66" s="14"/>
       <c r="I66" s="5"/>
     </row>
-    <row r="67" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="67">
         <v>8</v>
       </c>
       <c r="B67" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C67" s="85">
+      <c r="C67" s="119">
         <f>SUM(F60:F66)</f>
         <v>31.5</v>
       </c>
-      <c r="D67" s="85"/>
-      <c r="E67" s="85"/>
-      <c r="F67" s="86"/>
+      <c r="D67" s="119"/>
+      <c r="E67" s="119"/>
+      <c r="F67" s="120"/>
       <c r="G67" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H67" s="85">
+      <c r="H67" s="119">
         <f>SUM(G60:G66)</f>
         <v>0</v>
       </c>
-      <c r="I67" s="86"/>
-    </row>
-    <row r="68" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I67" s="120"/>
+    </row>
+    <row r="68" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="10">
         <v>9</v>
       </c>
@@ -12468,7 +13242,7 @@
       </c>
       <c r="I68" s="15"/>
     </row>
-    <row r="69" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="10">
         <v>9</v>
       </c>
@@ -12491,7 +13265,7 @@
       </c>
       <c r="I69" s="15"/>
     </row>
-    <row r="70" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="10">
         <v>9</v>
       </c>
@@ -12516,7 +13290,7 @@
       </c>
       <c r="I70" s="3"/>
     </row>
-    <row r="71" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="10">
         <v>9</v>
       </c>
@@ -12541,7 +13315,7 @@
       </c>
       <c r="I71" s="3"/>
     </row>
-    <row r="72" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="10">
         <v>9</v>
       </c>
@@ -12566,7 +13340,7 @@
       </c>
       <c r="I72" s="3"/>
     </row>
-    <row r="73" spans="1:9" ht="60" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A73" s="10">
         <v>9</v>
       </c>
@@ -12591,7 +13365,7 @@
       </c>
       <c r="I73" s="3"/>
     </row>
-    <row r="74" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="76">
         <v>9</v>
       </c>
@@ -12604,28 +13378,28 @@
       <c r="H74" s="14"/>
       <c r="I74" s="5"/>
     </row>
-    <row r="75" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="67">
         <v>9</v>
       </c>
       <c r="B75" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C75" s="85">
+      <c r="C75" s="119">
         <f>SUM(F68:F74)</f>
         <v>31.5</v>
       </c>
-      <c r="D75" s="85"/>
-      <c r="E75" s="85"/>
-      <c r="F75" s="86"/>
+      <c r="D75" s="119"/>
+      <c r="E75" s="119"/>
+      <c r="F75" s="120"/>
       <c r="G75" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H75" s="85">
+      <c r="H75" s="119">
         <f>SUM(G68:G74)</f>
         <v>0</v>
       </c>
-      <c r="I75" s="86"/>
+      <c r="I75" s="120"/>
     </row>
   </sheetData>
   <mergeCells count="19">

--- a/Improgress/4. Timelog/PM_TimeLog.xlsx
+++ b/Improgress/4. Timelog/PM_TimeLog.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11208"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Capstone-Project\Improgress\4. Timelog\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/Capstone-Project/Improgress/4. Timelog/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A51270F-E730-4ADE-81DE-D0E51D9C9EAB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B68E0C5-D459-384F-9432-E3C9A1FA33A0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="7" r:id="rId1"/>
@@ -25,12 +25,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -39,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1327" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1433" uniqueCount="228">
   <si>
     <t>Work in period</t>
   </si>
@@ -670,13 +664,86 @@
     <t>RE_TracebilityMetrix_Ver.xlsx</t>
   </si>
   <si>
-    <t>Install React native</t>
-  </si>
-  <si>
     <t>Create Risk Management Plan</t>
   </si>
   <si>
     <t>Create Quality Management Plan</t>
+  </si>
+  <si>
+    <t>Create Measurement Plan</t>
+  </si>
+  <si>
+    <t>Update Measurement Plan</t>
+  </si>
+  <si>
+    <t>Create Chage Management Plan</t>
+  </si>
+  <si>
+    <t>Update Chage Management Plan</t>
+  </si>
+  <si>
+    <t>Update Software Architecture Document</t>
+  </si>
+  <si>
+    <t>Research</t>
+  </si>
+  <si>
+    <t>Update Risk Management Plan</t>
+  </si>
+  <si>
+    <t>Update Quality Management Plan</t>
+  </si>
+  <si>
+    <t>Install with React Native Development</t>
+  </si>
+  <si>
+    <t>Install the android virtual machine</t>
+  </si>
+  <si>
+    <t>React Native application design process</t>
+  </si>
+  <si>
+    <t>Instructions to build applications on Android + iPhone devices</t>
+  </si>
+  <si>
+    <t>Component In React Native
+1. Understand the sequence of a Component's operation
+2. Text Component</t>
+  </si>
+  <si>
+    <t>Component In React Native (p1)
+4. View Component</t>
+  </si>
+  <si>
+    <t>Component In React Native (p1)
+3. Image Component</t>
+  </si>
+  <si>
+    <t>React Navigation</t>
+  </si>
+  <si>
+    <t>Component nested Component</t>
+  </si>
+  <si>
+    <t>Export Component
+Pass parameters to Component</t>
+  </si>
+  <si>
+    <t>Debug with JavaScript
+Debug with React Native</t>
+  </si>
+  <si>
+    <t>Debug with Beyond Javascript</t>
+  </si>
+  <si>
+    <t>Publish Applications to AppStore</t>
+  </si>
+  <si>
+    <t>Publish Applications to Google Store</t>
+  </si>
+  <si>
+    <t>1. Realtime Database
+2. Authentication</t>
   </si>
 </sst>
 </file>
@@ -688,7 +755,7 @@
     <numFmt numFmtId="165" formatCode="[$-1010000]d/m/yyyy;@"/>
     <numFmt numFmtId="166" formatCode="mm/dd/yyyy;@"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -753,6 +820,23 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="163"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="163"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="163"/>
@@ -1208,7 +1292,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="127">
+  <cellXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1484,18 +1568,6 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1507,9 +1579,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1556,19 +1625,31 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
     <cellStyle name="Accent6" xfId="1" builtinId="49"/>
-    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
-    <cellStyle name="Siêu kết nối" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Siêu kết nối" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Siêu kết nối" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Siêu kết nối" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Siêu kết nối đã Bấm vào" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Siêu kết nối đã Bấm vào" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Siêu kết nối đã Bấm vào" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Siêu kết nối đã Bấm vào" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1586,7 +1667,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="vi-VN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3618,16 +3699,16 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" style="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.33203125" style="12" bestFit="1" customWidth="1"/>
     <col min="2" max="10" width="9" style="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="38" width="10.28515625" style="12" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="6.7109375" style="12" bestFit="1" customWidth="1"/>
-    <col min="40" max="16384" width="8.85546875" style="12"/>
+    <col min="11" max="38" width="10.33203125" style="12" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="6.6640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="40" max="16384" width="8.83203125" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:39" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="28" t="s">
         <v>5</v>
       </c>
@@ -3746,7 +3827,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:39" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>66</v>
       </c>
@@ -3801,7 +3882,7 @@
         <v>61.5</v>
       </c>
     </row>
-    <row r="3" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:39" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="37" t="s">
         <v>108</v>
       </c>
@@ -3853,7 +3934,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:39" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="32" t="s">
         <v>109</v>
       </c>
@@ -3905,16 +3986,16 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:39" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="37" t="s">
         <v>110</v>
       </c>
       <c r="B5" s="36">
-        <f>'Anh Minh'!C11</f>
+        <f>'Anh Minh'!C10</f>
         <v>24</v>
       </c>
       <c r="C5" s="36">
-        <f>'Anh Minh'!C20</f>
+        <f>'Anh Minh'!C18</f>
         <v>27</v>
       </c>
       <c r="D5" s="36"/>
@@ -3957,7 +4038,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:39" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="41" t="s">
         <v>111</v>
       </c>
@@ -4009,7 +4090,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="7" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:39" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="12" t="e">
         <f>SUM(B2:B6)</f>
         <v>#REF!</v>
@@ -4159,7 +4240,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="8" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:39" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="45" t="s">
         <v>23</v>
       </c>
@@ -4278,7 +4359,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:39" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="32" t="s">
         <v>66</v>
       </c>
@@ -4333,7 +4414,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="10" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:39" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="37" t="s">
         <v>108</v>
       </c>
@@ -4385,7 +4466,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:39" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="32" t="s">
         <v>109</v>
       </c>
@@ -4437,16 +4518,16 @@
         <v>49.5</v>
       </c>
     </row>
-    <row r="12" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:39" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="37" t="s">
         <v>110</v>
       </c>
       <c r="B12" s="36">
-        <f>'Anh Minh'!H11</f>
+        <f>'Anh Minh'!H10</f>
         <v>28</v>
       </c>
       <c r="C12" s="36">
-        <f>'Anh Minh'!H20</f>
+        <f>'Anh Minh'!H18</f>
         <v>30</v>
       </c>
       <c r="D12" s="37"/>
@@ -4489,7 +4570,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:39" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="41" t="s">
         <v>111</v>
       </c>
@@ -4706,21 +4787,21 @@
       <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.85546875" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="42.7109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.1640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.83203125" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.6640625" style="12" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="12" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" style="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.85546875" style="12"/>
-    <col min="8" max="8" width="12.140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="49.28515625" style="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.85546875" style="12"/>
+    <col min="7" max="7" width="8.83203125" style="12"/>
+    <col min="8" max="8" width="12.1640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="49.33203125" style="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.83203125" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>65</v>
       </c>
@@ -4735,20 +4816,20 @@
       <c r="H1" s="21"/>
       <c r="I1" s="22"/>
     </row>
-    <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="114" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="109" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="115"/>
-      <c r="C2" s="116"/>
-      <c r="D2" s="116"/>
-      <c r="E2" s="116"/>
-      <c r="F2" s="116"/>
-      <c r="G2" s="116"/>
-      <c r="H2" s="116"/>
-      <c r="I2" s="117"/>
-    </row>
-    <row r="3" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="110"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="112"/>
+    </row>
+    <row r="3" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
         <v>1</v>
       </c>
@@ -4777,7 +4858,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="10">
         <v>1</v>
       </c>
@@ -4802,7 +4883,7 @@
       </c>
       <c r="I4" s="80"/>
     </row>
-    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="10">
         <v>1</v>
       </c>
@@ -4829,7 +4910,7 @@
       </c>
       <c r="I5" s="80"/>
     </row>
-    <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -4856,7 +4937,7 @@
       </c>
       <c r="I6" s="81"/>
     </row>
-    <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -4883,7 +4964,7 @@
       </c>
       <c r="I7" s="81"/>
     </row>
-    <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>1</v>
       </c>
@@ -4908,7 +4989,7 @@
       </c>
       <c r="I8" s="81"/>
     </row>
-    <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>1</v>
       </c>
@@ -4937,7 +5018,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9"/>
       <c r="B10" s="11"/>
       <c r="C10" s="9"/>
@@ -4948,30 +5029,30 @@
       <c r="H10" s="14"/>
       <c r="I10" s="5"/>
     </row>
-    <row r="11" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="67" t="s">
         <v>15</v>
       </c>
       <c r="B11" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="112">
+      <c r="C11" s="107">
         <f>SUM(F4:F10)</f>
         <v>30</v>
       </c>
-      <c r="D11" s="112"/>
-      <c r="E11" s="112"/>
-      <c r="F11" s="113"/>
+      <c r="D11" s="107"/>
+      <c r="E11" s="107"/>
+      <c r="F11" s="108"/>
       <c r="G11" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="112">
+      <c r="H11" s="107">
         <f>SUM(G4:G10)</f>
         <v>30</v>
       </c>
-      <c r="I11" s="113"/>
-    </row>
-    <row r="12" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I11" s="108"/>
+    </row>
+    <row r="12" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="24" t="s">
         <v>1</v>
       </c>
@@ -5000,7 +5081,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="10">
         <v>2</v>
       </c>
@@ -5027,7 +5108,7 @@
       </c>
       <c r="I13" s="15"/>
     </row>
-    <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="10">
         <v>2</v>
       </c>
@@ -5056,7 +5137,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="10">
         <v>2</v>
       </c>
@@ -5081,7 +5162,7 @@
       </c>
       <c r="I15" s="3"/>
     </row>
-    <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="10">
         <v>2</v>
       </c>
@@ -5108,7 +5189,7 @@
       </c>
       <c r="I16" s="3"/>
     </row>
-    <row r="17" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="10">
         <v>2</v>
       </c>
@@ -5135,7 +5216,7 @@
       </c>
       <c r="I17" s="3"/>
     </row>
-    <row r="18" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="10">
         <v>2</v>
       </c>
@@ -5162,7 +5243,7 @@
       </c>
       <c r="I18" s="3"/>
     </row>
-    <row r="19" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9"/>
       <c r="B19" s="11"/>
       <c r="C19" s="9"/>
@@ -5173,30 +5254,30 @@
       <c r="H19" s="14"/>
       <c r="I19" s="5"/>
     </row>
-    <row r="20" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="67" t="s">
         <v>15</v>
       </c>
       <c r="B20" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="112">
+      <c r="C20" s="107">
         <f>SUM(F13:F19)</f>
         <v>31.5</v>
       </c>
-      <c r="D20" s="112"/>
-      <c r="E20" s="112"/>
-      <c r="F20" s="113"/>
+      <c r="D20" s="107"/>
+      <c r="E20" s="107"/>
+      <c r="F20" s="108"/>
       <c r="G20" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H20" s="112">
+      <c r="H20" s="107">
         <f>SUM(G13:G19)</f>
         <v>34</v>
       </c>
-      <c r="I20" s="113"/>
-    </row>
-    <row r="21" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I20" s="108"/>
+    </row>
+    <row r="21" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="24" t="s">
         <v>1</v>
       </c>
@@ -5225,7 +5306,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="10">
         <v>3</v>
       </c>
@@ -5252,7 +5333,7 @@
       </c>
       <c r="I22" s="82"/>
     </row>
-    <row r="23" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="10">
         <v>3</v>
       </c>
@@ -5281,7 +5362,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="10">
         <v>3</v>
       </c>
@@ -5306,7 +5387,7 @@
       </c>
       <c r="I24" s="82"/>
     </row>
-    <row r="25" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="10">
         <v>3</v>
       </c>
@@ -5330,7 +5411,7 @@
       </c>
       <c r="I25" s="83"/>
     </row>
-    <row r="26" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="10">
         <v>3</v>
       </c>
@@ -5357,7 +5438,7 @@
       </c>
       <c r="I26" s="83"/>
     </row>
-    <row r="27" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="10">
         <v>3</v>
       </c>
@@ -5384,7 +5465,7 @@
       </c>
       <c r="I27" s="83"/>
     </row>
-    <row r="28" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="10">
         <v>3</v>
       </c>
@@ -5413,7 +5494,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="9"/>
       <c r="C29" s="9"/>
       <c r="E29" s="16"/>
@@ -5422,30 +5503,30 @@
       <c r="H29" s="14"/>
       <c r="I29" s="84"/>
     </row>
-    <row r="30" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="67" t="s">
         <v>15</v>
       </c>
       <c r="B30" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C30" s="112">
+      <c r="C30" s="107">
         <f>SUM(F22:F29)</f>
         <v>36.5</v>
       </c>
-      <c r="D30" s="112"/>
-      <c r="E30" s="112"/>
-      <c r="F30" s="113"/>
+      <c r="D30" s="107"/>
+      <c r="E30" s="107"/>
+      <c r="F30" s="108"/>
       <c r="G30" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H30" s="112">
+      <c r="H30" s="107">
         <f>SUM(G22:G29)</f>
         <v>38</v>
       </c>
-      <c r="I30" s="113"/>
-    </row>
-    <row r="31" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I30" s="108"/>
+    </row>
+    <row r="31" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="24" t="s">
         <v>1</v>
       </c>
@@ -5474,7 +5555,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="10">
         <v>4</v>
       </c>
@@ -5501,7 +5582,7 @@
       </c>
       <c r="I32" s="15"/>
     </row>
-    <row r="33" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="10">
         <v>4</v>
       </c>
@@ -5530,7 +5611,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="10">
         <v>4</v>
       </c>
@@ -5555,7 +5636,7 @@
       </c>
       <c r="I34" s="3"/>
     </row>
-    <row r="35" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="10">
         <v>4</v>
       </c>
@@ -5582,7 +5663,7 @@
       </c>
       <c r="I35" s="3"/>
     </row>
-    <row r="36" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="10">
         <v>4</v>
       </c>
@@ -5607,7 +5688,7 @@
       </c>
       <c r="I36" s="3"/>
     </row>
-    <row r="37" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="10">
         <v>4</v>
       </c>
@@ -5636,7 +5717,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="10">
         <v>4</v>
       </c>
@@ -5663,7 +5744,7 @@
       </c>
       <c r="I38" s="3"/>
     </row>
-    <row r="39" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="9"/>
       <c r="C39" s="9"/>
       <c r="D39" s="4"/>
@@ -5673,30 +5754,30 @@
       <c r="H39" s="14"/>
       <c r="I39" s="5"/>
     </row>
-    <row r="40" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="67" t="s">
         <v>15</v>
       </c>
       <c r="B40" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C40" s="112">
+      <c r="C40" s="107">
         <f>SUM(F32:F39)</f>
         <v>36.5</v>
       </c>
-      <c r="D40" s="112"/>
-      <c r="E40" s="112"/>
-      <c r="F40" s="113"/>
+      <c r="D40" s="107"/>
+      <c r="E40" s="107"/>
+      <c r="F40" s="108"/>
       <c r="G40" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H40" s="112">
+      <c r="H40" s="107">
         <f>SUM(G32:G39)</f>
         <v>38</v>
       </c>
-      <c r="I40" s="113"/>
-    </row>
-    <row r="41" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I40" s="108"/>
+    </row>
+    <row r="41" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="24" t="s">
         <v>1</v>
       </c>
@@ -5725,7 +5806,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="10">
         <v>5</v>
       </c>
@@ -5752,7 +5833,7 @@
       </c>
       <c r="I42" s="78"/>
     </row>
-    <row r="43" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="10">
         <v>5</v>
       </c>
@@ -5777,7 +5858,7 @@
       </c>
       <c r="I43" s="78"/>
     </row>
-    <row r="44" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="10">
         <v>5</v>
       </c>
@@ -5804,7 +5885,7 @@
       </c>
       <c r="I44" s="79"/>
     </row>
-    <row r="45" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="10">
         <v>5</v>
       </c>
@@ -5831,7 +5912,7 @@
       </c>
       <c r="I45" s="79"/>
     </row>
-    <row r="46" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="10">
         <v>5</v>
       </c>
@@ -5858,7 +5939,7 @@
       </c>
       <c r="I46" s="79"/>
     </row>
-    <row r="47" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="10">
         <v>5</v>
       </c>
@@ -5885,7 +5966,7 @@
       </c>
       <c r="I47" s="79"/>
     </row>
-    <row r="48" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" s="76">
         <v>5</v>
       </c>
@@ -5912,7 +5993,7 @@
       </c>
       <c r="I48" s="86"/>
     </row>
-    <row r="49" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="9"/>
       <c r="C49" s="9"/>
       <c r="D49" s="4"/>
@@ -5922,30 +6003,30 @@
       <c r="H49" s="14"/>
       <c r="I49" s="86"/>
     </row>
-    <row r="50" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="67" t="s">
         <v>15</v>
       </c>
       <c r="B50" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C50" s="112">
+      <c r="C50" s="107">
         <f>SUM(F42:F49)</f>
         <v>35</v>
       </c>
-      <c r="D50" s="112"/>
-      <c r="E50" s="112"/>
-      <c r="F50" s="113"/>
+      <c r="D50" s="107"/>
+      <c r="E50" s="107"/>
+      <c r="F50" s="108"/>
       <c r="G50" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H50" s="112">
+      <c r="H50" s="107">
         <f>SUM(G42:G49)</f>
         <v>35</v>
       </c>
-      <c r="I50" s="113"/>
-    </row>
-    <row r="51" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I50" s="108"/>
+    </row>
+    <row r="51" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="24" t="s">
         <v>1</v>
       </c>
@@ -5974,7 +6055,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="10">
         <v>6</v>
       </c>
@@ -6003,7 +6084,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" s="10">
         <v>6</v>
       </c>
@@ -6028,7 +6109,7 @@
       </c>
       <c r="I53" s="78"/>
     </row>
-    <row r="54" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="10">
         <v>6</v>
       </c>
@@ -6057,7 +6138,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A55" s="10">
         <v>6</v>
       </c>
@@ -6084,7 +6165,7 @@
       </c>
       <c r="I55" s="79"/>
     </row>
-    <row r="56" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A56" s="10">
         <v>6</v>
       </c>
@@ -6113,7 +6194,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" s="10">
         <v>6</v>
       </c>
@@ -6140,7 +6221,7 @@
       </c>
       <c r="I57" s="79"/>
     </row>
-    <row r="58" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A58" s="9"/>
       <c r="C58" s="9"/>
       <c r="D58" s="4"/>
@@ -6150,30 +6231,30 @@
       <c r="H58" s="14"/>
       <c r="I58" s="86"/>
     </row>
-    <row r="59" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A59" s="67" t="s">
         <v>15</v>
       </c>
       <c r="B59" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C59" s="112">
+      <c r="C59" s="107">
         <f>SUM(F52:F58)</f>
         <v>32.5</v>
       </c>
-      <c r="D59" s="112"/>
-      <c r="E59" s="112"/>
-      <c r="F59" s="113"/>
+      <c r="D59" s="107"/>
+      <c r="E59" s="107"/>
+      <c r="F59" s="108"/>
       <c r="G59" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H59" s="112">
+      <c r="H59" s="107">
         <f>SUM(G52:G58)</f>
         <v>34</v>
       </c>
-      <c r="I59" s="113"/>
-    </row>
-    <row r="60" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I59" s="108"/>
+    </row>
+    <row r="60" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A60" s="24" t="s">
         <v>1</v>
       </c>
@@ -6202,7 +6283,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A61" s="10">
         <v>7</v>
       </c>
@@ -6221,7 +6302,7 @@
       <c r="H61" s="14"/>
       <c r="I61" s="15"/>
     </row>
-    <row r="62" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A62" s="10">
         <v>7</v>
       </c>
@@ -6240,7 +6321,7 @@
       <c r="H62" s="14"/>
       <c r="I62" s="15"/>
     </row>
-    <row r="63" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A63" s="10">
         <v>7</v>
       </c>
@@ -6259,7 +6340,7 @@
       <c r="H63" s="14"/>
       <c r="I63" s="3"/>
     </row>
-    <row r="64" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A64" s="10">
         <v>7</v>
       </c>
@@ -6278,7 +6359,7 @@
       <c r="H64" s="14"/>
       <c r="I64" s="3"/>
     </row>
-    <row r="65" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A65" s="10">
         <v>7</v>
       </c>
@@ -6297,7 +6378,7 @@
       <c r="H65" s="14"/>
       <c r="I65" s="3"/>
     </row>
-    <row r="66" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" s="10">
         <v>7</v>
       </c>
@@ -6316,7 +6397,7 @@
       <c r="H66" s="14"/>
       <c r="I66" s="3"/>
     </row>
-    <row r="67" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A67" s="9"/>
       <c r="C67" s="9"/>
       <c r="D67" s="4"/>
@@ -6326,30 +6407,30 @@
       <c r="H67" s="14"/>
       <c r="I67" s="5"/>
     </row>
-    <row r="68" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A68" s="67" t="s">
         <v>15</v>
       </c>
       <c r="B68" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C68" s="112">
+      <c r="C68" s="107">
         <f>SUM(F61:F67)</f>
         <v>0</v>
       </c>
-      <c r="D68" s="112"/>
-      <c r="E68" s="112"/>
-      <c r="F68" s="113"/>
+      <c r="D68" s="107"/>
+      <c r="E68" s="107"/>
+      <c r="F68" s="108"/>
       <c r="G68" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H68" s="112">
+      <c r="H68" s="107">
         <f>SUM(G61:G67)</f>
         <v>36</v>
       </c>
-      <c r="I68" s="113"/>
-    </row>
-    <row r="69" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I68" s="108"/>
+    </row>
+    <row r="69" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A69" s="24" t="s">
         <v>1</v>
       </c>
@@ -6378,7 +6459,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A70" s="10">
         <v>8</v>
       </c>
@@ -6397,7 +6478,7 @@
       <c r="H70" s="14"/>
       <c r="I70" s="15"/>
     </row>
-    <row r="71" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A71" s="10">
         <v>8</v>
       </c>
@@ -6416,7 +6497,7 @@
       <c r="H71" s="14"/>
       <c r="I71" s="15"/>
     </row>
-    <row r="72" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A72" s="10">
         <v>8</v>
       </c>
@@ -6435,7 +6516,7 @@
       <c r="H72" s="14"/>
       <c r="I72" s="3"/>
     </row>
-    <row r="73" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A73" s="10">
         <v>8</v>
       </c>
@@ -6454,7 +6535,7 @@
       <c r="H73" s="14"/>
       <c r="I73" s="3"/>
     </row>
-    <row r="74" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A74" s="10">
         <v>8</v>
       </c>
@@ -6473,7 +6554,7 @@
       <c r="H74" s="14"/>
       <c r="I74" s="3"/>
     </row>
-    <row r="75" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75" s="10">
         <v>8</v>
       </c>
@@ -6492,7 +6573,7 @@
       <c r="H75" s="14"/>
       <c r="I75" s="3"/>
     </row>
-    <row r="76" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A76" s="9"/>
       <c r="C76" s="9"/>
       <c r="D76" s="4"/>
@@ -6502,30 +6583,30 @@
       <c r="H76" s="14"/>
       <c r="I76" s="5"/>
     </row>
-    <row r="77" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A77" s="67" t="s">
         <v>15</v>
       </c>
       <c r="B77" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C77" s="112">
+      <c r="C77" s="107">
         <f>SUM(F70:F76)</f>
         <v>0</v>
       </c>
-      <c r="D77" s="112"/>
-      <c r="E77" s="112"/>
-      <c r="F77" s="113"/>
+      <c r="D77" s="107"/>
+      <c r="E77" s="107"/>
+      <c r="F77" s="108"/>
       <c r="G77" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H77" s="112">
+      <c r="H77" s="107">
         <f>SUM(G70:G76)</f>
         <v>36</v>
       </c>
-      <c r="I77" s="113"/>
-    </row>
-    <row r="78" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I77" s="108"/>
+    </row>
+    <row r="78" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A78" s="24" t="s">
         <v>1</v>
       </c>
@@ -6554,7 +6635,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="79" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A79" s="10">
         <v>9</v>
       </c>
@@ -6573,7 +6654,7 @@
       <c r="H79" s="14"/>
       <c r="I79" s="15"/>
     </row>
-    <row r="80" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A80" s="10">
         <v>9</v>
       </c>
@@ -6592,7 +6673,7 @@
       <c r="H80" s="14"/>
       <c r="I80" s="15"/>
     </row>
-    <row r="81" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A81" s="10">
         <v>9</v>
       </c>
@@ -6611,7 +6692,7 @@
       <c r="H81" s="14"/>
       <c r="I81" s="3"/>
     </row>
-    <row r="82" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A82" s="10">
         <v>9</v>
       </c>
@@ -6630,7 +6711,7 @@
       <c r="H82" s="14"/>
       <c r="I82" s="3"/>
     </row>
-    <row r="83" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A83" s="10">
         <v>9</v>
       </c>
@@ -6649,7 +6730,7 @@
       <c r="H83" s="14"/>
       <c r="I83" s="3"/>
     </row>
-    <row r="84" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84" s="10">
         <v>9</v>
       </c>
@@ -6668,7 +6749,7 @@
       <c r="H84" s="14"/>
       <c r="I84" s="3"/>
     </row>
-    <row r="85" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A85" s="9"/>
       <c r="C85" s="9"/>
       <c r="D85" s="4"/>
@@ -6678,30 +6759,30 @@
       <c r="H85" s="14"/>
       <c r="I85" s="5"/>
     </row>
-    <row r="86" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A86" s="67" t="s">
         <v>15</v>
       </c>
       <c r="B86" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C86" s="112">
+      <c r="C86" s="107">
         <f>SUM(F79:F85)</f>
         <v>0</v>
       </c>
-      <c r="D86" s="112"/>
-      <c r="E86" s="112"/>
-      <c r="F86" s="113"/>
+      <c r="D86" s="107"/>
+      <c r="E86" s="107"/>
+      <c r="F86" s="108"/>
       <c r="G86" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H86" s="112">
+      <c r="H86" s="107">
         <f>SUM(G79:G85)</f>
         <v>36</v>
       </c>
-      <c r="I86" s="113"/>
-    </row>
-    <row r="87" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I86" s="108"/>
+    </row>
+    <row r="87" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A87" s="24" t="s">
         <v>1</v>
       </c>
@@ -6730,7 +6811,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="88" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A88" s="10">
         <v>10</v>
       </c>
@@ -6749,7 +6830,7 @@
       <c r="H88" s="14"/>
       <c r="I88" s="15"/>
     </row>
-    <row r="89" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A89" s="10">
         <v>10</v>
       </c>
@@ -6768,7 +6849,7 @@
       <c r="H89" s="14"/>
       <c r="I89" s="15"/>
     </row>
-    <row r="90" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A90" s="10">
         <v>10</v>
       </c>
@@ -6787,7 +6868,7 @@
       <c r="H90" s="14"/>
       <c r="I90" s="3"/>
     </row>
-    <row r="91" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A91" s="10">
         <v>10</v>
       </c>
@@ -6806,7 +6887,7 @@
       <c r="H91" s="14"/>
       <c r="I91" s="3"/>
     </row>
-    <row r="92" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A92" s="10">
         <v>10</v>
       </c>
@@ -6825,7 +6906,7 @@
       <c r="H92" s="14"/>
       <c r="I92" s="3"/>
     </row>
-    <row r="93" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93" s="10">
         <v>10</v>
       </c>
@@ -6844,7 +6925,7 @@
       <c r="H93" s="14"/>
       <c r="I93" s="3"/>
     </row>
-    <row r="94" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A94" s="9"/>
       <c r="C94" s="9"/>
       <c r="D94" s="4"/>
@@ -6854,37 +6935,37 @@
       <c r="H94" s="14"/>
       <c r="I94" s="5"/>
     </row>
-    <row r="95" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A95" s="67" t="s">
         <v>15</v>
       </c>
       <c r="B95" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C95" s="112">
+      <c r="C95" s="107">
         <f>SUM(F88:F94)</f>
         <v>0</v>
       </c>
-      <c r="D95" s="112"/>
-      <c r="E95" s="112"/>
-      <c r="F95" s="113"/>
+      <c r="D95" s="107"/>
+      <c r="E95" s="107"/>
+      <c r="F95" s="108"/>
       <c r="G95" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H95" s="112">
+      <c r="H95" s="107">
         <f>SUM(G88:G94)</f>
         <v>36</v>
       </c>
-      <c r="I95" s="113"/>
+      <c r="I95" s="108"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="C77:F77"/>
-    <mergeCell ref="H77:I77"/>
-    <mergeCell ref="C86:F86"/>
-    <mergeCell ref="H86:I86"/>
-    <mergeCell ref="C95:F95"/>
-    <mergeCell ref="H95:I95"/>
+    <mergeCell ref="C68:F68"/>
+    <mergeCell ref="H68:I68"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="H20:I20"/>
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="C50:F50"/>
     <mergeCell ref="H50:I50"/>
@@ -6894,12 +6975,12 @@
     <mergeCell ref="H30:I30"/>
     <mergeCell ref="C40:F40"/>
     <mergeCell ref="H40:I40"/>
-    <mergeCell ref="C68:F68"/>
-    <mergeCell ref="H68:I68"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="C77:F77"/>
+    <mergeCell ref="H77:I77"/>
+    <mergeCell ref="C86:F86"/>
+    <mergeCell ref="H86:I86"/>
+    <mergeCell ref="C95:F95"/>
+    <mergeCell ref="H95:I95"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <dataValidations count="7">
@@ -6938,22 +7019,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I74"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A49" workbookViewId="0">
       <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="57.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="49.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="57.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="49.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>65</v>
       </c>
@@ -6968,20 +7049,20 @@
       <c r="H1" s="21"/>
       <c r="I1" s="22"/>
     </row>
-    <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="114" t="s">
+    <row r="2" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="109" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="115"/>
-      <c r="C2" s="116"/>
-      <c r="D2" s="116"/>
-      <c r="E2" s="116"/>
-      <c r="F2" s="116"/>
-      <c r="G2" s="116"/>
-      <c r="H2" s="116"/>
-      <c r="I2" s="117"/>
-    </row>
-    <row r="3" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="110"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="112"/>
+    </row>
+    <row r="3" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
         <v>1</v>
       </c>
@@ -7010,7 +7091,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="10">
         <v>1</v>
       </c>
@@ -7035,7 +7116,7 @@
       </c>
       <c r="I4" s="15"/>
     </row>
-    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="10">
         <v>1</v>
       </c>
@@ -7062,7 +7143,7 @@
       </c>
       <c r="I5" s="15"/>
     </row>
-    <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -7089,7 +7170,7 @@
       </c>
       <c r="I6" s="3"/>
     </row>
-    <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -7116,7 +7197,7 @@
       </c>
       <c r="I7" s="3"/>
     </row>
-    <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>1</v>
       </c>
@@ -7141,7 +7222,7 @@
       </c>
       <c r="I8" s="3"/>
     </row>
-    <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>1</v>
       </c>
@@ -7168,7 +7249,7 @@
       </c>
       <c r="I9" s="3"/>
     </row>
-    <row r="10" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9"/>
       <c r="B10" s="11"/>
       <c r="C10" s="9"/>
@@ -7179,30 +7260,30 @@
       <c r="H10" s="14"/>
       <c r="I10" s="5"/>
     </row>
-    <row r="11" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="67" t="s">
         <v>15</v>
       </c>
       <c r="B11" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="118">
+      <c r="C11" s="113">
         <f>SUM(F4:F10)</f>
         <v>26</v>
       </c>
-      <c r="D11" s="112"/>
-      <c r="E11" s="112"/>
-      <c r="F11" s="113"/>
+      <c r="D11" s="107"/>
+      <c r="E11" s="107"/>
+      <c r="F11" s="108"/>
       <c r="G11" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="112">
+      <c r="H11" s="107">
         <f>SUM(G4:G10)</f>
         <v>26</v>
       </c>
-      <c r="I11" s="113"/>
-    </row>
-    <row r="12" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I11" s="108"/>
+    </row>
+    <row r="12" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="24" t="s">
         <v>1</v>
       </c>
@@ -7231,7 +7312,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="10">
         <v>2</v>
       </c>
@@ -7260,7 +7341,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="10">
         <v>2</v>
       </c>
@@ -7287,7 +7368,7 @@
       </c>
       <c r="I14" s="15"/>
     </row>
-    <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="10">
         <v>2</v>
       </c>
@@ -7312,7 +7393,7 @@
       </c>
       <c r="I15" s="3"/>
     </row>
-    <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="10">
         <v>2</v>
       </c>
@@ -7341,7 +7422,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="10">
         <v>2</v>
       </c>
@@ -7368,7 +7449,7 @@
       </c>
       <c r="I17" s="3"/>
     </row>
-    <row r="18" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="10">
         <v>2</v>
       </c>
@@ -7395,7 +7476,7 @@
       </c>
       <c r="I18" s="3"/>
     </row>
-    <row r="19" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9"/>
       <c r="B19" s="11"/>
       <c r="C19" s="9"/>
@@ -7406,30 +7487,30 @@
       <c r="H19" s="14"/>
       <c r="I19" s="5"/>
     </row>
-    <row r="20" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="67" t="s">
         <v>15</v>
       </c>
       <c r="B20" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="112">
+      <c r="C20" s="107">
         <f>SUM(F13:F19)</f>
         <v>30</v>
       </c>
-      <c r="D20" s="112"/>
-      <c r="E20" s="112"/>
-      <c r="F20" s="113"/>
+      <c r="D20" s="107"/>
+      <c r="E20" s="107"/>
+      <c r="F20" s="108"/>
       <c r="G20" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H20" s="112">
+      <c r="H20" s="107">
         <f>SUM(G13:G19)</f>
         <v>30</v>
       </c>
-      <c r="I20" s="113"/>
-    </row>
-    <row r="21" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I20" s="108"/>
+    </row>
+    <row r="21" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="24" t="s">
         <v>1</v>
       </c>
@@ -7458,7 +7539,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="10">
         <v>3</v>
       </c>
@@ -7485,7 +7566,7 @@
       </c>
       <c r="I22" s="15"/>
     </row>
-    <row r="23" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" ht="35" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="10">
         <v>3</v>
       </c>
@@ -7514,7 +7595,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="10">
         <v>3</v>
       </c>
@@ -7543,7 +7624,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="10">
         <v>3</v>
       </c>
@@ -7570,7 +7651,7 @@
       </c>
       <c r="I25" s="3"/>
     </row>
-    <row r="26" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="10">
         <v>3</v>
       </c>
@@ -7597,7 +7678,7 @@
       </c>
       <c r="I26" s="3"/>
     </row>
-    <row r="27" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="10">
         <v>3</v>
       </c>
@@ -7626,7 +7707,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="9">
         <v>3</v>
       </c>
@@ -7653,30 +7734,30 @@
       </c>
       <c r="I28" s="5"/>
     </row>
-    <row r="29" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="67" t="s">
         <v>15</v>
       </c>
       <c r="B29" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="112">
+      <c r="C29" s="107">
         <f>SUM(F22:F28)</f>
         <v>45</v>
       </c>
-      <c r="D29" s="112"/>
-      <c r="E29" s="112"/>
-      <c r="F29" s="113"/>
+      <c r="D29" s="107"/>
+      <c r="E29" s="107"/>
+      <c r="F29" s="108"/>
       <c r="G29" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H29" s="112">
+      <c r="H29" s="107">
         <f>SUM(G22:G28)</f>
         <v>37</v>
       </c>
-      <c r="I29" s="113"/>
-    </row>
-    <row r="30" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I29" s="108"/>
+    </row>
+    <row r="30" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="24" t="s">
         <v>1</v>
       </c>
@@ -7705,7 +7786,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" ht="52" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="10">
         <v>4</v>
       </c>
@@ -7730,7 +7811,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="10">
         <v>4</v>
       </c>
@@ -7753,7 +7834,7 @@
       <c r="H32" s="14"/>
       <c r="I32" s="15"/>
     </row>
-    <row r="33" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" ht="35" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="10">
         <v>4</v>
       </c>
@@ -7778,7 +7859,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="10">
         <v>4</v>
       </c>
@@ -7803,7 +7884,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="10">
         <v>4</v>
       </c>
@@ -7826,7 +7907,7 @@
       <c r="H35" s="14"/>
       <c r="I35" s="3"/>
     </row>
-    <row r="36" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="10">
         <v>4</v>
       </c>
@@ -7849,7 +7930,7 @@
       <c r="H36" s="14"/>
       <c r="I36" s="3"/>
     </row>
-    <row r="37" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="9"/>
       <c r="B37" s="12"/>
       <c r="C37" s="9"/>
@@ -7862,30 +7943,30 @@
       <c r="H37" s="14"/>
       <c r="I37" s="5"/>
     </row>
-    <row r="38" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="67" t="s">
         <v>15</v>
       </c>
       <c r="B38" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C38" s="112">
+      <c r="C38" s="107">
         <f>SUM(F31:F37)</f>
         <v>38</v>
       </c>
-      <c r="D38" s="112"/>
-      <c r="E38" s="112"/>
-      <c r="F38" s="113"/>
+      <c r="D38" s="107"/>
+      <c r="E38" s="107"/>
+      <c r="F38" s="108"/>
       <c r="G38" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H38" s="112">
+      <c r="H38" s="107">
         <f>SUM(G31:G37)</f>
         <v>0</v>
       </c>
-      <c r="I38" s="113"/>
-    </row>
-    <row r="39" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I38" s="108"/>
+    </row>
+    <row r="39" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="24" t="s">
         <v>1</v>
       </c>
@@ -7914,7 +7995,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="10">
         <v>5</v>
       </c>
@@ -7931,7 +8012,7 @@
       <c r="H40" s="14"/>
       <c r="I40" s="15"/>
     </row>
-    <row r="41" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="10">
         <v>5</v>
       </c>
@@ -7948,7 +8029,7 @@
       <c r="H41" s="14"/>
       <c r="I41" s="15"/>
     </row>
-    <row r="42" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="10">
         <v>5</v>
       </c>
@@ -7965,7 +8046,7 @@
       <c r="H42" s="14"/>
       <c r="I42" s="3"/>
     </row>
-    <row r="43" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="10">
         <v>5</v>
       </c>
@@ -7982,7 +8063,7 @@
       <c r="H43" s="14"/>
       <c r="I43" s="3"/>
     </row>
-    <row r="44" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="10">
         <v>5</v>
       </c>
@@ -7999,7 +8080,7 @@
       <c r="H44" s="14"/>
       <c r="I44" s="3"/>
     </row>
-    <row r="45" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="10">
         <v>5</v>
       </c>
@@ -8016,7 +8097,7 @@
       <c r="H45" s="14"/>
       <c r="I45" s="3"/>
     </row>
-    <row r="46" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="9"/>
       <c r="B46" s="12"/>
       <c r="C46" s="9"/>
@@ -8029,30 +8110,30 @@
       <c r="H46" s="14"/>
       <c r="I46" s="5"/>
     </row>
-    <row r="47" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="67" t="s">
         <v>15</v>
       </c>
       <c r="B47" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C47" s="112">
+      <c r="C47" s="107">
         <f>SUM(F40:F46)</f>
         <v>0</v>
       </c>
-      <c r="D47" s="112"/>
-      <c r="E47" s="112"/>
-      <c r="F47" s="113"/>
+      <c r="D47" s="107"/>
+      <c r="E47" s="107"/>
+      <c r="F47" s="108"/>
       <c r="G47" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H47" s="112">
+      <c r="H47" s="107">
         <f>SUM(G40:G46)</f>
         <v>0</v>
       </c>
-      <c r="I47" s="113"/>
-    </row>
-    <row r="48" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I47" s="108"/>
+    </row>
+    <row r="48" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="24" t="s">
         <v>1</v>
       </c>
@@ -8081,7 +8162,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="10">
         <v>6</v>
       </c>
@@ -8098,7 +8179,7 @@
       <c r="H49" s="14"/>
       <c r="I49" s="15"/>
     </row>
-    <row r="50" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="10">
         <v>6</v>
       </c>
@@ -8115,7 +8196,7 @@
       <c r="H50" s="14"/>
       <c r="I50" s="15"/>
     </row>
-    <row r="51" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="10">
         <v>6</v>
       </c>
@@ -8132,7 +8213,7 @@
       <c r="H51" s="14"/>
       <c r="I51" s="3"/>
     </row>
-    <row r="52" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="10">
         <v>6</v>
       </c>
@@ -8149,7 +8230,7 @@
       <c r="H52" s="14"/>
       <c r="I52" s="3"/>
     </row>
-    <row r="53" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" s="10">
         <v>6</v>
       </c>
@@ -8166,7 +8247,7 @@
       <c r="H53" s="14"/>
       <c r="I53" s="3"/>
     </row>
-    <row r="54" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="10">
         <v>6</v>
       </c>
@@ -8183,7 +8264,7 @@
       <c r="H54" s="14"/>
       <c r="I54" s="3"/>
     </row>
-    <row r="55" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A55" s="9"/>
       <c r="B55" s="12"/>
       <c r="C55" s="9"/>
@@ -8196,30 +8277,30 @@
       <c r="H55" s="14"/>
       <c r="I55" s="5"/>
     </row>
-    <row r="56" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A56" s="67" t="s">
         <v>15</v>
       </c>
       <c r="B56" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C56" s="112">
+      <c r="C56" s="107">
         <f>SUM(F49:F55)</f>
         <v>0</v>
       </c>
-      <c r="D56" s="112"/>
-      <c r="E56" s="112"/>
-      <c r="F56" s="113"/>
+      <c r="D56" s="107"/>
+      <c r="E56" s="107"/>
+      <c r="F56" s="108"/>
       <c r="G56" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H56" s="112">
+      <c r="H56" s="107">
         <f>SUM(G49:G55)</f>
         <v>0</v>
       </c>
-      <c r="I56" s="113"/>
-    </row>
-    <row r="57" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I56" s="108"/>
+    </row>
+    <row r="57" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A57" s="24" t="s">
         <v>1</v>
       </c>
@@ -8248,7 +8329,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A58" s="10">
         <v>7</v>
       </c>
@@ -8273,7 +8354,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A59" s="10">
         <v>7</v>
       </c>
@@ -8296,7 +8377,7 @@
       <c r="H59" s="14"/>
       <c r="I59" s="15"/>
     </row>
-    <row r="60" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A60" s="10">
         <v>7</v>
       </c>
@@ -8321,7 +8402,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A61" s="10">
         <v>7</v>
       </c>
@@ -8344,7 +8425,7 @@
       <c r="H61" s="14"/>
       <c r="I61" s="3"/>
     </row>
-    <row r="62" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A62" s="10">
         <v>7</v>
       </c>
@@ -8369,7 +8450,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A63" s="10">
         <v>7</v>
       </c>
@@ -8394,7 +8475,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A64" s="9">
         <v>7</v>
       </c>
@@ -8419,30 +8500,30 @@
         <v>146</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A65" s="67" t="s">
         <v>15</v>
       </c>
       <c r="B65" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C65" s="112">
+      <c r="C65" s="107">
         <f>SUM(F58:F64)</f>
         <v>50</v>
       </c>
-      <c r="D65" s="112"/>
-      <c r="E65" s="112"/>
-      <c r="F65" s="113"/>
+      <c r="D65" s="107"/>
+      <c r="E65" s="107"/>
+      <c r="F65" s="108"/>
       <c r="G65" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H65" s="112">
+      <c r="H65" s="107">
         <f>SUM(G58:G64)</f>
         <v>0</v>
       </c>
-      <c r="I65" s="113"/>
-    </row>
-    <row r="66" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I65" s="108"/>
+    </row>
+    <row r="66" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A66" s="24" t="s">
         <v>1</v>
       </c>
@@ -8471,7 +8552,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A67" s="10">
         <v>8</v>
       </c>
@@ -8496,7 +8577,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A68" s="10">
         <v>8</v>
       </c>
@@ -8515,7 +8596,7 @@
       <c r="H68" s="14"/>
       <c r="I68" s="15"/>
     </row>
-    <row r="69" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A69" s="10">
         <v>8</v>
       </c>
@@ -8534,7 +8615,7 @@
       <c r="H69" s="14"/>
       <c r="I69" s="3"/>
     </row>
-    <row r="70" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A70" s="10">
         <v>8</v>
       </c>
@@ -8553,7 +8634,7 @@
       <c r="H70" s="14"/>
       <c r="I70" s="3"/>
     </row>
-    <row r="71" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A71" s="10">
         <v>8</v>
       </c>
@@ -8572,7 +8653,7 @@
       <c r="H71" s="14"/>
       <c r="I71" s="3"/>
     </row>
-    <row r="72" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A72" s="10">
         <v>8</v>
       </c>
@@ -8591,7 +8672,7 @@
       <c r="H72" s="14"/>
       <c r="I72" s="3"/>
     </row>
-    <row r="73" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A73" s="10">
         <v>8</v>
       </c>
@@ -8610,31 +8691,36 @@
       <c r="H73" s="14"/>
       <c r="I73" s="3"/>
     </row>
-    <row r="74" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A74" s="67" t="s">
         <v>15</v>
       </c>
       <c r="B74" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C74" s="112">
+      <c r="C74" s="107">
         <f>SUM(F67:F73)</f>
         <v>10</v>
       </c>
-      <c r="D74" s="112"/>
-      <c r="E74" s="112"/>
-      <c r="F74" s="113"/>
+      <c r="D74" s="107"/>
+      <c r="E74" s="107"/>
+      <c r="F74" s="108"/>
       <c r="G74" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H74" s="112">
+      <c r="H74" s="107">
         <f>SUM(G67:G73)</f>
         <v>0</v>
       </c>
-      <c r="I74" s="113"/>
+      <c r="I74" s="108"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="H20:I20"/>
     <mergeCell ref="C74:F74"/>
     <mergeCell ref="H74:I74"/>
     <mergeCell ref="C65:F65"/>
@@ -8647,11 +8733,6 @@
     <mergeCell ref="H47:I47"/>
     <mergeCell ref="C56:F56"/>
     <mergeCell ref="H56:I56"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="H20:I20"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <dataValidations count="6">
@@ -8689,18 +8770,18 @@
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.85546875" customWidth="1"/>
-    <col min="9" max="9" width="11.85546875" customWidth="1"/>
+    <col min="1" max="1" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.83203125" customWidth="1"/>
+    <col min="9" max="9" width="11.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>65</v>
       </c>
@@ -8713,20 +8794,20 @@
       <c r="H1" s="21"/>
       <c r="I1" s="22"/>
     </row>
-    <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="114" t="s">
+    <row r="2" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="109" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="115"/>
-      <c r="C2" s="116"/>
-      <c r="D2" s="116"/>
-      <c r="E2" s="116"/>
-      <c r="F2" s="116"/>
-      <c r="G2" s="116"/>
-      <c r="H2" s="116"/>
-      <c r="I2" s="117"/>
-    </row>
-    <row r="3" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="110"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="112"/>
+    </row>
+    <row r="3" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
         <v>1</v>
       </c>
@@ -8755,7 +8836,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="10">
         <v>1</v>
       </c>
@@ -8780,7 +8861,7 @@
       </c>
       <c r="I4" s="15"/>
     </row>
-    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="10">
         <v>1</v>
       </c>
@@ -8807,7 +8888,7 @@
       </c>
       <c r="I5" s="15"/>
     </row>
-    <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -8834,7 +8915,7 @@
       </c>
       <c r="I6" s="3"/>
     </row>
-    <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -8861,7 +8942,7 @@
       </c>
       <c r="I7" s="3"/>
     </row>
-    <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>1</v>
       </c>
@@ -8886,7 +8967,7 @@
       </c>
       <c r="I8" s="3"/>
     </row>
-    <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>1</v>
       </c>
@@ -8911,7 +8992,7 @@
       </c>
       <c r="I9" s="3"/>
     </row>
-    <row r="10" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9"/>
       <c r="B10" s="11"/>
       <c r="C10" s="9"/>
@@ -8922,30 +9003,30 @@
       <c r="H10" s="14"/>
       <c r="I10" s="5"/>
     </row>
-    <row r="11" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="67" t="s">
         <v>15</v>
       </c>
       <c r="B11" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="119">
+      <c r="C11" s="114">
         <f>SUM(F4:F10)</f>
         <v>26.5</v>
       </c>
-      <c r="D11" s="119"/>
-      <c r="E11" s="119"/>
-      <c r="F11" s="120"/>
+      <c r="D11" s="114"/>
+      <c r="E11" s="114"/>
+      <c r="F11" s="115"/>
       <c r="G11" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="119">
+      <c r="H11" s="114">
         <f>SUM(G4:G10)</f>
         <v>27.5</v>
       </c>
-      <c r="I11" s="120"/>
-    </row>
-    <row r="12" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I11" s="115"/>
+    </row>
+    <row r="12" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="24" t="s">
         <v>1</v>
       </c>
@@ -8974,7 +9055,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="10">
         <v>2</v>
       </c>
@@ -9001,7 +9082,7 @@
       </c>
       <c r="I13" s="15"/>
     </row>
-    <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="10">
         <v>2</v>
       </c>
@@ -9028,7 +9109,7 @@
       </c>
       <c r="I14" s="15"/>
     </row>
-    <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="10">
         <v>2</v>
       </c>
@@ -9053,7 +9134,7 @@
       </c>
       <c r="I15" s="3"/>
     </row>
-    <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="10">
         <v>2</v>
       </c>
@@ -9076,7 +9157,7 @@
       </c>
       <c r="I16" s="3"/>
     </row>
-    <row r="17" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="10">
         <v>2</v>
       </c>
@@ -9099,7 +9180,7 @@
       </c>
       <c r="I17" s="3"/>
     </row>
-    <row r="18" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="10">
         <v>2</v>
       </c>
@@ -9126,7 +9207,7 @@
       </c>
       <c r="I18" s="3"/>
     </row>
-    <row r="19" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9"/>
       <c r="B19" s="11"/>
       <c r="C19" s="9"/>
@@ -9137,30 +9218,30 @@
       <c r="H19" s="14"/>
       <c r="I19" s="5"/>
     </row>
-    <row r="20" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="67" t="s">
         <v>15</v>
       </c>
       <c r="B20" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="119">
+      <c r="C20" s="114">
         <f>SUM(F13:F19)</f>
         <v>18.5</v>
       </c>
-      <c r="D20" s="119"/>
-      <c r="E20" s="119"/>
-      <c r="F20" s="120"/>
+      <c r="D20" s="114"/>
+      <c r="E20" s="114"/>
+      <c r="F20" s="115"/>
       <c r="G20" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H20" s="119">
+      <c r="H20" s="114">
         <f>SUM(G13:G19)</f>
         <v>22</v>
       </c>
-      <c r="I20" s="120"/>
-    </row>
-    <row r="21" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I20" s="115"/>
+    </row>
+    <row r="21" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="24" t="s">
         <v>1</v>
       </c>
@@ -9189,7 +9270,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="10">
         <v>3</v>
       </c>
@@ -9204,7 +9285,7 @@
       <c r="H22" s="14"/>
       <c r="I22" s="15"/>
     </row>
-    <row r="23" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="10">
         <v>3</v>
       </c>
@@ -9219,7 +9300,7 @@
       <c r="H23" s="14"/>
       <c r="I23" s="15"/>
     </row>
-    <row r="24" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="10">
         <v>3</v>
       </c>
@@ -9234,7 +9315,7 @@
       <c r="H24" s="14"/>
       <c r="I24" s="3"/>
     </row>
-    <row r="25" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="10">
         <v>3</v>
       </c>
@@ -9249,7 +9330,7 @@
       <c r="H25" s="14"/>
       <c r="I25" s="3"/>
     </row>
-    <row r="26" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="10">
         <v>3</v>
       </c>
@@ -9264,7 +9345,7 @@
       <c r="H26" s="14"/>
       <c r="I26" s="3"/>
     </row>
-    <row r="27" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="10">
         <v>3</v>
       </c>
@@ -9279,7 +9360,7 @@
       <c r="H27" s="14"/>
       <c r="I27" s="3"/>
     </row>
-    <row r="28" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="9"/>
       <c r="B28" s="12"/>
       <c r="C28" s="9"/>
@@ -9290,30 +9371,30 @@
       <c r="H28" s="14"/>
       <c r="I28" s="5"/>
     </row>
-    <row r="29" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="67" t="s">
         <v>15</v>
       </c>
       <c r="B29" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="112">
+      <c r="C29" s="107">
         <f>SUM(F22:F28)</f>
         <v>0</v>
       </c>
-      <c r="D29" s="112"/>
-      <c r="E29" s="112"/>
-      <c r="F29" s="113"/>
+      <c r="D29" s="107"/>
+      <c r="E29" s="107"/>
+      <c r="F29" s="108"/>
       <c r="G29" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H29" s="112">
+      <c r="H29" s="107">
         <f>SUM(G22:G28)</f>
         <v>0</v>
       </c>
-      <c r="I29" s="113"/>
-    </row>
-    <row r="30" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I29" s="108"/>
+    </row>
+    <row r="30" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="24" t="s">
         <v>1</v>
       </c>
@@ -9342,7 +9423,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="10">
         <v>4</v>
       </c>
@@ -9357,7 +9438,7 @@
       <c r="H31" s="14"/>
       <c r="I31" s="15"/>
     </row>
-    <row r="32" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="10">
         <v>4</v>
       </c>
@@ -9372,7 +9453,7 @@
       <c r="H32" s="14"/>
       <c r="I32" s="15"/>
     </row>
-    <row r="33" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="10">
         <v>4</v>
       </c>
@@ -9387,7 +9468,7 @@
       <c r="H33" s="14"/>
       <c r="I33" s="3"/>
     </row>
-    <row r="34" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="10">
         <v>4</v>
       </c>
@@ -9402,7 +9483,7 @@
       <c r="H34" s="14"/>
       <c r="I34" s="3"/>
     </row>
-    <row r="35" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="10">
         <v>4</v>
       </c>
@@ -9417,7 +9498,7 @@
       <c r="H35" s="14"/>
       <c r="I35" s="3"/>
     </row>
-    <row r="36" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="10">
         <v>4</v>
       </c>
@@ -9432,7 +9513,7 @@
       <c r="H36" s="14"/>
       <c r="I36" s="3"/>
     </row>
-    <row r="37" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="9"/>
       <c r="B37" s="12"/>
       <c r="C37" s="9"/>
@@ -9443,30 +9524,30 @@
       <c r="H37" s="14"/>
       <c r="I37" s="5"/>
     </row>
-    <row r="38" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="67" t="s">
         <v>15</v>
       </c>
       <c r="B38" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C38" s="112">
+      <c r="C38" s="107">
         <f>SUM(F31:F37)</f>
         <v>0</v>
       </c>
-      <c r="D38" s="112"/>
-      <c r="E38" s="112"/>
-      <c r="F38" s="113"/>
+      <c r="D38" s="107"/>
+      <c r="E38" s="107"/>
+      <c r="F38" s="108"/>
       <c r="G38" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H38" s="112">
+      <c r="H38" s="107">
         <f>SUM(G31:G37)</f>
         <v>0</v>
       </c>
-      <c r="I38" s="113"/>
-    </row>
-    <row r="39" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I38" s="108"/>
+    </row>
+    <row r="39" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="24" t="s">
         <v>1</v>
       </c>
@@ -9495,7 +9576,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="10">
         <v>5</v>
       </c>
@@ -9510,7 +9591,7 @@
       <c r="H40" s="14"/>
       <c r="I40" s="15"/>
     </row>
-    <row r="41" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="10">
         <v>5</v>
       </c>
@@ -9525,7 +9606,7 @@
       <c r="H41" s="14"/>
       <c r="I41" s="15"/>
     </row>
-    <row r="42" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="10">
         <v>5</v>
       </c>
@@ -9540,7 +9621,7 @@
       <c r="H42" s="14"/>
       <c r="I42" s="3"/>
     </row>
-    <row r="43" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="10">
         <v>5</v>
       </c>
@@ -9555,7 +9636,7 @@
       <c r="H43" s="14"/>
       <c r="I43" s="3"/>
     </row>
-    <row r="44" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="10">
         <v>5</v>
       </c>
@@ -9570,7 +9651,7 @@
       <c r="H44" s="14"/>
       <c r="I44" s="3"/>
     </row>
-    <row r="45" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="10">
         <v>5</v>
       </c>
@@ -9585,7 +9666,7 @@
       <c r="H45" s="14"/>
       <c r="I45" s="3"/>
     </row>
-    <row r="46" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="9"/>
       <c r="B46" s="12"/>
       <c r="C46" s="9"/>
@@ -9596,30 +9677,30 @@
       <c r="H46" s="14"/>
       <c r="I46" s="5"/>
     </row>
-    <row r="47" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="67" t="s">
         <v>15</v>
       </c>
       <c r="B47" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C47" s="112">
+      <c r="C47" s="107">
         <f>SUM(F40:F46)</f>
         <v>0</v>
       </c>
-      <c r="D47" s="112"/>
-      <c r="E47" s="112"/>
-      <c r="F47" s="113"/>
+      <c r="D47" s="107"/>
+      <c r="E47" s="107"/>
+      <c r="F47" s="108"/>
       <c r="G47" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H47" s="112">
+      <c r="H47" s="107">
         <f>SUM(G40:G46)</f>
         <v>0</v>
       </c>
-      <c r="I47" s="113"/>
-    </row>
-    <row r="48" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I47" s="108"/>
+    </row>
+    <row r="48" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="24" t="s">
         <v>1</v>
       </c>
@@ -9648,7 +9729,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="10">
         <v>6</v>
       </c>
@@ -9663,7 +9744,7 @@
       <c r="H49" s="14"/>
       <c r="I49" s="15"/>
     </row>
-    <row r="50" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="10">
         <v>6</v>
       </c>
@@ -9678,7 +9759,7 @@
       <c r="H50" s="14"/>
       <c r="I50" s="15"/>
     </row>
-    <row r="51" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="10">
         <v>6</v>
       </c>
@@ -9693,7 +9774,7 @@
       <c r="H51" s="14"/>
       <c r="I51" s="3"/>
     </row>
-    <row r="52" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="10">
         <v>6</v>
       </c>
@@ -9708,7 +9789,7 @@
       <c r="H52" s="14"/>
       <c r="I52" s="3"/>
     </row>
-    <row r="53" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="10">
         <v>6</v>
       </c>
@@ -9723,7 +9804,7 @@
       <c r="H53" s="14"/>
       <c r="I53" s="3"/>
     </row>
-    <row r="54" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="10">
         <v>6</v>
       </c>
@@ -9738,7 +9819,7 @@
       <c r="H54" s="14"/>
       <c r="I54" s="3"/>
     </row>
-    <row r="55" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A55" s="9"/>
       <c r="B55" s="12"/>
       <c r="C55" s="9"/>
@@ -9749,31 +9830,36 @@
       <c r="H55" s="14"/>
       <c r="I55" s="5"/>
     </row>
-    <row r="56" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A56" s="67" t="s">
         <v>15</v>
       </c>
       <c r="B56" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C56" s="112">
+      <c r="C56" s="107">
         <f>SUM(F49:F55)</f>
         <v>0</v>
       </c>
-      <c r="D56" s="112"/>
-      <c r="E56" s="112"/>
-      <c r="F56" s="113"/>
+      <c r="D56" s="107"/>
+      <c r="E56" s="107"/>
+      <c r="F56" s="108"/>
       <c r="G56" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H56" s="112">
+      <c r="H56" s="107">
         <f>SUM(G49:G55)</f>
         <v>0</v>
       </c>
-      <c r="I56" s="113"/>
+      <c r="I56" s="108"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="H20:I20"/>
     <mergeCell ref="C56:F56"/>
     <mergeCell ref="H56:I56"/>
     <mergeCell ref="C29:F29"/>
@@ -9782,11 +9868,6 @@
     <mergeCell ref="H38:I38"/>
     <mergeCell ref="C47:F47"/>
     <mergeCell ref="H47:I47"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="H20:I20"/>
   </mergeCells>
   <dataValidations count="6">
     <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3 B12" xr:uid="{6FFE7BB2-A561-485E-81E9-2571AC8DE5CA}">
@@ -9817,23 +9898,23 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8D98322-3746-4D23-926C-85D7A07E9BC3}">
-  <dimension ref="A1:I77"/>
+  <dimension ref="A1:I87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="I27" sqref="I24:I27"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="E79" sqref="E79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="17" style="91"/>
-    <col min="3" max="3" width="22.28515625" style="91" customWidth="1"/>
-    <col min="4" max="4" width="40.42578125" style="91" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" style="91" customWidth="1"/>
+    <col min="4" max="4" width="40.5" style="91" customWidth="1"/>
     <col min="5" max="8" width="17" style="91"/>
-    <col min="9" max="9" width="52.85546875" style="91" customWidth="1"/>
+    <col min="9" max="9" width="52.83203125" style="91" customWidth="1"/>
     <col min="10" max="16384" width="17" style="91"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="87" t="s">
         <v>65</v>
       </c>
@@ -9846,20 +9927,20 @@
       <c r="H1" s="89"/>
       <c r="I1" s="90"/>
     </row>
-    <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="123" t="s">
+    <row r="2" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="118" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="124"/>
-      <c r="C2" s="125"/>
-      <c r="D2" s="125"/>
-      <c r="E2" s="125"/>
-      <c r="F2" s="125"/>
-      <c r="G2" s="125"/>
-      <c r="H2" s="125"/>
-      <c r="I2" s="126"/>
-    </row>
-    <row r="3" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="119"/>
+      <c r="C2" s="120"/>
+      <c r="D2" s="120"/>
+      <c r="E2" s="120"/>
+      <c r="F2" s="120"/>
+      <c r="G2" s="120"/>
+      <c r="H2" s="120"/>
+      <c r="I2" s="121"/>
+    </row>
+    <row r="3" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="92" t="s">
         <v>1</v>
       </c>
@@ -9888,7 +9969,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="93">
         <v>1</v>
       </c>
@@ -9913,7 +9994,7 @@
       </c>
       <c r="I4" s="15"/>
     </row>
-    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="93">
         <v>1</v>
       </c>
@@ -9921,7 +10002,7 @@
         <v>10</v>
       </c>
       <c r="C5" s="94" t="s">
-        <v>18</v>
+        <v>210</v>
       </c>
       <c r="D5" s="69" t="s">
         <v>97</v>
@@ -9940,7 +10021,7 @@
       </c>
       <c r="I5" s="15"/>
     </row>
-    <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="99">
         <v>1</v>
       </c>
@@ -9948,7 +10029,7 @@
         <v>11</v>
       </c>
       <c r="C6" s="94" t="s">
-        <v>18</v>
+        <v>210</v>
       </c>
       <c r="D6" s="69" t="s">
         <v>97</v>
@@ -9967,7 +10048,7 @@
       </c>
       <c r="I6" s="73"/>
     </row>
-    <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="99">
         <v>1</v>
       </c>
@@ -9975,7 +10056,7 @@
         <v>12</v>
       </c>
       <c r="C7" s="94" t="s">
-        <v>18</v>
+        <v>210</v>
       </c>
       <c r="D7" s="69" t="s">
         <v>97</v>
@@ -9994,7 +10075,7 @@
       </c>
       <c r="I7" s="73"/>
     </row>
-    <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="99">
         <v>1</v>
       </c>
@@ -10019,7 +10100,7 @@
       </c>
       <c r="I8" s="73"/>
     </row>
-    <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="99">
         <v>1</v>
       </c>
@@ -10044,87 +10125,103 @@
       </c>
       <c r="I9" s="73"/>
     </row>
-    <row r="10" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="103"/>
-      <c r="B10" s="104"/>
-      <c r="C10" s="103"/>
-      <c r="D10" s="105"/>
-      <c r="E10" s="102"/>
-      <c r="F10" s="103"/>
-      <c r="G10" s="103"/>
-      <c r="H10" s="96"/>
-      <c r="I10" s="106"/>
-    </row>
-    <row r="11" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="107" t="s">
+    <row r="10" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="103" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="107" t="s">
+      <c r="B10" s="103" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="121">
-        <f>SUM(F4:F10)</f>
+      <c r="C10" s="116">
+        <f>SUM(F4:F9)</f>
         <v>24</v>
       </c>
-      <c r="D11" s="121"/>
-      <c r="E11" s="121"/>
-      <c r="F11" s="122"/>
-      <c r="G11" s="108" t="s">
+      <c r="D10" s="116"/>
+      <c r="E10" s="116"/>
+      <c r="F10" s="117"/>
+      <c r="G10" s="104" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="121">
-        <f>SUM(G4:G10)</f>
+      <c r="H10" s="116">
+        <f>SUM(G4:G9)</f>
         <v>28</v>
       </c>
-      <c r="I11" s="122"/>
-    </row>
-    <row r="12" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="92" t="s">
+      <c r="I10" s="117"/>
+    </row>
+    <row r="11" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="92" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="92" t="s">
+      <c r="B11" s="92" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="92" t="s">
+      <c r="C11" s="92" t="s">
         <v>53</v>
       </c>
-      <c r="D12" s="92" t="s">
+      <c r="D11" s="92" t="s">
         <v>3</v>
       </c>
-      <c r="E12" s="92" t="s">
-        <v>4</v>
-      </c>
-      <c r="F12" s="92" t="s">
-        <v>5</v>
-      </c>
-      <c r="G12" s="92" t="s">
-        <v>6</v>
-      </c>
-      <c r="H12" s="92" t="s">
+      <c r="E11" s="92" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" s="92" t="s">
+        <v>5</v>
+      </c>
+      <c r="G11" s="92" t="s">
+        <v>6</v>
+      </c>
+      <c r="H11" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="I12" s="92" t="s">
+      <c r="I11" s="92" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" s="93">
+        <v>2</v>
+      </c>
+      <c r="B12" s="94" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="94" t="s">
+        <v>210</v>
+      </c>
+      <c r="D12" s="69" t="s">
+        <v>98</v>
+      </c>
+      <c r="E12" s="98" t="s">
+        <v>71</v>
+      </c>
+      <c r="F12" s="93">
+        <v>5</v>
+      </c>
+      <c r="G12" s="93">
+        <v>5</v>
+      </c>
+      <c r="H12" s="96" t="s">
+        <v>20</v>
+      </c>
+      <c r="I12" s="15"/>
+    </row>
+    <row r="13" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="93">
         <v>2</v>
       </c>
-      <c r="B13" s="94" t="s">
-        <v>9</v>
+      <c r="B13" s="97" t="s">
+        <v>10</v>
       </c>
       <c r="C13" s="94" t="s">
-        <v>18</v>
+        <v>210</v>
       </c>
       <c r="D13" s="69" t="s">
-        <v>98</v>
-      </c>
-      <c r="E13" s="98" t="s">
-        <v>71</v>
+        <v>99</v>
+      </c>
+      <c r="E13" s="101" t="s">
+        <v>72</v>
       </c>
       <c r="F13" s="93">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G13" s="93">
         <v>5</v>
@@ -10134,76 +10231,76 @@
       </c>
       <c r="I13" s="15"/>
     </row>
-    <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="93">
         <v>2</v>
       </c>
-      <c r="B14" s="97" t="s">
-        <v>10</v>
+      <c r="B14" s="100" t="s">
+        <v>11</v>
       </c>
       <c r="C14" s="94" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" s="69" t="s">
-        <v>99</v>
-      </c>
-      <c r="E14" s="101" t="s">
-        <v>72</v>
-      </c>
-      <c r="F14" s="93">
-        <v>3</v>
-      </c>
-      <c r="G14" s="93">
-        <v>5</v>
+        <v>63</v>
+      </c>
+      <c r="D14" s="63"/>
+      <c r="E14" s="98" t="s">
+        <v>73</v>
+      </c>
+      <c r="F14" s="99">
+        <v>4</v>
+      </c>
+      <c r="G14" s="99">
+        <v>4</v>
       </c>
       <c r="H14" s="96" t="s">
         <v>20</v>
       </c>
-      <c r="I14" s="15"/>
-    </row>
-    <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I14" s="73"/>
+    </row>
+    <row r="15" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="93">
         <v>2</v>
       </c>
       <c r="B15" s="100" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C15" s="94" t="s">
-        <v>63</v>
-      </c>
-      <c r="D15" s="63"/>
-      <c r="E15" s="98" t="s">
-        <v>73</v>
+        <v>210</v>
+      </c>
+      <c r="D15" s="63" t="s">
+        <v>100</v>
+      </c>
+      <c r="E15" s="102" t="s">
+        <v>74</v>
       </c>
       <c r="F15" s="99">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G15" s="99">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H15" s="96" t="s">
         <v>20</v>
       </c>
       <c r="I15" s="73"/>
     </row>
-    <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="93">
         <v>2</v>
       </c>
       <c r="B16" s="100" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C16" s="94" t="s">
-        <v>18</v>
+        <v>210</v>
       </c>
       <c r="D16" s="63" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E16" s="102" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F16" s="99">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G16" s="99">
         <v>5</v>
@@ -10213,381 +10310,416 @@
       </c>
       <c r="I16" s="73"/>
     </row>
-    <row r="17" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="93">
         <v>2</v>
       </c>
       <c r="B17" s="100" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C17" s="94" t="s">
-        <v>18</v>
+        <v>210</v>
       </c>
       <c r="D17" s="63" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="E17" s="102" t="s">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="F17" s="99">
         <v>4</v>
       </c>
       <c r="G17" s="99">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H17" s="96" t="s">
         <v>20</v>
       </c>
       <c r="I17" s="73"/>
     </row>
-    <row r="18" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="93">
+    <row r="18" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="103" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="103" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="116">
+        <f>SUM(F12:F17)</f>
+        <v>27</v>
+      </c>
+      <c r="D18" s="116"/>
+      <c r="E18" s="116"/>
+      <c r="F18" s="117"/>
+      <c r="G18" s="104" t="s">
+        <v>17</v>
+      </c>
+      <c r="H18" s="116">
+        <f>SUM(G12:G17)</f>
+        <v>30</v>
+      </c>
+      <c r="I18" s="117"/>
+    </row>
+    <row r="19" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="92" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="92" t="s">
         <v>2</v>
       </c>
-      <c r="B18" s="100" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" s="94" t="s">
-        <v>18</v>
-      </c>
-      <c r="D18" s="63" t="s">
-        <v>82</v>
-      </c>
-      <c r="E18" s="102" t="s">
-        <v>101</v>
-      </c>
-      <c r="F18" s="99">
-        <v>4</v>
-      </c>
-      <c r="G18" s="99">
-        <v>6</v>
-      </c>
-      <c r="H18" s="96" t="s">
-        <v>20</v>
-      </c>
-      <c r="I18" s="73"/>
-    </row>
-    <row r="19" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="103"/>
-      <c r="B19" s="104"/>
-      <c r="C19" s="103"/>
-      <c r="D19" s="105"/>
-      <c r="E19" s="102"/>
-      <c r="F19" s="103"/>
-      <c r="G19" s="103"/>
-      <c r="H19" s="96"/>
-      <c r="I19" s="106"/>
-    </row>
-    <row r="20" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="107" t="s">
-        <v>15</v>
-      </c>
-      <c r="B20" s="107" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="121">
-        <f>SUM(F13:F19)</f>
-        <v>27</v>
-      </c>
-      <c r="D20" s="121"/>
-      <c r="E20" s="121"/>
-      <c r="F20" s="122"/>
-      <c r="G20" s="108" t="s">
-        <v>17</v>
-      </c>
-      <c r="H20" s="121">
-        <f>SUM(G13:G19)</f>
-        <v>30</v>
-      </c>
-      <c r="I20" s="122"/>
-    </row>
-    <row r="21" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="92" t="s">
-        <v>1</v>
-      </c>
-      <c r="B21" s="92" t="s">
-        <v>2</v>
-      </c>
-      <c r="C21" s="92" t="s">
+      <c r="C19" s="92" t="s">
         <v>53</v>
       </c>
-      <c r="D21" s="92" t="s">
+      <c r="D19" s="92" t="s">
         <v>3</v>
       </c>
-      <c r="E21" s="92" t="s">
-        <v>4</v>
-      </c>
-      <c r="F21" s="92" t="s">
-        <v>5</v>
-      </c>
-      <c r="G21" s="92" t="s">
-        <v>6</v>
-      </c>
-      <c r="H21" s="92" t="s">
+      <c r="E19" s="92" t="s">
+        <v>4</v>
+      </c>
+      <c r="F19" s="92" t="s">
+        <v>5</v>
+      </c>
+      <c r="G19" s="92" t="s">
+        <v>6</v>
+      </c>
+      <c r="H19" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="I21" s="92" t="s">
+      <c r="I19" s="92" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="93">
+        <v>3</v>
+      </c>
+      <c r="B20" s="94" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="94" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="E20" s="95" t="s">
+        <v>153</v>
+      </c>
+      <c r="F20" s="6">
+        <v>6</v>
+      </c>
+      <c r="G20" s="6">
+        <v>6</v>
+      </c>
+      <c r="H20" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I20" s="15"/>
+    </row>
+    <row r="21" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="93">
+        <v>3</v>
+      </c>
+      <c r="B21" s="97" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="94" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21" s="13"/>
+      <c r="E21" s="95" t="s">
+        <v>154</v>
+      </c>
+      <c r="F21" s="6">
+        <v>4</v>
+      </c>
+      <c r="G21" s="6">
+        <v>4</v>
+      </c>
+      <c r="H21" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I21" s="15"/>
+    </row>
+    <row r="22" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="93">
         <v>3</v>
       </c>
-      <c r="B22" s="94" t="s">
-        <v>9</v>
+      <c r="B22" s="100" t="s">
+        <v>11</v>
       </c>
       <c r="C22" s="94" t="s">
-        <v>19</v>
-      </c>
-      <c r="D22" s="13" t="s">
-        <v>203</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="D22" s="2"/>
       <c r="E22" s="95" t="s">
-        <v>153</v>
-      </c>
-      <c r="F22" s="6">
-        <v>6</v>
-      </c>
-      <c r="G22" s="6">
-        <v>6</v>
+        <v>155</v>
+      </c>
+      <c r="F22" s="7">
+        <v>4</v>
+      </c>
+      <c r="G22" s="7">
+        <v>4</v>
       </c>
       <c r="H22" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="I22" s="15"/>
-    </row>
-    <row r="23" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I22" s="73"/>
+    </row>
+    <row r="23" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="93">
         <v>3</v>
       </c>
-      <c r="B23" s="97" t="s">
-        <v>10</v>
+      <c r="B23" s="100" t="s">
+        <v>12</v>
       </c>
       <c r="C23" s="94" t="s">
-        <v>63</v>
-      </c>
-      <c r="D23" s="13"/>
-      <c r="E23" s="95" t="s">
-        <v>154</v>
-      </c>
-      <c r="F23" s="6">
-        <v>4</v>
-      </c>
-      <c r="G23" s="6">
-        <v>4</v>
+        <v>19</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="E23" s="105" t="s">
+        <v>157</v>
+      </c>
+      <c r="F23" s="7">
+        <v>6</v>
+      </c>
+      <c r="G23" s="7">
+        <v>6</v>
       </c>
       <c r="H23" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="I23" s="15"/>
-    </row>
-    <row r="24" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I23" s="73"/>
+    </row>
+    <row r="24" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="93">
         <v>3</v>
       </c>
       <c r="B24" s="100" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C24" s="94" t="s">
-        <v>61</v>
-      </c>
-      <c r="D24" s="2"/>
-      <c r="E24" s="95" t="s">
-        <v>155</v>
+        <v>19</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="E24" s="105">
+        <v>43476</v>
       </c>
       <c r="F24" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G24" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H24" s="14" t="s">
         <v>20</v>
       </c>
       <c r="I24" s="73"/>
     </row>
-    <row r="25" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="93">
         <v>3</v>
       </c>
       <c r="B25" s="100" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C25" s="94" t="s">
         <v>19</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>203</v>
-      </c>
-      <c r="E25" s="109" t="s">
-        <v>157</v>
+        <v>212</v>
+      </c>
+      <c r="E25" s="105">
+        <v>43507</v>
       </c>
       <c r="F25" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G25" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H25" s="14" t="s">
         <v>20</v>
       </c>
       <c r="I25" s="73"/>
     </row>
-    <row r="26" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="93">
+    <row r="26" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="103" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26" s="103" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="122">
+        <f>SUM(F20:F25)</f>
+        <v>30</v>
+      </c>
+      <c r="D26" s="116"/>
+      <c r="E26" s="116"/>
+      <c r="F26" s="117"/>
+      <c r="G26" s="104" t="s">
+        <v>17</v>
+      </c>
+      <c r="H26" s="122">
+        <f>SUM(G20:G25)</f>
+        <v>30</v>
+      </c>
+      <c r="I26" s="117"/>
+    </row>
+    <row r="27" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="92" t="s">
+        <v>1</v>
+      </c>
+      <c r="B27" s="92" t="s">
+        <v>2</v>
+      </c>
+      <c r="C27" s="92" t="s">
+        <v>53</v>
+      </c>
+      <c r="D27" s="92" t="s">
         <v>3</v>
       </c>
-      <c r="B26" s="100" t="s">
-        <v>13</v>
-      </c>
-      <c r="C26" s="94" t="s">
+      <c r="E27" s="92" t="s">
+        <v>4</v>
+      </c>
+      <c r="F27" s="92" t="s">
+        <v>5</v>
+      </c>
+      <c r="G27" s="92" t="s">
+        <v>6</v>
+      </c>
+      <c r="H27" s="92" t="s">
+        <v>7</v>
+      </c>
+      <c r="I27" s="92" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="93">
+        <v>4</v>
+      </c>
+      <c r="B28" s="94" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="94" t="s">
         <v>19</v>
       </c>
-      <c r="D26" s="13" t="s">
-        <v>204</v>
-      </c>
-      <c r="E26" s="109">
-        <v>43476</v>
-      </c>
-      <c r="F26" s="7">
-        <v>5</v>
-      </c>
-      <c r="G26" s="7">
-        <v>5</v>
-      </c>
-      <c r="H26" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="I26" s="73"/>
-    </row>
-    <row r="27" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="93">
-        <v>3</v>
-      </c>
-      <c r="B27" s="100" t="s">
-        <v>14</v>
-      </c>
-      <c r="C27" s="94" t="s">
+      <c r="D28" s="69" t="s">
+        <v>205</v>
+      </c>
+      <c r="E28" s="95">
+        <v>43773</v>
+      </c>
+      <c r="F28" s="93">
+        <v>5</v>
+      </c>
+      <c r="G28" s="93">
+        <v>5</v>
+      </c>
+      <c r="H28" s="96" t="s">
+        <v>20</v>
+      </c>
+      <c r="I28" s="15"/>
+    </row>
+    <row r="29" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="93">
+        <v>4</v>
+      </c>
+      <c r="B29" s="97" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="94" t="s">
         <v>19</v>
       </c>
-      <c r="D27" s="13" t="s">
-        <v>205</v>
-      </c>
-      <c r="E27" s="109">
-        <v>43507</v>
-      </c>
-      <c r="F27" s="7">
-        <v>5</v>
-      </c>
-      <c r="G27" s="7">
-        <v>5</v>
-      </c>
-      <c r="H27" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="I27" s="73"/>
-    </row>
-    <row r="28" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="103"/>
-      <c r="B28" s="104"/>
-      <c r="C28" s="103"/>
-      <c r="D28" s="105"/>
-      <c r="E28" s="102"/>
-      <c r="F28" s="103"/>
-      <c r="G28" s="103"/>
-      <c r="H28" s="96"/>
-      <c r="I28" s="106"/>
-    </row>
-    <row r="29" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="107" t="s">
-        <v>15</v>
-      </c>
-      <c r="B29" s="107" t="s">
-        <v>16</v>
-      </c>
-      <c r="C29" s="121">
-        <f>SUM(F22:F28)</f>
-        <v>30</v>
-      </c>
-      <c r="D29" s="121"/>
-      <c r="E29" s="121"/>
-      <c r="F29" s="122"/>
-      <c r="G29" s="108" t="s">
-        <v>17</v>
-      </c>
-      <c r="H29" s="121">
-        <f>SUM(G22:G28)</f>
-        <v>30</v>
-      </c>
-      <c r="I29" s="122"/>
-    </row>
-    <row r="30" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D29" s="69" t="s">
+        <v>206</v>
+      </c>
+      <c r="E29" s="95">
+        <v>43774</v>
+      </c>
+      <c r="F29" s="93">
+        <v>4</v>
+      </c>
+      <c r="G29" s="93">
+        <v>5</v>
+      </c>
+      <c r="H29" s="96" t="s">
+        <v>20</v>
+      </c>
+      <c r="I29" s="15"/>
+    </row>
+    <row r="30" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="93">
         <v>4</v>
       </c>
-      <c r="B30" s="94" t="s">
-        <v>9</v>
+      <c r="B30" s="100" t="s">
+        <v>11</v>
       </c>
       <c r="C30" s="94" t="s">
-        <v>19</v>
-      </c>
-      <c r="D30" s="69"/>
+        <v>63</v>
+      </c>
       <c r="E30" s="95">
-        <v>43773</v>
-      </c>
-      <c r="F30" s="93">
-        <v>5.5</v>
-      </c>
-      <c r="G30" s="93">
-        <v>7</v>
+        <v>43775</v>
+      </c>
+      <c r="F30" s="99">
+        <v>4</v>
+      </c>
+      <c r="G30" s="99">
+        <v>4</v>
       </c>
       <c r="H30" s="96" t="s">
         <v>20</v>
       </c>
-      <c r="I30" s="15"/>
-    </row>
-    <row r="31" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I30" s="73"/>
+    </row>
+    <row r="31" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="93">
         <v>4</v>
       </c>
-      <c r="B31" s="97" t="s">
-        <v>10</v>
+      <c r="B31" s="100" t="s">
+        <v>12</v>
       </c>
       <c r="C31" s="94" t="s">
         <v>19</v>
       </c>
-      <c r="D31" s="69"/>
+      <c r="D31" s="63" t="s">
+        <v>172</v>
+      </c>
       <c r="E31" s="95">
-        <v>43774</v>
-      </c>
-      <c r="F31" s="93">
-        <v>5</v>
-      </c>
-      <c r="G31" s="93">
-        <v>6</v>
+        <v>43776</v>
+      </c>
+      <c r="F31" s="99">
+        <v>5</v>
+      </c>
+      <c r="G31" s="99">
+        <v>7</v>
       </c>
       <c r="H31" s="96" t="s">
-        <v>20</v>
-      </c>
-      <c r="I31" s="15"/>
-    </row>
-    <row r="32" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+      <c r="I31" s="73"/>
+    </row>
+    <row r="32" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="93">
         <v>4</v>
       </c>
       <c r="B32" s="100" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C32" s="94" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D32" s="63"/>
       <c r="E32" s="95">
-        <v>43775</v>
+        <v>43777</v>
       </c>
       <c r="F32" s="99">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="G32" s="99">
         <v>5</v>
@@ -10597,1034 +10729,1364 @@
       </c>
       <c r="I32" s="73"/>
     </row>
-    <row r="33" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" ht="35" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="93">
         <v>4</v>
       </c>
       <c r="B33" s="100" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C33" s="94" t="s">
         <v>19</v>
       </c>
-      <c r="D33" s="63"/>
+      <c r="D33" s="63" t="s">
+        <v>167</v>
+      </c>
       <c r="E33" s="95">
-        <v>43776</v>
+        <v>43778</v>
       </c>
       <c r="F33" s="99">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G33" s="99">
+        <v>5</v>
+      </c>
+      <c r="H33" s="96" t="s">
+        <v>21</v>
+      </c>
+      <c r="I33" s="73"/>
+    </row>
+    <row r="34" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="103" t="s">
+        <v>15</v>
+      </c>
+      <c r="B34" s="103" t="s">
+        <v>16</v>
+      </c>
+      <c r="C34" s="116">
+        <f>SUM(F28:F33)</f>
+        <v>30</v>
+      </c>
+      <c r="D34" s="116"/>
+      <c r="E34" s="116"/>
+      <c r="F34" s="117"/>
+      <c r="G34" s="104" t="s">
+        <v>17</v>
+      </c>
+      <c r="H34" s="116">
+        <f>SUM(G28:G33)</f>
+        <v>31</v>
+      </c>
+      <c r="I34" s="117"/>
+    </row>
+    <row r="35" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="92" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" s="92" t="s">
+        <v>2</v>
+      </c>
+      <c r="C35" s="92" t="s">
+        <v>53</v>
+      </c>
+      <c r="D35" s="92" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" s="92" t="s">
+        <v>4</v>
+      </c>
+      <c r="F35" s="92" t="s">
+        <v>5</v>
+      </c>
+      <c r="G35" s="92" t="s">
+        <v>6</v>
+      </c>
+      <c r="H35" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="H33" s="96" t="s">
-        <v>20</v>
-      </c>
-      <c r="I33" s="73"/>
-    </row>
-    <row r="34" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="93">
-        <v>4</v>
-      </c>
-      <c r="B34" s="100" t="s">
-        <v>13</v>
-      </c>
-      <c r="C34" s="94" t="s">
-        <v>61</v>
-      </c>
-      <c r="D34" s="63"/>
-      <c r="E34" s="95">
-        <v>43777</v>
-      </c>
-      <c r="F34" s="99">
-        <v>4.5</v>
-      </c>
-      <c r="G34" s="99">
-        <v>5</v>
-      </c>
-      <c r="H34" s="96" t="s">
-        <v>20</v>
-      </c>
-      <c r="I34" s="73"/>
-    </row>
-    <row r="35" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A35" s="93">
-        <v>4</v>
-      </c>
-      <c r="B35" s="100" t="s">
-        <v>14</v>
-      </c>
-      <c r="C35" s="94" t="s">
+      <c r="I35" s="92" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="93">
+        <v>5</v>
+      </c>
+      <c r="B36" s="94" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" s="94" t="s">
         <v>19</v>
       </c>
-      <c r="D35" s="63" t="s">
-        <v>167</v>
-      </c>
-      <c r="E35" s="95">
-        <v>43778</v>
-      </c>
-      <c r="F35" s="99">
-        <v>7</v>
-      </c>
-      <c r="G35" s="99">
-        <v>5</v>
-      </c>
-      <c r="H35" s="96" t="s">
-        <v>21</v>
-      </c>
-      <c r="I35" s="73"/>
-    </row>
-    <row r="36" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="103"/>
-      <c r="B36" s="104"/>
-      <c r="C36" s="103"/>
-      <c r="D36" s="105"/>
-      <c r="E36" s="102"/>
-      <c r="F36" s="103"/>
-      <c r="G36" s="103"/>
-      <c r="H36" s="96"/>
-      <c r="I36" s="106"/>
-    </row>
-    <row r="37" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="107" t="s">
-        <v>15</v>
-      </c>
-      <c r="B37" s="107" t="s">
-        <v>16</v>
-      </c>
-      <c r="C37" s="121">
-        <f>SUM(F30:F36)</f>
-        <v>31.5</v>
-      </c>
-      <c r="D37" s="121"/>
-      <c r="E37" s="121"/>
-      <c r="F37" s="122"/>
-      <c r="G37" s="108" t="s">
-        <v>17</v>
-      </c>
-      <c r="H37" s="121">
-        <f>SUM(G30:G36)</f>
-        <v>35</v>
-      </c>
-      <c r="I37" s="122"/>
-    </row>
-    <row r="38" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D36" s="69" t="s">
+        <v>207</v>
+      </c>
+      <c r="E36" s="95">
+        <v>43780</v>
+      </c>
+      <c r="F36" s="93">
+        <v>6</v>
+      </c>
+      <c r="G36" s="93">
+        <v>6</v>
+      </c>
+      <c r="H36" s="96" t="s">
+        <v>20</v>
+      </c>
+      <c r="I36" s="15"/>
+    </row>
+    <row r="37" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="93">
+        <v>5</v>
+      </c>
+      <c r="B37" s="97" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" s="94" t="s">
+        <v>63</v>
+      </c>
+      <c r="E37" s="95">
+        <v>43781</v>
+      </c>
+      <c r="F37" s="93">
+        <v>4</v>
+      </c>
+      <c r="G37" s="93">
+        <v>4</v>
+      </c>
+      <c r="H37" s="96" t="s">
+        <v>20</v>
+      </c>
+      <c r="I37" s="15"/>
+    </row>
+    <row r="38" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="93">
         <v>5</v>
       </c>
-      <c r="B38" s="94" t="s">
-        <v>9</v>
+      <c r="B38" s="100" t="s">
+        <v>11</v>
       </c>
       <c r="C38" s="94" t="s">
         <v>19</v>
       </c>
-      <c r="D38" s="69"/>
+      <c r="D38" s="123" t="s">
+        <v>208</v>
+      </c>
       <c r="E38" s="95">
-        <v>43773</v>
-      </c>
-      <c r="F38" s="93">
-        <v>6</v>
-      </c>
-      <c r="G38" s="93"/>
+        <v>43782</v>
+      </c>
+      <c r="F38" s="99">
+        <v>5</v>
+      </c>
+      <c r="G38" s="99">
+        <v>5</v>
+      </c>
       <c r="H38" s="96" t="s">
         <v>20</v>
       </c>
-      <c r="I38" s="15"/>
-    </row>
-    <row r="39" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I38" s="73"/>
+    </row>
+    <row r="39" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="93">
         <v>5</v>
       </c>
-      <c r="B39" s="97" t="s">
-        <v>10</v>
+      <c r="B39" s="100" t="s">
+        <v>12</v>
       </c>
       <c r="C39" s="94" t="s">
-        <v>63</v>
-      </c>
-      <c r="D39" s="69"/>
+        <v>19</v>
+      </c>
+      <c r="D39" s="63" t="s">
+        <v>172</v>
+      </c>
       <c r="E39" s="95">
-        <v>43774</v>
-      </c>
-      <c r="F39" s="93">
-        <v>4</v>
-      </c>
-      <c r="G39" s="93"/>
+        <v>43783</v>
+      </c>
+      <c r="F39" s="99">
+        <v>5</v>
+      </c>
+      <c r="G39" s="99">
+        <v>5</v>
+      </c>
       <c r="H39" s="96" t="s">
-        <v>20</v>
-      </c>
-      <c r="I39" s="15"/>
-    </row>
-    <row r="40" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+      <c r="I39" s="73"/>
+    </row>
+    <row r="40" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="93">
         <v>5</v>
       </c>
       <c r="B40" s="100" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C40" s="94" t="s">
         <v>19</v>
       </c>
-      <c r="D40" s="63"/>
+      <c r="D40" s="63" t="s">
+        <v>209</v>
+      </c>
       <c r="E40" s="95">
-        <v>43775</v>
+        <v>43784</v>
       </c>
       <c r="F40" s="99">
         <v>5</v>
       </c>
-      <c r="G40" s="93"/>
+      <c r="G40" s="99">
+        <v>5</v>
+      </c>
       <c r="H40" s="96" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I40" s="73"/>
     </row>
-    <row r="41" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" ht="52" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="93">
         <v>5</v>
       </c>
       <c r="B41" s="100" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C41" s="94" t="s">
         <v>19</v>
       </c>
       <c r="D41" s="63" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E41" s="95">
-        <v>43776</v>
+        <v>43785</v>
       </c>
       <c r="F41" s="99">
-        <v>5</v>
-      </c>
-      <c r="G41" s="93"/>
+        <v>6</v>
+      </c>
+      <c r="G41" s="93">
+        <v>6</v>
+      </c>
       <c r="H41" s="96" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I41" s="73"/>
     </row>
-    <row r="42" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="93">
-        <v>5</v>
-      </c>
-      <c r="B42" s="100" t="s">
-        <v>13</v>
-      </c>
-      <c r="C42" s="94" t="s">
+    <row r="42" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="103" t="s">
+        <v>15</v>
+      </c>
+      <c r="B42" s="103" t="s">
+        <v>16</v>
+      </c>
+      <c r="C42" s="116">
+        <f>SUM(F36:F41)</f>
+        <v>31</v>
+      </c>
+      <c r="D42" s="116"/>
+      <c r="E42" s="116"/>
+      <c r="F42" s="117"/>
+      <c r="G42" s="104" t="s">
+        <v>17</v>
+      </c>
+      <c r="H42" s="116">
+        <f>SUM(G36:G41)</f>
+        <v>31</v>
+      </c>
+      <c r="I42" s="117"/>
+    </row>
+    <row r="43" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="92" t="s">
+        <v>1</v>
+      </c>
+      <c r="B43" s="92" t="s">
+        <v>2</v>
+      </c>
+      <c r="C43" s="92" t="s">
+        <v>53</v>
+      </c>
+      <c r="D43" s="92" t="s">
+        <v>3</v>
+      </c>
+      <c r="E43" s="92" t="s">
+        <v>4</v>
+      </c>
+      <c r="F43" s="92" t="s">
+        <v>5</v>
+      </c>
+      <c r="G43" s="92" t="s">
+        <v>6</v>
+      </c>
+      <c r="H43" s="92" t="s">
+        <v>7</v>
+      </c>
+      <c r="I43" s="92" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="93">
+        <v>6</v>
+      </c>
+      <c r="B44" s="94" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44" s="94" t="s">
         <v>19</v>
       </c>
-      <c r="D42" s="63"/>
-      <c r="E42" s="95">
-        <v>43777</v>
-      </c>
-      <c r="F42" s="99">
-        <v>4.5</v>
-      </c>
-      <c r="G42" s="93"/>
-      <c r="H42" s="96" t="s">
-        <v>20</v>
-      </c>
-      <c r="I42" s="73"/>
-    </row>
-    <row r="43" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A43" s="93">
-        <v>5</v>
-      </c>
-      <c r="B43" s="100" t="s">
-        <v>14</v>
-      </c>
-      <c r="C43" s="94" t="s">
-        <v>19</v>
-      </c>
-      <c r="D43" s="63" t="s">
-        <v>174</v>
-      </c>
-      <c r="E43" s="95">
-        <v>43778</v>
-      </c>
-      <c r="F43" s="99">
-        <v>6</v>
-      </c>
-      <c r="G43" s="93"/>
-      <c r="H43" s="96" t="s">
-        <v>20</v>
-      </c>
-      <c r="I43" s="73"/>
-    </row>
-    <row r="44" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="103"/>
-      <c r="B44" s="104"/>
-      <c r="C44" s="103"/>
-      <c r="D44" s="105"/>
-      <c r="E44" s="102"/>
-      <c r="F44" s="103"/>
-      <c r="G44" s="103"/>
-      <c r="H44" s="96"/>
-      <c r="I44" s="106"/>
-    </row>
-    <row r="45" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="107" t="s">
-        <v>15</v>
-      </c>
-      <c r="B45" s="107" t="s">
-        <v>16</v>
-      </c>
-      <c r="C45" s="121">
-        <f>SUM(F38:F44)</f>
-        <v>30.5</v>
-      </c>
-      <c r="D45" s="121"/>
-      <c r="E45" s="121"/>
-      <c r="F45" s="122"/>
-      <c r="G45" s="108" t="s">
-        <v>17</v>
-      </c>
-      <c r="H45" s="121">
-        <f>SUM(G38:G44)</f>
-        <v>0</v>
-      </c>
-      <c r="I45" s="122"/>
-    </row>
-    <row r="46" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D44" s="69"/>
+      <c r="E44" s="95">
+        <v>43787</v>
+      </c>
+      <c r="F44" s="93">
+        <v>6</v>
+      </c>
+      <c r="G44" s="93">
+        <v>6</v>
+      </c>
+      <c r="H44" s="96" t="s">
+        <v>20</v>
+      </c>
+      <c r="I44" s="15"/>
+    </row>
+    <row r="45" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="93">
+        <v>6</v>
+      </c>
+      <c r="B45" s="97" t="s">
+        <v>10</v>
+      </c>
+      <c r="C45" s="94" t="s">
+        <v>63</v>
+      </c>
+      <c r="D45" s="69"/>
+      <c r="E45" s="95">
+        <v>43788</v>
+      </c>
+      <c r="F45" s="93">
+        <v>4</v>
+      </c>
+      <c r="G45" s="93">
+        <v>4</v>
+      </c>
+      <c r="H45" s="96" t="s">
+        <v>20</v>
+      </c>
+      <c r="I45" s="15"/>
+    </row>
+    <row r="46" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="93">
         <v>6</v>
       </c>
-      <c r="B46" s="94" t="s">
-        <v>9</v>
+      <c r="B46" s="100" t="s">
+        <v>11</v>
       </c>
       <c r="C46" s="94" t="s">
         <v>19</v>
       </c>
-      <c r="D46" s="69"/>
+      <c r="D46" s="63"/>
       <c r="E46" s="95">
-        <v>43780</v>
-      </c>
-      <c r="F46" s="93">
-        <v>6</v>
-      </c>
-      <c r="G46" s="93"/>
+        <v>43789</v>
+      </c>
+      <c r="F46" s="99">
+        <v>5</v>
+      </c>
+      <c r="G46" s="99">
+        <v>6</v>
+      </c>
       <c r="H46" s="96" t="s">
         <v>20</v>
       </c>
-      <c r="I46" s="15"/>
-    </row>
-    <row r="47" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I46" s="73"/>
+    </row>
+    <row r="47" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="93">
         <v>6</v>
       </c>
-      <c r="B47" s="97" t="s">
-        <v>10</v>
+      <c r="B47" s="100" t="s">
+        <v>12</v>
       </c>
       <c r="C47" s="94" t="s">
-        <v>63</v>
-      </c>
-      <c r="D47" s="69"/>
+        <v>19</v>
+      </c>
+      <c r="D47" s="63"/>
       <c r="E47" s="95">
-        <v>43781</v>
-      </c>
-      <c r="F47" s="93">
-        <v>4</v>
-      </c>
-      <c r="G47" s="93"/>
+        <v>43790</v>
+      </c>
+      <c r="F47" s="99">
+        <v>5</v>
+      </c>
+      <c r="G47" s="93">
+        <v>6</v>
+      </c>
       <c r="H47" s="96" t="s">
         <v>20</v>
       </c>
-      <c r="I47" s="15"/>
-    </row>
-    <row r="48" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I47" s="73"/>
+    </row>
+    <row r="48" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="93">
         <v>6</v>
       </c>
       <c r="B48" s="100" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C48" s="94" t="s">
         <v>19</v>
       </c>
-      <c r="D48" s="63"/>
+      <c r="D48" s="63" t="s">
+        <v>175</v>
+      </c>
       <c r="E48" s="95">
-        <v>43782</v>
+        <v>43791</v>
       </c>
       <c r="F48" s="99">
         <v>5</v>
       </c>
-      <c r="G48" s="93"/>
+      <c r="G48" s="93">
+        <v>6</v>
+      </c>
       <c r="H48" s="96" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I48" s="73"/>
     </row>
-    <row r="49" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" ht="52" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="93">
         <v>6</v>
       </c>
       <c r="B49" s="100" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C49" s="94" t="s">
         <v>19</v>
       </c>
-      <c r="D49" s="63"/>
+      <c r="D49" s="63" t="s">
+        <v>176</v>
+      </c>
       <c r="E49" s="95">
-        <v>43783</v>
+        <v>43792</v>
       </c>
       <c r="F49" s="99">
-        <v>5</v>
-      </c>
-      <c r="G49" s="93"/>
+        <v>6</v>
+      </c>
+      <c r="G49" s="99">
+        <v>6</v>
+      </c>
       <c r="H49" s="96" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I49" s="73"/>
     </row>
-    <row r="50" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="93">
-        <v>6</v>
-      </c>
-      <c r="B50" s="100" t="s">
-        <v>13</v>
-      </c>
-      <c r="C50" s="94" t="s">
-        <v>19</v>
-      </c>
-      <c r="D50" s="63" t="s">
-        <v>175</v>
-      </c>
-      <c r="E50" s="95">
-        <v>43784</v>
-      </c>
-      <c r="F50" s="99">
-        <v>4.5</v>
-      </c>
-      <c r="G50" s="93"/>
-      <c r="H50" s="96" t="s">
-        <v>20</v>
-      </c>
-      <c r="I50" s="73"/>
-    </row>
-    <row r="51" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A51" s="93">
-        <v>6</v>
-      </c>
-      <c r="B51" s="100" t="s">
-        <v>14</v>
-      </c>
-      <c r="C51" s="94" t="s">
-        <v>19</v>
-      </c>
-      <c r="D51" s="63" t="s">
-        <v>176</v>
-      </c>
-      <c r="E51" s="95">
-        <v>43785</v>
-      </c>
-      <c r="F51" s="99">
-        <v>6</v>
-      </c>
-      <c r="G51" s="93"/>
-      <c r="H51" s="96" t="s">
-        <v>20</v>
-      </c>
-      <c r="I51" s="73"/>
-    </row>
-    <row r="52" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="103"/>
-      <c r="B52" s="104"/>
-      <c r="C52" s="103"/>
-      <c r="D52" s="105"/>
-      <c r="E52" s="102"/>
-      <c r="F52" s="103"/>
-      <c r="G52" s="103"/>
-      <c r="H52" s="96"/>
-      <c r="I52" s="106"/>
-    </row>
-    <row r="53" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="107" t="s">
+    <row r="50" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="103" t="s">
         <v>15</v>
       </c>
-      <c r="B53" s="107" t="s">
+      <c r="B50" s="103" t="s">
         <v>16</v>
       </c>
-      <c r="C53" s="121">
-        <f>SUM(F46:F52)</f>
-        <v>30.5</v>
-      </c>
-      <c r="D53" s="121"/>
-      <c r="E53" s="121"/>
-      <c r="F53" s="122"/>
-      <c r="G53" s="108" t="s">
+      <c r="C50" s="116">
+        <f>SUM(F44:F49)</f>
+        <v>31</v>
+      </c>
+      <c r="D50" s="116"/>
+      <c r="E50" s="116"/>
+      <c r="F50" s="117"/>
+      <c r="G50" s="104" t="s">
         <v>17</v>
       </c>
-      <c r="H53" s="121">
-        <f>SUM(G46:G52)</f>
-        <v>0</v>
-      </c>
-      <c r="I53" s="122"/>
-    </row>
-    <row r="54" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H50" s="116">
+        <f>SUM(G44:G49)</f>
+        <v>34</v>
+      </c>
+      <c r="I50" s="117"/>
+    </row>
+    <row r="51" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="92" t="s">
+        <v>1</v>
+      </c>
+      <c r="B51" s="92" t="s">
+        <v>2</v>
+      </c>
+      <c r="C51" s="92" t="s">
+        <v>53</v>
+      </c>
+      <c r="D51" s="92" t="s">
+        <v>3</v>
+      </c>
+      <c r="E51" s="92" t="s">
+        <v>4</v>
+      </c>
+      <c r="F51" s="92" t="s">
+        <v>5</v>
+      </c>
+      <c r="G51" s="92" t="s">
+        <v>6</v>
+      </c>
+      <c r="H51" s="92" t="s">
+        <v>7</v>
+      </c>
+      <c r="I51" s="92" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="93">
+        <v>7</v>
+      </c>
+      <c r="B52" s="94" t="s">
+        <v>9</v>
+      </c>
+      <c r="C52" s="94" t="s">
+        <v>18</v>
+      </c>
+      <c r="D52" s="63" t="s">
+        <v>213</v>
+      </c>
+      <c r="E52" s="95">
+        <v>43794</v>
+      </c>
+      <c r="F52" s="93">
+        <v>6</v>
+      </c>
+      <c r="G52" s="93">
+        <v>6</v>
+      </c>
+      <c r="H52" s="96" t="s">
+        <v>20</v>
+      </c>
+      <c r="I52" s="15"/>
+    </row>
+    <row r="53" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="93">
+        <v>7</v>
+      </c>
+      <c r="B53" s="97" t="s">
+        <v>10</v>
+      </c>
+      <c r="C53" s="94" t="s">
+        <v>63</v>
+      </c>
+      <c r="D53" s="69"/>
+      <c r="E53" s="95">
+        <v>43795</v>
+      </c>
+      <c r="F53" s="93">
+        <v>4</v>
+      </c>
+      <c r="G53" s="93">
+        <v>4</v>
+      </c>
+      <c r="H53" s="96" t="s">
+        <v>20</v>
+      </c>
+      <c r="I53" s="15"/>
+    </row>
+    <row r="54" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="93">
         <v>7</v>
       </c>
-      <c r="B54" s="94" t="s">
-        <v>9</v>
+      <c r="B54" s="100" t="s">
+        <v>11</v>
       </c>
       <c r="C54" s="94" t="s">
-        <v>19</v>
-      </c>
-      <c r="D54" s="69"/>
+        <v>18</v>
+      </c>
+      <c r="D54" s="63" t="s">
+        <v>214</v>
+      </c>
       <c r="E54" s="95">
-        <v>43787</v>
-      </c>
-      <c r="F54" s="93">
-        <v>6</v>
-      </c>
-      <c r="G54" s="93"/>
+        <v>43796</v>
+      </c>
+      <c r="F54" s="99">
+        <v>5</v>
+      </c>
+      <c r="G54" s="99">
+        <v>6</v>
+      </c>
       <c r="H54" s="96" t="s">
         <v>20</v>
       </c>
-      <c r="I54" s="15"/>
-    </row>
-    <row r="55" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I54" s="73"/>
+    </row>
+    <row r="55" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A55" s="93">
         <v>7</v>
       </c>
-      <c r="B55" s="97" t="s">
-        <v>10</v>
+      <c r="B55" s="100" t="s">
+        <v>12</v>
       </c>
       <c r="C55" s="94" t="s">
-        <v>63</v>
-      </c>
-      <c r="D55" s="69"/>
+        <v>18</v>
+      </c>
+      <c r="D55" s="63" t="s">
+        <v>215</v>
+      </c>
       <c r="E55" s="95">
-        <v>43788</v>
-      </c>
-      <c r="F55" s="93">
-        <v>4</v>
-      </c>
-      <c r="G55" s="93"/>
+        <v>43797</v>
+      </c>
+      <c r="F55" s="99">
+        <v>6</v>
+      </c>
+      <c r="G55" s="93">
+        <v>6</v>
+      </c>
       <c r="H55" s="96" t="s">
         <v>20</v>
       </c>
-      <c r="I55" s="15"/>
-    </row>
-    <row r="56" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I55" s="73"/>
+    </row>
+    <row r="56" spans="1:9" ht="35" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A56" s="93">
         <v>7</v>
       </c>
       <c r="B56" s="100" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C56" s="94" t="s">
-        <v>19</v>
-      </c>
-      <c r="D56" s="63"/>
+        <v>18</v>
+      </c>
+      <c r="D56" s="63" t="s">
+        <v>216</v>
+      </c>
       <c r="E56" s="95">
-        <v>43789</v>
+        <v>43798</v>
       </c>
       <c r="F56" s="99">
         <v>5</v>
       </c>
-      <c r="G56" s="93"/>
+      <c r="G56" s="93">
+        <v>6</v>
+      </c>
       <c r="H56" s="96" t="s">
         <v>20</v>
       </c>
       <c r="I56" s="73"/>
     </row>
-    <row r="57" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" ht="52" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A57" s="93">
         <v>7</v>
       </c>
       <c r="B57" s="100" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C57" s="94" t="s">
         <v>19</v>
       </c>
-      <c r="D57" s="63"/>
+      <c r="D57" s="63" t="s">
+        <v>180</v>
+      </c>
       <c r="E57" s="95">
-        <v>43790</v>
+        <v>43799</v>
       </c>
       <c r="F57" s="99">
-        <v>6.5</v>
-      </c>
-      <c r="G57" s="93"/>
+        <v>6</v>
+      </c>
+      <c r="G57" s="99">
+        <v>6</v>
+      </c>
       <c r="H57" s="96" t="s">
         <v>20</v>
       </c>
       <c r="I57" s="73"/>
     </row>
-    <row r="58" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="93">
+    <row r="58" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="103" t="s">
+        <v>15</v>
+      </c>
+      <c r="B58" s="103" t="s">
+        <v>16</v>
+      </c>
+      <c r="C58" s="116">
+        <f>SUM(F52:F57)</f>
+        <v>32</v>
+      </c>
+      <c r="D58" s="116"/>
+      <c r="E58" s="116"/>
+      <c r="F58" s="117"/>
+      <c r="G58" s="104" t="s">
+        <v>17</v>
+      </c>
+      <c r="H58" s="116">
+        <f>SUM(G52:G57)</f>
+        <v>34</v>
+      </c>
+      <c r="I58" s="117"/>
+    </row>
+    <row r="59" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="92" t="s">
+        <v>1</v>
+      </c>
+      <c r="B59" s="92" t="s">
+        <v>2</v>
+      </c>
+      <c r="C59" s="92" t="s">
+        <v>53</v>
+      </c>
+      <c r="D59" s="92" t="s">
+        <v>3</v>
+      </c>
+      <c r="E59" s="92" t="s">
+        <v>4</v>
+      </c>
+      <c r="F59" s="92" t="s">
+        <v>5</v>
+      </c>
+      <c r="G59" s="92" t="s">
+        <v>6</v>
+      </c>
+      <c r="H59" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="B58" s="100" t="s">
-        <v>13</v>
-      </c>
-      <c r="C58" s="94" t="s">
-        <v>19</v>
-      </c>
-      <c r="D58" s="63"/>
-      <c r="E58" s="95">
-        <v>43791</v>
-      </c>
-      <c r="F58" s="99">
-        <v>5</v>
-      </c>
-      <c r="G58" s="93"/>
-      <c r="H58" s="96" t="s">
-        <v>20</v>
-      </c>
-      <c r="I58" s="73"/>
-    </row>
-    <row r="59" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A59" s="93">
-        <v>7</v>
-      </c>
-      <c r="B59" s="100" t="s">
-        <v>14</v>
-      </c>
-      <c r="C59" s="94" t="s">
-        <v>19</v>
-      </c>
-      <c r="D59" s="63" t="s">
-        <v>180</v>
-      </c>
-      <c r="E59" s="95">
-        <v>43792</v>
-      </c>
-      <c r="F59" s="99">
-        <v>6</v>
-      </c>
-      <c r="G59" s="93"/>
-      <c r="H59" s="96" t="s">
-        <v>20</v>
-      </c>
-      <c r="I59" s="73"/>
-    </row>
-    <row r="60" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="103"/>
-      <c r="B60" s="104"/>
-      <c r="C60" s="103"/>
-      <c r="D60" s="105"/>
-      <c r="E60" s="102"/>
-      <c r="F60" s="103"/>
-      <c r="G60" s="103"/>
-      <c r="H60" s="96"/>
-      <c r="I60" s="106"/>
-    </row>
-    <row r="61" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="107" t="s">
-        <v>15</v>
-      </c>
-      <c r="B61" s="107" t="s">
-        <v>16</v>
-      </c>
-      <c r="C61" s="121">
-        <f>SUM(F54:F60)</f>
-        <v>32.5</v>
-      </c>
-      <c r="D61" s="121"/>
-      <c r="E61" s="121"/>
-      <c r="F61" s="122"/>
-      <c r="G61" s="108" t="s">
-        <v>17</v>
-      </c>
-      <c r="H61" s="121">
-        <f>SUM(G54:G60)</f>
-        <v>0</v>
-      </c>
-      <c r="I61" s="122"/>
-    </row>
-    <row r="62" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I59" s="92" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="93">
+        <v>8</v>
+      </c>
+      <c r="B60" s="94" t="s">
+        <v>9</v>
+      </c>
+      <c r="C60" s="94" t="s">
+        <v>18</v>
+      </c>
+      <c r="D60" s="106" t="s">
+        <v>213</v>
+      </c>
+      <c r="E60" s="95">
+        <v>43801</v>
+      </c>
+      <c r="F60" s="93">
+        <v>5</v>
+      </c>
+      <c r="G60" s="93">
+        <v>6</v>
+      </c>
+      <c r="H60" s="96" t="s">
+        <v>20</v>
+      </c>
+      <c r="I60" s="15"/>
+    </row>
+    <row r="61" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="93">
+        <v>8</v>
+      </c>
+      <c r="B61" s="97" t="s">
+        <v>10</v>
+      </c>
+      <c r="C61" s="94" t="s">
+        <v>63</v>
+      </c>
+      <c r="D61" s="69"/>
+      <c r="E61" s="95">
+        <v>43802</v>
+      </c>
+      <c r="F61" s="93">
+        <v>4</v>
+      </c>
+      <c r="G61" s="93">
+        <v>4</v>
+      </c>
+      <c r="H61" s="96" t="s">
+        <v>20</v>
+      </c>
+      <c r="I61" s="15"/>
+    </row>
+    <row r="62" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A62" s="93">
         <v>8</v>
       </c>
-      <c r="B62" s="93" t="s">
-        <v>9</v>
-      </c>
-      <c r="C62" s="93" t="s">
-        <v>19</v>
-      </c>
-      <c r="D62" s="110"/>
+      <c r="B62" s="100" t="s">
+        <v>11</v>
+      </c>
+      <c r="C62" s="94" t="s">
+        <v>18</v>
+      </c>
+      <c r="D62" s="63" t="s">
+        <v>214</v>
+      </c>
       <c r="E62" s="95">
-        <v>43794</v>
-      </c>
-      <c r="F62" s="93">
-        <v>6</v>
-      </c>
-      <c r="G62" s="93"/>
+        <v>43803</v>
+      </c>
+      <c r="F62" s="99">
+        <v>5</v>
+      </c>
+      <c r="G62" s="99">
+        <v>6</v>
+      </c>
       <c r="H62" s="96" t="s">
         <v>20</v>
       </c>
-      <c r="I62" s="15"/>
-    </row>
-    <row r="63" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I62" s="73"/>
+    </row>
+    <row r="63" spans="1:9" ht="69" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A63" s="93">
         <v>8</v>
       </c>
-      <c r="B63" s="97" t="s">
-        <v>10</v>
+      <c r="B63" s="100" t="s">
+        <v>12</v>
       </c>
       <c r="C63" s="94" t="s">
-        <v>63</v>
-      </c>
-      <c r="D63" s="69"/>
+        <v>18</v>
+      </c>
+      <c r="D63" s="63" t="s">
+        <v>217</v>
+      </c>
       <c r="E63" s="95">
-        <v>43795</v>
-      </c>
-      <c r="F63" s="93">
-        <v>4</v>
-      </c>
-      <c r="G63" s="93"/>
+        <v>43804</v>
+      </c>
+      <c r="F63" s="99">
+        <v>5</v>
+      </c>
+      <c r="G63" s="99">
+        <v>6</v>
+      </c>
       <c r="H63" s="96" t="s">
         <v>20</v>
       </c>
-      <c r="I63" s="15"/>
-    </row>
-    <row r="64" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I63" s="73"/>
+    </row>
+    <row r="64" spans="1:9" ht="35" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A64" s="93">
         <v>8</v>
       </c>
       <c r="B64" s="100" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C64" s="94" t="s">
-        <v>19</v>
-      </c>
-      <c r="D64" s="63"/>
+        <v>18</v>
+      </c>
+      <c r="D64" s="63" t="s">
+        <v>219</v>
+      </c>
       <c r="E64" s="95">
-        <v>43796</v>
+        <v>43805</v>
       </c>
       <c r="F64" s="99">
-        <v>6</v>
-      </c>
-      <c r="G64" s="93"/>
+        <v>5.5</v>
+      </c>
+      <c r="G64" s="99">
+        <v>6</v>
+      </c>
       <c r="H64" s="96" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I64" s="73"/>
     </row>
-    <row r="65" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" ht="35" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A65" s="93">
         <v>8</v>
       </c>
       <c r="B65" s="100" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C65" s="94" t="s">
-        <v>19</v>
-      </c>
-      <c r="D65" s="63"/>
+        <v>18</v>
+      </c>
+      <c r="D65" s="63" t="s">
+        <v>218</v>
+      </c>
       <c r="E65" s="95">
-        <v>43797</v>
+        <v>43806</v>
       </c>
       <c r="F65" s="99">
-        <v>4</v>
-      </c>
-      <c r="G65" s="93"/>
+        <v>5.5</v>
+      </c>
+      <c r="G65" s="99">
+        <v>6</v>
+      </c>
       <c r="H65" s="96" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I65" s="73"/>
     </row>
-    <row r="66" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="93">
+    <row r="66" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="103">
         <v>8</v>
       </c>
-      <c r="B66" s="100" t="s">
-        <v>13</v>
-      </c>
-      <c r="C66" s="94" t="s">
-        <v>19</v>
-      </c>
-      <c r="D66" s="63"/>
-      <c r="E66" s="95">
-        <v>43798</v>
-      </c>
-      <c r="F66" s="99">
-        <v>5.5</v>
-      </c>
-      <c r="G66" s="93"/>
-      <c r="H66" s="96" t="s">
-        <v>20</v>
-      </c>
-      <c r="I66" s="73"/>
-    </row>
-    <row r="67" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A67" s="93">
+      <c r="B66" s="103" t="s">
+        <v>16</v>
+      </c>
+      <c r="C66" s="116">
+        <f>SUM(F60:F65)</f>
+        <v>30</v>
+      </c>
+      <c r="D66" s="116"/>
+      <c r="E66" s="116"/>
+      <c r="F66" s="117"/>
+      <c r="G66" s="104" t="s">
+        <v>17</v>
+      </c>
+      <c r="H66" s="116">
+        <f>SUM(G60:G65)</f>
+        <v>34</v>
+      </c>
+      <c r="I66" s="117"/>
+    </row>
+    <row r="67" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="92" t="s">
+        <v>1</v>
+      </c>
+      <c r="B67" s="92" t="s">
+        <v>2</v>
+      </c>
+      <c r="C67" s="92" t="s">
+        <v>53</v>
+      </c>
+      <c r="D67" s="92" t="s">
+        <v>3</v>
+      </c>
+      <c r="E67" s="92" t="s">
+        <v>4</v>
+      </c>
+      <c r="F67" s="92" t="s">
+        <v>5</v>
+      </c>
+      <c r="G67" s="92" t="s">
+        <v>6</v>
+      </c>
+      <c r="H67" s="92" t="s">
+        <v>7</v>
+      </c>
+      <c r="I67" s="92" t="s">
         <v>8</v>
       </c>
-      <c r="B67" s="100" t="s">
-        <v>14</v>
-      </c>
-      <c r="C67" s="94" t="s">
-        <v>19</v>
-      </c>
-      <c r="D67" s="63" t="s">
-        <v>184</v>
-      </c>
-      <c r="E67" s="95">
-        <v>43799</v>
-      </c>
-      <c r="F67" s="99">
-        <v>6</v>
-      </c>
-      <c r="G67" s="93"/>
-      <c r="H67" s="96" t="s">
-        <v>20</v>
-      </c>
-      <c r="I67" s="73"/>
-    </row>
-    <row r="68" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="111">
-        <v>8</v>
-      </c>
-      <c r="B68" s="104"/>
-      <c r="C68" s="103"/>
-      <c r="D68" s="105"/>
-      <c r="E68" s="102"/>
-      <c r="F68" s="103"/>
-      <c r="G68" s="103"/>
-      <c r="H68" s="96"/>
-      <c r="I68" s="106"/>
-    </row>
-    <row r="69" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="107">
-        <v>8</v>
-      </c>
-      <c r="B69" s="107" t="s">
-        <v>16</v>
-      </c>
-      <c r="C69" s="121">
-        <f>SUM(F62:F68)</f>
-        <v>31.5</v>
-      </c>
-      <c r="D69" s="121"/>
-      <c r="E69" s="121"/>
-      <c r="F69" s="122"/>
-      <c r="G69" s="108" t="s">
-        <v>17</v>
-      </c>
-      <c r="H69" s="121">
-        <f>SUM(G62:G68)</f>
-        <v>0</v>
-      </c>
-      <c r="I69" s="122"/>
-    </row>
-    <row r="70" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="68" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="93">
+        <v>9</v>
+      </c>
+      <c r="B68" s="94" t="s">
+        <v>9</v>
+      </c>
+      <c r="C68" s="94" t="s">
+        <v>18</v>
+      </c>
+      <c r="D68" s="106" t="s">
+        <v>220</v>
+      </c>
+      <c r="E68" s="95">
+        <v>43808</v>
+      </c>
+      <c r="F68" s="93">
+        <v>6</v>
+      </c>
+      <c r="G68" s="93">
+        <v>6</v>
+      </c>
+      <c r="H68" s="96" t="s">
+        <v>20</v>
+      </c>
+      <c r="I68" s="15"/>
+    </row>
+    <row r="69" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="93">
+        <v>9</v>
+      </c>
+      <c r="B69" s="97" t="s">
+        <v>10</v>
+      </c>
+      <c r="C69" s="94" t="s">
+        <v>63</v>
+      </c>
+      <c r="D69" s="69"/>
+      <c r="E69" s="95">
+        <v>43809</v>
+      </c>
+      <c r="F69" s="93">
+        <v>4</v>
+      </c>
+      <c r="G69" s="93">
+        <v>4</v>
+      </c>
+      <c r="H69" s="96" t="s">
+        <v>20</v>
+      </c>
+      <c r="I69" s="15"/>
+    </row>
+    <row r="70" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A70" s="93">
         <v>9</v>
       </c>
-      <c r="B70" s="93" t="s">
-        <v>9</v>
-      </c>
-      <c r="C70" s="93" t="s">
-        <v>19</v>
-      </c>
-      <c r="D70" s="110"/>
+      <c r="B70" s="100" t="s">
+        <v>11</v>
+      </c>
+      <c r="C70" s="94" t="s">
+        <v>18</v>
+      </c>
+      <c r="D70" s="63" t="s">
+        <v>221</v>
+      </c>
       <c r="E70" s="95">
-        <v>43801</v>
-      </c>
-      <c r="F70" s="93">
-        <v>6</v>
-      </c>
-      <c r="G70" s="93"/>
+        <v>43810</v>
+      </c>
+      <c r="F70" s="99">
+        <v>6</v>
+      </c>
+      <c r="G70" s="99">
+        <v>6</v>
+      </c>
       <c r="H70" s="96" t="s">
         <v>20</v>
       </c>
-      <c r="I70" s="15"/>
-    </row>
-    <row r="71" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I70" s="73"/>
+    </row>
+    <row r="71" spans="1:9" ht="35" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A71" s="93">
         <v>9</v>
       </c>
-      <c r="B71" s="97" t="s">
-        <v>10</v>
+      <c r="B71" s="100" t="s">
+        <v>12</v>
       </c>
       <c r="C71" s="94" t="s">
-        <v>63</v>
-      </c>
-      <c r="D71" s="69"/>
+        <v>18</v>
+      </c>
+      <c r="D71" s="63" t="s">
+        <v>222</v>
+      </c>
       <c r="E71" s="95">
-        <v>43802</v>
-      </c>
-      <c r="F71" s="93">
-        <v>4</v>
-      </c>
-      <c r="G71" s="93"/>
+        <v>43811</v>
+      </c>
+      <c r="F71" s="99">
+        <v>4</v>
+      </c>
+      <c r="G71" s="99">
+        <v>6</v>
+      </c>
       <c r="H71" s="96" t="s">
         <v>20</v>
       </c>
-      <c r="I71" s="15"/>
-    </row>
-    <row r="72" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I71" s="73"/>
+    </row>
+    <row r="72" spans="1:9" ht="35" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A72" s="93">
         <v>9</v>
       </c>
       <c r="B72" s="100" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C72" s="94" t="s">
-        <v>19</v>
-      </c>
-      <c r="D72" s="63"/>
+        <v>18</v>
+      </c>
+      <c r="D72" s="63" t="s">
+        <v>223</v>
+      </c>
       <c r="E72" s="95">
-        <v>43803</v>
+        <v>43812</v>
       </c>
       <c r="F72" s="99">
-        <v>6</v>
-      </c>
-      <c r="G72" s="93"/>
+        <v>5.5</v>
+      </c>
+      <c r="G72" s="99">
+        <v>6</v>
+      </c>
       <c r="H72" s="96" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I72" s="73"/>
     </row>
-    <row r="73" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A73" s="93">
         <v>9</v>
       </c>
       <c r="B73" s="100" t="s">
+        <v>14</v>
+      </c>
+      <c r="C73" s="94" t="s">
+        <v>18</v>
+      </c>
+      <c r="D73" s="63" t="s">
+        <v>224</v>
+      </c>
+      <c r="E73" s="95">
+        <v>43813</v>
+      </c>
+      <c r="F73" s="99">
+        <v>6</v>
+      </c>
+      <c r="G73" s="99">
+        <v>6</v>
+      </c>
+      <c r="H73" s="96" t="s">
+        <v>20</v>
+      </c>
+      <c r="I73" s="73"/>
+    </row>
+    <row r="74" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="103">
+        <v>9</v>
+      </c>
+      <c r="B74" s="103" t="s">
+        <v>16</v>
+      </c>
+      <c r="C74" s="116">
+        <f>SUM(F68:F73)</f>
+        <v>31.5</v>
+      </c>
+      <c r="D74" s="116"/>
+      <c r="E74" s="116"/>
+      <c r="F74" s="117"/>
+      <c r="G74" s="104" t="s">
+        <v>17</v>
+      </c>
+      <c r="H74" s="116">
+        <f>SUM(G68:G73)</f>
+        <v>34</v>
+      </c>
+      <c r="I74" s="117"/>
+    </row>
+    <row r="75" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="92" t="s">
+        <v>1</v>
+      </c>
+      <c r="B75" s="92" t="s">
+        <v>2</v>
+      </c>
+      <c r="C75" s="92" t="s">
+        <v>53</v>
+      </c>
+      <c r="D75" s="92" t="s">
+        <v>3</v>
+      </c>
+      <c r="E75" s="92" t="s">
+        <v>4</v>
+      </c>
+      <c r="F75" s="92" t="s">
+        <v>5</v>
+      </c>
+      <c r="G75" s="92" t="s">
+        <v>6</v>
+      </c>
+      <c r="H75" s="92" t="s">
+        <v>7</v>
+      </c>
+      <c r="I75" s="92" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="93">
+        <v>10</v>
+      </c>
+      <c r="B76" s="94" t="s">
+        <v>9</v>
+      </c>
+      <c r="C76" s="94" t="s">
+        <v>18</v>
+      </c>
+      <c r="D76" s="106" t="s">
+        <v>225</v>
+      </c>
+      <c r="E76" s="95">
+        <v>43815</v>
+      </c>
+      <c r="F76" s="93">
+        <v>6</v>
+      </c>
+      <c r="G76" s="93">
+        <v>6</v>
+      </c>
+      <c r="H76" s="96" t="s">
+        <v>20</v>
+      </c>
+      <c r="I76" s="15"/>
+    </row>
+    <row r="77" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="93">
+        <v>10</v>
+      </c>
+      <c r="B77" s="97" t="s">
+        <v>10</v>
+      </c>
+      <c r="C77" s="94" t="s">
+        <v>63</v>
+      </c>
+      <c r="E77" s="95">
+        <v>43816</v>
+      </c>
+      <c r="F77" s="93">
+        <v>4</v>
+      </c>
+      <c r="G77" s="93">
+        <v>4</v>
+      </c>
+      <c r="H77" s="96" t="s">
+        <v>20</v>
+      </c>
+      <c r="I77" s="15"/>
+    </row>
+    <row r="78" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="93">
+        <v>10</v>
+      </c>
+      <c r="B78" s="100" t="s">
+        <v>11</v>
+      </c>
+      <c r="C78" s="94" t="s">
+        <v>18</v>
+      </c>
+      <c r="D78" s="63" t="s">
+        <v>226</v>
+      </c>
+      <c r="E78" s="95">
+        <v>43817</v>
+      </c>
+      <c r="F78" s="99">
+        <v>6</v>
+      </c>
+      <c r="G78" s="99">
+        <v>6</v>
+      </c>
+      <c r="H78" s="96" t="s">
+        <v>20</v>
+      </c>
+      <c r="I78" s="73"/>
+    </row>
+    <row r="79" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="93">
+        <v>10</v>
+      </c>
+      <c r="B79" s="100" t="s">
         <v>12</v>
       </c>
-      <c r="C73" s="94" t="s">
-        <v>19</v>
-      </c>
-      <c r="D73" s="63"/>
-      <c r="E73" s="95">
-        <v>43804</v>
-      </c>
-      <c r="F73" s="99">
-        <v>4</v>
-      </c>
-      <c r="G73" s="93"/>
-      <c r="H73" s="96" t="s">
-        <v>21</v>
-      </c>
-      <c r="I73" s="73"/>
-    </row>
-    <row r="74" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="93">
-        <v>9</v>
-      </c>
-      <c r="B74" s="100" t="s">
+      <c r="C79" s="94" t="s">
+        <v>18</v>
+      </c>
+      <c r="D79" s="125" t="s">
+        <v>97</v>
+      </c>
+      <c r="E79" s="95">
+        <v>43818</v>
+      </c>
+      <c r="F79" s="99">
+        <v>4</v>
+      </c>
+      <c r="G79" s="99">
+        <v>4</v>
+      </c>
+      <c r="H79" s="96" t="s">
+        <v>20</v>
+      </c>
+      <c r="I79" s="73"/>
+    </row>
+    <row r="80" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="93">
+        <v>10</v>
+      </c>
+      <c r="B80" s="100" t="s">
         <v>13</v>
       </c>
-      <c r="C74" s="94" t="s">
-        <v>19</v>
-      </c>
-      <c r="D74" s="63"/>
-      <c r="E74" s="95">
-        <v>43805</v>
-      </c>
-      <c r="F74" s="99">
+      <c r="C80" s="94" t="s">
+        <v>18</v>
+      </c>
+      <c r="D80" s="63" t="s">
+        <v>100</v>
+      </c>
+      <c r="E80" s="95">
+        <v>43819</v>
+      </c>
+      <c r="F80" s="99">
         <v>5.5</v>
       </c>
-      <c r="G74" s="93"/>
-      <c r="H74" s="96" t="s">
-        <v>20</v>
-      </c>
-      <c r="I74" s="73"/>
-    </row>
-    <row r="75" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A75" s="93">
-        <v>9</v>
-      </c>
-      <c r="B75" s="100" t="s">
+      <c r="G80" s="99">
+        <v>5.5</v>
+      </c>
+      <c r="H80" s="96" t="s">
+        <v>20</v>
+      </c>
+      <c r="I80" s="73"/>
+    </row>
+    <row r="81" spans="1:9" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="93">
+        <v>10</v>
+      </c>
+      <c r="B81" s="100" t="s">
         <v>14</v>
       </c>
-      <c r="C75" s="94" t="s">
-        <v>19</v>
-      </c>
-      <c r="D75" s="63" t="s">
-        <v>184</v>
-      </c>
-      <c r="E75" s="95">
-        <v>43806</v>
-      </c>
-      <c r="F75" s="99">
-        <v>6</v>
-      </c>
-      <c r="G75" s="93"/>
-      <c r="H75" s="96" t="s">
-        <v>20</v>
-      </c>
-      <c r="I75" s="73"/>
-    </row>
-    <row r="76" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="111">
-        <v>9</v>
-      </c>
-      <c r="B76" s="104"/>
-      <c r="C76" s="103"/>
-      <c r="D76" s="105"/>
-      <c r="E76" s="102"/>
-      <c r="F76" s="103"/>
-      <c r="G76" s="103"/>
-      <c r="H76" s="96"/>
-      <c r="I76" s="106"/>
-    </row>
-    <row r="77" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="107">
-        <v>9</v>
-      </c>
-      <c r="B77" s="107" t="s">
+      <c r="C81" s="94" t="s">
+        <v>18</v>
+      </c>
+      <c r="D81" s="63" t="s">
+        <v>227</v>
+      </c>
+      <c r="E81" s="95">
+        <v>43820</v>
+      </c>
+      <c r="F81" s="99">
+        <v>6</v>
+      </c>
+      <c r="G81" s="99">
+        <v>6</v>
+      </c>
+      <c r="H81" s="96" t="s">
+        <v>20</v>
+      </c>
+      <c r="I81" s="73"/>
+    </row>
+    <row r="82" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="103">
+        <v>10</v>
+      </c>
+      <c r="B82" s="103" t="s">
         <v>16</v>
       </c>
-      <c r="C77" s="121">
-        <f>SUM(F70:F76)</f>
+      <c r="C82" s="116">
+        <f>SUM(F76:F81)</f>
         <v>31.5</v>
       </c>
-      <c r="D77" s="121"/>
-      <c r="E77" s="121"/>
-      <c r="F77" s="122"/>
-      <c r="G77" s="108" t="s">
+      <c r="D82" s="116"/>
+      <c r="E82" s="116"/>
+      <c r="F82" s="117"/>
+      <c r="G82" s="104" t="s">
         <v>17</v>
       </c>
-      <c r="H77" s="121">
-        <f>SUM(G70:G76)</f>
-        <v>0</v>
-      </c>
-      <c r="I77" s="122"/>
+      <c r="H82" s="116">
+        <f>SUM(G76:G81)</f>
+        <v>31.5</v>
+      </c>
+      <c r="I82" s="117"/>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F87" s="124"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="C53:F53"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="C37:F37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="C45:F45"/>
-    <mergeCell ref="H45:I45"/>
+  <mergeCells count="21">
+    <mergeCell ref="C82:F82"/>
+    <mergeCell ref="H82:I82"/>
+    <mergeCell ref="C58:F58"/>
+    <mergeCell ref="H58:I58"/>
+    <mergeCell ref="C66:F66"/>
+    <mergeCell ref="H66:I66"/>
+    <mergeCell ref="C74:F74"/>
+    <mergeCell ref="H74:I74"/>
     <mergeCell ref="A2:I2"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="C61:F61"/>
-    <mergeCell ref="H61:I61"/>
-    <mergeCell ref="C69:F69"/>
-    <mergeCell ref="H69:I69"/>
-    <mergeCell ref="C77:F77"/>
-    <mergeCell ref="H77:I77"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="C50:F50"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="C42:F42"/>
+    <mergeCell ref="H42:I42"/>
   </mergeCells>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10 C19 C28 C36 C44 C52 C60 C68 C76" xr:uid="{49E4ABBA-BF99-4A08-9146-05B03FF61551}">
-      <formula1>"Project Management, Requirement, Architecture and Desgin, Implementation, Testing, Training, Meetting Customer, Meetting Mentor"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C9 C13:C18 C22:C27 C30:C35 C38:C43 C46:C51 C54:C59 C63:C67 C71:C75" xr:uid="{7BB7431A-7120-424E-9970-47B42B760419}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C68:C73 C60:C65 C20:C25 C28:C33 C36:C41 C44:C49 C52:C57 C14 C76:C81" xr:uid="{2E6CC8C7-6B67-FF4B-AF76-9E3D9C05AD3D}">
       <formula1>"Project Management, Requirement, Architecture and Desgin, Implementation, Testing, Training, Meetting Customer, Meeting Mentor"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:H10 H13:H19 H54:H60 H30:H36 H38:H44 H46:H52 H70:H76 H62:H68 H22:H28" xr:uid="{4A0F2AA5-85B8-464F-8CAA-CD36662ED450}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:H9 H12:H17 H52:H57 H28:H33 H36:H41 H44:H49 H68:H73 H76:H81 H20:H25 H60:H65" xr:uid="{027D75ED-402C-094C-89E7-5C18703E5A59}">
       <formula1>"Done,Inprogress "</formula1>
     </dataValidation>
-    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3 B12" xr:uid="{22474DAD-5ABA-4447-B2F6-2025840C9401}">
+    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19 B27 B35 B43 B51 B59 B67 B75" xr:uid="{2DE99157-EED3-0A48-991E-802A67756538}">
+      <formula1>#REF!</formula1>
+      <formula2>B25</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C9 C12:C13 C15:C17" xr:uid="{0E4F558A-1C41-4541-B5FE-DF79E2E3DC8A}">
+      <formula1>"Research,Project Management, Requirement, Architecture and Desgin, Implementation, Testing, Training, Meetting Customer, Meeting Mentor"</formula1>
+    </dataValidation>
+    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B11 B3" xr:uid="{25ECA1C1-A62E-024A-A264-014EFC087B87}">
       <formula1>B4</formula1>
-      <formula2>B10</formula2>
-    </dataValidation>
-    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B21" xr:uid="{B68F232B-FC91-4BB4-9C4A-D7FE8146B9F0}">
-      <formula1>#REF!</formula1>
-      <formula2>B27</formula2>
+      <formula2>#REF!</formula2>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11637,21 +12099,21 @@
   <dimension ref="A1:L75"/>
   <sheetViews>
     <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:I75"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="30.7109375" customWidth="1"/>
+    <col min="1" max="1" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>65</v>
       </c>
@@ -11664,20 +12126,20 @@
       <c r="H1" s="21"/>
       <c r="I1" s="22"/>
     </row>
-    <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="114" t="s">
+    <row r="2" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="109" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="115"/>
-      <c r="C2" s="116"/>
-      <c r="D2" s="116"/>
-      <c r="E2" s="116"/>
-      <c r="F2" s="116"/>
-      <c r="G2" s="116"/>
-      <c r="H2" s="116"/>
-      <c r="I2" s="117"/>
-    </row>
-    <row r="3" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="110"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="112"/>
+    </row>
+    <row r="3" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
         <v>1</v>
       </c>
@@ -11706,7 +12168,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="10">
         <v>1</v>
       </c>
@@ -11731,7 +12193,7 @@
       </c>
       <c r="I4" s="15"/>
     </row>
-    <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="10">
         <v>1</v>
       </c>
@@ -11759,7 +12221,7 @@
       <c r="I5" s="15"/>
       <c r="L5" s="77"/>
     </row>
-    <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -11786,7 +12248,7 @@
       </c>
       <c r="I6" s="3"/>
     </row>
-    <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -11813,7 +12275,7 @@
       </c>
       <c r="I7" s="3"/>
     </row>
-    <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>1</v>
       </c>
@@ -11838,7 +12300,7 @@
       </c>
       <c r="I8" s="3"/>
     </row>
-    <row r="9" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="34" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>1</v>
       </c>
@@ -11867,7 +12329,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9"/>
       <c r="B10" s="11"/>
       <c r="C10" s="9"/>
@@ -11878,30 +12340,30 @@
       <c r="H10" s="14"/>
       <c r="I10" s="5"/>
     </row>
-    <row r="11" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="67" t="s">
         <v>15</v>
       </c>
       <c r="B11" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="119">
+      <c r="C11" s="114">
         <f>SUM(F4:F10)</f>
         <v>27</v>
       </c>
-      <c r="D11" s="119"/>
-      <c r="E11" s="119"/>
-      <c r="F11" s="120"/>
+      <c r="D11" s="114"/>
+      <c r="E11" s="114"/>
+      <c r="F11" s="115"/>
       <c r="G11" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="119">
+      <c r="H11" s="114">
         <f>SUM(G4:G10)</f>
         <v>30</v>
       </c>
-      <c r="I11" s="120"/>
-    </row>
-    <row r="12" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I11" s="115"/>
+    </row>
+    <row r="12" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="10">
         <v>2</v>
       </c>
@@ -11928,7 +12390,7 @@
       </c>
       <c r="I12" s="15"/>
     </row>
-    <row r="13" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="10">
         <v>2</v>
       </c>
@@ -11955,7 +12417,7 @@
       </c>
       <c r="I13" s="15"/>
     </row>
-    <row r="14" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="10">
         <v>2</v>
       </c>
@@ -11980,7 +12442,7 @@
       </c>
       <c r="I14" s="3"/>
     </row>
-    <row r="15" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="10">
         <v>2</v>
       </c>
@@ -12007,7 +12469,7 @@
       </c>
       <c r="I15" s="3"/>
     </row>
-    <row r="16" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="10">
         <v>2</v>
       </c>
@@ -12034,7 +12496,7 @@
       </c>
       <c r="I16" s="3"/>
     </row>
-    <row r="17" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A17" s="10">
         <v>2</v>
       </c>
@@ -12063,7 +12525,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9"/>
       <c r="B18" s="11"/>
       <c r="C18" s="9"/>
@@ -12074,30 +12536,30 @@
       <c r="H18" s="14"/>
       <c r="I18" s="5"/>
     </row>
-    <row r="19" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="67" t="s">
         <v>15</v>
       </c>
       <c r="B19" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="119">
+      <c r="C19" s="114">
         <f>SUM(F12:F18)</f>
         <v>29</v>
       </c>
-      <c r="D19" s="119"/>
-      <c r="E19" s="119"/>
-      <c r="F19" s="120"/>
+      <c r="D19" s="114"/>
+      <c r="E19" s="114"/>
+      <c r="F19" s="115"/>
       <c r="G19" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H19" s="119">
+      <c r="H19" s="114">
         <f>SUM(G12:G18)</f>
         <v>30</v>
       </c>
-      <c r="I19" s="120"/>
-    </row>
-    <row r="20" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I19" s="115"/>
+    </row>
+    <row r="20" spans="1:9" ht="52" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="10">
         <v>3</v>
       </c>
@@ -12124,7 +12586,7 @@
       </c>
       <c r="I20" s="15"/>
     </row>
-    <row r="21" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="10">
         <v>3</v>
       </c>
@@ -12149,7 +12611,7 @@
       </c>
       <c r="I21" s="15"/>
     </row>
-    <row r="22" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="10">
         <v>3</v>
       </c>
@@ -12174,7 +12636,7 @@
       </c>
       <c r="I22" s="3"/>
     </row>
-    <row r="23" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="10">
         <v>3</v>
       </c>
@@ -12203,7 +12665,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="10">
         <v>3</v>
       </c>
@@ -12230,7 +12692,7 @@
       </c>
       <c r="I24" s="3"/>
     </row>
-    <row r="25" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A25" s="10">
         <v>3</v>
       </c>
@@ -12259,7 +12721,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="9"/>
       <c r="B26" s="11"/>
       <c r="C26" s="9"/>
@@ -12270,30 +12732,30 @@
       <c r="H26" s="14"/>
       <c r="I26" s="5"/>
     </row>
-    <row r="27" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="67" t="s">
         <v>15</v>
       </c>
       <c r="B27" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C27" s="119">
+      <c r="C27" s="114">
         <f>SUM(F20:F26)</f>
         <v>29.5</v>
       </c>
-      <c r="D27" s="119"/>
-      <c r="E27" s="119"/>
-      <c r="F27" s="120"/>
+      <c r="D27" s="114"/>
+      <c r="E27" s="114"/>
+      <c r="F27" s="115"/>
       <c r="G27" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H27" s="119">
+      <c r="H27" s="114">
         <f>SUM(G20:G26)</f>
         <v>35</v>
       </c>
-      <c r="I27" s="120"/>
-    </row>
-    <row r="28" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I27" s="115"/>
+    </row>
+    <row r="28" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="10">
         <v>4</v>
       </c>
@@ -12322,7 +12784,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="10">
         <v>4</v>
       </c>
@@ -12351,7 +12813,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="10">
         <v>4</v>
       </c>
@@ -12376,7 +12838,7 @@
       </c>
       <c r="I30" s="3"/>
     </row>
-    <row r="31" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="10">
         <v>4</v>
       </c>
@@ -12403,7 +12865,7 @@
       </c>
       <c r="I31" s="3"/>
     </row>
-    <row r="32" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="10">
         <v>4</v>
       </c>
@@ -12428,7 +12890,7 @@
       </c>
       <c r="I32" s="3"/>
     </row>
-    <row r="33" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A33" s="10">
         <v>4</v>
       </c>
@@ -12457,7 +12919,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="9"/>
       <c r="B34" s="11"/>
       <c r="C34" s="9"/>
@@ -12468,30 +12930,30 @@
       <c r="H34" s="14"/>
       <c r="I34" s="5"/>
     </row>
-    <row r="35" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="67" t="s">
         <v>15</v>
       </c>
       <c r="B35" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C35" s="119">
+      <c r="C35" s="114">
         <f>SUM(F28:F34)</f>
         <v>31.5</v>
       </c>
-      <c r="D35" s="119"/>
-      <c r="E35" s="119"/>
-      <c r="F35" s="120"/>
+      <c r="D35" s="114"/>
+      <c r="E35" s="114"/>
+      <c r="F35" s="115"/>
       <c r="G35" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H35" s="119">
+      <c r="H35" s="114">
         <f>SUM(G28:G34)</f>
         <v>35</v>
       </c>
-      <c r="I35" s="120"/>
-    </row>
-    <row r="36" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I35" s="115"/>
+    </row>
+    <row r="36" spans="1:9" ht="52" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="10">
         <v>5</v>
       </c>
@@ -12518,7 +12980,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="10">
         <v>5</v>
       </c>
@@ -12541,7 +13003,7 @@
       </c>
       <c r="I37" s="15"/>
     </row>
-    <row r="38" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="10">
         <v>5</v>
       </c>
@@ -12566,7 +13028,7 @@
       </c>
       <c r="I38" s="3"/>
     </row>
-    <row r="39" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="10">
         <v>5</v>
       </c>
@@ -12591,7 +13053,7 @@
       </c>
       <c r="I39" s="3"/>
     </row>
-    <row r="40" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" ht="35" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="10">
         <v>5</v>
       </c>
@@ -12616,7 +13078,7 @@
       </c>
       <c r="I40" s="3"/>
     </row>
-    <row r="41" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A41" s="10">
         <v>5</v>
       </c>
@@ -12641,7 +13103,7 @@
       </c>
       <c r="I41" s="3"/>
     </row>
-    <row r="42" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="9"/>
       <c r="B42" s="11"/>
       <c r="C42" s="9"/>
@@ -12652,30 +13114,30 @@
       <c r="H42" s="14"/>
       <c r="I42" s="5"/>
     </row>
-    <row r="43" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="67" t="s">
         <v>15</v>
       </c>
       <c r="B43" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C43" s="119">
+      <c r="C43" s="114">
         <f>SUM(F36:F42)</f>
         <v>30.5</v>
       </c>
-      <c r="D43" s="119"/>
-      <c r="E43" s="119"/>
-      <c r="F43" s="120"/>
+      <c r="D43" s="114"/>
+      <c r="E43" s="114"/>
+      <c r="F43" s="115"/>
       <c r="G43" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H43" s="119">
+      <c r="H43" s="114">
         <f>SUM(G36:G42)</f>
         <v>0</v>
       </c>
-      <c r="I43" s="120"/>
-    </row>
-    <row r="44" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I43" s="115"/>
+    </row>
+    <row r="44" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="10">
         <v>6</v>
       </c>
@@ -12698,7 +13160,7 @@
       </c>
       <c r="I44" s="15"/>
     </row>
-    <row r="45" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="10">
         <v>6</v>
       </c>
@@ -12721,7 +13183,7 @@
       </c>
       <c r="I45" s="15"/>
     </row>
-    <row r="46" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="10">
         <v>6</v>
       </c>
@@ -12744,7 +13206,7 @@
       </c>
       <c r="I46" s="3"/>
     </row>
-    <row r="47" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="10">
         <v>6</v>
       </c>
@@ -12767,7 +13229,7 @@
       </c>
       <c r="I47" s="3"/>
     </row>
-    <row r="48" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="10">
         <v>6</v>
       </c>
@@ -12792,7 +13254,7 @@
       </c>
       <c r="I48" s="3"/>
     </row>
-    <row r="49" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A49" s="10">
         <v>6</v>
       </c>
@@ -12817,7 +13279,7 @@
       </c>
       <c r="I49" s="3"/>
     </row>
-    <row r="50" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="9"/>
       <c r="B50" s="11"/>
       <c r="C50" s="9"/>
@@ -12828,30 +13290,30 @@
       <c r="H50" s="14"/>
       <c r="I50" s="5"/>
     </row>
-    <row r="51" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="67" t="s">
         <v>15</v>
       </c>
       <c r="B51" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C51" s="119">
+      <c r="C51" s="114">
         <f>SUM(F44:F50)</f>
         <v>30.5</v>
       </c>
-      <c r="D51" s="119"/>
-      <c r="E51" s="119"/>
-      <c r="F51" s="120"/>
+      <c r="D51" s="114"/>
+      <c r="E51" s="114"/>
+      <c r="F51" s="115"/>
       <c r="G51" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H51" s="119">
+      <c r="H51" s="114">
         <f>SUM(G44:G50)</f>
         <v>0</v>
       </c>
-      <c r="I51" s="120"/>
-    </row>
-    <row r="52" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I51" s="115"/>
+    </row>
+    <row r="52" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="10">
         <v>7</v>
       </c>
@@ -12876,7 +13338,7 @@
       </c>
       <c r="I52" s="15"/>
     </row>
-    <row r="53" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" s="10">
         <v>7</v>
       </c>
@@ -12899,7 +13361,7 @@
       </c>
       <c r="I53" s="15"/>
     </row>
-    <row r="54" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="10">
         <v>7</v>
       </c>
@@ -12924,7 +13386,7 @@
       </c>
       <c r="I54" s="3"/>
     </row>
-    <row r="55" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A55" s="10">
         <v>7</v>
       </c>
@@ -12949,7 +13411,7 @@
       </c>
       <c r="I55" s="3"/>
     </row>
-    <row r="56" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A56" s="10">
         <v>7</v>
       </c>
@@ -12974,7 +13436,7 @@
       </c>
       <c r="I56" s="3"/>
     </row>
-    <row r="57" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A57" s="10">
         <v>7</v>
       </c>
@@ -12999,7 +13461,7 @@
       </c>
       <c r="I57" s="3"/>
     </row>
-    <row r="58" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A58" s="9"/>
       <c r="B58" s="11"/>
       <c r="C58" s="9"/>
@@ -13010,30 +13472,30 @@
       <c r="H58" s="14"/>
       <c r="I58" s="5"/>
     </row>
-    <row r="59" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A59" s="67" t="s">
         <v>15</v>
       </c>
       <c r="B59" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C59" s="119">
+      <c r="C59" s="114">
         <f>SUM(F52:F58)</f>
         <v>32.5</v>
       </c>
-      <c r="D59" s="119"/>
-      <c r="E59" s="119"/>
-      <c r="F59" s="120"/>
+      <c r="D59" s="114"/>
+      <c r="E59" s="114"/>
+      <c r="F59" s="115"/>
       <c r="G59" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H59" s="119">
+      <c r="H59" s="114">
         <f>SUM(G52:G58)</f>
         <v>0</v>
       </c>
-      <c r="I59" s="120"/>
-    </row>
-    <row r="60" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I59" s="115"/>
+    </row>
+    <row r="60" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A60" s="10">
         <v>8</v>
       </c>
@@ -13058,7 +13520,7 @@
       </c>
       <c r="I60" s="15"/>
     </row>
-    <row r="61" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A61" s="10">
         <v>8</v>
       </c>
@@ -13081,7 +13543,7 @@
       </c>
       <c r="I61" s="15"/>
     </row>
-    <row r="62" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A62" s="10">
         <v>8</v>
       </c>
@@ -13106,7 +13568,7 @@
       </c>
       <c r="I62" s="3"/>
     </row>
-    <row r="63" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A63" s="10">
         <v>8</v>
       </c>
@@ -13131,7 +13593,7 @@
       </c>
       <c r="I63" s="3"/>
     </row>
-    <row r="64" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A64" s="10">
         <v>8</v>
       </c>
@@ -13156,7 +13618,7 @@
       </c>
       <c r="I64" s="3"/>
     </row>
-    <row r="65" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A65" s="10">
         <v>8</v>
       </c>
@@ -13181,7 +13643,7 @@
       </c>
       <c r="I65" s="3"/>
     </row>
-    <row r="66" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A66" s="76">
         <v>8</v>
       </c>
@@ -13194,30 +13656,30 @@
       <c r="H66" s="14"/>
       <c r="I66" s="5"/>
     </row>
-    <row r="67" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A67" s="67">
         <v>8</v>
       </c>
       <c r="B67" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C67" s="119">
+      <c r="C67" s="114">
         <f>SUM(F60:F66)</f>
         <v>31.5</v>
       </c>
-      <c r="D67" s="119"/>
-      <c r="E67" s="119"/>
-      <c r="F67" s="120"/>
+      <c r="D67" s="114"/>
+      <c r="E67" s="114"/>
+      <c r="F67" s="115"/>
       <c r="G67" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H67" s="119">
+      <c r="H67" s="114">
         <f>SUM(G60:G66)</f>
         <v>0</v>
       </c>
-      <c r="I67" s="120"/>
-    </row>
-    <row r="68" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I67" s="115"/>
+    </row>
+    <row r="68" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A68" s="10">
         <v>9</v>
       </c>
@@ -13242,7 +13704,7 @@
       </c>
       <c r="I68" s="15"/>
     </row>
-    <row r="69" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A69" s="10">
         <v>9</v>
       </c>
@@ -13265,7 +13727,7 @@
       </c>
       <c r="I69" s="15"/>
     </row>
-    <row r="70" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A70" s="10">
         <v>9</v>
       </c>
@@ -13290,7 +13752,7 @@
       </c>
       <c r="I70" s="3"/>
     </row>
-    <row r="71" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A71" s="10">
         <v>9</v>
       </c>
@@ -13315,7 +13777,7 @@
       </c>
       <c r="I71" s="3"/>
     </row>
-    <row r="72" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A72" s="10">
         <v>9</v>
       </c>
@@ -13340,7 +13802,7 @@
       </c>
       <c r="I72" s="3"/>
     </row>
-    <row r="73" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A73" s="10">
         <v>9</v>
       </c>
@@ -13365,7 +13827,7 @@
       </c>
       <c r="I73" s="3"/>
     </row>
-    <row r="74" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A74" s="76">
         <v>9</v>
       </c>
@@ -13378,31 +13840,37 @@
       <c r="H74" s="14"/>
       <c r="I74" s="5"/>
     </row>
-    <row r="75" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A75" s="67">
         <v>9</v>
       </c>
       <c r="B75" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C75" s="119">
+      <c r="C75" s="114">
         <f>SUM(F68:F74)</f>
         <v>31.5</v>
       </c>
-      <c r="D75" s="119"/>
-      <c r="E75" s="119"/>
-      <c r="F75" s="120"/>
+      <c r="D75" s="114"/>
+      <c r="E75" s="114"/>
+      <c r="F75" s="115"/>
       <c r="G75" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H75" s="119">
+      <c r="H75" s="114">
         <f>SUM(G68:G74)</f>
         <v>0</v>
       </c>
-      <c r="I75" s="120"/>
+      <c r="I75" s="115"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="C59:F59"/>
+    <mergeCell ref="H59:I59"/>
+    <mergeCell ref="C67:F67"/>
+    <mergeCell ref="H67:I67"/>
+    <mergeCell ref="C75:F75"/>
+    <mergeCell ref="H75:I75"/>
     <mergeCell ref="C51:F51"/>
     <mergeCell ref="H51:I51"/>
     <mergeCell ref="A2:I2"/>
@@ -13416,12 +13884,6 @@
     <mergeCell ref="H35:I35"/>
     <mergeCell ref="C43:F43"/>
     <mergeCell ref="H43:I43"/>
-    <mergeCell ref="C59:F59"/>
-    <mergeCell ref="H59:I59"/>
-    <mergeCell ref="C67:F67"/>
-    <mergeCell ref="H67:I67"/>
-    <mergeCell ref="C75:F75"/>
-    <mergeCell ref="H75:I75"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10 C18 C26 C34 C42 C50 C58 C66 C74" xr:uid="{37F695A9-FAA1-4B0C-BCF8-EDBE86D67943}">

--- a/Improgress/4. Timelog/PM_TimeLog.xlsx
+++ b/Improgress/4. Timelog/PM_TimeLog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/Capstone-Project/Improgress/4. Timelog/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B68E0C5-D459-384F-9432-E3C9A1FA33A0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A068F727-DDBA-E94E-860D-4E30B7424706}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1580,6 +1580,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1627,15 +1636,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -4817,17 +4817,17 @@
       <c r="I1" s="22"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="109" t="s">
+      <c r="A2" s="112" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="110"/>
-      <c r="C2" s="111"/>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="111"/>
-      <c r="H2" s="111"/>
-      <c r="I2" s="112"/>
+      <c r="B2" s="113"/>
+      <c r="C2" s="114"/>
+      <c r="D2" s="114"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="114"/>
+      <c r="G2" s="114"/>
+      <c r="H2" s="114"/>
+      <c r="I2" s="115"/>
     </row>
     <row r="3" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
@@ -5036,21 +5036,21 @@
       <c r="B11" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="107">
+      <c r="C11" s="110">
         <f>SUM(F4:F10)</f>
         <v>30</v>
       </c>
-      <c r="D11" s="107"/>
-      <c r="E11" s="107"/>
-      <c r="F11" s="108"/>
+      <c r="D11" s="110"/>
+      <c r="E11" s="110"/>
+      <c r="F11" s="111"/>
       <c r="G11" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="107">
+      <c r="H11" s="110">
         <f>SUM(G4:G10)</f>
         <v>30</v>
       </c>
-      <c r="I11" s="108"/>
+      <c r="I11" s="111"/>
     </row>
     <row r="12" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="24" t="s">
@@ -5261,21 +5261,21 @@
       <c r="B20" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="107">
+      <c r="C20" s="110">
         <f>SUM(F13:F19)</f>
         <v>31.5</v>
       </c>
-      <c r="D20" s="107"/>
-      <c r="E20" s="107"/>
-      <c r="F20" s="108"/>
+      <c r="D20" s="110"/>
+      <c r="E20" s="110"/>
+      <c r="F20" s="111"/>
       <c r="G20" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H20" s="107">
+      <c r="H20" s="110">
         <f>SUM(G13:G19)</f>
         <v>34</v>
       </c>
-      <c r="I20" s="108"/>
+      <c r="I20" s="111"/>
     </row>
     <row r="21" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="24" t="s">
@@ -5510,21 +5510,21 @@
       <c r="B30" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C30" s="107">
+      <c r="C30" s="110">
         <f>SUM(F22:F29)</f>
         <v>36.5</v>
       </c>
-      <c r="D30" s="107"/>
-      <c r="E30" s="107"/>
-      <c r="F30" s="108"/>
+      <c r="D30" s="110"/>
+      <c r="E30" s="110"/>
+      <c r="F30" s="111"/>
       <c r="G30" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H30" s="107">
+      <c r="H30" s="110">
         <f>SUM(G22:G29)</f>
         <v>38</v>
       </c>
-      <c r="I30" s="108"/>
+      <c r="I30" s="111"/>
     </row>
     <row r="31" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="24" t="s">
@@ -5761,21 +5761,21 @@
       <c r="B40" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C40" s="107">
+      <c r="C40" s="110">
         <f>SUM(F32:F39)</f>
         <v>36.5</v>
       </c>
-      <c r="D40" s="107"/>
-      <c r="E40" s="107"/>
-      <c r="F40" s="108"/>
+      <c r="D40" s="110"/>
+      <c r="E40" s="110"/>
+      <c r="F40" s="111"/>
       <c r="G40" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H40" s="107">
+      <c r="H40" s="110">
         <f>SUM(G32:G39)</f>
         <v>38</v>
       </c>
-      <c r="I40" s="108"/>
+      <c r="I40" s="111"/>
     </row>
     <row r="41" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="24" t="s">
@@ -6010,21 +6010,21 @@
       <c r="B50" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C50" s="107">
+      <c r="C50" s="110">
         <f>SUM(F42:F49)</f>
         <v>35</v>
       </c>
-      <c r="D50" s="107"/>
-      <c r="E50" s="107"/>
-      <c r="F50" s="108"/>
+      <c r="D50" s="110"/>
+      <c r="E50" s="110"/>
+      <c r="F50" s="111"/>
       <c r="G50" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H50" s="107">
+      <c r="H50" s="110">
         <f>SUM(G42:G49)</f>
         <v>35</v>
       </c>
-      <c r="I50" s="108"/>
+      <c r="I50" s="111"/>
     </row>
     <row r="51" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="24" t="s">
@@ -6238,21 +6238,21 @@
       <c r="B59" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C59" s="107">
+      <c r="C59" s="110">
         <f>SUM(F52:F58)</f>
         <v>32.5</v>
       </c>
-      <c r="D59" s="107"/>
-      <c r="E59" s="107"/>
-      <c r="F59" s="108"/>
+      <c r="D59" s="110"/>
+      <c r="E59" s="110"/>
+      <c r="F59" s="111"/>
       <c r="G59" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H59" s="107">
+      <c r="H59" s="110">
         <f>SUM(G52:G58)</f>
         <v>34</v>
       </c>
-      <c r="I59" s="108"/>
+      <c r="I59" s="111"/>
     </row>
     <row r="60" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A60" s="24" t="s">
@@ -6414,21 +6414,21 @@
       <c r="B68" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C68" s="107">
+      <c r="C68" s="110">
         <f>SUM(F61:F67)</f>
         <v>0</v>
       </c>
-      <c r="D68" s="107"/>
-      <c r="E68" s="107"/>
-      <c r="F68" s="108"/>
+      <c r="D68" s="110"/>
+      <c r="E68" s="110"/>
+      <c r="F68" s="111"/>
       <c r="G68" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H68" s="107">
+      <c r="H68" s="110">
         <f>SUM(G61:G67)</f>
         <v>36</v>
       </c>
-      <c r="I68" s="108"/>
+      <c r="I68" s="111"/>
     </row>
     <row r="69" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A69" s="24" t="s">
@@ -6590,21 +6590,21 @@
       <c r="B77" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C77" s="107">
+      <c r="C77" s="110">
         <f>SUM(F70:F76)</f>
         <v>0</v>
       </c>
-      <c r="D77" s="107"/>
-      <c r="E77" s="107"/>
-      <c r="F77" s="108"/>
+      <c r="D77" s="110"/>
+      <c r="E77" s="110"/>
+      <c r="F77" s="111"/>
       <c r="G77" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H77" s="107">
+      <c r="H77" s="110">
         <f>SUM(G70:G76)</f>
         <v>36</v>
       </c>
-      <c r="I77" s="108"/>
+      <c r="I77" s="111"/>
     </row>
     <row r="78" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A78" s="24" t="s">
@@ -6766,21 +6766,21 @@
       <c r="B86" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C86" s="107">
+      <c r="C86" s="110">
         <f>SUM(F79:F85)</f>
         <v>0</v>
       </c>
-      <c r="D86" s="107"/>
-      <c r="E86" s="107"/>
-      <c r="F86" s="108"/>
+      <c r="D86" s="110"/>
+      <c r="E86" s="110"/>
+      <c r="F86" s="111"/>
       <c r="G86" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H86" s="107">
+      <c r="H86" s="110">
         <f>SUM(G79:G85)</f>
         <v>36</v>
       </c>
-      <c r="I86" s="108"/>
+      <c r="I86" s="111"/>
     </row>
     <row r="87" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A87" s="24" t="s">
@@ -6942,30 +6942,30 @@
       <c r="B95" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C95" s="107">
+      <c r="C95" s="110">
         <f>SUM(F88:F94)</f>
         <v>0</v>
       </c>
-      <c r="D95" s="107"/>
-      <c r="E95" s="107"/>
-      <c r="F95" s="108"/>
+      <c r="D95" s="110"/>
+      <c r="E95" s="110"/>
+      <c r="F95" s="111"/>
       <c r="G95" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H95" s="107">
+      <c r="H95" s="110">
         <f>SUM(G88:G94)</f>
         <v>36</v>
       </c>
-      <c r="I95" s="108"/>
+      <c r="I95" s="111"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="C68:F68"/>
-    <mergeCell ref="H68:I68"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="C77:F77"/>
+    <mergeCell ref="H77:I77"/>
+    <mergeCell ref="C86:F86"/>
+    <mergeCell ref="H86:I86"/>
+    <mergeCell ref="C95:F95"/>
+    <mergeCell ref="H95:I95"/>
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="C50:F50"/>
     <mergeCell ref="H50:I50"/>
@@ -6975,12 +6975,12 @@
     <mergeCell ref="H30:I30"/>
     <mergeCell ref="C40:F40"/>
     <mergeCell ref="H40:I40"/>
-    <mergeCell ref="C77:F77"/>
-    <mergeCell ref="H77:I77"/>
-    <mergeCell ref="C86:F86"/>
-    <mergeCell ref="H86:I86"/>
-    <mergeCell ref="C95:F95"/>
-    <mergeCell ref="H95:I95"/>
+    <mergeCell ref="C68:F68"/>
+    <mergeCell ref="H68:I68"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="H20:I20"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <dataValidations count="7">
@@ -7050,17 +7050,17 @@
       <c r="I1" s="22"/>
     </row>
     <row r="2" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="109" t="s">
+      <c r="A2" s="112" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="110"/>
-      <c r="C2" s="111"/>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="111"/>
-      <c r="H2" s="111"/>
-      <c r="I2" s="112"/>
+      <c r="B2" s="113"/>
+      <c r="C2" s="114"/>
+      <c r="D2" s="114"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="114"/>
+      <c r="G2" s="114"/>
+      <c r="H2" s="114"/>
+      <c r="I2" s="115"/>
     </row>
     <row r="3" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
@@ -7267,21 +7267,21 @@
       <c r="B11" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="113">
+      <c r="C11" s="116">
         <f>SUM(F4:F10)</f>
         <v>26</v>
       </c>
-      <c r="D11" s="107"/>
-      <c r="E11" s="107"/>
-      <c r="F11" s="108"/>
+      <c r="D11" s="110"/>
+      <c r="E11" s="110"/>
+      <c r="F11" s="111"/>
       <c r="G11" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="107">
+      <c r="H11" s="110">
         <f>SUM(G4:G10)</f>
         <v>26</v>
       </c>
-      <c r="I11" s="108"/>
+      <c r="I11" s="111"/>
     </row>
     <row r="12" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="24" t="s">
@@ -7494,21 +7494,21 @@
       <c r="B20" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="107">
+      <c r="C20" s="110">
         <f>SUM(F13:F19)</f>
         <v>30</v>
       </c>
-      <c r="D20" s="107"/>
-      <c r="E20" s="107"/>
-      <c r="F20" s="108"/>
+      <c r="D20" s="110"/>
+      <c r="E20" s="110"/>
+      <c r="F20" s="111"/>
       <c r="G20" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H20" s="107">
+      <c r="H20" s="110">
         <f>SUM(G13:G19)</f>
         <v>30</v>
       </c>
-      <c r="I20" s="108"/>
+      <c r="I20" s="111"/>
     </row>
     <row r="21" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="24" t="s">
@@ -7741,21 +7741,21 @@
       <c r="B29" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="107">
+      <c r="C29" s="110">
         <f>SUM(F22:F28)</f>
         <v>45</v>
       </c>
-      <c r="D29" s="107"/>
-      <c r="E29" s="107"/>
-      <c r="F29" s="108"/>
+      <c r="D29" s="110"/>
+      <c r="E29" s="110"/>
+      <c r="F29" s="111"/>
       <c r="G29" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H29" s="107">
+      <c r="H29" s="110">
         <f>SUM(G22:G28)</f>
         <v>37</v>
       </c>
-      <c r="I29" s="108"/>
+      <c r="I29" s="111"/>
     </row>
     <row r="30" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="24" t="s">
@@ -7950,21 +7950,21 @@
       <c r="B38" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C38" s="107">
+      <c r="C38" s="110">
         <f>SUM(F31:F37)</f>
         <v>38</v>
       </c>
-      <c r="D38" s="107"/>
-      <c r="E38" s="107"/>
-      <c r="F38" s="108"/>
+      <c r="D38" s="110"/>
+      <c r="E38" s="110"/>
+      <c r="F38" s="111"/>
       <c r="G38" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H38" s="107">
+      <c r="H38" s="110">
         <f>SUM(G31:G37)</f>
         <v>0</v>
       </c>
-      <c r="I38" s="108"/>
+      <c r="I38" s="111"/>
     </row>
     <row r="39" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="24" t="s">
@@ -8117,21 +8117,21 @@
       <c r="B47" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C47" s="107">
+      <c r="C47" s="110">
         <f>SUM(F40:F46)</f>
         <v>0</v>
       </c>
-      <c r="D47" s="107"/>
-      <c r="E47" s="107"/>
-      <c r="F47" s="108"/>
+      <c r="D47" s="110"/>
+      <c r="E47" s="110"/>
+      <c r="F47" s="111"/>
       <c r="G47" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H47" s="107">
+      <c r="H47" s="110">
         <f>SUM(G40:G46)</f>
         <v>0</v>
       </c>
-      <c r="I47" s="108"/>
+      <c r="I47" s="111"/>
     </row>
     <row r="48" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="24" t="s">
@@ -8284,21 +8284,21 @@
       <c r="B56" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C56" s="107">
+      <c r="C56" s="110">
         <f>SUM(F49:F55)</f>
         <v>0</v>
       </c>
-      <c r="D56" s="107"/>
-      <c r="E56" s="107"/>
-      <c r="F56" s="108"/>
+      <c r="D56" s="110"/>
+      <c r="E56" s="110"/>
+      <c r="F56" s="111"/>
       <c r="G56" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H56" s="107">
+      <c r="H56" s="110">
         <f>SUM(G49:G55)</f>
         <v>0</v>
       </c>
-      <c r="I56" s="108"/>
+      <c r="I56" s="111"/>
     </row>
     <row r="57" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A57" s="24" t="s">
@@ -8507,21 +8507,21 @@
       <c r="B65" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C65" s="107">
+      <c r="C65" s="110">
         <f>SUM(F58:F64)</f>
         <v>50</v>
       </c>
-      <c r="D65" s="107"/>
-      <c r="E65" s="107"/>
-      <c r="F65" s="108"/>
+      <c r="D65" s="110"/>
+      <c r="E65" s="110"/>
+      <c r="F65" s="111"/>
       <c r="G65" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H65" s="107">
+      <c r="H65" s="110">
         <f>SUM(G58:G64)</f>
         <v>0</v>
       </c>
-      <c r="I65" s="108"/>
+      <c r="I65" s="111"/>
     </row>
     <row r="66" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A66" s="24" t="s">
@@ -8698,29 +8698,24 @@
       <c r="B74" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C74" s="107">
+      <c r="C74" s="110">
         <f>SUM(F67:F73)</f>
         <v>10</v>
       </c>
-      <c r="D74" s="107"/>
-      <c r="E74" s="107"/>
-      <c r="F74" s="108"/>
+      <c r="D74" s="110"/>
+      <c r="E74" s="110"/>
+      <c r="F74" s="111"/>
       <c r="G74" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H74" s="107">
+      <c r="H74" s="110">
         <f>SUM(G67:G73)</f>
         <v>0</v>
       </c>
-      <c r="I74" s="108"/>
+      <c r="I74" s="111"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="H20:I20"/>
     <mergeCell ref="C74:F74"/>
     <mergeCell ref="H74:I74"/>
     <mergeCell ref="C65:F65"/>
@@ -8733,6 +8728,11 @@
     <mergeCell ref="H47:I47"/>
     <mergeCell ref="C56:F56"/>
     <mergeCell ref="H56:I56"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="H20:I20"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <dataValidations count="6">
@@ -8795,17 +8795,17 @@
       <c r="I1" s="22"/>
     </row>
     <row r="2" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="109" t="s">
+      <c r="A2" s="112" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="110"/>
-      <c r="C2" s="111"/>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="111"/>
-      <c r="H2" s="111"/>
-      <c r="I2" s="112"/>
+      <c r="B2" s="113"/>
+      <c r="C2" s="114"/>
+      <c r="D2" s="114"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="114"/>
+      <c r="G2" s="114"/>
+      <c r="H2" s="114"/>
+      <c r="I2" s="115"/>
     </row>
     <row r="3" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
@@ -9010,21 +9010,21 @@
       <c r="B11" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="114">
+      <c r="C11" s="117">
         <f>SUM(F4:F10)</f>
         <v>26.5</v>
       </c>
-      <c r="D11" s="114"/>
-      <c r="E11" s="114"/>
-      <c r="F11" s="115"/>
+      <c r="D11" s="117"/>
+      <c r="E11" s="117"/>
+      <c r="F11" s="118"/>
       <c r="G11" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="114">
+      <c r="H11" s="117">
         <f>SUM(G4:G10)</f>
         <v>27.5</v>
       </c>
-      <c r="I11" s="115"/>
+      <c r="I11" s="118"/>
     </row>
     <row r="12" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="24" t="s">
@@ -9225,21 +9225,21 @@
       <c r="B20" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="114">
+      <c r="C20" s="117">
         <f>SUM(F13:F19)</f>
         <v>18.5</v>
       </c>
-      <c r="D20" s="114"/>
-      <c r="E20" s="114"/>
-      <c r="F20" s="115"/>
+      <c r="D20" s="117"/>
+      <c r="E20" s="117"/>
+      <c r="F20" s="118"/>
       <c r="G20" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H20" s="114">
+      <c r="H20" s="117">
         <f>SUM(G13:G19)</f>
         <v>22</v>
       </c>
-      <c r="I20" s="115"/>
+      <c r="I20" s="118"/>
     </row>
     <row r="21" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="24" t="s">
@@ -9378,21 +9378,21 @@
       <c r="B29" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="107">
+      <c r="C29" s="110">
         <f>SUM(F22:F28)</f>
         <v>0</v>
       </c>
-      <c r="D29" s="107"/>
-      <c r="E29" s="107"/>
-      <c r="F29" s="108"/>
+      <c r="D29" s="110"/>
+      <c r="E29" s="110"/>
+      <c r="F29" s="111"/>
       <c r="G29" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H29" s="107">
+      <c r="H29" s="110">
         <f>SUM(G22:G28)</f>
         <v>0</v>
       </c>
-      <c r="I29" s="108"/>
+      <c r="I29" s="111"/>
     </row>
     <row r="30" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="24" t="s">
@@ -9531,21 +9531,21 @@
       <c r="B38" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C38" s="107">
+      <c r="C38" s="110">
         <f>SUM(F31:F37)</f>
         <v>0</v>
       </c>
-      <c r="D38" s="107"/>
-      <c r="E38" s="107"/>
-      <c r="F38" s="108"/>
+      <c r="D38" s="110"/>
+      <c r="E38" s="110"/>
+      <c r="F38" s="111"/>
       <c r="G38" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H38" s="107">
+      <c r="H38" s="110">
         <f>SUM(G31:G37)</f>
         <v>0</v>
       </c>
-      <c r="I38" s="108"/>
+      <c r="I38" s="111"/>
     </row>
     <row r="39" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="24" t="s">
@@ -9684,21 +9684,21 @@
       <c r="B47" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C47" s="107">
+      <c r="C47" s="110">
         <f>SUM(F40:F46)</f>
         <v>0</v>
       </c>
-      <c r="D47" s="107"/>
-      <c r="E47" s="107"/>
-      <c r="F47" s="108"/>
+      <c r="D47" s="110"/>
+      <c r="E47" s="110"/>
+      <c r="F47" s="111"/>
       <c r="G47" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H47" s="107">
+      <c r="H47" s="110">
         <f>SUM(G40:G46)</f>
         <v>0</v>
       </c>
-      <c r="I47" s="108"/>
+      <c r="I47" s="111"/>
     </row>
     <row r="48" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="24" t="s">
@@ -9837,29 +9837,24 @@
       <c r="B56" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C56" s="107">
+      <c r="C56" s="110">
         <f>SUM(F49:F55)</f>
         <v>0</v>
       </c>
-      <c r="D56" s="107"/>
-      <c r="E56" s="107"/>
-      <c r="F56" s="108"/>
+      <c r="D56" s="110"/>
+      <c r="E56" s="110"/>
+      <c r="F56" s="111"/>
       <c r="G56" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H56" s="107">
+      <c r="H56" s="110">
         <f>SUM(G49:G55)</f>
         <v>0</v>
       </c>
-      <c r="I56" s="108"/>
+      <c r="I56" s="111"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="H20:I20"/>
     <mergeCell ref="C56:F56"/>
     <mergeCell ref="H56:I56"/>
     <mergeCell ref="C29:F29"/>
@@ -9868,6 +9863,11 @@
     <mergeCell ref="H38:I38"/>
     <mergeCell ref="C47:F47"/>
     <mergeCell ref="H47:I47"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="H20:I20"/>
   </mergeCells>
   <dataValidations count="6">
     <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3 B12" xr:uid="{6FFE7BB2-A561-485E-81E9-2571AC8DE5CA}">
@@ -9900,8 +9900,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8D98322-3746-4D23-926C-85D7A07E9BC3}">
   <dimension ref="A1:I87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="E79" sqref="E79"/>
+    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="D69" sqref="D69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9928,17 +9928,17 @@
       <c r="I1" s="90"/>
     </row>
     <row r="2" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="118" t="s">
+      <c r="A2" s="121" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="119"/>
-      <c r="C2" s="120"/>
-      <c r="D2" s="120"/>
-      <c r="E2" s="120"/>
-      <c r="F2" s="120"/>
-      <c r="G2" s="120"/>
-      <c r="H2" s="120"/>
-      <c r="I2" s="121"/>
+      <c r="B2" s="122"/>
+      <c r="C2" s="123"/>
+      <c r="D2" s="123"/>
+      <c r="E2" s="123"/>
+      <c r="F2" s="123"/>
+      <c r="G2" s="123"/>
+      <c r="H2" s="123"/>
+      <c r="I2" s="124"/>
     </row>
     <row r="3" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="92" t="s">
@@ -10132,21 +10132,21 @@
       <c r="B10" s="103" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="116">
+      <c r="C10" s="119">
         <f>SUM(F4:F9)</f>
         <v>24</v>
       </c>
-      <c r="D10" s="116"/>
-      <c r="E10" s="116"/>
-      <c r="F10" s="117"/>
+      <c r="D10" s="119"/>
+      <c r="E10" s="119"/>
+      <c r="F10" s="120"/>
       <c r="G10" s="104" t="s">
         <v>17</v>
       </c>
-      <c r="H10" s="116">
+      <c r="H10" s="119">
         <f>SUM(G4:G9)</f>
         <v>28</v>
       </c>
-      <c r="I10" s="117"/>
+      <c r="I10" s="120"/>
     </row>
     <row r="11" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="92" t="s">
@@ -10344,21 +10344,21 @@
       <c r="B18" s="103" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="116">
+      <c r="C18" s="119">
         <f>SUM(F12:F17)</f>
         <v>27</v>
       </c>
-      <c r="D18" s="116"/>
-      <c r="E18" s="116"/>
-      <c r="F18" s="117"/>
+      <c r="D18" s="119"/>
+      <c r="E18" s="119"/>
+      <c r="F18" s="120"/>
       <c r="G18" s="104" t="s">
         <v>17</v>
       </c>
-      <c r="H18" s="116">
+      <c r="H18" s="119">
         <f>SUM(G12:G17)</f>
         <v>30</v>
       </c>
-      <c r="I18" s="117"/>
+      <c r="I18" s="120"/>
     </row>
     <row r="19" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="92" t="s">
@@ -10554,21 +10554,21 @@
       <c r="B26" s="103" t="s">
         <v>16</v>
       </c>
-      <c r="C26" s="122">
+      <c r="C26" s="125">
         <f>SUM(F20:F25)</f>
         <v>30</v>
       </c>
-      <c r="D26" s="116"/>
-      <c r="E26" s="116"/>
-      <c r="F26" s="117"/>
+      <c r="D26" s="119"/>
+      <c r="E26" s="119"/>
+      <c r="F26" s="120"/>
       <c r="G26" s="104" t="s">
         <v>17</v>
       </c>
-      <c r="H26" s="122">
+      <c r="H26" s="125">
         <f>SUM(G20:G25)</f>
         <v>30</v>
       </c>
-      <c r="I26" s="117"/>
+      <c r="I26" s="120"/>
     </row>
     <row r="27" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="92" t="s">
@@ -10763,21 +10763,21 @@
       <c r="B34" s="103" t="s">
         <v>16</v>
       </c>
-      <c r="C34" s="116">
+      <c r="C34" s="119">
         <f>SUM(F28:F33)</f>
         <v>30</v>
       </c>
-      <c r="D34" s="116"/>
-      <c r="E34" s="116"/>
-      <c r="F34" s="117"/>
+      <c r="D34" s="119"/>
+      <c r="E34" s="119"/>
+      <c r="F34" s="120"/>
       <c r="G34" s="104" t="s">
         <v>17</v>
       </c>
-      <c r="H34" s="116">
+      <c r="H34" s="119">
         <f>SUM(G28:G33)</f>
         <v>31</v>
       </c>
-      <c r="I34" s="117"/>
+      <c r="I34" s="120"/>
     </row>
     <row r="35" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="92" t="s">
@@ -10869,7 +10869,7 @@
       <c r="C38" s="94" t="s">
         <v>19</v>
       </c>
-      <c r="D38" s="123" t="s">
+      <c r="D38" s="107" t="s">
         <v>208</v>
       </c>
       <c r="E38" s="95">
@@ -10974,21 +10974,21 @@
       <c r="B42" s="103" t="s">
         <v>16</v>
       </c>
-      <c r="C42" s="116">
+      <c r="C42" s="119">
         <f>SUM(F36:F41)</f>
         <v>31</v>
       </c>
-      <c r="D42" s="116"/>
-      <c r="E42" s="116"/>
-      <c r="F42" s="117"/>
+      <c r="D42" s="119"/>
+      <c r="E42" s="119"/>
+      <c r="F42" s="120"/>
       <c r="G42" s="104" t="s">
         <v>17</v>
       </c>
-      <c r="H42" s="116">
+      <c r="H42" s="119">
         <f>SUM(G36:G41)</f>
         <v>31</v>
       </c>
-      <c r="I42" s="117"/>
+      <c r="I42" s="120"/>
     </row>
     <row r="43" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="92" t="s">
@@ -11180,21 +11180,21 @@
       <c r="B50" s="103" t="s">
         <v>16</v>
       </c>
-      <c r="C50" s="116">
+      <c r="C50" s="119">
         <f>SUM(F44:F49)</f>
         <v>31</v>
       </c>
-      <c r="D50" s="116"/>
-      <c r="E50" s="116"/>
-      <c r="F50" s="117"/>
+      <c r="D50" s="119"/>
+      <c r="E50" s="119"/>
+      <c r="F50" s="120"/>
       <c r="G50" s="104" t="s">
         <v>17</v>
       </c>
-      <c r="H50" s="116">
+      <c r="H50" s="119">
         <f>SUM(G44:G49)</f>
         <v>34</v>
       </c>
-      <c r="I50" s="117"/>
+      <c r="I50" s="120"/>
     </row>
     <row r="51" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="92" t="s">
@@ -11392,21 +11392,21 @@
       <c r="B58" s="103" t="s">
         <v>16</v>
       </c>
-      <c r="C58" s="116">
+      <c r="C58" s="119">
         <f>SUM(F52:F57)</f>
         <v>32</v>
       </c>
-      <c r="D58" s="116"/>
-      <c r="E58" s="116"/>
-      <c r="F58" s="117"/>
+      <c r="D58" s="119"/>
+      <c r="E58" s="119"/>
+      <c r="F58" s="120"/>
       <c r="G58" s="104" t="s">
         <v>17</v>
       </c>
-      <c r="H58" s="116">
+      <c r="H58" s="119">
         <f>SUM(G52:G57)</f>
         <v>34</v>
       </c>
-      <c r="I58" s="117"/>
+      <c r="I58" s="120"/>
     </row>
     <row r="59" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A59" s="92" t="s">
@@ -11604,21 +11604,21 @@
       <c r="B66" s="103" t="s">
         <v>16</v>
       </c>
-      <c r="C66" s="116">
+      <c r="C66" s="119">
         <f>SUM(F60:F65)</f>
         <v>30</v>
       </c>
-      <c r="D66" s="116"/>
-      <c r="E66" s="116"/>
-      <c r="F66" s="117"/>
+      <c r="D66" s="119"/>
+      <c r="E66" s="119"/>
+      <c r="F66" s="120"/>
       <c r="G66" s="104" t="s">
         <v>17</v>
       </c>
-      <c r="H66" s="116">
+      <c r="H66" s="119">
         <f>SUM(G60:G65)</f>
         <v>34</v>
       </c>
-      <c r="I66" s="117"/>
+      <c r="I66" s="120"/>
     </row>
     <row r="67" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A67" s="92" t="s">
@@ -11684,9 +11684,11 @@
         <v>10</v>
       </c>
       <c r="C69" s="94" t="s">
-        <v>63</v>
-      </c>
-      <c r="D69" s="69"/>
+        <v>18</v>
+      </c>
+      <c r="D69" s="63" t="s">
+        <v>221</v>
+      </c>
       <c r="E69" s="95">
         <v>43809</v>
       </c>
@@ -11701,7 +11703,7 @@
       </c>
       <c r="I69" s="15"/>
     </row>
-    <row r="70" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" ht="35" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A70" s="93">
         <v>9</v>
       </c>
@@ -11712,7 +11714,7 @@
         <v>18</v>
       </c>
       <c r="D70" s="63" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E70" s="95">
         <v>43810</v>
@@ -11739,7 +11741,7 @@
         <v>18</v>
       </c>
       <c r="D71" s="63" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E71" s="95">
         <v>43811</v>
@@ -11755,7 +11757,7 @@
       </c>
       <c r="I71" s="73"/>
     </row>
-    <row r="72" spans="1:9" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A72" s="93">
         <v>9</v>
       </c>
@@ -11763,11 +11765,9 @@
         <v>13</v>
       </c>
       <c r="C72" s="94" t="s">
-        <v>18</v>
-      </c>
-      <c r="D72" s="63" t="s">
-        <v>223</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="D72" s="63"/>
       <c r="E72" s="95">
         <v>43812</v>
       </c>
@@ -11816,21 +11816,21 @@
       <c r="B74" s="103" t="s">
         <v>16</v>
       </c>
-      <c r="C74" s="116">
+      <c r="C74" s="119">
         <f>SUM(F68:F73)</f>
         <v>31.5</v>
       </c>
-      <c r="D74" s="116"/>
-      <c r="E74" s="116"/>
-      <c r="F74" s="117"/>
+      <c r="D74" s="119"/>
+      <c r="E74" s="119"/>
+      <c r="F74" s="120"/>
       <c r="G74" s="104" t="s">
         <v>17</v>
       </c>
-      <c r="H74" s="116">
+      <c r="H74" s="119">
         <f>SUM(G68:G73)</f>
         <v>34</v>
       </c>
-      <c r="I74" s="117"/>
+      <c r="I74" s="120"/>
     </row>
     <row r="75" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A75" s="92" t="s">
@@ -11896,7 +11896,10 @@
         <v>10</v>
       </c>
       <c r="C77" s="94" t="s">
-        <v>63</v>
+        <v>18</v>
+      </c>
+      <c r="D77" s="63" t="s">
+        <v>226</v>
       </c>
       <c r="E77" s="95">
         <v>43816</v>
@@ -11922,8 +11925,8 @@
       <c r="C78" s="94" t="s">
         <v>18</v>
       </c>
-      <c r="D78" s="63" t="s">
-        <v>226</v>
+      <c r="D78" s="109" t="s">
+        <v>97</v>
       </c>
       <c r="E78" s="95">
         <v>43817</v>
@@ -11947,11 +11950,9 @@
         <v>12</v>
       </c>
       <c r="C79" s="94" t="s">
-        <v>18</v>
-      </c>
-      <c r="D79" s="125" t="s">
-        <v>97</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="D79" s="109"/>
       <c r="E79" s="95">
         <v>43818</v>
       </c>
@@ -12027,27 +12028,40 @@
       <c r="B82" s="103" t="s">
         <v>16</v>
       </c>
-      <c r="C82" s="116">
+      <c r="C82" s="119">
         <f>SUM(F76:F81)</f>
         <v>31.5</v>
       </c>
-      <c r="D82" s="116"/>
-      <c r="E82" s="116"/>
-      <c r="F82" s="117"/>
+      <c r="D82" s="119"/>
+      <c r="E82" s="119"/>
+      <c r="F82" s="120"/>
       <c r="G82" s="104" t="s">
         <v>17</v>
       </c>
-      <c r="H82" s="116">
+      <c r="H82" s="119">
         <f>SUM(G76:G81)</f>
         <v>31.5</v>
       </c>
-      <c r="I82" s="117"/>
+      <c r="I82" s="120"/>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="F87" s="124"/>
+      <c r="F87" s="108"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="C50:F50"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="C42:F42"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="H18:I18"/>
     <mergeCell ref="C82:F82"/>
     <mergeCell ref="H82:I82"/>
     <mergeCell ref="C58:F58"/>
@@ -12056,22 +12070,9 @@
     <mergeCell ref="H66:I66"/>
     <mergeCell ref="C74:F74"/>
     <mergeCell ref="H74:I74"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="C50:F50"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="C42:F42"/>
-    <mergeCell ref="H42:I42"/>
   </mergeCells>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C68:C73 C60:C65 C20:C25 C28:C33 C36:C41 C44:C49 C52:C57 C14 C76:C81" xr:uid="{2E6CC8C7-6B67-FF4B-AF76-9E3D9C05AD3D}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C76:C81 C60:C65 C20:C25 C28:C33 C36:C41 C44:C49 C52:C57 C14 C68:C73" xr:uid="{2E6CC8C7-6B67-FF4B-AF76-9E3D9C05AD3D}">
       <formula1>"Project Management, Requirement, Architecture and Desgin, Implementation, Testing, Training, Meetting Customer, Meeting Mentor"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:H9 H12:H17 H52:H57 H28:H33 H36:H41 H44:H49 H68:H73 H76:H81 H20:H25 H60:H65" xr:uid="{027D75ED-402C-094C-89E7-5C18703E5A59}">
@@ -12127,17 +12128,17 @@
       <c r="I1" s="22"/>
     </row>
     <row r="2" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="109" t="s">
+      <c r="A2" s="112" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="110"/>
-      <c r="C2" s="111"/>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="111"/>
-      <c r="H2" s="111"/>
-      <c r="I2" s="112"/>
+      <c r="B2" s="113"/>
+      <c r="C2" s="114"/>
+      <c r="D2" s="114"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="114"/>
+      <c r="G2" s="114"/>
+      <c r="H2" s="114"/>
+      <c r="I2" s="115"/>
     </row>
     <row r="3" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
@@ -12347,21 +12348,21 @@
       <c r="B11" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="114">
+      <c r="C11" s="117">
         <f>SUM(F4:F10)</f>
         <v>27</v>
       </c>
-      <c r="D11" s="114"/>
-      <c r="E11" s="114"/>
-      <c r="F11" s="115"/>
+      <c r="D11" s="117"/>
+      <c r="E11" s="117"/>
+      <c r="F11" s="118"/>
       <c r="G11" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="114">
+      <c r="H11" s="117">
         <f>SUM(G4:G10)</f>
         <v>30</v>
       </c>
-      <c r="I11" s="115"/>
+      <c r="I11" s="118"/>
     </row>
     <row r="12" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="10">
@@ -12543,21 +12544,21 @@
       <c r="B19" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="114">
+      <c r="C19" s="117">
         <f>SUM(F12:F18)</f>
         <v>29</v>
       </c>
-      <c r="D19" s="114"/>
-      <c r="E19" s="114"/>
-      <c r="F19" s="115"/>
+      <c r="D19" s="117"/>
+      <c r="E19" s="117"/>
+      <c r="F19" s="118"/>
       <c r="G19" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H19" s="114">
+      <c r="H19" s="117">
         <f>SUM(G12:G18)</f>
         <v>30</v>
       </c>
-      <c r="I19" s="115"/>
+      <c r="I19" s="118"/>
     </row>
     <row r="20" spans="1:9" ht="52" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="10">
@@ -12739,21 +12740,21 @@
       <c r="B27" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C27" s="114">
+      <c r="C27" s="117">
         <f>SUM(F20:F26)</f>
         <v>29.5</v>
       </c>
-      <c r="D27" s="114"/>
-      <c r="E27" s="114"/>
-      <c r="F27" s="115"/>
+      <c r="D27" s="117"/>
+      <c r="E27" s="117"/>
+      <c r="F27" s="118"/>
       <c r="G27" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H27" s="114">
+      <c r="H27" s="117">
         <f>SUM(G20:G26)</f>
         <v>35</v>
       </c>
-      <c r="I27" s="115"/>
+      <c r="I27" s="118"/>
     </row>
     <row r="28" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="10">
@@ -12937,21 +12938,21 @@
       <c r="B35" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C35" s="114">
+      <c r="C35" s="117">
         <f>SUM(F28:F34)</f>
         <v>31.5</v>
       </c>
-      <c r="D35" s="114"/>
-      <c r="E35" s="114"/>
-      <c r="F35" s="115"/>
+      <c r="D35" s="117"/>
+      <c r="E35" s="117"/>
+      <c r="F35" s="118"/>
       <c r="G35" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H35" s="114">
+      <c r="H35" s="117">
         <f>SUM(G28:G34)</f>
         <v>35</v>
       </c>
-      <c r="I35" s="115"/>
+      <c r="I35" s="118"/>
     </row>
     <row r="36" spans="1:9" ht="52" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="10">
@@ -13121,21 +13122,21 @@
       <c r="B43" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C43" s="114">
+      <c r="C43" s="117">
         <f>SUM(F36:F42)</f>
         <v>30.5</v>
       </c>
-      <c r="D43" s="114"/>
-      <c r="E43" s="114"/>
-      <c r="F43" s="115"/>
+      <c r="D43" s="117"/>
+      <c r="E43" s="117"/>
+      <c r="F43" s="118"/>
       <c r="G43" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H43" s="114">
+      <c r="H43" s="117">
         <f>SUM(G36:G42)</f>
         <v>0</v>
       </c>
-      <c r="I43" s="115"/>
+      <c r="I43" s="118"/>
     </row>
     <row r="44" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="10">
@@ -13297,21 +13298,21 @@
       <c r="B51" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C51" s="114">
+      <c r="C51" s="117">
         <f>SUM(F44:F50)</f>
         <v>30.5</v>
       </c>
-      <c r="D51" s="114"/>
-      <c r="E51" s="114"/>
-      <c r="F51" s="115"/>
+      <c r="D51" s="117"/>
+      <c r="E51" s="117"/>
+      <c r="F51" s="118"/>
       <c r="G51" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H51" s="114">
+      <c r="H51" s="117">
         <f>SUM(G44:G50)</f>
         <v>0</v>
       </c>
-      <c r="I51" s="115"/>
+      <c r="I51" s="118"/>
     </row>
     <row r="52" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="10">
@@ -13479,21 +13480,21 @@
       <c r="B59" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C59" s="114">
+      <c r="C59" s="117">
         <f>SUM(F52:F58)</f>
         <v>32.5</v>
       </c>
-      <c r="D59" s="114"/>
-      <c r="E59" s="114"/>
-      <c r="F59" s="115"/>
+      <c r="D59" s="117"/>
+      <c r="E59" s="117"/>
+      <c r="F59" s="118"/>
       <c r="G59" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H59" s="114">
+      <c r="H59" s="117">
         <f>SUM(G52:G58)</f>
         <v>0</v>
       </c>
-      <c r="I59" s="115"/>
+      <c r="I59" s="118"/>
     </row>
     <row r="60" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A60" s="10">
@@ -13663,21 +13664,21 @@
       <c r="B67" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C67" s="114">
+      <c r="C67" s="117">
         <f>SUM(F60:F66)</f>
         <v>31.5</v>
       </c>
-      <c r="D67" s="114"/>
-      <c r="E67" s="114"/>
-      <c r="F67" s="115"/>
+      <c r="D67" s="117"/>
+      <c r="E67" s="117"/>
+      <c r="F67" s="118"/>
       <c r="G67" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H67" s="114">
+      <c r="H67" s="117">
         <f>SUM(G60:G66)</f>
         <v>0</v>
       </c>
-      <c r="I67" s="115"/>
+      <c r="I67" s="118"/>
     </row>
     <row r="68" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A68" s="10">
@@ -13847,30 +13848,24 @@
       <c r="B75" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C75" s="114">
+      <c r="C75" s="117">
         <f>SUM(F68:F74)</f>
         <v>31.5</v>
       </c>
-      <c r="D75" s="114"/>
-      <c r="E75" s="114"/>
-      <c r="F75" s="115"/>
+      <c r="D75" s="117"/>
+      <c r="E75" s="117"/>
+      <c r="F75" s="118"/>
       <c r="G75" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H75" s="114">
+      <c r="H75" s="117">
         <f>SUM(G68:G74)</f>
         <v>0</v>
       </c>
-      <c r="I75" s="115"/>
+      <c r="I75" s="118"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="C59:F59"/>
-    <mergeCell ref="H59:I59"/>
-    <mergeCell ref="C67:F67"/>
-    <mergeCell ref="H67:I67"/>
-    <mergeCell ref="C75:F75"/>
-    <mergeCell ref="H75:I75"/>
     <mergeCell ref="C51:F51"/>
     <mergeCell ref="H51:I51"/>
     <mergeCell ref="A2:I2"/>
@@ -13884,6 +13879,12 @@
     <mergeCell ref="H35:I35"/>
     <mergeCell ref="C43:F43"/>
     <mergeCell ref="H43:I43"/>
+    <mergeCell ref="C59:F59"/>
+    <mergeCell ref="H59:I59"/>
+    <mergeCell ref="C67:F67"/>
+    <mergeCell ref="H67:I67"/>
+    <mergeCell ref="C75:F75"/>
+    <mergeCell ref="H75:I75"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10 C18 C26 C34 C42 C50 C58 C66 C74" xr:uid="{37F695A9-FAA1-4B0C-BCF8-EDBE86D67943}">

--- a/Improgress/4. Timelog/PM_TimeLog.xlsx
+++ b/Improgress/4. Timelog/PM_TimeLog.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\Capstone-Project\Improgress\4. Timelog\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HOME\Documents\GitHub\Capstone-Project\Improgress\4. Timelog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D977B4F-A142-4D17-89EC-2A7FBA2FA925}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB92458A-E16A-4A2D-BC65-E6B83655D76B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="7" r:id="rId1"/>
@@ -28,9 +28,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -41,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1104" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2291" uniqueCount="209">
   <si>
     <t>Work in period</t>
   </si>
@@ -323,9 +321,6 @@
   </si>
   <si>
     <t>find another app like webgis</t>
-  </si>
-  <si>
-    <t>choose model</t>
   </si>
   <si>
     <t>Install qgis</t>
@@ -625,6 +620,72 @@
   </si>
   <si>
     <t xml:space="preserve">Test Case </t>
+  </si>
+  <si>
+    <t>Research</t>
+  </si>
+  <si>
+    <t>Project</t>
+  </si>
+  <si>
+    <t>Research model</t>
+  </si>
+  <si>
+    <t>Architecter plan document</t>
+  </si>
+  <si>
+    <t>research react</t>
+  </si>
+  <si>
+    <t>Architecture process document</t>
+  </si>
+  <si>
+    <t>Document quality management</t>
+  </si>
+  <si>
+    <t>Meeting team</t>
+  </si>
+  <si>
+    <t>UC description</t>
+  </si>
+  <si>
+    <t>Meetting mentor</t>
+  </si>
+  <si>
+    <t>Data design</t>
+  </si>
+  <si>
+    <t>Data distionary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Architect </t>
+  </si>
+  <si>
+    <t>Architecture driver document</t>
+  </si>
+  <si>
+    <t>Architecture design document</t>
+  </si>
+  <si>
+    <t>Detail design</t>
+  </si>
+  <si>
+    <t>UC description detail module 1</t>
+  </si>
+  <si>
+    <t>Install react native invironment</t>
+  </si>
+  <si>
+    <t>Research JS</t>
+  </si>
+  <si>
+    <t>Review</t>
+  </si>
+  <si>
+    <t>Research firebase</t>
+  </si>
+  <si>
+    <t>Connect firebase with project</t>
   </si>
 </sst>
 </file>
@@ -707,7 +768,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -737,8 +798,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="33">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -1142,6 +1209,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1156,7 +1238,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1299,19 +1381,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1335,33 +1408,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1384,19 +1430,105 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
     <cellStyle name="Accent6" xfId="1" builtinId="49"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
+    <cellStyle name="Siêu kết nối" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Siêu kết nối" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Siêu kết nối" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Siêu kết nối" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Siêu kết nối đã Bấm vào" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Siêu kết nối đã Bấm vào" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Siêu kết nối đã Bấm vào" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Siêu kết nối đã Bấm vào" xfId="10" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1414,7 +1546,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="vi-VN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1982,7 +2114,7 @@
                   <c:v>26.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18.5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3446,16 +3578,16 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" style="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.33203125" style="12" bestFit="1" customWidth="1"/>
     <col min="2" max="10" width="9" style="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="38" width="10.28515625" style="12" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="6.7109375" style="12" bestFit="1" customWidth="1"/>
-    <col min="40" max="16384" width="8.85546875" style="12"/>
+    <col min="11" max="38" width="10.33203125" style="12" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="6.6640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="40" max="16384" width="8.88671875" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:39" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="28" t="s">
         <v>5</v>
       </c>
@@ -3574,7 +3706,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:39" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="32" t="s">
         <v>66</v>
       </c>
@@ -3629,9 +3761,9 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:39" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="37" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B3" s="36">
         <f>'Quốc Nhân'!C11</f>
@@ -3681,17 +3813,17 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:39" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="32" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B4" s="40">
         <f>'Vương Trương'!C11</f>
         <v>26.5</v>
       </c>
-      <c r="C4" s="40">
+      <c r="C4" s="40" t="str">
         <f>'Vương Trương'!C20</f>
-        <v>18.5</v>
+        <v>Research</v>
       </c>
       <c r="D4" s="33"/>
       <c r="E4" s="34"/>
@@ -3730,12 +3862,12 @@
       <c r="AL4" s="35"/>
       <c r="AM4" s="35">
         <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>26.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="37" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B5" s="36">
         <f>'Anh Minh'!C11</f>
@@ -3785,9 +3917,9 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:39" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="41" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B6" s="42" t="e">
         <f>'Như Phương'!#REF!</f>
@@ -3837,7 +3969,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="7" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:39" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="12" t="e">
         <f>SUM(B2:B6)</f>
         <v>#REF!</v>
@@ -3987,7 +4119,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="8" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:39" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="45" t="s">
         <v>23</v>
       </c>
@@ -4106,19 +4238,19 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:39" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="B9" s="64">
+      <c r="B9" s="61">
         <f>'Đạt Huỳnh'!H11</f>
         <v>30</v>
       </c>
-      <c r="C9" s="65">
+      <c r="C9" s="62">
         <f>'Đạt Huỳnh'!H20</f>
         <v>34</v>
       </c>
-      <c r="D9" s="64">
+      <c r="D9" s="61">
         <f>'Đạt Huỳnh'!H30</f>
         <v>38</v>
       </c>
@@ -4161,9 +4293,9 @@
         <v>102</v>
       </c>
     </row>
-    <row r="10" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:39" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="37" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B10" s="36">
         <f>'Quốc Nhân'!H11</f>
@@ -4213,17 +4345,17 @@
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:39" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="32" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B11" s="40">
         <f>'Vương Trương'!H11</f>
         <v>27.5</v>
       </c>
-      <c r="C11" s="40">
+      <c r="C11" s="40" t="str">
         <f>'Vương Trương'!H20</f>
-        <v>22</v>
+        <v>Done</v>
       </c>
       <c r="D11" s="32"/>
       <c r="E11" s="53"/>
@@ -4262,12 +4394,12 @@
       <c r="AL11" s="32"/>
       <c r="AM11" s="48">
         <f t="shared" si="22"/>
-        <v>49.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>27.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="37" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B12" s="36">
         <f>'Anh Minh'!H11</f>
@@ -4317,9 +4449,9 @@
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:39" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="41" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B13" s="42" t="e">
         <f>'Như Phương'!#REF!</f>
@@ -4369,7 +4501,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="e">
         <f>SUM(B9:B13)</f>
         <v>#REF!</v>
@@ -4534,21 +4666,21 @@
       <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.85546875" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="42.7109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.88671875" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.88671875" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.6640625" style="12" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="12" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" style="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.85546875" style="12"/>
-    <col min="8" max="8" width="12.140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="49.28515625" style="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.85546875" style="12"/>
+    <col min="7" max="7" width="8.88671875" style="12"/>
+    <col min="8" max="8" width="12.109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="49.33203125" style="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.88671875" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>65</v>
       </c>
@@ -4563,20 +4695,20 @@
       <c r="H1" s="21"/>
       <c r="I1" s="22"/>
     </row>
-    <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="70" t="s">
+    <row r="2" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A2" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="73"/>
-    </row>
-    <row r="3" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="78"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="80"/>
+    </row>
+    <row r="3" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="24" t="s">
         <v>1</v>
       </c>
@@ -4605,7 +4737,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
         <v>1</v>
       </c>
@@ -4630,7 +4762,7 @@
       </c>
       <c r="I4" s="15"/>
     </row>
-    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
         <v>1</v>
       </c>
@@ -4657,7 +4789,7 @@
       </c>
       <c r="I5" s="15"/>
     </row>
-    <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -4684,7 +4816,7 @@
       </c>
       <c r="I6" s="3"/>
     </row>
-    <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -4711,7 +4843,7 @@
       </c>
       <c r="I7" s="3"/>
     </row>
-    <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1</v>
       </c>
@@ -4736,7 +4868,7 @@
       </c>
       <c r="I8" s="3"/>
     </row>
-    <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>1</v>
       </c>
@@ -4747,7 +4879,7 @@
         <v>19</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E9" s="16" t="s">
         <v>75</v>
@@ -4763,7 +4895,7 @@
       </c>
       <c r="I9" s="3"/>
     </row>
-    <row r="10" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="9"/>
       <c r="B10" s="11"/>
       <c r="C10" s="9"/>
@@ -4774,30 +4906,30 @@
       <c r="H10" s="14"/>
       <c r="I10" s="5"/>
     </row>
-    <row r="11" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="67" t="s">
+    <row r="11" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="67" t="s">
+      <c r="B11" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="74">
+      <c r="C11" s="75">
         <f>SUM(F4:F10)</f>
         <v>30</v>
       </c>
-      <c r="D11" s="74"/>
-      <c r="E11" s="74"/>
-      <c r="F11" s="75"/>
-      <c r="G11" s="66" t="s">
+      <c r="D11" s="75"/>
+      <c r="E11" s="75"/>
+      <c r="F11" s="76"/>
+      <c r="G11" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="74">
+      <c r="H11" s="75">
         <f>SUM(G4:G10)</f>
         <v>30</v>
       </c>
-      <c r="I11" s="75"/>
-    </row>
-    <row r="12" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I11" s="76"/>
+    </row>
+    <row r="12" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="24" t="s">
         <v>1</v>
       </c>
@@ -4826,7 +4958,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A13" s="10">
         <v>2</v>
       </c>
@@ -4853,7 +4985,7 @@
       </c>
       <c r="I13" s="15"/>
     </row>
-    <row r="14" spans="1:9" ht="30" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
         <v>2</v>
       </c>
@@ -4882,7 +5014,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A15" s="10">
         <v>2</v>
       </c>
@@ -4907,7 +5039,7 @@
       </c>
       <c r="I15" s="3"/>
     </row>
-    <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A16" s="10">
         <v>2</v>
       </c>
@@ -4934,7 +5066,7 @@
       </c>
       <c r="I16" s="3"/>
     </row>
-    <row r="17" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A17" s="10">
         <v>2</v>
       </c>
@@ -4957,7 +5089,7 @@
       <c r="H17" s="14"/>
       <c r="I17" s="3"/>
     </row>
-    <row r="18" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A18" s="10">
         <v>2</v>
       </c>
@@ -4980,7 +5112,7 @@
       <c r="H18" s="14"/>
       <c r="I18" s="3"/>
     </row>
-    <row r="19" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="9"/>
       <c r="B19" s="11"/>
       <c r="C19" s="9"/>
@@ -4991,30 +5123,30 @@
       <c r="H19" s="14"/>
       <c r="I19" s="5"/>
     </row>
-    <row r="20" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="67" t="s">
+    <row r="20" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="67" t="s">
+      <c r="B20" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="74">
+      <c r="C20" s="75">
         <f>SUM(F13:F19)</f>
         <v>22</v>
       </c>
-      <c r="D20" s="74"/>
-      <c r="E20" s="74"/>
-      <c r="F20" s="75"/>
-      <c r="G20" s="66" t="s">
+      <c r="D20" s="75"/>
+      <c r="E20" s="75"/>
+      <c r="F20" s="76"/>
+      <c r="G20" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="H20" s="74">
+      <c r="H20" s="75">
         <f>SUM(G13:G19)</f>
         <v>34</v>
       </c>
-      <c r="I20" s="75"/>
-    </row>
-    <row r="21" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I20" s="76"/>
+    </row>
+    <row r="21" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="24" t="s">
         <v>1</v>
       </c>
@@ -5043,7 +5175,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="10">
         <v>3</v>
       </c>
@@ -5054,9 +5186,9 @@
         <v>19</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="E22" s="60">
+        <v>111</v>
+      </c>
+      <c r="E22" s="59">
         <v>43766</v>
       </c>
       <c r="F22" s="6"/>
@@ -5068,7 +5200,7 @@
       </c>
       <c r="I22" s="15"/>
     </row>
-    <row r="23" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="10">
         <v>3</v>
       </c>
@@ -5079,9 +5211,9 @@
         <v>19</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="E23" s="60">
+        <v>111</v>
+      </c>
+      <c r="E23" s="59">
         <v>43767</v>
       </c>
       <c r="F23" s="6"/>
@@ -5093,7 +5225,7 @@
       </c>
       <c r="I23" s="15"/>
     </row>
-    <row r="24" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="10">
         <v>3</v>
       </c>
@@ -5104,7 +5236,7 @@
         <v>63</v>
       </c>
       <c r="D24" s="13"/>
-      <c r="E24" s="60">
+      <c r="E24" s="59">
         <v>43798</v>
       </c>
       <c r="F24" s="6"/>
@@ -5114,7 +5246,7 @@
       <c r="H24" s="14"/>
       <c r="I24" s="15"/>
     </row>
-    <row r="25" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="10">
         <v>3</v>
       </c>
@@ -5124,7 +5256,7 @@
       <c r="C25" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="E25" s="60">
+      <c r="E25" s="59">
         <v>43768</v>
       </c>
       <c r="F25" s="7"/>
@@ -5134,7 +5266,7 @@
       <c r="H25" s="14"/>
       <c r="I25" s="3"/>
     </row>
-    <row r="26" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="10">
         <v>3</v>
       </c>
@@ -5145,9 +5277,9 @@
         <v>19</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E26" s="60">
+        <v>114</v>
+      </c>
+      <c r="E26" s="59">
         <v>43769</v>
       </c>
       <c r="F26" s="7"/>
@@ -5157,7 +5289,7 @@
       <c r="H26" s="14"/>
       <c r="I26" s="3"/>
     </row>
-    <row r="27" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="10">
         <v>3</v>
       </c>
@@ -5168,9 +5300,9 @@
         <v>19</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E27" s="60">
+        <v>113</v>
+      </c>
+      <c r="E27" s="59">
         <v>43770</v>
       </c>
       <c r="F27" s="7"/>
@@ -5180,20 +5312,20 @@
       <c r="H27" s="14"/>
       <c r="I27" s="3"/>
     </row>
-    <row r="28" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A28" s="10">
         <v>3</v>
       </c>
-      <c r="B28" s="68" t="s">
+      <c r="B28" s="65" t="s">
         <v>14</v>
       </c>
       <c r="C28" s="25" t="s">
         <v>19</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E28" s="60">
+        <v>113</v>
+      </c>
+      <c r="E28" s="59">
         <v>43771</v>
       </c>
       <c r="F28" s="7"/>
@@ -5203,7 +5335,7 @@
       <c r="H28" s="14"/>
       <c r="I28" s="3"/>
     </row>
-    <row r="29" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="9"/>
       <c r="C29" s="9"/>
       <c r="E29" s="16"/>
@@ -5212,30 +5344,30 @@
       <c r="H29" s="14"/>
       <c r="I29" s="5"/>
     </row>
-    <row r="30" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="67" t="s">
+    <row r="30" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="B30" s="67" t="s">
+      <c r="B30" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="C30" s="74">
+      <c r="C30" s="75">
         <f>SUM(F22:F29)</f>
         <v>0</v>
       </c>
-      <c r="D30" s="74"/>
-      <c r="E30" s="74"/>
-      <c r="F30" s="75"/>
-      <c r="G30" s="66" t="s">
+      <c r="D30" s="75"/>
+      <c r="E30" s="75"/>
+      <c r="F30" s="76"/>
+      <c r="G30" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="H30" s="74">
+      <c r="H30" s="75">
         <f>SUM(G22:G29)</f>
         <v>38</v>
       </c>
-      <c r="I30" s="75"/>
-    </row>
-    <row r="31" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I30" s="76"/>
+    </row>
+    <row r="31" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="24" t="s">
         <v>1</v>
       </c>
@@ -5264,7 +5396,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="10">
         <v>4</v>
       </c>
@@ -5273,7 +5405,7 @@
       </c>
       <c r="C32" s="25"/>
       <c r="D32" s="13"/>
-      <c r="E32" s="60">
+      <c r="E32" s="59">
         <v>43773</v>
       </c>
       <c r="F32" s="6"/>
@@ -5281,7 +5413,7 @@
       <c r="H32" s="14"/>
       <c r="I32" s="15"/>
     </row>
-    <row r="33" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="10">
         <v>4</v>
       </c>
@@ -5290,7 +5422,7 @@
       </c>
       <c r="C33" s="25"/>
       <c r="D33" s="13"/>
-      <c r="E33" s="60">
+      <c r="E33" s="59">
         <v>43774</v>
       </c>
       <c r="F33" s="6"/>
@@ -5298,7 +5430,7 @@
       <c r="H33" s="14"/>
       <c r="I33" s="15"/>
     </row>
-    <row r="34" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="10">
         <v>4</v>
       </c>
@@ -5307,7 +5439,7 @@
       </c>
       <c r="C34" s="25"/>
       <c r="D34" s="2"/>
-      <c r="E34" s="60">
+      <c r="E34" s="59">
         <v>43775</v>
       </c>
       <c r="F34" s="7"/>
@@ -5315,7 +5447,7 @@
       <c r="H34" s="14"/>
       <c r="I34" s="3"/>
     </row>
-    <row r="35" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="10">
         <v>4</v>
       </c>
@@ -5324,7 +5456,7 @@
       </c>
       <c r="C35" s="25"/>
       <c r="D35" s="2"/>
-      <c r="E35" s="60">
+      <c r="E35" s="59">
         <v>43776</v>
       </c>
       <c r="F35" s="7"/>
@@ -5332,16 +5464,16 @@
       <c r="H35" s="14"/>
       <c r="I35" s="3"/>
     </row>
-    <row r="36" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="10">
         <v>4</v>
       </c>
-      <c r="B36" s="68" t="s">
+      <c r="B36" s="65" t="s">
         <v>13</v>
       </c>
       <c r="C36" s="25"/>
       <c r="D36" s="2"/>
-      <c r="E36" s="60">
+      <c r="E36" s="59">
         <v>43777</v>
       </c>
       <c r="F36" s="7"/>
@@ -5349,20 +5481,20 @@
       <c r="H36" s="14"/>
       <c r="I36" s="3"/>
     </row>
-    <row r="37" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A37" s="10">
         <v>4</v>
       </c>
-      <c r="B37" s="68" t="s">
+      <c r="B37" s="65" t="s">
         <v>14</v>
       </c>
       <c r="C37" s="25" t="s">
         <v>19</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E37" s="60">
+        <v>115</v>
+      </c>
+      <c r="E37" s="59">
         <v>43778</v>
       </c>
       <c r="F37" s="7"/>
@@ -5370,7 +5502,7 @@
       <c r="H37" s="14"/>
       <c r="I37" s="3"/>
     </row>
-    <row r="38" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="9"/>
       <c r="C38" s="9"/>
       <c r="D38" s="4"/>
@@ -5380,30 +5512,30 @@
       <c r="H38" s="14"/>
       <c r="I38" s="5"/>
     </row>
-    <row r="39" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="67" t="s">
+    <row r="39" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="B39" s="67" t="s">
+      <c r="B39" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="C39" s="74">
+      <c r="C39" s="75">
         <f>SUM(F32:F38)</f>
         <v>0</v>
       </c>
-      <c r="D39" s="74"/>
-      <c r="E39" s="74"/>
-      <c r="F39" s="75"/>
-      <c r="G39" s="66" t="s">
+      <c r="D39" s="75"/>
+      <c r="E39" s="75"/>
+      <c r="F39" s="76"/>
+      <c r="G39" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="H39" s="74">
+      <c r="H39" s="75">
         <f>SUM(G32:G38)</f>
         <v>0</v>
       </c>
-      <c r="I39" s="75"/>
-    </row>
-    <row r="40" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I39" s="76"/>
+    </row>
+    <row r="40" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="24" t="s">
         <v>1</v>
       </c>
@@ -5432,7 +5564,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="10">
         <v>5</v>
       </c>
@@ -5441,7 +5573,7 @@
       </c>
       <c r="C41" s="25"/>
       <c r="D41" s="13"/>
-      <c r="E41" s="60">
+      <c r="E41" s="59">
         <v>43780</v>
       </c>
       <c r="F41" s="6"/>
@@ -5449,7 +5581,7 @@
       <c r="H41" s="14"/>
       <c r="I41" s="15"/>
     </row>
-    <row r="42" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="10">
         <v>5</v>
       </c>
@@ -5458,7 +5590,7 @@
       </c>
       <c r="C42" s="25"/>
       <c r="D42" s="13"/>
-      <c r="E42" s="60">
+      <c r="E42" s="59">
         <v>43781</v>
       </c>
       <c r="F42" s="6"/>
@@ -5466,7 +5598,7 @@
       <c r="H42" s="14"/>
       <c r="I42" s="15"/>
     </row>
-    <row r="43" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="10">
         <v>5</v>
       </c>
@@ -5475,7 +5607,7 @@
       </c>
       <c r="C43" s="25"/>
       <c r="D43" s="2"/>
-      <c r="E43" s="60">
+      <c r="E43" s="59">
         <v>43782</v>
       </c>
       <c r="F43" s="7"/>
@@ -5483,7 +5615,7 @@
       <c r="H43" s="14"/>
       <c r="I43" s="3"/>
     </row>
-    <row r="44" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="10">
         <v>5</v>
       </c>
@@ -5492,7 +5624,7 @@
       </c>
       <c r="C44" s="25"/>
       <c r="D44" s="2"/>
-      <c r="E44" s="60">
+      <c r="E44" s="59">
         <v>43783</v>
       </c>
       <c r="F44" s="7"/>
@@ -5500,16 +5632,16 @@
       <c r="H44" s="14"/>
       <c r="I44" s="3"/>
     </row>
-    <row r="45" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="10">
         <v>5</v>
       </c>
-      <c r="B45" s="68" t="s">
+      <c r="B45" s="65" t="s">
         <v>13</v>
       </c>
       <c r="C45" s="25"/>
       <c r="D45" s="2"/>
-      <c r="E45" s="60">
+      <c r="E45" s="59">
         <v>43784</v>
       </c>
       <c r="F45" s="7"/>
@@ -5517,16 +5649,16 @@
       <c r="H45" s="14"/>
       <c r="I45" s="3"/>
     </row>
-    <row r="46" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A46" s="10">
         <v>5</v>
       </c>
-      <c r="B46" s="68" t="s">
+      <c r="B46" s="65" t="s">
         <v>14</v>
       </c>
       <c r="C46" s="25"/>
       <c r="D46" s="2"/>
-      <c r="E46" s="60">
+      <c r="E46" s="59">
         <v>43785</v>
       </c>
       <c r="F46" s="7"/>
@@ -5534,7 +5666,7 @@
       <c r="H46" s="14"/>
       <c r="I46" s="3"/>
     </row>
-    <row r="47" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="9"/>
       <c r="C47" s="9"/>
       <c r="D47" s="4"/>
@@ -5544,30 +5676,30 @@
       <c r="H47" s="14"/>
       <c r="I47" s="5"/>
     </row>
-    <row r="48" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="67" t="s">
+    <row r="48" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="B48" s="67" t="s">
+      <c r="B48" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="C48" s="74">
+      <c r="C48" s="75">
         <f>SUM(F41:F47)</f>
         <v>0</v>
       </c>
-      <c r="D48" s="74"/>
-      <c r="E48" s="74"/>
-      <c r="F48" s="75"/>
-      <c r="G48" s="66" t="s">
+      <c r="D48" s="75"/>
+      <c r="E48" s="75"/>
+      <c r="F48" s="76"/>
+      <c r="G48" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="H48" s="74">
+      <c r="H48" s="75">
         <f>SUM(G41:G47)</f>
         <v>0</v>
       </c>
-      <c r="I48" s="75"/>
-    </row>
-    <row r="49" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I48" s="76"/>
+    </row>
+    <row r="49" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="24" t="s">
         <v>1</v>
       </c>
@@ -5596,7 +5728,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="10">
         <v>6</v>
       </c>
@@ -5605,7 +5737,7 @@
       </c>
       <c r="C50" s="25"/>
       <c r="D50" s="13"/>
-      <c r="E50" s="60">
+      <c r="E50" s="59">
         <v>43787</v>
       </c>
       <c r="F50" s="6"/>
@@ -5613,7 +5745,7 @@
       <c r="H50" s="14"/>
       <c r="I50" s="15"/>
     </row>
-    <row r="51" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="10">
         <v>6</v>
       </c>
@@ -5622,7 +5754,7 @@
       </c>
       <c r="C51" s="25"/>
       <c r="D51" s="13"/>
-      <c r="E51" s="60">
+      <c r="E51" s="59">
         <v>43788</v>
       </c>
       <c r="F51" s="6"/>
@@ -5630,7 +5762,7 @@
       <c r="H51" s="14"/>
       <c r="I51" s="15"/>
     </row>
-    <row r="52" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="10">
         <v>6</v>
       </c>
@@ -5639,7 +5771,7 @@
       </c>
       <c r="C52" s="25"/>
       <c r="D52" s="2"/>
-      <c r="E52" s="60">
+      <c r="E52" s="59">
         <v>43789</v>
       </c>
       <c r="F52" s="7"/>
@@ -5647,7 +5779,7 @@
       <c r="H52" s="14"/>
       <c r="I52" s="3"/>
     </row>
-    <row r="53" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="10">
         <v>6</v>
       </c>
@@ -5656,7 +5788,7 @@
       </c>
       <c r="C53" s="25"/>
       <c r="D53" s="2"/>
-      <c r="E53" s="60">
+      <c r="E53" s="59">
         <v>43790</v>
       </c>
       <c r="F53" s="7"/>
@@ -5664,16 +5796,16 @@
       <c r="H53" s="14"/>
       <c r="I53" s="3"/>
     </row>
-    <row r="54" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="10">
         <v>6</v>
       </c>
-      <c r="B54" s="68" t="s">
+      <c r="B54" s="65" t="s">
         <v>13</v>
       </c>
       <c r="C54" s="25"/>
       <c r="D54" s="2"/>
-      <c r="E54" s="60">
+      <c r="E54" s="59">
         <v>43791</v>
       </c>
       <c r="F54" s="7"/>
@@ -5681,16 +5813,16 @@
       <c r="H54" s="14"/>
       <c r="I54" s="3"/>
     </row>
-    <row r="55" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A55" s="10">
         <v>6</v>
       </c>
-      <c r="B55" s="68" t="s">
+      <c r="B55" s="65" t="s">
         <v>14</v>
       </c>
       <c r="C55" s="25"/>
       <c r="D55" s="2"/>
-      <c r="E55" s="60">
+      <c r="E55" s="59">
         <v>43792</v>
       </c>
       <c r="F55" s="7"/>
@@ -5698,7 +5830,7 @@
       <c r="H55" s="14"/>
       <c r="I55" s="3"/>
     </row>
-    <row r="56" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="9"/>
       <c r="C56" s="9"/>
       <c r="D56" s="4"/>
@@ -5708,30 +5840,30 @@
       <c r="H56" s="14"/>
       <c r="I56" s="5"/>
     </row>
-    <row r="57" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="67" t="s">
+    <row r="57" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="B57" s="67" t="s">
+      <c r="B57" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="C57" s="74">
+      <c r="C57" s="75">
         <f>SUM(F50:F56)</f>
         <v>0</v>
       </c>
-      <c r="D57" s="74"/>
-      <c r="E57" s="74"/>
-      <c r="F57" s="75"/>
-      <c r="G57" s="66" t="s">
+      <c r="D57" s="75"/>
+      <c r="E57" s="75"/>
+      <c r="F57" s="76"/>
+      <c r="G57" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="H57" s="74">
+      <c r="H57" s="75">
         <f>SUM(G50:G56)</f>
         <v>0</v>
       </c>
-      <c r="I57" s="75"/>
-    </row>
-    <row r="58" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I57" s="76"/>
+    </row>
+    <row r="58" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="24" t="s">
         <v>1</v>
       </c>
@@ -5760,7 +5892,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="10">
         <v>7</v>
       </c>
@@ -5769,7 +5901,7 @@
       </c>
       <c r="C59" s="25"/>
       <c r="D59" s="13"/>
-      <c r="E59" s="60">
+      <c r="E59" s="59">
         <v>43794</v>
       </c>
       <c r="F59" s="6"/>
@@ -5777,7 +5909,7 @@
       <c r="H59" s="14"/>
       <c r="I59" s="15"/>
     </row>
-    <row r="60" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="10">
         <v>7</v>
       </c>
@@ -5786,7 +5918,7 @@
       </c>
       <c r="C60" s="25"/>
       <c r="D60" s="13"/>
-      <c r="E60" s="60">
+      <c r="E60" s="59">
         <v>43795</v>
       </c>
       <c r="F60" s="6"/>
@@ -5794,7 +5926,7 @@
       <c r="H60" s="14"/>
       <c r="I60" s="15"/>
     </row>
-    <row r="61" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="10">
         <v>7</v>
       </c>
@@ -5803,7 +5935,7 @@
       </c>
       <c r="C61" s="25"/>
       <c r="D61" s="2"/>
-      <c r="E61" s="60">
+      <c r="E61" s="59">
         <v>43796</v>
       </c>
       <c r="F61" s="7"/>
@@ -5811,7 +5943,7 @@
       <c r="H61" s="14"/>
       <c r="I61" s="3"/>
     </row>
-    <row r="62" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="10">
         <v>7</v>
       </c>
@@ -5820,7 +5952,7 @@
       </c>
       <c r="C62" s="25"/>
       <c r="D62" s="2"/>
-      <c r="E62" s="60">
+      <c r="E62" s="59">
         <v>43797</v>
       </c>
       <c r="F62" s="7"/>
@@ -5828,7 +5960,7 @@
       <c r="H62" s="14"/>
       <c r="I62" s="3"/>
     </row>
-    <row r="63" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="10">
         <v>7</v>
       </c>
@@ -5837,7 +5969,7 @@
       </c>
       <c r="C63" s="25"/>
       <c r="D63" s="2"/>
-      <c r="E63" s="60">
+      <c r="E63" s="59">
         <v>43798</v>
       </c>
       <c r="F63" s="7"/>
@@ -5845,7 +5977,7 @@
       <c r="H63" s="14"/>
       <c r="I63" s="3"/>
     </row>
-    <row r="64" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A64" s="10">
         <v>7</v>
       </c>
@@ -5854,7 +5986,7 @@
       </c>
       <c r="C64" s="25"/>
       <c r="D64" s="2"/>
-      <c r="E64" s="60">
+      <c r="E64" s="59">
         <v>43799</v>
       </c>
       <c r="F64" s="7"/>
@@ -5862,7 +5994,7 @@
       <c r="H64" s="14"/>
       <c r="I64" s="3"/>
     </row>
-    <row r="65" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="9"/>
       <c r="C65" s="9"/>
       <c r="D65" s="4"/>
@@ -5872,37 +6004,31 @@
       <c r="H65" s="14"/>
       <c r="I65" s="5"/>
     </row>
-    <row r="66" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="67" t="s">
+    <row r="66" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="B66" s="67" t="s">
+      <c r="B66" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="C66" s="74">
+      <c r="C66" s="75">
         <f>SUM(F59:F65)</f>
         <v>0</v>
       </c>
-      <c r="D66" s="74"/>
-      <c r="E66" s="74"/>
-      <c r="F66" s="75"/>
-      <c r="G66" s="66" t="s">
+      <c r="D66" s="75"/>
+      <c r="E66" s="75"/>
+      <c r="F66" s="76"/>
+      <c r="G66" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="H66" s="74">
+      <c r="H66" s="75">
         <f>SUM(G59:G65)</f>
         <v>0</v>
       </c>
-      <c r="I66" s="75"/>
+      <c r="I66" s="76"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="C66:F66"/>
-    <mergeCell ref="H66:I66"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="H20:I20"/>
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="C48:F48"/>
     <mergeCell ref="H48:I48"/>
@@ -5912,6 +6038,12 @@
     <mergeCell ref="H30:I30"/>
     <mergeCell ref="C39:F39"/>
     <mergeCell ref="H39:I39"/>
+    <mergeCell ref="C66:F66"/>
+    <mergeCell ref="H66:I66"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="H20:I20"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <dataValidations count="6">
@@ -5950,18 +6082,18 @@
       <selection activeCell="F67" sqref="F67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="57.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="49.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="57.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="49.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="20" t="s">
         <v>65</v>
       </c>
@@ -5976,20 +6108,20 @@
       <c r="H1" s="21"/>
       <c r="I1" s="22"/>
     </row>
-    <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="70" t="s">
+    <row r="2" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="73"/>
-    </row>
-    <row r="3" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="78"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="80"/>
+    </row>
+    <row r="3" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="24" t="s">
         <v>1</v>
       </c>
@@ -6018,7 +6150,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="10">
         <v>1</v>
       </c>
@@ -6043,7 +6175,7 @@
       </c>
       <c r="I4" s="15"/>
     </row>
-    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="10">
         <v>1</v>
       </c>
@@ -6070,7 +6202,7 @@
       </c>
       <c r="I5" s="15"/>
     </row>
-    <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -6097,7 +6229,7 @@
       </c>
       <c r="I6" s="3"/>
     </row>
-    <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -6124,7 +6256,7 @@
       </c>
       <c r="I7" s="3"/>
     </row>
-    <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>1</v>
       </c>
@@ -6149,7 +6281,7 @@
       </c>
       <c r="I8" s="3"/>
     </row>
-    <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>1</v>
       </c>
@@ -6176,7 +6308,7 @@
       </c>
       <c r="I9" s="3"/>
     </row>
-    <row r="10" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="9"/>
       <c r="B10" s="11"/>
       <c r="C10" s="9"/>
@@ -6187,30 +6319,30 @@
       <c r="H10" s="14"/>
       <c r="I10" s="5"/>
     </row>
-    <row r="11" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="67" t="s">
+    <row r="11" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="67" t="s">
+      <c r="B11" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="76">
+      <c r="C11" s="81">
         <f>SUM(F4:F10)</f>
         <v>26</v>
       </c>
-      <c r="D11" s="74"/>
-      <c r="E11" s="74"/>
-      <c r="F11" s="75"/>
-      <c r="G11" s="66" t="s">
+      <c r="D11" s="75"/>
+      <c r="E11" s="75"/>
+      <c r="F11" s="76"/>
+      <c r="G11" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="74">
+      <c r="H11" s="75">
         <f>SUM(G4:G10)</f>
         <v>26</v>
       </c>
-      <c r="I11" s="75"/>
-    </row>
-    <row r="12" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I11" s="76"/>
+    </row>
+    <row r="12" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="24" t="s">
         <v>1</v>
       </c>
@@ -6239,7 +6371,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="10">
         <v>2</v>
       </c>
@@ -6268,7 +6400,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="10">
         <v>2</v>
       </c>
@@ -6295,7 +6427,7 @@
       </c>
       <c r="I14" s="15"/>
     </row>
-    <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="10">
         <v>2</v>
       </c>
@@ -6320,7 +6452,7 @@
       </c>
       <c r="I15" s="3"/>
     </row>
-    <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="10">
         <v>2</v>
       </c>
@@ -6349,7 +6481,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="10">
         <v>2</v>
       </c>
@@ -6376,7 +6508,7 @@
       </c>
       <c r="I17" s="3"/>
     </row>
-    <row r="18" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="10">
         <v>2</v>
       </c>
@@ -6390,7 +6522,7 @@
         <v>82</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F18" s="7">
         <v>5</v>
@@ -6403,7 +6535,7 @@
       </c>
       <c r="I18" s="3"/>
     </row>
-    <row r="19" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="9"/>
       <c r="B19" s="11"/>
       <c r="C19" s="9"/>
@@ -6414,30 +6546,30 @@
       <c r="H19" s="14"/>
       <c r="I19" s="5"/>
     </row>
-    <row r="20" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="67" t="s">
+    <row r="20" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="67" t="s">
+      <c r="B20" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="74">
+      <c r="C20" s="75">
         <f>SUM(F13:F19)</f>
         <v>30</v>
       </c>
-      <c r="D20" s="74"/>
-      <c r="E20" s="74"/>
-      <c r="F20" s="75"/>
-      <c r="G20" s="66" t="s">
+      <c r="D20" s="75"/>
+      <c r="E20" s="75"/>
+      <c r="F20" s="76"/>
+      <c r="G20" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="H20" s="74">
+      <c r="H20" s="75">
         <f>SUM(G13:G19)</f>
         <v>30</v>
       </c>
-      <c r="I20" s="75"/>
-    </row>
-    <row r="21" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I20" s="76"/>
+    </row>
+    <row r="21" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="24" t="s">
         <v>1</v>
       </c>
@@ -6466,7 +6598,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="10">
         <v>3</v>
       </c>
@@ -6476,8 +6608,8 @@
       <c r="C22" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="D22" s="69" t="s">
-        <v>118</v>
+      <c r="D22" s="66" t="s">
+        <v>117</v>
       </c>
       <c r="E22" s="18">
         <v>43766</v>
@@ -6491,7 +6623,7 @@
       </c>
       <c r="I22" s="15"/>
     </row>
-    <row r="23" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="10">
         <v>3</v>
       </c>
@@ -6501,8 +6633,8 @@
       <c r="C23" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="D23" s="69" t="s">
-        <v>119</v>
+      <c r="D23" s="66" t="s">
+        <v>118</v>
       </c>
       <c r="E23" s="18">
         <v>43767</v>
@@ -6515,10 +6647,10 @@
         <v>21</v>
       </c>
       <c r="I23" s="15" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="10">
         <v>3</v>
       </c>
@@ -6528,8 +6660,8 @@
       <c r="C24" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="D24" s="63" t="s">
-        <v>120</v>
+      <c r="D24" s="60" t="s">
+        <v>119</v>
       </c>
       <c r="E24" s="18">
         <v>43768</v>
@@ -6542,10 +6674,10 @@
         <v>21</v>
       </c>
       <c r="I24" s="15" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="10">
         <v>3</v>
       </c>
@@ -6556,7 +6688,7 @@
         <v>19</v>
       </c>
       <c r="D25" s="57" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E25" s="18">
         <v>43769</v>
@@ -6570,7 +6702,7 @@
       </c>
       <c r="I25" s="3"/>
     </row>
-    <row r="26" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="10">
         <v>3</v>
       </c>
@@ -6581,7 +6713,7 @@
         <v>61</v>
       </c>
       <c r="D26" s="57" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E26" s="18">
         <v>43770</v>
@@ -6595,18 +6727,18 @@
       </c>
       <c r="I26" s="3"/>
     </row>
-    <row r="27" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="10">
         <v>3</v>
       </c>
-      <c r="B27" s="68" t="s">
+      <c r="B27" s="65" t="s">
         <v>14</v>
       </c>
       <c r="C27" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D27" s="63" t="s">
-        <v>122</v>
+      <c r="D27" s="60" t="s">
+        <v>121</v>
       </c>
       <c r="E27" s="18">
         <v>43771</v>
@@ -6619,21 +6751,21 @@
         <v>21</v>
       </c>
       <c r="I27" s="15" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="9">
         <v>3</v>
       </c>
-      <c r="B28" s="68" t="s">
-        <v>124</v>
+      <c r="B28" s="65" t="s">
+        <v>123</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D28" s="57" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E28" s="18">
         <v>43772</v>
@@ -6647,30 +6779,30 @@
       </c>
       <c r="I28" s="5"/>
     </row>
-    <row r="29" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="67" t="s">
+    <row r="29" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="B29" s="67" t="s">
+      <c r="B29" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="74">
+      <c r="C29" s="75">
         <f>SUM(F22:F28)</f>
         <v>45</v>
       </c>
-      <c r="D29" s="74"/>
-      <c r="E29" s="74"/>
-      <c r="F29" s="75"/>
-      <c r="G29" s="66" t="s">
+      <c r="D29" s="75"/>
+      <c r="E29" s="75"/>
+      <c r="F29" s="76"/>
+      <c r="G29" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="H29" s="74">
+      <c r="H29" s="75">
         <f>SUM(G22:G28)</f>
         <v>0</v>
       </c>
-      <c r="I29" s="75"/>
-    </row>
-    <row r="30" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I29" s="76"/>
+    </row>
+    <row r="30" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="24" t="s">
         <v>1</v>
       </c>
@@ -6699,7 +6831,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" ht="45.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="10">
         <v>4</v>
       </c>
@@ -6709,8 +6841,8 @@
       <c r="C31" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="D31" s="69" t="s">
-        <v>128</v>
+      <c r="D31" s="66" t="s">
+        <v>127</v>
       </c>
       <c r="E31" s="18">
         <v>43773</v>
@@ -6721,10 +6853,10 @@
       <c r="G31" s="6"/>
       <c r="H31" s="14"/>
       <c r="I31" s="15" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="10">
         <v>4</v>
       </c>
@@ -6735,7 +6867,7 @@
         <v>63</v>
       </c>
       <c r="D32" s="57" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E32" s="18">
         <v>43774</v>
@@ -6747,7 +6879,7 @@
       <c r="H32" s="14"/>
       <c r="I32" s="15"/>
     </row>
-    <row r="33" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="10">
         <v>4</v>
       </c>
@@ -6755,10 +6887,10 @@
         <v>11</v>
       </c>
       <c r="C33" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="D33" s="57" t="s">
         <v>129</v>
-      </c>
-      <c r="D33" s="57" t="s">
-        <v>130</v>
       </c>
       <c r="E33" s="18">
         <v>43775</v>
@@ -6769,10 +6901,10 @@
       <c r="G33" s="7"/>
       <c r="H33" s="14"/>
       <c r="I33" s="15" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="10">
         <v>4</v>
       </c>
@@ -6783,7 +6915,7 @@
         <v>19</v>
       </c>
       <c r="D34" s="57" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E34" s="18">
         <v>43776</v>
@@ -6794,21 +6926,21 @@
       <c r="G34" s="7"/>
       <c r="H34" s="14"/>
       <c r="I34" s="3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="10">
         <v>4</v>
       </c>
-      <c r="B35" s="68" t="s">
+      <c r="B35" s="65" t="s">
         <v>13</v>
       </c>
       <c r="C35" s="25" t="s">
         <v>19</v>
       </c>
       <c r="D35" s="57" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E35" s="18">
         <v>43777</v>
@@ -6820,18 +6952,18 @@
       <c r="H35" s="14"/>
       <c r="I35" s="3"/>
     </row>
-    <row r="36" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="10">
         <v>4</v>
       </c>
-      <c r="B36" s="68" t="s">
+      <c r="B36" s="65" t="s">
         <v>14</v>
       </c>
       <c r="C36" s="25" t="s">
         <v>19</v>
       </c>
       <c r="D36" s="57" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E36" s="18">
         <v>43778</v>
@@ -6843,7 +6975,7 @@
       <c r="H36" s="14"/>
       <c r="I36" s="3"/>
     </row>
-    <row r="37" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="9"/>
       <c r="B37" s="12"/>
       <c r="C37" s="9"/>
@@ -6856,30 +6988,30 @@
       <c r="H37" s="14"/>
       <c r="I37" s="5"/>
     </row>
-    <row r="38" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="67" t="s">
+    <row r="38" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="B38" s="67" t="s">
+      <c r="B38" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="C38" s="74">
+      <c r="C38" s="75">
         <f>SUM(F31:F37)</f>
         <v>38</v>
       </c>
-      <c r="D38" s="74"/>
-      <c r="E38" s="74"/>
-      <c r="F38" s="75"/>
-      <c r="G38" s="66" t="s">
+      <c r="D38" s="75"/>
+      <c r="E38" s="75"/>
+      <c r="F38" s="76"/>
+      <c r="G38" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="H38" s="74">
+      <c r="H38" s="75">
         <f>SUM(G31:G37)</f>
         <v>0</v>
       </c>
-      <c r="I38" s="75"/>
-    </row>
-    <row r="39" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I38" s="76"/>
+    </row>
+    <row r="39" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="24" t="s">
         <v>1</v>
       </c>
@@ -6908,7 +7040,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="10">
         <v>5</v>
       </c>
@@ -6925,7 +7057,7 @@
       <c r="H40" s="14"/>
       <c r="I40" s="15"/>
     </row>
-    <row r="41" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="10">
         <v>5</v>
       </c>
@@ -6942,7 +7074,7 @@
       <c r="H41" s="14"/>
       <c r="I41" s="15"/>
     </row>
-    <row r="42" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="10">
         <v>5</v>
       </c>
@@ -6959,7 +7091,7 @@
       <c r="H42" s="14"/>
       <c r="I42" s="3"/>
     </row>
-    <row r="43" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="10">
         <v>5</v>
       </c>
@@ -6976,11 +7108,11 @@
       <c r="H43" s="14"/>
       <c r="I43" s="3"/>
     </row>
-    <row r="44" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="10">
         <v>5</v>
       </c>
-      <c r="B44" s="68" t="s">
+      <c r="B44" s="65" t="s">
         <v>13</v>
       </c>
       <c r="C44" s="25"/>
@@ -6993,11 +7125,11 @@
       <c r="H44" s="14"/>
       <c r="I44" s="3"/>
     </row>
-    <row r="45" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="10">
         <v>5</v>
       </c>
-      <c r="B45" s="68" t="s">
+      <c r="B45" s="65" t="s">
         <v>14</v>
       </c>
       <c r="C45" s="25"/>
@@ -7010,7 +7142,7 @@
       <c r="H45" s="14"/>
       <c r="I45" s="3"/>
     </row>
-    <row r="46" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="9"/>
       <c r="B46" s="12"/>
       <c r="C46" s="9"/>
@@ -7023,30 +7155,30 @@
       <c r="H46" s="14"/>
       <c r="I46" s="5"/>
     </row>
-    <row r="47" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="67" t="s">
+    <row r="47" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="B47" s="67" t="s">
+      <c r="B47" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="C47" s="74">
+      <c r="C47" s="75">
         <f>SUM(F40:F46)</f>
         <v>0</v>
       </c>
-      <c r="D47" s="74"/>
-      <c r="E47" s="74"/>
-      <c r="F47" s="75"/>
-      <c r="G47" s="66" t="s">
+      <c r="D47" s="75"/>
+      <c r="E47" s="75"/>
+      <c r="F47" s="76"/>
+      <c r="G47" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="H47" s="74">
+      <c r="H47" s="75">
         <f>SUM(G40:G46)</f>
         <v>0</v>
       </c>
-      <c r="I47" s="75"/>
-    </row>
-    <row r="48" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I47" s="76"/>
+    </row>
+    <row r="48" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="24" t="s">
         <v>1</v>
       </c>
@@ -7075,7 +7207,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="10">
         <v>6</v>
       </c>
@@ -7092,7 +7224,7 @@
       <c r="H49" s="14"/>
       <c r="I49" s="15"/>
     </row>
-    <row r="50" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="10">
         <v>6</v>
       </c>
@@ -7109,7 +7241,7 @@
       <c r="H50" s="14"/>
       <c r="I50" s="15"/>
     </row>
-    <row r="51" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="10">
         <v>6</v>
       </c>
@@ -7126,7 +7258,7 @@
       <c r="H51" s="14"/>
       <c r="I51" s="3"/>
     </row>
-    <row r="52" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="10">
         <v>6</v>
       </c>
@@ -7143,11 +7275,11 @@
       <c r="H52" s="14"/>
       <c r="I52" s="3"/>
     </row>
-    <row r="53" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="10">
         <v>6</v>
       </c>
-      <c r="B53" s="68" t="s">
+      <c r="B53" s="65" t="s">
         <v>13</v>
       </c>
       <c r="C53" s="25"/>
@@ -7160,11 +7292,11 @@
       <c r="H53" s="14"/>
       <c r="I53" s="3"/>
     </row>
-    <row r="54" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="10">
         <v>6</v>
       </c>
-      <c r="B54" s="68" t="s">
+      <c r="B54" s="65" t="s">
         <v>14</v>
       </c>
       <c r="C54" s="25"/>
@@ -7177,7 +7309,7 @@
       <c r="H54" s="14"/>
       <c r="I54" s="3"/>
     </row>
-    <row r="55" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="9"/>
       <c r="B55" s="12"/>
       <c r="C55" s="9"/>
@@ -7190,30 +7322,30 @@
       <c r="H55" s="14"/>
       <c r="I55" s="5"/>
     </row>
-    <row r="56" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="67" t="s">
+    <row r="56" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="B56" s="67" t="s">
+      <c r="B56" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="C56" s="74">
+      <c r="C56" s="75">
         <f>SUM(F49:F55)</f>
         <v>0</v>
       </c>
-      <c r="D56" s="74"/>
-      <c r="E56" s="74"/>
-      <c r="F56" s="75"/>
-      <c r="G56" s="66" t="s">
+      <c r="D56" s="75"/>
+      <c r="E56" s="75"/>
+      <c r="F56" s="76"/>
+      <c r="G56" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="H56" s="74">
+      <c r="H56" s="75">
         <f>SUM(G49:G55)</f>
         <v>0</v>
       </c>
-      <c r="I56" s="75"/>
-    </row>
-    <row r="57" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I56" s="76"/>
+    </row>
+    <row r="57" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="24" t="s">
         <v>1</v>
       </c>
@@ -7242,7 +7374,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="10">
         <v>7</v>
       </c>
@@ -7253,7 +7385,7 @@
         <v>19</v>
       </c>
       <c r="D58" s="13" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E58" s="18">
         <v>43794</v>
@@ -7264,10 +7396,10 @@
       <c r="G58" s="6"/>
       <c r="H58" s="14"/>
       <c r="I58" s="15" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="10">
         <v>7</v>
       </c>
@@ -7278,7 +7410,7 @@
         <v>63</v>
       </c>
       <c r="D59" s="13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E59" s="18">
         <v>43795</v>
@@ -7290,7 +7422,7 @@
       <c r="H59" s="14"/>
       <c r="I59" s="15"/>
     </row>
-    <row r="60" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="10">
         <v>7</v>
       </c>
@@ -7298,10 +7430,10 @@
         <v>11</v>
       </c>
       <c r="C60" s="25" t="s">
+        <v>139</v>
+      </c>
+      <c r="D60" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>141</v>
       </c>
       <c r="E60" s="18">
         <v>43796</v>
@@ -7312,10 +7444,10 @@
       <c r="G60" s="7"/>
       <c r="H60" s="14"/>
       <c r="I60" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="10">
         <v>7</v>
       </c>
@@ -7323,10 +7455,10 @@
         <v>12</v>
       </c>
       <c r="C61" s="25" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E61" s="18">
         <v>43797</v>
@@ -7338,18 +7470,18 @@
       <c r="H61" s="14"/>
       <c r="I61" s="3"/>
     </row>
-    <row r="62" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="10">
         <v>7</v>
       </c>
-      <c r="B62" s="68" t="s">
+      <c r="B62" s="65" t="s">
         <v>13</v>
       </c>
       <c r="C62" s="25" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E62" s="18">
         <v>43798</v>
@@ -7360,21 +7492,21 @@
       <c r="G62" s="7"/>
       <c r="H62" s="14"/>
       <c r="I62" s="3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="10">
         <v>7</v>
       </c>
-      <c r="B63" s="68" t="s">
+      <c r="B63" s="65" t="s">
         <v>14</v>
       </c>
       <c r="C63" s="25" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E63" s="18">
         <v>43799</v>
@@ -7385,21 +7517,21 @@
       <c r="G63" s="7"/>
       <c r="H63" s="14"/>
       <c r="I63" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="9">
         <v>7</v>
       </c>
-      <c r="B64" s="68" t="s">
-        <v>124</v>
+      <c r="B64" s="65" t="s">
+        <v>123</v>
       </c>
       <c r="C64" s="25" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E64" s="18">
         <v>43800</v>
@@ -7410,33 +7542,33 @@
       <c r="G64" s="8"/>
       <c r="H64" s="14"/>
       <c r="I64" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="67" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="B65" s="67" t="s">
+      <c r="B65" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="C65" s="74">
+      <c r="C65" s="75">
         <f>SUM(F58:F64)</f>
         <v>50</v>
       </c>
-      <c r="D65" s="74"/>
-      <c r="E65" s="74"/>
-      <c r="F65" s="75"/>
-      <c r="G65" s="66" t="s">
+      <c r="D65" s="75"/>
+      <c r="E65" s="75"/>
+      <c r="F65" s="76"/>
+      <c r="G65" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="H65" s="74">
+      <c r="H65" s="75">
         <f>SUM(G58:G64)</f>
         <v>0</v>
       </c>
-      <c r="I65" s="75"/>
-    </row>
-    <row r="66" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I65" s="76"/>
+    </row>
+    <row r="66" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="24" t="s">
         <v>1</v>
       </c>
@@ -7465,7 +7597,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="10">
         <v>8</v>
       </c>
@@ -7473,10 +7605,10 @@
         <v>9</v>
       </c>
       <c r="C67" s="25" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D67" s="13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E67" s="18">
         <v>43801</v>
@@ -7487,10 +7619,10 @@
       <c r="G67" s="6"/>
       <c r="H67" s="14"/>
       <c r="I67" s="15" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="10">
         <v>8</v>
       </c>
@@ -7509,7 +7641,7 @@
       <c r="H68" s="14"/>
       <c r="I68" s="15"/>
     </row>
-    <row r="69" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="10">
         <v>8</v>
       </c>
@@ -7517,7 +7649,7 @@
         <v>11</v>
       </c>
       <c r="C69" s="25" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" s="18">
@@ -7528,7 +7660,7 @@
       <c r="H69" s="14"/>
       <c r="I69" s="3"/>
     </row>
-    <row r="70" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="10">
         <v>8</v>
       </c>
@@ -7536,7 +7668,7 @@
         <v>12</v>
       </c>
       <c r="C70" s="25" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" s="18">
@@ -7547,15 +7679,15 @@
       <c r="H70" s="14"/>
       <c r="I70" s="3"/>
     </row>
-    <row r="71" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="10">
         <v>8</v>
       </c>
-      <c r="B71" s="68" t="s">
+      <c r="B71" s="65" t="s">
         <v>13</v>
       </c>
       <c r="C71" s="25" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" s="18">
@@ -7566,15 +7698,15 @@
       <c r="H71" s="14"/>
       <c r="I71" s="3"/>
     </row>
-    <row r="72" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="10">
         <v>8</v>
       </c>
-      <c r="B72" s="68" t="s">
+      <c r="B72" s="65" t="s">
         <v>14</v>
       </c>
       <c r="C72" s="25" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" s="18">
@@ -7585,15 +7717,15 @@
       <c r="H72" s="14"/>
       <c r="I72" s="3"/>
     </row>
-    <row r="73" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="10">
         <v>8</v>
       </c>
-      <c r="B73" s="68" t="s">
-        <v>124</v>
+      <c r="B73" s="65" t="s">
+        <v>123</v>
       </c>
       <c r="C73" s="25" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D73" s="4"/>
       <c r="E73" s="18">
@@ -7604,36 +7736,31 @@
       <c r="H73" s="14"/>
       <c r="I73" s="3"/>
     </row>
-    <row r="74" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="67" t="s">
+    <row r="74" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="B74" s="67" t="s">
+      <c r="B74" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="C74" s="74">
+      <c r="C74" s="75">
         <f>SUM(F67:F73)</f>
         <v>10</v>
       </c>
-      <c r="D74" s="74"/>
-      <c r="E74" s="74"/>
-      <c r="F74" s="75"/>
-      <c r="G74" s="66" t="s">
+      <c r="D74" s="75"/>
+      <c r="E74" s="75"/>
+      <c r="F74" s="76"/>
+      <c r="G74" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="H74" s="74">
+      <c r="H74" s="75">
         <f>SUM(G67:G73)</f>
         <v>0</v>
       </c>
-      <c r="I74" s="75"/>
+      <c r="I74" s="76"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="H20:I20"/>
     <mergeCell ref="C74:F74"/>
     <mergeCell ref="H74:I74"/>
     <mergeCell ref="C65:F65"/>
@@ -7646,6 +7773,11 @@
     <mergeCell ref="H47:I47"/>
     <mergeCell ref="C56:F56"/>
     <mergeCell ref="H56:I56"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="H20:I20"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <dataValidations count="6">
@@ -7677,24 +7809,24 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4F2588E-374C-4DBD-95A9-14304F022B88}">
-  <dimension ref="A1:I56"/>
+  <dimension ref="A1:S110"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.85546875" customWidth="1"/>
-    <col min="9" max="9" width="11.85546875" customWidth="1"/>
+    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.88671875" customWidth="1"/>
+    <col min="9" max="9" width="11.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="20" t="s">
         <v>65</v>
       </c>
@@ -7707,49 +7839,47 @@
       <c r="H1" s="21"/>
       <c r="I1" s="22"/>
     </row>
-    <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="70" t="s">
+    <row r="2" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="73"/>
-    </row>
-    <row r="3" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="24" t="s">
+      <c r="B2" s="78"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="80"/>
+    </row>
+    <row r="3" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="101" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="101" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="102" t="s">
         <v>53</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="103" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" s="24" t="s">
+      <c r="E3" s="104"/>
+      <c r="F3" s="103" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="103" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="103" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="24" t="s">
+      <c r="I3" s="103" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="10">
         <v>1</v>
       </c>
@@ -7759,14 +7889,14 @@
       <c r="C4" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="D4" s="56"/>
+      <c r="D4" s="13"/>
       <c r="E4" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="6">
         <v>4</v>
       </c>
-      <c r="G4" s="10">
+      <c r="G4" s="6">
         <v>4</v>
       </c>
       <c r="H4" s="14" t="s">
@@ -7774,7 +7904,7 @@
       </c>
       <c r="I4" s="15"/>
     </row>
-    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="10">
         <v>1</v>
       </c>
@@ -7782,18 +7912,18 @@
         <v>10</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="56" t="s">
+        <v>187</v>
+      </c>
+      <c r="D5" s="13" t="s">
         <v>92</v>
       </c>
       <c r="E5" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="F5" s="10">
-        <v>5</v>
-      </c>
-      <c r="G5" s="10">
+      <c r="F5" s="6">
+        <v>5</v>
+      </c>
+      <c r="G5" s="6">
         <v>5</v>
       </c>
       <c r="H5" s="14" t="s">
@@ -7801,7 +7931,7 @@
       </c>
       <c r="I5" s="15"/>
     </row>
-    <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -7809,18 +7939,18 @@
         <v>11</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="57" t="s">
+        <v>187</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>92</v>
       </c>
       <c r="E6" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="7">
         <v>4.5</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="7">
         <v>4.5</v>
       </c>
       <c r="H6" s="14" t="s">
@@ -7828,7 +7958,7 @@
       </c>
       <c r="I6" s="3"/>
     </row>
-    <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -7836,26 +7966,27 @@
         <v>12</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="57" t="s">
+        <v>187</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>93</v>
       </c>
       <c r="E7" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="F7" s="1">
-        <v>5</v>
-      </c>
-      <c r="G7" s="1">
+      <c r="F7" s="7">
+        <v>5</v>
+      </c>
+      <c r="G7" s="7">
         <v>5</v>
       </c>
       <c r="H7" s="14" t="s">
         <v>20</v>
       </c>
       <c r="I7" s="3"/>
-    </row>
-    <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="S7" s="15"/>
+    </row>
+    <row r="8" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>1</v>
       </c>
@@ -7865,14 +7996,14 @@
       <c r="C8" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="D8" s="57"/>
+      <c r="D8" s="2"/>
       <c r="E8" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="7">
         <v>4</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="7">
         <v>4</v>
       </c>
       <c r="H8" s="14" t="s">
@@ -7880,7 +8011,7 @@
       </c>
       <c r="I8" s="3"/>
     </row>
-    <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>1</v>
       </c>
@@ -7888,16 +8019,18 @@
         <v>14</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="58">
-        <v>43757</v>
-      </c>
-      <c r="F9" s="1">
+        <v>187</v>
+      </c>
+      <c r="D9" s="72" t="s">
+        <v>188</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="F9" s="7">
         <v>4</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9" s="7">
         <v>5</v>
       </c>
       <c r="H9" s="14" t="s">
@@ -7905,214 +8038,187 @@
       </c>
       <c r="I9" s="3"/>
     </row>
-    <row r="10" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="9"/>
       <c r="B10" s="11"/>
       <c r="C10" s="9"/>
-      <c r="D10" s="59"/>
-      <c r="E10" s="58"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="14"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="84"/>
       <c r="I10" s="5"/>
     </row>
-    <row r="11" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="67" t="s">
+    <row r="11" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="67" t="s">
+      <c r="B11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="77">
+      <c r="C11" s="85">
         <f>SUM(F4:F10)</f>
         <v>26.5</v>
       </c>
-      <c r="D11" s="77"/>
-      <c r="E11" s="77"/>
-      <c r="F11" s="78"/>
-      <c r="G11" s="66" t="s">
+      <c r="D11" s="85"/>
+      <c r="E11" s="85"/>
+      <c r="F11" s="85"/>
+      <c r="G11" s="86" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="77">
+      <c r="H11" s="85">
         <f>SUM(G4:G10)</f>
         <v>27.5</v>
       </c>
-      <c r="I11" s="78"/>
-    </row>
-    <row r="12" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="24" t="s">
+      <c r="I11" s="85"/>
+    </row>
+    <row r="12" spans="1:19" s="90" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="87"/>
+      <c r="B12" s="87"/>
+      <c r="C12" s="88"/>
+      <c r="D12" s="88"/>
+      <c r="E12" s="88"/>
+      <c r="F12" s="88"/>
+      <c r="G12" s="89"/>
+      <c r="H12" s="88"/>
+      <c r="I12" s="88"/>
+    </row>
+    <row r="13" spans="1:19" s="90" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="87"/>
+      <c r="B13" s="87"/>
+      <c r="C13" s="88"/>
+      <c r="D13" s="88"/>
+      <c r="F13" s="88"/>
+      <c r="G13" s="89"/>
+      <c r="H13" s="88"/>
+      <c r="I13" s="88"/>
+    </row>
+    <row r="14" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="101" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="24" t="s">
+      <c r="B14" s="101" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="24" t="s">
+      <c r="C14" s="102" t="s">
         <v>53</v>
       </c>
-      <c r="D12" s="24" t="s">
+      <c r="D14" s="103" t="s">
         <v>3</v>
       </c>
-      <c r="E12" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="F12" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="G12" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="H12" s="24" t="s">
+      <c r="E14" s="104"/>
+      <c r="F14" s="103" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="103" t="s">
+        <v>6</v>
+      </c>
+      <c r="H14" s="103" t="s">
         <v>7</v>
       </c>
-      <c r="I12" s="24" t="s">
+      <c r="I14" s="103" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="10">
-        <v>2</v>
-      </c>
-      <c r="B13" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="56" t="s">
-        <v>94</v>
-      </c>
-      <c r="E13" s="60">
-        <v>43759</v>
-      </c>
-      <c r="F13" s="10">
-        <v>5.5</v>
-      </c>
-      <c r="G13" s="10">
-        <v>6</v>
-      </c>
-      <c r="H13" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="I13" s="15"/>
-    </row>
-    <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="10">
-        <v>2</v>
-      </c>
-      <c r="B14" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" s="56" t="s">
-        <v>95</v>
-      </c>
-      <c r="E14" s="61">
-        <v>43760</v>
-      </c>
-      <c r="F14" s="10">
-        <v>5</v>
-      </c>
-      <c r="G14" s="10">
-        <v>6</v>
-      </c>
-      <c r="H14" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="I14" s="15"/>
-    </row>
-    <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="10">
         <v>2</v>
       </c>
-      <c r="B15" s="27" t="s">
-        <v>11</v>
+      <c r="B15" s="25" t="s">
+        <v>9</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="D15" s="57"/>
-      <c r="E15" s="62">
-        <v>43761</v>
-      </c>
-      <c r="F15" s="1">
-        <v>4</v>
-      </c>
-      <c r="G15" s="1">
-        <v>4</v>
+        <v>187</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="F15" s="6">
+        <v>5.5</v>
+      </c>
+      <c r="G15" s="6">
+        <v>6</v>
       </c>
       <c r="H15" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="I15" s="3"/>
-    </row>
-    <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I15" s="15"/>
+    </row>
+    <row r="16" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="10">
         <v>2</v>
       </c>
-      <c r="B16" s="27" t="s">
-        <v>12</v>
+      <c r="B16" s="26" t="s">
+        <v>10</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" s="57" t="s">
-        <v>92</v>
-      </c>
-      <c r="E16" s="61">
-        <v>43762</v>
-      </c>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
+        <v>187</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="F16" s="6">
+        <v>5</v>
+      </c>
+      <c r="G16" s="6">
+        <v>6</v>
+      </c>
       <c r="H16" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="I16" s="3"/>
-    </row>
-    <row r="17" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I16" s="15"/>
+    </row>
+    <row r="17" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="10">
         <v>2</v>
       </c>
       <c r="B17" s="27" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17" s="57" t="s">
-        <v>96</v>
-      </c>
-      <c r="E17" s="58">
-        <v>43763</v>
-      </c>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
+        <v>63</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="F17" s="7">
+        <v>4</v>
+      </c>
+      <c r="G17" s="7">
+        <v>4</v>
+      </c>
       <c r="H17" s="14" t="s">
         <v>20</v>
       </c>
       <c r="I17" s="3"/>
     </row>
-    <row r="18" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="10">
         <v>2</v>
       </c>
       <c r="B18" s="27" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="D18" s="57" t="s">
-        <v>82</v>
-      </c>
-      <c r="E18" s="16">
-        <v>43764</v>
-      </c>
-      <c r="F18" s="1">
-        <v>4</v>
-      </c>
-      <c r="G18" s="1">
+        <v>19</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="F18" s="7">
+        <v>5</v>
+      </c>
+      <c r="G18" s="7">
         <v>6</v>
       </c>
       <c r="H18" s="14" t="s">
@@ -8120,689 +8226,1923 @@
       </c>
       <c r="I18" s="3"/>
     </row>
-    <row r="19" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="9"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="59"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="5"/>
-    </row>
-    <row r="20" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="67" t="s">
+    <row r="19" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="10">
+        <v>2</v>
+      </c>
+      <c r="B19" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="25" t="s">
+        <v>187</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="F19" s="7">
+        <v>6</v>
+      </c>
+      <c r="G19" s="7">
+        <v>6</v>
+      </c>
+      <c r="H19" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I19" s="3"/>
+    </row>
+    <row r="20" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="10">
+        <v>2</v>
+      </c>
+      <c r="B20" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="25" t="s">
+        <v>187</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="F20" s="7">
+        <v>4</v>
+      </c>
+      <c r="G20" s="7">
+        <v>6</v>
+      </c>
+      <c r="H20" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I20" s="3"/>
+    </row>
+    <row r="21" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="9"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="84"/>
+      <c r="I21" s="5"/>
+    </row>
+    <row r="22" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="67" t="s">
+      <c r="B22" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="77">
-        <f>SUM(F13:F19)</f>
-        <v>18.5</v>
-      </c>
-      <c r="D20" s="77"/>
-      <c r="E20" s="77"/>
-      <c r="F20" s="78"/>
-      <c r="G20" s="66" t="s">
+      <c r="C22" s="85">
+        <f>SUM(F15:F21)</f>
+        <v>29.5</v>
+      </c>
+      <c r="D22" s="85"/>
+      <c r="E22" s="85"/>
+      <c r="F22" s="85"/>
+      <c r="G22" s="86" t="s">
         <v>17</v>
       </c>
-      <c r="H20" s="77">
-        <f>SUM(G13:G19)</f>
-        <v>22</v>
-      </c>
-      <c r="I20" s="78"/>
-    </row>
-    <row r="21" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="24" t="s">
+      <c r="H22" s="85">
+        <f>SUM(G15:G21)</f>
+        <v>34</v>
+      </c>
+      <c r="I22" s="85"/>
+    </row>
+    <row r="23" spans="1:9" s="90" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="87"/>
+      <c r="B23" s="87"/>
+      <c r="C23" s="88"/>
+      <c r="D23" s="88"/>
+      <c r="E23" s="92"/>
+      <c r="F23" s="88"/>
+      <c r="G23" s="89"/>
+      <c r="H23" s="88"/>
+      <c r="I23" s="88"/>
+    </row>
+    <row r="24" spans="1:9" s="90" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="87"/>
+      <c r="B24" s="87"/>
+      <c r="C24" s="88"/>
+      <c r="D24" s="88"/>
+      <c r="E24" s="92"/>
+      <c r="F24" s="88"/>
+      <c r="G24" s="89"/>
+      <c r="H24" s="88"/>
+      <c r="I24" s="88"/>
+    </row>
+    <row r="25" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="101" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="24" t="s">
+      <c r="B25" s="101" t="s">
         <v>2</v>
       </c>
-      <c r="C21" s="24" t="s">
+      <c r="C25" s="102" t="s">
         <v>53</v>
       </c>
-      <c r="D21" s="24" t="s">
+      <c r="D25" s="103" t="s">
         <v>3</v>
       </c>
-      <c r="E21" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="F21" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="G21" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="H21" s="24" t="s">
+      <c r="E25" s="104"/>
+      <c r="F25" s="103" t="s">
+        <v>5</v>
+      </c>
+      <c r="G25" s="103" t="s">
+        <v>6</v>
+      </c>
+      <c r="H25" s="103" t="s">
         <v>7</v>
       </c>
-      <c r="I21" s="24" t="s">
+      <c r="I25" s="103" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="10">
-        <v>3</v>
-      </c>
-      <c r="B22" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" s="25"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="15"/>
-    </row>
-    <row r="23" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="10">
-        <v>3</v>
-      </c>
-      <c r="B23" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="C23" s="25"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="15"/>
-    </row>
-    <row r="24" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="10">
-        <v>3</v>
-      </c>
-      <c r="B24" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="C24" s="25"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="3"/>
-    </row>
-    <row r="25" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="10">
-        <v>3</v>
-      </c>
-      <c r="B25" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" s="25"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="3"/>
-    </row>
-    <row r="26" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="10">
         <v>3</v>
       </c>
-      <c r="B26" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="C26" s="25"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="3"/>
-    </row>
-    <row r="27" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B26" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="E26" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="F26" s="6">
+        <v>5</v>
+      </c>
+      <c r="G26" s="6">
+        <v>5</v>
+      </c>
+      <c r="H26" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I26" s="15"/>
+    </row>
+    <row r="27" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="10">
         <v>3</v>
       </c>
-      <c r="B27" s="68" t="s">
+      <c r="B27" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="D27" s="13"/>
+      <c r="E27" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="F27" s="6">
+        <v>4</v>
+      </c>
+      <c r="G27" s="6">
+        <v>4</v>
+      </c>
+      <c r="H27" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I27" s="93"/>
+    </row>
+    <row r="28" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A28" s="10">
+        <v>3</v>
+      </c>
+      <c r="B28" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="E28" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="F28" s="7">
+        <v>4.5</v>
+      </c>
+      <c r="G28" s="7">
+        <v>5</v>
+      </c>
+      <c r="H28" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I28" s="3"/>
+    </row>
+    <row r="29" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A29" s="10">
+        <v>3</v>
+      </c>
+      <c r="B29" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="25" t="s">
+        <v>187</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E29" s="91" t="s">
+        <v>156</v>
+      </c>
+      <c r="F29" s="7">
+        <v>5</v>
+      </c>
+      <c r="G29" s="7">
+        <v>5</v>
+      </c>
+      <c r="H29" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I29" s="3"/>
+    </row>
+    <row r="30" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A30" s="10">
+        <v>3</v>
+      </c>
+      <c r="B30" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="25" t="s">
+        <v>187</v>
+      </c>
+      <c r="D30" s="94" t="s">
+        <v>192</v>
+      </c>
+      <c r="E30" s="91">
+        <v>43476</v>
+      </c>
+      <c r="F30" s="7">
+        <v>6</v>
+      </c>
+      <c r="G30" s="7">
+        <v>5</v>
+      </c>
+      <c r="H30" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I30" s="3"/>
+    </row>
+    <row r="31" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A31" s="10">
+        <v>3</v>
+      </c>
+      <c r="B31" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="C27" s="25"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="3"/>
-    </row>
-    <row r="28" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="9"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="5"/>
-    </row>
-    <row r="29" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="67" t="s">
+      <c r="C31" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E31" s="91">
+        <v>43507</v>
+      </c>
+      <c r="F31" s="7">
+        <v>5.5</v>
+      </c>
+      <c r="G31" s="7">
+        <v>5</v>
+      </c>
+      <c r="H31" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I31" s="3"/>
+    </row>
+    <row r="32" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="95"/>
+      <c r="I32" s="96"/>
+    </row>
+    <row r="33" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B29" s="67" t="s">
+      <c r="B33" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="74">
-        <f>SUM(F22:F28)</f>
-        <v>0</v>
-      </c>
-      <c r="D29" s="74"/>
-      <c r="E29" s="74"/>
-      <c r="F29" s="75"/>
-      <c r="G29" s="66" t="s">
+      <c r="C33" s="85">
+        <f>SUM(F26:F32)</f>
+        <v>30</v>
+      </c>
+      <c r="D33" s="85"/>
+      <c r="E33" s="85"/>
+      <c r="F33" s="85"/>
+      <c r="G33" s="86" t="s">
         <v>17</v>
       </c>
-      <c r="H29" s="74">
-        <f>SUM(G22:G28)</f>
-        <v>0</v>
-      </c>
-      <c r="I29" s="75"/>
-    </row>
-    <row r="30" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="24" t="s">
+      <c r="H33" s="85">
+        <f>SUM(G26:G32)</f>
+        <v>29</v>
+      </c>
+      <c r="I33" s="85"/>
+    </row>
+    <row r="34" spans="1:9" s="90" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A34" s="87"/>
+      <c r="B34" s="87"/>
+      <c r="C34" s="88"/>
+      <c r="D34" s="88"/>
+      <c r="E34" s="92"/>
+      <c r="F34" s="88"/>
+      <c r="G34" s="89"/>
+      <c r="H34" s="88"/>
+      <c r="I34" s="88"/>
+    </row>
+    <row r="35" spans="1:9" s="90" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A35" s="87"/>
+      <c r="B35" s="87"/>
+      <c r="C35" s="88"/>
+      <c r="D35" s="88"/>
+      <c r="E35" s="92"/>
+      <c r="F35" s="88"/>
+      <c r="G35" s="89"/>
+      <c r="H35" s="88"/>
+      <c r="I35" s="88"/>
+    </row>
+    <row r="36" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="101" t="s">
         <v>1</v>
       </c>
-      <c r="B30" s="24" t="s">
+      <c r="B36" s="101" t="s">
         <v>2</v>
       </c>
-      <c r="C30" s="24" t="s">
+      <c r="C36" s="102" t="s">
         <v>53</v>
       </c>
-      <c r="D30" s="24" t="s">
+      <c r="D36" s="103" t="s">
         <v>3</v>
       </c>
-      <c r="E30" s="24" t="s">
+      <c r="E36" s="104"/>
+      <c r="F36" s="103" t="s">
+        <v>5</v>
+      </c>
+      <c r="G36" s="103" t="s">
+        <v>6</v>
+      </c>
+      <c r="H36" s="103" t="s">
+        <v>7</v>
+      </c>
+      <c r="I36" s="103" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="10">
         <v>4</v>
       </c>
-      <c r="F30" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="G30" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="H30" s="24" t="s">
+      <c r="B37" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" s="25" t="s">
+        <v>194</v>
+      </c>
+      <c r="D37" s="13"/>
+      <c r="E37" s="18">
+        <v>43773</v>
+      </c>
+      <c r="F37" s="6">
+        <v>5.5</v>
+      </c>
+      <c r="G37" s="6">
+        <v>6</v>
+      </c>
+      <c r="H37" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I37" s="15"/>
+    </row>
+    <row r="38" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="10">
+        <v>4</v>
+      </c>
+      <c r="B38" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C38" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="D38" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="E38" s="18">
+        <v>43774</v>
+      </c>
+      <c r="F38" s="6">
+        <v>4</v>
+      </c>
+      <c r="G38" s="6">
+        <v>4</v>
+      </c>
+      <c r="H38" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I38" s="93"/>
+    </row>
+    <row r="39" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="10">
+        <v>4</v>
+      </c>
+      <c r="B39" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39" s="25" t="s">
+        <v>196</v>
+      </c>
+      <c r="D39" s="2"/>
+      <c r="E39" s="18">
+        <v>43775</v>
+      </c>
+      <c r="F39" s="7">
+        <v>4</v>
+      </c>
+      <c r="G39" s="7">
+        <v>4</v>
+      </c>
+      <c r="H39" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I39" s="3"/>
+    </row>
+    <row r="40" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="10">
+        <v>4</v>
+      </c>
+      <c r="B40" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C40" s="25" t="s">
+        <v>194</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E40" s="18">
+        <v>43776</v>
+      </c>
+      <c r="F40" s="7">
+        <v>5</v>
+      </c>
+      <c r="G40" s="7">
+        <v>5</v>
+      </c>
+      <c r="H40" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I40" s="3"/>
+    </row>
+    <row r="41" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="10">
+        <v>4</v>
+      </c>
+      <c r="B41" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C41" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="D41" s="2"/>
+      <c r="E41" s="18">
+        <v>43777</v>
+      </c>
+      <c r="F41" s="7">
+        <v>5</v>
+      </c>
+      <c r="G41" s="7">
+        <v>5</v>
+      </c>
+      <c r="H41" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I41" s="3"/>
+    </row>
+    <row r="42" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="10">
+        <v>4</v>
+      </c>
+      <c r="B42" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="C42" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="D42" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="E42" s="18">
+        <v>43778</v>
+      </c>
+      <c r="F42" s="7">
+        <v>6</v>
+      </c>
+      <c r="G42" s="7">
+        <v>6</v>
+      </c>
+      <c r="H42" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I42" s="3"/>
+    </row>
+    <row r="43" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="9"/>
+      <c r="B43" s="11"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="18"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="14"/>
+      <c r="I43" s="5"/>
+    </row>
+    <row r="44" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="97" t="s">
+        <v>15</v>
+      </c>
+      <c r="B44" s="97" t="s">
+        <v>16</v>
+      </c>
+      <c r="C44" s="98">
+        <f>SUM(F37:F43)</f>
+        <v>29.5</v>
+      </c>
+      <c r="D44" s="98"/>
+      <c r="E44" s="98"/>
+      <c r="F44" s="99"/>
+      <c r="G44" s="100" t="s">
+        <v>17</v>
+      </c>
+      <c r="H44" s="98">
+        <f>SUM(G37:G43)</f>
+        <v>30</v>
+      </c>
+      <c r="I44" s="99"/>
+    </row>
+    <row r="47" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A47" s="101" t="s">
+        <v>1</v>
+      </c>
+      <c r="B47" s="101" t="s">
+        <v>2</v>
+      </c>
+      <c r="C47" s="102" t="s">
+        <v>53</v>
+      </c>
+      <c r="D47" s="103" t="s">
+        <v>3</v>
+      </c>
+      <c r="E47" s="104"/>
+      <c r="F47" s="103" t="s">
+        <v>5</v>
+      </c>
+      <c r="G47" s="103" t="s">
+        <v>6</v>
+      </c>
+      <c r="H47" s="103" t="s">
         <v>7</v>
       </c>
-      <c r="I30" s="24" t="s">
+      <c r="I47" s="103" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="10">
+    <row r="48" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="10">
+        <v>5</v>
+      </c>
+      <c r="B48" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C48" s="25" t="s">
+        <v>194</v>
+      </c>
+      <c r="D48" s="13"/>
+      <c r="E48" s="17">
+        <v>43780</v>
+      </c>
+      <c r="F48" s="6">
+        <v>5</v>
+      </c>
+      <c r="G48" s="6">
+        <v>5</v>
+      </c>
+      <c r="H48" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I48" s="15"/>
+    </row>
+    <row r="49" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="10">
+        <v>5</v>
+      </c>
+      <c r="B49" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C49" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="D49" s="13"/>
+      <c r="E49" s="18">
+        <v>43781</v>
+      </c>
+      <c r="F49" s="6">
         <v>4</v>
       </c>
-      <c r="B31" s="27" t="s">
+      <c r="G49" s="6">
+        <v>4</v>
+      </c>
+      <c r="H49" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I49" s="15"/>
+    </row>
+    <row r="50" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="10">
+        <v>5</v>
+      </c>
+      <c r="B50" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C50" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="E50" s="18">
+        <v>43782</v>
+      </c>
+      <c r="F50" s="7">
+        <v>4.5</v>
+      </c>
+      <c r="G50" s="7">
+        <v>5</v>
+      </c>
+      <c r="H50" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I50" s="3"/>
+    </row>
+    <row r="51" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="10">
+        <v>5</v>
+      </c>
+      <c r="B51" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C51" s="25" t="s">
+        <v>194</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E51" s="18">
+        <v>43783</v>
+      </c>
+      <c r="F51" s="7">
+        <v>5.5</v>
+      </c>
+      <c r="G51" s="7">
+        <v>6</v>
+      </c>
+      <c r="H51" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I51" s="3"/>
+    </row>
+    <row r="52" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="10">
+        <v>5</v>
+      </c>
+      <c r="B52" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C52" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="E52" s="18">
+        <v>43784</v>
+      </c>
+      <c r="F52" s="7">
+        <v>6</v>
+      </c>
+      <c r="G52" s="7">
+        <v>6</v>
+      </c>
+      <c r="H52" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I52" s="3"/>
+    </row>
+    <row r="53" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="10">
+        <v>5</v>
+      </c>
+      <c r="B53" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="C53" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="E53" s="18">
+        <v>43785</v>
+      </c>
+      <c r="F53" s="7">
+        <v>5.5</v>
+      </c>
+      <c r="G53" s="7">
+        <v>6</v>
+      </c>
+      <c r="H53" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I53" s="3"/>
+    </row>
+    <row r="54" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="9"/>
+      <c r="B54" s="11"/>
+      <c r="C54" s="9"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="18"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c r="H54" s="14"/>
+      <c r="I54" s="5"/>
+    </row>
+    <row r="55" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="97" t="s">
+        <v>15</v>
+      </c>
+      <c r="B55" s="97" t="s">
+        <v>16</v>
+      </c>
+      <c r="C55" s="98">
+        <f>SUM(F48:F54)</f>
+        <v>30.5</v>
+      </c>
+      <c r="D55" s="98"/>
+      <c r="E55" s="98"/>
+      <c r="F55" s="99"/>
+      <c r="G55" s="100" t="s">
+        <v>17</v>
+      </c>
+      <c r="H55" s="98">
+        <f>SUM(G48:G54)</f>
+        <v>32</v>
+      </c>
+      <c r="I55" s="99"/>
+    </row>
+    <row r="58" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A58" s="101" t="s">
+        <v>1</v>
+      </c>
+      <c r="B58" s="101" t="s">
+        <v>2</v>
+      </c>
+      <c r="C58" s="102" t="s">
+        <v>53</v>
+      </c>
+      <c r="D58" s="103" t="s">
+        <v>3</v>
+      </c>
+      <c r="E58" s="104"/>
+      <c r="F58" s="103" t="s">
+        <v>5</v>
+      </c>
+      <c r="G58" s="103" t="s">
+        <v>6</v>
+      </c>
+      <c r="H58" s="103" t="s">
+        <v>7</v>
+      </c>
+      <c r="I58" s="103" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A59" s="10">
+        <v>6</v>
+      </c>
+      <c r="B59" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="C31" s="25"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="14"/>
-      <c r="I31" s="15"/>
-    </row>
-    <row r="32" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="10">
+      <c r="C59" s="25" t="s">
+        <v>194</v>
+      </c>
+      <c r="D59" s="13"/>
+      <c r="E59" s="17">
+        <v>43786</v>
+      </c>
+      <c r="F59" s="6">
+        <v>5.5</v>
+      </c>
+      <c r="G59" s="6">
+        <v>6</v>
+      </c>
+      <c r="H59" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I59" s="15"/>
+    </row>
+    <row r="60" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A60" s="10">
+        <v>6</v>
+      </c>
+      <c r="B60" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C60" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="D60" s="13"/>
+      <c r="E60" s="17">
+        <v>43787</v>
+      </c>
+      <c r="F60" s="6">
         <v>4</v>
       </c>
-      <c r="B32" s="27" t="s">
+      <c r="G60" s="6">
+        <v>4</v>
+      </c>
+      <c r="H60" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I60" s="15"/>
+    </row>
+    <row r="61" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A61" s="10">
+        <v>6</v>
+      </c>
+      <c r="B61" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C61" s="25" t="s">
+        <v>199</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E61" s="17">
+        <v>43788</v>
+      </c>
+      <c r="F61" s="7">
+        <v>4.5</v>
+      </c>
+      <c r="G61" s="7">
+        <v>5</v>
+      </c>
+      <c r="H61" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I61" s="3"/>
+    </row>
+    <row r="62" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A62" s="10">
+        <v>6</v>
+      </c>
+      <c r="B62" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C62" s="25" t="s">
+        <v>194</v>
+      </c>
+      <c r="D62" s="2"/>
+      <c r="E62" s="17">
+        <v>43789</v>
+      </c>
+      <c r="F62" s="7">
+        <v>5.5</v>
+      </c>
+      <c r="G62" s="7">
+        <v>6</v>
+      </c>
+      <c r="H62" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I62" s="3"/>
+    </row>
+    <row r="63" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A63" s="10">
+        <v>6</v>
+      </c>
+      <c r="B63" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C63" s="25" t="s">
+        <v>199</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E63" s="17">
+        <v>43790</v>
+      </c>
+      <c r="F63" s="7">
+        <v>6</v>
+      </c>
+      <c r="G63" s="7">
+        <v>5</v>
+      </c>
+      <c r="H63" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I63" s="3"/>
+    </row>
+    <row r="64" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="10">
+        <v>6</v>
+      </c>
+      <c r="B64" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="C64" s="25" t="s">
+        <v>199</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E64" s="17">
+        <v>43791</v>
+      </c>
+      <c r="F64" s="7">
+        <v>5.5</v>
+      </c>
+      <c r="G64" s="7">
+        <v>5</v>
+      </c>
+      <c r="H64" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I64" s="3"/>
+    </row>
+    <row r="65" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="9"/>
+      <c r="B65" s="11"/>
+      <c r="C65" s="9"/>
+      <c r="D65" s="4"/>
+      <c r="E65" s="18"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+      <c r="H65" s="14"/>
+      <c r="I65" s="5"/>
+    </row>
+    <row r="66" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="97" t="s">
+        <v>15</v>
+      </c>
+      <c r="B66" s="97" t="s">
+        <v>16</v>
+      </c>
+      <c r="C66" s="98">
+        <f>SUM(F59:F65)</f>
+        <v>31</v>
+      </c>
+      <c r="D66" s="98"/>
+      <c r="E66" s="98"/>
+      <c r="F66" s="99"/>
+      <c r="G66" s="100" t="s">
+        <v>17</v>
+      </c>
+      <c r="H66" s="98">
+        <f>SUM(G59:G65)</f>
+        <v>31</v>
+      </c>
+      <c r="I66" s="99"/>
+    </row>
+    <row r="69" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A69" s="101" t="s">
+        <v>1</v>
+      </c>
+      <c r="B69" s="101" t="s">
+        <v>2</v>
+      </c>
+      <c r="C69" s="102" t="s">
+        <v>53</v>
+      </c>
+      <c r="D69" s="103" t="s">
+        <v>3</v>
+      </c>
+      <c r="E69" s="104"/>
+      <c r="F69" s="103" t="s">
+        <v>5</v>
+      </c>
+      <c r="G69" s="103" t="s">
+        <v>6</v>
+      </c>
+      <c r="H69" s="103" t="s">
+        <v>7</v>
+      </c>
+      <c r="I69" s="103" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A70" s="10">
+        <v>7</v>
+      </c>
+      <c r="B70" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C70" s="25" t="s">
+        <v>194</v>
+      </c>
+      <c r="D70" s="13"/>
+      <c r="E70" s="17">
+        <v>43793</v>
+      </c>
+      <c r="F70" s="7">
+        <v>5.5</v>
+      </c>
+      <c r="G70" s="7">
+        <v>6</v>
+      </c>
+      <c r="H70" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I70" s="15"/>
+    </row>
+    <row r="71" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A71" s="10">
+        <v>7</v>
+      </c>
+      <c r="B71" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="C32" s="25"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="14"/>
-      <c r="I32" s="15"/>
-    </row>
-    <row r="33" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="10">
+      <c r="C71" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="D71" s="13"/>
+      <c r="E71" s="17">
+        <v>43794</v>
+      </c>
+      <c r="F71" s="6">
         <v>4</v>
       </c>
-      <c r="B33" s="27" t="s">
+      <c r="G71" s="6">
+        <v>4</v>
+      </c>
+      <c r="H71" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I71" s="15"/>
+    </row>
+    <row r="72" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A72" s="10">
+        <v>7</v>
+      </c>
+      <c r="B72" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="C33" s="25"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="14"/>
-      <c r="I33" s="3"/>
-    </row>
-    <row r="34" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="10">
+      <c r="C72" s="25" t="s">
+        <v>199</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E72" s="17">
+        <v>43795</v>
+      </c>
+      <c r="F72" s="7">
+        <v>4.5</v>
+      </c>
+      <c r="G72" s="7">
+        <v>5</v>
+      </c>
+      <c r="H72" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I72" s="3"/>
+    </row>
+    <row r="73" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A73" s="10">
+        <v>7</v>
+      </c>
+      <c r="B73" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C73" s="25" t="s">
+        <v>194</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E73" s="17">
+        <v>43796</v>
+      </c>
+      <c r="F73" s="7">
+        <v>5.5</v>
+      </c>
+      <c r="G73" s="7">
+        <v>6</v>
+      </c>
+      <c r="H73" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I73" s="3"/>
+    </row>
+    <row r="74" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A74" s="10">
+        <v>7</v>
+      </c>
+      <c r="B74" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C74" s="25" t="s">
+        <v>199</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E74" s="17">
+        <v>43797</v>
+      </c>
+      <c r="F74" s="7">
+        <v>6</v>
+      </c>
+      <c r="G74" s="7">
+        <v>5</v>
+      </c>
+      <c r="H74" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I74" s="3"/>
+    </row>
+    <row r="75" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="10">
+        <v>7</v>
+      </c>
+      <c r="B75" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="C75" s="25" t="s">
+        <v>199</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E75" s="17">
+        <v>43798</v>
+      </c>
+      <c r="F75" s="7">
+        <v>5.5</v>
+      </c>
+      <c r="G75" s="7">
+        <v>5</v>
+      </c>
+      <c r="H75" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I75" s="3"/>
+    </row>
+    <row r="76" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A76" s="9"/>
+      <c r="B76" s="11"/>
+      <c r="C76" s="9"/>
+      <c r="D76" s="4"/>
+      <c r="E76" s="18"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+      <c r="H76" s="14"/>
+      <c r="I76" s="5"/>
+    </row>
+    <row r="77" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="97" t="s">
+        <v>15</v>
+      </c>
+      <c r="B77" s="97" t="s">
+        <v>16</v>
+      </c>
+      <c r="C77" s="98">
+        <f>SUM(F70:F76)</f>
+        <v>31</v>
+      </c>
+      <c r="D77" s="98"/>
+      <c r="E77" s="98"/>
+      <c r="F77" s="99"/>
+      <c r="G77" s="100" t="s">
+        <v>17</v>
+      </c>
+      <c r="H77" s="98">
+        <f>SUM(G70:G76)</f>
+        <v>31</v>
+      </c>
+      <c r="I77" s="99"/>
+    </row>
+    <row r="80" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A80" s="101" t="s">
+        <v>1</v>
+      </c>
+      <c r="B80" s="101" t="s">
+        <v>2</v>
+      </c>
+      <c r="C80" s="102" t="s">
+        <v>53</v>
+      </c>
+      <c r="D80" s="103" t="s">
+        <v>3</v>
+      </c>
+      <c r="E80" s="104"/>
+      <c r="F80" s="103" t="s">
+        <v>5</v>
+      </c>
+      <c r="G80" s="103" t="s">
+        <v>6</v>
+      </c>
+      <c r="H80" s="103" t="s">
+        <v>7</v>
+      </c>
+      <c r="I80" s="103" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A81" s="10">
+        <v>8</v>
+      </c>
+      <c r="B81" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C81" s="25" t="s">
+        <v>194</v>
+      </c>
+      <c r="D81" s="13"/>
+      <c r="E81" s="17">
+        <v>43800</v>
+      </c>
+      <c r="F81" s="6">
+        <v>5.5</v>
+      </c>
+      <c r="G81" s="6">
+        <v>6</v>
+      </c>
+      <c r="H81" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I81" s="15"/>
+    </row>
+    <row r="82" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A82" s="10">
+        <v>8</v>
+      </c>
+      <c r="B82" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C82" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="D82" s="13"/>
+      <c r="E82" s="17">
+        <v>43801</v>
+      </c>
+      <c r="F82" s="6">
         <v>4</v>
       </c>
-      <c r="B34" s="27" t="s">
+      <c r="G82" s="6">
+        <v>4</v>
+      </c>
+      <c r="H82" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I82" s="15"/>
+    </row>
+    <row r="83" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A83" s="10">
+        <v>8</v>
+      </c>
+      <c r="B83" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C83" s="25" t="s">
+        <v>202</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E83" s="17">
+        <v>43802</v>
+      </c>
+      <c r="F83" s="7">
+        <v>6</v>
+      </c>
+      <c r="G83" s="7">
+        <v>6</v>
+      </c>
+      <c r="H83" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I83" s="3"/>
+    </row>
+    <row r="84" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A84" s="10">
+        <v>8</v>
+      </c>
+      <c r="B84" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="C34" s="25"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="14"/>
-      <c r="I34" s="3"/>
-    </row>
-    <row r="35" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="10">
+      <c r="C84" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E84" s="17">
+        <v>43803</v>
+      </c>
+      <c r="F84" s="7">
+        <v>5</v>
+      </c>
+      <c r="G84" s="7">
+        <v>5</v>
+      </c>
+      <c r="H84" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I84" s="3"/>
+    </row>
+    <row r="85" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A85" s="10">
+        <v>8</v>
+      </c>
+      <c r="B85" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C85" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E85" s="17">
+        <v>43804</v>
+      </c>
+      <c r="F85" s="7">
+        <v>6</v>
+      </c>
+      <c r="G85" s="7">
+        <v>6</v>
+      </c>
+      <c r="H85" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I85" s="3"/>
+    </row>
+    <row r="86" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A86" s="10">
+        <v>8</v>
+      </c>
+      <c r="B86" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="C86" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="E86" s="17">
+        <v>43805</v>
+      </c>
+      <c r="F86" s="7">
+        <v>5.5</v>
+      </c>
+      <c r="G86" s="7">
+        <v>5</v>
+      </c>
+      <c r="H86" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I86" s="3"/>
+    </row>
+    <row r="87" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A87" s="9"/>
+      <c r="B87" s="11"/>
+      <c r="C87" s="9"/>
+      <c r="D87" s="4"/>
+      <c r="E87" s="18"/>
+      <c r="F87" s="8"/>
+      <c r="G87" s="8"/>
+      <c r="H87" s="14"/>
+      <c r="I87" s="5"/>
+    </row>
+    <row r="88" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A88" s="97" t="s">
+        <v>15</v>
+      </c>
+      <c r="B88" s="97" t="s">
+        <v>16</v>
+      </c>
+      <c r="C88" s="98">
+        <f>SUM(F81:F87)</f>
+        <v>32</v>
+      </c>
+      <c r="D88" s="98"/>
+      <c r="E88" s="98"/>
+      <c r="F88" s="99"/>
+      <c r="G88" s="100" t="s">
+        <v>17</v>
+      </c>
+      <c r="H88" s="98">
+        <f>SUM(G81:G87)</f>
+        <v>32</v>
+      </c>
+      <c r="I88" s="99"/>
+    </row>
+    <row r="91" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A91" s="101" t="s">
+        <v>1</v>
+      </c>
+      <c r="B91" s="101" t="s">
+        <v>2</v>
+      </c>
+      <c r="C91" s="102" t="s">
+        <v>53</v>
+      </c>
+      <c r="D91" s="103" t="s">
+        <v>3</v>
+      </c>
+      <c r="E91" s="104"/>
+      <c r="F91" s="103" t="s">
+        <v>5</v>
+      </c>
+      <c r="G91" s="103" t="s">
+        <v>6</v>
+      </c>
+      <c r="H91" s="103" t="s">
+        <v>7</v>
+      </c>
+      <c r="I91" s="103" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A92" s="10">
+        <v>9</v>
+      </c>
+      <c r="B92" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C92" s="25" t="s">
+        <v>194</v>
+      </c>
+      <c r="D92" s="13"/>
+      <c r="E92" s="17">
+        <v>43807</v>
+      </c>
+      <c r="F92" s="6">
+        <v>5.5</v>
+      </c>
+      <c r="G92" s="6">
+        <v>6</v>
+      </c>
+      <c r="H92" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I92" s="15"/>
+    </row>
+    <row r="93" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A93" s="10">
+        <v>9</v>
+      </c>
+      <c r="B93" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C93" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="E93" s="17">
+        <v>43808</v>
+      </c>
+      <c r="F93" s="6">
+        <v>5.5</v>
+      </c>
+      <c r="G93" s="6">
+        <v>6</v>
+      </c>
+      <c r="H93" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I93" s="15"/>
+    </row>
+    <row r="94" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A94" s="10">
+        <v>9</v>
+      </c>
+      <c r="B94" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C94" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="E94" s="17">
+        <v>43809</v>
+      </c>
+      <c r="F94" s="7">
+        <v>4.5</v>
+      </c>
+      <c r="G94" s="7">
+        <v>5</v>
+      </c>
+      <c r="H94" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I94" s="3"/>
+    </row>
+    <row r="95" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A95" s="10">
+        <v>9</v>
+      </c>
+      <c r="B95" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C95" s="25" t="s">
+        <v>194</v>
+      </c>
+      <c r="D95" s="2"/>
+      <c r="E95" s="17">
+        <v>43810</v>
+      </c>
+      <c r="F95" s="7">
+        <v>5</v>
+      </c>
+      <c r="G95" s="7">
+        <v>5</v>
+      </c>
+      <c r="H95" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I95" s="3"/>
+    </row>
+    <row r="96" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A96" s="10">
+        <v>9</v>
+      </c>
+      <c r="B96" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C96" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="E96" s="17">
+        <v>43811</v>
+      </c>
+      <c r="F96" s="7">
         <v>4</v>
       </c>
-      <c r="B35" s="68" t="s">
+      <c r="G96" s="7">
+        <v>4</v>
+      </c>
+      <c r="H96" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I96" s="3"/>
+    </row>
+    <row r="97" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A97" s="10">
+        <v>9</v>
+      </c>
+      <c r="B97" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="C97" s="25" t="s">
+        <v>194</v>
+      </c>
+      <c r="D97" s="72" t="s">
+        <v>206</v>
+      </c>
+      <c r="E97" s="17">
+        <v>43812</v>
+      </c>
+      <c r="F97" s="7">
+        <v>5.5</v>
+      </c>
+      <c r="G97" s="7">
+        <v>5</v>
+      </c>
+      <c r="H97" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I97" s="3"/>
+    </row>
+    <row r="98" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A98" s="9"/>
+      <c r="B98" s="11"/>
+      <c r="C98" s="9"/>
+      <c r="D98" s="4"/>
+      <c r="E98" s="18"/>
+      <c r="F98" s="8"/>
+      <c r="G98" s="8"/>
+      <c r="H98" s="14"/>
+      <c r="I98" s="5"/>
+    </row>
+    <row r="99" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A99" s="97" t="s">
+        <v>15</v>
+      </c>
+      <c r="B99" s="97" t="s">
+        <v>16</v>
+      </c>
+      <c r="C99" s="98">
+        <f>SUM(F92:F98)</f>
+        <v>30</v>
+      </c>
+      <c r="D99" s="98"/>
+      <c r="E99" s="98"/>
+      <c r="F99" s="99"/>
+      <c r="G99" s="100" t="s">
+        <v>17</v>
+      </c>
+      <c r="H99" s="98">
+        <f>SUM(G92:G98)</f>
+        <v>31</v>
+      </c>
+      <c r="I99" s="99"/>
+    </row>
+    <row r="102" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A102" s="101" t="s">
+        <v>1</v>
+      </c>
+      <c r="B102" s="101" t="s">
+        <v>2</v>
+      </c>
+      <c r="C102" s="102" t="s">
+        <v>53</v>
+      </c>
+      <c r="D102" s="103" t="s">
+        <v>3</v>
+      </c>
+      <c r="E102" s="104"/>
+      <c r="F102" s="103" t="s">
+        <v>5</v>
+      </c>
+      <c r="G102" s="103" t="s">
+        <v>6</v>
+      </c>
+      <c r="H102" s="103" t="s">
+        <v>7</v>
+      </c>
+      <c r="I102" s="103" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A103" s="10">
+        <v>10</v>
+      </c>
+      <c r="B103" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C103" s="25" t="s">
+        <v>194</v>
+      </c>
+      <c r="D103" s="13"/>
+      <c r="E103" s="17">
+        <v>43814</v>
+      </c>
+      <c r="F103" s="6">
+        <v>5</v>
+      </c>
+      <c r="G103" s="6">
+        <v>5</v>
+      </c>
+      <c r="H103" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I103" s="15"/>
+    </row>
+    <row r="104" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A104" s="10">
+        <v>10</v>
+      </c>
+      <c r="B104" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C104" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="D104" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="E104" s="17">
+        <v>43815</v>
+      </c>
+      <c r="F104" s="6">
+        <v>5.5</v>
+      </c>
+      <c r="G104" s="6">
+        <v>6</v>
+      </c>
+      <c r="H104" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I104" s="15"/>
+    </row>
+    <row r="105" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A105" s="10">
+        <v>10</v>
+      </c>
+      <c r="B105" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C105" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E105" s="17">
+        <v>43816</v>
+      </c>
+      <c r="F105" s="7">
+        <v>5.5</v>
+      </c>
+      <c r="G105" s="7">
+        <v>6</v>
+      </c>
+      <c r="H105" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I105" s="3"/>
+    </row>
+    <row r="106" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A106" s="10">
+        <v>10</v>
+      </c>
+      <c r="B106" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C106" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="D106" s="2"/>
+      <c r="E106" s="17">
+        <v>43817</v>
+      </c>
+      <c r="F106" s="7">
+        <v>4</v>
+      </c>
+      <c r="G106" s="7">
+        <v>4</v>
+      </c>
+      <c r="H106" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I106" s="3"/>
+    </row>
+    <row r="107" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A107" s="10">
+        <v>10</v>
+      </c>
+      <c r="B107" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="C35" s="25"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="14"/>
-      <c r="I35" s="3"/>
-    </row>
-    <row r="36" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="10">
-        <v>4</v>
-      </c>
-      <c r="B36" s="68" t="s">
+      <c r="C107" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="E107" s="17">
+        <v>43818</v>
+      </c>
+      <c r="F107" s="7">
+        <v>6</v>
+      </c>
+      <c r="G107" s="7">
+        <v>6</v>
+      </c>
+      <c r="H107" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I107" s="3"/>
+    </row>
+    <row r="108" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A108" s="10">
+        <v>10</v>
+      </c>
+      <c r="B108" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="C36" s="25"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="16"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="14"/>
-      <c r="I36" s="3"/>
-    </row>
-    <row r="37" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="9"/>
-      <c r="B37" s="12"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="16"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="14"/>
-      <c r="I37" s="5"/>
-    </row>
-    <row r="38" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="67" t="s">
+      <c r="C108" s="25" t="s">
+        <v>194</v>
+      </c>
+      <c r="D108" s="72" t="s">
+        <v>206</v>
+      </c>
+      <c r="E108" s="17">
+        <v>43819</v>
+      </c>
+      <c r="F108" s="7">
+        <v>6</v>
+      </c>
+      <c r="G108" s="7">
+        <v>6</v>
+      </c>
+      <c r="H108" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I108" s="3"/>
+    </row>
+    <row r="109" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A109" s="9"/>
+      <c r="B109" s="11"/>
+      <c r="C109" s="9"/>
+      <c r="D109" s="4"/>
+      <c r="E109" s="18"/>
+      <c r="F109" s="8"/>
+      <c r="G109" s="8"/>
+      <c r="H109" s="14"/>
+      <c r="I109" s="5"/>
+    </row>
+    <row r="110" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A110" s="97" t="s">
         <v>15</v>
       </c>
-      <c r="B38" s="67" t="s">
+      <c r="B110" s="97" t="s">
         <v>16</v>
       </c>
-      <c r="C38" s="74">
-        <f>SUM(F31:F37)</f>
-        <v>0</v>
-      </c>
-      <c r="D38" s="74"/>
-      <c r="E38" s="74"/>
-      <c r="F38" s="75"/>
-      <c r="G38" s="66" t="s">
+      <c r="C110" s="98">
+        <f>SUM(F103:F109)</f>
+        <v>32</v>
+      </c>
+      <c r="D110" s="98"/>
+      <c r="E110" s="98"/>
+      <c r="F110" s="99"/>
+      <c r="G110" s="100" t="s">
         <v>17</v>
       </c>
-      <c r="H38" s="74">
-        <f>SUM(G31:G37)</f>
-        <v>0</v>
-      </c>
-      <c r="I38" s="75"/>
-    </row>
-    <row r="39" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="B39" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="C39" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="D39" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="E39" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="F39" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="G39" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="H39" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="I39" s="24" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="10">
-        <v>5</v>
-      </c>
-      <c r="B40" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="C40" s="25"/>
-      <c r="D40" s="13"/>
-      <c r="E40" s="18"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="6"/>
-      <c r="H40" s="14"/>
-      <c r="I40" s="15"/>
-    </row>
-    <row r="41" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="10">
-        <v>5</v>
-      </c>
-      <c r="B41" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="C41" s="25"/>
-      <c r="D41" s="13"/>
-      <c r="E41" s="19"/>
-      <c r="F41" s="6"/>
-      <c r="G41" s="6"/>
-      <c r="H41" s="14"/>
-      <c r="I41" s="15"/>
-    </row>
-    <row r="42" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="10">
-        <v>5</v>
-      </c>
-      <c r="B42" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="C42" s="25"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="17"/>
-      <c r="F42" s="7"/>
-      <c r="G42" s="7"/>
-      <c r="H42" s="14"/>
-      <c r="I42" s="3"/>
-    </row>
-    <row r="43" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="10">
-        <v>5</v>
-      </c>
-      <c r="B43" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="C43" s="25"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="19"/>
-      <c r="F43" s="7"/>
-      <c r="G43" s="7"/>
-      <c r="H43" s="14"/>
-      <c r="I43" s="3"/>
-    </row>
-    <row r="44" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="10">
-        <v>5</v>
-      </c>
-      <c r="B44" s="68" t="s">
-        <v>13</v>
-      </c>
-      <c r="C44" s="25"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="16"/>
-      <c r="F44" s="7"/>
-      <c r="G44" s="7"/>
-      <c r="H44" s="14"/>
-      <c r="I44" s="3"/>
-    </row>
-    <row r="45" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="10">
-        <v>5</v>
-      </c>
-      <c r="B45" s="68" t="s">
-        <v>14</v>
-      </c>
-      <c r="C45" s="25"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="16"/>
-      <c r="F45" s="7"/>
-      <c r="G45" s="7"/>
-      <c r="H45" s="14"/>
-      <c r="I45" s="3"/>
-    </row>
-    <row r="46" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="9"/>
-      <c r="B46" s="12"/>
-      <c r="C46" s="9"/>
-      <c r="D46" s="4"/>
-      <c r="E46" s="16"/>
-      <c r="F46" s="8"/>
-      <c r="G46" s="8"/>
-      <c r="H46" s="14"/>
-      <c r="I46" s="5"/>
-    </row>
-    <row r="47" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="67" t="s">
-        <v>15</v>
-      </c>
-      <c r="B47" s="67" t="s">
-        <v>16</v>
-      </c>
-      <c r="C47" s="74">
-        <f>SUM(F40:F46)</f>
-        <v>0</v>
-      </c>
-      <c r="D47" s="74"/>
-      <c r="E47" s="74"/>
-      <c r="F47" s="75"/>
-      <c r="G47" s="66" t="s">
-        <v>17</v>
-      </c>
-      <c r="H47" s="74">
-        <f>SUM(G40:G46)</f>
-        <v>0</v>
-      </c>
-      <c r="I47" s="75"/>
-    </row>
-    <row r="48" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="B48" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="C48" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="D48" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="E48" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="F48" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="G48" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="H48" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="I48" s="24" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="10">
-        <v>6</v>
-      </c>
-      <c r="B49" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="C49" s="25"/>
-      <c r="D49" s="13"/>
-      <c r="E49" s="18"/>
-      <c r="F49" s="6"/>
-      <c r="G49" s="6"/>
-      <c r="H49" s="14"/>
-      <c r="I49" s="15"/>
-    </row>
-    <row r="50" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="10">
-        <v>6</v>
-      </c>
-      <c r="B50" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="C50" s="25"/>
-      <c r="D50" s="13"/>
-      <c r="E50" s="19"/>
-      <c r="F50" s="6"/>
-      <c r="G50" s="6"/>
-      <c r="H50" s="14"/>
-      <c r="I50" s="15"/>
-    </row>
-    <row r="51" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="10">
-        <v>6</v>
-      </c>
-      <c r="B51" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="C51" s="25"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="17"/>
-      <c r="F51" s="7"/>
-      <c r="G51" s="7"/>
-      <c r="H51" s="14"/>
-      <c r="I51" s="3"/>
-    </row>
-    <row r="52" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="10">
-        <v>6</v>
-      </c>
-      <c r="B52" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="C52" s="25"/>
-      <c r="D52" s="2"/>
-      <c r="E52" s="19"/>
-      <c r="F52" s="7"/>
-      <c r="G52" s="7"/>
-      <c r="H52" s="14"/>
-      <c r="I52" s="3"/>
-    </row>
-    <row r="53" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="10">
-        <v>6</v>
-      </c>
-      <c r="B53" s="68" t="s">
-        <v>13</v>
-      </c>
-      <c r="C53" s="25"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="16"/>
-      <c r="F53" s="7"/>
-      <c r="G53" s="7"/>
-      <c r="H53" s="14"/>
-      <c r="I53" s="3"/>
-    </row>
-    <row r="54" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="10">
-        <v>6</v>
-      </c>
-      <c r="B54" s="68" t="s">
-        <v>14</v>
-      </c>
-      <c r="C54" s="25"/>
-      <c r="D54" s="2"/>
-      <c r="E54" s="16"/>
-      <c r="F54" s="7"/>
-      <c r="G54" s="7"/>
-      <c r="H54" s="14"/>
-      <c r="I54" s="3"/>
-    </row>
-    <row r="55" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="9"/>
-      <c r="B55" s="12"/>
-      <c r="C55" s="9"/>
-      <c r="D55" s="4"/>
-      <c r="E55" s="16"/>
-      <c r="F55" s="8"/>
-      <c r="G55" s="8"/>
-      <c r="H55" s="14"/>
-      <c r="I55" s="5"/>
-    </row>
-    <row r="56" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="67" t="s">
-        <v>15</v>
-      </c>
-      <c r="B56" s="67" t="s">
-        <v>16</v>
-      </c>
-      <c r="C56" s="74">
-        <f>SUM(F49:F55)</f>
-        <v>0</v>
-      </c>
-      <c r="D56" s="74"/>
-      <c r="E56" s="74"/>
-      <c r="F56" s="75"/>
-      <c r="G56" s="66" t="s">
-        <v>17</v>
-      </c>
-      <c r="H56" s="74">
-        <f>SUM(G49:G55)</f>
-        <v>0</v>
-      </c>
-      <c r="I56" s="75"/>
+      <c r="H110" s="98">
+        <f>SUM(G103:G109)</f>
+        <v>33</v>
+      </c>
+      <c r="I110" s="99"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="21">
+    <mergeCell ref="C99:F99"/>
+    <mergeCell ref="H99:I99"/>
+    <mergeCell ref="C110:F110"/>
+    <mergeCell ref="H110:I110"/>
+    <mergeCell ref="C66:F66"/>
+    <mergeCell ref="H66:I66"/>
+    <mergeCell ref="C77:F77"/>
+    <mergeCell ref="H77:I77"/>
+    <mergeCell ref="C88:F88"/>
+    <mergeCell ref="H88:I88"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="C44:F44"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="C55:F55"/>
+    <mergeCell ref="H55:I55"/>
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="C11:F11"/>
     <mergeCell ref="H11:I11"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="C56:F56"/>
-    <mergeCell ref="H56:I56"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="C38:F38"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="C47:F47"/>
-    <mergeCell ref="H47:I47"/>
   </mergeCells>
-  <dataValidations count="6">
-    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3 B12" xr:uid="{6FFE7BB2-A561-485E-81E9-2571AC8DE5CA}">
+  <dataValidations count="4">
+    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3 B91 B36 B25 B14 B47 B58 B69 B80 B102" xr:uid="{C502F30C-4B25-4F7B-92D4-F945F7E367AA}">
       <formula1>B4</formula1>
       <formula2>B10</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:H10 H13:H19 H22:H28 H31:H37 H40:H46 H49:H55" xr:uid="{6631F660-441C-45AD-828B-61A224D5ADF2}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:H10 H15:H21 H26:H32 H48:H54 H37:H43 H59:H65 H70:H76 H81:H87 H92:H98 H103:H109" xr:uid="{5253F01C-22DA-47F2-BDE0-962EA097CF5D}">
       <formula1>"Done,Inprogress "</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C13:C18 C9:D9 C4:C8 C22:C27 C31:C36 C40:C45 C49:C54" xr:uid="{F3CBFF43-1EA6-4105-8193-6BB7478B8CE7}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C41 C27:C28 C49 C17:C18 C31" xr:uid="{29F04C15-09EA-4440-8750-70F5E6892BB3}">
       <formula1>"Project Management, Requirement, Architecture and Desgin, Implementation, Testing, Training, Meetting Customer, Meeting Mentor"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10 C19 C28 C37 C46 C55" xr:uid="{5A5FB21D-56FA-4666-866D-0DBF9359F400}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10 C21 C32 C54 C43 C65 C76 C87 C98 C109" xr:uid="{DA796BE2-DD78-42A0-B6DE-DAEC956AF66F}">
       <formula1>"Project Management, Requirement, Architecture and Desgin, Implementation, Testing, Training, Meetting Customer, Meetting Mentor"</formula1>
-    </dataValidation>
-    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B21" xr:uid="{78AB9685-9DF4-4C53-9902-EEFD9793FA61}">
-      <formula1>#REF!</formula1>
-      <formula2>B27</formula2>
-    </dataValidation>
-    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B30 B39 B48" xr:uid="{02EB827E-FEA3-4391-8CF1-4E14FD3108CB}">
-      <formula1>#REF!</formula1>
-      <formula2>B35</formula2>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8817,18 +10157,18 @@
       <selection activeCell="A21" sqref="A21:I56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" customWidth="1"/>
+    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="20" t="s">
         <v>65</v>
       </c>
@@ -8841,20 +10181,20 @@
       <c r="H1" s="21"/>
       <c r="I1" s="22"/>
     </row>
-    <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="70" t="s">
+    <row r="2" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="73"/>
-    </row>
-    <row r="3" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="78"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="80"/>
+    </row>
+    <row r="3" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="24" t="s">
         <v>1</v>
       </c>
@@ -8883,7 +10223,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="10">
         <v>1</v>
       </c>
@@ -8908,7 +10248,7 @@
       </c>
       <c r="I4" s="15"/>
     </row>
-    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="10">
         <v>1</v>
       </c>
@@ -8919,7 +10259,7 @@
         <v>18</v>
       </c>
       <c r="D5" s="56" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E5" s="19" t="s">
         <v>67</v>
@@ -8935,7 +10275,7 @@
       </c>
       <c r="I5" s="15"/>
     </row>
-    <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -8946,7 +10286,7 @@
         <v>18</v>
       </c>
       <c r="D6" s="56" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E6" s="17" t="s">
         <v>68</v>
@@ -8962,7 +10302,7 @@
       </c>
       <c r="I6" s="3"/>
     </row>
-    <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -8973,7 +10313,7 @@
         <v>18</v>
       </c>
       <c r="D7" s="56" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E7" s="19" t="s">
         <v>69</v>
@@ -8989,7 +10329,7 @@
       </c>
       <c r="I7" s="3"/>
     </row>
-    <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>1</v>
       </c>
@@ -9014,7 +10354,7 @@
       </c>
       <c r="I8" s="3"/>
     </row>
-    <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>1</v>
       </c>
@@ -9039,41 +10379,41 @@
       </c>
       <c r="I9" s="3"/>
     </row>
-    <row r="10" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="9"/>
       <c r="B10" s="11"/>
       <c r="C10" s="9"/>
-      <c r="D10" s="59"/>
+      <c r="D10" s="58"/>
       <c r="E10" s="16"/>
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
       <c r="H10" s="14"/>
       <c r="I10" s="5"/>
     </row>
-    <row r="11" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="67" t="s">
+    <row r="11" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="67" t="s">
+      <c r="B11" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="77">
+      <c r="C11" s="82">
         <f>SUM(F4:F10)</f>
         <v>24</v>
       </c>
-      <c r="D11" s="77"/>
-      <c r="E11" s="77"/>
-      <c r="F11" s="78"/>
-      <c r="G11" s="66" t="s">
+      <c r="D11" s="82"/>
+      <c r="E11" s="82"/>
+      <c r="F11" s="83"/>
+      <c r="G11" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="77">
+      <c r="H11" s="82">
         <f>SUM(G4:G10)</f>
         <v>28</v>
       </c>
-      <c r="I11" s="78"/>
-    </row>
-    <row r="12" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I11" s="83"/>
+    </row>
+    <row r="12" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="24" t="s">
         <v>1</v>
       </c>
@@ -9102,7 +10442,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="10">
         <v>2</v>
       </c>
@@ -9113,7 +10453,7 @@
         <v>18</v>
       </c>
       <c r="D13" s="56" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E13" s="19" t="s">
         <v>71</v>
@@ -9129,7 +10469,7 @@
       </c>
       <c r="I13" s="15"/>
     </row>
-    <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="10">
         <v>2</v>
       </c>
@@ -9140,7 +10480,7 @@
         <v>18</v>
       </c>
       <c r="D14" s="56" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E14" s="17" t="s">
         <v>72</v>
@@ -9156,7 +10496,7 @@
       </c>
       <c r="I14" s="15"/>
     </row>
-    <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="10">
         <v>2</v>
       </c>
@@ -9181,7 +10521,7 @@
       </c>
       <c r="I15" s="3"/>
     </row>
-    <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="10">
         <v>2</v>
       </c>
@@ -9192,7 +10532,7 @@
         <v>18</v>
       </c>
       <c r="D16" s="57" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E16" s="16" t="s">
         <v>74</v>
@@ -9208,7 +10548,7 @@
       </c>
       <c r="I16" s="3"/>
     </row>
-    <row r="17" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="10">
         <v>2</v>
       </c>
@@ -9219,7 +10559,7 @@
         <v>18</v>
       </c>
       <c r="D17" s="57" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E17" s="16" t="s">
         <v>76</v>
@@ -9235,7 +10575,7 @@
       </c>
       <c r="I17" s="3"/>
     </row>
-    <row r="18" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="10">
         <v>2</v>
       </c>
@@ -9249,7 +10589,7 @@
         <v>82</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F18" s="1">
         <v>4</v>
@@ -9262,41 +10602,41 @@
       </c>
       <c r="I18" s="3"/>
     </row>
-    <row r="19" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="9"/>
       <c r="B19" s="11"/>
       <c r="C19" s="9"/>
-      <c r="D19" s="59"/>
+      <c r="D19" s="58"/>
       <c r="E19" s="16"/>
       <c r="F19" s="9"/>
       <c r="G19" s="9"/>
       <c r="H19" s="14"/>
       <c r="I19" s="5"/>
     </row>
-    <row r="20" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="67" t="s">
+    <row r="20" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="67" t="s">
+      <c r="B20" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="77">
+      <c r="C20" s="82">
         <f>SUM(F13:F19)</f>
         <v>27</v>
       </c>
-      <c r="D20" s="77"/>
-      <c r="E20" s="77"/>
-      <c r="F20" s="78"/>
-      <c r="G20" s="66" t="s">
+      <c r="D20" s="82"/>
+      <c r="E20" s="82"/>
+      <c r="F20" s="83"/>
+      <c r="G20" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="H20" s="77">
+      <c r="H20" s="82">
         <f>SUM(G13:G19)</f>
         <v>30</v>
       </c>
-      <c r="I20" s="78"/>
-    </row>
-    <row r="21" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I20" s="83"/>
+    </row>
+    <row r="21" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="24" t="s">
         <v>1</v>
       </c>
@@ -9325,7 +10665,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="10">
         <v>3</v>
       </c>
@@ -9340,7 +10680,7 @@
       <c r="H22" s="14"/>
       <c r="I22" s="15"/>
     </row>
-    <row r="23" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="10">
         <v>3</v>
       </c>
@@ -9355,7 +10695,7 @@
       <c r="H23" s="14"/>
       <c r="I23" s="15"/>
     </row>
-    <row r="24" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="10">
         <v>3</v>
       </c>
@@ -9370,7 +10710,7 @@
       <c r="H24" s="14"/>
       <c r="I24" s="3"/>
     </row>
-    <row r="25" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="10">
         <v>3</v>
       </c>
@@ -9385,7 +10725,7 @@
       <c r="H25" s="14"/>
       <c r="I25" s="3"/>
     </row>
-    <row r="26" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="10">
         <v>3</v>
       </c>
@@ -9400,11 +10740,11 @@
       <c r="H26" s="14"/>
       <c r="I26" s="3"/>
     </row>
-    <row r="27" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="10">
         <v>3</v>
       </c>
-      <c r="B27" s="68" t="s">
+      <c r="B27" s="65" t="s">
         <v>14</v>
       </c>
       <c r="C27" s="25"/>
@@ -9415,7 +10755,7 @@
       <c r="H27" s="14"/>
       <c r="I27" s="3"/>
     </row>
-    <row r="28" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="9"/>
       <c r="B28" s="12"/>
       <c r="C28" s="9"/>
@@ -9426,30 +10766,30 @@
       <c r="H28" s="14"/>
       <c r="I28" s="5"/>
     </row>
-    <row r="29" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="67" t="s">
+    <row r="29" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="B29" s="67" t="s">
+      <c r="B29" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="74">
+      <c r="C29" s="75">
         <f>SUM(F22:F28)</f>
         <v>0</v>
       </c>
-      <c r="D29" s="74"/>
-      <c r="E29" s="74"/>
-      <c r="F29" s="75"/>
-      <c r="G29" s="66" t="s">
+      <c r="D29" s="75"/>
+      <c r="E29" s="75"/>
+      <c r="F29" s="76"/>
+      <c r="G29" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="H29" s="74">
+      <c r="H29" s="75">
         <f>SUM(G22:G28)</f>
         <v>0</v>
       </c>
-      <c r="I29" s="75"/>
-    </row>
-    <row r="30" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I29" s="76"/>
+    </row>
+    <row r="30" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="24" t="s">
         <v>1</v>
       </c>
@@ -9478,7 +10818,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="10">
         <v>4</v>
       </c>
@@ -9493,7 +10833,7 @@
       <c r="H31" s="14"/>
       <c r="I31" s="15"/>
     </row>
-    <row r="32" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="10">
         <v>4</v>
       </c>
@@ -9508,7 +10848,7 @@
       <c r="H32" s="14"/>
       <c r="I32" s="15"/>
     </row>
-    <row r="33" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="10">
         <v>4</v>
       </c>
@@ -9523,7 +10863,7 @@
       <c r="H33" s="14"/>
       <c r="I33" s="3"/>
     </row>
-    <row r="34" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="10">
         <v>4</v>
       </c>
@@ -9538,11 +10878,11 @@
       <c r="H34" s="14"/>
       <c r="I34" s="3"/>
     </row>
-    <row r="35" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="10">
         <v>4</v>
       </c>
-      <c r="B35" s="68" t="s">
+      <c r="B35" s="65" t="s">
         <v>13</v>
       </c>
       <c r="C35" s="25"/>
@@ -9553,11 +10893,11 @@
       <c r="H35" s="14"/>
       <c r="I35" s="3"/>
     </row>
-    <row r="36" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="10">
         <v>4</v>
       </c>
-      <c r="B36" s="68" t="s">
+      <c r="B36" s="65" t="s">
         <v>14</v>
       </c>
       <c r="C36" s="25"/>
@@ -9568,7 +10908,7 @@
       <c r="H36" s="14"/>
       <c r="I36" s="3"/>
     </row>
-    <row r="37" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="9"/>
       <c r="B37" s="12"/>
       <c r="C37" s="9"/>
@@ -9579,30 +10919,30 @@
       <c r="H37" s="14"/>
       <c r="I37" s="5"/>
     </row>
-    <row r="38" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="67" t="s">
+    <row r="38" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="B38" s="67" t="s">
+      <c r="B38" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="C38" s="74">
+      <c r="C38" s="75">
         <f>SUM(F31:F37)</f>
         <v>0</v>
       </c>
-      <c r="D38" s="74"/>
-      <c r="E38" s="74"/>
-      <c r="F38" s="75"/>
-      <c r="G38" s="66" t="s">
+      <c r="D38" s="75"/>
+      <c r="E38" s="75"/>
+      <c r="F38" s="76"/>
+      <c r="G38" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="H38" s="74">
+      <c r="H38" s="75">
         <f>SUM(G31:G37)</f>
         <v>0</v>
       </c>
-      <c r="I38" s="75"/>
-    </row>
-    <row r="39" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I38" s="76"/>
+    </row>
+    <row r="39" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="24" t="s">
         <v>1</v>
       </c>
@@ -9631,7 +10971,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="10">
         <v>5</v>
       </c>
@@ -9646,7 +10986,7 @@
       <c r="H40" s="14"/>
       <c r="I40" s="15"/>
     </row>
-    <row r="41" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="10">
         <v>5</v>
       </c>
@@ -9661,7 +11001,7 @@
       <c r="H41" s="14"/>
       <c r="I41" s="15"/>
     </row>
-    <row r="42" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="10">
         <v>5</v>
       </c>
@@ -9676,7 +11016,7 @@
       <c r="H42" s="14"/>
       <c r="I42" s="3"/>
     </row>
-    <row r="43" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="10">
         <v>5</v>
       </c>
@@ -9691,11 +11031,11 @@
       <c r="H43" s="14"/>
       <c r="I43" s="3"/>
     </row>
-    <row r="44" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="10">
         <v>5</v>
       </c>
-      <c r="B44" s="68" t="s">
+      <c r="B44" s="65" t="s">
         <v>13</v>
       </c>
       <c r="C44" s="25"/>
@@ -9706,11 +11046,11 @@
       <c r="H44" s="14"/>
       <c r="I44" s="3"/>
     </row>
-    <row r="45" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" s="10">
         <v>5</v>
       </c>
-      <c r="B45" s="68" t="s">
+      <c r="B45" s="65" t="s">
         <v>14</v>
       </c>
       <c r="C45" s="25"/>
@@ -9721,7 +11061,7 @@
       <c r="H45" s="14"/>
       <c r="I45" s="3"/>
     </row>
-    <row r="46" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="9"/>
       <c r="B46" s="12"/>
       <c r="C46" s="9"/>
@@ -9732,30 +11072,30 @@
       <c r="H46" s="14"/>
       <c r="I46" s="5"/>
     </row>
-    <row r="47" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="67" t="s">
+    <row r="47" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="B47" s="67" t="s">
+      <c r="B47" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="C47" s="74">
+      <c r="C47" s="75">
         <f>SUM(F40:F46)</f>
         <v>0</v>
       </c>
-      <c r="D47" s="74"/>
-      <c r="E47" s="74"/>
-      <c r="F47" s="75"/>
-      <c r="G47" s="66" t="s">
+      <c r="D47" s="75"/>
+      <c r="E47" s="75"/>
+      <c r="F47" s="76"/>
+      <c r="G47" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="H47" s="74">
+      <c r="H47" s="75">
         <f>SUM(G40:G46)</f>
         <v>0</v>
       </c>
-      <c r="I47" s="75"/>
-    </row>
-    <row r="48" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I47" s="76"/>
+    </row>
+    <row r="48" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="24" t="s">
         <v>1</v>
       </c>
@@ -9784,7 +11124,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" s="10">
         <v>6</v>
       </c>
@@ -9799,7 +11139,7 @@
       <c r="H49" s="14"/>
       <c r="I49" s="15"/>
     </row>
-    <row r="50" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" s="10">
         <v>6</v>
       </c>
@@ -9814,7 +11154,7 @@
       <c r="H50" s="14"/>
       <c r="I50" s="15"/>
     </row>
-    <row r="51" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A51" s="10">
         <v>6</v>
       </c>
@@ -9829,7 +11169,7 @@
       <c r="H51" s="14"/>
       <c r="I51" s="3"/>
     </row>
-    <row r="52" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" s="10">
         <v>6</v>
       </c>
@@ -9844,11 +11184,11 @@
       <c r="H52" s="14"/>
       <c r="I52" s="3"/>
     </row>
-    <row r="53" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53" s="10">
         <v>6</v>
       </c>
-      <c r="B53" s="68" t="s">
+      <c r="B53" s="65" t="s">
         <v>13</v>
       </c>
       <c r="C53" s="25"/>
@@ -9859,11 +11199,11 @@
       <c r="H53" s="14"/>
       <c r="I53" s="3"/>
     </row>
-    <row r="54" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A54" s="10">
         <v>6</v>
       </c>
-      <c r="B54" s="68" t="s">
+      <c r="B54" s="65" t="s">
         <v>14</v>
       </c>
       <c r="C54" s="25"/>
@@ -9874,7 +11214,7 @@
       <c r="H54" s="14"/>
       <c r="I54" s="3"/>
     </row>
-    <row r="55" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="9"/>
       <c r="B55" s="12"/>
       <c r="C55" s="9"/>
@@ -9885,36 +11225,31 @@
       <c r="H55" s="14"/>
       <c r="I55" s="5"/>
     </row>
-    <row r="56" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="67" t="s">
+    <row r="56" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="B56" s="67" t="s">
+      <c r="B56" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="C56" s="74">
+      <c r="C56" s="75">
         <f>SUM(F49:F55)</f>
         <v>0</v>
       </c>
-      <c r="D56" s="74"/>
-      <c r="E56" s="74"/>
-      <c r="F56" s="75"/>
-      <c r="G56" s="66" t="s">
+      <c r="D56" s="75"/>
+      <c r="E56" s="75"/>
+      <c r="F56" s="76"/>
+      <c r="G56" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="H56" s="74">
+      <c r="H56" s="75">
         <f>SUM(G49:G55)</f>
         <v>0</v>
       </c>
-      <c r="I56" s="75"/>
+      <c r="I56" s="76"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="H20:I20"/>
     <mergeCell ref="C56:F56"/>
     <mergeCell ref="H56:I56"/>
     <mergeCell ref="C29:F29"/>
@@ -9923,6 +11258,11 @@
     <mergeCell ref="H38:I38"/>
     <mergeCell ref="C47:F47"/>
     <mergeCell ref="H47:I47"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="H20:I20"/>
   </mergeCells>
   <dataValidations count="6">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10 C19 C28 C37 C46 C55" xr:uid="{49E4ABBA-BF99-4A08-9146-05B03FF61551}">
@@ -9956,21 +11296,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{744DDA93-81BE-4148-9787-FFABC05BF7AA}">
   <dimension ref="A1:L75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
+    <sheetView topLeftCell="A63" workbookViewId="0">
       <selection activeCell="A75" sqref="A75:I75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="30.7109375" customWidth="1"/>
+    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="20" t="s">
         <v>65</v>
       </c>
@@ -9983,49 +11323,49 @@
       <c r="H1" s="21"/>
       <c r="I1" s="22"/>
     </row>
-    <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="70" t="s">
+    <row r="2" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="73"/>
-    </row>
-    <row r="3" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="78"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="80"/>
+    </row>
+    <row r="3" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="24" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="79" t="s">
+      <c r="C3" s="67" t="s">
         <v>53</v>
       </c>
-      <c r="D3" s="80" t="s">
+      <c r="D3" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="80" t="s">
+      <c r="E3" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="80" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="80" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" s="80" t="s">
+      <c r="F3" s="68" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="68" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="81" t="s">
+      <c r="I3" s="69" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="10">
         <v>1</v>
       </c>
@@ -10050,7 +11390,7 @@
       </c>
       <c r="I4" s="15"/>
     </row>
-    <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="10">
         <v>1</v>
       </c>
@@ -10061,7 +11401,7 @@
         <v>19</v>
       </c>
       <c r="D5" s="56" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E5" s="19" t="s">
         <v>67</v>
@@ -10076,9 +11416,9 @@
         <v>20</v>
       </c>
       <c r="I5" s="15"/>
-      <c r="L5" s="86"/>
-    </row>
-    <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="L5" s="74"/>
+    </row>
+    <row r="6" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -10089,7 +11429,7 @@
         <v>19</v>
       </c>
       <c r="D6" s="56" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E6" s="17" t="s">
         <v>68</v>
@@ -10105,7 +11445,7 @@
       </c>
       <c r="I6" s="3"/>
     </row>
-    <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -10116,7 +11456,7 @@
         <v>19</v>
       </c>
       <c r="D7" s="56" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E7" s="19" t="s">
         <v>69</v>
@@ -10132,7 +11472,7 @@
       </c>
       <c r="I7" s="3"/>
     </row>
-    <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>1</v>
       </c>
@@ -10157,7 +11497,7 @@
       </c>
       <c r="I8" s="3"/>
     </row>
-    <row r="9" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="45" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>1</v>
       </c>
@@ -10168,7 +11508,7 @@
         <v>19</v>
       </c>
       <c r="D9" s="57" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E9" s="16" t="s">
         <v>75</v>
@@ -10182,45 +11522,45 @@
       <c r="H9" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="I9" s="82" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I9" s="70" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="9"/>
       <c r="B10" s="11"/>
       <c r="C10" s="9"/>
-      <c r="D10" s="59"/>
+      <c r="D10" s="58"/>
       <c r="E10" s="16"/>
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
       <c r="H10" s="14"/>
       <c r="I10" s="5"/>
     </row>
-    <row r="11" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="67" t="s">
+    <row r="11" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="67" t="s">
+      <c r="B11" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="77">
+      <c r="C11" s="82">
         <f>SUM(F4:F10)</f>
         <v>27</v>
       </c>
-      <c r="D11" s="77"/>
-      <c r="E11" s="77"/>
-      <c r="F11" s="78"/>
-      <c r="G11" s="66" t="s">
+      <c r="D11" s="82"/>
+      <c r="E11" s="82"/>
+      <c r="F11" s="83"/>
+      <c r="G11" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="77">
+      <c r="H11" s="82">
         <f>SUM(G4:G10)</f>
         <v>30</v>
       </c>
-      <c r="I11" s="78"/>
-    </row>
-    <row r="12" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I11" s="83"/>
+    </row>
+    <row r="12" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="10">
         <v>2</v>
       </c>
@@ -10231,7 +11571,7 @@
         <v>19</v>
       </c>
       <c r="D12" s="56" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E12" s="18" t="s">
         <v>71</v>
@@ -10247,7 +11587,7 @@
       </c>
       <c r="I12" s="15"/>
     </row>
-    <row r="13" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="10">
         <v>2</v>
       </c>
@@ -10258,7 +11598,7 @@
         <v>19</v>
       </c>
       <c r="D13" s="56" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E13" s="19" t="s">
         <v>72</v>
@@ -10274,7 +11614,7 @@
       </c>
       <c r="I13" s="15"/>
     </row>
-    <row r="14" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="10">
         <v>2</v>
       </c>
@@ -10299,7 +11639,7 @@
       </c>
       <c r="I14" s="3"/>
     </row>
-    <row r="15" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="10">
         <v>2</v>
       </c>
@@ -10310,7 +11650,7 @@
         <v>19</v>
       </c>
       <c r="D15" s="57" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E15" s="19" t="s">
         <v>74</v>
@@ -10326,7 +11666,7 @@
       </c>
       <c r="I15" s="3"/>
     </row>
-    <row r="16" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="10">
         <v>2</v>
       </c>
@@ -10337,7 +11677,7 @@
         <v>19</v>
       </c>
       <c r="D16" s="57" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E16" s="16" t="s">
         <v>76</v>
@@ -10353,7 +11693,7 @@
       </c>
       <c r="I16" s="3"/>
     </row>
-    <row r="17" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="30" x14ac:dyDescent="0.3">
       <c r="A17" s="10">
         <v>2</v>
       </c>
@@ -10363,11 +11703,11 @@
       <c r="C17" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="63" t="s">
-        <v>107</v>
+      <c r="D17" s="60" t="s">
+        <v>106</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F17" s="1">
         <v>5</v>
@@ -10379,44 +11719,44 @@
         <v>20</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="9"/>
       <c r="B18" s="11"/>
       <c r="C18" s="9"/>
-      <c r="D18" s="59"/>
+      <c r="D18" s="58"/>
       <c r="E18" s="16"/>
       <c r="F18" s="9"/>
       <c r="G18" s="9"/>
       <c r="H18" s="14"/>
       <c r="I18" s="5"/>
     </row>
-    <row r="19" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="67" t="s">
+    <row r="19" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="67" t="s">
+      <c r="B19" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="77">
+      <c r="C19" s="82">
         <f>SUM(F12:F18)</f>
         <v>29</v>
       </c>
-      <c r="D19" s="77"/>
-      <c r="E19" s="77"/>
-      <c r="F19" s="78"/>
-      <c r="G19" s="66" t="s">
+      <c r="D19" s="82"/>
+      <c r="E19" s="82"/>
+      <c r="F19" s="83"/>
+      <c r="G19" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="H19" s="77">
+      <c r="H19" s="82">
         <f>SUM(G12:G18)</f>
         <v>30</v>
       </c>
-      <c r="I19" s="78"/>
-    </row>
-    <row r="20" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I19" s="83"/>
+    </row>
+    <row r="20" spans="1:9" ht="45.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="10">
         <v>3</v>
       </c>
@@ -10426,11 +11766,11 @@
       <c r="C20" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="D20" s="69" t="s">
+      <c r="D20" s="66" t="s">
+        <v>151</v>
+      </c>
+      <c r="E20" s="18" t="s">
         <v>152</v>
-      </c>
-      <c r="E20" s="18" t="s">
-        <v>153</v>
       </c>
       <c r="F20" s="10">
         <v>5.5</v>
@@ -10443,7 +11783,7 @@
       </c>
       <c r="I20" s="15"/>
     </row>
-    <row r="21" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="10">
         <v>3</v>
       </c>
@@ -10455,7 +11795,7 @@
       </c>
       <c r="D21" s="56"/>
       <c r="E21" s="18" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F21" s="10">
         <v>4</v>
@@ -10468,7 +11808,7 @@
       </c>
       <c r="I21" s="15"/>
     </row>
-    <row r="22" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="10">
         <v>3</v>
       </c>
@@ -10480,7 +11820,7 @@
       </c>
       <c r="D22" s="57"/>
       <c r="E22" s="18" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F22" s="1">
         <v>4.5</v>
@@ -10493,7 +11833,7 @@
       </c>
       <c r="I22" s="3"/>
     </row>
-    <row r="23" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="10">
         <v>3</v>
       </c>
@@ -10504,10 +11844,10 @@
         <v>19</v>
       </c>
       <c r="D23" s="57" t="s">
+        <v>155</v>
+      </c>
+      <c r="E23" s="71" t="s">
         <v>156</v>
-      </c>
-      <c r="E23" s="83" t="s">
-        <v>157</v>
       </c>
       <c r="F23" s="1">
         <v>5</v>
@@ -10519,10 +11859,10 @@
         <v>20</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="10">
         <v>3</v>
       </c>
@@ -10533,9 +11873,9 @@
         <v>19</v>
       </c>
       <c r="D24" s="57" t="s">
-        <v>159</v>
-      </c>
-      <c r="E24" s="83">
+        <v>158</v>
+      </c>
+      <c r="E24" s="71">
         <v>43476</v>
       </c>
       <c r="F24" s="1">
@@ -10549,7 +11889,7 @@
       </c>
       <c r="I24" s="3"/>
     </row>
-    <row r="25" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="45" x14ac:dyDescent="0.3">
       <c r="A25" s="10">
         <v>3</v>
       </c>
@@ -10559,10 +11899,10 @@
       <c r="C25" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="D25" s="63" t="s">
-        <v>160</v>
-      </c>
-      <c r="E25" s="83">
+      <c r="D25" s="60" t="s">
+        <v>159</v>
+      </c>
+      <c r="E25" s="71">
         <v>43507</v>
       </c>
       <c r="F25" s="1">
@@ -10574,45 +11914,45 @@
       <c r="H25" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I25" s="82" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I25" s="70" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="9"/>
       <c r="B26" s="11"/>
       <c r="C26" s="9"/>
-      <c r="D26" s="59"/>
+      <c r="D26" s="58"/>
       <c r="E26" s="16"/>
       <c r="F26" s="9"/>
       <c r="G26" s="9"/>
       <c r="H26" s="14"/>
       <c r="I26" s="5"/>
     </row>
-    <row r="27" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="67" t="s">
+    <row r="27" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="B27" s="67" t="s">
+      <c r="B27" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="C27" s="77">
+      <c r="C27" s="82">
         <f>SUM(F20:F26)</f>
         <v>29.5</v>
       </c>
-      <c r="D27" s="77"/>
-      <c r="E27" s="77"/>
-      <c r="F27" s="78"/>
-      <c r="G27" s="66" t="s">
+      <c r="D27" s="82"/>
+      <c r="E27" s="82"/>
+      <c r="F27" s="83"/>
+      <c r="G27" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="H27" s="77">
+      <c r="H27" s="82">
         <f>SUM(G20:G26)</f>
         <v>35</v>
       </c>
-      <c r="I27" s="78"/>
-    </row>
-    <row r="28" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I27" s="83"/>
+    </row>
+    <row r="28" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="10">
         <v>4</v>
       </c>
@@ -10622,8 +11962,8 @@
       <c r="C28" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="D28" s="69" t="s">
-        <v>162</v>
+      <c r="D28" s="66" t="s">
+        <v>161</v>
       </c>
       <c r="E28" s="18">
         <v>43773</v>
@@ -10638,10 +11978,10 @@
         <v>20</v>
       </c>
       <c r="I28" s="15" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="10">
         <v>4</v>
       </c>
@@ -10652,7 +11992,7 @@
         <v>19</v>
       </c>
       <c r="D29" s="56" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E29" s="18">
         <v>43774</v>
@@ -10667,10 +12007,10 @@
         <v>20</v>
       </c>
       <c r="I29" s="15" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="10">
         <v>4</v>
       </c>
@@ -10695,7 +12035,7 @@
       </c>
       <c r="I30" s="3"/>
     </row>
-    <row r="31" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="10">
         <v>4</v>
       </c>
@@ -10706,7 +12046,7 @@
         <v>19</v>
       </c>
       <c r="D31" s="57" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E31" s="18">
         <v>43776</v>
@@ -10722,7 +12062,7 @@
       </c>
       <c r="I31" s="3"/>
     </row>
-    <row r="32" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="10">
         <v>4</v>
       </c>
@@ -10747,7 +12087,7 @@
       </c>
       <c r="I32" s="3"/>
     </row>
-    <row r="33" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" ht="30" x14ac:dyDescent="0.3">
       <c r="A33" s="10">
         <v>4</v>
       </c>
@@ -10757,8 +12097,8 @@
       <c r="C33" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="D33" s="63" t="s">
-        <v>167</v>
+      <c r="D33" s="60" t="s">
+        <v>166</v>
       </c>
       <c r="E33" s="18">
         <v>43778</v>
@@ -10773,44 +12113,44 @@
         <v>21</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="9"/>
       <c r="B34" s="11"/>
       <c r="C34" s="9"/>
-      <c r="D34" s="59"/>
+      <c r="D34" s="58"/>
       <c r="E34" s="16"/>
       <c r="F34" s="9"/>
       <c r="G34" s="9"/>
       <c r="H34" s="14"/>
       <c r="I34" s="5"/>
     </row>
-    <row r="35" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="67" t="s">
+    <row r="35" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="B35" s="67" t="s">
+      <c r="B35" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="C35" s="77">
+      <c r="C35" s="82">
         <f>SUM(F28:F34)</f>
         <v>31.5</v>
       </c>
-      <c r="D35" s="77"/>
-      <c r="E35" s="77"/>
-      <c r="F35" s="78"/>
-      <c r="G35" s="66" t="s">
+      <c r="D35" s="82"/>
+      <c r="E35" s="82"/>
+      <c r="F35" s="83"/>
+      <c r="G35" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="H35" s="77">
+      <c r="H35" s="82">
         <f>SUM(G28:G34)</f>
         <v>35</v>
       </c>
-      <c r="I35" s="78"/>
-    </row>
-    <row r="36" spans="1:9" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I35" s="83"/>
+    </row>
+    <row r="36" spans="1:9" ht="45.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="10">
         <v>5</v>
       </c>
@@ -10820,8 +12160,8 @@
       <c r="C36" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="D36" s="69" t="s">
-        <v>169</v>
+      <c r="D36" s="66" t="s">
+        <v>168</v>
       </c>
       <c r="E36" s="18">
         <v>43773</v>
@@ -10834,10 +12174,10 @@
         <v>20</v>
       </c>
       <c r="I36" s="15" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="10">
         <v>5</v>
       </c>
@@ -10860,7 +12200,7 @@
       </c>
       <c r="I37" s="15"/>
     </row>
-    <row r="38" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="10">
         <v>5</v>
       </c>
@@ -10871,7 +12211,7 @@
         <v>19</v>
       </c>
       <c r="D38" s="57" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E38" s="18">
         <v>43775</v>
@@ -10885,7 +12225,7 @@
       </c>
       <c r="I38" s="3"/>
     </row>
-    <row r="39" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="10">
         <v>5</v>
       </c>
@@ -10896,7 +12236,7 @@
         <v>19</v>
       </c>
       <c r="D39" s="57" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E39" s="18">
         <v>43776</v>
@@ -10910,7 +12250,7 @@
       </c>
       <c r="I39" s="3"/>
     </row>
-    <row r="40" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="10">
         <v>5</v>
       </c>
@@ -10920,8 +12260,8 @@
       <c r="C40" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="D40" s="63" t="s">
-        <v>173</v>
+      <c r="D40" s="60" t="s">
+        <v>172</v>
       </c>
       <c r="E40" s="18">
         <v>43777</v>
@@ -10935,7 +12275,7 @@
       </c>
       <c r="I40" s="3"/>
     </row>
-    <row r="41" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" ht="45" x14ac:dyDescent="0.3">
       <c r="A41" s="10">
         <v>5</v>
       </c>
@@ -10945,8 +12285,8 @@
       <c r="C41" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="D41" s="63" t="s">
-        <v>174</v>
+      <c r="D41" s="60" t="s">
+        <v>173</v>
       </c>
       <c r="E41" s="18">
         <v>43778</v>
@@ -10960,41 +12300,41 @@
       </c>
       <c r="I41" s="3"/>
     </row>
-    <row r="42" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="9"/>
       <c r="B42" s="11"/>
       <c r="C42" s="9"/>
-      <c r="D42" s="59"/>
+      <c r="D42" s="58"/>
       <c r="E42" s="16"/>
       <c r="F42" s="9"/>
       <c r="G42" s="9"/>
       <c r="H42" s="14"/>
       <c r="I42" s="5"/>
     </row>
-    <row r="43" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="67" t="s">
+    <row r="43" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="B43" s="67" t="s">
+      <c r="B43" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="C43" s="77">
+      <c r="C43" s="82">
         <f>SUM(F36:F42)</f>
         <v>30.5</v>
       </c>
-      <c r="D43" s="77"/>
-      <c r="E43" s="77"/>
-      <c r="F43" s="78"/>
-      <c r="G43" s="66" t="s">
+      <c r="D43" s="82"/>
+      <c r="E43" s="82"/>
+      <c r="F43" s="83"/>
+      <c r="G43" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="H43" s="77">
+      <c r="H43" s="82">
         <f>SUM(G36:G42)</f>
         <v>0</v>
       </c>
-      <c r="I43" s="78"/>
-    </row>
-    <row r="44" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I43" s="83"/>
+    </row>
+    <row r="44" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="10">
         <v>6</v>
       </c>
@@ -11004,7 +12344,7 @@
       <c r="C44" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="D44" s="69"/>
+      <c r="D44" s="66"/>
       <c r="E44" s="18">
         <v>43780</v>
       </c>
@@ -11017,7 +12357,7 @@
       </c>
       <c r="I44" s="15"/>
     </row>
-    <row r="45" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="10">
         <v>6</v>
       </c>
@@ -11040,7 +12380,7 @@
       </c>
       <c r="I45" s="15"/>
     </row>
-    <row r="46" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="10">
         <v>6</v>
       </c>
@@ -11063,7 +12403,7 @@
       </c>
       <c r="I46" s="3"/>
     </row>
-    <row r="47" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="10">
         <v>6</v>
       </c>
@@ -11086,7 +12426,7 @@
       </c>
       <c r="I47" s="3"/>
     </row>
-    <row r="48" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="10">
         <v>6</v>
       </c>
@@ -11096,8 +12436,8 @@
       <c r="C48" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="D48" s="63" t="s">
-        <v>175</v>
+      <c r="D48" s="60" t="s">
+        <v>174</v>
       </c>
       <c r="E48" s="18">
         <v>43784</v>
@@ -11111,7 +12451,7 @@
       </c>
       <c r="I48" s="3"/>
     </row>
-    <row r="49" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" ht="45" x14ac:dyDescent="0.3">
       <c r="A49" s="10">
         <v>6</v>
       </c>
@@ -11121,8 +12461,8 @@
       <c r="C49" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="D49" s="63" t="s">
-        <v>176</v>
+      <c r="D49" s="60" t="s">
+        <v>175</v>
       </c>
       <c r="E49" s="18">
         <v>43785</v>
@@ -11136,41 +12476,41 @@
       </c>
       <c r="I49" s="3"/>
     </row>
-    <row r="50" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="9"/>
       <c r="B50" s="11"/>
       <c r="C50" s="9"/>
-      <c r="D50" s="59"/>
+      <c r="D50" s="58"/>
       <c r="E50" s="16"/>
       <c r="F50" s="9"/>
       <c r="G50" s="9"/>
       <c r="H50" s="14"/>
       <c r="I50" s="5"/>
     </row>
-    <row r="51" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="67" t="s">
+    <row r="51" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="B51" s="67" t="s">
+      <c r="B51" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="C51" s="77">
+      <c r="C51" s="82">
         <f>SUM(F44:F50)</f>
         <v>30.5</v>
       </c>
-      <c r="D51" s="77"/>
-      <c r="E51" s="77"/>
-      <c r="F51" s="78"/>
-      <c r="G51" s="66" t="s">
+      <c r="D51" s="82"/>
+      <c r="E51" s="82"/>
+      <c r="F51" s="83"/>
+      <c r="G51" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="H51" s="77">
+      <c r="H51" s="82">
         <f>SUM(G44:G50)</f>
         <v>0</v>
       </c>
-      <c r="I51" s="78"/>
-    </row>
-    <row r="52" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I51" s="83"/>
+    </row>
+    <row r="52" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="10">
         <v>7</v>
       </c>
@@ -11180,8 +12520,8 @@
       <c r="C52" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="D52" s="69" t="s">
-        <v>177</v>
+      <c r="D52" s="66" t="s">
+        <v>176</v>
       </c>
       <c r="E52" s="18">
         <v>43787</v>
@@ -11195,7 +12535,7 @@
       </c>
       <c r="I52" s="15"/>
     </row>
-    <row r="53" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="10">
         <v>7</v>
       </c>
@@ -11218,7 +12558,7 @@
       </c>
       <c r="I53" s="15"/>
     </row>
-    <row r="54" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="10">
         <v>7</v>
       </c>
@@ -11229,7 +12569,7 @@
         <v>19</v>
       </c>
       <c r="D54" s="57" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E54" s="18">
         <v>43789</v>
@@ -11243,7 +12583,7 @@
       </c>
       <c r="I54" s="3"/>
     </row>
-    <row r="55" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="10">
         <v>7</v>
       </c>
@@ -11254,7 +12594,7 @@
         <v>19</v>
       </c>
       <c r="D55" s="57" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E55" s="18">
         <v>43790</v>
@@ -11268,7 +12608,7 @@
       </c>
       <c r="I55" s="3"/>
     </row>
-    <row r="56" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="10">
         <v>7</v>
       </c>
@@ -11278,8 +12618,8 @@
       <c r="C56" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="D56" s="63" t="s">
-        <v>179</v>
+      <c r="D56" s="60" t="s">
+        <v>178</v>
       </c>
       <c r="E56" s="18">
         <v>43791</v>
@@ -11293,7 +12633,7 @@
       </c>
       <c r="I56" s="3"/>
     </row>
-    <row r="57" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" ht="45" x14ac:dyDescent="0.3">
       <c r="A57" s="10">
         <v>7</v>
       </c>
@@ -11303,8 +12643,8 @@
       <c r="C57" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="D57" s="63" t="s">
-        <v>180</v>
+      <c r="D57" s="60" t="s">
+        <v>179</v>
       </c>
       <c r="E57" s="18">
         <v>43792</v>
@@ -11318,41 +12658,41 @@
       </c>
       <c r="I57" s="3"/>
     </row>
-    <row r="58" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="9"/>
       <c r="B58" s="11"/>
       <c r="C58" s="9"/>
-      <c r="D58" s="59"/>
+      <c r="D58" s="58"/>
       <c r="E58" s="16"/>
       <c r="F58" s="9"/>
       <c r="G58" s="9"/>
       <c r="H58" s="14"/>
       <c r="I58" s="5"/>
     </row>
-    <row r="59" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="67" t="s">
+    <row r="59" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="B59" s="67" t="s">
+      <c r="B59" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="C59" s="77">
+      <c r="C59" s="82">
         <f>SUM(F52:F58)</f>
         <v>32.5</v>
       </c>
-      <c r="D59" s="77"/>
-      <c r="E59" s="77"/>
-      <c r="F59" s="78"/>
-      <c r="G59" s="66" t="s">
+      <c r="D59" s="82"/>
+      <c r="E59" s="82"/>
+      <c r="F59" s="83"/>
+      <c r="G59" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="H59" s="77">
+      <c r="H59" s="82">
         <f>SUM(G52:G58)</f>
         <v>0</v>
       </c>
-      <c r="I59" s="78"/>
-    </row>
-    <row r="60" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I59" s="83"/>
+    </row>
+    <row r="60" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="10">
         <v>8</v>
       </c>
@@ -11362,8 +12702,8 @@
       <c r="C60" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D60" s="84" t="s">
-        <v>181</v>
+      <c r="D60" s="72" t="s">
+        <v>180</v>
       </c>
       <c r="E60" s="18">
         <v>43794</v>
@@ -11377,7 +12717,7 @@
       </c>
       <c r="I60" s="15"/>
     </row>
-    <row r="61" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="10">
         <v>8</v>
       </c>
@@ -11400,7 +12740,7 @@
       </c>
       <c r="I61" s="15"/>
     </row>
-    <row r="62" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="10">
         <v>8</v>
       </c>
@@ -11411,7 +12751,7 @@
         <v>19</v>
       </c>
       <c r="D62" s="57" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E62" s="18">
         <v>43796</v>
@@ -11425,7 +12765,7 @@
       </c>
       <c r="I62" s="3"/>
     </row>
-    <row r="63" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="10">
         <v>8</v>
       </c>
@@ -11436,7 +12776,7 @@
         <v>19</v>
       </c>
       <c r="D63" s="57" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E63" s="18">
         <v>43797</v>
@@ -11450,7 +12790,7 @@
       </c>
       <c r="I63" s="3"/>
     </row>
-    <row r="64" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="10">
         <v>8</v>
       </c>
@@ -11460,8 +12800,8 @@
       <c r="C64" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="D64" s="63" t="s">
-        <v>183</v>
+      <c r="D64" s="60" t="s">
+        <v>182</v>
       </c>
       <c r="E64" s="18">
         <v>43798</v>
@@ -11475,7 +12815,7 @@
       </c>
       <c r="I64" s="3"/>
     </row>
-    <row r="65" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" ht="60" x14ac:dyDescent="0.3">
       <c r="A65" s="10">
         <v>8</v>
       </c>
@@ -11485,8 +12825,8 @@
       <c r="C65" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="D65" s="63" t="s">
-        <v>184</v>
+      <c r="D65" s="60" t="s">
+        <v>183</v>
       </c>
       <c r="E65" s="18">
         <v>43799</v>
@@ -11500,43 +12840,43 @@
       </c>
       <c r="I65" s="3"/>
     </row>
-    <row r="66" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="85">
+    <row r="66" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="73">
         <v>8</v>
       </c>
       <c r="B66" s="11"/>
       <c r="C66" s="9"/>
-      <c r="D66" s="59"/>
+      <c r="D66" s="58"/>
       <c r="E66" s="16"/>
       <c r="F66" s="9"/>
       <c r="G66" s="9"/>
       <c r="H66" s="14"/>
       <c r="I66" s="5"/>
     </row>
-    <row r="67" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="67">
+    <row r="67" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="64">
         <v>8</v>
       </c>
-      <c r="B67" s="67" t="s">
+      <c r="B67" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="C67" s="77">
+      <c r="C67" s="82">
         <f>SUM(F60:F66)</f>
         <v>31.5</v>
       </c>
-      <c r="D67" s="77"/>
-      <c r="E67" s="77"/>
-      <c r="F67" s="78"/>
-      <c r="G67" s="66" t="s">
+      <c r="D67" s="82"/>
+      <c r="E67" s="82"/>
+      <c r="F67" s="83"/>
+      <c r="G67" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="H67" s="77">
+      <c r="H67" s="82">
         <f>SUM(G60:G66)</f>
         <v>0</v>
       </c>
-      <c r="I67" s="78"/>
-    </row>
-    <row r="68" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I67" s="83"/>
+    </row>
+    <row r="68" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="10">
         <v>9</v>
       </c>
@@ -11546,8 +12886,8 @@
       <c r="C68" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D68" s="84" t="s">
-        <v>185</v>
+      <c r="D68" s="72" t="s">
+        <v>184</v>
       </c>
       <c r="E68" s="18">
         <v>43801</v>
@@ -11561,7 +12901,7 @@
       </c>
       <c r="I68" s="15"/>
     </row>
-    <row r="69" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="10">
         <v>9</v>
       </c>
@@ -11584,7 +12924,7 @@
       </c>
       <c r="I69" s="15"/>
     </row>
-    <row r="70" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="10">
         <v>9</v>
       </c>
@@ -11595,7 +12935,7 @@
         <v>19</v>
       </c>
       <c r="D70" s="57" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E70" s="18">
         <v>43803</v>
@@ -11609,7 +12949,7 @@
       </c>
       <c r="I70" s="3"/>
     </row>
-    <row r="71" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="10">
         <v>9</v>
       </c>
@@ -11620,7 +12960,7 @@
         <v>19</v>
       </c>
       <c r="D71" s="57" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E71" s="18">
         <v>43804</v>
@@ -11634,7 +12974,7 @@
       </c>
       <c r="I71" s="3"/>
     </row>
-    <row r="72" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="10">
         <v>9</v>
       </c>
@@ -11644,8 +12984,8 @@
       <c r="C72" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="D72" s="63" t="s">
-        <v>187</v>
+      <c r="D72" s="60" t="s">
+        <v>186</v>
       </c>
       <c r="E72" s="18">
         <v>43805</v>
@@ -11659,7 +12999,7 @@
       </c>
       <c r="I72" s="3"/>
     </row>
-    <row r="73" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" ht="60" x14ac:dyDescent="0.3">
       <c r="A73" s="10">
         <v>9</v>
       </c>
@@ -11669,8 +13009,8 @@
       <c r="C73" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="D73" s="63" t="s">
-        <v>184</v>
+      <c r="D73" s="60" t="s">
+        <v>183</v>
       </c>
       <c r="E73" s="18">
         <v>43806</v>
@@ -11684,63 +13024,63 @@
       </c>
       <c r="I73" s="3"/>
     </row>
-    <row r="74" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="85">
+    <row r="74" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="73">
         <v>9</v>
       </c>
       <c r="B74" s="11"/>
       <c r="C74" s="9"/>
-      <c r="D74" s="59"/>
+      <c r="D74" s="58"/>
       <c r="E74" s="16"/>
       <c r="F74" s="9"/>
       <c r="G74" s="9"/>
       <c r="H74" s="14"/>
       <c r="I74" s="5"/>
     </row>
-    <row r="75" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="67">
+    <row r="75" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="64">
         <v>9</v>
       </c>
-      <c r="B75" s="67" t="s">
+      <c r="B75" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="C75" s="77">
+      <c r="C75" s="82">
         <f>SUM(F68:F74)</f>
         <v>31.5</v>
       </c>
-      <c r="D75" s="77"/>
-      <c r="E75" s="77"/>
-      <c r="F75" s="78"/>
-      <c r="G75" s="66" t="s">
+      <c r="D75" s="82"/>
+      <c r="E75" s="82"/>
+      <c r="F75" s="83"/>
+      <c r="G75" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="H75" s="77">
+      <c r="H75" s="82">
         <f>SUM(G68:G74)</f>
         <v>0</v>
       </c>
-      <c r="I75" s="78"/>
+      <c r="I75" s="83"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="C51:F51"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="C43:F43"/>
+    <mergeCell ref="H43:I43"/>
     <mergeCell ref="C59:F59"/>
     <mergeCell ref="H59:I59"/>
     <mergeCell ref="C67:F67"/>
     <mergeCell ref="H67:I67"/>
     <mergeCell ref="C75:F75"/>
     <mergeCell ref="H75:I75"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="C43:F43"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="C51:F51"/>
-    <mergeCell ref="H51:I51"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10 C18 C26 C34 C42 C50 C58 C66 C74" xr:uid="{37F695A9-FAA1-4B0C-BCF8-EDBE86D67943}">

--- a/Improgress/4. Timelog/PM_TimeLog.xlsx
+++ b/Improgress/4. Timelog/PM_TimeLog.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\Capstone-Project\Improgress\4. Timelog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D977B4F-A142-4D17-89EC-2A7FBA2FA925}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E811E73-8E9A-4F03-9B18-6B06C458AF38}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1104" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1129" uniqueCount="191">
   <si>
     <t>Work in period</t>
   </si>
@@ -625,6 +625,15 @@
   </si>
   <si>
     <t xml:space="preserve">Test Case </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Install React Native  </t>
+  </si>
+  <si>
+    <t>publish applications to AppStore</t>
+  </si>
+  <si>
+    <t>publish applications to GoogleStore</t>
   </si>
 </sst>
 </file>
@@ -1156,7 +1165,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1335,6 +1344,28 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1362,28 +1393,9 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
@@ -4564,17 +4576,17 @@
       <c r="I1" s="22"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="73"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="80"/>
+      <c r="I2" s="81"/>
     </row>
     <row r="3" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
@@ -4781,21 +4793,21 @@
       <c r="B11" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="74">
+      <c r="C11" s="82">
         <f>SUM(F4:F10)</f>
         <v>30</v>
       </c>
-      <c r="D11" s="74"/>
-      <c r="E11" s="74"/>
-      <c r="F11" s="75"/>
+      <c r="D11" s="82"/>
+      <c r="E11" s="82"/>
+      <c r="F11" s="83"/>
       <c r="G11" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="74">
+      <c r="H11" s="82">
         <f>SUM(G4:G10)</f>
         <v>30</v>
       </c>
-      <c r="I11" s="75"/>
+      <c r="I11" s="83"/>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="24" t="s">
@@ -4998,21 +5010,21 @@
       <c r="B20" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="74">
+      <c r="C20" s="82">
         <f>SUM(F13:F19)</f>
         <v>22</v>
       </c>
-      <c r="D20" s="74"/>
-      <c r="E20" s="74"/>
-      <c r="F20" s="75"/>
+      <c r="D20" s="82"/>
+      <c r="E20" s="82"/>
+      <c r="F20" s="83"/>
       <c r="G20" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H20" s="74">
+      <c r="H20" s="82">
         <f>SUM(G13:G19)</f>
         <v>34</v>
       </c>
-      <c r="I20" s="75"/>
+      <c r="I20" s="83"/>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="24" t="s">
@@ -5219,21 +5231,21 @@
       <c r="B30" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C30" s="74">
+      <c r="C30" s="82">
         <f>SUM(F22:F29)</f>
         <v>0</v>
       </c>
-      <c r="D30" s="74"/>
-      <c r="E30" s="74"/>
-      <c r="F30" s="75"/>
+      <c r="D30" s="82"/>
+      <c r="E30" s="82"/>
+      <c r="F30" s="83"/>
       <c r="G30" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H30" s="74">
+      <c r="H30" s="82">
         <f>SUM(G22:G29)</f>
         <v>38</v>
       </c>
-      <c r="I30" s="75"/>
+      <c r="I30" s="83"/>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="24" t="s">
@@ -5387,21 +5399,21 @@
       <c r="B39" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C39" s="74">
+      <c r="C39" s="82">
         <f>SUM(F32:F38)</f>
         <v>0</v>
       </c>
-      <c r="D39" s="74"/>
-      <c r="E39" s="74"/>
-      <c r="F39" s="75"/>
+      <c r="D39" s="82"/>
+      <c r="E39" s="82"/>
+      <c r="F39" s="83"/>
       <c r="G39" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H39" s="74">
+      <c r="H39" s="82">
         <f>SUM(G32:G38)</f>
         <v>0</v>
       </c>
-      <c r="I39" s="75"/>
+      <c r="I39" s="83"/>
     </row>
     <row r="40" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="24" t="s">
@@ -5551,21 +5563,21 @@
       <c r="B48" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C48" s="74">
+      <c r="C48" s="82">
         <f>SUM(F41:F47)</f>
         <v>0</v>
       </c>
-      <c r="D48" s="74"/>
-      <c r="E48" s="74"/>
-      <c r="F48" s="75"/>
+      <c r="D48" s="82"/>
+      <c r="E48" s="82"/>
+      <c r="F48" s="83"/>
       <c r="G48" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H48" s="74">
+      <c r="H48" s="82">
         <f>SUM(G41:G47)</f>
         <v>0</v>
       </c>
-      <c r="I48" s="75"/>
+      <c r="I48" s="83"/>
     </row>
     <row r="49" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="24" t="s">
@@ -5715,21 +5727,21 @@
       <c r="B57" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C57" s="74">
+      <c r="C57" s="82">
         <f>SUM(F50:F56)</f>
         <v>0</v>
       </c>
-      <c r="D57" s="74"/>
-      <c r="E57" s="74"/>
-      <c r="F57" s="75"/>
+      <c r="D57" s="82"/>
+      <c r="E57" s="82"/>
+      <c r="F57" s="83"/>
       <c r="G57" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H57" s="74">
+      <c r="H57" s="82">
         <f>SUM(G50:G56)</f>
         <v>0</v>
       </c>
-      <c r="I57" s="75"/>
+      <c r="I57" s="83"/>
     </row>
     <row r="58" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A58" s="24" t="s">
@@ -5879,21 +5891,21 @@
       <c r="B66" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C66" s="74">
+      <c r="C66" s="82">
         <f>SUM(F59:F65)</f>
         <v>0</v>
       </c>
-      <c r="D66" s="74"/>
-      <c r="E66" s="74"/>
-      <c r="F66" s="75"/>
+      <c r="D66" s="82"/>
+      <c r="E66" s="82"/>
+      <c r="F66" s="83"/>
       <c r="G66" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H66" s="74">
+      <c r="H66" s="82">
         <f>SUM(G59:G65)</f>
         <v>0</v>
       </c>
-      <c r="I66" s="75"/>
+      <c r="I66" s="83"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -5977,17 +5989,17 @@
       <c r="I1" s="22"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="73"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="80"/>
+      <c r="I2" s="81"/>
     </row>
     <row r="3" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="24" t="s">
@@ -6194,21 +6206,21 @@
       <c r="B11" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="76">
+      <c r="C11" s="84">
         <f>SUM(F4:F10)</f>
         <v>26</v>
       </c>
-      <c r="D11" s="74"/>
-      <c r="E11" s="74"/>
-      <c r="F11" s="75"/>
+      <c r="D11" s="82"/>
+      <c r="E11" s="82"/>
+      <c r="F11" s="83"/>
       <c r="G11" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="74">
+      <c r="H11" s="82">
         <f>SUM(G4:G10)</f>
         <v>26</v>
       </c>
-      <c r="I11" s="75"/>
+      <c r="I11" s="83"/>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="24" t="s">
@@ -6421,21 +6433,21 @@
       <c r="B20" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="74">
+      <c r="C20" s="82">
         <f>SUM(F13:F19)</f>
         <v>30</v>
       </c>
-      <c r="D20" s="74"/>
-      <c r="E20" s="74"/>
-      <c r="F20" s="75"/>
+      <c r="D20" s="82"/>
+      <c r="E20" s="82"/>
+      <c r="F20" s="83"/>
       <c r="G20" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H20" s="74">
+      <c r="H20" s="82">
         <f>SUM(G13:G19)</f>
         <v>30</v>
       </c>
-      <c r="I20" s="75"/>
+      <c r="I20" s="83"/>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="24" t="s">
@@ -6654,21 +6666,21 @@
       <c r="B29" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="74">
+      <c r="C29" s="82">
         <f>SUM(F22:F28)</f>
         <v>45</v>
       </c>
-      <c r="D29" s="74"/>
-      <c r="E29" s="74"/>
-      <c r="F29" s="75"/>
+      <c r="D29" s="82"/>
+      <c r="E29" s="82"/>
+      <c r="F29" s="83"/>
       <c r="G29" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H29" s="74">
+      <c r="H29" s="82">
         <f>SUM(G22:G28)</f>
         <v>0</v>
       </c>
-      <c r="I29" s="75"/>
+      <c r="I29" s="83"/>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="24" t="s">
@@ -6863,21 +6875,21 @@
       <c r="B38" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C38" s="74">
+      <c r="C38" s="82">
         <f>SUM(F31:F37)</f>
         <v>38</v>
       </c>
-      <c r="D38" s="74"/>
-      <c r="E38" s="74"/>
-      <c r="F38" s="75"/>
+      <c r="D38" s="82"/>
+      <c r="E38" s="82"/>
+      <c r="F38" s="83"/>
       <c r="G38" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H38" s="74">
+      <c r="H38" s="82">
         <f>SUM(G31:G37)</f>
         <v>0</v>
       </c>
-      <c r="I38" s="75"/>
+      <c r="I38" s="83"/>
     </row>
     <row r="39" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="24" t="s">
@@ -7030,21 +7042,21 @@
       <c r="B47" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C47" s="74">
+      <c r="C47" s="82">
         <f>SUM(F40:F46)</f>
         <v>0</v>
       </c>
-      <c r="D47" s="74"/>
-      <c r="E47" s="74"/>
-      <c r="F47" s="75"/>
+      <c r="D47" s="82"/>
+      <c r="E47" s="82"/>
+      <c r="F47" s="83"/>
       <c r="G47" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H47" s="74">
+      <c r="H47" s="82">
         <f>SUM(G40:G46)</f>
         <v>0</v>
       </c>
-      <c r="I47" s="75"/>
+      <c r="I47" s="83"/>
     </row>
     <row r="48" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="24" t="s">
@@ -7197,21 +7209,21 @@
       <c r="B56" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C56" s="74">
+      <c r="C56" s="82">
         <f>SUM(F49:F55)</f>
         <v>0</v>
       </c>
-      <c r="D56" s="74"/>
-      <c r="E56" s="74"/>
-      <c r="F56" s="75"/>
+      <c r="D56" s="82"/>
+      <c r="E56" s="82"/>
+      <c r="F56" s="83"/>
       <c r="G56" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H56" s="74">
+      <c r="H56" s="82">
         <f>SUM(G49:G55)</f>
         <v>0</v>
       </c>
-      <c r="I56" s="75"/>
+      <c r="I56" s="83"/>
     </row>
     <row r="57" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="24" t="s">
@@ -7420,21 +7432,21 @@
       <c r="B65" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C65" s="74">
+      <c r="C65" s="82">
         <f>SUM(F58:F64)</f>
         <v>50</v>
       </c>
-      <c r="D65" s="74"/>
-      <c r="E65" s="74"/>
-      <c r="F65" s="75"/>
+      <c r="D65" s="82"/>
+      <c r="E65" s="82"/>
+      <c r="F65" s="83"/>
       <c r="G65" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H65" s="74">
+      <c r="H65" s="82">
         <f>SUM(G58:G64)</f>
         <v>0</v>
       </c>
-      <c r="I65" s="75"/>
+      <c r="I65" s="83"/>
     </row>
     <row r="66" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="24" t="s">
@@ -7611,21 +7623,21 @@
       <c r="B74" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C74" s="74">
+      <c r="C74" s="82">
         <f>SUM(F67:F73)</f>
         <v>10</v>
       </c>
-      <c r="D74" s="74"/>
-      <c r="E74" s="74"/>
-      <c r="F74" s="75"/>
+      <c r="D74" s="82"/>
+      <c r="E74" s="82"/>
+      <c r="F74" s="83"/>
       <c r="G74" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H74" s="74">
+      <c r="H74" s="82">
         <f>SUM(G67:G73)</f>
         <v>0</v>
       </c>
-      <c r="I74" s="75"/>
+      <c r="I74" s="83"/>
     </row>
   </sheetData>
   <mergeCells count="17">
@@ -7708,17 +7720,17 @@
       <c r="I1" s="22"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="73"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="80"/>
+      <c r="I2" s="81"/>
     </row>
     <row r="3" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="24" t="s">
@@ -7923,21 +7935,21 @@
       <c r="B11" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="77">
+      <c r="C11" s="85">
         <f>SUM(F4:F10)</f>
         <v>26.5</v>
       </c>
-      <c r="D11" s="77"/>
-      <c r="E11" s="77"/>
-      <c r="F11" s="78"/>
+      <c r="D11" s="85"/>
+      <c r="E11" s="85"/>
+      <c r="F11" s="86"/>
       <c r="G11" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="77">
+      <c r="H11" s="85">
         <f>SUM(G4:G10)</f>
         <v>27.5</v>
       </c>
-      <c r="I11" s="78"/>
+      <c r="I11" s="86"/>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="24" t="s">
@@ -8138,21 +8150,21 @@
       <c r="B20" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="77">
+      <c r="C20" s="85">
         <f>SUM(F13:F19)</f>
         <v>18.5</v>
       </c>
-      <c r="D20" s="77"/>
-      <c r="E20" s="77"/>
-      <c r="F20" s="78"/>
+      <c r="D20" s="85"/>
+      <c r="E20" s="85"/>
+      <c r="F20" s="86"/>
       <c r="G20" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H20" s="77">
+      <c r="H20" s="85">
         <f>SUM(G13:G19)</f>
         <v>22</v>
       </c>
-      <c r="I20" s="78"/>
+      <c r="I20" s="86"/>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="24" t="s">
@@ -8291,21 +8303,21 @@
       <c r="B29" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="74">
+      <c r="C29" s="82">
         <f>SUM(F22:F28)</f>
         <v>0</v>
       </c>
-      <c r="D29" s="74"/>
-      <c r="E29" s="74"/>
-      <c r="F29" s="75"/>
+      <c r="D29" s="82"/>
+      <c r="E29" s="82"/>
+      <c r="F29" s="83"/>
       <c r="G29" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H29" s="74">
+      <c r="H29" s="82">
         <f>SUM(G22:G28)</f>
         <v>0</v>
       </c>
-      <c r="I29" s="75"/>
+      <c r="I29" s="83"/>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="24" t="s">
@@ -8444,21 +8456,21 @@
       <c r="B38" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C38" s="74">
+      <c r="C38" s="82">
         <f>SUM(F31:F37)</f>
         <v>0</v>
       </c>
-      <c r="D38" s="74"/>
-      <c r="E38" s="74"/>
-      <c r="F38" s="75"/>
+      <c r="D38" s="82"/>
+      <c r="E38" s="82"/>
+      <c r="F38" s="83"/>
       <c r="G38" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H38" s="74">
+      <c r="H38" s="82">
         <f>SUM(G31:G37)</f>
         <v>0</v>
       </c>
-      <c r="I38" s="75"/>
+      <c r="I38" s="83"/>
     </row>
     <row r="39" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="24" t="s">
@@ -8597,21 +8609,21 @@
       <c r="B47" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C47" s="74">
+      <c r="C47" s="82">
         <f>SUM(F40:F46)</f>
         <v>0</v>
       </c>
-      <c r="D47" s="74"/>
-      <c r="E47" s="74"/>
-      <c r="F47" s="75"/>
+      <c r="D47" s="82"/>
+      <c r="E47" s="82"/>
+      <c r="F47" s="83"/>
       <c r="G47" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H47" s="74">
+      <c r="H47" s="82">
         <f>SUM(G40:G46)</f>
         <v>0</v>
       </c>
-      <c r="I47" s="75"/>
+      <c r="I47" s="83"/>
     </row>
     <row r="48" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="24" t="s">
@@ -8750,21 +8762,21 @@
       <c r="B56" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C56" s="74">
+      <c r="C56" s="82">
         <f>SUM(F49:F55)</f>
         <v>0</v>
       </c>
-      <c r="D56" s="74"/>
-      <c r="E56" s="74"/>
-      <c r="F56" s="75"/>
+      <c r="D56" s="82"/>
+      <c r="E56" s="82"/>
+      <c r="F56" s="83"/>
       <c r="G56" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H56" s="74">
+      <c r="H56" s="82">
         <f>SUM(G49:G55)</f>
         <v>0</v>
       </c>
-      <c r="I56" s="75"/>
+      <c r="I56" s="83"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -8813,7 +8825,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8D98322-3746-4D23-926C-85D7A07E9BC3}">
   <dimension ref="A1:I56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A171" workbookViewId="0">
       <selection activeCell="A21" sqref="A21:I56"/>
     </sheetView>
   </sheetViews>
@@ -8842,17 +8854,17 @@
       <c r="I1" s="22"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="73"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="80"/>
+      <c r="I2" s="81"/>
     </row>
     <row r="3" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="24" t="s">
@@ -9057,21 +9069,21 @@
       <c r="B11" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="77">
+      <c r="C11" s="85">
         <f>SUM(F4:F10)</f>
         <v>24</v>
       </c>
-      <c r="D11" s="77"/>
-      <c r="E11" s="77"/>
-      <c r="F11" s="78"/>
+      <c r="D11" s="85"/>
+      <c r="E11" s="85"/>
+      <c r="F11" s="86"/>
       <c r="G11" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="77">
+      <c r="H11" s="85">
         <f>SUM(G4:G10)</f>
         <v>28</v>
       </c>
-      <c r="I11" s="78"/>
+      <c r="I11" s="86"/>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="24" t="s">
@@ -9280,21 +9292,21 @@
       <c r="B20" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="77">
+      <c r="C20" s="85">
         <f>SUM(F13:F19)</f>
         <v>27</v>
       </c>
-      <c r="D20" s="77"/>
-      <c r="E20" s="77"/>
-      <c r="F20" s="78"/>
+      <c r="D20" s="85"/>
+      <c r="E20" s="85"/>
+      <c r="F20" s="86"/>
       <c r="G20" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H20" s="77">
+      <c r="H20" s="85">
         <f>SUM(G13:G19)</f>
         <v>30</v>
       </c>
-      <c r="I20" s="78"/>
+      <c r="I20" s="86"/>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="24" t="s">
@@ -9433,21 +9445,21 @@
       <c r="B29" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="74">
+      <c r="C29" s="82">
         <f>SUM(F22:F28)</f>
         <v>0</v>
       </c>
-      <c r="D29" s="74"/>
-      <c r="E29" s="74"/>
-      <c r="F29" s="75"/>
+      <c r="D29" s="82"/>
+      <c r="E29" s="82"/>
+      <c r="F29" s="83"/>
       <c r="G29" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H29" s="74">
+      <c r="H29" s="82">
         <f>SUM(G22:G28)</f>
         <v>0</v>
       </c>
-      <c r="I29" s="75"/>
+      <c r="I29" s="83"/>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="24" t="s">
@@ -9586,21 +9598,21 @@
       <c r="B38" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C38" s="74">
+      <c r="C38" s="82">
         <f>SUM(F31:F37)</f>
         <v>0</v>
       </c>
-      <c r="D38" s="74"/>
-      <c r="E38" s="74"/>
-      <c r="F38" s="75"/>
+      <c r="D38" s="82"/>
+      <c r="E38" s="82"/>
+      <c r="F38" s="83"/>
       <c r="G38" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H38" s="74">
+      <c r="H38" s="82">
         <f>SUM(G31:G37)</f>
         <v>0</v>
       </c>
-      <c r="I38" s="75"/>
+      <c r="I38" s="83"/>
     </row>
     <row r="39" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="24" t="s">
@@ -9739,21 +9751,21 @@
       <c r="B47" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C47" s="74">
+      <c r="C47" s="82">
         <f>SUM(F40:F46)</f>
         <v>0</v>
       </c>
-      <c r="D47" s="74"/>
-      <c r="E47" s="74"/>
-      <c r="F47" s="75"/>
+      <c r="D47" s="82"/>
+      <c r="E47" s="82"/>
+      <c r="F47" s="83"/>
       <c r="G47" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H47" s="74">
+      <c r="H47" s="82">
         <f>SUM(G40:G46)</f>
         <v>0</v>
       </c>
-      <c r="I47" s="75"/>
+      <c r="I47" s="83"/>
     </row>
     <row r="48" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="24" t="s">
@@ -9892,21 +9904,21 @@
       <c r="B56" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C56" s="74">
+      <c r="C56" s="82">
         <f>SUM(F49:F55)</f>
         <v>0</v>
       </c>
-      <c r="D56" s="74"/>
-      <c r="E56" s="74"/>
-      <c r="F56" s="75"/>
+      <c r="D56" s="82"/>
+      <c r="E56" s="82"/>
+      <c r="F56" s="83"/>
       <c r="G56" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H56" s="74">
+      <c r="H56" s="82">
         <f>SUM(G49:G55)</f>
         <v>0</v>
       </c>
-      <c r="I56" s="75"/>
+      <c r="I56" s="83"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -9954,10 +9966,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{744DDA93-81BE-4148-9787-FFABC05BF7AA}">
-  <dimension ref="A1:L75"/>
+  <dimension ref="A1:L83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="A75" sqref="A75:I75"/>
+    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
+      <selection activeCell="H79" sqref="H79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9966,7 +9978,8 @@
     <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="40.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.85546875" customWidth="1"/>
     <col min="9" max="9" width="30.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -9984,17 +9997,17 @@
       <c r="I1" s="22"/>
     </row>
     <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="73"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="80"/>
+      <c r="I2" s="81"/>
     </row>
     <row r="3" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="24" t="s">
@@ -10003,25 +10016,25 @@
       <c r="B3" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="79" t="s">
+      <c r="C3" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="D3" s="80" t="s">
+      <c r="D3" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="80" t="s">
+      <c r="E3" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="80" t="s">
+      <c r="F3" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="80" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" s="80" t="s">
+      <c r="G3" s="71" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="81" t="s">
+      <c r="I3" s="72" t="s">
         <v>8</v>
       </c>
     </row>
@@ -10076,7 +10089,7 @@
         <v>20</v>
       </c>
       <c r="I5" s="15"/>
-      <c r="L5" s="86"/>
+      <c r="L5" s="77"/>
     </row>
     <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
@@ -10157,7 +10170,7 @@
       </c>
       <c r="I8" s="3"/>
     </row>
-    <row r="9" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>1</v>
       </c>
@@ -10182,7 +10195,7 @@
       <c r="H9" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="I9" s="82" t="s">
+      <c r="I9" s="73" t="s">
         <v>150</v>
       </c>
     </row>
@@ -10204,21 +10217,21 @@
       <c r="B11" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="77">
+      <c r="C11" s="85">
         <f>SUM(F4:F10)</f>
         <v>27</v>
       </c>
-      <c r="D11" s="77"/>
-      <c r="E11" s="77"/>
-      <c r="F11" s="78"/>
+      <c r="D11" s="85"/>
+      <c r="E11" s="85"/>
+      <c r="F11" s="86"/>
       <c r="G11" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="77">
+      <c r="H11" s="85">
         <f>SUM(G4:G10)</f>
         <v>30</v>
       </c>
-      <c r="I11" s="78"/>
+      <c r="I11" s="86"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
@@ -10400,21 +10413,21 @@
       <c r="B19" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="77">
+      <c r="C19" s="85">
         <f>SUM(F12:F18)</f>
         <v>29</v>
       </c>
-      <c r="D19" s="77"/>
-      <c r="E19" s="77"/>
-      <c r="F19" s="78"/>
+      <c r="D19" s="85"/>
+      <c r="E19" s="85"/>
+      <c r="F19" s="86"/>
       <c r="G19" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H19" s="77">
+      <c r="H19" s="85">
         <f>SUM(G12:G18)</f>
         <v>30</v>
       </c>
-      <c r="I19" s="78"/>
+      <c r="I19" s="86"/>
     </row>
     <row r="20" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="10">
@@ -10461,7 +10474,7 @@
         <v>4</v>
       </c>
       <c r="G21" s="10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H21" s="14" t="s">
         <v>20</v>
@@ -10506,7 +10519,7 @@
       <c r="D23" s="57" t="s">
         <v>156</v>
       </c>
-      <c r="E23" s="83" t="s">
+      <c r="E23" s="74" t="s">
         <v>157</v>
       </c>
       <c r="F23" s="1">
@@ -10535,7 +10548,7 @@
       <c r="D24" s="57" t="s">
         <v>159</v>
       </c>
-      <c r="E24" s="83">
+      <c r="E24" s="74">
         <v>43476</v>
       </c>
       <c r="F24" s="1">
@@ -10549,7 +10562,7 @@
       </c>
       <c r="I24" s="3"/>
     </row>
-    <row r="25" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A25" s="10">
         <v>3</v>
       </c>
@@ -10562,19 +10575,19 @@
       <c r="D25" s="63" t="s">
         <v>160</v>
       </c>
-      <c r="E25" s="83">
+      <c r="E25" s="74">
         <v>43507</v>
       </c>
       <c r="F25" s="1">
         <v>6</v>
       </c>
       <c r="G25" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H25" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I25" s="82" t="s">
+      <c r="I25" s="73" t="s">
         <v>161</v>
       </c>
     </row>
@@ -10596,23 +10609,23 @@
       <c r="B27" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C27" s="77">
+      <c r="C27" s="85">
         <f>SUM(F20:F26)</f>
         <v>29.5</v>
       </c>
-      <c r="D27" s="77"/>
-      <c r="E27" s="77"/>
-      <c r="F27" s="78"/>
+      <c r="D27" s="85"/>
+      <c r="E27" s="85"/>
+      <c r="F27" s="86"/>
       <c r="G27" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H27" s="77">
+      <c r="H27" s="85">
         <f>SUM(G20:G26)</f>
-        <v>35</v>
-      </c>
-      <c r="I27" s="78"/>
-    </row>
-    <row r="28" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+      <c r="I27" s="86"/>
+    </row>
+    <row r="28" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="10">
         <v>4</v>
       </c>
@@ -10632,7 +10645,7 @@
         <v>5.5</v>
       </c>
       <c r="G28" s="10">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H28" s="14" t="s">
         <v>20</v>
@@ -10641,7 +10654,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="10">
         <v>4</v>
       </c>
@@ -10688,7 +10701,7 @@
         <v>4.5</v>
       </c>
       <c r="G30" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H30" s="14" t="s">
         <v>20</v>
@@ -10715,7 +10728,7 @@
         <v>5</v>
       </c>
       <c r="G31" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H31" s="14" t="s">
         <v>21</v>
@@ -10740,7 +10753,7 @@
         <v>4.5</v>
       </c>
       <c r="G32" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H32" s="14" t="s">
         <v>20</v>
@@ -10767,7 +10780,7 @@
         <v>7</v>
       </c>
       <c r="G33" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H33" s="14" t="s">
         <v>21</v>
@@ -10794,23 +10807,23 @@
       <c r="B35" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C35" s="77">
+      <c r="C35" s="85">
         <f>SUM(F28:F34)</f>
         <v>31.5</v>
       </c>
-      <c r="D35" s="77"/>
-      <c r="E35" s="77"/>
-      <c r="F35" s="78"/>
+      <c r="D35" s="85"/>
+      <c r="E35" s="85"/>
+      <c r="F35" s="86"/>
       <c r="G35" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H35" s="77">
+      <c r="H35" s="85">
         <f>SUM(G28:G34)</f>
-        <v>35</v>
-      </c>
-      <c r="I35" s="78"/>
-    </row>
-    <row r="36" spans="1:9" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+      <c r="I35" s="86"/>
+    </row>
+    <row r="36" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="10">
         <v>5</v>
       </c>
@@ -10824,12 +10837,14 @@
         <v>169</v>
       </c>
       <c r="E36" s="18">
-        <v>43773</v>
+        <v>43779</v>
       </c>
       <c r="F36" s="10">
         <v>6</v>
       </c>
-      <c r="G36" s="10"/>
+      <c r="G36" s="10">
+        <v>6</v>
+      </c>
       <c r="H36" s="14" t="s">
         <v>20</v>
       </c>
@@ -10849,12 +10864,14 @@
       </c>
       <c r="D37" s="56"/>
       <c r="E37" s="18">
-        <v>43774</v>
+        <v>43780</v>
       </c>
       <c r="F37" s="10">
         <v>4</v>
       </c>
-      <c r="G37" s="10"/>
+      <c r="G37" s="10">
+        <v>4</v>
+      </c>
       <c r="H37" s="14" t="s">
         <v>20</v>
       </c>
@@ -10874,12 +10891,14 @@
         <v>171</v>
       </c>
       <c r="E38" s="18">
-        <v>43775</v>
+        <v>43781</v>
       </c>
       <c r="F38" s="1">
         <v>5</v>
       </c>
-      <c r="G38" s="10"/>
+      <c r="G38" s="10">
+        <v>6</v>
+      </c>
       <c r="H38" s="14" t="s">
         <v>21</v>
       </c>
@@ -10899,12 +10918,14 @@
         <v>172</v>
       </c>
       <c r="E39" s="18">
-        <v>43776</v>
+        <v>43782</v>
       </c>
       <c r="F39" s="1">
         <v>5</v>
       </c>
-      <c r="G39" s="10"/>
+      <c r="G39" s="10">
+        <v>6</v>
+      </c>
       <c r="H39" s="14" t="s">
         <v>21</v>
       </c>
@@ -10924,12 +10945,14 @@
         <v>173</v>
       </c>
       <c r="E40" s="18">
-        <v>43777</v>
+        <v>43783</v>
       </c>
       <c r="F40" s="1">
         <v>4.5</v>
       </c>
-      <c r="G40" s="10"/>
+      <c r="G40" s="10">
+        <v>6</v>
+      </c>
       <c r="H40" s="14" t="s">
         <v>20</v>
       </c>
@@ -10949,12 +10972,14 @@
         <v>174</v>
       </c>
       <c r="E41" s="18">
-        <v>43778</v>
+        <v>43784</v>
       </c>
       <c r="F41" s="1">
         <v>6</v>
       </c>
-      <c r="G41" s="10"/>
+      <c r="G41" s="10">
+        <v>6</v>
+      </c>
       <c r="H41" s="14" t="s">
         <v>20</v>
       </c>
@@ -10978,21 +11003,21 @@
       <c r="B43" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C43" s="77">
+      <c r="C43" s="85">
         <f>SUM(F36:F42)</f>
         <v>30.5</v>
       </c>
-      <c r="D43" s="77"/>
-      <c r="E43" s="77"/>
-      <c r="F43" s="78"/>
+      <c r="D43" s="85"/>
+      <c r="E43" s="85"/>
+      <c r="F43" s="86"/>
       <c r="G43" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H43" s="77">
+      <c r="H43" s="85">
         <f>SUM(G36:G42)</f>
-        <v>0</v>
-      </c>
-      <c r="I43" s="78"/>
+        <v>34</v>
+      </c>
+      <c r="I43" s="86"/>
     </row>
     <row r="44" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="10">
@@ -11006,12 +11031,14 @@
       </c>
       <c r="D44" s="69"/>
       <c r="E44" s="18">
-        <v>43780</v>
+        <v>43786</v>
       </c>
       <c r="F44" s="10">
         <v>6</v>
       </c>
-      <c r="G44" s="10"/>
+      <c r="G44" s="10">
+        <v>6</v>
+      </c>
       <c r="H44" s="14" t="s">
         <v>20</v>
       </c>
@@ -11029,12 +11056,14 @@
       </c>
       <c r="D45" s="56"/>
       <c r="E45" s="18">
-        <v>43781</v>
+        <v>43787</v>
       </c>
       <c r="F45" s="10">
         <v>4</v>
       </c>
-      <c r="G45" s="10"/>
+      <c r="G45" s="10">
+        <v>4</v>
+      </c>
       <c r="H45" s="14" t="s">
         <v>20</v>
       </c>
@@ -11052,12 +11081,14 @@
       </c>
       <c r="D46" s="57"/>
       <c r="E46" s="18">
-        <v>43782</v>
+        <v>43788</v>
       </c>
       <c r="F46" s="1">
         <v>5</v>
       </c>
-      <c r="G46" s="10"/>
+      <c r="G46" s="10">
+        <v>6</v>
+      </c>
       <c r="H46" s="14" t="s">
         <v>21</v>
       </c>
@@ -11075,12 +11106,14 @@
       </c>
       <c r="D47" s="57"/>
       <c r="E47" s="18">
-        <v>43783</v>
+        <v>43789</v>
       </c>
       <c r="F47" s="1">
         <v>5</v>
       </c>
-      <c r="G47" s="10"/>
+      <c r="G47" s="10">
+        <v>6</v>
+      </c>
       <c r="H47" s="14" t="s">
         <v>21</v>
       </c>
@@ -11100,12 +11133,14 @@
         <v>175</v>
       </c>
       <c r="E48" s="18">
-        <v>43784</v>
+        <v>43790</v>
       </c>
       <c r="F48" s="1">
         <v>4.5</v>
       </c>
-      <c r="G48" s="10"/>
+      <c r="G48" s="10">
+        <v>6</v>
+      </c>
       <c r="H48" s="14" t="s">
         <v>20</v>
       </c>
@@ -11125,12 +11160,14 @@
         <v>176</v>
       </c>
       <c r="E49" s="18">
-        <v>43785</v>
+        <v>43791</v>
       </c>
       <c r="F49" s="1">
         <v>6</v>
       </c>
-      <c r="G49" s="10"/>
+      <c r="G49" s="10">
+        <v>6</v>
+      </c>
       <c r="H49" s="14" t="s">
         <v>20</v>
       </c>
@@ -11154,21 +11191,21 @@
       <c r="B51" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C51" s="77">
+      <c r="C51" s="85">
         <f>SUM(F44:F50)</f>
         <v>30.5</v>
       </c>
-      <c r="D51" s="77"/>
-      <c r="E51" s="77"/>
-      <c r="F51" s="78"/>
+      <c r="D51" s="85"/>
+      <c r="E51" s="85"/>
+      <c r="F51" s="86"/>
       <c r="G51" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H51" s="77">
+      <c r="H51" s="85">
         <f>SUM(G44:G50)</f>
-        <v>0</v>
-      </c>
-      <c r="I51" s="78"/>
+        <v>34</v>
+      </c>
+      <c r="I51" s="86"/>
     </row>
     <row r="52" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="10">
@@ -11184,12 +11221,14 @@
         <v>177</v>
       </c>
       <c r="E52" s="18">
-        <v>43787</v>
+        <v>43793</v>
       </c>
       <c r="F52" s="10">
         <v>6</v>
       </c>
-      <c r="G52" s="10"/>
+      <c r="G52" s="10">
+        <v>6</v>
+      </c>
       <c r="H52" s="14" t="s">
         <v>20</v>
       </c>
@@ -11207,12 +11246,14 @@
       </c>
       <c r="D53" s="56"/>
       <c r="E53" s="18">
-        <v>43788</v>
+        <v>43794</v>
       </c>
       <c r="F53" s="10">
         <v>4</v>
       </c>
-      <c r="G53" s="10"/>
+      <c r="G53" s="10">
+        <v>4</v>
+      </c>
       <c r="H53" s="14" t="s">
         <v>20</v>
       </c>
@@ -11232,12 +11273,14 @@
         <v>178</v>
       </c>
       <c r="E54" s="18">
-        <v>43789</v>
+        <v>43795</v>
       </c>
       <c r="F54" s="1">
         <v>5</v>
       </c>
-      <c r="G54" s="10"/>
+      <c r="G54" s="10">
+        <v>6</v>
+      </c>
       <c r="H54" s="14" t="s">
         <v>20</v>
       </c>
@@ -11257,12 +11300,14 @@
         <v>178</v>
       </c>
       <c r="E55" s="18">
-        <v>43790</v>
+        <v>43796</v>
       </c>
       <c r="F55" s="1">
         <v>6.5</v>
       </c>
-      <c r="G55" s="10"/>
+      <c r="G55" s="10">
+        <v>6</v>
+      </c>
       <c r="H55" s="14" t="s">
         <v>20</v>
       </c>
@@ -11282,12 +11327,14 @@
         <v>179</v>
       </c>
       <c r="E56" s="18">
-        <v>43791</v>
+        <v>43797</v>
       </c>
       <c r="F56" s="1">
         <v>5</v>
       </c>
-      <c r="G56" s="10"/>
+      <c r="G56" s="10">
+        <v>6</v>
+      </c>
       <c r="H56" s="14" t="s">
         <v>20</v>
       </c>
@@ -11307,12 +11354,14 @@
         <v>180</v>
       </c>
       <c r="E57" s="18">
-        <v>43792</v>
+        <v>43798</v>
       </c>
       <c r="F57" s="1">
         <v>6</v>
       </c>
-      <c r="G57" s="10"/>
+      <c r="G57" s="10">
+        <v>6</v>
+      </c>
       <c r="H57" s="14" t="s">
         <v>20</v>
       </c>
@@ -11336,21 +11385,21 @@
       <c r="B59" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C59" s="77">
+      <c r="C59" s="85">
         <f>SUM(F52:F58)</f>
         <v>32.5</v>
       </c>
-      <c r="D59" s="77"/>
-      <c r="E59" s="77"/>
-      <c r="F59" s="78"/>
+      <c r="D59" s="85"/>
+      <c r="E59" s="85"/>
+      <c r="F59" s="86"/>
       <c r="G59" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H59" s="77">
+      <c r="H59" s="85">
         <f>SUM(G52:G58)</f>
-        <v>0</v>
-      </c>
-      <c r="I59" s="78"/>
+        <v>34</v>
+      </c>
+      <c r="I59" s="86"/>
     </row>
     <row r="60" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="10">
@@ -11362,16 +11411,18 @@
       <c r="C60" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D60" s="84" t="s">
+      <c r="D60" s="75" t="s">
         <v>181</v>
       </c>
       <c r="E60" s="18">
-        <v>43794</v>
+        <v>43800</v>
       </c>
       <c r="F60" s="10">
         <v>6</v>
       </c>
-      <c r="G60" s="10"/>
+      <c r="G60" s="10">
+        <v>6</v>
+      </c>
       <c r="H60" s="14" t="s">
         <v>20</v>
       </c>
@@ -11389,12 +11440,14 @@
       </c>
       <c r="D61" s="56"/>
       <c r="E61" s="18">
-        <v>43795</v>
+        <v>43801</v>
       </c>
       <c r="F61" s="10">
         <v>4</v>
       </c>
-      <c r="G61" s="10"/>
+      <c r="G61" s="10">
+        <v>4</v>
+      </c>
       <c r="H61" s="14" t="s">
         <v>20</v>
       </c>
@@ -11414,12 +11467,14 @@
         <v>182</v>
       </c>
       <c r="E62" s="18">
-        <v>43796</v>
+        <v>43802</v>
       </c>
       <c r="F62" s="1">
         <v>6</v>
       </c>
-      <c r="G62" s="10"/>
+      <c r="G62" s="10">
+        <v>6</v>
+      </c>
       <c r="H62" s="14" t="s">
         <v>21</v>
       </c>
@@ -11439,12 +11494,14 @@
         <v>172</v>
       </c>
       <c r="E63" s="18">
-        <v>43797</v>
+        <v>43803</v>
       </c>
       <c r="F63" s="1">
         <v>4</v>
       </c>
-      <c r="G63" s="10"/>
+      <c r="G63" s="10">
+        <v>6</v>
+      </c>
       <c r="H63" s="14" t="s">
         <v>21</v>
       </c>
@@ -11464,12 +11521,14 @@
         <v>183</v>
       </c>
       <c r="E64" s="18">
-        <v>43798</v>
+        <v>43804</v>
       </c>
       <c r="F64" s="1">
         <v>5.5</v>
       </c>
-      <c r="G64" s="10"/>
+      <c r="G64" s="10">
+        <v>6</v>
+      </c>
       <c r="H64" s="14" t="s">
         <v>20</v>
       </c>
@@ -11489,19 +11548,21 @@
         <v>184</v>
       </c>
       <c r="E65" s="18">
-        <v>43799</v>
+        <v>43805</v>
       </c>
       <c r="F65" s="1">
         <v>6</v>
       </c>
-      <c r="G65" s="10"/>
+      <c r="G65" s="10">
+        <v>6</v>
+      </c>
       <c r="H65" s="14" t="s">
         <v>20</v>
       </c>
       <c r="I65" s="3"/>
     </row>
     <row r="66" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="85">
+      <c r="A66" s="76">
         <v>8</v>
       </c>
       <c r="B66" s="11"/>
@@ -11520,21 +11581,21 @@
       <c r="B67" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C67" s="77">
+      <c r="C67" s="85">
         <f>SUM(F60:F66)</f>
         <v>31.5</v>
       </c>
-      <c r="D67" s="77"/>
-      <c r="E67" s="77"/>
-      <c r="F67" s="78"/>
+      <c r="D67" s="85"/>
+      <c r="E67" s="85"/>
+      <c r="F67" s="86"/>
       <c r="G67" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H67" s="77">
+      <c r="H67" s="85">
         <f>SUM(G60:G66)</f>
-        <v>0</v>
-      </c>
-      <c r="I67" s="78"/>
+        <v>34</v>
+      </c>
+      <c r="I67" s="86"/>
     </row>
     <row r="68" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="10">
@@ -11546,16 +11607,18 @@
       <c r="C68" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D68" s="84" t="s">
-        <v>185</v>
+      <c r="D68" s="75" t="s">
+        <v>188</v>
       </c>
       <c r="E68" s="18">
-        <v>43801</v>
+        <v>43807</v>
       </c>
       <c r="F68" s="10">
         <v>6</v>
       </c>
-      <c r="G68" s="10"/>
+      <c r="G68" s="10">
+        <v>6</v>
+      </c>
       <c r="H68" s="14" t="s">
         <v>20</v>
       </c>
@@ -11569,16 +11632,20 @@
         <v>10</v>
       </c>
       <c r="C69" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="D69" s="56"/>
+        <v>19</v>
+      </c>
+      <c r="D69" s="56" t="s">
+        <v>186</v>
+      </c>
       <c r="E69" s="18">
-        <v>43802</v>
+        <v>43808</v>
       </c>
       <c r="F69" s="10">
-        <v>4</v>
-      </c>
-      <c r="G69" s="10"/>
+        <v>5</v>
+      </c>
+      <c r="G69" s="10">
+        <v>6</v>
+      </c>
       <c r="H69" s="14" t="s">
         <v>20</v>
       </c>
@@ -11598,12 +11665,14 @@
         <v>185</v>
       </c>
       <c r="E70" s="18">
-        <v>43803</v>
+        <v>43809</v>
       </c>
       <c r="F70" s="1">
         <v>6</v>
       </c>
-      <c r="G70" s="10"/>
+      <c r="G70" s="10">
+        <v>6</v>
+      </c>
       <c r="H70" s="14" t="s">
         <v>21</v>
       </c>
@@ -11619,18 +11688,20 @@
       <c r="C71" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="D71" s="57" t="s">
-        <v>186</v>
+      <c r="D71" s="63" t="s">
+        <v>187</v>
       </c>
       <c r="E71" s="18">
-        <v>43804</v>
+        <v>43810</v>
       </c>
       <c r="F71" s="1">
-        <v>4</v>
-      </c>
-      <c r="G71" s="10"/>
+        <v>6</v>
+      </c>
+      <c r="G71" s="10">
+        <v>6</v>
+      </c>
       <c r="H71" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I71" s="3"/>
     </row>
@@ -11642,20 +11713,20 @@
         <v>13</v>
       </c>
       <c r="C72" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="D72" s="63" t="s">
-        <v>187</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="D72" s="57"/>
       <c r="E72" s="18">
-        <v>43805</v>
+        <v>43811</v>
       </c>
       <c r="F72" s="1">
-        <v>5.5</v>
-      </c>
-      <c r="G72" s="10"/>
+        <v>4</v>
+      </c>
+      <c r="G72" s="10">
+        <v>4</v>
+      </c>
       <c r="H72" s="14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I72" s="3"/>
     </row>
@@ -11673,19 +11744,21 @@
         <v>184</v>
       </c>
       <c r="E73" s="18">
-        <v>43806</v>
+        <v>43812</v>
       </c>
       <c r="F73" s="1">
         <v>6</v>
       </c>
-      <c r="G73" s="10"/>
+      <c r="G73" s="10">
+        <v>6</v>
+      </c>
       <c r="H73" s="14" t="s">
         <v>20</v>
       </c>
       <c r="I73" s="3"/>
     </row>
     <row r="74" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="85">
+      <c r="A74" s="76">
         <v>9</v>
       </c>
       <c r="B74" s="11"/>
@@ -11704,52 +11777,251 @@
       <c r="B75" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C75" s="77">
+      <c r="C75" s="85">
         <f>SUM(F68:F74)</f>
-        <v>31.5</v>
-      </c>
-      <c r="D75" s="77"/>
-      <c r="E75" s="77"/>
-      <c r="F75" s="78"/>
+        <v>33</v>
+      </c>
+      <c r="D75" s="85"/>
+      <c r="E75" s="85"/>
+      <c r="F75" s="86"/>
       <c r="G75" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H75" s="77">
+      <c r="H75" s="85">
         <f>SUM(G68:G74)</f>
-        <v>0</v>
-      </c>
-      <c r="I75" s="78"/>
+        <v>34</v>
+      </c>
+      <c r="I75" s="86"/>
+    </row>
+    <row r="76" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="10">
+        <v>10</v>
+      </c>
+      <c r="B76" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C76" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D76" s="75" t="s">
+        <v>189</v>
+      </c>
+      <c r="E76" s="18">
+        <v>43814</v>
+      </c>
+      <c r="F76" s="10">
+        <v>6</v>
+      </c>
+      <c r="G76" s="10">
+        <v>6</v>
+      </c>
+      <c r="H76" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I76" s="15"/>
+    </row>
+    <row r="77" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="10">
+        <v>10</v>
+      </c>
+      <c r="B77" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C77" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D77" s="75" t="s">
+        <v>190</v>
+      </c>
+      <c r="E77" s="18">
+        <v>43815</v>
+      </c>
+      <c r="F77" s="10">
+        <v>4</v>
+      </c>
+      <c r="G77" s="10">
+        <v>4</v>
+      </c>
+      <c r="H77" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I77" s="15"/>
+    </row>
+    <row r="78" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="10">
+        <v>10</v>
+      </c>
+      <c r="B78" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C78" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D78" s="57" t="s">
+        <v>97</v>
+      </c>
+      <c r="E78" s="18">
+        <v>43816</v>
+      </c>
+      <c r="F78" s="1">
+        <v>6</v>
+      </c>
+      <c r="G78" s="10">
+        <v>6</v>
+      </c>
+      <c r="H78" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I78" s="3"/>
+    </row>
+    <row r="79" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="10">
+        <v>10</v>
+      </c>
+      <c r="B79" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C79" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="D79" s="57"/>
+      <c r="E79" s="18">
+        <v>43817</v>
+      </c>
+      <c r="F79" s="1">
+        <v>4</v>
+      </c>
+      <c r="G79" s="10">
+        <v>6</v>
+      </c>
+      <c r="H79" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I79" s="3"/>
+    </row>
+    <row r="80" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="10">
+        <v>10</v>
+      </c>
+      <c r="B80" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C80" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D80" s="63" t="s">
+        <v>100</v>
+      </c>
+      <c r="E80" s="18">
+        <v>43818</v>
+      </c>
+      <c r="F80" s="1">
+        <v>5</v>
+      </c>
+      <c r="G80" s="10">
+        <v>6</v>
+      </c>
+      <c r="H80" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I80" s="3"/>
+    </row>
+    <row r="81" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A81" s="10">
+        <v>10</v>
+      </c>
+      <c r="B81" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="C81" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D81" s="63" t="s">
+        <v>184</v>
+      </c>
+      <c r="E81" s="18">
+        <v>43819</v>
+      </c>
+      <c r="F81" s="1">
+        <v>6</v>
+      </c>
+      <c r="G81" s="10">
+        <v>6</v>
+      </c>
+      <c r="H81" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I81" s="3"/>
+    </row>
+    <row r="82" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="10">
+        <v>10</v>
+      </c>
+      <c r="B82" s="11"/>
+      <c r="C82" s="9"/>
+      <c r="D82" s="59"/>
+      <c r="E82" s="16"/>
+      <c r="F82" s="9"/>
+      <c r="G82" s="9"/>
+      <c r="H82" s="14"/>
+      <c r="I82" s="5"/>
+    </row>
+    <row r="83" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="87">
+        <v>10</v>
+      </c>
+      <c r="B83" s="67" t="s">
+        <v>16</v>
+      </c>
+      <c r="C83" s="85">
+        <f>SUM(F76:F82)</f>
+        <v>31</v>
+      </c>
+      <c r="D83" s="85"/>
+      <c r="E83" s="85"/>
+      <c r="F83" s="86"/>
+      <c r="G83" s="66" t="s">
+        <v>17</v>
+      </c>
+      <c r="H83" s="85">
+        <f>SUM(G76:G82)</f>
+        <v>34</v>
+      </c>
+      <c r="I83" s="86"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="21">
+    <mergeCell ref="C83:F83"/>
+    <mergeCell ref="H83:I83"/>
     <mergeCell ref="C59:F59"/>
     <mergeCell ref="H59:I59"/>
     <mergeCell ref="C67:F67"/>
     <mergeCell ref="H67:I67"/>
     <mergeCell ref="C75:F75"/>
     <mergeCell ref="H75:I75"/>
+    <mergeCell ref="C51:F51"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="H19:I19"/>
     <mergeCell ref="C27:F27"/>
     <mergeCell ref="H27:I27"/>
     <mergeCell ref="C35:F35"/>
     <mergeCell ref="H35:I35"/>
     <mergeCell ref="C43:F43"/>
     <mergeCell ref="H43:I43"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="C51:F51"/>
-    <mergeCell ref="H51:I51"/>
   </mergeCells>
+  <phoneticPr fontId="8" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10 C18 C26 C34 C42 C50 C58 C66 C74" xr:uid="{37F695A9-FAA1-4B0C-BCF8-EDBE86D67943}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10 C18 C26 C34 C42 C50 C58 C66 C74 C82" xr:uid="{37F695A9-FAA1-4B0C-BCF8-EDBE86D67943}">
       <formula1>"Project Management, Requirement, Architecture and Desgin, Implementation, Testing, Training, Meetting Customer, Meetting Mentor"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C9 C12:C17 C20:C25 C28:C33 C36:C41 C44:C49 C52:C57 C61:C65 C69:C73" xr:uid="{4DC3D9AA-11CE-4711-9ED3-197750CC8F84}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C9 C12:C17 C20:C25 C28:C33 C36:C41 C44:C49 C52:C57 C61:C65 C77:C81 C69:C73" xr:uid="{4DC3D9AA-11CE-4711-9ED3-197750CC8F84}">
       <formula1>"Project Management, Requirement, Architecture and Desgin, Implementation, Testing, Training, Meetting Customer, Meeting Mentor"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:H10 H12:H18 H20:H26 H28:H34 H36:H42 H44:H50 H68:H74 H60:H66 H52:H58" xr:uid="{2584A001-B154-4F5B-91E6-3C188ADCF05D}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:H10 H12:H18 H20:H26 H28:H34 H36:H42 H44:H50 H76:H82 H60:H66 H52:H58 H68:H74" xr:uid="{2584A001-B154-4F5B-91E6-3C188ADCF05D}">
       <formula1>"Done,Inprogress "</formula1>
     </dataValidation>
     <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3" xr:uid="{EBEBF163-72C9-402A-BB5E-65147965157F}">

--- a/Improgress/4. Timelog/PM_TimeLog.xlsx
+++ b/Improgress/4. Timelog/PM_TimeLog.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\Capstone-Project\Improgress\4. Timelog\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HOME\Documents\GitHub\Capstone-Project\Improgress\4. Timelog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E811E73-8E9A-4F03-9B18-6B06C458AF38}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{797B0B42-4D29-400D-828A-77AC573BDB72}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="7" r:id="rId1"/>
@@ -28,9 +28,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -41,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1129" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1329" uniqueCount="212">
   <si>
     <t>Work in period</t>
   </si>
@@ -323,9 +321,6 @@
   </si>
   <si>
     <t>find another app like webgis</t>
-  </si>
-  <si>
-    <t>choose model</t>
   </si>
   <si>
     <t>Install qgis</t>
@@ -634,6 +629,72 @@
   </si>
   <si>
     <t>publish applications to GoogleStore</t>
+  </si>
+  <si>
+    <t>Research</t>
+  </si>
+  <si>
+    <t>Project</t>
+  </si>
+  <si>
+    <t>Research model</t>
+  </si>
+  <si>
+    <t>Architecter plan document</t>
+  </si>
+  <si>
+    <t>research react</t>
+  </si>
+  <si>
+    <t>Architecture process document</t>
+  </si>
+  <si>
+    <t>Document quality management</t>
+  </si>
+  <si>
+    <t>Meeting team</t>
+  </si>
+  <si>
+    <t>UC description</t>
+  </si>
+  <si>
+    <t>Meetting mentor</t>
+  </si>
+  <si>
+    <t>Data design</t>
+  </si>
+  <si>
+    <t>Data distionary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Architect </t>
+  </si>
+  <si>
+    <t>Architecture driver document</t>
+  </si>
+  <si>
+    <t>Architecture design document</t>
+  </si>
+  <si>
+    <t>Detail design</t>
+  </si>
+  <si>
+    <t>UC description detail module 1</t>
+  </si>
+  <si>
+    <t>Install react native invironment</t>
+  </si>
+  <si>
+    <t>Research JS</t>
+  </si>
+  <si>
+    <t>Review</t>
+  </si>
+  <si>
+    <t>Research firebase</t>
+  </si>
+  <si>
+    <t>Connect firebase with project</t>
   </si>
 </sst>
 </file>
@@ -716,7 +777,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -746,8 +807,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="33">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -1151,6 +1218,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1165,7 +1247,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1308,19 +1390,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1366,6 +1439,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1378,12 +1460,6 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1393,22 +1469,78 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
     <cellStyle name="Accent6" xfId="1" builtinId="49"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
+    <cellStyle name="Siêu kết nối" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Siêu kết nối" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Siêu kết nối" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Siêu kết nối" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Siêu kết nối đã Bấm vào" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Siêu kết nối đã Bấm vào" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Siêu kết nối đã Bấm vào" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Siêu kết nối đã Bấm vào" xfId="10" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1426,7 +1558,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="vi-VN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1994,7 +2126,7 @@
                   <c:v>26.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18.5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3458,16 +3590,16 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" style="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.33203125" style="12" bestFit="1" customWidth="1"/>
     <col min="2" max="10" width="9" style="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="38" width="10.28515625" style="12" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="6.7109375" style="12" bestFit="1" customWidth="1"/>
-    <col min="40" max="16384" width="8.85546875" style="12"/>
+    <col min="11" max="38" width="10.33203125" style="12" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="6.6640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="40" max="16384" width="8.88671875" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:39" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="28" t="s">
         <v>5</v>
       </c>
@@ -3586,7 +3718,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:39" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="32" t="s">
         <v>66</v>
       </c>
@@ -3641,9 +3773,9 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:39" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="37" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B3" s="36">
         <f>'Quốc Nhân'!C11</f>
@@ -3693,17 +3825,17 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:39" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="32" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B4" s="40">
         <f>'Vương Trương'!C11</f>
         <v>26.5</v>
       </c>
-      <c r="C4" s="40">
+      <c r="C4" s="40" t="str">
         <f>'Vương Trương'!C20</f>
-        <v>18.5</v>
+        <v>Research</v>
       </c>
       <c r="D4" s="33"/>
       <c r="E4" s="34"/>
@@ -3742,12 +3874,12 @@
       <c r="AL4" s="35"/>
       <c r="AM4" s="35">
         <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>26.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="37" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B5" s="36">
         <f>'Anh Minh'!C11</f>
@@ -3797,9 +3929,9 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:39" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="41" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B6" s="42" t="e">
         <f>'Như Phương'!#REF!</f>
@@ -3849,7 +3981,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="7" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:39" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="12" t="e">
         <f>SUM(B2:B6)</f>
         <v>#REF!</v>
@@ -3999,7 +4131,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="8" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:39" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="45" t="s">
         <v>23</v>
       </c>
@@ -4118,19 +4250,19 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:39" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="B9" s="64">
+      <c r="B9" s="61">
         <f>'Đạt Huỳnh'!H11</f>
         <v>30</v>
       </c>
-      <c r="C9" s="65">
+      <c r="C9" s="62">
         <f>'Đạt Huỳnh'!H20</f>
         <v>34</v>
       </c>
-      <c r="D9" s="64">
+      <c r="D9" s="61">
         <f>'Đạt Huỳnh'!H30</f>
         <v>38</v>
       </c>
@@ -4173,9 +4305,9 @@
         <v>102</v>
       </c>
     </row>
-    <row r="10" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:39" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="37" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B10" s="36">
         <f>'Quốc Nhân'!H11</f>
@@ -4225,17 +4357,17 @@
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:39" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="32" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B11" s="40">
         <f>'Vương Trương'!H11</f>
         <v>27.5</v>
       </c>
-      <c r="C11" s="40">
+      <c r="C11" s="40" t="str">
         <f>'Vương Trương'!H20</f>
-        <v>22</v>
+        <v>Done</v>
       </c>
       <c r="D11" s="32"/>
       <c r="E11" s="53"/>
@@ -4274,12 +4406,12 @@
       <c r="AL11" s="32"/>
       <c r="AM11" s="48">
         <f t="shared" si="22"/>
-        <v>49.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>27.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="37" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B12" s="36">
         <f>'Anh Minh'!H11</f>
@@ -4329,9 +4461,9 @@
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:39" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="41" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B13" s="42" t="e">
         <f>'Như Phương'!#REF!</f>
@@ -4381,7 +4513,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="e">
         <f>SUM(B9:B13)</f>
         <v>#REF!</v>
@@ -4546,21 +4678,21 @@
       <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.85546875" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="42.7109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.88671875" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.88671875" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.6640625" style="12" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="12" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" style="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.85546875" style="12"/>
-    <col min="8" max="8" width="12.140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="49.28515625" style="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.85546875" style="12"/>
+    <col min="7" max="7" width="8.88671875" style="12"/>
+    <col min="8" max="8" width="12.109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="49.33203125" style="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.88671875" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>65</v>
       </c>
@@ -4575,7 +4707,7 @@
       <c r="H1" s="21"/>
       <c r="I1" s="22"/>
     </row>
-    <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A2" s="78" t="s">
         <v>0</v>
       </c>
@@ -4588,7 +4720,7 @@
       <c r="H2" s="80"/>
       <c r="I2" s="81"/>
     </row>
-    <row r="3" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="24" t="s">
         <v>1</v>
       </c>
@@ -4617,7 +4749,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
         <v>1</v>
       </c>
@@ -4642,7 +4774,7 @@
       </c>
       <c r="I4" s="15"/>
     </row>
-    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
         <v>1</v>
       </c>
@@ -4669,7 +4801,7 @@
       </c>
       <c r="I5" s="15"/>
     </row>
-    <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -4696,7 +4828,7 @@
       </c>
       <c r="I6" s="3"/>
     </row>
-    <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -4723,7 +4855,7 @@
       </c>
       <c r="I7" s="3"/>
     </row>
-    <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1</v>
       </c>
@@ -4748,7 +4880,7 @@
       </c>
       <c r="I8" s="3"/>
     </row>
-    <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>1</v>
       </c>
@@ -4759,7 +4891,7 @@
         <v>19</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E9" s="16" t="s">
         <v>75</v>
@@ -4775,7 +4907,7 @@
       </c>
       <c r="I9" s="3"/>
     </row>
-    <row r="10" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="9"/>
       <c r="B10" s="11"/>
       <c r="C10" s="9"/>
@@ -4786,30 +4918,30 @@
       <c r="H10" s="14"/>
       <c r="I10" s="5"/>
     </row>
-    <row r="11" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="67" t="s">
+    <row r="11" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="67" t="s">
+      <c r="B11" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="82">
+      <c r="C11" s="76">
         <f>SUM(F4:F10)</f>
         <v>30</v>
       </c>
-      <c r="D11" s="82"/>
-      <c r="E11" s="82"/>
-      <c r="F11" s="83"/>
-      <c r="G11" s="66" t="s">
+      <c r="D11" s="76"/>
+      <c r="E11" s="76"/>
+      <c r="F11" s="77"/>
+      <c r="G11" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="82">
+      <c r="H11" s="76">
         <f>SUM(G4:G10)</f>
         <v>30</v>
       </c>
-      <c r="I11" s="83"/>
-    </row>
-    <row r="12" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I11" s="77"/>
+    </row>
+    <row r="12" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="24" t="s">
         <v>1</v>
       </c>
@@ -4838,7 +4970,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A13" s="10">
         <v>2</v>
       </c>
@@ -4865,7 +4997,7 @@
       </c>
       <c r="I13" s="15"/>
     </row>
-    <row r="14" spans="1:9" ht="30" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
         <v>2</v>
       </c>
@@ -4894,7 +5026,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A15" s="10">
         <v>2</v>
       </c>
@@ -4919,7 +5051,7 @@
       </c>
       <c r="I15" s="3"/>
     </row>
-    <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A16" s="10">
         <v>2</v>
       </c>
@@ -4946,7 +5078,7 @@
       </c>
       <c r="I16" s="3"/>
     </row>
-    <row r="17" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A17" s="10">
         <v>2</v>
       </c>
@@ -4969,7 +5101,7 @@
       <c r="H17" s="14"/>
       <c r="I17" s="3"/>
     </row>
-    <row r="18" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A18" s="10">
         <v>2</v>
       </c>
@@ -4992,7 +5124,7 @@
       <c r="H18" s="14"/>
       <c r="I18" s="3"/>
     </row>
-    <row r="19" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="9"/>
       <c r="B19" s="11"/>
       <c r="C19" s="9"/>
@@ -5003,30 +5135,30 @@
       <c r="H19" s="14"/>
       <c r="I19" s="5"/>
     </row>
-    <row r="20" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="67" t="s">
+    <row r="20" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="67" t="s">
+      <c r="B20" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="82">
+      <c r="C20" s="76">
         <f>SUM(F13:F19)</f>
         <v>22</v>
       </c>
-      <c r="D20" s="82"/>
-      <c r="E20" s="82"/>
-      <c r="F20" s="83"/>
-      <c r="G20" s="66" t="s">
+      <c r="D20" s="76"/>
+      <c r="E20" s="76"/>
+      <c r="F20" s="77"/>
+      <c r="G20" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="H20" s="82">
+      <c r="H20" s="76">
         <f>SUM(G13:G19)</f>
         <v>34</v>
       </c>
-      <c r="I20" s="83"/>
-    </row>
-    <row r="21" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I20" s="77"/>
+    </row>
+    <row r="21" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="24" t="s">
         <v>1</v>
       </c>
@@ -5055,7 +5187,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="10">
         <v>3</v>
       </c>
@@ -5066,9 +5198,9 @@
         <v>19</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="E22" s="60">
+        <v>111</v>
+      </c>
+      <c r="E22" s="59">
         <v>43766</v>
       </c>
       <c r="F22" s="6"/>
@@ -5080,7 +5212,7 @@
       </c>
       <c r="I22" s="15"/>
     </row>
-    <row r="23" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="10">
         <v>3</v>
       </c>
@@ -5091,9 +5223,9 @@
         <v>19</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="E23" s="60">
+        <v>111</v>
+      </c>
+      <c r="E23" s="59">
         <v>43767</v>
       </c>
       <c r="F23" s="6"/>
@@ -5105,7 +5237,7 @@
       </c>
       <c r="I23" s="15"/>
     </row>
-    <row r="24" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="10">
         <v>3</v>
       </c>
@@ -5116,7 +5248,7 @@
         <v>63</v>
       </c>
       <c r="D24" s="13"/>
-      <c r="E24" s="60">
+      <c r="E24" s="59">
         <v>43798</v>
       </c>
       <c r="F24" s="6"/>
@@ -5126,7 +5258,7 @@
       <c r="H24" s="14"/>
       <c r="I24" s="15"/>
     </row>
-    <row r="25" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="10">
         <v>3</v>
       </c>
@@ -5136,7 +5268,7 @@
       <c r="C25" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="E25" s="60">
+      <c r="E25" s="59">
         <v>43768</v>
       </c>
       <c r="F25" s="7"/>
@@ -5146,7 +5278,7 @@
       <c r="H25" s="14"/>
       <c r="I25" s="3"/>
     </row>
-    <row r="26" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="10">
         <v>3</v>
       </c>
@@ -5157,9 +5289,9 @@
         <v>19</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E26" s="60">
+        <v>114</v>
+      </c>
+      <c r="E26" s="59">
         <v>43769</v>
       </c>
       <c r="F26" s="7"/>
@@ -5169,7 +5301,7 @@
       <c r="H26" s="14"/>
       <c r="I26" s="3"/>
     </row>
-    <row r="27" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="10">
         <v>3</v>
       </c>
@@ -5180,9 +5312,9 @@
         <v>19</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E27" s="60">
+        <v>113</v>
+      </c>
+      <c r="E27" s="59">
         <v>43770</v>
       </c>
       <c r="F27" s="7"/>
@@ -5192,20 +5324,20 @@
       <c r="H27" s="14"/>
       <c r="I27" s="3"/>
     </row>
-    <row r="28" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A28" s="10">
         <v>3</v>
       </c>
-      <c r="B28" s="68" t="s">
+      <c r="B28" s="65" t="s">
         <v>14</v>
       </c>
       <c r="C28" s="25" t="s">
         <v>19</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E28" s="60">
+        <v>113</v>
+      </c>
+      <c r="E28" s="59">
         <v>43771</v>
       </c>
       <c r="F28" s="7"/>
@@ -5215,7 +5347,7 @@
       <c r="H28" s="14"/>
       <c r="I28" s="3"/>
     </row>
-    <row r="29" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="9"/>
       <c r="C29" s="9"/>
       <c r="E29" s="16"/>
@@ -5224,30 +5356,30 @@
       <c r="H29" s="14"/>
       <c r="I29" s="5"/>
     </row>
-    <row r="30" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="67" t="s">
+    <row r="30" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="B30" s="67" t="s">
+      <c r="B30" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="C30" s="82">
+      <c r="C30" s="76">
         <f>SUM(F22:F29)</f>
         <v>0</v>
       </c>
-      <c r="D30" s="82"/>
-      <c r="E30" s="82"/>
-      <c r="F30" s="83"/>
-      <c r="G30" s="66" t="s">
+      <c r="D30" s="76"/>
+      <c r="E30" s="76"/>
+      <c r="F30" s="77"/>
+      <c r="G30" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="H30" s="82">
+      <c r="H30" s="76">
         <f>SUM(G22:G29)</f>
         <v>38</v>
       </c>
-      <c r="I30" s="83"/>
-    </row>
-    <row r="31" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I30" s="77"/>
+    </row>
+    <row r="31" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="24" t="s">
         <v>1</v>
       </c>
@@ -5276,7 +5408,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="10">
         <v>4</v>
       </c>
@@ -5285,7 +5417,7 @@
       </c>
       <c r="C32" s="25"/>
       <c r="D32" s="13"/>
-      <c r="E32" s="60">
+      <c r="E32" s="59">
         <v>43773</v>
       </c>
       <c r="F32" s="6"/>
@@ -5293,7 +5425,7 @@
       <c r="H32" s="14"/>
       <c r="I32" s="15"/>
     </row>
-    <row r="33" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="10">
         <v>4</v>
       </c>
@@ -5302,7 +5434,7 @@
       </c>
       <c r="C33" s="25"/>
       <c r="D33" s="13"/>
-      <c r="E33" s="60">
+      <c r="E33" s="59">
         <v>43774</v>
       </c>
       <c r="F33" s="6"/>
@@ -5310,7 +5442,7 @@
       <c r="H33" s="14"/>
       <c r="I33" s="15"/>
     </row>
-    <row r="34" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="10">
         <v>4</v>
       </c>
@@ -5319,7 +5451,7 @@
       </c>
       <c r="C34" s="25"/>
       <c r="D34" s="2"/>
-      <c r="E34" s="60">
+      <c r="E34" s="59">
         <v>43775</v>
       </c>
       <c r="F34" s="7"/>
@@ -5327,7 +5459,7 @@
       <c r="H34" s="14"/>
       <c r="I34" s="3"/>
     </row>
-    <row r="35" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="10">
         <v>4</v>
       </c>
@@ -5336,7 +5468,7 @@
       </c>
       <c r="C35" s="25"/>
       <c r="D35" s="2"/>
-      <c r="E35" s="60">
+      <c r="E35" s="59">
         <v>43776</v>
       </c>
       <c r="F35" s="7"/>
@@ -5344,16 +5476,16 @@
       <c r="H35" s="14"/>
       <c r="I35" s="3"/>
     </row>
-    <row r="36" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="10">
         <v>4</v>
       </c>
-      <c r="B36" s="68" t="s">
+      <c r="B36" s="65" t="s">
         <v>13</v>
       </c>
       <c r="C36" s="25"/>
       <c r="D36" s="2"/>
-      <c r="E36" s="60">
+      <c r="E36" s="59">
         <v>43777</v>
       </c>
       <c r="F36" s="7"/>
@@ -5361,20 +5493,20 @@
       <c r="H36" s="14"/>
       <c r="I36" s="3"/>
     </row>
-    <row r="37" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A37" s="10">
         <v>4</v>
       </c>
-      <c r="B37" s="68" t="s">
+      <c r="B37" s="65" t="s">
         <v>14</v>
       </c>
       <c r="C37" s="25" t="s">
         <v>19</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E37" s="60">
+        <v>115</v>
+      </c>
+      <c r="E37" s="59">
         <v>43778</v>
       </c>
       <c r="F37" s="7"/>
@@ -5382,7 +5514,7 @@
       <c r="H37" s="14"/>
       <c r="I37" s="3"/>
     </row>
-    <row r="38" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="9"/>
       <c r="C38" s="9"/>
       <c r="D38" s="4"/>
@@ -5392,30 +5524,30 @@
       <c r="H38" s="14"/>
       <c r="I38" s="5"/>
     </row>
-    <row r="39" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="67" t="s">
+    <row r="39" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="B39" s="67" t="s">
+      <c r="B39" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="C39" s="82">
+      <c r="C39" s="76">
         <f>SUM(F32:F38)</f>
         <v>0</v>
       </c>
-      <c r="D39" s="82"/>
-      <c r="E39" s="82"/>
-      <c r="F39" s="83"/>
-      <c r="G39" s="66" t="s">
+      <c r="D39" s="76"/>
+      <c r="E39" s="76"/>
+      <c r="F39" s="77"/>
+      <c r="G39" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="H39" s="82">
+      <c r="H39" s="76">
         <f>SUM(G32:G38)</f>
         <v>0</v>
       </c>
-      <c r="I39" s="83"/>
-    </row>
-    <row r="40" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I39" s="77"/>
+    </row>
+    <row r="40" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="24" t="s">
         <v>1</v>
       </c>
@@ -5444,7 +5576,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="10">
         <v>5</v>
       </c>
@@ -5453,7 +5585,7 @@
       </c>
       <c r="C41" s="25"/>
       <c r="D41" s="13"/>
-      <c r="E41" s="60">
+      <c r="E41" s="59">
         <v>43780</v>
       </c>
       <c r="F41" s="6"/>
@@ -5461,7 +5593,7 @@
       <c r="H41" s="14"/>
       <c r="I41" s="15"/>
     </row>
-    <row r="42" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="10">
         <v>5</v>
       </c>
@@ -5470,7 +5602,7 @@
       </c>
       <c r="C42" s="25"/>
       <c r="D42" s="13"/>
-      <c r="E42" s="60">
+      <c r="E42" s="59">
         <v>43781</v>
       </c>
       <c r="F42" s="6"/>
@@ -5478,7 +5610,7 @@
       <c r="H42" s="14"/>
       <c r="I42" s="15"/>
     </row>
-    <row r="43" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="10">
         <v>5</v>
       </c>
@@ -5487,7 +5619,7 @@
       </c>
       <c r="C43" s="25"/>
       <c r="D43" s="2"/>
-      <c r="E43" s="60">
+      <c r="E43" s="59">
         <v>43782</v>
       </c>
       <c r="F43" s="7"/>
@@ -5495,7 +5627,7 @@
       <c r="H43" s="14"/>
       <c r="I43" s="3"/>
     </row>
-    <row r="44" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="10">
         <v>5</v>
       </c>
@@ -5504,7 +5636,7 @@
       </c>
       <c r="C44" s="25"/>
       <c r="D44" s="2"/>
-      <c r="E44" s="60">
+      <c r="E44" s="59">
         <v>43783</v>
       </c>
       <c r="F44" s="7"/>
@@ -5512,16 +5644,16 @@
       <c r="H44" s="14"/>
       <c r="I44" s="3"/>
     </row>
-    <row r="45" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="10">
         <v>5</v>
       </c>
-      <c r="B45" s="68" t="s">
+      <c r="B45" s="65" t="s">
         <v>13</v>
       </c>
       <c r="C45" s="25"/>
       <c r="D45" s="2"/>
-      <c r="E45" s="60">
+      <c r="E45" s="59">
         <v>43784</v>
       </c>
       <c r="F45" s="7"/>
@@ -5529,16 +5661,16 @@
       <c r="H45" s="14"/>
       <c r="I45" s="3"/>
     </row>
-    <row r="46" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A46" s="10">
         <v>5</v>
       </c>
-      <c r="B46" s="68" t="s">
+      <c r="B46" s="65" t="s">
         <v>14</v>
       </c>
       <c r="C46" s="25"/>
       <c r="D46" s="2"/>
-      <c r="E46" s="60">
+      <c r="E46" s="59">
         <v>43785</v>
       </c>
       <c r="F46" s="7"/>
@@ -5546,7 +5678,7 @@
       <c r="H46" s="14"/>
       <c r="I46" s="3"/>
     </row>
-    <row r="47" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="9"/>
       <c r="C47" s="9"/>
       <c r="D47" s="4"/>
@@ -5556,30 +5688,30 @@
       <c r="H47" s="14"/>
       <c r="I47" s="5"/>
     </row>
-    <row r="48" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="67" t="s">
+    <row r="48" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="B48" s="67" t="s">
+      <c r="B48" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="C48" s="82">
+      <c r="C48" s="76">
         <f>SUM(F41:F47)</f>
         <v>0</v>
       </c>
-      <c r="D48" s="82"/>
-      <c r="E48" s="82"/>
-      <c r="F48" s="83"/>
-      <c r="G48" s="66" t="s">
+      <c r="D48" s="76"/>
+      <c r="E48" s="76"/>
+      <c r="F48" s="77"/>
+      <c r="G48" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="H48" s="82">
+      <c r="H48" s="76">
         <f>SUM(G41:G47)</f>
         <v>0</v>
       </c>
-      <c r="I48" s="83"/>
-    </row>
-    <row r="49" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I48" s="77"/>
+    </row>
+    <row r="49" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="24" t="s">
         <v>1</v>
       </c>
@@ -5608,7 +5740,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="10">
         <v>6</v>
       </c>
@@ -5617,7 +5749,7 @@
       </c>
       <c r="C50" s="25"/>
       <c r="D50" s="13"/>
-      <c r="E50" s="60">
+      <c r="E50" s="59">
         <v>43787</v>
       </c>
       <c r="F50" s="6"/>
@@ -5625,7 +5757,7 @@
       <c r="H50" s="14"/>
       <c r="I50" s="15"/>
     </row>
-    <row r="51" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="10">
         <v>6</v>
       </c>
@@ -5634,7 +5766,7 @@
       </c>
       <c r="C51" s="25"/>
       <c r="D51" s="13"/>
-      <c r="E51" s="60">
+      <c r="E51" s="59">
         <v>43788</v>
       </c>
       <c r="F51" s="6"/>
@@ -5642,7 +5774,7 @@
       <c r="H51" s="14"/>
       <c r="I51" s="15"/>
     </row>
-    <row r="52" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="10">
         <v>6</v>
       </c>
@@ -5651,7 +5783,7 @@
       </c>
       <c r="C52" s="25"/>
       <c r="D52" s="2"/>
-      <c r="E52" s="60">
+      <c r="E52" s="59">
         <v>43789</v>
       </c>
       <c r="F52" s="7"/>
@@ -5659,7 +5791,7 @@
       <c r="H52" s="14"/>
       <c r="I52" s="3"/>
     </row>
-    <row r="53" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="10">
         <v>6</v>
       </c>
@@ -5668,7 +5800,7 @@
       </c>
       <c r="C53" s="25"/>
       <c r="D53" s="2"/>
-      <c r="E53" s="60">
+      <c r="E53" s="59">
         <v>43790</v>
       </c>
       <c r="F53" s="7"/>
@@ -5676,16 +5808,16 @@
       <c r="H53" s="14"/>
       <c r="I53" s="3"/>
     </row>
-    <row r="54" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="10">
         <v>6</v>
       </c>
-      <c r="B54" s="68" t="s">
+      <c r="B54" s="65" t="s">
         <v>13</v>
       </c>
       <c r="C54" s="25"/>
       <c r="D54" s="2"/>
-      <c r="E54" s="60">
+      <c r="E54" s="59">
         <v>43791</v>
       </c>
       <c r="F54" s="7"/>
@@ -5693,16 +5825,16 @@
       <c r="H54" s="14"/>
       <c r="I54" s="3"/>
     </row>
-    <row r="55" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A55" s="10">
         <v>6</v>
       </c>
-      <c r="B55" s="68" t="s">
+      <c r="B55" s="65" t="s">
         <v>14</v>
       </c>
       <c r="C55" s="25"/>
       <c r="D55" s="2"/>
-      <c r="E55" s="60">
+      <c r="E55" s="59">
         <v>43792</v>
       </c>
       <c r="F55" s="7"/>
@@ -5710,7 +5842,7 @@
       <c r="H55" s="14"/>
       <c r="I55" s="3"/>
     </row>
-    <row r="56" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="9"/>
       <c r="C56" s="9"/>
       <c r="D56" s="4"/>
@@ -5720,30 +5852,30 @@
       <c r="H56" s="14"/>
       <c r="I56" s="5"/>
     </row>
-    <row r="57" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="67" t="s">
+    <row r="57" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="B57" s="67" t="s">
+      <c r="B57" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="C57" s="82">
+      <c r="C57" s="76">
         <f>SUM(F50:F56)</f>
         <v>0</v>
       </c>
-      <c r="D57" s="82"/>
-      <c r="E57" s="82"/>
-      <c r="F57" s="83"/>
-      <c r="G57" s="66" t="s">
+      <c r="D57" s="76"/>
+      <c r="E57" s="76"/>
+      <c r="F57" s="77"/>
+      <c r="G57" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="H57" s="82">
+      <c r="H57" s="76">
         <f>SUM(G50:G56)</f>
         <v>0</v>
       </c>
-      <c r="I57" s="83"/>
-    </row>
-    <row r="58" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I57" s="77"/>
+    </row>
+    <row r="58" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="24" t="s">
         <v>1</v>
       </c>
@@ -5772,7 +5904,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="10">
         <v>7</v>
       </c>
@@ -5781,7 +5913,7 @@
       </c>
       <c r="C59" s="25"/>
       <c r="D59" s="13"/>
-      <c r="E59" s="60">
+      <c r="E59" s="59">
         <v>43794</v>
       </c>
       <c r="F59" s="6"/>
@@ -5789,7 +5921,7 @@
       <c r="H59" s="14"/>
       <c r="I59" s="15"/>
     </row>
-    <row r="60" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="10">
         <v>7</v>
       </c>
@@ -5798,7 +5930,7 @@
       </c>
       <c r="C60" s="25"/>
       <c r="D60" s="13"/>
-      <c r="E60" s="60">
+      <c r="E60" s="59">
         <v>43795</v>
       </c>
       <c r="F60" s="6"/>
@@ -5806,7 +5938,7 @@
       <c r="H60" s="14"/>
       <c r="I60" s="15"/>
     </row>
-    <row r="61" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="10">
         <v>7</v>
       </c>
@@ -5815,7 +5947,7 @@
       </c>
       <c r="C61" s="25"/>
       <c r="D61" s="2"/>
-      <c r="E61" s="60">
+      <c r="E61" s="59">
         <v>43796</v>
       </c>
       <c r="F61" s="7"/>
@@ -5823,7 +5955,7 @@
       <c r="H61" s="14"/>
       <c r="I61" s="3"/>
     </row>
-    <row r="62" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="10">
         <v>7</v>
       </c>
@@ -5832,7 +5964,7 @@
       </c>
       <c r="C62" s="25"/>
       <c r="D62" s="2"/>
-      <c r="E62" s="60">
+      <c r="E62" s="59">
         <v>43797</v>
       </c>
       <c r="F62" s="7"/>
@@ -5840,7 +5972,7 @@
       <c r="H62" s="14"/>
       <c r="I62" s="3"/>
     </row>
-    <row r="63" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="10">
         <v>7</v>
       </c>
@@ -5849,7 +5981,7 @@
       </c>
       <c r="C63" s="25"/>
       <c r="D63" s="2"/>
-      <c r="E63" s="60">
+      <c r="E63" s="59">
         <v>43798</v>
       </c>
       <c r="F63" s="7"/>
@@ -5857,7 +5989,7 @@
       <c r="H63" s="14"/>
       <c r="I63" s="3"/>
     </row>
-    <row r="64" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A64" s="10">
         <v>7</v>
       </c>
@@ -5866,7 +5998,7 @@
       </c>
       <c r="C64" s="25"/>
       <c r="D64" s="2"/>
-      <c r="E64" s="60">
+      <c r="E64" s="59">
         <v>43799</v>
       </c>
       <c r="F64" s="7"/>
@@ -5874,7 +6006,7 @@
       <c r="H64" s="14"/>
       <c r="I64" s="3"/>
     </row>
-    <row r="65" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="9"/>
       <c r="C65" s="9"/>
       <c r="D65" s="4"/>
@@ -5884,37 +6016,31 @@
       <c r="H65" s="14"/>
       <c r="I65" s="5"/>
     </row>
-    <row r="66" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="67" t="s">
+    <row r="66" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="B66" s="67" t="s">
+      <c r="B66" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="C66" s="82">
+      <c r="C66" s="76">
         <f>SUM(F59:F65)</f>
         <v>0</v>
       </c>
-      <c r="D66" s="82"/>
-      <c r="E66" s="82"/>
-      <c r="F66" s="83"/>
-      <c r="G66" s="66" t="s">
+      <c r="D66" s="76"/>
+      <c r="E66" s="76"/>
+      <c r="F66" s="77"/>
+      <c r="G66" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="H66" s="82">
+      <c r="H66" s="76">
         <f>SUM(G59:G65)</f>
         <v>0</v>
       </c>
-      <c r="I66" s="83"/>
+      <c r="I66" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="C66:F66"/>
-    <mergeCell ref="H66:I66"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="H20:I20"/>
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="C48:F48"/>
     <mergeCell ref="H48:I48"/>
@@ -5924,6 +6050,12 @@
     <mergeCell ref="H30:I30"/>
     <mergeCell ref="C39:F39"/>
     <mergeCell ref="H39:I39"/>
+    <mergeCell ref="C66:F66"/>
+    <mergeCell ref="H66:I66"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="H20:I20"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <dataValidations count="6">
@@ -5962,18 +6094,18 @@
       <selection activeCell="F67" sqref="F67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="57.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="49.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="57.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="49.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="20" t="s">
         <v>65</v>
       </c>
@@ -5988,7 +6120,7 @@
       <c r="H1" s="21"/>
       <c r="I1" s="22"/>
     </row>
-    <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="78" t="s">
         <v>0</v>
       </c>
@@ -6001,7 +6133,7 @@
       <c r="H2" s="80"/>
       <c r="I2" s="81"/>
     </row>
-    <row r="3" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="24" t="s">
         <v>1</v>
       </c>
@@ -6030,7 +6162,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="10">
         <v>1</v>
       </c>
@@ -6055,7 +6187,7 @@
       </c>
       <c r="I4" s="15"/>
     </row>
-    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="10">
         <v>1</v>
       </c>
@@ -6082,7 +6214,7 @@
       </c>
       <c r="I5" s="15"/>
     </row>
-    <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -6109,7 +6241,7 @@
       </c>
       <c r="I6" s="3"/>
     </row>
-    <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -6136,7 +6268,7 @@
       </c>
       <c r="I7" s="3"/>
     </row>
-    <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>1</v>
       </c>
@@ -6161,7 +6293,7 @@
       </c>
       <c r="I8" s="3"/>
     </row>
-    <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>1</v>
       </c>
@@ -6188,7 +6320,7 @@
       </c>
       <c r="I9" s="3"/>
     </row>
-    <row r="10" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="9"/>
       <c r="B10" s="11"/>
       <c r="C10" s="9"/>
@@ -6199,30 +6331,30 @@
       <c r="H10" s="14"/>
       <c r="I10" s="5"/>
     </row>
-    <row r="11" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="67" t="s">
+    <row r="11" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="67" t="s">
+      <c r="B11" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="84">
+      <c r="C11" s="82">
         <f>SUM(F4:F10)</f>
         <v>26</v>
       </c>
-      <c r="D11" s="82"/>
-      <c r="E11" s="82"/>
-      <c r="F11" s="83"/>
-      <c r="G11" s="66" t="s">
+      <c r="D11" s="76"/>
+      <c r="E11" s="76"/>
+      <c r="F11" s="77"/>
+      <c r="G11" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="82">
+      <c r="H11" s="76">
         <f>SUM(G4:G10)</f>
         <v>26</v>
       </c>
-      <c r="I11" s="83"/>
-    </row>
-    <row r="12" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I11" s="77"/>
+    </row>
+    <row r="12" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="24" t="s">
         <v>1</v>
       </c>
@@ -6251,7 +6383,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="10">
         <v>2</v>
       </c>
@@ -6280,7 +6412,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="10">
         <v>2</v>
       </c>
@@ -6307,7 +6439,7 @@
       </c>
       <c r="I14" s="15"/>
     </row>
-    <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="10">
         <v>2</v>
       </c>
@@ -6332,7 +6464,7 @@
       </c>
       <c r="I15" s="3"/>
     </row>
-    <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="10">
         <v>2</v>
       </c>
@@ -6361,7 +6493,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="10">
         <v>2</v>
       </c>
@@ -6388,7 +6520,7 @@
       </c>
       <c r="I17" s="3"/>
     </row>
-    <row r="18" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="10">
         <v>2</v>
       </c>
@@ -6402,7 +6534,7 @@
         <v>82</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F18" s="7">
         <v>5</v>
@@ -6415,7 +6547,7 @@
       </c>
       <c r="I18" s="3"/>
     </row>
-    <row r="19" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="9"/>
       <c r="B19" s="11"/>
       <c r="C19" s="9"/>
@@ -6426,30 +6558,30 @@
       <c r="H19" s="14"/>
       <c r="I19" s="5"/>
     </row>
-    <row r="20" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="67" t="s">
+    <row r="20" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="67" t="s">
+      <c r="B20" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="82">
+      <c r="C20" s="76">
         <f>SUM(F13:F19)</f>
         <v>30</v>
       </c>
-      <c r="D20" s="82"/>
-      <c r="E20" s="82"/>
-      <c r="F20" s="83"/>
-      <c r="G20" s="66" t="s">
+      <c r="D20" s="76"/>
+      <c r="E20" s="76"/>
+      <c r="F20" s="77"/>
+      <c r="G20" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="H20" s="82">
+      <c r="H20" s="76">
         <f>SUM(G13:G19)</f>
         <v>30</v>
       </c>
-      <c r="I20" s="83"/>
-    </row>
-    <row r="21" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I20" s="77"/>
+    </row>
+    <row r="21" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="24" t="s">
         <v>1</v>
       </c>
@@ -6478,7 +6610,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="10">
         <v>3</v>
       </c>
@@ -6488,8 +6620,8 @@
       <c r="C22" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="D22" s="69" t="s">
-        <v>118</v>
+      <c r="D22" s="66" t="s">
+        <v>117</v>
       </c>
       <c r="E22" s="18">
         <v>43766</v>
@@ -6503,7 +6635,7 @@
       </c>
       <c r="I22" s="15"/>
     </row>
-    <row r="23" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="10">
         <v>3</v>
       </c>
@@ -6513,8 +6645,8 @@
       <c r="C23" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="D23" s="69" t="s">
-        <v>119</v>
+      <c r="D23" s="66" t="s">
+        <v>118</v>
       </c>
       <c r="E23" s="18">
         <v>43767</v>
@@ -6527,10 +6659,10 @@
         <v>21</v>
       </c>
       <c r="I23" s="15" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="10">
         <v>3</v>
       </c>
@@ -6540,8 +6672,8 @@
       <c r="C24" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="D24" s="63" t="s">
-        <v>120</v>
+      <c r="D24" s="60" t="s">
+        <v>119</v>
       </c>
       <c r="E24" s="18">
         <v>43768</v>
@@ -6554,10 +6686,10 @@
         <v>21</v>
       </c>
       <c r="I24" s="15" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="10">
         <v>3</v>
       </c>
@@ -6568,7 +6700,7 @@
         <v>19</v>
       </c>
       <c r="D25" s="57" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E25" s="18">
         <v>43769</v>
@@ -6582,7 +6714,7 @@
       </c>
       <c r="I25" s="3"/>
     </row>
-    <row r="26" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="10">
         <v>3</v>
       </c>
@@ -6593,7 +6725,7 @@
         <v>61</v>
       </c>
       <c r="D26" s="57" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E26" s="18">
         <v>43770</v>
@@ -6607,18 +6739,18 @@
       </c>
       <c r="I26" s="3"/>
     </row>
-    <row r="27" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="10">
         <v>3</v>
       </c>
-      <c r="B27" s="68" t="s">
+      <c r="B27" s="65" t="s">
         <v>14</v>
       </c>
       <c r="C27" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D27" s="63" t="s">
-        <v>122</v>
+      <c r="D27" s="60" t="s">
+        <v>121</v>
       </c>
       <c r="E27" s="18">
         <v>43771</v>
@@ -6631,21 +6763,21 @@
         <v>21</v>
       </c>
       <c r="I27" s="15" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="9">
         <v>3</v>
       </c>
-      <c r="B28" s="68" t="s">
-        <v>124</v>
+      <c r="B28" s="65" t="s">
+        <v>123</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D28" s="57" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E28" s="18">
         <v>43772</v>
@@ -6659,30 +6791,30 @@
       </c>
       <c r="I28" s="5"/>
     </row>
-    <row r="29" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="67" t="s">
+    <row r="29" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="B29" s="67" t="s">
+      <c r="B29" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="82">
+      <c r="C29" s="76">
         <f>SUM(F22:F28)</f>
         <v>45</v>
       </c>
-      <c r="D29" s="82"/>
-      <c r="E29" s="82"/>
-      <c r="F29" s="83"/>
-      <c r="G29" s="66" t="s">
+      <c r="D29" s="76"/>
+      <c r="E29" s="76"/>
+      <c r="F29" s="77"/>
+      <c r="G29" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="H29" s="82">
+      <c r="H29" s="76">
         <f>SUM(G22:G28)</f>
         <v>0</v>
       </c>
-      <c r="I29" s="83"/>
-    </row>
-    <row r="30" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I29" s="77"/>
+    </row>
+    <row r="30" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="24" t="s">
         <v>1</v>
       </c>
@@ -6711,7 +6843,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" ht="45.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="10">
         <v>4</v>
       </c>
@@ -6721,8 +6853,8 @@
       <c r="C31" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="D31" s="69" t="s">
-        <v>128</v>
+      <c r="D31" s="66" t="s">
+        <v>127</v>
       </c>
       <c r="E31" s="18">
         <v>43773</v>
@@ -6733,10 +6865,10 @@
       <c r="G31" s="6"/>
       <c r="H31" s="14"/>
       <c r="I31" s="15" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="10">
         <v>4</v>
       </c>
@@ -6747,7 +6879,7 @@
         <v>63</v>
       </c>
       <c r="D32" s="57" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E32" s="18">
         <v>43774</v>
@@ -6759,7 +6891,7 @@
       <c r="H32" s="14"/>
       <c r="I32" s="15"/>
     </row>
-    <row r="33" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="10">
         <v>4</v>
       </c>
@@ -6767,10 +6899,10 @@
         <v>11</v>
       </c>
       <c r="C33" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="D33" s="57" t="s">
         <v>129</v>
-      </c>
-      <c r="D33" s="57" t="s">
-        <v>130</v>
       </c>
       <c r="E33" s="18">
         <v>43775</v>
@@ -6781,10 +6913,10 @@
       <c r="G33" s="7"/>
       <c r="H33" s="14"/>
       <c r="I33" s="15" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="10">
         <v>4</v>
       </c>
@@ -6795,7 +6927,7 @@
         <v>19</v>
       </c>
       <c r="D34" s="57" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E34" s="18">
         <v>43776</v>
@@ -6806,21 +6938,21 @@
       <c r="G34" s="7"/>
       <c r="H34" s="14"/>
       <c r="I34" s="3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="10">
         <v>4</v>
       </c>
-      <c r="B35" s="68" t="s">
+      <c r="B35" s="65" t="s">
         <v>13</v>
       </c>
       <c r="C35" s="25" t="s">
         <v>19</v>
       </c>
       <c r="D35" s="57" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E35" s="18">
         <v>43777</v>
@@ -6832,18 +6964,18 @@
       <c r="H35" s="14"/>
       <c r="I35" s="3"/>
     </row>
-    <row r="36" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="10">
         <v>4</v>
       </c>
-      <c r="B36" s="68" t="s">
+      <c r="B36" s="65" t="s">
         <v>14</v>
       </c>
       <c r="C36" s="25" t="s">
         <v>19</v>
       </c>
       <c r="D36" s="57" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E36" s="18">
         <v>43778</v>
@@ -6855,7 +6987,7 @@
       <c r="H36" s="14"/>
       <c r="I36" s="3"/>
     </row>
-    <row r="37" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="9"/>
       <c r="B37" s="12"/>
       <c r="C37" s="9"/>
@@ -6868,30 +7000,30 @@
       <c r="H37" s="14"/>
       <c r="I37" s="5"/>
     </row>
-    <row r="38" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="67" t="s">
+    <row r="38" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="B38" s="67" t="s">
+      <c r="B38" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="C38" s="82">
+      <c r="C38" s="76">
         <f>SUM(F31:F37)</f>
         <v>38</v>
       </c>
-      <c r="D38" s="82"/>
-      <c r="E38" s="82"/>
-      <c r="F38" s="83"/>
-      <c r="G38" s="66" t="s">
+      <c r="D38" s="76"/>
+      <c r="E38" s="76"/>
+      <c r="F38" s="77"/>
+      <c r="G38" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="H38" s="82">
+      <c r="H38" s="76">
         <f>SUM(G31:G37)</f>
         <v>0</v>
       </c>
-      <c r="I38" s="83"/>
-    </row>
-    <row r="39" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I38" s="77"/>
+    </row>
+    <row r="39" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="24" t="s">
         <v>1</v>
       </c>
@@ -6920,7 +7052,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="10">
         <v>5</v>
       </c>
@@ -6937,7 +7069,7 @@
       <c r="H40" s="14"/>
       <c r="I40" s="15"/>
     </row>
-    <row r="41" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="10">
         <v>5</v>
       </c>
@@ -6954,7 +7086,7 @@
       <c r="H41" s="14"/>
       <c r="I41" s="15"/>
     </row>
-    <row r="42" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="10">
         <v>5</v>
       </c>
@@ -6971,7 +7103,7 @@
       <c r="H42" s="14"/>
       <c r="I42" s="3"/>
     </row>
-    <row r="43" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="10">
         <v>5</v>
       </c>
@@ -6988,11 +7120,11 @@
       <c r="H43" s="14"/>
       <c r="I43" s="3"/>
     </row>
-    <row r="44" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="10">
         <v>5</v>
       </c>
-      <c r="B44" s="68" t="s">
+      <c r="B44" s="65" t="s">
         <v>13</v>
       </c>
       <c r="C44" s="25"/>
@@ -7005,11 +7137,11 @@
       <c r="H44" s="14"/>
       <c r="I44" s="3"/>
     </row>
-    <row r="45" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="10">
         <v>5</v>
       </c>
-      <c r="B45" s="68" t="s">
+      <c r="B45" s="65" t="s">
         <v>14</v>
       </c>
       <c r="C45" s="25"/>
@@ -7022,7 +7154,7 @@
       <c r="H45" s="14"/>
       <c r="I45" s="3"/>
     </row>
-    <row r="46" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="9"/>
       <c r="B46" s="12"/>
       <c r="C46" s="9"/>
@@ -7035,30 +7167,30 @@
       <c r="H46" s="14"/>
       <c r="I46" s="5"/>
     </row>
-    <row r="47" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="67" t="s">
+    <row r="47" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="B47" s="67" t="s">
+      <c r="B47" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="C47" s="82">
+      <c r="C47" s="76">
         <f>SUM(F40:F46)</f>
         <v>0</v>
       </c>
-      <c r="D47" s="82"/>
-      <c r="E47" s="82"/>
-      <c r="F47" s="83"/>
-      <c r="G47" s="66" t="s">
+      <c r="D47" s="76"/>
+      <c r="E47" s="76"/>
+      <c r="F47" s="77"/>
+      <c r="G47" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="H47" s="82">
+      <c r="H47" s="76">
         <f>SUM(G40:G46)</f>
         <v>0</v>
       </c>
-      <c r="I47" s="83"/>
-    </row>
-    <row r="48" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I47" s="77"/>
+    </row>
+    <row r="48" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="24" t="s">
         <v>1</v>
       </c>
@@ -7087,7 +7219,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="10">
         <v>6</v>
       </c>
@@ -7104,7 +7236,7 @@
       <c r="H49" s="14"/>
       <c r="I49" s="15"/>
     </row>
-    <row r="50" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="10">
         <v>6</v>
       </c>
@@ -7121,7 +7253,7 @@
       <c r="H50" s="14"/>
       <c r="I50" s="15"/>
     </row>
-    <row r="51" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="10">
         <v>6</v>
       </c>
@@ -7138,7 +7270,7 @@
       <c r="H51" s="14"/>
       <c r="I51" s="3"/>
     </row>
-    <row r="52" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="10">
         <v>6</v>
       </c>
@@ -7155,11 +7287,11 @@
       <c r="H52" s="14"/>
       <c r="I52" s="3"/>
     </row>
-    <row r="53" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="10">
         <v>6</v>
       </c>
-      <c r="B53" s="68" t="s">
+      <c r="B53" s="65" t="s">
         <v>13</v>
       </c>
       <c r="C53" s="25"/>
@@ -7172,11 +7304,11 @@
       <c r="H53" s="14"/>
       <c r="I53" s="3"/>
     </row>
-    <row r="54" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="10">
         <v>6</v>
       </c>
-      <c r="B54" s="68" t="s">
+      <c r="B54" s="65" t="s">
         <v>14</v>
       </c>
       <c r="C54" s="25"/>
@@ -7189,7 +7321,7 @@
       <c r="H54" s="14"/>
       <c r="I54" s="3"/>
     </row>
-    <row r="55" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="9"/>
       <c r="B55" s="12"/>
       <c r="C55" s="9"/>
@@ -7202,30 +7334,30 @@
       <c r="H55" s="14"/>
       <c r="I55" s="5"/>
     </row>
-    <row r="56" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="67" t="s">
+    <row r="56" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="B56" s="67" t="s">
+      <c r="B56" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="C56" s="82">
+      <c r="C56" s="76">
         <f>SUM(F49:F55)</f>
         <v>0</v>
       </c>
-      <c r="D56" s="82"/>
-      <c r="E56" s="82"/>
-      <c r="F56" s="83"/>
-      <c r="G56" s="66" t="s">
+      <c r="D56" s="76"/>
+      <c r="E56" s="76"/>
+      <c r="F56" s="77"/>
+      <c r="G56" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="H56" s="82">
+      <c r="H56" s="76">
         <f>SUM(G49:G55)</f>
         <v>0</v>
       </c>
-      <c r="I56" s="83"/>
-    </row>
-    <row r="57" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I56" s="77"/>
+    </row>
+    <row r="57" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="24" t="s">
         <v>1</v>
       </c>
@@ -7254,7 +7386,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="10">
         <v>7</v>
       </c>
@@ -7265,7 +7397,7 @@
         <v>19</v>
       </c>
       <c r="D58" s="13" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E58" s="18">
         <v>43794</v>
@@ -7276,10 +7408,10 @@
       <c r="G58" s="6"/>
       <c r="H58" s="14"/>
       <c r="I58" s="15" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="10">
         <v>7</v>
       </c>
@@ -7290,7 +7422,7 @@
         <v>63</v>
       </c>
       <c r="D59" s="13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E59" s="18">
         <v>43795</v>
@@ -7302,7 +7434,7 @@
       <c r="H59" s="14"/>
       <c r="I59" s="15"/>
     </row>
-    <row r="60" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="10">
         <v>7</v>
       </c>
@@ -7310,10 +7442,10 @@
         <v>11</v>
       </c>
       <c r="C60" s="25" t="s">
+        <v>139</v>
+      </c>
+      <c r="D60" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>141</v>
       </c>
       <c r="E60" s="18">
         <v>43796</v>
@@ -7324,10 +7456,10 @@
       <c r="G60" s="7"/>
       <c r="H60" s="14"/>
       <c r="I60" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="10">
         <v>7</v>
       </c>
@@ -7335,10 +7467,10 @@
         <v>12</v>
       </c>
       <c r="C61" s="25" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E61" s="18">
         <v>43797</v>
@@ -7350,18 +7482,18 @@
       <c r="H61" s="14"/>
       <c r="I61" s="3"/>
     </row>
-    <row r="62" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="10">
         <v>7</v>
       </c>
-      <c r="B62" s="68" t="s">
+      <c r="B62" s="65" t="s">
         <v>13</v>
       </c>
       <c r="C62" s="25" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E62" s="18">
         <v>43798</v>
@@ -7372,21 +7504,21 @@
       <c r="G62" s="7"/>
       <c r="H62" s="14"/>
       <c r="I62" s="3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="10">
         <v>7</v>
       </c>
-      <c r="B63" s="68" t="s">
+      <c r="B63" s="65" t="s">
         <v>14</v>
       </c>
       <c r="C63" s="25" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E63" s="18">
         <v>43799</v>
@@ -7397,21 +7529,21 @@
       <c r="G63" s="7"/>
       <c r="H63" s="14"/>
       <c r="I63" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="9">
         <v>7</v>
       </c>
-      <c r="B64" s="68" t="s">
-        <v>124</v>
+      <c r="B64" s="65" t="s">
+        <v>123</v>
       </c>
       <c r="C64" s="25" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E64" s="18">
         <v>43800</v>
@@ -7422,33 +7554,33 @@
       <c r="G64" s="8"/>
       <c r="H64" s="14"/>
       <c r="I64" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="67" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="B65" s="67" t="s">
+      <c r="B65" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="C65" s="82">
+      <c r="C65" s="76">
         <f>SUM(F58:F64)</f>
         <v>50</v>
       </c>
-      <c r="D65" s="82"/>
-      <c r="E65" s="82"/>
-      <c r="F65" s="83"/>
-      <c r="G65" s="66" t="s">
+      <c r="D65" s="76"/>
+      <c r="E65" s="76"/>
+      <c r="F65" s="77"/>
+      <c r="G65" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="H65" s="82">
+      <c r="H65" s="76">
         <f>SUM(G58:G64)</f>
         <v>0</v>
       </c>
-      <c r="I65" s="83"/>
-    </row>
-    <row r="66" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I65" s="77"/>
+    </row>
+    <row r="66" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="24" t="s">
         <v>1</v>
       </c>
@@ -7477,7 +7609,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="10">
         <v>8</v>
       </c>
@@ -7485,10 +7617,10 @@
         <v>9</v>
       </c>
       <c r="C67" s="25" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D67" s="13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E67" s="18">
         <v>43801</v>
@@ -7499,10 +7631,10 @@
       <c r="G67" s="6"/>
       <c r="H67" s="14"/>
       <c r="I67" s="15" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="10">
         <v>8</v>
       </c>
@@ -7521,7 +7653,7 @@
       <c r="H68" s="14"/>
       <c r="I68" s="15"/>
     </row>
-    <row r="69" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="10">
         <v>8</v>
       </c>
@@ -7529,7 +7661,7 @@
         <v>11</v>
       </c>
       <c r="C69" s="25" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" s="18">
@@ -7540,7 +7672,7 @@
       <c r="H69" s="14"/>
       <c r="I69" s="3"/>
     </row>
-    <row r="70" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="10">
         <v>8</v>
       </c>
@@ -7548,7 +7680,7 @@
         <v>12</v>
       </c>
       <c r="C70" s="25" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" s="18">
@@ -7559,15 +7691,15 @@
       <c r="H70" s="14"/>
       <c r="I70" s="3"/>
     </row>
-    <row r="71" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="10">
         <v>8</v>
       </c>
-      <c r="B71" s="68" t="s">
+      <c r="B71" s="65" t="s">
         <v>13</v>
       </c>
       <c r="C71" s="25" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" s="18">
@@ -7578,15 +7710,15 @@
       <c r="H71" s="14"/>
       <c r="I71" s="3"/>
     </row>
-    <row r="72" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="10">
         <v>8</v>
       </c>
-      <c r="B72" s="68" t="s">
+      <c r="B72" s="65" t="s">
         <v>14</v>
       </c>
       <c r="C72" s="25" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" s="18">
@@ -7597,15 +7729,15 @@
       <c r="H72" s="14"/>
       <c r="I72" s="3"/>
     </row>
-    <row r="73" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="10">
         <v>8</v>
       </c>
-      <c r="B73" s="68" t="s">
-        <v>124</v>
+      <c r="B73" s="65" t="s">
+        <v>123</v>
       </c>
       <c r="C73" s="25" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D73" s="4"/>
       <c r="E73" s="18">
@@ -7616,36 +7748,31 @@
       <c r="H73" s="14"/>
       <c r="I73" s="3"/>
     </row>
-    <row r="74" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="67" t="s">
+    <row r="74" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="B74" s="67" t="s">
+      <c r="B74" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="C74" s="82">
+      <c r="C74" s="76">
         <f>SUM(F67:F73)</f>
         <v>10</v>
       </c>
-      <c r="D74" s="82"/>
-      <c r="E74" s="82"/>
-      <c r="F74" s="83"/>
-      <c r="G74" s="66" t="s">
+      <c r="D74" s="76"/>
+      <c r="E74" s="76"/>
+      <c r="F74" s="77"/>
+      <c r="G74" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="H74" s="82">
+      <c r="H74" s="76">
         <f>SUM(G67:G73)</f>
         <v>0</v>
       </c>
-      <c r="I74" s="83"/>
+      <c r="I74" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="H20:I20"/>
     <mergeCell ref="C74:F74"/>
     <mergeCell ref="H74:I74"/>
     <mergeCell ref="C65:F65"/>
@@ -7658,6 +7785,11 @@
     <mergeCell ref="H47:I47"/>
     <mergeCell ref="C56:F56"/>
     <mergeCell ref="H56:I56"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="H20:I20"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <dataValidations count="6">
@@ -7689,24 +7821,24 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4F2588E-374C-4DBD-95A9-14304F022B88}">
-  <dimension ref="A1:I56"/>
+  <dimension ref="A1:S110"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H33" sqref="H33:I33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.85546875" customWidth="1"/>
-    <col min="9" max="9" width="11.85546875" customWidth="1"/>
+    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.88671875" customWidth="1"/>
+    <col min="9" max="9" width="11.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="20" t="s">
         <v>65</v>
       </c>
@@ -7719,7 +7851,7 @@
       <c r="H1" s="21"/>
       <c r="I1" s="22"/>
     </row>
-    <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="78" t="s">
         <v>0</v>
       </c>
@@ -7732,36 +7864,34 @@
       <c r="H2" s="80"/>
       <c r="I2" s="81"/>
     </row>
-    <row r="3" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="24" t="s">
+    <row r="3" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="86" t="s">
         <v>53</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" s="24" t="s">
+      <c r="E3" s="88"/>
+      <c r="F3" s="87" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="87" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="24" t="s">
+      <c r="I3" s="87" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="10">
         <v>1</v>
       </c>
@@ -7771,14 +7901,14 @@
       <c r="C4" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="D4" s="56"/>
+      <c r="D4" s="13"/>
       <c r="E4" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="6">
         <v>4</v>
       </c>
-      <c r="G4" s="10">
+      <c r="G4" s="6">
         <v>4</v>
       </c>
       <c r="H4" s="14" t="s">
@@ -7786,7 +7916,7 @@
       </c>
       <c r="I4" s="15"/>
     </row>
-    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="10">
         <v>1</v>
       </c>
@@ -7794,18 +7924,18 @@
         <v>10</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="56" t="s">
+        <v>190</v>
+      </c>
+      <c r="D5" s="13" t="s">
         <v>92</v>
       </c>
       <c r="E5" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="F5" s="10">
-        <v>5</v>
-      </c>
-      <c r="G5" s="10">
+      <c r="F5" s="6">
+        <v>5</v>
+      </c>
+      <c r="G5" s="6">
         <v>5</v>
       </c>
       <c r="H5" s="14" t="s">
@@ -7813,7 +7943,7 @@
       </c>
       <c r="I5" s="15"/>
     </row>
-    <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -7821,18 +7951,18 @@
         <v>11</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="57" t="s">
+        <v>190</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>92</v>
       </c>
       <c r="E6" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="7">
         <v>4.5</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="7">
         <v>4.5</v>
       </c>
       <c r="H6" s="14" t="s">
@@ -7840,7 +7970,7 @@
       </c>
       <c r="I6" s="3"/>
     </row>
-    <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -7848,26 +7978,27 @@
         <v>12</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="57" t="s">
+        <v>190</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>93</v>
       </c>
       <c r="E7" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="F7" s="1">
-        <v>5</v>
-      </c>
-      <c r="G7" s="1">
+      <c r="F7" s="7">
+        <v>5</v>
+      </c>
+      <c r="G7" s="7">
         <v>5</v>
       </c>
       <c r="H7" s="14" t="s">
         <v>20</v>
       </c>
       <c r="I7" s="3"/>
-    </row>
-    <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="S7" s="15"/>
+    </row>
+    <row r="8" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>1</v>
       </c>
@@ -7877,14 +8008,14 @@
       <c r="C8" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="D8" s="57"/>
+      <c r="D8" s="2"/>
       <c r="E8" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="7">
         <v>4</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="7">
         <v>4</v>
       </c>
       <c r="H8" s="14" t="s">
@@ -7892,7 +8023,7 @@
       </c>
       <c r="I8" s="3"/>
     </row>
-    <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>1</v>
       </c>
@@ -7900,16 +8031,18 @@
         <v>14</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="58">
-        <v>43757</v>
-      </c>
-      <c r="F9" s="1">
+        <v>190</v>
+      </c>
+      <c r="D9" s="72" t="s">
+        <v>191</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="F9" s="7">
         <v>4</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9" s="7">
         <v>5</v>
       </c>
       <c r="H9" s="14" t="s">
@@ -7917,214 +8050,187 @@
       </c>
       <c r="I9" s="3"/>
     </row>
-    <row r="10" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="9"/>
       <c r="B10" s="11"/>
       <c r="C10" s="9"/>
-      <c r="D10" s="59"/>
-      <c r="E10" s="58"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="14"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="89"/>
       <c r="I10" s="5"/>
     </row>
-    <row r="11" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="67" t="s">
+    <row r="11" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="67" t="s">
+      <c r="B11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="85">
+      <c r="C11" s="90">
         <f>SUM(F4:F10)</f>
         <v>26.5</v>
       </c>
-      <c r="D11" s="85"/>
-      <c r="E11" s="85"/>
-      <c r="F11" s="86"/>
-      <c r="G11" s="66" t="s">
+      <c r="D11" s="90"/>
+      <c r="E11" s="90"/>
+      <c r="F11" s="90"/>
+      <c r="G11" s="91" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="85">
+      <c r="H11" s="90">
         <f>SUM(G4:G10)</f>
         <v>27.5</v>
       </c>
-      <c r="I11" s="86"/>
-    </row>
-    <row r="12" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="24" t="s">
+      <c r="I11" s="90"/>
+    </row>
+    <row r="12" spans="1:19" s="95" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="92"/>
+      <c r="B12" s="92"/>
+      <c r="C12" s="93"/>
+      <c r="D12" s="93"/>
+      <c r="E12" s="93"/>
+      <c r="F12" s="93"/>
+      <c r="G12" s="94"/>
+      <c r="H12" s="93"/>
+      <c r="I12" s="93"/>
+    </row>
+    <row r="13" spans="1:19" s="95" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="92"/>
+      <c r="B13" s="92"/>
+      <c r="C13" s="93"/>
+      <c r="D13" s="93"/>
+      <c r="F13" s="93"/>
+      <c r="G13" s="94"/>
+      <c r="H13" s="93"/>
+      <c r="I13" s="93"/>
+    </row>
+    <row r="14" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="24" t="s">
+      <c r="B14" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="24" t="s">
+      <c r="C14" s="86" t="s">
         <v>53</v>
       </c>
-      <c r="D12" s="24" t="s">
+      <c r="D14" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="E12" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="F12" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="G12" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="H12" s="24" t="s">
+      <c r="E14" s="88"/>
+      <c r="F14" s="87" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="87" t="s">
+        <v>6</v>
+      </c>
+      <c r="H14" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="I12" s="24" t="s">
+      <c r="I14" s="87" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="10">
-        <v>2</v>
-      </c>
-      <c r="B13" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="56" t="s">
-        <v>94</v>
-      </c>
-      <c r="E13" s="60">
-        <v>43759</v>
-      </c>
-      <c r="F13" s="10">
-        <v>5.5</v>
-      </c>
-      <c r="G13" s="10">
-        <v>6</v>
-      </c>
-      <c r="H13" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="I13" s="15"/>
-    </row>
-    <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="10">
-        <v>2</v>
-      </c>
-      <c r="B14" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" s="56" t="s">
-        <v>95</v>
-      </c>
-      <c r="E14" s="61">
-        <v>43760</v>
-      </c>
-      <c r="F14" s="10">
-        <v>5</v>
-      </c>
-      <c r="G14" s="10">
-        <v>6</v>
-      </c>
-      <c r="H14" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="I14" s="15"/>
-    </row>
-    <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="10">
         <v>2</v>
       </c>
-      <c r="B15" s="27" t="s">
-        <v>11</v>
+      <c r="B15" s="25" t="s">
+        <v>9</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="D15" s="57"/>
-      <c r="E15" s="62">
-        <v>43761</v>
-      </c>
-      <c r="F15" s="1">
-        <v>4</v>
-      </c>
-      <c r="G15" s="1">
-        <v>4</v>
+        <v>190</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="F15" s="6">
+        <v>5.5</v>
+      </c>
+      <c r="G15" s="6">
+        <v>6</v>
       </c>
       <c r="H15" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="I15" s="3"/>
-    </row>
-    <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I15" s="15"/>
+    </row>
+    <row r="16" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="10">
         <v>2</v>
       </c>
-      <c r="B16" s="27" t="s">
-        <v>12</v>
+      <c r="B16" s="26" t="s">
+        <v>10</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" s="57" t="s">
-        <v>92</v>
-      </c>
-      <c r="E16" s="61">
-        <v>43762</v>
-      </c>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
+        <v>190</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="F16" s="6">
+        <v>5</v>
+      </c>
+      <c r="G16" s="6">
+        <v>6</v>
+      </c>
       <c r="H16" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="I16" s="3"/>
-    </row>
-    <row r="17" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I16" s="15"/>
+    </row>
+    <row r="17" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="10">
         <v>2</v>
       </c>
       <c r="B17" s="27" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17" s="57" t="s">
-        <v>96</v>
-      </c>
-      <c r="E17" s="58">
-        <v>43763</v>
-      </c>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
+        <v>63</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="F17" s="7">
+        <v>4</v>
+      </c>
+      <c r="G17" s="7">
+        <v>4</v>
+      </c>
       <c r="H17" s="14" t="s">
         <v>20</v>
       </c>
       <c r="I17" s="3"/>
     </row>
-    <row r="18" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="10">
         <v>2</v>
       </c>
       <c r="B18" s="27" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="D18" s="57" t="s">
-        <v>82</v>
-      </c>
-      <c r="E18" s="16">
-        <v>43764</v>
-      </c>
-      <c r="F18" s="1">
-        <v>4</v>
-      </c>
-      <c r="G18" s="1">
+        <v>19</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="F18" s="7">
+        <v>5</v>
+      </c>
+      <c r="G18" s="7">
         <v>6</v>
       </c>
       <c r="H18" s="14" t="s">
@@ -8132,689 +8238,1923 @@
       </c>
       <c r="I18" s="3"/>
     </row>
-    <row r="19" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="9"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="59"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="5"/>
-    </row>
-    <row r="20" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="67" t="s">
+    <row r="19" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="10">
+        <v>2</v>
+      </c>
+      <c r="B19" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="25" t="s">
+        <v>190</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="F19" s="7">
+        <v>6</v>
+      </c>
+      <c r="G19" s="7">
+        <v>6</v>
+      </c>
+      <c r="H19" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I19" s="3"/>
+    </row>
+    <row r="20" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="10">
+        <v>2</v>
+      </c>
+      <c r="B20" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="25" t="s">
+        <v>190</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="F20" s="7">
+        <v>4</v>
+      </c>
+      <c r="G20" s="7">
+        <v>6</v>
+      </c>
+      <c r="H20" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I20" s="3"/>
+    </row>
+    <row r="21" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="9"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="89"/>
+      <c r="I21" s="5"/>
+    </row>
+    <row r="22" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="67" t="s">
+      <c r="B22" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="85">
-        <f>SUM(F13:F19)</f>
-        <v>18.5</v>
-      </c>
-      <c r="D20" s="85"/>
-      <c r="E20" s="85"/>
-      <c r="F20" s="86"/>
-      <c r="G20" s="66" t="s">
+      <c r="C22" s="90">
+        <f>SUM(F15:F21)</f>
+        <v>29.5</v>
+      </c>
+      <c r="D22" s="90"/>
+      <c r="E22" s="90"/>
+      <c r="F22" s="90"/>
+      <c r="G22" s="91" t="s">
         <v>17</v>
       </c>
-      <c r="H20" s="85">
-        <f>SUM(G13:G19)</f>
-        <v>22</v>
-      </c>
-      <c r="I20" s="86"/>
-    </row>
-    <row r="21" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="24" t="s">
+      <c r="H22" s="90">
+        <f>SUM(G15:G21)</f>
+        <v>34</v>
+      </c>
+      <c r="I22" s="90"/>
+    </row>
+    <row r="23" spans="1:9" s="95" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="92"/>
+      <c r="B23" s="92"/>
+      <c r="C23" s="93"/>
+      <c r="D23" s="93"/>
+      <c r="E23" s="96"/>
+      <c r="F23" s="93"/>
+      <c r="G23" s="94"/>
+      <c r="H23" s="93"/>
+      <c r="I23" s="93"/>
+    </row>
+    <row r="24" spans="1:9" s="95" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="92"/>
+      <c r="B24" s="92"/>
+      <c r="C24" s="93"/>
+      <c r="D24" s="93"/>
+      <c r="E24" s="96"/>
+      <c r="F24" s="93"/>
+      <c r="G24" s="94"/>
+      <c r="H24" s="93"/>
+      <c r="I24" s="93"/>
+    </row>
+    <row r="25" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="24" t="s">
+      <c r="B25" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="C21" s="24" t="s">
+      <c r="C25" s="86" t="s">
         <v>53</v>
       </c>
-      <c r="D21" s="24" t="s">
+      <c r="D25" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="E21" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="F21" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="G21" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="H21" s="24" t="s">
+      <c r="E25" s="88"/>
+      <c r="F25" s="87" t="s">
+        <v>5</v>
+      </c>
+      <c r="G25" s="87" t="s">
+        <v>6</v>
+      </c>
+      <c r="H25" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="I21" s="24" t="s">
+      <c r="I25" s="87" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="10">
-        <v>3</v>
-      </c>
-      <c r="B22" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" s="25"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="15"/>
-    </row>
-    <row r="23" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="10">
-        <v>3</v>
-      </c>
-      <c r="B23" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="C23" s="25"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="15"/>
-    </row>
-    <row r="24" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="10">
-        <v>3</v>
-      </c>
-      <c r="B24" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="C24" s="25"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="3"/>
-    </row>
-    <row r="25" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="10">
-        <v>3</v>
-      </c>
-      <c r="B25" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" s="25"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="3"/>
-    </row>
-    <row r="26" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="10">
         <v>3</v>
       </c>
-      <c r="B26" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="C26" s="25"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="3"/>
-    </row>
-    <row r="27" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B26" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="E26" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="F26" s="6">
+        <v>5</v>
+      </c>
+      <c r="G26" s="6">
+        <v>5</v>
+      </c>
+      <c r="H26" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I26" s="15"/>
+    </row>
+    <row r="27" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="10">
         <v>3</v>
       </c>
-      <c r="B27" s="68" t="s">
+      <c r="B27" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="D27" s="13"/>
+      <c r="E27" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="F27" s="6">
+        <v>4</v>
+      </c>
+      <c r="G27" s="6">
+        <v>4</v>
+      </c>
+      <c r="H27" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I27" s="97"/>
+    </row>
+    <row r="28" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A28" s="10">
+        <v>3</v>
+      </c>
+      <c r="B28" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="E28" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="F28" s="7">
+        <v>4.5</v>
+      </c>
+      <c r="G28" s="7">
+        <v>5</v>
+      </c>
+      <c r="H28" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I28" s="3"/>
+    </row>
+    <row r="29" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A29" s="10">
+        <v>3</v>
+      </c>
+      <c r="B29" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="25" t="s">
+        <v>190</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E29" s="98" t="s">
+        <v>156</v>
+      </c>
+      <c r="F29" s="7">
+        <v>5</v>
+      </c>
+      <c r="G29" s="7">
+        <v>5</v>
+      </c>
+      <c r="H29" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I29" s="3"/>
+    </row>
+    <row r="30" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A30" s="10">
+        <v>3</v>
+      </c>
+      <c r="B30" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="25" t="s">
+        <v>190</v>
+      </c>
+      <c r="D30" s="99" t="s">
+        <v>195</v>
+      </c>
+      <c r="E30" s="98">
+        <v>43476</v>
+      </c>
+      <c r="F30" s="7">
+        <v>6</v>
+      </c>
+      <c r="G30" s="7">
+        <v>5</v>
+      </c>
+      <c r="H30" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I30" s="3"/>
+    </row>
+    <row r="31" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A31" s="10">
+        <v>3</v>
+      </c>
+      <c r="B31" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="C27" s="25"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="3"/>
-    </row>
-    <row r="28" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="9"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="5"/>
-    </row>
-    <row r="29" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="67" t="s">
+      <c r="C31" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E31" s="98">
+        <v>43507</v>
+      </c>
+      <c r="F31" s="7">
+        <v>5.5</v>
+      </c>
+      <c r="G31" s="7">
+        <v>5</v>
+      </c>
+      <c r="H31" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I31" s="3"/>
+    </row>
+    <row r="32" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="100"/>
+      <c r="I32" s="101"/>
+    </row>
+    <row r="33" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B29" s="67" t="s">
+      <c r="B33" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="82">
-        <f>SUM(F22:F28)</f>
-        <v>0</v>
-      </c>
-      <c r="D29" s="82"/>
-      <c r="E29" s="82"/>
-      <c r="F29" s="83"/>
-      <c r="G29" s="66" t="s">
+      <c r="C33" s="90">
+        <f>SUM(F26:F32)</f>
+        <v>30</v>
+      </c>
+      <c r="D33" s="90"/>
+      <c r="E33" s="90"/>
+      <c r="F33" s="90"/>
+      <c r="G33" s="91" t="s">
         <v>17</v>
       </c>
-      <c r="H29" s="82">
-        <f>SUM(G22:G28)</f>
-        <v>0</v>
-      </c>
-      <c r="I29" s="83"/>
-    </row>
-    <row r="30" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="24" t="s">
+      <c r="H33" s="90">
+        <f>SUM(G26:G32)</f>
+        <v>29</v>
+      </c>
+      <c r="I33" s="90"/>
+    </row>
+    <row r="34" spans="1:9" s="95" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A34" s="92"/>
+      <c r="B34" s="92"/>
+      <c r="C34" s="93"/>
+      <c r="D34" s="93"/>
+      <c r="E34" s="96"/>
+      <c r="F34" s="93"/>
+      <c r="G34" s="94"/>
+      <c r="H34" s="93"/>
+      <c r="I34" s="93"/>
+    </row>
+    <row r="35" spans="1:9" s="95" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A35" s="92"/>
+      <c r="B35" s="92"/>
+      <c r="C35" s="93"/>
+      <c r="D35" s="93"/>
+      <c r="E35" s="96"/>
+      <c r="F35" s="93"/>
+      <c r="G35" s="94"/>
+      <c r="H35" s="93"/>
+      <c r="I35" s="93"/>
+    </row>
+    <row r="36" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="B30" s="24" t="s">
+      <c r="B36" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="C30" s="24" t="s">
+      <c r="C36" s="86" t="s">
         <v>53</v>
       </c>
-      <c r="D30" s="24" t="s">
+      <c r="D36" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="E30" s="24" t="s">
+      <c r="E36" s="88"/>
+      <c r="F36" s="87" t="s">
+        <v>5</v>
+      </c>
+      <c r="G36" s="87" t="s">
+        <v>6</v>
+      </c>
+      <c r="H36" s="87" t="s">
+        <v>7</v>
+      </c>
+      <c r="I36" s="87" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="10">
         <v>4</v>
       </c>
-      <c r="F30" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="G30" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="H30" s="24" t="s">
+      <c r="B37" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" s="25" t="s">
+        <v>197</v>
+      </c>
+      <c r="D37" s="13"/>
+      <c r="E37" s="18">
+        <v>43773</v>
+      </c>
+      <c r="F37" s="6">
+        <v>5.5</v>
+      </c>
+      <c r="G37" s="6">
+        <v>6</v>
+      </c>
+      <c r="H37" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I37" s="15"/>
+    </row>
+    <row r="38" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="10">
+        <v>4</v>
+      </c>
+      <c r="B38" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C38" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="D38" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="E38" s="18">
+        <v>43774</v>
+      </c>
+      <c r="F38" s="6">
+        <v>4</v>
+      </c>
+      <c r="G38" s="6">
+        <v>4</v>
+      </c>
+      <c r="H38" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I38" s="97"/>
+    </row>
+    <row r="39" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="10">
+        <v>4</v>
+      </c>
+      <c r="B39" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39" s="25" t="s">
+        <v>199</v>
+      </c>
+      <c r="D39" s="2"/>
+      <c r="E39" s="18">
+        <v>43775</v>
+      </c>
+      <c r="F39" s="7">
+        <v>4</v>
+      </c>
+      <c r="G39" s="7">
+        <v>4</v>
+      </c>
+      <c r="H39" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I39" s="3"/>
+    </row>
+    <row r="40" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="10">
+        <v>4</v>
+      </c>
+      <c r="B40" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C40" s="25" t="s">
+        <v>197</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E40" s="18">
+        <v>43776</v>
+      </c>
+      <c r="F40" s="7">
+        <v>5</v>
+      </c>
+      <c r="G40" s="7">
+        <v>5</v>
+      </c>
+      <c r="H40" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I40" s="3"/>
+    </row>
+    <row r="41" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="10">
+        <v>4</v>
+      </c>
+      <c r="B41" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C41" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="D41" s="2"/>
+      <c r="E41" s="18">
+        <v>43777</v>
+      </c>
+      <c r="F41" s="7">
+        <v>5</v>
+      </c>
+      <c r="G41" s="7">
+        <v>5</v>
+      </c>
+      <c r="H41" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I41" s="3"/>
+    </row>
+    <row r="42" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="10">
+        <v>4</v>
+      </c>
+      <c r="B42" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="C42" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="D42" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="E42" s="18">
+        <v>43778</v>
+      </c>
+      <c r="F42" s="7">
+        <v>6</v>
+      </c>
+      <c r="G42" s="7">
+        <v>6</v>
+      </c>
+      <c r="H42" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I42" s="3"/>
+    </row>
+    <row r="43" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="9"/>
+      <c r="B43" s="11"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="18"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="14"/>
+      <c r="I43" s="5"/>
+    </row>
+    <row r="44" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="102" t="s">
+        <v>15</v>
+      </c>
+      <c r="B44" s="102" t="s">
+        <v>16</v>
+      </c>
+      <c r="C44" s="103">
+        <f>SUM(F37:F43)</f>
+        <v>29.5</v>
+      </c>
+      <c r="D44" s="103"/>
+      <c r="E44" s="103"/>
+      <c r="F44" s="104"/>
+      <c r="G44" s="105" t="s">
+        <v>17</v>
+      </c>
+      <c r="H44" s="103">
+        <f>SUM(G37:G43)</f>
+        <v>30</v>
+      </c>
+      <c r="I44" s="104"/>
+    </row>
+    <row r="47" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A47" s="85" t="s">
+        <v>1</v>
+      </c>
+      <c r="B47" s="85" t="s">
+        <v>2</v>
+      </c>
+      <c r="C47" s="86" t="s">
+        <v>53</v>
+      </c>
+      <c r="D47" s="87" t="s">
+        <v>3</v>
+      </c>
+      <c r="E47" s="88"/>
+      <c r="F47" s="87" t="s">
+        <v>5</v>
+      </c>
+      <c r="G47" s="87" t="s">
+        <v>6</v>
+      </c>
+      <c r="H47" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="I30" s="24" t="s">
+      <c r="I47" s="87" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="10">
+    <row r="48" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="10">
+        <v>5</v>
+      </c>
+      <c r="B48" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C48" s="25" t="s">
+        <v>197</v>
+      </c>
+      <c r="D48" s="13"/>
+      <c r="E48" s="17">
+        <v>43780</v>
+      </c>
+      <c r="F48" s="6">
+        <v>5</v>
+      </c>
+      <c r="G48" s="6">
+        <v>5</v>
+      </c>
+      <c r="H48" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I48" s="15"/>
+    </row>
+    <row r="49" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="10">
+        <v>5</v>
+      </c>
+      <c r="B49" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C49" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="D49" s="13"/>
+      <c r="E49" s="18">
+        <v>43781</v>
+      </c>
+      <c r="F49" s="6">
         <v>4</v>
       </c>
-      <c r="B31" s="27" t="s">
+      <c r="G49" s="6">
+        <v>4</v>
+      </c>
+      <c r="H49" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I49" s="15"/>
+    </row>
+    <row r="50" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="10">
+        <v>5</v>
+      </c>
+      <c r="B50" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C50" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E50" s="18">
+        <v>43782</v>
+      </c>
+      <c r="F50" s="7">
+        <v>4.5</v>
+      </c>
+      <c r="G50" s="7">
+        <v>5</v>
+      </c>
+      <c r="H50" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I50" s="3"/>
+    </row>
+    <row r="51" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="10">
+        <v>5</v>
+      </c>
+      <c r="B51" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C51" s="25" t="s">
+        <v>197</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E51" s="18">
+        <v>43783</v>
+      </c>
+      <c r="F51" s="7">
+        <v>5.5</v>
+      </c>
+      <c r="G51" s="7">
+        <v>6</v>
+      </c>
+      <c r="H51" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I51" s="3"/>
+    </row>
+    <row r="52" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="10">
+        <v>5</v>
+      </c>
+      <c r="B52" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C52" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E52" s="18">
+        <v>43784</v>
+      </c>
+      <c r="F52" s="7">
+        <v>6</v>
+      </c>
+      <c r="G52" s="7">
+        <v>6</v>
+      </c>
+      <c r="H52" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I52" s="3"/>
+    </row>
+    <row r="53" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="10">
+        <v>5</v>
+      </c>
+      <c r="B53" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="C53" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E53" s="18">
+        <v>43785</v>
+      </c>
+      <c r="F53" s="7">
+        <v>5.5</v>
+      </c>
+      <c r="G53" s="7">
+        <v>6</v>
+      </c>
+      <c r="H53" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I53" s="3"/>
+    </row>
+    <row r="54" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="9"/>
+      <c r="B54" s="11"/>
+      <c r="C54" s="9"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="18"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c r="H54" s="14"/>
+      <c r="I54" s="5"/>
+    </row>
+    <row r="55" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="102" t="s">
+        <v>15</v>
+      </c>
+      <c r="B55" s="102" t="s">
+        <v>16</v>
+      </c>
+      <c r="C55" s="103">
+        <f>SUM(F48:F54)</f>
+        <v>30.5</v>
+      </c>
+      <c r="D55" s="103"/>
+      <c r="E55" s="103"/>
+      <c r="F55" s="104"/>
+      <c r="G55" s="105" t="s">
+        <v>17</v>
+      </c>
+      <c r="H55" s="103">
+        <f>SUM(G48:G54)</f>
+        <v>32</v>
+      </c>
+      <c r="I55" s="104"/>
+    </row>
+    <row r="58" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A58" s="85" t="s">
+        <v>1</v>
+      </c>
+      <c r="B58" s="85" t="s">
+        <v>2</v>
+      </c>
+      <c r="C58" s="86" t="s">
+        <v>53</v>
+      </c>
+      <c r="D58" s="87" t="s">
+        <v>3</v>
+      </c>
+      <c r="E58" s="88"/>
+      <c r="F58" s="87" t="s">
+        <v>5</v>
+      </c>
+      <c r="G58" s="87" t="s">
+        <v>6</v>
+      </c>
+      <c r="H58" s="87" t="s">
+        <v>7</v>
+      </c>
+      <c r="I58" s="87" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A59" s="10">
+        <v>6</v>
+      </c>
+      <c r="B59" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="C31" s="25"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="14"/>
-      <c r="I31" s="15"/>
-    </row>
-    <row r="32" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="10">
+      <c r="C59" s="25" t="s">
+        <v>197</v>
+      </c>
+      <c r="D59" s="13"/>
+      <c r="E59" s="17">
+        <v>43786</v>
+      </c>
+      <c r="F59" s="6">
+        <v>5.5</v>
+      </c>
+      <c r="G59" s="6">
+        <v>6</v>
+      </c>
+      <c r="H59" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I59" s="15"/>
+    </row>
+    <row r="60" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A60" s="10">
+        <v>6</v>
+      </c>
+      <c r="B60" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C60" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="D60" s="13"/>
+      <c r="E60" s="17">
+        <v>43787</v>
+      </c>
+      <c r="F60" s="6">
         <v>4</v>
       </c>
-      <c r="B32" s="27" t="s">
+      <c r="G60" s="6">
+        <v>4</v>
+      </c>
+      <c r="H60" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I60" s="15"/>
+    </row>
+    <row r="61" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A61" s="10">
+        <v>6</v>
+      </c>
+      <c r="B61" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C61" s="25" t="s">
+        <v>202</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E61" s="17">
+        <v>43788</v>
+      </c>
+      <c r="F61" s="7">
+        <v>4.5</v>
+      </c>
+      <c r="G61" s="7">
+        <v>5</v>
+      </c>
+      <c r="H61" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I61" s="3"/>
+    </row>
+    <row r="62" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A62" s="10">
+        <v>6</v>
+      </c>
+      <c r="B62" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C62" s="25" t="s">
+        <v>197</v>
+      </c>
+      <c r="D62" s="2"/>
+      <c r="E62" s="17">
+        <v>43789</v>
+      </c>
+      <c r="F62" s="7">
+        <v>5.5</v>
+      </c>
+      <c r="G62" s="7">
+        <v>6</v>
+      </c>
+      <c r="H62" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I62" s="3"/>
+    </row>
+    <row r="63" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A63" s="10">
+        <v>6</v>
+      </c>
+      <c r="B63" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C63" s="25" t="s">
+        <v>202</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E63" s="17">
+        <v>43790</v>
+      </c>
+      <c r="F63" s="7">
+        <v>6</v>
+      </c>
+      <c r="G63" s="7">
+        <v>5</v>
+      </c>
+      <c r="H63" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I63" s="3"/>
+    </row>
+    <row r="64" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="10">
+        <v>6</v>
+      </c>
+      <c r="B64" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="C64" s="25" t="s">
+        <v>202</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E64" s="17">
+        <v>43791</v>
+      </c>
+      <c r="F64" s="7">
+        <v>5.5</v>
+      </c>
+      <c r="G64" s="7">
+        <v>5</v>
+      </c>
+      <c r="H64" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I64" s="3"/>
+    </row>
+    <row r="65" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="9"/>
+      <c r="B65" s="11"/>
+      <c r="C65" s="9"/>
+      <c r="D65" s="4"/>
+      <c r="E65" s="18"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+      <c r="H65" s="14"/>
+      <c r="I65" s="5"/>
+    </row>
+    <row r="66" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="102" t="s">
+        <v>15</v>
+      </c>
+      <c r="B66" s="102" t="s">
+        <v>16</v>
+      </c>
+      <c r="C66" s="103">
+        <f>SUM(F59:F65)</f>
+        <v>31</v>
+      </c>
+      <c r="D66" s="103"/>
+      <c r="E66" s="103"/>
+      <c r="F66" s="104"/>
+      <c r="G66" s="105" t="s">
+        <v>17</v>
+      </c>
+      <c r="H66" s="103">
+        <f>SUM(G59:G65)</f>
+        <v>31</v>
+      </c>
+      <c r="I66" s="104"/>
+    </row>
+    <row r="69" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A69" s="85" t="s">
+        <v>1</v>
+      </c>
+      <c r="B69" s="85" t="s">
+        <v>2</v>
+      </c>
+      <c r="C69" s="86" t="s">
+        <v>53</v>
+      </c>
+      <c r="D69" s="87" t="s">
+        <v>3</v>
+      </c>
+      <c r="E69" s="88"/>
+      <c r="F69" s="87" t="s">
+        <v>5</v>
+      </c>
+      <c r="G69" s="87" t="s">
+        <v>6</v>
+      </c>
+      <c r="H69" s="87" t="s">
+        <v>7</v>
+      </c>
+      <c r="I69" s="87" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A70" s="10">
+        <v>7</v>
+      </c>
+      <c r="B70" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C70" s="25" t="s">
+        <v>197</v>
+      </c>
+      <c r="D70" s="13"/>
+      <c r="E70" s="17">
+        <v>43793</v>
+      </c>
+      <c r="F70" s="7">
+        <v>5.5</v>
+      </c>
+      <c r="G70" s="7">
+        <v>6</v>
+      </c>
+      <c r="H70" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I70" s="15"/>
+    </row>
+    <row r="71" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A71" s="10">
+        <v>7</v>
+      </c>
+      <c r="B71" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="C32" s="25"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="14"/>
-      <c r="I32" s="15"/>
-    </row>
-    <row r="33" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="10">
+      <c r="C71" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="D71" s="13"/>
+      <c r="E71" s="17">
+        <v>43794</v>
+      </c>
+      <c r="F71" s="6">
         <v>4</v>
       </c>
-      <c r="B33" s="27" t="s">
+      <c r="G71" s="6">
+        <v>4</v>
+      </c>
+      <c r="H71" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I71" s="15"/>
+    </row>
+    <row r="72" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A72" s="10">
+        <v>7</v>
+      </c>
+      <c r="B72" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="C33" s="25"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="14"/>
-      <c r="I33" s="3"/>
-    </row>
-    <row r="34" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="10">
+      <c r="C72" s="25" t="s">
+        <v>202</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E72" s="17">
+        <v>43795</v>
+      </c>
+      <c r="F72" s="7">
+        <v>4.5</v>
+      </c>
+      <c r="G72" s="7">
+        <v>5</v>
+      </c>
+      <c r="H72" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I72" s="3"/>
+    </row>
+    <row r="73" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A73" s="10">
+        <v>7</v>
+      </c>
+      <c r="B73" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C73" s="25" t="s">
+        <v>197</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E73" s="17">
+        <v>43796</v>
+      </c>
+      <c r="F73" s="7">
+        <v>5.5</v>
+      </c>
+      <c r="G73" s="7">
+        <v>6</v>
+      </c>
+      <c r="H73" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I73" s="3"/>
+    </row>
+    <row r="74" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A74" s="10">
+        <v>7</v>
+      </c>
+      <c r="B74" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C74" s="25" t="s">
+        <v>202</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E74" s="17">
+        <v>43797</v>
+      </c>
+      <c r="F74" s="7">
+        <v>6</v>
+      </c>
+      <c r="G74" s="7">
+        <v>5</v>
+      </c>
+      <c r="H74" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I74" s="3"/>
+    </row>
+    <row r="75" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="10">
+        <v>7</v>
+      </c>
+      <c r="B75" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="C75" s="25" t="s">
+        <v>202</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E75" s="17">
+        <v>43798</v>
+      </c>
+      <c r="F75" s="7">
+        <v>5.5</v>
+      </c>
+      <c r="G75" s="7">
+        <v>5</v>
+      </c>
+      <c r="H75" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I75" s="3"/>
+    </row>
+    <row r="76" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A76" s="9"/>
+      <c r="B76" s="11"/>
+      <c r="C76" s="9"/>
+      <c r="D76" s="4"/>
+      <c r="E76" s="18"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+      <c r="H76" s="14"/>
+      <c r="I76" s="5"/>
+    </row>
+    <row r="77" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="102" t="s">
+        <v>15</v>
+      </c>
+      <c r="B77" s="102" t="s">
+        <v>16</v>
+      </c>
+      <c r="C77" s="103">
+        <f>SUM(F70:F76)</f>
+        <v>31</v>
+      </c>
+      <c r="D77" s="103"/>
+      <c r="E77" s="103"/>
+      <c r="F77" s="104"/>
+      <c r="G77" s="105" t="s">
+        <v>17</v>
+      </c>
+      <c r="H77" s="103">
+        <f>SUM(G70:G76)</f>
+        <v>31</v>
+      </c>
+      <c r="I77" s="104"/>
+    </row>
+    <row r="80" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A80" s="85" t="s">
+        <v>1</v>
+      </c>
+      <c r="B80" s="85" t="s">
+        <v>2</v>
+      </c>
+      <c r="C80" s="86" t="s">
+        <v>53</v>
+      </c>
+      <c r="D80" s="87" t="s">
+        <v>3</v>
+      </c>
+      <c r="E80" s="88"/>
+      <c r="F80" s="87" t="s">
+        <v>5</v>
+      </c>
+      <c r="G80" s="87" t="s">
+        <v>6</v>
+      </c>
+      <c r="H80" s="87" t="s">
+        <v>7</v>
+      </c>
+      <c r="I80" s="87" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A81" s="10">
+        <v>8</v>
+      </c>
+      <c r="B81" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C81" s="25" t="s">
+        <v>197</v>
+      </c>
+      <c r="D81" s="13"/>
+      <c r="E81" s="17">
+        <v>43800</v>
+      </c>
+      <c r="F81" s="6">
+        <v>5.5</v>
+      </c>
+      <c r="G81" s="6">
+        <v>6</v>
+      </c>
+      <c r="H81" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I81" s="15"/>
+    </row>
+    <row r="82" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A82" s="10">
+        <v>8</v>
+      </c>
+      <c r="B82" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C82" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="D82" s="13"/>
+      <c r="E82" s="17">
+        <v>43801</v>
+      </c>
+      <c r="F82" s="6">
         <v>4</v>
       </c>
-      <c r="B34" s="27" t="s">
+      <c r="G82" s="6">
+        <v>4</v>
+      </c>
+      <c r="H82" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I82" s="15"/>
+    </row>
+    <row r="83" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A83" s="10">
+        <v>8</v>
+      </c>
+      <c r="B83" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C83" s="25" t="s">
+        <v>205</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="E83" s="17">
+        <v>43802</v>
+      </c>
+      <c r="F83" s="7">
+        <v>6</v>
+      </c>
+      <c r="G83" s="7">
+        <v>6</v>
+      </c>
+      <c r="H83" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I83" s="3"/>
+    </row>
+    <row r="84" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A84" s="10">
+        <v>8</v>
+      </c>
+      <c r="B84" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="C34" s="25"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="14"/>
-      <c r="I34" s="3"/>
-    </row>
-    <row r="35" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="10">
+      <c r="C84" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E84" s="17">
+        <v>43803</v>
+      </c>
+      <c r="F84" s="7">
+        <v>5</v>
+      </c>
+      <c r="G84" s="7">
+        <v>5</v>
+      </c>
+      <c r="H84" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I84" s="3"/>
+    </row>
+    <row r="85" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A85" s="10">
+        <v>8</v>
+      </c>
+      <c r="B85" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C85" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E85" s="17">
+        <v>43804</v>
+      </c>
+      <c r="F85" s="7">
+        <v>6</v>
+      </c>
+      <c r="G85" s="7">
+        <v>6</v>
+      </c>
+      <c r="H85" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I85" s="3"/>
+    </row>
+    <row r="86" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A86" s="10">
+        <v>8</v>
+      </c>
+      <c r="B86" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="C86" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="E86" s="17">
+        <v>43805</v>
+      </c>
+      <c r="F86" s="7">
+        <v>5.5</v>
+      </c>
+      <c r="G86" s="7">
+        <v>5</v>
+      </c>
+      <c r="H86" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I86" s="3"/>
+    </row>
+    <row r="87" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A87" s="9"/>
+      <c r="B87" s="11"/>
+      <c r="C87" s="9"/>
+      <c r="D87" s="4"/>
+      <c r="E87" s="18"/>
+      <c r="F87" s="8"/>
+      <c r="G87" s="8"/>
+      <c r="H87" s="14"/>
+      <c r="I87" s="5"/>
+    </row>
+    <row r="88" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A88" s="102" t="s">
+        <v>15</v>
+      </c>
+      <c r="B88" s="102" t="s">
+        <v>16</v>
+      </c>
+      <c r="C88" s="103">
+        <f>SUM(F81:F87)</f>
+        <v>32</v>
+      </c>
+      <c r="D88" s="103"/>
+      <c r="E88" s="103"/>
+      <c r="F88" s="104"/>
+      <c r="G88" s="105" t="s">
+        <v>17</v>
+      </c>
+      <c r="H88" s="103">
+        <f>SUM(G81:G87)</f>
+        <v>32</v>
+      </c>
+      <c r="I88" s="104"/>
+    </row>
+    <row r="91" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A91" s="85" t="s">
+        <v>1</v>
+      </c>
+      <c r="B91" s="85" t="s">
+        <v>2</v>
+      </c>
+      <c r="C91" s="86" t="s">
+        <v>53</v>
+      </c>
+      <c r="D91" s="87" t="s">
+        <v>3</v>
+      </c>
+      <c r="E91" s="88"/>
+      <c r="F91" s="87" t="s">
+        <v>5</v>
+      </c>
+      <c r="G91" s="87" t="s">
+        <v>6</v>
+      </c>
+      <c r="H91" s="87" t="s">
+        <v>7</v>
+      </c>
+      <c r="I91" s="87" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A92" s="10">
+        <v>9</v>
+      </c>
+      <c r="B92" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C92" s="25" t="s">
+        <v>197</v>
+      </c>
+      <c r="D92" s="13"/>
+      <c r="E92" s="17">
+        <v>43807</v>
+      </c>
+      <c r="F92" s="6">
+        <v>5.5</v>
+      </c>
+      <c r="G92" s="6">
+        <v>6</v>
+      </c>
+      <c r="H92" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I92" s="15"/>
+    </row>
+    <row r="93" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A93" s="10">
+        <v>9</v>
+      </c>
+      <c r="B93" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C93" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="E93" s="17">
+        <v>43808</v>
+      </c>
+      <c r="F93" s="6">
+        <v>5.5</v>
+      </c>
+      <c r="G93" s="6">
+        <v>6</v>
+      </c>
+      <c r="H93" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I93" s="15"/>
+    </row>
+    <row r="94" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A94" s="10">
+        <v>9</v>
+      </c>
+      <c r="B94" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C94" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="E94" s="17">
+        <v>43809</v>
+      </c>
+      <c r="F94" s="7">
+        <v>4.5</v>
+      </c>
+      <c r="G94" s="7">
+        <v>5</v>
+      </c>
+      <c r="H94" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I94" s="3"/>
+    </row>
+    <row r="95" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A95" s="10">
+        <v>9</v>
+      </c>
+      <c r="B95" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C95" s="25" t="s">
+        <v>197</v>
+      </c>
+      <c r="D95" s="2"/>
+      <c r="E95" s="17">
+        <v>43810</v>
+      </c>
+      <c r="F95" s="7">
+        <v>5</v>
+      </c>
+      <c r="G95" s="7">
+        <v>5</v>
+      </c>
+      <c r="H95" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I95" s="3"/>
+    </row>
+    <row r="96" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A96" s="10">
+        <v>9</v>
+      </c>
+      <c r="B96" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C96" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="E96" s="17">
+        <v>43811</v>
+      </c>
+      <c r="F96" s="7">
         <v>4</v>
       </c>
-      <c r="B35" s="68" t="s">
+      <c r="G96" s="7">
+        <v>4</v>
+      </c>
+      <c r="H96" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I96" s="3"/>
+    </row>
+    <row r="97" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A97" s="10">
+        <v>9</v>
+      </c>
+      <c r="B97" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="C97" s="25" t="s">
+        <v>197</v>
+      </c>
+      <c r="D97" s="72" t="s">
+        <v>209</v>
+      </c>
+      <c r="E97" s="17">
+        <v>43812</v>
+      </c>
+      <c r="F97" s="7">
+        <v>5.5</v>
+      </c>
+      <c r="G97" s="7">
+        <v>5</v>
+      </c>
+      <c r="H97" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I97" s="3"/>
+    </row>
+    <row r="98" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A98" s="9"/>
+      <c r="B98" s="11"/>
+      <c r="C98" s="9"/>
+      <c r="D98" s="4"/>
+      <c r="E98" s="18"/>
+      <c r="F98" s="8"/>
+      <c r="G98" s="8"/>
+      <c r="H98" s="14"/>
+      <c r="I98" s="5"/>
+    </row>
+    <row r="99" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A99" s="102" t="s">
+        <v>15</v>
+      </c>
+      <c r="B99" s="102" t="s">
+        <v>16</v>
+      </c>
+      <c r="C99" s="103">
+        <f>SUM(F92:F98)</f>
+        <v>30</v>
+      </c>
+      <c r="D99" s="103"/>
+      <c r="E99" s="103"/>
+      <c r="F99" s="104"/>
+      <c r="G99" s="105" t="s">
+        <v>17</v>
+      </c>
+      <c r="H99" s="103">
+        <f>SUM(G92:G98)</f>
+        <v>31</v>
+      </c>
+      <c r="I99" s="104"/>
+    </row>
+    <row r="102" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A102" s="85" t="s">
+        <v>1</v>
+      </c>
+      <c r="B102" s="85" t="s">
+        <v>2</v>
+      </c>
+      <c r="C102" s="86" t="s">
+        <v>53</v>
+      </c>
+      <c r="D102" s="87" t="s">
+        <v>3</v>
+      </c>
+      <c r="E102" s="88"/>
+      <c r="F102" s="87" t="s">
+        <v>5</v>
+      </c>
+      <c r="G102" s="87" t="s">
+        <v>6</v>
+      </c>
+      <c r="H102" s="87" t="s">
+        <v>7</v>
+      </c>
+      <c r="I102" s="87" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A103" s="10">
+        <v>10</v>
+      </c>
+      <c r="B103" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C103" s="25" t="s">
+        <v>197</v>
+      </c>
+      <c r="D103" s="13"/>
+      <c r="E103" s="17">
+        <v>43814</v>
+      </c>
+      <c r="F103" s="6">
+        <v>5</v>
+      </c>
+      <c r="G103" s="6">
+        <v>5</v>
+      </c>
+      <c r="H103" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I103" s="15"/>
+    </row>
+    <row r="104" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A104" s="10">
+        <v>10</v>
+      </c>
+      <c r="B104" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C104" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="D104" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="E104" s="17">
+        <v>43815</v>
+      </c>
+      <c r="F104" s="6">
+        <v>5.5</v>
+      </c>
+      <c r="G104" s="6">
+        <v>6</v>
+      </c>
+      <c r="H104" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I104" s="15"/>
+    </row>
+    <row r="105" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A105" s="10">
+        <v>10</v>
+      </c>
+      <c r="B105" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C105" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E105" s="17">
+        <v>43816</v>
+      </c>
+      <c r="F105" s="7">
+        <v>5.5</v>
+      </c>
+      <c r="G105" s="7">
+        <v>6</v>
+      </c>
+      <c r="H105" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I105" s="3"/>
+    </row>
+    <row r="106" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A106" s="10">
+        <v>10</v>
+      </c>
+      <c r="B106" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C106" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="D106" s="2"/>
+      <c r="E106" s="17">
+        <v>43817</v>
+      </c>
+      <c r="F106" s="7">
+        <v>4</v>
+      </c>
+      <c r="G106" s="7">
+        <v>4</v>
+      </c>
+      <c r="H106" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I106" s="3"/>
+    </row>
+    <row r="107" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A107" s="10">
+        <v>10</v>
+      </c>
+      <c r="B107" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="C35" s="25"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="14"/>
-      <c r="I35" s="3"/>
-    </row>
-    <row r="36" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="10">
-        <v>4</v>
-      </c>
-      <c r="B36" s="68" t="s">
+      <c r="C107" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="E107" s="17">
+        <v>43818</v>
+      </c>
+      <c r="F107" s="7">
+        <v>6</v>
+      </c>
+      <c r="G107" s="7">
+        <v>6</v>
+      </c>
+      <c r="H107" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I107" s="3"/>
+    </row>
+    <row r="108" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A108" s="10">
+        <v>10</v>
+      </c>
+      <c r="B108" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="C36" s="25"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="16"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="14"/>
-      <c r="I36" s="3"/>
-    </row>
-    <row r="37" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="9"/>
-      <c r="B37" s="12"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="16"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="14"/>
-      <c r="I37" s="5"/>
-    </row>
-    <row r="38" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="67" t="s">
+      <c r="C108" s="25" t="s">
+        <v>197</v>
+      </c>
+      <c r="D108" s="72" t="s">
+        <v>209</v>
+      </c>
+      <c r="E108" s="17">
+        <v>43819</v>
+      </c>
+      <c r="F108" s="7">
+        <v>6</v>
+      </c>
+      <c r="G108" s="7">
+        <v>6</v>
+      </c>
+      <c r="H108" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I108" s="3"/>
+    </row>
+    <row r="109" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A109" s="9"/>
+      <c r="B109" s="11"/>
+      <c r="C109" s="9"/>
+      <c r="D109" s="4"/>
+      <c r="E109" s="18"/>
+      <c r="F109" s="8"/>
+      <c r="G109" s="8"/>
+      <c r="H109" s="14"/>
+      <c r="I109" s="5"/>
+    </row>
+    <row r="110" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A110" s="102" t="s">
         <v>15</v>
       </c>
-      <c r="B38" s="67" t="s">
+      <c r="B110" s="102" t="s">
         <v>16</v>
       </c>
-      <c r="C38" s="82">
-        <f>SUM(F31:F37)</f>
-        <v>0</v>
-      </c>
-      <c r="D38" s="82"/>
-      <c r="E38" s="82"/>
-      <c r="F38" s="83"/>
-      <c r="G38" s="66" t="s">
+      <c r="C110" s="103">
+        <f>SUM(F103:F109)</f>
+        <v>32</v>
+      </c>
+      <c r="D110" s="103"/>
+      <c r="E110" s="103"/>
+      <c r="F110" s="104"/>
+      <c r="G110" s="105" t="s">
         <v>17</v>
       </c>
-      <c r="H38" s="82">
-        <f>SUM(G31:G37)</f>
-        <v>0</v>
-      </c>
-      <c r="I38" s="83"/>
-    </row>
-    <row r="39" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="B39" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="C39" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="D39" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="E39" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="F39" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="G39" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="H39" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="I39" s="24" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="10">
-        <v>5</v>
-      </c>
-      <c r="B40" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="C40" s="25"/>
-      <c r="D40" s="13"/>
-      <c r="E40" s="18"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="6"/>
-      <c r="H40" s="14"/>
-      <c r="I40" s="15"/>
-    </row>
-    <row r="41" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="10">
-        <v>5</v>
-      </c>
-      <c r="B41" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="C41" s="25"/>
-      <c r="D41" s="13"/>
-      <c r="E41" s="19"/>
-      <c r="F41" s="6"/>
-      <c r="G41" s="6"/>
-      <c r="H41" s="14"/>
-      <c r="I41" s="15"/>
-    </row>
-    <row r="42" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="10">
-        <v>5</v>
-      </c>
-      <c r="B42" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="C42" s="25"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="17"/>
-      <c r="F42" s="7"/>
-      <c r="G42" s="7"/>
-      <c r="H42" s="14"/>
-      <c r="I42" s="3"/>
-    </row>
-    <row r="43" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="10">
-        <v>5</v>
-      </c>
-      <c r="B43" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="C43" s="25"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="19"/>
-      <c r="F43" s="7"/>
-      <c r="G43" s="7"/>
-      <c r="H43" s="14"/>
-      <c r="I43" s="3"/>
-    </row>
-    <row r="44" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="10">
-        <v>5</v>
-      </c>
-      <c r="B44" s="68" t="s">
-        <v>13</v>
-      </c>
-      <c r="C44" s="25"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="16"/>
-      <c r="F44" s="7"/>
-      <c r="G44" s="7"/>
-      <c r="H44" s="14"/>
-      <c r="I44" s="3"/>
-    </row>
-    <row r="45" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="10">
-        <v>5</v>
-      </c>
-      <c r="B45" s="68" t="s">
-        <v>14</v>
-      </c>
-      <c r="C45" s="25"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="16"/>
-      <c r="F45" s="7"/>
-      <c r="G45" s="7"/>
-      <c r="H45" s="14"/>
-      <c r="I45" s="3"/>
-    </row>
-    <row r="46" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="9"/>
-      <c r="B46" s="12"/>
-      <c r="C46" s="9"/>
-      <c r="D46" s="4"/>
-      <c r="E46" s="16"/>
-      <c r="F46" s="8"/>
-      <c r="G46" s="8"/>
-      <c r="H46" s="14"/>
-      <c r="I46" s="5"/>
-    </row>
-    <row r="47" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="67" t="s">
-        <v>15</v>
-      </c>
-      <c r="B47" s="67" t="s">
-        <v>16</v>
-      </c>
-      <c r="C47" s="82">
-        <f>SUM(F40:F46)</f>
-        <v>0</v>
-      </c>
-      <c r="D47" s="82"/>
-      <c r="E47" s="82"/>
-      <c r="F47" s="83"/>
-      <c r="G47" s="66" t="s">
-        <v>17</v>
-      </c>
-      <c r="H47" s="82">
-        <f>SUM(G40:G46)</f>
-        <v>0</v>
-      </c>
-      <c r="I47" s="83"/>
-    </row>
-    <row r="48" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="B48" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="C48" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="D48" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="E48" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="F48" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="G48" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="H48" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="I48" s="24" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="10">
-        <v>6</v>
-      </c>
-      <c r="B49" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="C49" s="25"/>
-      <c r="D49" s="13"/>
-      <c r="E49" s="18"/>
-      <c r="F49" s="6"/>
-      <c r="G49" s="6"/>
-      <c r="H49" s="14"/>
-      <c r="I49" s="15"/>
-    </row>
-    <row r="50" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="10">
-        <v>6</v>
-      </c>
-      <c r="B50" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="C50" s="25"/>
-      <c r="D50" s="13"/>
-      <c r="E50" s="19"/>
-      <c r="F50" s="6"/>
-      <c r="G50" s="6"/>
-      <c r="H50" s="14"/>
-      <c r="I50" s="15"/>
-    </row>
-    <row r="51" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="10">
-        <v>6</v>
-      </c>
-      <c r="B51" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="C51" s="25"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="17"/>
-      <c r="F51" s="7"/>
-      <c r="G51" s="7"/>
-      <c r="H51" s="14"/>
-      <c r="I51" s="3"/>
-    </row>
-    <row r="52" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="10">
-        <v>6</v>
-      </c>
-      <c r="B52" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="C52" s="25"/>
-      <c r="D52" s="2"/>
-      <c r="E52" s="19"/>
-      <c r="F52" s="7"/>
-      <c r="G52" s="7"/>
-      <c r="H52" s="14"/>
-      <c r="I52" s="3"/>
-    </row>
-    <row r="53" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="10">
-        <v>6</v>
-      </c>
-      <c r="B53" s="68" t="s">
-        <v>13</v>
-      </c>
-      <c r="C53" s="25"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="16"/>
-      <c r="F53" s="7"/>
-      <c r="G53" s="7"/>
-      <c r="H53" s="14"/>
-      <c r="I53" s="3"/>
-    </row>
-    <row r="54" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="10">
-        <v>6</v>
-      </c>
-      <c r="B54" s="68" t="s">
-        <v>14</v>
-      </c>
-      <c r="C54" s="25"/>
-      <c r="D54" s="2"/>
-      <c r="E54" s="16"/>
-      <c r="F54" s="7"/>
-      <c r="G54" s="7"/>
-      <c r="H54" s="14"/>
-      <c r="I54" s="3"/>
-    </row>
-    <row r="55" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="9"/>
-      <c r="B55" s="12"/>
-      <c r="C55" s="9"/>
-      <c r="D55" s="4"/>
-      <c r="E55" s="16"/>
-      <c r="F55" s="8"/>
-      <c r="G55" s="8"/>
-      <c r="H55" s="14"/>
-      <c r="I55" s="5"/>
-    </row>
-    <row r="56" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="67" t="s">
-        <v>15</v>
-      </c>
-      <c r="B56" s="67" t="s">
-        <v>16</v>
-      </c>
-      <c r="C56" s="82">
-        <f>SUM(F49:F55)</f>
-        <v>0</v>
-      </c>
-      <c r="D56" s="82"/>
-      <c r="E56" s="82"/>
-      <c r="F56" s="83"/>
-      <c r="G56" s="66" t="s">
-        <v>17</v>
-      </c>
-      <c r="H56" s="82">
-        <f>SUM(G49:G55)</f>
-        <v>0</v>
-      </c>
-      <c r="I56" s="83"/>
+      <c r="H110" s="103">
+        <f>SUM(G103:G109)</f>
+        <v>33</v>
+      </c>
+      <c r="I110" s="104"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="21">
+    <mergeCell ref="C99:F99"/>
+    <mergeCell ref="H99:I99"/>
+    <mergeCell ref="C110:F110"/>
+    <mergeCell ref="H110:I110"/>
+    <mergeCell ref="C66:F66"/>
+    <mergeCell ref="H66:I66"/>
+    <mergeCell ref="C77:F77"/>
+    <mergeCell ref="H77:I77"/>
+    <mergeCell ref="C88:F88"/>
+    <mergeCell ref="H88:I88"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="C44:F44"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="C55:F55"/>
+    <mergeCell ref="H55:I55"/>
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="C11:F11"/>
     <mergeCell ref="H11:I11"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="C56:F56"/>
-    <mergeCell ref="H56:I56"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="C38:F38"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="C47:F47"/>
-    <mergeCell ref="H47:I47"/>
   </mergeCells>
-  <dataValidations count="6">
-    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3 B12" xr:uid="{6FFE7BB2-A561-485E-81E9-2571AC8DE5CA}">
+  <dataValidations count="4">
+    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3 B91 B36 B25 B14 B47 B58 B69 B80 B102" xr:uid="{C2AFE1DF-95C8-450B-B31C-540BE084DFAD}">
       <formula1>B4</formula1>
       <formula2>B10</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:H10 H13:H19 H22:H28 H31:H37 H40:H46 H49:H55" xr:uid="{6631F660-441C-45AD-828B-61A224D5ADF2}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:H10 H15:H21 H26:H32 H48:H54 H37:H43 H59:H65 H70:H76 H81:H87 H92:H98 H103:H109" xr:uid="{7CFD2AB6-3325-4F5C-A8AF-0D4FD18DC444}">
       <formula1>"Done,Inprogress "</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C13:C18 C9:D9 C4:C8 C22:C27 C31:C36 C40:C45 C49:C54" xr:uid="{F3CBFF43-1EA6-4105-8193-6BB7478B8CE7}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C41 C27:C28 C49 C17:C18 C31" xr:uid="{7BE2AEF5-244D-47AB-AEA9-1372A96B88EF}">
       <formula1>"Project Management, Requirement, Architecture and Desgin, Implementation, Testing, Training, Meetting Customer, Meeting Mentor"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10 C19 C28 C37 C46 C55" xr:uid="{5A5FB21D-56FA-4666-866D-0DBF9359F400}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10 C21 C32 C54 C43 C65 C76 C87 C98 C109" xr:uid="{B34D28FD-B3F1-4571-8C1D-BD45436938B8}">
       <formula1>"Project Management, Requirement, Architecture and Desgin, Implementation, Testing, Training, Meetting Customer, Meetting Mentor"</formula1>
-    </dataValidation>
-    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B21" xr:uid="{78AB9685-9DF4-4C53-9902-EEFD9793FA61}">
-      <formula1>#REF!</formula1>
-      <formula2>B27</formula2>
-    </dataValidation>
-    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B30 B39 B48" xr:uid="{02EB827E-FEA3-4391-8CF1-4E14FD3108CB}">
-      <formula1>#REF!</formula1>
-      <formula2>B35</formula2>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8829,18 +10169,18 @@
       <selection activeCell="A21" sqref="A21:I56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" customWidth="1"/>
+    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="20" t="s">
         <v>65</v>
       </c>
@@ -8853,7 +10193,7 @@
       <c r="H1" s="21"/>
       <c r="I1" s="22"/>
     </row>
-    <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="78" t="s">
         <v>0</v>
       </c>
@@ -8866,7 +10206,7 @@
       <c r="H2" s="80"/>
       <c r="I2" s="81"/>
     </row>
-    <row r="3" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="24" t="s">
         <v>1</v>
       </c>
@@ -8895,7 +10235,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="10">
         <v>1</v>
       </c>
@@ -8920,7 +10260,7 @@
       </c>
       <c r="I4" s="15"/>
     </row>
-    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="10">
         <v>1</v>
       </c>
@@ -8931,7 +10271,7 @@
         <v>18</v>
       </c>
       <c r="D5" s="56" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E5" s="19" t="s">
         <v>67</v>
@@ -8947,7 +10287,7 @@
       </c>
       <c r="I5" s="15"/>
     </row>
-    <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -8958,7 +10298,7 @@
         <v>18</v>
       </c>
       <c r="D6" s="56" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E6" s="17" t="s">
         <v>68</v>
@@ -8974,7 +10314,7 @@
       </c>
       <c r="I6" s="3"/>
     </row>
-    <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -8985,7 +10325,7 @@
         <v>18</v>
       </c>
       <c r="D7" s="56" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E7" s="19" t="s">
         <v>69</v>
@@ -9001,7 +10341,7 @@
       </c>
       <c r="I7" s="3"/>
     </row>
-    <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>1</v>
       </c>
@@ -9026,7 +10366,7 @@
       </c>
       <c r="I8" s="3"/>
     </row>
-    <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>1</v>
       </c>
@@ -9051,41 +10391,41 @@
       </c>
       <c r="I9" s="3"/>
     </row>
-    <row r="10" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="9"/>
       <c r="B10" s="11"/>
       <c r="C10" s="9"/>
-      <c r="D10" s="59"/>
+      <c r="D10" s="58"/>
       <c r="E10" s="16"/>
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
       <c r="H10" s="14"/>
       <c r="I10" s="5"/>
     </row>
-    <row r="11" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="67" t="s">
+    <row r="11" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="67" t="s">
+      <c r="B11" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="85">
+      <c r="C11" s="83">
         <f>SUM(F4:F10)</f>
         <v>24</v>
       </c>
-      <c r="D11" s="85"/>
-      <c r="E11" s="85"/>
-      <c r="F11" s="86"/>
-      <c r="G11" s="66" t="s">
+      <c r="D11" s="83"/>
+      <c r="E11" s="83"/>
+      <c r="F11" s="84"/>
+      <c r="G11" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="85">
+      <c r="H11" s="83">
         <f>SUM(G4:G10)</f>
         <v>28</v>
       </c>
-      <c r="I11" s="86"/>
-    </row>
-    <row r="12" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I11" s="84"/>
+    </row>
+    <row r="12" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="24" t="s">
         <v>1</v>
       </c>
@@ -9114,7 +10454,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="10">
         <v>2</v>
       </c>
@@ -9125,7 +10465,7 @@
         <v>18</v>
       </c>
       <c r="D13" s="56" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E13" s="19" t="s">
         <v>71</v>
@@ -9141,7 +10481,7 @@
       </c>
       <c r="I13" s="15"/>
     </row>
-    <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="10">
         <v>2</v>
       </c>
@@ -9152,7 +10492,7 @@
         <v>18</v>
       </c>
       <c r="D14" s="56" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E14" s="17" t="s">
         <v>72</v>
@@ -9168,7 +10508,7 @@
       </c>
       <c r="I14" s="15"/>
     </row>
-    <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="10">
         <v>2</v>
       </c>
@@ -9193,7 +10533,7 @@
       </c>
       <c r="I15" s="3"/>
     </row>
-    <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="10">
         <v>2</v>
       </c>
@@ -9204,7 +10544,7 @@
         <v>18</v>
       </c>
       <c r="D16" s="57" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E16" s="16" t="s">
         <v>74</v>
@@ -9220,7 +10560,7 @@
       </c>
       <c r="I16" s="3"/>
     </row>
-    <row r="17" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="10">
         <v>2</v>
       </c>
@@ -9231,7 +10571,7 @@
         <v>18</v>
       </c>
       <c r="D17" s="57" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E17" s="16" t="s">
         <v>76</v>
@@ -9247,7 +10587,7 @@
       </c>
       <c r="I17" s="3"/>
     </row>
-    <row r="18" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="10">
         <v>2</v>
       </c>
@@ -9261,7 +10601,7 @@
         <v>82</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F18" s="1">
         <v>4</v>
@@ -9274,41 +10614,41 @@
       </c>
       <c r="I18" s="3"/>
     </row>
-    <row r="19" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="9"/>
       <c r="B19" s="11"/>
       <c r="C19" s="9"/>
-      <c r="D19" s="59"/>
+      <c r="D19" s="58"/>
       <c r="E19" s="16"/>
       <c r="F19" s="9"/>
       <c r="G19" s="9"/>
       <c r="H19" s="14"/>
       <c r="I19" s="5"/>
     </row>
-    <row r="20" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="67" t="s">
+    <row r="20" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="67" t="s">
+      <c r="B20" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="85">
+      <c r="C20" s="83">
         <f>SUM(F13:F19)</f>
         <v>27</v>
       </c>
-      <c r="D20" s="85"/>
-      <c r="E20" s="85"/>
-      <c r="F20" s="86"/>
-      <c r="G20" s="66" t="s">
+      <c r="D20" s="83"/>
+      <c r="E20" s="83"/>
+      <c r="F20" s="84"/>
+      <c r="G20" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="H20" s="85">
+      <c r="H20" s="83">
         <f>SUM(G13:G19)</f>
         <v>30</v>
       </c>
-      <c r="I20" s="86"/>
-    </row>
-    <row r="21" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I20" s="84"/>
+    </row>
+    <row r="21" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="24" t="s">
         <v>1</v>
       </c>
@@ -9337,7 +10677,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="10">
         <v>3</v>
       </c>
@@ -9352,7 +10692,7 @@
       <c r="H22" s="14"/>
       <c r="I22" s="15"/>
     </row>
-    <row r="23" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="10">
         <v>3</v>
       </c>
@@ -9367,7 +10707,7 @@
       <c r="H23" s="14"/>
       <c r="I23" s="15"/>
     </row>
-    <row r="24" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="10">
         <v>3</v>
       </c>
@@ -9382,7 +10722,7 @@
       <c r="H24" s="14"/>
       <c r="I24" s="3"/>
     </row>
-    <row r="25" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="10">
         <v>3</v>
       </c>
@@ -9397,7 +10737,7 @@
       <c r="H25" s="14"/>
       <c r="I25" s="3"/>
     </row>
-    <row r="26" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="10">
         <v>3</v>
       </c>
@@ -9412,11 +10752,11 @@
       <c r="H26" s="14"/>
       <c r="I26" s="3"/>
     </row>
-    <row r="27" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="10">
         <v>3</v>
       </c>
-      <c r="B27" s="68" t="s">
+      <c r="B27" s="65" t="s">
         <v>14</v>
       </c>
       <c r="C27" s="25"/>
@@ -9427,7 +10767,7 @@
       <c r="H27" s="14"/>
       <c r="I27" s="3"/>
     </row>
-    <row r="28" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="9"/>
       <c r="B28" s="12"/>
       <c r="C28" s="9"/>
@@ -9438,30 +10778,30 @@
       <c r="H28" s="14"/>
       <c r="I28" s="5"/>
     </row>
-    <row r="29" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="67" t="s">
+    <row r="29" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="B29" s="67" t="s">
+      <c r="B29" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="82">
+      <c r="C29" s="76">
         <f>SUM(F22:F28)</f>
         <v>0</v>
       </c>
-      <c r="D29" s="82"/>
-      <c r="E29" s="82"/>
-      <c r="F29" s="83"/>
-      <c r="G29" s="66" t="s">
+      <c r="D29" s="76"/>
+      <c r="E29" s="76"/>
+      <c r="F29" s="77"/>
+      <c r="G29" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="H29" s="82">
+      <c r="H29" s="76">
         <f>SUM(G22:G28)</f>
         <v>0</v>
       </c>
-      <c r="I29" s="83"/>
-    </row>
-    <row r="30" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I29" s="77"/>
+    </row>
+    <row r="30" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="24" t="s">
         <v>1</v>
       </c>
@@ -9490,7 +10830,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="10">
         <v>4</v>
       </c>
@@ -9505,7 +10845,7 @@
       <c r="H31" s="14"/>
       <c r="I31" s="15"/>
     </row>
-    <row r="32" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="10">
         <v>4</v>
       </c>
@@ -9520,7 +10860,7 @@
       <c r="H32" s="14"/>
       <c r="I32" s="15"/>
     </row>
-    <row r="33" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="10">
         <v>4</v>
       </c>
@@ -9535,7 +10875,7 @@
       <c r="H33" s="14"/>
       <c r="I33" s="3"/>
     </row>
-    <row r="34" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="10">
         <v>4</v>
       </c>
@@ -9550,11 +10890,11 @@
       <c r="H34" s="14"/>
       <c r="I34" s="3"/>
     </row>
-    <row r="35" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="10">
         <v>4</v>
       </c>
-      <c r="B35" s="68" t="s">
+      <c r="B35" s="65" t="s">
         <v>13</v>
       </c>
       <c r="C35" s="25"/>
@@ -9565,11 +10905,11 @@
       <c r="H35" s="14"/>
       <c r="I35" s="3"/>
     </row>
-    <row r="36" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="10">
         <v>4</v>
       </c>
-      <c r="B36" s="68" t="s">
+      <c r="B36" s="65" t="s">
         <v>14</v>
       </c>
       <c r="C36" s="25"/>
@@ -9580,7 +10920,7 @@
       <c r="H36" s="14"/>
       <c r="I36" s="3"/>
     </row>
-    <row r="37" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="9"/>
       <c r="B37" s="12"/>
       <c r="C37" s="9"/>
@@ -9591,30 +10931,30 @@
       <c r="H37" s="14"/>
       <c r="I37" s="5"/>
     </row>
-    <row r="38" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="67" t="s">
+    <row r="38" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="B38" s="67" t="s">
+      <c r="B38" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="C38" s="82">
+      <c r="C38" s="76">
         <f>SUM(F31:F37)</f>
         <v>0</v>
       </c>
-      <c r="D38" s="82"/>
-      <c r="E38" s="82"/>
-      <c r="F38" s="83"/>
-      <c r="G38" s="66" t="s">
+      <c r="D38" s="76"/>
+      <c r="E38" s="76"/>
+      <c r="F38" s="77"/>
+      <c r="G38" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="H38" s="82">
+      <c r="H38" s="76">
         <f>SUM(G31:G37)</f>
         <v>0</v>
       </c>
-      <c r="I38" s="83"/>
-    </row>
-    <row r="39" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I38" s="77"/>
+    </row>
+    <row r="39" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="24" t="s">
         <v>1</v>
       </c>
@@ -9643,7 +10983,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="10">
         <v>5</v>
       </c>
@@ -9658,7 +10998,7 @@
       <c r="H40" s="14"/>
       <c r="I40" s="15"/>
     </row>
-    <row r="41" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="10">
         <v>5</v>
       </c>
@@ -9673,7 +11013,7 @@
       <c r="H41" s="14"/>
       <c r="I41" s="15"/>
     </row>
-    <row r="42" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="10">
         <v>5</v>
       </c>
@@ -9688,7 +11028,7 @@
       <c r="H42" s="14"/>
       <c r="I42" s="3"/>
     </row>
-    <row r="43" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="10">
         <v>5</v>
       </c>
@@ -9703,11 +11043,11 @@
       <c r="H43" s="14"/>
       <c r="I43" s="3"/>
     </row>
-    <row r="44" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="10">
         <v>5</v>
       </c>
-      <c r="B44" s="68" t="s">
+      <c r="B44" s="65" t="s">
         <v>13</v>
       </c>
       <c r="C44" s="25"/>
@@ -9718,11 +11058,11 @@
       <c r="H44" s="14"/>
       <c r="I44" s="3"/>
     </row>
-    <row r="45" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" s="10">
         <v>5</v>
       </c>
-      <c r="B45" s="68" t="s">
+      <c r="B45" s="65" t="s">
         <v>14</v>
       </c>
       <c r="C45" s="25"/>
@@ -9733,7 +11073,7 @@
       <c r="H45" s="14"/>
       <c r="I45" s="3"/>
     </row>
-    <row r="46" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="9"/>
       <c r="B46" s="12"/>
       <c r="C46" s="9"/>
@@ -9744,30 +11084,30 @@
       <c r="H46" s="14"/>
       <c r="I46" s="5"/>
     </row>
-    <row r="47" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="67" t="s">
+    <row r="47" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="B47" s="67" t="s">
+      <c r="B47" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="C47" s="82">
+      <c r="C47" s="76">
         <f>SUM(F40:F46)</f>
         <v>0</v>
       </c>
-      <c r="D47" s="82"/>
-      <c r="E47" s="82"/>
-      <c r="F47" s="83"/>
-      <c r="G47" s="66" t="s">
+      <c r="D47" s="76"/>
+      <c r="E47" s="76"/>
+      <c r="F47" s="77"/>
+      <c r="G47" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="H47" s="82">
+      <c r="H47" s="76">
         <f>SUM(G40:G46)</f>
         <v>0</v>
       </c>
-      <c r="I47" s="83"/>
-    </row>
-    <row r="48" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I47" s="77"/>
+    </row>
+    <row r="48" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="24" t="s">
         <v>1</v>
       </c>
@@ -9796,7 +11136,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" s="10">
         <v>6</v>
       </c>
@@ -9811,7 +11151,7 @@
       <c r="H49" s="14"/>
       <c r="I49" s="15"/>
     </row>
-    <row r="50" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" s="10">
         <v>6</v>
       </c>
@@ -9826,7 +11166,7 @@
       <c r="H50" s="14"/>
       <c r="I50" s="15"/>
     </row>
-    <row r="51" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A51" s="10">
         <v>6</v>
       </c>
@@ -9841,7 +11181,7 @@
       <c r="H51" s="14"/>
       <c r="I51" s="3"/>
     </row>
-    <row r="52" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" s="10">
         <v>6</v>
       </c>
@@ -9856,11 +11196,11 @@
       <c r="H52" s="14"/>
       <c r="I52" s="3"/>
     </row>
-    <row r="53" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53" s="10">
         <v>6</v>
       </c>
-      <c r="B53" s="68" t="s">
+      <c r="B53" s="65" t="s">
         <v>13</v>
       </c>
       <c r="C53" s="25"/>
@@ -9871,11 +11211,11 @@
       <c r="H53" s="14"/>
       <c r="I53" s="3"/>
     </row>
-    <row r="54" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A54" s="10">
         <v>6</v>
       </c>
-      <c r="B54" s="68" t="s">
+      <c r="B54" s="65" t="s">
         <v>14</v>
       </c>
       <c r="C54" s="25"/>
@@ -9886,7 +11226,7 @@
       <c r="H54" s="14"/>
       <c r="I54" s="3"/>
     </row>
-    <row r="55" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="9"/>
       <c r="B55" s="12"/>
       <c r="C55" s="9"/>
@@ -9897,36 +11237,31 @@
       <c r="H55" s="14"/>
       <c r="I55" s="5"/>
     </row>
-    <row r="56" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="67" t="s">
+    <row r="56" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="B56" s="67" t="s">
+      <c r="B56" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="C56" s="82">
+      <c r="C56" s="76">
         <f>SUM(F49:F55)</f>
         <v>0</v>
       </c>
-      <c r="D56" s="82"/>
-      <c r="E56" s="82"/>
-      <c r="F56" s="83"/>
-      <c r="G56" s="66" t="s">
+      <c r="D56" s="76"/>
+      <c r="E56" s="76"/>
+      <c r="F56" s="77"/>
+      <c r="G56" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="H56" s="82">
+      <c r="H56" s="76">
         <f>SUM(G49:G55)</f>
         <v>0</v>
       </c>
-      <c r="I56" s="83"/>
+      <c r="I56" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="H20:I20"/>
     <mergeCell ref="C56:F56"/>
     <mergeCell ref="H56:I56"/>
     <mergeCell ref="C29:F29"/>
@@ -9935,6 +11270,11 @@
     <mergeCell ref="H38:I38"/>
     <mergeCell ref="C47:F47"/>
     <mergeCell ref="H47:I47"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="H20:I20"/>
   </mergeCells>
   <dataValidations count="6">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10 C19 C28 C37 C46 C55" xr:uid="{49E4ABBA-BF99-4A08-9146-05B03FF61551}">
@@ -9968,22 +11308,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{744DDA93-81BE-4148-9787-FFABC05BF7AA}">
   <dimension ref="A1:L83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
+    <sheetView topLeftCell="A72" workbookViewId="0">
       <selection activeCell="H79" sqref="H79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.85546875" customWidth="1"/>
-    <col min="9" max="9" width="30.7109375" customWidth="1"/>
+    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.88671875" customWidth="1"/>
+    <col min="9" max="9" width="30.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="20" t="s">
         <v>65</v>
       </c>
@@ -9996,7 +11336,7 @@
       <c r="H1" s="21"/>
       <c r="I1" s="22"/>
     </row>
-    <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="78" t="s">
         <v>0</v>
       </c>
@@ -10009,36 +11349,36 @@
       <c r="H2" s="80"/>
       <c r="I2" s="81"/>
     </row>
-    <row r="3" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="24" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="70" t="s">
+      <c r="C3" s="67" t="s">
         <v>53</v>
       </c>
-      <c r="D3" s="71" t="s">
+      <c r="D3" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="71" t="s">
+      <c r="E3" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="71" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="71" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" s="71" t="s">
+      <c r="F3" s="68" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="68" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="72" t="s">
+      <c r="I3" s="69" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="10">
         <v>1</v>
       </c>
@@ -10063,7 +11403,7 @@
       </c>
       <c r="I4" s="15"/>
     </row>
-    <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="10">
         <v>1</v>
       </c>
@@ -10074,7 +11414,7 @@
         <v>19</v>
       </c>
       <c r="D5" s="56" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E5" s="19" t="s">
         <v>67</v>
@@ -10089,9 +11429,9 @@
         <v>20</v>
       </c>
       <c r="I5" s="15"/>
-      <c r="L5" s="77"/>
-    </row>
-    <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="L5" s="74"/>
+    </row>
+    <row r="6" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -10102,7 +11442,7 @@
         <v>19</v>
       </c>
       <c r="D6" s="56" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E6" s="17" t="s">
         <v>68</v>
@@ -10118,7 +11458,7 @@
       </c>
       <c r="I6" s="3"/>
     </row>
-    <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -10129,7 +11469,7 @@
         <v>19</v>
       </c>
       <c r="D7" s="56" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E7" s="19" t="s">
         <v>69</v>
@@ -10145,7 +11485,7 @@
       </c>
       <c r="I7" s="3"/>
     </row>
-    <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>1</v>
       </c>
@@ -10170,7 +11510,7 @@
       </c>
       <c r="I8" s="3"/>
     </row>
-    <row r="9" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="45" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>1</v>
       </c>
@@ -10181,7 +11521,7 @@
         <v>19</v>
       </c>
       <c r="D9" s="57" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E9" s="16" t="s">
         <v>75</v>
@@ -10195,45 +11535,45 @@
       <c r="H9" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="I9" s="73" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I9" s="70" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="9"/>
       <c r="B10" s="11"/>
       <c r="C10" s="9"/>
-      <c r="D10" s="59"/>
+      <c r="D10" s="58"/>
       <c r="E10" s="16"/>
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
       <c r="H10" s="14"/>
       <c r="I10" s="5"/>
     </row>
-    <row r="11" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="67" t="s">
+    <row r="11" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="67" t="s">
+      <c r="B11" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="85">
+      <c r="C11" s="83">
         <f>SUM(F4:F10)</f>
         <v>27</v>
       </c>
-      <c r="D11" s="85"/>
-      <c r="E11" s="85"/>
-      <c r="F11" s="86"/>
-      <c r="G11" s="66" t="s">
+      <c r="D11" s="83"/>
+      <c r="E11" s="83"/>
+      <c r="F11" s="84"/>
+      <c r="G11" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="85">
+      <c r="H11" s="83">
         <f>SUM(G4:G10)</f>
         <v>30</v>
       </c>
-      <c r="I11" s="86"/>
-    </row>
-    <row r="12" spans="1:12" ht="15.75" x14ac:dy